--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I466"/>
+  <dimension ref="A1:I377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>270</v>
+        <v>104</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>310</v>
+        <v>126</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>355</v>
+        <v>151</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>404</v>
+        <v>180</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>459</v>
+        <v>213</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>519</v>
+        <v>251</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>585</v>
+        <v>294</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>658</v>
+        <v>343</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>736</v>
+        <v>398</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>821</v>
+        <v>460</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>913</v>
+        <v>529</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1011</v>
+        <v>606</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1117</v>
+        <v>690</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1231</v>
+        <v>783</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1352</v>
+        <v>885</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1480</v>
+        <v>996</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1617</v>
+        <v>1117</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1761</v>
+        <v>1247</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1913</v>
+        <v>1388</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2073</v>
+        <v>1538</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2241</v>
+        <v>1700</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2416</v>
+        <v>1871</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2599</v>
+        <v>2053</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>2789</v>
+        <v>2246</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2986</v>
+        <v>2448</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3191</v>
+        <v>2661</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3402</v>
+        <v>2883</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3620</v>
+        <v>3115</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>3843</v>
+        <v>3356</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>4073</v>
+        <v>3605</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4307</v>
+        <v>3862</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4547</v>
+        <v>4126</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4791</v>
+        <v>4397</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>5039</v>
+        <v>4674</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>5291</v>
+        <v>4956</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>5545</v>
+        <v>5243</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>5802</v>
+        <v>5532</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6062</v>
+        <v>5825</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>6322</v>
+        <v>6119</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>6583</v>
+        <v>6413</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6845</v>
+        <v>6707</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>7106</v>
+        <v>7000</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7367</v>
+        <v>7291</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>7626</v>
+        <v>7578</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>7884</v>
+        <v>7862</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>8138</v>
+        <v>8140</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>8390</v>
+        <v>8412</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>8638</v>
+        <v>8677</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>8882</v>
+        <v>8934</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>9122</v>
+        <v>9183</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>9356</v>
+        <v>9422</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9585</v>
+        <v>9652</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>9808</v>
+        <v>9870</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>10025</v>
+        <v>10078</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>10235</v>
+        <v>10273</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10437</v>
+        <v>10456</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10632</v>
+        <v>10626</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10820</v>
+        <v>10782</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>10999</v>
+        <v>10925</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>11169</v>
+        <v>11055</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>11331</v>
+        <v>11170</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>11484</v>
+        <v>11270</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4656,24 +4656,24 @@
         <v>43998</v>
       </c>
       <c r="B148" t="n">
-        <v>354719</v>
+        <v>354065</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>10974</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>11628</v>
+        <v>11357</v>
       </c>
       <c r="F148" t="n">
-        <v>9762</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>3733</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -4685,7 +4685,7 @@
         <v>43999</v>
       </c>
       <c r="B149" t="n">
-        <v>366482</v>
+        <v>365494</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4696,13 +4696,13 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>11763</v>
+        <v>11429</v>
       </c>
       <c r="F149" t="n">
-        <v>9903</v>
+        <v>10115</v>
       </c>
       <c r="G149" t="n">
-        <v>3721</v>
+        <v>2628</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         <v>44000</v>
       </c>
       <c r="B150" t="n">
-        <v>378370</v>
+        <v>376981</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4725,13 +4725,13 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>11888</v>
+        <v>11487</v>
       </c>
       <c r="F150" t="n">
-        <v>10034</v>
+        <v>10177</v>
       </c>
       <c r="G150" t="n">
-        <v>3708</v>
+        <v>2619</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>44001</v>
       </c>
       <c r="B151" t="n">
-        <v>390374</v>
+        <v>388511</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4754,13 +4754,13 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>12004</v>
+        <v>11530</v>
       </c>
       <c r="F151" t="n">
-        <v>10156</v>
+        <v>10225</v>
       </c>
       <c r="G151" t="n">
-        <v>3696</v>
+        <v>2610</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -4772,7 +4772,7 @@
         <v>44002</v>
       </c>
       <c r="B152" t="n">
-        <v>402484</v>
+        <v>400070</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4783,13 +4783,13 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>12110</v>
+        <v>11559</v>
       </c>
       <c r="F152" t="n">
-        <v>10268</v>
+        <v>10259</v>
       </c>
       <c r="G152" t="n">
-        <v>3683</v>
+        <v>2601</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>44003</v>
       </c>
       <c r="B153" t="n">
-        <v>414690</v>
+        <v>411645</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>12206</v>
+        <v>11575</v>
       </c>
       <c r="F153" t="n">
-        <v>10371</v>
+        <v>10278</v>
       </c>
       <c r="G153" t="n">
-        <v>3671</v>
+        <v>2593</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>44004</v>
       </c>
       <c r="B154" t="n">
-        <v>426983</v>
+        <v>423221</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4841,13 +4841,13 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>12293</v>
+        <v>11576</v>
       </c>
       <c r="F154" t="n">
-        <v>10464</v>
+        <v>10284</v>
       </c>
       <c r="G154" t="n">
-        <v>3659</v>
+        <v>2584</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         <v>44005</v>
       </c>
       <c r="B155" t="n">
-        <v>439353</v>
+        <v>434785</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4870,13 +4870,13 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>12370</v>
+        <v>11564</v>
       </c>
       <c r="F155" t="n">
-        <v>10547</v>
+        <v>10276</v>
       </c>
       <c r="G155" t="n">
-        <v>3647</v>
+        <v>2576</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>44006</v>
       </c>
       <c r="B156" t="n">
-        <v>451791</v>
+        <v>446324</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4899,13 +4899,13 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>12438</v>
+        <v>11539</v>
       </c>
       <c r="F156" t="n">
-        <v>10620</v>
+        <v>10256</v>
       </c>
       <c r="G156" t="n">
-        <v>3635</v>
+        <v>2567</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>44007</v>
       </c>
       <c r="B157" t="n">
-        <v>464286</v>
+        <v>457825</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4928,13 +4928,13 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>12495</v>
+        <v>11501</v>
       </c>
       <c r="F157" t="n">
-        <v>10683</v>
+        <v>10222</v>
       </c>
       <c r="G157" t="n">
-        <v>3623</v>
+        <v>2559</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>44008</v>
       </c>
       <c r="B158" t="n">
-        <v>476829</v>
+        <v>469276</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4957,13 +4957,13 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>12543</v>
+        <v>11451</v>
       </c>
       <c r="F158" t="n">
-        <v>10737</v>
+        <v>10175</v>
       </c>
       <c r="G158" t="n">
-        <v>3612</v>
+        <v>2551</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>44009</v>
       </c>
       <c r="B159" t="n">
-        <v>489410</v>
+        <v>480664</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4986,13 +4986,13 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>12581</v>
+        <v>11388</v>
       </c>
       <c r="F159" t="n">
-        <v>10781</v>
+        <v>10117</v>
       </c>
       <c r="G159" t="n">
-        <v>3600</v>
+        <v>2543</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>44010</v>
       </c>
       <c r="B160" t="n">
-        <v>502020</v>
+        <v>491978</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>12610</v>
+        <v>11314</v>
       </c>
       <c r="F160" t="n">
-        <v>10816</v>
+        <v>10047</v>
       </c>
       <c r="G160" t="n">
-        <v>3589</v>
+        <v>2535</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5033,7 +5033,7 @@
         <v>44011</v>
       </c>
       <c r="B161" t="n">
-        <v>514650</v>
+        <v>503207</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -5044,13 +5044,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>12630</v>
+        <v>11229</v>
       </c>
       <c r="F161" t="n">
-        <v>10841</v>
+        <v>9966</v>
       </c>
       <c r="G161" t="n">
-        <v>3578</v>
+        <v>2527</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>44012</v>
       </c>
       <c r="B162" t="n">
-        <v>527290</v>
+        <v>514340</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -5073,13 +5073,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>12640</v>
+        <v>11133</v>
       </c>
       <c r="F162" t="n">
-        <v>10857</v>
+        <v>9874</v>
       </c>
       <c r="G162" t="n">
-        <v>3566</v>
+        <v>2519</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>44013</v>
       </c>
       <c r="B163" t="n">
-        <v>539932</v>
+        <v>525367</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -5102,13 +5102,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>12642</v>
+        <v>11027</v>
       </c>
       <c r="F163" t="n">
-        <v>10864</v>
+        <v>9771</v>
       </c>
       <c r="G163" t="n">
-        <v>3555</v>
+        <v>2511</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>44014</v>
       </c>
       <c r="B164" t="n">
-        <v>552566</v>
+        <v>536278</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -5131,13 +5131,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>12634</v>
+        <v>10911</v>
       </c>
       <c r="F164" t="n">
-        <v>10862</v>
+        <v>9659</v>
       </c>
       <c r="G164" t="n">
-        <v>3544</v>
+        <v>2503</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>44015</v>
       </c>
       <c r="B165" t="n">
-        <v>565184</v>
+        <v>547064</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>12618</v>
+        <v>10786</v>
       </c>
       <c r="F165" t="n">
-        <v>10851</v>
+        <v>9538</v>
       </c>
       <c r="G165" t="n">
-        <v>3533</v>
+        <v>2495</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>44016</v>
       </c>
       <c r="B166" t="n">
-        <v>577777</v>
+        <v>557716</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -5189,13 +5189,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>12593</v>
+        <v>10652</v>
       </c>
       <c r="F166" t="n">
-        <v>10831</v>
+        <v>9408</v>
       </c>
       <c r="G166" t="n">
-        <v>3523</v>
+        <v>2488</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>44017</v>
       </c>
       <c r="B167" t="n">
-        <v>590336</v>
+        <v>568226</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>12559</v>
+        <v>10510</v>
       </c>
       <c r="F167" t="n">
-        <v>10804</v>
+        <v>9270</v>
       </c>
       <c r="G167" t="n">
-        <v>3512</v>
+        <v>2480</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>44018</v>
       </c>
       <c r="B168" t="n">
-        <v>602854</v>
+        <v>578587</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>12518</v>
+        <v>10361</v>
       </c>
       <c r="F168" t="n">
-        <v>10768</v>
+        <v>9125</v>
       </c>
       <c r="G168" t="n">
-        <v>3501</v>
+        <v>2473</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>44019</v>
       </c>
       <c r="B169" t="n">
-        <v>615323</v>
+        <v>588792</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5276,13 +5276,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>12469</v>
+        <v>10205</v>
       </c>
       <c r="F169" t="n">
-        <v>10724</v>
+        <v>8972</v>
       </c>
       <c r="G169" t="n">
-        <v>3491</v>
+        <v>2465</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>627735</v>
+        <v>598834</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12412</v>
+        <v>10042</v>
       </c>
       <c r="F170" t="n">
-        <v>10672</v>
+        <v>8813</v>
       </c>
       <c r="G170" t="n">
-        <v>3480</v>
+        <v>2458</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>640083</v>
+        <v>608708</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>12348</v>
+        <v>9874</v>
       </c>
       <c r="F171" t="n">
-        <v>10613</v>
+        <v>8649</v>
       </c>
       <c r="G171" t="n">
-        <v>3470</v>
+        <v>2451</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>652360</v>
+        <v>618408</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>12277</v>
+        <v>9700</v>
       </c>
       <c r="F172" t="n">
-        <v>10547</v>
+        <v>8478</v>
       </c>
       <c r="G172" t="n">
-        <v>3460</v>
+        <v>2444</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>664558</v>
+        <v>627929</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>12198</v>
+        <v>9521</v>
       </c>
       <c r="F173" t="n">
-        <v>10473</v>
+        <v>8303</v>
       </c>
       <c r="G173" t="n">
-        <v>3450</v>
+        <v>2436</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>676671</v>
+        <v>637267</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>12113</v>
+        <v>9338</v>
       </c>
       <c r="F174" t="n">
-        <v>10394</v>
+        <v>8124</v>
       </c>
       <c r="G174" t="n">
-        <v>3440</v>
+        <v>2429</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>688693</v>
+        <v>646418</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>12022</v>
+        <v>9151</v>
       </c>
       <c r="F175" t="n">
-        <v>10307</v>
+        <v>7940</v>
       </c>
       <c r="G175" t="n">
-        <v>3430</v>
+        <v>2422</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>700618</v>
+        <v>655379</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>11925</v>
+        <v>8961</v>
       </c>
       <c r="F176" t="n">
-        <v>10215</v>
+        <v>7754</v>
       </c>
       <c r="G176" t="n">
-        <v>3420</v>
+        <v>2415</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>712440</v>
+        <v>664148</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>11822</v>
+        <v>8769</v>
       </c>
       <c r="F177" t="n">
-        <v>10117</v>
+        <v>7564</v>
       </c>
       <c r="G177" t="n">
-        <v>3410</v>
+        <v>2408</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>724153</v>
+        <v>672721</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>11713</v>
+        <v>8573</v>
       </c>
       <c r="F178" t="n">
-        <v>10013</v>
+        <v>7373</v>
       </c>
       <c r="G178" t="n">
-        <v>3400</v>
+        <v>2401</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>735752</v>
+        <v>681097</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>11599</v>
+        <v>8376</v>
       </c>
       <c r="F179" t="n">
-        <v>9904</v>
+        <v>7179</v>
       </c>
       <c r="G179" t="n">
-        <v>3391</v>
+        <v>2395</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>747233</v>
+        <v>689275</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>11481</v>
+        <v>8178</v>
       </c>
       <c r="F180" t="n">
-        <v>9790</v>
+        <v>6984</v>
       </c>
       <c r="G180" t="n">
-        <v>3381</v>
+        <v>2388</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>758590</v>
+        <v>697253</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>11357</v>
+        <v>7978</v>
       </c>
       <c r="F181" t="n">
-        <v>9671</v>
+        <v>6788</v>
       </c>
       <c r="G181" t="n">
-        <v>3372</v>
+        <v>2381</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>769819</v>
+        <v>705031</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>11229</v>
+        <v>7778</v>
       </c>
       <c r="F182" t="n">
-        <v>9548</v>
+        <v>6591</v>
       </c>
       <c r="G182" t="n">
-        <v>3362</v>
+        <v>2375</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>780916</v>
+        <v>712609</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>11097</v>
+        <v>7578</v>
       </c>
       <c r="F183" t="n">
-        <v>9421</v>
+        <v>6394</v>
       </c>
       <c r="G183" t="n">
-        <v>3353</v>
+        <v>2368</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>791878</v>
+        <v>719987</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>10962</v>
+        <v>7378</v>
       </c>
       <c r="F184" t="n">
-        <v>9290</v>
+        <v>6197</v>
       </c>
       <c r="G184" t="n">
-        <v>3344</v>
+        <v>2362</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>802700</v>
+        <v>727165</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>10822</v>
+        <v>7178</v>
       </c>
       <c r="F185" t="n">
-        <v>9155</v>
+        <v>6000</v>
       </c>
       <c r="G185" t="n">
-        <v>3335</v>
+        <v>2355</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>813380</v>
+        <v>734144</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>10680</v>
+        <v>6979</v>
       </c>
       <c r="F186" t="n">
-        <v>9017</v>
+        <v>5805</v>
       </c>
       <c r="G186" t="n">
-        <v>3326</v>
+        <v>2349</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>823914</v>
+        <v>740925</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>10534</v>
+        <v>6781</v>
       </c>
       <c r="F187" t="n">
-        <v>8876</v>
+        <v>5610</v>
       </c>
       <c r="G187" t="n">
-        <v>3317</v>
+        <v>2342</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>834299</v>
+        <v>747510</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10385</v>
+        <v>6585</v>
       </c>
       <c r="F188" t="n">
-        <v>8732</v>
+        <v>5417</v>
       </c>
       <c r="G188" t="n">
-        <v>3308</v>
+        <v>2336</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>844533</v>
+        <v>753901</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>10234</v>
+        <v>6391</v>
       </c>
       <c r="F189" t="n">
-        <v>8585</v>
+        <v>5226</v>
       </c>
       <c r="G189" t="n">
-        <v>3299</v>
+        <v>2330</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>854614</v>
+        <v>760099</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>10081</v>
+        <v>6198</v>
       </c>
       <c r="F190" t="n">
-        <v>8436</v>
+        <v>5036</v>
       </c>
       <c r="G190" t="n">
-        <v>3290</v>
+        <v>2324</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>864540</v>
+        <v>766107</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>9926</v>
+        <v>6008</v>
       </c>
       <c r="F191" t="n">
-        <v>8285</v>
+        <v>4849</v>
       </c>
       <c r="G191" t="n">
-        <v>3281</v>
+        <v>2317</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>44042</v>
       </c>
       <c r="B192" t="n">
-        <v>874309</v>
+        <v>771927</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>9769</v>
+        <v>5820</v>
       </c>
       <c r="F192" t="n">
-        <v>8132</v>
+        <v>4664</v>
       </c>
       <c r="G192" t="n">
-        <v>3273</v>
+        <v>2311</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>44043</v>
       </c>
       <c r="B193" t="n">
-        <v>883919</v>
+        <v>777561</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>9610</v>
+        <v>5634</v>
       </c>
       <c r="F193" t="n">
-        <v>7978</v>
+        <v>4482</v>
       </c>
       <c r="G193" t="n">
-        <v>3264</v>
+        <v>2305</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>44044</v>
       </c>
       <c r="B194" t="n">
-        <v>893369</v>
+        <v>783013</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>9450</v>
+        <v>5452</v>
       </c>
       <c r="F194" t="n">
-        <v>7822</v>
+        <v>4302</v>
       </c>
       <c r="G194" t="n">
-        <v>3256</v>
+        <v>2299</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>44045</v>
       </c>
       <c r="B195" t="n">
-        <v>902658</v>
+        <v>788285</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>9289</v>
+        <v>5272</v>
       </c>
       <c r="F195" t="n">
-        <v>7665</v>
+        <v>4126</v>
       </c>
       <c r="G195" t="n">
-        <v>3247</v>
+        <v>2293</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>44046</v>
       </c>
       <c r="B196" t="n">
-        <v>911784</v>
+        <v>793381</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>9126</v>
+        <v>5096</v>
       </c>
       <c r="F196" t="n">
-        <v>7507</v>
+        <v>3952</v>
       </c>
       <c r="G196" t="n">
-        <v>3239</v>
+        <v>2287</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>44047</v>
       </c>
       <c r="B197" t="n">
-        <v>920748</v>
+        <v>798303</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>8964</v>
+        <v>4922</v>
       </c>
       <c r="F197" t="n">
-        <v>7348</v>
+        <v>3782</v>
       </c>
       <c r="G197" t="n">
-        <v>3230</v>
+        <v>2281</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>44048</v>
       </c>
       <c r="B198" t="n">
-        <v>929548</v>
+        <v>803056</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>8800</v>
+        <v>4753</v>
       </c>
       <c r="F198" t="n">
-        <v>7189</v>
+        <v>3615</v>
       </c>
       <c r="G198" t="n">
-        <v>3222</v>
+        <v>2276</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>44049</v>
       </c>
       <c r="B199" t="n">
-        <v>938185</v>
+        <v>807642</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -6146,13 +6146,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>8637</v>
+        <v>4586</v>
       </c>
       <c r="F199" t="n">
-        <v>7030</v>
+        <v>3451</v>
       </c>
       <c r="G199" t="n">
-        <v>3214</v>
+        <v>2270</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>44050</v>
       </c>
       <c r="B200" t="n">
-        <v>946658</v>
+        <v>812065</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8473</v>
+        <v>4423</v>
       </c>
       <c r="F200" t="n">
-        <v>6870</v>
+        <v>3291</v>
       </c>
       <c r="G200" t="n">
-        <v>3206</v>
+        <v>2264</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>44051</v>
       </c>
       <c r="B201" t="n">
-        <v>954967</v>
+        <v>816329</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -6204,13 +6204,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>8309</v>
+        <v>4264</v>
       </c>
       <c r="F201" t="n">
-        <v>6710</v>
+        <v>3135</v>
       </c>
       <c r="G201" t="n">
-        <v>3198</v>
+        <v>2258</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>44052</v>
       </c>
       <c r="B202" t="n">
-        <v>963113</v>
+        <v>820438</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>8146</v>
+        <v>4109</v>
       </c>
       <c r="F202" t="n">
-        <v>6551</v>
+        <v>2982</v>
       </c>
       <c r="G202" t="n">
-        <v>3190</v>
+        <v>2253</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>44053</v>
       </c>
       <c r="B203" t="n">
-        <v>971095</v>
+        <v>824395</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>7982</v>
+        <v>3957</v>
       </c>
       <c r="F203" t="n">
-        <v>6391</v>
+        <v>2833</v>
       </c>
       <c r="G203" t="n">
-        <v>3182</v>
+        <v>2247</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>44054</v>
       </c>
       <c r="B204" t="n">
-        <v>978915</v>
+        <v>828204</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>7820</v>
+        <v>3809</v>
       </c>
       <c r="F204" t="n">
-        <v>6233</v>
+        <v>2688</v>
       </c>
       <c r="G204" t="n">
-        <v>3174</v>
+        <v>2242</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>44055</v>
       </c>
       <c r="B205" t="n">
-        <v>986573</v>
+        <v>831869</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>7658</v>
+        <v>3665</v>
       </c>
       <c r="F205" t="n">
-        <v>6075</v>
+        <v>2547</v>
       </c>
       <c r="G205" t="n">
-        <v>3166</v>
+        <v>2236</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>44056</v>
       </c>
       <c r="B206" t="n">
-        <v>994070</v>
+        <v>835393</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>7497</v>
+        <v>3524</v>
       </c>
       <c r="F206" t="n">
-        <v>5917</v>
+        <v>2409</v>
       </c>
       <c r="G206" t="n">
-        <v>3158</v>
+        <v>2231</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>44057</v>
       </c>
       <c r="B207" t="n">
-        <v>1001406</v>
+        <v>838781</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>7336</v>
+        <v>3388</v>
       </c>
       <c r="F207" t="n">
-        <v>5761</v>
+        <v>2275</v>
       </c>
       <c r="G207" t="n">
-        <v>3151</v>
+        <v>2225</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>44058</v>
       </c>
       <c r="B208" t="n">
-        <v>1008583</v>
+        <v>842036</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>7177</v>
+        <v>3255</v>
       </c>
       <c r="F208" t="n">
-        <v>5606</v>
+        <v>2145</v>
       </c>
       <c r="G208" t="n">
-        <v>3143</v>
+        <v>2220</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>44059</v>
       </c>
       <c r="B209" t="n">
-        <v>1015602</v>
+        <v>845162</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>7019</v>
+        <v>3126</v>
       </c>
       <c r="F209" t="n">
-        <v>5451</v>
+        <v>2019</v>
       </c>
       <c r="G209" t="n">
-        <v>3135</v>
+        <v>2214</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>44060</v>
       </c>
       <c r="B210" t="n">
-        <v>1022464</v>
+        <v>848163</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>6862</v>
+        <v>3001</v>
       </c>
       <c r="F210" t="n">
-        <v>5298</v>
+        <v>1896</v>
       </c>
       <c r="G210" t="n">
-        <v>3128</v>
+        <v>2209</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>44061</v>
       </c>
       <c r="B211" t="n">
-        <v>1029171</v>
+        <v>851043</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>6707</v>
+        <v>2880</v>
       </c>
       <c r="F211" t="n">
-        <v>5147</v>
+        <v>1778</v>
       </c>
       <c r="G211" t="n">
-        <v>3120</v>
+        <v>2204</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>44062</v>
       </c>
       <c r="B212" t="n">
-        <v>1035724</v>
+        <v>853805</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>6553</v>
+        <v>2762</v>
       </c>
       <c r="F212" t="n">
-        <v>4997</v>
+        <v>1663</v>
       </c>
       <c r="G212" t="n">
-        <v>3113</v>
+        <v>2199</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>44063</v>
       </c>
       <c r="B213" t="n">
-        <v>1042125</v>
+        <v>856453</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>6401</v>
+        <v>2648</v>
       </c>
       <c r="F213" t="n">
-        <v>4848</v>
+        <v>1552</v>
       </c>
       <c r="G213" t="n">
-        <v>3106</v>
+        <v>2193</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>44064</v>
       </c>
       <c r="B214" t="n">
-        <v>1048375</v>
+        <v>858991</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>6250</v>
+        <v>2538</v>
       </c>
       <c r="F214" t="n">
-        <v>4701</v>
+        <v>1444</v>
       </c>
       <c r="G214" t="n">
-        <v>3098</v>
+        <v>2188</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>44065</v>
       </c>
       <c r="B215" t="n">
-        <v>1054477</v>
+        <v>861422</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6610,13 +6610,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>6102</v>
+        <v>2431</v>
       </c>
       <c r="F215" t="n">
-        <v>4556</v>
+        <v>1340</v>
       </c>
       <c r="G215" t="n">
-        <v>3091</v>
+        <v>2183</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>44066</v>
       </c>
       <c r="B216" t="n">
-        <v>1060432</v>
+        <v>863750</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>5955</v>
+        <v>2328</v>
       </c>
       <c r="F216" t="n">
-        <v>4413</v>
+        <v>1239</v>
       </c>
       <c r="G216" t="n">
-        <v>3084</v>
+        <v>2178</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>44067</v>
       </c>
       <c r="B217" t="n">
-        <v>1066241</v>
+        <v>865979</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>5809</v>
+        <v>2229</v>
       </c>
       <c r="F217" t="n">
-        <v>4271</v>
+        <v>1142</v>
       </c>
       <c r="G217" t="n">
-        <v>3077</v>
+        <v>2173</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>44068</v>
       </c>
       <c r="B218" t="n">
-        <v>1071907</v>
+        <v>868112</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>5666</v>
+        <v>2133</v>
       </c>
       <c r="F218" t="n">
-        <v>4132</v>
+        <v>1049</v>
       </c>
       <c r="G218" t="n">
-        <v>3069</v>
+        <v>2168</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44069</v>
       </c>
       <c r="B219" t="n">
-        <v>1077432</v>
+        <v>870152</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>5525</v>
+        <v>2040</v>
       </c>
       <c r="F219" t="n">
-        <v>3994</v>
+        <v>959</v>
       </c>
       <c r="G219" t="n">
-        <v>3062</v>
+        <v>2163</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>44070</v>
       </c>
       <c r="B220" t="n">
-        <v>1082818</v>
+        <v>872103</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>5386</v>
+        <v>1951</v>
       </c>
       <c r="F220" t="n">
-        <v>3858</v>
+        <v>872</v>
       </c>
       <c r="G220" t="n">
-        <v>3055</v>
+        <v>2158</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>44071</v>
       </c>
       <c r="B221" t="n">
-        <v>1088067</v>
+        <v>873967</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>5249</v>
+        <v>1864</v>
       </c>
       <c r="F221" t="n">
-        <v>3725</v>
+        <v>788</v>
       </c>
       <c r="G221" t="n">
-        <v>3048</v>
+        <v>2153</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>44072</v>
       </c>
       <c r="B222" t="n">
-        <v>1093181</v>
+        <v>875749</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>5114</v>
+        <v>1782</v>
       </c>
       <c r="F222" t="n">
-        <v>3593</v>
+        <v>708</v>
       </c>
       <c r="G222" t="n">
-        <v>3041</v>
+        <v>2148</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>44073</v>
       </c>
       <c r="B223" t="n">
-        <v>1098162</v>
+        <v>877451</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>4981</v>
+        <v>1702</v>
       </c>
       <c r="F223" t="n">
-        <v>3464</v>
+        <v>630</v>
       </c>
       <c r="G223" t="n">
-        <v>3034</v>
+        <v>2143</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>44074</v>
       </c>
       <c r="B224" t="n">
-        <v>1103013</v>
+        <v>879076</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>4851</v>
+        <v>1625</v>
       </c>
       <c r="F224" t="n">
-        <v>3337</v>
+        <v>556</v>
       </c>
       <c r="G224" t="n">
-        <v>3028</v>
+        <v>2138</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>44075</v>
       </c>
       <c r="B225" t="n">
-        <v>1107735</v>
+        <v>880627</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>4722</v>
+        <v>1551</v>
       </c>
       <c r="F225" t="n">
-        <v>3212</v>
+        <v>484</v>
       </c>
       <c r="G225" t="n">
-        <v>3021</v>
+        <v>2133</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>44076</v>
       </c>
       <c r="B226" t="n">
-        <v>1112331</v>
+        <v>882107</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>4596</v>
+        <v>1480</v>
       </c>
       <c r="F226" t="n">
-        <v>3089</v>
+        <v>415</v>
       </c>
       <c r="G226" t="n">
-        <v>3014</v>
+        <v>2129</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>44077</v>
       </c>
       <c r="B227" t="n">
-        <v>1116804</v>
+        <v>883519</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>4473</v>
+        <v>1412</v>
       </c>
       <c r="F227" t="n">
-        <v>2969</v>
+        <v>350</v>
       </c>
       <c r="G227" t="n">
-        <v>3007</v>
+        <v>2124</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>44078</v>
       </c>
       <c r="B228" t="n">
-        <v>1121155</v>
+        <v>884865</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>4351</v>
+        <v>1346</v>
       </c>
       <c r="F228" t="n">
-        <v>2851</v>
+        <v>286</v>
       </c>
       <c r="G228" t="n">
-        <v>3001</v>
+        <v>2119</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>44079</v>
       </c>
       <c r="B229" t="n">
-        <v>1125387</v>
+        <v>886148</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>4232</v>
+        <v>1283</v>
       </c>
       <c r="F229" t="n">
-        <v>2735</v>
+        <v>226</v>
       </c>
       <c r="G229" t="n">
-        <v>2994</v>
+        <v>2115</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>44080</v>
       </c>
       <c r="B230" t="n">
-        <v>1129502</v>
+        <v>887371</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>4115</v>
+        <v>1223</v>
       </c>
       <c r="F230" t="n">
-        <v>2621</v>
+        <v>168</v>
       </c>
       <c r="G230" t="n">
-        <v>2988</v>
+        <v>2110</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>44081</v>
       </c>
       <c r="B231" t="n">
-        <v>1133503</v>
+        <v>888536</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>4001</v>
+        <v>1165</v>
       </c>
       <c r="F231" t="n">
-        <v>2510</v>
+        <v>112</v>
       </c>
       <c r="G231" t="n">
-        <v>2981</v>
+        <v>2105</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>44082</v>
       </c>
       <c r="B232" t="n">
-        <v>1137391</v>
+        <v>889645</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>3888</v>
+        <v>1109</v>
       </c>
       <c r="F232" t="n">
-        <v>2401</v>
+        <v>59</v>
       </c>
       <c r="G232" t="n">
-        <v>2975</v>
+        <v>2101</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>44083</v>
       </c>
       <c r="B233" t="n">
-        <v>1141170</v>
+        <v>890701</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>3779</v>
+        <v>1056</v>
       </c>
       <c r="F233" t="n">
-        <v>2294</v>
+        <v>8</v>
       </c>
       <c r="G233" t="n">
-        <v>2968</v>
+        <v>2096</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>44084</v>
       </c>
       <c r="B234" t="n">
-        <v>1144841</v>
+        <v>891706</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>3671</v>
+        <v>1005</v>
       </c>
       <c r="F234" t="n">
-        <v>2190</v>
+        <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>2962</v>
+        <v>2051</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>44085</v>
       </c>
       <c r="B235" t="n">
-        <v>1148407</v>
+        <v>892663</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>3566</v>
+        <v>957</v>
       </c>
       <c r="F235" t="n">
-        <v>2088</v>
+        <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>2955</v>
+        <v>2000</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>44086</v>
       </c>
       <c r="B236" t="n">
-        <v>1151870</v>
+        <v>893573</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>3463</v>
+        <v>910</v>
       </c>
       <c r="F236" t="n">
-        <v>1988</v>
+        <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>2949</v>
+        <v>1951</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>44087</v>
       </c>
       <c r="B237" t="n">
-        <v>1155232</v>
+        <v>894438</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>3362</v>
+        <v>865</v>
       </c>
       <c r="F237" t="n">
-        <v>1890</v>
+        <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>2943</v>
+        <v>1905</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>44088</v>
       </c>
       <c r="B238" t="n">
-        <v>1158495</v>
+        <v>895261</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -7277,13 +7277,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>3263</v>
+        <v>823</v>
       </c>
       <c r="F238" t="n">
-        <v>1795</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>2936</v>
+        <v>1860</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>44089</v>
       </c>
       <c r="B239" t="n">
-        <v>1161662</v>
+        <v>896043</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>3167</v>
+        <v>782</v>
       </c>
       <c r="F239" t="n">
-        <v>1702</v>
+        <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>2930</v>
+        <v>1817</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>44090</v>
       </c>
       <c r="B240" t="n">
-        <v>1164735</v>
+        <v>896786</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>3073</v>
+        <v>743</v>
       </c>
       <c r="F240" t="n">
-        <v>1611</v>
+        <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>2924</v>
+        <v>1776</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>44091</v>
       </c>
       <c r="B241" t="n">
-        <v>1167716</v>
+        <v>897492</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>2981</v>
+        <v>706</v>
       </c>
       <c r="F241" t="n">
-        <v>1522</v>
+        <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>2918</v>
+        <v>1736</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>44092</v>
       </c>
       <c r="B242" t="n">
-        <v>1170608</v>
+        <v>898163</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>2892</v>
+        <v>671</v>
       </c>
       <c r="F242" t="n">
-        <v>1436</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>2912</v>
+        <v>1699</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>44093</v>
       </c>
       <c r="B243" t="n">
-        <v>1173412</v>
+        <v>898800</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>2804</v>
+        <v>637</v>
       </c>
       <c r="F243" t="n">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>2906</v>
+        <v>1663</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>44094</v>
       </c>
       <c r="B244" t="n">
-        <v>1176131</v>
+        <v>899404</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>2719</v>
+        <v>604</v>
       </c>
       <c r="F244" t="n">
-        <v>1269</v>
+        <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>2900</v>
+        <v>1628</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>44095</v>
       </c>
       <c r="B245" t="n">
-        <v>1178767</v>
+        <v>899978</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>2636</v>
+        <v>574</v>
       </c>
       <c r="F245" t="n">
-        <v>1189</v>
+        <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>2894</v>
+        <v>1596</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>44096</v>
       </c>
       <c r="B246" t="n">
-        <v>1181321</v>
+        <v>900522</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>2554</v>
+        <v>544</v>
       </c>
       <c r="F246" t="n">
-        <v>1110</v>
+        <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>2888</v>
+        <v>1564</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>44097</v>
       </c>
       <c r="B247" t="n">
-        <v>1183796</v>
+        <v>901038</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>2475</v>
+        <v>516</v>
       </c>
       <c r="F247" t="n">
-        <v>1034</v>
+        <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>2882</v>
+        <v>1534</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>44098</v>
       </c>
       <c r="B248" t="n">
-        <v>1186194</v>
+        <v>901528</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7567,13 +7567,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>2398</v>
+        <v>490</v>
       </c>
       <c r="F248" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>2876</v>
+        <v>1505</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>44099</v>
       </c>
       <c r="B249" t="n">
-        <v>1188517</v>
+        <v>901992</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>2323</v>
+        <v>464</v>
       </c>
       <c r="F249" t="n">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>2870</v>
+        <v>1478</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>44100</v>
       </c>
       <c r="B250" t="n">
-        <v>1190767</v>
+        <v>902432</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>2250</v>
+        <v>440</v>
       </c>
       <c r="F250" t="n">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>2865</v>
+        <v>1452</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>44101</v>
       </c>
       <c r="B251" t="n">
-        <v>1192946</v>
+        <v>902849</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2179</v>
+        <v>417</v>
       </c>
       <c r="F251" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>2859</v>
+        <v>1427</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -7672,7 +7672,7 @@
         <v>44102</v>
       </c>
       <c r="B252" t="n">
-        <v>1195056</v>
+        <v>903244</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7683,13 +7683,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>2110</v>
+        <v>395</v>
       </c>
       <c r="F252" t="n">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>2853</v>
+        <v>1403</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>44103</v>
       </c>
       <c r="B253" t="n">
-        <v>1197098</v>
+        <v>903618</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7712,25 +7712,30 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>2042</v>
+        <v>374</v>
       </c>
       <c r="F253" t="n">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>2847</v>
+        <v>1380</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>6436</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>End 97% on
+29 September 2020</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
         <v>44104</v>
       </c>
       <c r="B254" t="n">
-        <v>1199075</v>
+        <v>903973</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7741,13 +7746,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1977</v>
+        <v>355</v>
       </c>
       <c r="F254" t="n">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>2842</v>
+        <v>1358</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -7759,7 +7764,7 @@
         <v>44105</v>
       </c>
       <c r="B255" t="n">
-        <v>1200988</v>
+        <v>904309</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7770,13 +7775,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1913</v>
+        <v>336</v>
       </c>
       <c r="F255" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>2836</v>
+        <v>1337</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -7788,7 +7793,7 @@
         <v>44106</v>
       </c>
       <c r="B256" t="n">
-        <v>1202839</v>
+        <v>904627</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7799,13 +7804,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1851</v>
+        <v>318</v>
       </c>
       <c r="F256" t="n">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>2831</v>
+        <v>1317</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -7817,7 +7822,7 @@
         <v>44107</v>
       </c>
       <c r="B257" t="n">
-        <v>1204630</v>
+        <v>904928</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7828,13 +7833,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1791</v>
+        <v>301</v>
       </c>
       <c r="F257" t="n">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>2825</v>
+        <v>1298</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -7846,7 +7851,7 @@
         <v>44108</v>
       </c>
       <c r="B258" t="n">
-        <v>1206362</v>
+        <v>905213</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7857,13 +7862,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>1732</v>
+        <v>285</v>
       </c>
       <c r="F258" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>2819</v>
+        <v>1280</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7875,7 +7880,7 @@
         <v>44109</v>
       </c>
       <c r="B259" t="n">
-        <v>1208037</v>
+        <v>905482</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7886,13 +7891,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1675</v>
+        <v>269</v>
       </c>
       <c r="F259" t="n">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>2814</v>
+        <v>1263</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -7904,7 +7909,7 @@
         <v>44110</v>
       </c>
       <c r="B260" t="n">
-        <v>1209657</v>
+        <v>905737</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7915,13 +7920,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1620</v>
+        <v>255</v>
       </c>
       <c r="F260" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>2808</v>
+        <v>1247</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -7933,7 +7938,7 @@
         <v>44111</v>
       </c>
       <c r="B261" t="n">
-        <v>1211223</v>
+        <v>905978</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7944,13 +7949,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1566</v>
+        <v>241</v>
       </c>
       <c r="F261" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>2803</v>
+        <v>1231</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -7962,7 +7967,7 @@
         <v>44112</v>
       </c>
       <c r="B262" t="n">
-        <v>1212737</v>
+        <v>906206</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7973,13 +7978,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1514</v>
+        <v>228</v>
       </c>
       <c r="F262" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>2798</v>
+        <v>1216</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -7991,7 +7996,7 @@
         <v>44113</v>
       </c>
       <c r="B263" t="n">
-        <v>1214201</v>
+        <v>906421</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -8002,13 +8007,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1464</v>
+        <v>215</v>
       </c>
       <c r="F263" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>2792</v>
+        <v>1201</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -8020,7 +8025,7 @@
         <v>44114</v>
       </c>
       <c r="B264" t="n">
-        <v>1215616</v>
+        <v>906625</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -8031,13 +8036,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1415</v>
+        <v>204</v>
       </c>
       <c r="F264" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>2787</v>
+        <v>1188</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -8049,7 +8054,7 @@
         <v>44115</v>
       </c>
       <c r="B265" t="n">
-        <v>1216983</v>
+        <v>906817</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -8060,13 +8065,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1367</v>
+        <v>192</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>2758</v>
+        <v>1175</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -8078,7 +8083,7 @@
         <v>44116</v>
       </c>
       <c r="B266" t="n">
-        <v>1218304</v>
+        <v>906999</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -8089,13 +8094,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1321</v>
+        <v>182</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>2709</v>
+        <v>1162</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -8107,7 +8112,7 @@
         <v>44117</v>
       </c>
       <c r="B267" t="n">
-        <v>1219580</v>
+        <v>907171</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -8118,13 +8123,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1276</v>
+        <v>172</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>2662</v>
+        <v>1150</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8136,7 +8141,7 @@
         <v>44118</v>
       </c>
       <c r="B268" t="n">
-        <v>1220812</v>
+        <v>907333</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -8147,13 +8152,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1232</v>
+        <v>162</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>2615</v>
+        <v>1139</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -8165,7 +8170,7 @@
         <v>44119</v>
       </c>
       <c r="B269" t="n">
-        <v>1222002</v>
+        <v>907486</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -8176,13 +8181,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1190</v>
+        <v>153</v>
       </c>
       <c r="F269" t="n">
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>2571</v>
+        <v>1128</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -8194,7 +8199,7 @@
         <v>44120</v>
       </c>
       <c r="B270" t="n">
-        <v>1223152</v>
+        <v>907631</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8205,13 +8210,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1150</v>
+        <v>145</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>2527</v>
+        <v>1118</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8223,7 +8228,7 @@
         <v>44121</v>
       </c>
       <c r="B271" t="n">
-        <v>1224262</v>
+        <v>907768</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -8234,13 +8239,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1110</v>
+        <v>137</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>2485</v>
+        <v>1108</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8252,7 +8257,7 @@
         <v>44122</v>
       </c>
       <c r="B272" t="n">
-        <v>1225334</v>
+        <v>907897</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -8263,13 +8268,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1072</v>
+        <v>129</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>2444</v>
+        <v>1098</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8281,7 +8286,7 @@
         <v>44123</v>
       </c>
       <c r="B273" t="n">
-        <v>1226369</v>
+        <v>908019</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -8292,25 +8297,30 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1035</v>
+        <v>122</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>2405</v>
+        <v>1089</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>3861</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>End 99% on
+19 October 2020</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
         <v>44124</v>
       </c>
       <c r="B274" t="n">
-        <v>1227368</v>
+        <v>908134</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -8321,13 +8331,13 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>999</v>
+        <v>115</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>2366</v>
+        <v>1081</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -8339,7 +8349,7 @@
         <v>44125</v>
       </c>
       <c r="B275" t="n">
-        <v>1228332</v>
+        <v>908242</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -8350,13 +8360,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>964</v>
+        <v>108</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>2329</v>
+        <v>1073</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -8368,7 +8378,7 @@
         <v>44126</v>
       </c>
       <c r="B276" t="n">
-        <v>1229262</v>
+        <v>908344</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -8379,13 +8389,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>930</v>
+        <v>102</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>2293</v>
+        <v>1065</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -8397,7 +8407,7 @@
         <v>44127</v>
       </c>
       <c r="B277" t="n">
-        <v>1230159</v>
+        <v>908440</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -8408,13 +8418,13 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>897</v>
+        <v>96</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>2258</v>
+        <v>1057</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -8426,7 +8436,7 @@
         <v>44128</v>
       </c>
       <c r="B278" t="n">
-        <v>1231025</v>
+        <v>908531</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -8437,13 +8447,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>866</v>
+        <v>91</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>2223</v>
+        <v>1050</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8455,7 +8465,7 @@
         <v>44129</v>
       </c>
       <c r="B279" t="n">
-        <v>1231860</v>
+        <v>908617</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -8466,13 +8476,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>835</v>
+        <v>86</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>2190</v>
+        <v>1043</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -8484,7 +8494,7 @@
         <v>44130</v>
       </c>
       <c r="B280" t="n">
-        <v>1232666</v>
+        <v>908698</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -8495,13 +8505,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>806</v>
+        <v>81</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>2158</v>
+        <v>1036</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -8513,7 +8523,7 @@
         <v>44131</v>
       </c>
       <c r="B281" t="n">
-        <v>1233443</v>
+        <v>908774</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -8524,13 +8534,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>777</v>
+        <v>76</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>2127</v>
+        <v>1030</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -8542,7 +8552,7 @@
         <v>44132</v>
       </c>
       <c r="B282" t="n">
-        <v>1234192</v>
+        <v>908846</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -8553,13 +8563,13 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>749</v>
+        <v>72</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>2097</v>
+        <v>1024</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -8571,7 +8581,7 @@
         <v>44133</v>
       </c>
       <c r="B283" t="n">
-        <v>1234915</v>
+        <v>908914</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -8582,13 +8592,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>723</v>
+        <v>68</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>2068</v>
+        <v>1018</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -8600,7 +8610,7 @@
         <v>44134</v>
       </c>
       <c r="B284" t="n">
-        <v>1235612</v>
+        <v>908978</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -8611,13 +8621,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>697</v>
+        <v>64</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>2040</v>
+        <v>1012</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -8629,7 +8639,7 @@
         <v>44135</v>
       </c>
       <c r="B285" t="n">
-        <v>1236284</v>
+        <v>909038</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -8640,13 +8650,13 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>672</v>
+        <v>60</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>2012</v>
+        <v>1007</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -8658,7 +8668,7 @@
         <v>44136</v>
       </c>
       <c r="B286" t="n">
-        <v>1236931</v>
+        <v>909095</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8669,13 +8679,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>647</v>
+        <v>57</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>1986</v>
+        <v>1002</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -8687,7 +8697,7 @@
         <v>44137</v>
       </c>
       <c r="B287" t="n">
-        <v>1237555</v>
+        <v>909148</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -8698,13 +8708,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>624</v>
+        <v>53</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>1960</v>
+        <v>997</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -8716,7 +8726,7 @@
         <v>44138</v>
       </c>
       <c r="B288" t="n">
-        <v>1238156</v>
+        <v>909198</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -8727,13 +8737,13 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>601</v>
+        <v>50</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>1935</v>
+        <v>992</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -8745,7 +8755,7 @@
         <v>44139</v>
       </c>
       <c r="B289" t="n">
-        <v>1238736</v>
+        <v>909245</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -8756,13 +8766,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>580</v>
+        <v>47</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>1911</v>
+        <v>988</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -8774,7 +8784,7 @@
         <v>44140</v>
       </c>
       <c r="B290" t="n">
-        <v>1239295</v>
+        <v>909290</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -8785,13 +8795,13 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>559</v>
+        <v>45</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>1888</v>
+        <v>983</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -8803,7 +8813,7 @@
         <v>44141</v>
       </c>
       <c r="B291" t="n">
-        <v>1239833</v>
+        <v>909332</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8814,13 +8824,13 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>538</v>
+        <v>42</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>1865</v>
+        <v>979</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -8832,7 +8842,7 @@
         <v>44142</v>
       </c>
       <c r="B292" t="n">
-        <v>1240352</v>
+        <v>909372</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8843,13 +8853,13 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>519</v>
+        <v>40</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>1843</v>
+        <v>975</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -8861,7 +8871,7 @@
         <v>44143</v>
       </c>
       <c r="B293" t="n">
-        <v>1240852</v>
+        <v>909409</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8872,13 +8882,13 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>500</v>
+        <v>37</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>1822</v>
+        <v>971</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -8890,7 +8900,7 @@
         <v>44144</v>
       </c>
       <c r="B294" t="n">
-        <v>1241333</v>
+        <v>909444</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8901,13 +8911,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>481</v>
+        <v>35</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1801</v>
+        <v>967</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -8919,7 +8929,7 @@
         <v>44145</v>
       </c>
       <c r="B295" t="n">
-        <v>1241796</v>
+        <v>909477</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8930,13 +8940,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>463</v>
+        <v>33</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>1781</v>
+        <v>964</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -8948,7 +8958,7 @@
         <v>44146</v>
       </c>
       <c r="B296" t="n">
-        <v>1242242</v>
+        <v>909508</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8959,13 +8969,13 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>446</v>
+        <v>31</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>1762</v>
+        <v>960</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -8977,7 +8987,7 @@
         <v>44147</v>
       </c>
       <c r="B297" t="n">
-        <v>1242672</v>
+        <v>909537</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8988,30 +8998,25 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>430</v>
+        <v>29</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>1743</v>
+        <v>957</v>
       </c>
       <c r="H297" t="n">
-        <v>7212</v>
-      </c>
-      <c r="I297" t="inlineStr">
-        <is>
-          <t>End 97% on
-12 November 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
         <v>44148</v>
       </c>
       <c r="B298" t="n">
-        <v>1243086</v>
+        <v>909564</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -9022,13 +9027,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>414</v>
+        <v>27</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>1725</v>
+        <v>953</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -9040,7 +9045,7 @@
         <v>44149</v>
       </c>
       <c r="B299" t="n">
-        <v>1243485</v>
+        <v>909590</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -9051,13 +9056,13 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>399</v>
+        <v>26</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>1707</v>
+        <v>950</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -9069,7 +9074,7 @@
         <v>44150</v>
       </c>
       <c r="B300" t="n">
-        <v>1243869</v>
+        <v>909614</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -9080,13 +9085,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>384</v>
+        <v>24</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1690</v>
+        <v>947</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9098,7 +9103,7 @@
         <v>44151</v>
       </c>
       <c r="B301" t="n">
-        <v>1244238</v>
+        <v>909637</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -9109,13 +9114,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>369</v>
+        <v>23</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1674</v>
+        <v>944</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -9127,7 +9132,7 @@
         <v>44152</v>
       </c>
       <c r="B302" t="n">
-        <v>1244594</v>
+        <v>909658</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -9138,13 +9143,13 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1658</v>
+        <v>941</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -9156,7 +9161,7 @@
         <v>44153</v>
       </c>
       <c r="B303" t="n">
-        <v>1244936</v>
+        <v>909678</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -9167,13 +9172,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1642</v>
+        <v>938</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -9185,7 +9190,7 @@
         <v>44154</v>
       </c>
       <c r="B304" t="n">
-        <v>1245265</v>
+        <v>909697</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -9196,13 +9201,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1627</v>
+        <v>936</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9214,7 +9219,7 @@
         <v>44155</v>
       </c>
       <c r="B305" t="n">
-        <v>1245582</v>
+        <v>909715</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -9225,13 +9230,13 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>317</v>
+        <v>18</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1613</v>
+        <v>933</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -9243,7 +9248,7 @@
         <v>44156</v>
       </c>
       <c r="B306" t="n">
-        <v>1245887</v>
+        <v>909732</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -9254,13 +9259,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1599</v>
+        <v>930</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -9272,7 +9277,7 @@
         <v>44157</v>
       </c>
       <c r="B307" t="n">
-        <v>1246181</v>
+        <v>909748</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -9283,13 +9288,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>294</v>
+        <v>16</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1585</v>
+        <v>928</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -9301,7 +9306,7 @@
         <v>44158</v>
       </c>
       <c r="B308" t="n">
-        <v>1246464</v>
+        <v>909763</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -9312,13 +9317,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>283</v>
+        <v>15</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1572</v>
+        <v>925</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -9330,7 +9335,7 @@
         <v>44159</v>
       </c>
       <c r="B309" t="n">
-        <v>1246736</v>
+        <v>909777</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -9341,13 +9346,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>272</v>
+        <v>14</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1559</v>
+        <v>923</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -9359,7 +9364,7 @@
         <v>44160</v>
       </c>
       <c r="B310" t="n">
-        <v>1246998</v>
+        <v>909790</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -9370,13 +9375,13 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1547</v>
+        <v>921</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -9388,7 +9393,7 @@
         <v>44161</v>
       </c>
       <c r="B311" t="n">
-        <v>1247250</v>
+        <v>909802</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -9399,13 +9404,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1535</v>
+        <v>919</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9417,7 +9422,7 @@
         <v>44162</v>
       </c>
       <c r="B312" t="n">
-        <v>1247492</v>
+        <v>909814</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -9428,13 +9433,13 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1523</v>
+        <v>916</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -9446,7 +9451,7 @@
         <v>44163</v>
       </c>
       <c r="B313" t="n">
-        <v>1247725</v>
+        <v>909825</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -9457,13 +9462,13 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1512</v>
+        <v>914</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -9475,7 +9480,7 @@
         <v>44164</v>
       </c>
       <c r="B314" t="n">
-        <v>1247949</v>
+        <v>909835</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -9486,13 +9491,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1501</v>
+        <v>912</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -9504,7 +9509,7 @@
         <v>44165</v>
       </c>
       <c r="B315" t="n">
-        <v>1248164</v>
+        <v>909845</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -9515,13 +9520,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1490</v>
+        <v>910</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9533,7 +9538,7 @@
         <v>44166</v>
       </c>
       <c r="B316" t="n">
-        <v>1248371</v>
+        <v>909854</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -9544,13 +9549,13 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1480</v>
+        <v>908</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -9562,7 +9567,7 @@
         <v>44167</v>
       </c>
       <c r="B317" t="n">
-        <v>1248570</v>
+        <v>909862</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -9573,13 +9578,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1470</v>
+        <v>906</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -9591,7 +9596,7 @@
         <v>44168</v>
       </c>
       <c r="B318" t="n">
-        <v>1248762</v>
+        <v>909870</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -9602,13 +9607,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1460</v>
+        <v>904</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -9620,7 +9625,7 @@
         <v>44169</v>
       </c>
       <c r="B319" t="n">
-        <v>1248946</v>
+        <v>909877</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -9631,13 +9636,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1451</v>
+        <v>902</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -9649,7 +9654,7 @@
         <v>44170</v>
       </c>
       <c r="B320" t="n">
-        <v>1249123</v>
+        <v>909884</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -9660,13 +9665,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1442</v>
+        <v>900</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -9678,7 +9683,7 @@
         <v>44171</v>
       </c>
       <c r="B321" t="n">
-        <v>1249293</v>
+        <v>909891</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -9689,13 +9694,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>1433</v>
+        <v>898</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -9707,7 +9712,7 @@
         <v>44172</v>
       </c>
       <c r="B322" t="n">
-        <v>1249457</v>
+        <v>909897</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -9718,13 +9723,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>1425</v>
+        <v>897</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -9736,7 +9741,7 @@
         <v>44173</v>
       </c>
       <c r="B323" t="n">
-        <v>1249614</v>
+        <v>909903</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -9747,13 +9752,13 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1416</v>
+        <v>895</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -9765,7 +9770,7 @@
         <v>44174</v>
       </c>
       <c r="B324" t="n">
-        <v>1249765</v>
+        <v>909908</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -9776,13 +9781,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1408</v>
+        <v>893</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -9794,7 +9799,7 @@
         <v>44175</v>
       </c>
       <c r="B325" t="n">
-        <v>1249910</v>
+        <v>909913</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -9805,13 +9810,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1400</v>
+        <v>891</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -9823,7 +9828,7 @@
         <v>44176</v>
       </c>
       <c r="B326" t="n">
-        <v>1250050</v>
+        <v>909918</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -9834,30 +9839,25 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1393</v>
+        <v>890</v>
       </c>
       <c r="H326" t="n">
-        <v>4327</v>
-      </c>
-      <c r="I326" t="inlineStr">
-        <is>
-          <t>End 99% on
-11 December 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
         <v>44177</v>
       </c>
       <c r="B327" t="n">
-        <v>1250184</v>
+        <v>909923</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1385</v>
+        <v>888</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>44178</v>
       </c>
       <c r="B328" t="n">
-        <v>1250313</v>
+        <v>909927</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1378</v>
+        <v>886</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>44179</v>
       </c>
       <c r="B329" t="n">
-        <v>1250437</v>
+        <v>909931</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9926,13 +9926,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1371</v>
+        <v>885</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>44180</v>
       </c>
       <c r="B330" t="n">
-        <v>1250556</v>
+        <v>909935</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9955,13 +9955,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1365</v>
+        <v>883</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>44181</v>
       </c>
       <c r="B331" t="n">
-        <v>1250671</v>
+        <v>909938</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1358</v>
+        <v>882</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>44182</v>
       </c>
       <c r="B332" t="n">
-        <v>1250781</v>
+        <v>909941</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -10013,13 +10013,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1352</v>
+        <v>880</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>44183</v>
       </c>
       <c r="B333" t="n">
-        <v>1250887</v>
+        <v>909944</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -10042,13 +10042,13 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1345</v>
+        <v>879</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>44184</v>
       </c>
       <c r="B334" t="n">
-        <v>1250989</v>
+        <v>909947</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>1339</v>
+        <v>877</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>44185</v>
       </c>
       <c r="B335" t="n">
-        <v>1251087</v>
+        <v>909950</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>1334</v>
+        <v>876</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>44186</v>
       </c>
       <c r="B336" t="n">
-        <v>1251181</v>
+        <v>909953</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>1328</v>
+        <v>874</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>44187</v>
       </c>
       <c r="B337" t="n">
-        <v>1251271</v>
+        <v>909955</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>1322</v>
+        <v>873</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>44188</v>
       </c>
       <c r="B338" t="n">
-        <v>1251358</v>
+        <v>909957</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1317</v>
+        <v>871</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>44189</v>
       </c>
       <c r="B339" t="n">
-        <v>1251441</v>
+        <v>909959</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1312</v>
+        <v>870</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>44190</v>
       </c>
       <c r="B340" t="n">
-        <v>1251521</v>
+        <v>909961</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -10245,13 +10245,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>1307</v>
+        <v>868</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>44191</v>
       </c>
       <c r="B341" t="n">
-        <v>1251598</v>
+        <v>909963</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -10274,13 +10274,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>1302</v>
+        <v>867</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>44192</v>
       </c>
       <c r="B342" t="n">
-        <v>1251672</v>
+        <v>909965</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -10303,13 +10303,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1297</v>
+        <v>866</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>44193</v>
       </c>
       <c r="B343" t="n">
-        <v>1251743</v>
+        <v>909967</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -10332,13 +10332,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>1292</v>
+        <v>864</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>44194</v>
       </c>
       <c r="B344" t="n">
-        <v>1251811</v>
+        <v>909969</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1288</v>
+        <v>863</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>44195</v>
       </c>
       <c r="B345" t="n">
-        <v>1251876</v>
+        <v>909970</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1283</v>
+        <v>862</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>44196</v>
       </c>
       <c r="B346" t="n">
-        <v>1251939</v>
+        <v>909971</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -10419,13 +10419,13 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>1279</v>
+        <v>860</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>44197</v>
       </c>
       <c r="B347" t="n">
-        <v>1251999</v>
+        <v>909972</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -10448,13 +10448,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1274</v>
+        <v>859</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>44198</v>
       </c>
       <c r="B348" t="n">
-        <v>1252057</v>
+        <v>909973</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -10477,13 +10477,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>1270</v>
+        <v>858</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>44199</v>
       </c>
       <c r="B349" t="n">
-        <v>1252112</v>
+        <v>909974</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>1266</v>
+        <v>856</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>44200</v>
       </c>
       <c r="B350" t="n">
-        <v>1252165</v>
+        <v>909975</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>1262</v>
+        <v>855</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>44201</v>
       </c>
       <c r="B351" t="n">
-        <v>1252216</v>
+        <v>909976</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -10564,13 +10564,13 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1258</v>
+        <v>854</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -10582,7 +10582,7 @@
         <v>44202</v>
       </c>
       <c r="B352" t="n">
-        <v>1252265</v>
+        <v>909977</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>1255</v>
+        <v>852</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>44203</v>
       </c>
       <c r="B353" t="n">
-        <v>1252312</v>
+        <v>909978</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -10622,13 +10622,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>1251</v>
+        <v>851</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>44204</v>
       </c>
       <c r="B354" t="n">
-        <v>1252357</v>
+        <v>909979</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>1247</v>
+        <v>850</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>44205</v>
       </c>
       <c r="B355" t="n">
-        <v>1252400</v>
+        <v>909980</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>1244</v>
+        <v>849</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>44206</v>
       </c>
       <c r="B356" t="n">
-        <v>1252442</v>
+        <v>909981</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -10709,13 +10709,13 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>1241</v>
+        <v>847</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>44207</v>
       </c>
       <c r="B357" t="n">
-        <v>1252482</v>
+        <v>909982</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -10738,13 +10738,13 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1237</v>
+        <v>846</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>44208</v>
       </c>
       <c r="B358" t="n">
-        <v>1252520</v>
+        <v>909983</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -10767,13 +10767,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>1234</v>
+        <v>845</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>44209</v>
       </c>
       <c r="B359" t="n">
-        <v>1252557</v>
+        <v>909984</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -10796,13 +10796,13 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>1231</v>
+        <v>844</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>44210</v>
       </c>
       <c r="B360" t="n">
-        <v>1252592</v>
+        <v>909985</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>1227</v>
+        <v>842</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>44211</v>
       </c>
       <c r="B361" t="n">
-        <v>1252626</v>
+        <v>909986</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -10854,13 +10854,13 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>1224</v>
+        <v>841</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>44212</v>
       </c>
       <c r="B362" t="n">
-        <v>1252659</v>
+        <v>909986</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -10883,25 +10883,30 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1221</v>
+        <v>840</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>6436</v>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>No new cases on
+16 January 2021</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
         <v>44213</v>
       </c>
       <c r="B363" t="n">
-        <v>1252690</v>
+        <v>909986</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -10912,13 +10917,13 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>1218</v>
+        <v>838</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -10930,7 +10935,7 @@
         <v>44214</v>
       </c>
       <c r="B364" t="n">
-        <v>1252720</v>
+        <v>909986</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -10941,13 +10946,13 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>1216</v>
+        <v>837</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -10959,7 +10964,7 @@
         <v>44215</v>
       </c>
       <c r="B365" t="n">
-        <v>1252749</v>
+        <v>909986</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -10970,13 +10975,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>1213</v>
+        <v>836</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -10988,7 +10993,7 @@
         <v>44216</v>
       </c>
       <c r="B366" t="n">
-        <v>1252777</v>
+        <v>909986</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -10999,13 +11004,13 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>1210</v>
+        <v>835</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11017,7 +11022,7 @@
         <v>44217</v>
       </c>
       <c r="B367" t="n">
-        <v>1252804</v>
+        <v>909986</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -11028,13 +11033,13 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1207</v>
+        <v>834</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -11046,7 +11051,7 @@
         <v>44218</v>
       </c>
       <c r="B368" t="n">
-        <v>1252829</v>
+        <v>909986</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -11057,13 +11062,13 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>1204</v>
+        <v>833</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -11075,7 +11080,7 @@
         <v>44219</v>
       </c>
       <c r="B369" t="n">
-        <v>1252853</v>
+        <v>909986</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -11086,13 +11091,13 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>1202</v>
+        <v>832</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -11104,7 +11109,7 @@
         <v>44220</v>
       </c>
       <c r="B370" t="n">
-        <v>1252876</v>
+        <v>909986</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -11115,13 +11120,13 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>1199</v>
+        <v>830</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11133,7 +11138,7 @@
         <v>44221</v>
       </c>
       <c r="B371" t="n">
-        <v>1252899</v>
+        <v>909986</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -11144,13 +11149,13 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>1197</v>
+        <v>829</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11162,7 +11167,7 @@
         <v>44222</v>
       </c>
       <c r="B372" t="n">
-        <v>1252921</v>
+        <v>909986</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -11173,13 +11178,13 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>1194</v>
+        <v>828</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -11191,7 +11196,7 @@
         <v>44223</v>
       </c>
       <c r="B373" t="n">
-        <v>1252942</v>
+        <v>909986</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -11202,13 +11207,13 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>1192</v>
+        <v>827</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -11220,7 +11225,7 @@
         <v>44224</v>
       </c>
       <c r="B374" t="n">
-        <v>1252962</v>
+        <v>909986</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -11231,13 +11236,13 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>1189</v>
+        <v>826</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -11249,7 +11254,7 @@
         <v>44225</v>
       </c>
       <c r="B375" t="n">
-        <v>1252981</v>
+        <v>909986</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -11260,13 +11265,13 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>1187</v>
+        <v>825</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -11278,7 +11283,7 @@
         <v>44226</v>
       </c>
       <c r="B376" t="n">
-        <v>1252999</v>
+        <v>909986</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -11289,13 +11294,13 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>1185</v>
+        <v>824</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -11307,7 +11312,7 @@
         <v>44227</v>
       </c>
       <c r="B377" t="n">
-        <v>1253017</v>
+        <v>909986</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -11318,2604 +11323,18 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1182</v>
+        <v>823</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
-        <v>44228</v>
-      </c>
-      <c r="B378" t="n">
-        <v>1253034</v>
-      </c>
-      <c r="C378" t="n">
-        <v>0</v>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E378" t="n">
-        <v>17</v>
-      </c>
-      <c r="F378" t="n">
-        <v>0</v>
-      </c>
-      <c r="G378" t="n">
-        <v>1180</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
-        <v>44229</v>
-      </c>
-      <c r="B379" t="n">
-        <v>1253050</v>
-      </c>
-      <c r="C379" t="n">
-        <v>0</v>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E379" t="n">
-        <v>16</v>
-      </c>
-      <c r="F379" t="n">
-        <v>0</v>
-      </c>
-      <c r="G379" t="n">
-        <v>1178</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
-        <v>44230</v>
-      </c>
-      <c r="B380" t="n">
-        <v>1253066</v>
-      </c>
-      <c r="C380" t="n">
-        <v>0</v>
-      </c>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E380" t="n">
-        <v>16</v>
-      </c>
-      <c r="F380" t="n">
-        <v>0</v>
-      </c>
-      <c r="G380" t="n">
-        <v>1176</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
-        <v>44231</v>
-      </c>
-      <c r="B381" t="n">
-        <v>1253081</v>
-      </c>
-      <c r="C381" t="n">
-        <v>0</v>
-      </c>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E381" t="n">
-        <v>15</v>
-      </c>
-      <c r="F381" t="n">
-        <v>0</v>
-      </c>
-      <c r="G381" t="n">
-        <v>1173</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
-        <v>44232</v>
-      </c>
-      <c r="B382" t="n">
-        <v>1253095</v>
-      </c>
-      <c r="C382" t="n">
-        <v>0</v>
-      </c>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E382" t="n">
-        <v>14</v>
-      </c>
-      <c r="F382" t="n">
-        <v>0</v>
-      </c>
-      <c r="G382" t="n">
-        <v>1171</v>
-      </c>
-      <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
-        <v>44233</v>
-      </c>
-      <c r="B383" t="n">
-        <v>1253109</v>
-      </c>
-      <c r="C383" t="n">
-        <v>0</v>
-      </c>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E383" t="n">
-        <v>14</v>
-      </c>
-      <c r="F383" t="n">
-        <v>0</v>
-      </c>
-      <c r="G383" t="n">
-        <v>1169</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
-        <v>44234</v>
-      </c>
-      <c r="B384" t="n">
-        <v>1253122</v>
-      </c>
-      <c r="C384" t="n">
-        <v>0</v>
-      </c>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E384" t="n">
-        <v>13</v>
-      </c>
-      <c r="F384" t="n">
-        <v>0</v>
-      </c>
-      <c r="G384" t="n">
-        <v>1167</v>
-      </c>
-      <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
-        <v>44235</v>
-      </c>
-      <c r="B385" t="n">
-        <v>1253135</v>
-      </c>
-      <c r="C385" t="n">
-        <v>0</v>
-      </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E385" t="n">
-        <v>13</v>
-      </c>
-      <c r="F385" t="n">
-        <v>0</v>
-      </c>
-      <c r="G385" t="n">
-        <v>1165</v>
-      </c>
-      <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
-        <v>44236</v>
-      </c>
-      <c r="B386" t="n">
-        <v>1253147</v>
-      </c>
-      <c r="C386" t="n">
-        <v>0</v>
-      </c>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E386" t="n">
-        <v>12</v>
-      </c>
-      <c r="F386" t="n">
-        <v>0</v>
-      </c>
-      <c r="G386" t="n">
-        <v>1163</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
-        <v>44237</v>
-      </c>
-      <c r="B387" t="n">
-        <v>1253159</v>
-      </c>
-      <c r="C387" t="n">
-        <v>0</v>
-      </c>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E387" t="n">
-        <v>12</v>
-      </c>
-      <c r="F387" t="n">
-        <v>0</v>
-      </c>
-      <c r="G387" t="n">
-        <v>1161</v>
-      </c>
-      <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
-        <v>44238</v>
-      </c>
-      <c r="B388" t="n">
-        <v>1253170</v>
-      </c>
-      <c r="C388" t="n">
-        <v>0</v>
-      </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E388" t="n">
-        <v>11</v>
-      </c>
-      <c r="F388" t="n">
-        <v>0</v>
-      </c>
-      <c r="G388" t="n">
-        <v>1159</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="B389" t="n">
-        <v>1253181</v>
-      </c>
-      <c r="C389" t="n">
-        <v>0</v>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E389" t="n">
-        <v>11</v>
-      </c>
-      <c r="F389" t="n">
-        <v>0</v>
-      </c>
-      <c r="G389" t="n">
-        <v>1157</v>
-      </c>
-      <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
-        <v>44240</v>
-      </c>
-      <c r="B390" t="n">
-        <v>1253191</v>
-      </c>
-      <c r="C390" t="n">
-        <v>0</v>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E390" t="n">
-        <v>10</v>
-      </c>
-      <c r="F390" t="n">
-        <v>0</v>
-      </c>
-      <c r="G390" t="n">
-        <v>1155</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
-        <v>44241</v>
-      </c>
-      <c r="B391" t="n">
-        <v>1253201</v>
-      </c>
-      <c r="C391" t="n">
-        <v>0</v>
-      </c>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E391" t="n">
-        <v>10</v>
-      </c>
-      <c r="F391" t="n">
-        <v>0</v>
-      </c>
-      <c r="G391" t="n">
-        <v>1153</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
-        <v>44242</v>
-      </c>
-      <c r="B392" t="n">
-        <v>1253210</v>
-      </c>
-      <c r="C392" t="n">
-        <v>0</v>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E392" t="n">
-        <v>9</v>
-      </c>
-      <c r="F392" t="n">
-        <v>0</v>
-      </c>
-      <c r="G392" t="n">
-        <v>1152</v>
-      </c>
-      <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
-        <v>44243</v>
-      </c>
-      <c r="B393" t="n">
-        <v>1253219</v>
-      </c>
-      <c r="C393" t="n">
-        <v>0</v>
-      </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E393" t="n">
-        <v>9</v>
-      </c>
-      <c r="F393" t="n">
-        <v>0</v>
-      </c>
-      <c r="G393" t="n">
-        <v>1150</v>
-      </c>
-      <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
-        <v>44244</v>
-      </c>
-      <c r="B394" t="n">
-        <v>1253228</v>
-      </c>
-      <c r="C394" t="n">
-        <v>0</v>
-      </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E394" t="n">
-        <v>9</v>
-      </c>
-      <c r="F394" t="n">
-        <v>0</v>
-      </c>
-      <c r="G394" t="n">
-        <v>1148</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
-        <v>44245</v>
-      </c>
-      <c r="B395" t="n">
-        <v>1253236</v>
-      </c>
-      <c r="C395" t="n">
-        <v>0</v>
-      </c>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E395" t="n">
-        <v>8</v>
-      </c>
-      <c r="F395" t="n">
-        <v>0</v>
-      </c>
-      <c r="G395" t="n">
-        <v>1146</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
-        <v>44246</v>
-      </c>
-      <c r="B396" t="n">
-        <v>1253244</v>
-      </c>
-      <c r="C396" t="n">
-        <v>0</v>
-      </c>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E396" t="n">
-        <v>8</v>
-      </c>
-      <c r="F396" t="n">
-        <v>0</v>
-      </c>
-      <c r="G396" t="n">
-        <v>1144</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
-        <v>44247</v>
-      </c>
-      <c r="B397" t="n">
-        <v>1253252</v>
-      </c>
-      <c r="C397" t="n">
-        <v>0</v>
-      </c>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E397" t="n">
-        <v>8</v>
-      </c>
-      <c r="F397" t="n">
-        <v>0</v>
-      </c>
-      <c r="G397" t="n">
-        <v>1143</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
-        <v>44248</v>
-      </c>
-      <c r="B398" t="n">
-        <v>1253259</v>
-      </c>
-      <c r="C398" t="n">
-        <v>0</v>
-      </c>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E398" t="n">
-        <v>7</v>
-      </c>
-      <c r="F398" t="n">
-        <v>0</v>
-      </c>
-      <c r="G398" t="n">
-        <v>1141</v>
-      </c>
-      <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
-        <v>44249</v>
-      </c>
-      <c r="B399" t="n">
-        <v>1253266</v>
-      </c>
-      <c r="C399" t="n">
-        <v>0</v>
-      </c>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E399" t="n">
-        <v>7</v>
-      </c>
-      <c r="F399" t="n">
-        <v>0</v>
-      </c>
-      <c r="G399" t="n">
-        <v>1139</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
-        <v>44250</v>
-      </c>
-      <c r="B400" t="n">
-        <v>1253273</v>
-      </c>
-      <c r="C400" t="n">
-        <v>0</v>
-      </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E400" t="n">
-        <v>7</v>
-      </c>
-      <c r="F400" t="n">
-        <v>0</v>
-      </c>
-      <c r="G400" t="n">
-        <v>1137</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
-        <v>44251</v>
-      </c>
-      <c r="B401" t="n">
-        <v>1253279</v>
-      </c>
-      <c r="C401" t="n">
-        <v>0</v>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E401" t="n">
-        <v>6</v>
-      </c>
-      <c r="F401" t="n">
-        <v>0</v>
-      </c>
-      <c r="G401" t="n">
-        <v>1136</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
-        <v>44252</v>
-      </c>
-      <c r="B402" t="n">
-        <v>1253285</v>
-      </c>
-      <c r="C402" t="n">
-        <v>0</v>
-      </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E402" t="n">
-        <v>6</v>
-      </c>
-      <c r="F402" t="n">
-        <v>0</v>
-      </c>
-      <c r="G402" t="n">
-        <v>1134</v>
-      </c>
-      <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
-        <v>44253</v>
-      </c>
-      <c r="B403" t="n">
-        <v>1253291</v>
-      </c>
-      <c r="C403" t="n">
-        <v>0</v>
-      </c>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E403" t="n">
-        <v>6</v>
-      </c>
-      <c r="F403" t="n">
-        <v>0</v>
-      </c>
-      <c r="G403" t="n">
-        <v>1132</v>
-      </c>
-      <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
-        <v>44254</v>
-      </c>
-      <c r="B404" t="n">
-        <v>1253297</v>
-      </c>
-      <c r="C404" t="n">
-        <v>0</v>
-      </c>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E404" t="n">
-        <v>6</v>
-      </c>
-      <c r="F404" t="n">
-        <v>0</v>
-      </c>
-      <c r="G404" t="n">
-        <v>1131</v>
-      </c>
-      <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
-        <v>44255</v>
-      </c>
-      <c r="B405" t="n">
-        <v>1253302</v>
-      </c>
-      <c r="C405" t="n">
-        <v>0</v>
-      </c>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E405" t="n">
-        <v>5</v>
-      </c>
-      <c r="F405" t="n">
-        <v>0</v>
-      </c>
-      <c r="G405" t="n">
-        <v>1129</v>
-      </c>
-      <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
-        <v>44256</v>
-      </c>
-      <c r="B406" t="n">
-        <v>1253307</v>
-      </c>
-      <c r="C406" t="n">
-        <v>0</v>
-      </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E406" t="n">
-        <v>5</v>
-      </c>
-      <c r="F406" t="n">
-        <v>0</v>
-      </c>
-      <c r="G406" t="n">
-        <v>1127</v>
-      </c>
-      <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
-        <v>44257</v>
-      </c>
-      <c r="B407" t="n">
-        <v>1253312</v>
-      </c>
-      <c r="C407" t="n">
-        <v>0</v>
-      </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E407" t="n">
-        <v>5</v>
-      </c>
-      <c r="F407" t="n">
-        <v>0</v>
-      </c>
-      <c r="G407" t="n">
-        <v>1126</v>
-      </c>
-      <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
-        <v>44258</v>
-      </c>
-      <c r="B408" t="n">
-        <v>1253317</v>
-      </c>
-      <c r="C408" t="n">
-        <v>0</v>
-      </c>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E408" t="n">
-        <v>5</v>
-      </c>
-      <c r="F408" t="n">
-        <v>0</v>
-      </c>
-      <c r="G408" t="n">
-        <v>1124</v>
-      </c>
-      <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
-        <v>44259</v>
-      </c>
-      <c r="B409" t="n">
-        <v>1253322</v>
-      </c>
-      <c r="C409" t="n">
-        <v>0</v>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E409" t="n">
-        <v>5</v>
-      </c>
-      <c r="F409" t="n">
-        <v>0</v>
-      </c>
-      <c r="G409" t="n">
-        <v>1123</v>
-      </c>
-      <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
-        <v>44260</v>
-      </c>
-      <c r="B410" t="n">
-        <v>1253326</v>
-      </c>
-      <c r="C410" t="n">
-        <v>0</v>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E410" t="n">
-        <v>4</v>
-      </c>
-      <c r="F410" t="n">
-        <v>0</v>
-      </c>
-      <c r="G410" t="n">
-        <v>1121</v>
-      </c>
-      <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
-        <v>44261</v>
-      </c>
-      <c r="B411" t="n">
-        <v>1253330</v>
-      </c>
-      <c r="C411" t="n">
-        <v>0</v>
-      </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E411" t="n">
-        <v>4</v>
-      </c>
-      <c r="F411" t="n">
-        <v>0</v>
-      </c>
-      <c r="G411" t="n">
-        <v>1120</v>
-      </c>
-      <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
-        <v>44262</v>
-      </c>
-      <c r="B412" t="n">
-        <v>1253334</v>
-      </c>
-      <c r="C412" t="n">
-        <v>0</v>
-      </c>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E412" t="n">
-        <v>4</v>
-      </c>
-      <c r="F412" t="n">
-        <v>0</v>
-      </c>
-      <c r="G412" t="n">
-        <v>1118</v>
-      </c>
-      <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
-        <v>44263</v>
-      </c>
-      <c r="B413" t="n">
-        <v>1253338</v>
-      </c>
-      <c r="C413" t="n">
-        <v>0</v>
-      </c>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E413" t="n">
-        <v>4</v>
-      </c>
-      <c r="F413" t="n">
-        <v>0</v>
-      </c>
-      <c r="G413" t="n">
-        <v>1116</v>
-      </c>
-      <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
-        <v>44264</v>
-      </c>
-      <c r="B414" t="n">
-        <v>1253342</v>
-      </c>
-      <c r="C414" t="n">
-        <v>0</v>
-      </c>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E414" t="n">
-        <v>4</v>
-      </c>
-      <c r="F414" t="n">
-        <v>0</v>
-      </c>
-      <c r="G414" t="n">
-        <v>1115</v>
-      </c>
-      <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
-        <v>44265</v>
-      </c>
-      <c r="B415" t="n">
-        <v>1253346</v>
-      </c>
-      <c r="C415" t="n">
-        <v>0</v>
-      </c>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E415" t="n">
-        <v>4</v>
-      </c>
-      <c r="F415" t="n">
-        <v>0</v>
-      </c>
-      <c r="G415" t="n">
-        <v>1113</v>
-      </c>
-      <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
-        <v>44266</v>
-      </c>
-      <c r="B416" t="n">
-        <v>1253349</v>
-      </c>
-      <c r="C416" t="n">
-        <v>0</v>
-      </c>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E416" t="n">
-        <v>3</v>
-      </c>
-      <c r="F416" t="n">
-        <v>0</v>
-      </c>
-      <c r="G416" t="n">
-        <v>1112</v>
-      </c>
-      <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
-        <v>44267</v>
-      </c>
-      <c r="B417" t="n">
-        <v>1253352</v>
-      </c>
-      <c r="C417" t="n">
-        <v>0</v>
-      </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E417" t="n">
-        <v>3</v>
-      </c>
-      <c r="F417" t="n">
-        <v>0</v>
-      </c>
-      <c r="G417" t="n">
-        <v>1111</v>
-      </c>
-      <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
-        <v>44268</v>
-      </c>
-      <c r="B418" t="n">
-        <v>1253355</v>
-      </c>
-      <c r="C418" t="n">
-        <v>0</v>
-      </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E418" t="n">
-        <v>3</v>
-      </c>
-      <c r="F418" t="n">
-        <v>0</v>
-      </c>
-      <c r="G418" t="n">
-        <v>1109</v>
-      </c>
-      <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
-        <v>44269</v>
-      </c>
-      <c r="B419" t="n">
-        <v>1253358</v>
-      </c>
-      <c r="C419" t="n">
-        <v>0</v>
-      </c>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E419" t="n">
-        <v>3</v>
-      </c>
-      <c r="F419" t="n">
-        <v>0</v>
-      </c>
-      <c r="G419" t="n">
-        <v>1108</v>
-      </c>
-      <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
-        <v>44270</v>
-      </c>
-      <c r="B420" t="n">
-        <v>1253361</v>
-      </c>
-      <c r="C420" t="n">
-        <v>0</v>
-      </c>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E420" t="n">
-        <v>3</v>
-      </c>
-      <c r="F420" t="n">
-        <v>0</v>
-      </c>
-      <c r="G420" t="n">
-        <v>1106</v>
-      </c>
-      <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
-        <v>44271</v>
-      </c>
-      <c r="B421" t="n">
-        <v>1253364</v>
-      </c>
-      <c r="C421" t="n">
-        <v>0</v>
-      </c>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E421" t="n">
-        <v>3</v>
-      </c>
-      <c r="F421" t="n">
-        <v>0</v>
-      </c>
-      <c r="G421" t="n">
-        <v>1105</v>
-      </c>
-      <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
-        <v>44272</v>
-      </c>
-      <c r="B422" t="n">
-        <v>1253367</v>
-      </c>
-      <c r="C422" t="n">
-        <v>0</v>
-      </c>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E422" t="n">
-        <v>3</v>
-      </c>
-      <c r="F422" t="n">
-        <v>0</v>
-      </c>
-      <c r="G422" t="n">
-        <v>1103</v>
-      </c>
-      <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
-        <v>44273</v>
-      </c>
-      <c r="B423" t="n">
-        <v>1253370</v>
-      </c>
-      <c r="C423" t="n">
-        <v>0</v>
-      </c>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E423" t="n">
-        <v>3</v>
-      </c>
-      <c r="F423" t="n">
-        <v>0</v>
-      </c>
-      <c r="G423" t="n">
-        <v>1102</v>
-      </c>
-      <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
-        <v>44274</v>
-      </c>
-      <c r="B424" t="n">
-        <v>1253372</v>
-      </c>
-      <c r="C424" t="n">
-        <v>0</v>
-      </c>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E424" t="n">
-        <v>2</v>
-      </c>
-      <c r="F424" t="n">
-        <v>0</v>
-      </c>
-      <c r="G424" t="n">
-        <v>1100</v>
-      </c>
-      <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
-        <v>44275</v>
-      </c>
-      <c r="B425" t="n">
-        <v>1253374</v>
-      </c>
-      <c r="C425" t="n">
-        <v>0</v>
-      </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E425" t="n">
-        <v>2</v>
-      </c>
-      <c r="F425" t="n">
-        <v>0</v>
-      </c>
-      <c r="G425" t="n">
-        <v>1099</v>
-      </c>
-      <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
-        <v>44276</v>
-      </c>
-      <c r="B426" t="n">
-        <v>1253376</v>
-      </c>
-      <c r="C426" t="n">
-        <v>0</v>
-      </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E426" t="n">
-        <v>2</v>
-      </c>
-      <c r="F426" t="n">
-        <v>0</v>
-      </c>
-      <c r="G426" t="n">
-        <v>1098</v>
-      </c>
-      <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
-        <v>44277</v>
-      </c>
-      <c r="B427" t="n">
-        <v>1253378</v>
-      </c>
-      <c r="C427" t="n">
-        <v>0</v>
-      </c>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E427" t="n">
-        <v>2</v>
-      </c>
-      <c r="F427" t="n">
-        <v>0</v>
-      </c>
-      <c r="G427" t="n">
-        <v>1096</v>
-      </c>
-      <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
-        <v>44278</v>
-      </c>
-      <c r="B428" t="n">
-        <v>1253380</v>
-      </c>
-      <c r="C428" t="n">
-        <v>0</v>
-      </c>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E428" t="n">
-        <v>2</v>
-      </c>
-      <c r="F428" t="n">
-        <v>0</v>
-      </c>
-      <c r="G428" t="n">
-        <v>1095</v>
-      </c>
-      <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B429" t="n">
-        <v>1253382</v>
-      </c>
-      <c r="C429" t="n">
-        <v>0</v>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E429" t="n">
-        <v>2</v>
-      </c>
-      <c r="F429" t="n">
-        <v>0</v>
-      </c>
-      <c r="G429" t="n">
-        <v>1094</v>
-      </c>
-      <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
-        <v>44280</v>
-      </c>
-      <c r="B430" t="n">
-        <v>1253384</v>
-      </c>
-      <c r="C430" t="n">
-        <v>0</v>
-      </c>
-      <c r="D430" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E430" t="n">
-        <v>2</v>
-      </c>
-      <c r="F430" t="n">
-        <v>0</v>
-      </c>
-      <c r="G430" t="n">
-        <v>1092</v>
-      </c>
-      <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
-        <v>44281</v>
-      </c>
-      <c r="B431" t="n">
-        <v>1253386</v>
-      </c>
-      <c r="C431" t="n">
-        <v>0</v>
-      </c>
-      <c r="D431" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E431" t="n">
-        <v>2</v>
-      </c>
-      <c r="F431" t="n">
-        <v>0</v>
-      </c>
-      <c r="G431" t="n">
-        <v>1091</v>
-      </c>
-      <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
-        <v>44282</v>
-      </c>
-      <c r="B432" t="n">
-        <v>1253388</v>
-      </c>
-      <c r="C432" t="n">
-        <v>0</v>
-      </c>
-      <c r="D432" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E432" t="n">
-        <v>2</v>
-      </c>
-      <c r="F432" t="n">
-        <v>0</v>
-      </c>
-      <c r="G432" t="n">
-        <v>1089</v>
-      </c>
-      <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
-        <v>44283</v>
-      </c>
-      <c r="B433" t="n">
-        <v>1253390</v>
-      </c>
-      <c r="C433" t="n">
-        <v>0</v>
-      </c>
-      <c r="D433" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E433" t="n">
-        <v>2</v>
-      </c>
-      <c r="F433" t="n">
-        <v>0</v>
-      </c>
-      <c r="G433" t="n">
-        <v>1088</v>
-      </c>
-      <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
-        <v>44284</v>
-      </c>
-      <c r="B434" t="n">
-        <v>1253392</v>
-      </c>
-      <c r="C434" t="n">
-        <v>0</v>
-      </c>
-      <c r="D434" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E434" t="n">
-        <v>2</v>
-      </c>
-      <c r="F434" t="n">
-        <v>0</v>
-      </c>
-      <c r="G434" t="n">
-        <v>1087</v>
-      </c>
-      <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
-        <v>44285</v>
-      </c>
-      <c r="B435" t="n">
-        <v>1253394</v>
-      </c>
-      <c r="C435" t="n">
-        <v>0</v>
-      </c>
-      <c r="D435" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E435" t="n">
-        <v>2</v>
-      </c>
-      <c r="F435" t="n">
-        <v>0</v>
-      </c>
-      <c r="G435" t="n">
-        <v>1086</v>
-      </c>
-      <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
-        <v>44286</v>
-      </c>
-      <c r="B436" t="n">
-        <v>1253395</v>
-      </c>
-      <c r="C436" t="n">
-        <v>0</v>
-      </c>
-      <c r="D436" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E436" t="n">
-        <v>1</v>
-      </c>
-      <c r="F436" t="n">
-        <v>0</v>
-      </c>
-      <c r="G436" t="n">
-        <v>1084</v>
-      </c>
-      <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="B437" t="n">
-        <v>1253396</v>
-      </c>
-      <c r="C437" t="n">
-        <v>0</v>
-      </c>
-      <c r="D437" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E437" t="n">
-        <v>1</v>
-      </c>
-      <c r="F437" t="n">
-        <v>0</v>
-      </c>
-      <c r="G437" t="n">
-        <v>1083</v>
-      </c>
-      <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
-        <v>44288</v>
-      </c>
-      <c r="B438" t="n">
-        <v>1253397</v>
-      </c>
-      <c r="C438" t="n">
-        <v>0</v>
-      </c>
-      <c r="D438" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E438" t="n">
-        <v>1</v>
-      </c>
-      <c r="F438" t="n">
-        <v>0</v>
-      </c>
-      <c r="G438" t="n">
-        <v>1082</v>
-      </c>
-      <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
-        <v>44289</v>
-      </c>
-      <c r="B439" t="n">
-        <v>1253398</v>
-      </c>
-      <c r="C439" t="n">
-        <v>0</v>
-      </c>
-      <c r="D439" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E439" t="n">
-        <v>1</v>
-      </c>
-      <c r="F439" t="n">
-        <v>0</v>
-      </c>
-      <c r="G439" t="n">
-        <v>1080</v>
-      </c>
-      <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
-        <v>44290</v>
-      </c>
-      <c r="B440" t="n">
-        <v>1253399</v>
-      </c>
-      <c r="C440" t="n">
-        <v>0</v>
-      </c>
-      <c r="D440" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E440" t="n">
-        <v>1</v>
-      </c>
-      <c r="F440" t="n">
-        <v>0</v>
-      </c>
-      <c r="G440" t="n">
-        <v>1079</v>
-      </c>
-      <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
-        <v>44291</v>
-      </c>
-      <c r="B441" t="n">
-        <v>1253400</v>
-      </c>
-      <c r="C441" t="n">
-        <v>0</v>
-      </c>
-      <c r="D441" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E441" t="n">
-        <v>1</v>
-      </c>
-      <c r="F441" t="n">
-        <v>0</v>
-      </c>
-      <c r="G441" t="n">
-        <v>1078</v>
-      </c>
-      <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
-        <v>44292</v>
-      </c>
-      <c r="B442" t="n">
-        <v>1253401</v>
-      </c>
-      <c r="C442" t="n">
-        <v>0</v>
-      </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E442" t="n">
-        <v>1</v>
-      </c>
-      <c r="F442" t="n">
-        <v>0</v>
-      </c>
-      <c r="G442" t="n">
-        <v>1076</v>
-      </c>
-      <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
-        <v>44293</v>
-      </c>
-      <c r="B443" t="n">
-        <v>1253402</v>
-      </c>
-      <c r="C443" t="n">
-        <v>0</v>
-      </c>
-      <c r="D443" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E443" t="n">
-        <v>1</v>
-      </c>
-      <c r="F443" t="n">
-        <v>0</v>
-      </c>
-      <c r="G443" t="n">
-        <v>1075</v>
-      </c>
-      <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
-        <v>44294</v>
-      </c>
-      <c r="B444" t="n">
-        <v>1253403</v>
-      </c>
-      <c r="C444" t="n">
-        <v>0</v>
-      </c>
-      <c r="D444" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E444" t="n">
-        <v>1</v>
-      </c>
-      <c r="F444" t="n">
-        <v>0</v>
-      </c>
-      <c r="G444" t="n">
-        <v>1074</v>
-      </c>
-      <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
-        <v>44295</v>
-      </c>
-      <c r="B445" t="n">
-        <v>1253404</v>
-      </c>
-      <c r="C445" t="n">
-        <v>0</v>
-      </c>
-      <c r="D445" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E445" t="n">
-        <v>1</v>
-      </c>
-      <c r="F445" t="n">
-        <v>0</v>
-      </c>
-      <c r="G445" t="n">
-        <v>1073</v>
-      </c>
-      <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
-        <v>44296</v>
-      </c>
-      <c r="B446" t="n">
-        <v>1253405</v>
-      </c>
-      <c r="C446" t="n">
-        <v>0</v>
-      </c>
-      <c r="D446" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E446" t="n">
-        <v>1</v>
-      </c>
-      <c r="F446" t="n">
-        <v>0</v>
-      </c>
-      <c r="G446" t="n">
-        <v>1071</v>
-      </c>
-      <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
-        <v>44297</v>
-      </c>
-      <c r="B447" t="n">
-        <v>1253406</v>
-      </c>
-      <c r="C447" t="n">
-        <v>0</v>
-      </c>
-      <c r="D447" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E447" t="n">
-        <v>1</v>
-      </c>
-      <c r="F447" t="n">
-        <v>0</v>
-      </c>
-      <c r="G447" t="n">
-        <v>1070</v>
-      </c>
-      <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
-        <v>44298</v>
-      </c>
-      <c r="B448" t="n">
-        <v>1253407</v>
-      </c>
-      <c r="C448" t="n">
-        <v>0</v>
-      </c>
-      <c r="D448" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E448" t="n">
-        <v>1</v>
-      </c>
-      <c r="F448" t="n">
-        <v>0</v>
-      </c>
-      <c r="G448" t="n">
-        <v>1069</v>
-      </c>
-      <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
-        <v>44299</v>
-      </c>
-      <c r="B449" t="n">
-        <v>1253408</v>
-      </c>
-      <c r="C449" t="n">
-        <v>0</v>
-      </c>
-      <c r="D449" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E449" t="n">
-        <v>1</v>
-      </c>
-      <c r="F449" t="n">
-        <v>0</v>
-      </c>
-      <c r="G449" t="n">
-        <v>1068</v>
-      </c>
-      <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
-        <v>44300</v>
-      </c>
-      <c r="B450" t="n">
-        <v>1253409</v>
-      </c>
-      <c r="C450" t="n">
-        <v>0</v>
-      </c>
-      <c r="D450" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E450" t="n">
-        <v>1</v>
-      </c>
-      <c r="F450" t="n">
-        <v>0</v>
-      </c>
-      <c r="G450" t="n">
-        <v>1066</v>
-      </c>
-      <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
-        <v>44301</v>
-      </c>
-      <c r="B451" t="n">
-        <v>1253410</v>
-      </c>
-      <c r="C451" t="n">
-        <v>0</v>
-      </c>
-      <c r="D451" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E451" t="n">
-        <v>1</v>
-      </c>
-      <c r="F451" t="n">
-        <v>0</v>
-      </c>
-      <c r="G451" t="n">
-        <v>1065</v>
-      </c>
-      <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
-        <v>44302</v>
-      </c>
-      <c r="B452" t="n">
-        <v>1253411</v>
-      </c>
-      <c r="C452" t="n">
-        <v>0</v>
-      </c>
-      <c r="D452" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E452" t="n">
-        <v>1</v>
-      </c>
-      <c r="F452" t="n">
-        <v>0</v>
-      </c>
-      <c r="G452" t="n">
-        <v>1064</v>
-      </c>
-      <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
-        <v>44303</v>
-      </c>
-      <c r="B453" t="n">
-        <v>1253412</v>
-      </c>
-      <c r="C453" t="n">
-        <v>0</v>
-      </c>
-      <c r="D453" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E453" t="n">
-        <v>1</v>
-      </c>
-      <c r="F453" t="n">
-        <v>0</v>
-      </c>
-      <c r="G453" t="n">
-        <v>1063</v>
-      </c>
-      <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
-        <v>44304</v>
-      </c>
-      <c r="B454" t="n">
-        <v>1253413</v>
-      </c>
-      <c r="C454" t="n">
-        <v>0</v>
-      </c>
-      <c r="D454" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E454" t="n">
-        <v>1</v>
-      </c>
-      <c r="F454" t="n">
-        <v>0</v>
-      </c>
-      <c r="G454" t="n">
-        <v>1062</v>
-      </c>
-      <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
-        <v>44305</v>
-      </c>
-      <c r="B455" t="n">
-        <v>1253414</v>
-      </c>
-      <c r="C455" t="n">
-        <v>0</v>
-      </c>
-      <c r="D455" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E455" t="n">
-        <v>1</v>
-      </c>
-      <c r="F455" t="n">
-        <v>0</v>
-      </c>
-      <c r="G455" t="n">
-        <v>1060</v>
-      </c>
-      <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
-        <v>44306</v>
-      </c>
-      <c r="B456" t="n">
-        <v>1253415</v>
-      </c>
-      <c r="C456" t="n">
-        <v>0</v>
-      </c>
-      <c r="D456" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E456" t="n">
-        <v>1</v>
-      </c>
-      <c r="F456" t="n">
-        <v>0</v>
-      </c>
-      <c r="G456" t="n">
-        <v>1059</v>
-      </c>
-      <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
-        <v>44307</v>
-      </c>
-      <c r="B457" t="n">
-        <v>1253416</v>
-      </c>
-      <c r="C457" t="n">
-        <v>0</v>
-      </c>
-      <c r="D457" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E457" t="n">
-        <v>1</v>
-      </c>
-      <c r="F457" t="n">
-        <v>0</v>
-      </c>
-      <c r="G457" t="n">
-        <v>1058</v>
-      </c>
-      <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
-        <v>44308</v>
-      </c>
-      <c r="B458" t="n">
-        <v>1253417</v>
-      </c>
-      <c r="C458" t="n">
-        <v>0</v>
-      </c>
-      <c r="D458" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E458" t="n">
-        <v>1</v>
-      </c>
-      <c r="F458" t="n">
-        <v>0</v>
-      </c>
-      <c r="G458" t="n">
-        <v>1057</v>
-      </c>
-      <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
-        <v>44309</v>
-      </c>
-      <c r="B459" t="n">
-        <v>1253418</v>
-      </c>
-      <c r="C459" t="n">
-        <v>0</v>
-      </c>
-      <c r="D459" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E459" t="n">
-        <v>1</v>
-      </c>
-      <c r="F459" t="n">
-        <v>0</v>
-      </c>
-      <c r="G459" t="n">
-        <v>1056</v>
-      </c>
-      <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
-        <v>44310</v>
-      </c>
-      <c r="B460" t="n">
-        <v>1253419</v>
-      </c>
-      <c r="C460" t="n">
-        <v>0</v>
-      </c>
-      <c r="D460" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E460" t="n">
-        <v>1</v>
-      </c>
-      <c r="F460" t="n">
-        <v>0</v>
-      </c>
-      <c r="G460" t="n">
-        <v>1054</v>
-      </c>
-      <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
-        <v>44311</v>
-      </c>
-      <c r="B461" t="n">
-        <v>1253420</v>
-      </c>
-      <c r="C461" t="n">
-        <v>0</v>
-      </c>
-      <c r="D461" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E461" t="n">
-        <v>1</v>
-      </c>
-      <c r="F461" t="n">
-        <v>0</v>
-      </c>
-      <c r="G461" t="n">
-        <v>1053</v>
-      </c>
-      <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
-        <v>44312</v>
-      </c>
-      <c r="B462" t="n">
-        <v>1253421</v>
-      </c>
-      <c r="C462" t="n">
-        <v>0</v>
-      </c>
-      <c r="D462" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E462" t="n">
-        <v>1</v>
-      </c>
-      <c r="F462" t="n">
-        <v>0</v>
-      </c>
-      <c r="G462" t="n">
-        <v>1052</v>
-      </c>
-      <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
-        <v>44313</v>
-      </c>
-      <c r="B463" t="n">
-        <v>1253421</v>
-      </c>
-      <c r="C463" t="n">
-        <v>0</v>
-      </c>
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E463" t="n">
-        <v>0</v>
-      </c>
-      <c r="F463" t="n">
-        <v>0</v>
-      </c>
-      <c r="G463" t="n">
-        <v>1051</v>
-      </c>
-      <c r="H463" t="n">
-        <v>7212</v>
-      </c>
-      <c r="I463" t="inlineStr">
-        <is>
-          <t>No new cases on
-27 April 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
-        <v>44314</v>
-      </c>
-      <c r="B464" t="n">
-        <v>1253421</v>
-      </c>
-      <c r="C464" t="n">
-        <v>0</v>
-      </c>
-      <c r="D464" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E464" t="n">
-        <v>0</v>
-      </c>
-      <c r="F464" t="n">
-        <v>0</v>
-      </c>
-      <c r="G464" t="n">
-        <v>1049</v>
-      </c>
-      <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
-        <v>44315</v>
-      </c>
-      <c r="B465" t="n">
-        <v>1253421</v>
-      </c>
-      <c r="C465" t="n">
-        <v>0</v>
-      </c>
-      <c r="D465" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E465" t="n">
-        <v>0</v>
-      </c>
-      <c r="F465" t="n">
-        <v>0</v>
-      </c>
-      <c r="G465" t="n">
-        <v>1048</v>
-      </c>
-      <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
-        <v>44316</v>
-      </c>
-      <c r="B466" t="n">
-        <v>1253421</v>
-      </c>
-      <c r="C466" t="n">
-        <v>0</v>
-      </c>
-      <c r="D466" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E466" t="n">
-        <v>0</v>
-      </c>
-      <c r="F466" t="n">
-        <v>0</v>
-      </c>
-      <c r="G466" t="n">
-        <v>1047</v>
-      </c>
-      <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I377"/>
+  <dimension ref="A1:I436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>213</v>
+        <v>327</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>251</v>
+        <v>375</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>294</v>
+        <v>430</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>343</v>
+        <v>489</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>398</v>
+        <v>556</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>460</v>
+        <v>628</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>529</v>
+        <v>708</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>606</v>
+        <v>794</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>690</v>
+        <v>888</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>783</v>
+        <v>990</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>885</v>
+        <v>1100</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>996</v>
+        <v>1218</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1117</v>
+        <v>1345</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1247</v>
+        <v>1480</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1388</v>
+        <v>1623</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1538</v>
+        <v>1776</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1700</v>
+        <v>1937</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1871</v>
+        <v>2107</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2053</v>
+        <v>2285</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>2246</v>
+        <v>2473</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2448</v>
+        <v>2668</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>2661</v>
+        <v>2872</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>2883</v>
+        <v>3084</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3115</v>
+        <v>3304</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>3356</v>
+        <v>3532</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>3605</v>
+        <v>3766</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3862</v>
+        <v>4007</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4126</v>
+        <v>4255</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4397</v>
+        <v>4508</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>4674</v>
+        <v>4766</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>4956</v>
+        <v>5029</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>5243</v>
+        <v>5296</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>5532</v>
+        <v>5567</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>5825</v>
+        <v>5840</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>6119</v>
+        <v>6116</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>6413</v>
+        <v>6393</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6707</v>
+        <v>6671</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>7000</v>
+        <v>6950</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7291</v>
+        <v>7227</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>7578</v>
+        <v>7504</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>7862</v>
+        <v>7779</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>8140</v>
+        <v>8051</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>8412</v>
+        <v>8320</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>8677</v>
+        <v>8585</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>8934</v>
+        <v>8846</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>9183</v>
+        <v>9102</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>9422</v>
+        <v>9352</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9652</v>
+        <v>9595</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>9870</v>
+        <v>9832</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>10078</v>
+        <v>10061</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>10273</v>
+        <v>10282</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10456</v>
+        <v>10495</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10626</v>
+        <v>10699</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10782</v>
+        <v>10894</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>10925</v>
+        <v>11079</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>11055</v>
+        <v>11254</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>11170</v>
+        <v>11419</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>11270</v>
+        <v>11573</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>11357</v>
+        <v>11717</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4685,24 +4685,24 @@
         <v>43999</v>
       </c>
       <c r="B149" t="n">
-        <v>365494</v>
+        <v>366946</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>12881</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>11429</v>
+        <v>11850</v>
       </c>
       <c r="F149" t="n">
-        <v>10115</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>2628</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         <v>44000</v>
       </c>
       <c r="B150" t="n">
-        <v>376981</v>
+        <v>378918</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4725,13 +4725,13 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>11487</v>
+        <v>11972</v>
       </c>
       <c r="F150" t="n">
-        <v>10177</v>
+        <v>10220</v>
       </c>
       <c r="G150" t="n">
-        <v>2619</v>
+        <v>3503</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>44001</v>
       </c>
       <c r="B151" t="n">
-        <v>388511</v>
+        <v>391000</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4754,13 +4754,13 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>11530</v>
+        <v>12082</v>
       </c>
       <c r="F151" t="n">
-        <v>10225</v>
+        <v>10337</v>
       </c>
       <c r="G151" t="n">
-        <v>2610</v>
+        <v>3491</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -4772,7 +4772,7 @@
         <v>44002</v>
       </c>
       <c r="B152" t="n">
-        <v>400070</v>
+        <v>403182</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4783,13 +4783,13 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11559</v>
+        <v>12182</v>
       </c>
       <c r="F152" t="n">
-        <v>10259</v>
+        <v>10442</v>
       </c>
       <c r="G152" t="n">
-        <v>2601</v>
+        <v>3480</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>44003</v>
       </c>
       <c r="B153" t="n">
-        <v>411645</v>
+        <v>415451</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>11575</v>
+        <v>12269</v>
       </c>
       <c r="F153" t="n">
-        <v>10278</v>
+        <v>10536</v>
       </c>
       <c r="G153" t="n">
-        <v>2593</v>
+        <v>3468</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>44004</v>
       </c>
       <c r="B154" t="n">
-        <v>423221</v>
+        <v>427797</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4841,13 +4841,13 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>11576</v>
+        <v>12346</v>
       </c>
       <c r="F154" t="n">
-        <v>10284</v>
+        <v>10618</v>
       </c>
       <c r="G154" t="n">
-        <v>2584</v>
+        <v>3457</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         <v>44005</v>
       </c>
       <c r="B155" t="n">
-        <v>434785</v>
+        <v>440208</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4870,13 +4870,13 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>11564</v>
+        <v>12411</v>
       </c>
       <c r="F155" t="n">
-        <v>10276</v>
+        <v>10689</v>
       </c>
       <c r="G155" t="n">
-        <v>2576</v>
+        <v>3445</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>44006</v>
       </c>
       <c r="B156" t="n">
-        <v>446324</v>
+        <v>452673</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4899,13 +4899,13 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>11539</v>
+        <v>12465</v>
       </c>
       <c r="F156" t="n">
-        <v>10256</v>
+        <v>10748</v>
       </c>
       <c r="G156" t="n">
-        <v>2567</v>
+        <v>3434</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>44007</v>
       </c>
       <c r="B157" t="n">
-        <v>457825</v>
+        <v>465181</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4928,13 +4928,13 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>11501</v>
+        <v>12508</v>
       </c>
       <c r="F157" t="n">
-        <v>10222</v>
+        <v>10796</v>
       </c>
       <c r="G157" t="n">
-        <v>2559</v>
+        <v>3423</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>44008</v>
       </c>
       <c r="B158" t="n">
-        <v>469276</v>
+        <v>477720</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4957,13 +4957,13 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>11451</v>
+        <v>12539</v>
       </c>
       <c r="F158" t="n">
-        <v>10175</v>
+        <v>10833</v>
       </c>
       <c r="G158" t="n">
-        <v>2551</v>
+        <v>3412</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>44009</v>
       </c>
       <c r="B159" t="n">
-        <v>480664</v>
+        <v>490280</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4986,13 +4986,13 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>11388</v>
+        <v>12560</v>
       </c>
       <c r="F159" t="n">
-        <v>10117</v>
+        <v>10859</v>
       </c>
       <c r="G159" t="n">
-        <v>2543</v>
+        <v>3401</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>44010</v>
       </c>
       <c r="B160" t="n">
-        <v>491978</v>
+        <v>502850</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>11314</v>
+        <v>12570</v>
       </c>
       <c r="F160" t="n">
-        <v>10047</v>
+        <v>10875</v>
       </c>
       <c r="G160" t="n">
-        <v>2535</v>
+        <v>3390</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5033,7 +5033,7 @@
         <v>44011</v>
       </c>
       <c r="B161" t="n">
-        <v>503207</v>
+        <v>515419</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -5044,13 +5044,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>11229</v>
+        <v>12569</v>
       </c>
       <c r="F161" t="n">
-        <v>9966</v>
+        <v>10879</v>
       </c>
       <c r="G161" t="n">
-        <v>2527</v>
+        <v>3380</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>44012</v>
       </c>
       <c r="B162" t="n">
-        <v>514340</v>
+        <v>527976</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -5073,13 +5073,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>11133</v>
+        <v>12557</v>
       </c>
       <c r="F162" t="n">
-        <v>9874</v>
+        <v>10873</v>
       </c>
       <c r="G162" t="n">
-        <v>2519</v>
+        <v>3369</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>44013</v>
       </c>
       <c r="B163" t="n">
-        <v>525367</v>
+        <v>540512</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -5102,13 +5102,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>11027</v>
+        <v>12536</v>
       </c>
       <c r="F163" t="n">
-        <v>9771</v>
+        <v>10857</v>
       </c>
       <c r="G163" t="n">
-        <v>2511</v>
+        <v>3359</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>44014</v>
       </c>
       <c r="B164" t="n">
-        <v>536278</v>
+        <v>553016</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -5131,13 +5131,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>10911</v>
+        <v>12504</v>
       </c>
       <c r="F164" t="n">
-        <v>9659</v>
+        <v>10830</v>
       </c>
       <c r="G164" t="n">
-        <v>2503</v>
+        <v>3348</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>44015</v>
       </c>
       <c r="B165" t="n">
-        <v>547064</v>
+        <v>565479</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>10786</v>
+        <v>12463</v>
       </c>
       <c r="F165" t="n">
-        <v>9538</v>
+        <v>10794</v>
       </c>
       <c r="G165" t="n">
-        <v>2495</v>
+        <v>3338</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>44016</v>
       </c>
       <c r="B166" t="n">
-        <v>557716</v>
+        <v>577891</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -5189,13 +5189,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>10652</v>
+        <v>12412</v>
       </c>
       <c r="F166" t="n">
-        <v>9408</v>
+        <v>10748</v>
       </c>
       <c r="G166" t="n">
-        <v>2488</v>
+        <v>3328</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>44017</v>
       </c>
       <c r="B167" t="n">
-        <v>568226</v>
+        <v>590243</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>10510</v>
+        <v>12352</v>
       </c>
       <c r="F167" t="n">
-        <v>9270</v>
+        <v>10693</v>
       </c>
       <c r="G167" t="n">
-        <v>2480</v>
+        <v>3318</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>44018</v>
       </c>
       <c r="B168" t="n">
-        <v>578587</v>
+        <v>602526</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>10361</v>
+        <v>12283</v>
       </c>
       <c r="F168" t="n">
-        <v>9125</v>
+        <v>10629</v>
       </c>
       <c r="G168" t="n">
-        <v>2473</v>
+        <v>3308</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>44019</v>
       </c>
       <c r="B169" t="n">
-        <v>588792</v>
+        <v>614732</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5276,13 +5276,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>10205</v>
+        <v>12206</v>
       </c>
       <c r="F169" t="n">
-        <v>8972</v>
+        <v>10557</v>
       </c>
       <c r="G169" t="n">
-        <v>2465</v>
+        <v>3298</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>598834</v>
+        <v>626852</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10042</v>
+        <v>12120</v>
       </c>
       <c r="F170" t="n">
-        <v>8813</v>
+        <v>10476</v>
       </c>
       <c r="G170" t="n">
-        <v>2458</v>
+        <v>3288</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>608708</v>
+        <v>638879</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>9874</v>
+        <v>12027</v>
       </c>
       <c r="F171" t="n">
-        <v>8649</v>
+        <v>10388</v>
       </c>
       <c r="G171" t="n">
-        <v>2451</v>
+        <v>3278</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>618408</v>
+        <v>650805</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9700</v>
+        <v>11926</v>
       </c>
       <c r="F172" t="n">
-        <v>8478</v>
+        <v>10292</v>
       </c>
       <c r="G172" t="n">
-        <v>2444</v>
+        <v>3268</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>627929</v>
+        <v>662623</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>9521</v>
+        <v>11818</v>
       </c>
       <c r="F173" t="n">
-        <v>8303</v>
+        <v>10188</v>
       </c>
       <c r="G173" t="n">
-        <v>2436</v>
+        <v>3259</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>637267</v>
+        <v>674326</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>9338</v>
+        <v>11703</v>
       </c>
       <c r="F174" t="n">
-        <v>8124</v>
+        <v>10078</v>
       </c>
       <c r="G174" t="n">
-        <v>2429</v>
+        <v>3249</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>646418</v>
+        <v>685907</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>9151</v>
+        <v>11581</v>
       </c>
       <c r="F175" t="n">
-        <v>7940</v>
+        <v>9961</v>
       </c>
       <c r="G175" t="n">
-        <v>2422</v>
+        <v>3240</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>655379</v>
+        <v>697361</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>8961</v>
+        <v>11454</v>
       </c>
       <c r="F176" t="n">
-        <v>7754</v>
+        <v>9838</v>
       </c>
       <c r="G176" t="n">
-        <v>2415</v>
+        <v>3231</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>664148</v>
+        <v>708681</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>8769</v>
+        <v>11320</v>
       </c>
       <c r="F177" t="n">
-        <v>7564</v>
+        <v>9710</v>
       </c>
       <c r="G177" t="n">
-        <v>2408</v>
+        <v>3221</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>672721</v>
+        <v>719863</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>8573</v>
+        <v>11182</v>
       </c>
       <c r="F178" t="n">
-        <v>7373</v>
+        <v>9575</v>
       </c>
       <c r="G178" t="n">
-        <v>2401</v>
+        <v>3212</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>681097</v>
+        <v>730901</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>8376</v>
+        <v>11038</v>
       </c>
       <c r="F179" t="n">
-        <v>7179</v>
+        <v>9436</v>
       </c>
       <c r="G179" t="n">
-        <v>2395</v>
+        <v>3203</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>689275</v>
+        <v>741790</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>8178</v>
+        <v>10889</v>
       </c>
       <c r="F180" t="n">
-        <v>6984</v>
+        <v>9292</v>
       </c>
       <c r="G180" t="n">
-        <v>2388</v>
+        <v>3194</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>697253</v>
+        <v>752526</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7978</v>
+        <v>10736</v>
       </c>
       <c r="F181" t="n">
-        <v>6788</v>
+        <v>9144</v>
       </c>
       <c r="G181" t="n">
-        <v>2381</v>
+        <v>3185</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>705031</v>
+        <v>763106</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>7778</v>
+        <v>10580</v>
       </c>
       <c r="F182" t="n">
-        <v>6591</v>
+        <v>8992</v>
       </c>
       <c r="G182" t="n">
-        <v>2375</v>
+        <v>3176</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>712609</v>
+        <v>773525</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>7578</v>
+        <v>10419</v>
       </c>
       <c r="F183" t="n">
-        <v>6394</v>
+        <v>8836</v>
       </c>
       <c r="G183" t="n">
-        <v>2368</v>
+        <v>3168</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>719987</v>
+        <v>783781</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>7378</v>
+        <v>10256</v>
       </c>
       <c r="F184" t="n">
-        <v>6197</v>
+        <v>8676</v>
       </c>
       <c r="G184" t="n">
-        <v>2362</v>
+        <v>3159</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>727165</v>
+        <v>793870</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>7178</v>
+        <v>10089</v>
       </c>
       <c r="F185" t="n">
-        <v>6000</v>
+        <v>8514</v>
       </c>
       <c r="G185" t="n">
-        <v>2355</v>
+        <v>3150</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>734144</v>
+        <v>803790</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>6979</v>
+        <v>9920</v>
       </c>
       <c r="F186" t="n">
-        <v>5805</v>
+        <v>8349</v>
       </c>
       <c r="G186" t="n">
-        <v>2349</v>
+        <v>3142</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>740925</v>
+        <v>813538</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>6781</v>
+        <v>9748</v>
       </c>
       <c r="F187" t="n">
-        <v>5610</v>
+        <v>8181</v>
       </c>
       <c r="G187" t="n">
-        <v>2342</v>
+        <v>3133</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>747510</v>
+        <v>823112</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6585</v>
+        <v>9574</v>
       </c>
       <c r="F188" t="n">
-        <v>5417</v>
+        <v>8012</v>
       </c>
       <c r="G188" t="n">
-        <v>2336</v>
+        <v>3125</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>753901</v>
+        <v>832511</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>6391</v>
+        <v>9399</v>
       </c>
       <c r="F189" t="n">
-        <v>5226</v>
+        <v>7841</v>
       </c>
       <c r="G189" t="n">
-        <v>2330</v>
+        <v>3116</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>760099</v>
+        <v>841733</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>6198</v>
+        <v>9222</v>
       </c>
       <c r="F190" t="n">
-        <v>5036</v>
+        <v>7668</v>
       </c>
       <c r="G190" t="n">
-        <v>2324</v>
+        <v>3108</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>766107</v>
+        <v>850777</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>6008</v>
+        <v>9044</v>
       </c>
       <c r="F191" t="n">
-        <v>4849</v>
+        <v>7494</v>
       </c>
       <c r="G191" t="n">
-        <v>2317</v>
+        <v>3100</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>44042</v>
       </c>
       <c r="B192" t="n">
-        <v>771927</v>
+        <v>859642</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>5820</v>
+        <v>8865</v>
       </c>
       <c r="F192" t="n">
-        <v>4664</v>
+        <v>7319</v>
       </c>
       <c r="G192" t="n">
-        <v>2311</v>
+        <v>3092</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>44043</v>
       </c>
       <c r="B193" t="n">
-        <v>777561</v>
+        <v>868328</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>5634</v>
+        <v>8686</v>
       </c>
       <c r="F193" t="n">
-        <v>4482</v>
+        <v>7144</v>
       </c>
       <c r="G193" t="n">
-        <v>2305</v>
+        <v>3084</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>44044</v>
       </c>
       <c r="B194" t="n">
-        <v>783013</v>
+        <v>876834</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>5452</v>
+        <v>8506</v>
       </c>
       <c r="F194" t="n">
-        <v>4302</v>
+        <v>6968</v>
       </c>
       <c r="G194" t="n">
-        <v>2299</v>
+        <v>3075</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>44045</v>
       </c>
       <c r="B195" t="n">
-        <v>788285</v>
+        <v>885160</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>5272</v>
+        <v>8326</v>
       </c>
       <c r="F195" t="n">
-        <v>4126</v>
+        <v>6792</v>
       </c>
       <c r="G195" t="n">
-        <v>2293</v>
+        <v>3068</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>44046</v>
       </c>
       <c r="B196" t="n">
-        <v>793381</v>
+        <v>893306</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>5096</v>
+        <v>8146</v>
       </c>
       <c r="F196" t="n">
-        <v>3952</v>
+        <v>6616</v>
       </c>
       <c r="G196" t="n">
-        <v>2287</v>
+        <v>3060</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>44047</v>
       </c>
       <c r="B197" t="n">
-        <v>798303</v>
+        <v>901272</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>4922</v>
+        <v>7966</v>
       </c>
       <c r="F197" t="n">
-        <v>3782</v>
+        <v>6440</v>
       </c>
       <c r="G197" t="n">
-        <v>2281</v>
+        <v>3052</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>44048</v>
       </c>
       <c r="B198" t="n">
-        <v>803056</v>
+        <v>909059</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>4753</v>
+        <v>7787</v>
       </c>
       <c r="F198" t="n">
-        <v>3615</v>
+        <v>6265</v>
       </c>
       <c r="G198" t="n">
-        <v>2276</v>
+        <v>3044</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>44049</v>
       </c>
       <c r="B199" t="n">
-        <v>807642</v>
+        <v>916668</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -6146,13 +6146,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>4586</v>
+        <v>7609</v>
       </c>
       <c r="F199" t="n">
-        <v>3451</v>
+        <v>6091</v>
       </c>
       <c r="G199" t="n">
-        <v>2270</v>
+        <v>3036</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>44050</v>
       </c>
       <c r="B200" t="n">
-        <v>812065</v>
+        <v>924100</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4423</v>
+        <v>7432</v>
       </c>
       <c r="F200" t="n">
-        <v>3291</v>
+        <v>5917</v>
       </c>
       <c r="G200" t="n">
-        <v>2264</v>
+        <v>3029</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>44051</v>
       </c>
       <c r="B201" t="n">
-        <v>816329</v>
+        <v>931355</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -6204,13 +6204,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>4264</v>
+        <v>7255</v>
       </c>
       <c r="F201" t="n">
-        <v>3135</v>
+        <v>5745</v>
       </c>
       <c r="G201" t="n">
-        <v>2258</v>
+        <v>3021</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>44052</v>
       </c>
       <c r="B202" t="n">
-        <v>820438</v>
+        <v>938435</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>4109</v>
+        <v>7080</v>
       </c>
       <c r="F202" t="n">
-        <v>2982</v>
+        <v>5574</v>
       </c>
       <c r="G202" t="n">
-        <v>2253</v>
+        <v>3013</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>44053</v>
       </c>
       <c r="B203" t="n">
-        <v>824395</v>
+        <v>945342</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>3957</v>
+        <v>6907</v>
       </c>
       <c r="F203" t="n">
-        <v>2833</v>
+        <v>5404</v>
       </c>
       <c r="G203" t="n">
-        <v>2247</v>
+        <v>3006</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>44054</v>
       </c>
       <c r="B204" t="n">
-        <v>828204</v>
+        <v>952077</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>3809</v>
+        <v>6735</v>
       </c>
       <c r="F204" t="n">
-        <v>2688</v>
+        <v>5235</v>
       </c>
       <c r="G204" t="n">
-        <v>2242</v>
+        <v>2998</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>44055</v>
       </c>
       <c r="B205" t="n">
-        <v>831869</v>
+        <v>958641</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3665</v>
+        <v>6564</v>
       </c>
       <c r="F205" t="n">
-        <v>2547</v>
+        <v>5069</v>
       </c>
       <c r="G205" t="n">
-        <v>2236</v>
+        <v>2991</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>44056</v>
       </c>
       <c r="B206" t="n">
-        <v>835393</v>
+        <v>965037</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>3524</v>
+        <v>6396</v>
       </c>
       <c r="F206" t="n">
-        <v>2409</v>
+        <v>4904</v>
       </c>
       <c r="G206" t="n">
-        <v>2231</v>
+        <v>2984</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>44057</v>
       </c>
       <c r="B207" t="n">
-        <v>838781</v>
+        <v>971266</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>3388</v>
+        <v>6229</v>
       </c>
       <c r="F207" t="n">
-        <v>2275</v>
+        <v>4741</v>
       </c>
       <c r="G207" t="n">
-        <v>2225</v>
+        <v>2976</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>44058</v>
       </c>
       <c r="B208" t="n">
-        <v>842036</v>
+        <v>977331</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>3255</v>
+        <v>6065</v>
       </c>
       <c r="F208" t="n">
-        <v>2145</v>
+        <v>4580</v>
       </c>
       <c r="G208" t="n">
-        <v>2220</v>
+        <v>2969</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>44059</v>
       </c>
       <c r="B209" t="n">
-        <v>845162</v>
+        <v>983234</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>3126</v>
+        <v>5903</v>
       </c>
       <c r="F209" t="n">
-        <v>2019</v>
+        <v>4422</v>
       </c>
       <c r="G209" t="n">
-        <v>2214</v>
+        <v>2962</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>44060</v>
       </c>
       <c r="B210" t="n">
-        <v>848163</v>
+        <v>988977</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>3001</v>
+        <v>5743</v>
       </c>
       <c r="F210" t="n">
-        <v>1896</v>
+        <v>4265</v>
       </c>
       <c r="G210" t="n">
-        <v>2209</v>
+        <v>2955</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>44061</v>
       </c>
       <c r="B211" t="n">
-        <v>851043</v>
+        <v>994562</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>2880</v>
+        <v>5585</v>
       </c>
       <c r="F211" t="n">
-        <v>1778</v>
+        <v>4111</v>
       </c>
       <c r="G211" t="n">
-        <v>2204</v>
+        <v>2948</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>44062</v>
       </c>
       <c r="B212" t="n">
-        <v>853805</v>
+        <v>999992</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>2762</v>
+        <v>5430</v>
       </c>
       <c r="F212" t="n">
-        <v>1663</v>
+        <v>3959</v>
       </c>
       <c r="G212" t="n">
-        <v>2199</v>
+        <v>2941</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>44063</v>
       </c>
       <c r="B213" t="n">
-        <v>856453</v>
+        <v>1005269</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2648</v>
+        <v>5277</v>
       </c>
       <c r="F213" t="n">
-        <v>1552</v>
+        <v>3810</v>
       </c>
       <c r="G213" t="n">
-        <v>2193</v>
+        <v>2934</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>44064</v>
       </c>
       <c r="B214" t="n">
-        <v>858991</v>
+        <v>1010396</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>2538</v>
+        <v>5127</v>
       </c>
       <c r="F214" t="n">
-        <v>1444</v>
+        <v>3663</v>
       </c>
       <c r="G214" t="n">
-        <v>2188</v>
+        <v>2927</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>44065</v>
       </c>
       <c r="B215" t="n">
-        <v>861422</v>
+        <v>1015375</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6610,13 +6610,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>2431</v>
+        <v>4979</v>
       </c>
       <c r="F215" t="n">
-        <v>1340</v>
+        <v>3519</v>
       </c>
       <c r="G215" t="n">
-        <v>2183</v>
+        <v>2920</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>44066</v>
       </c>
       <c r="B216" t="n">
-        <v>863750</v>
+        <v>1020209</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>2328</v>
+        <v>4834</v>
       </c>
       <c r="F216" t="n">
-        <v>1239</v>
+        <v>3378</v>
       </c>
       <c r="G216" t="n">
-        <v>2178</v>
+        <v>2913</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>44067</v>
       </c>
       <c r="B217" t="n">
-        <v>865979</v>
+        <v>1024901</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>2229</v>
+        <v>4692</v>
       </c>
       <c r="F217" t="n">
-        <v>1142</v>
+        <v>3239</v>
       </c>
       <c r="G217" t="n">
-        <v>2173</v>
+        <v>2906</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>44068</v>
       </c>
       <c r="B218" t="n">
-        <v>868112</v>
+        <v>1029454</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>2133</v>
+        <v>4553</v>
       </c>
       <c r="F218" t="n">
-        <v>1049</v>
+        <v>3103</v>
       </c>
       <c r="G218" t="n">
-        <v>2168</v>
+        <v>2900</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44069</v>
       </c>
       <c r="B219" t="n">
-        <v>870152</v>
+        <v>1033870</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>2040</v>
+        <v>4416</v>
       </c>
       <c r="F219" t="n">
-        <v>959</v>
+        <v>2970</v>
       </c>
       <c r="G219" t="n">
-        <v>2163</v>
+        <v>2893</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>44070</v>
       </c>
       <c r="B220" t="n">
-        <v>872103</v>
+        <v>1038152</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1951</v>
+        <v>4282</v>
       </c>
       <c r="F220" t="n">
-        <v>872</v>
+        <v>2839</v>
       </c>
       <c r="G220" t="n">
-        <v>2158</v>
+        <v>2886</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>44071</v>
       </c>
       <c r="B221" t="n">
-        <v>873967</v>
+        <v>1042303</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1864</v>
+        <v>4151</v>
       </c>
       <c r="F221" t="n">
-        <v>788</v>
+        <v>2711</v>
       </c>
       <c r="G221" t="n">
-        <v>2153</v>
+        <v>2880</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>44072</v>
       </c>
       <c r="B222" t="n">
-        <v>875749</v>
+        <v>1046326</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1782</v>
+        <v>4023</v>
       </c>
       <c r="F222" t="n">
-        <v>708</v>
+        <v>2586</v>
       </c>
       <c r="G222" t="n">
-        <v>2148</v>
+        <v>2873</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>44073</v>
       </c>
       <c r="B223" t="n">
-        <v>877451</v>
+        <v>1050223</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1702</v>
+        <v>3897</v>
       </c>
       <c r="F223" t="n">
-        <v>630</v>
+        <v>2464</v>
       </c>
       <c r="G223" t="n">
-        <v>2143</v>
+        <v>2867</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>44074</v>
       </c>
       <c r="B224" t="n">
-        <v>879076</v>
+        <v>1053998</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1625</v>
+        <v>3775</v>
       </c>
       <c r="F224" t="n">
-        <v>556</v>
+        <v>2345</v>
       </c>
       <c r="G224" t="n">
-        <v>2138</v>
+        <v>2860</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>44075</v>
       </c>
       <c r="B225" t="n">
-        <v>880627</v>
+        <v>1057653</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1551</v>
+        <v>3655</v>
       </c>
       <c r="F225" t="n">
-        <v>484</v>
+        <v>2228</v>
       </c>
       <c r="G225" t="n">
-        <v>2133</v>
+        <v>2854</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>44076</v>
       </c>
       <c r="B226" t="n">
-        <v>882107</v>
+        <v>1061191</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1480</v>
+        <v>3538</v>
       </c>
       <c r="F226" t="n">
-        <v>415</v>
+        <v>2114</v>
       </c>
       <c r="G226" t="n">
-        <v>2129</v>
+        <v>2847</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>44077</v>
       </c>
       <c r="B227" t="n">
-        <v>883519</v>
+        <v>1064615</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1412</v>
+        <v>3424</v>
       </c>
       <c r="F227" t="n">
-        <v>350</v>
+        <v>2003</v>
       </c>
       <c r="G227" t="n">
-        <v>2124</v>
+        <v>2841</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>44078</v>
       </c>
       <c r="B228" t="n">
-        <v>884865</v>
+        <v>1067927</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1346</v>
+        <v>3312</v>
       </c>
       <c r="F228" t="n">
-        <v>286</v>
+        <v>1895</v>
       </c>
       <c r="G228" t="n">
-        <v>2119</v>
+        <v>2835</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>44079</v>
       </c>
       <c r="B229" t="n">
-        <v>886148</v>
+        <v>1071131</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1283</v>
+        <v>3204</v>
       </c>
       <c r="F229" t="n">
-        <v>226</v>
+        <v>1789</v>
       </c>
       <c r="G229" t="n">
-        <v>2115</v>
+        <v>2828</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>44080</v>
       </c>
       <c r="B230" t="n">
-        <v>887371</v>
+        <v>1074229</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1223</v>
+        <v>3098</v>
       </c>
       <c r="F230" t="n">
-        <v>168</v>
+        <v>1687</v>
       </c>
       <c r="G230" t="n">
-        <v>2110</v>
+        <v>2822</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>44081</v>
       </c>
       <c r="B231" t="n">
-        <v>888536</v>
+        <v>1077224</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1165</v>
+        <v>2995</v>
       </c>
       <c r="F231" t="n">
-        <v>112</v>
+        <v>1587</v>
       </c>
       <c r="G231" t="n">
-        <v>2105</v>
+        <v>2816</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>44082</v>
       </c>
       <c r="B232" t="n">
-        <v>889645</v>
+        <v>1080118</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1109</v>
+        <v>2894</v>
       </c>
       <c r="F232" t="n">
-        <v>59</v>
+        <v>1489</v>
       </c>
       <c r="G232" t="n">
-        <v>2101</v>
+        <v>2810</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>44083</v>
       </c>
       <c r="B233" t="n">
-        <v>890701</v>
+        <v>1082914</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1056</v>
+        <v>2796</v>
       </c>
       <c r="F233" t="n">
-        <v>8</v>
+        <v>1394</v>
       </c>
       <c r="G233" t="n">
-        <v>2096</v>
+        <v>2804</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>44084</v>
       </c>
       <c r="B234" t="n">
-        <v>891706</v>
+        <v>1085615</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1005</v>
+        <v>2701</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="G234" t="n">
-        <v>2051</v>
+        <v>2798</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>44085</v>
       </c>
       <c r="B235" t="n">
-        <v>892663</v>
+        <v>1088224</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>957</v>
+        <v>2609</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>1213</v>
       </c>
       <c r="G235" t="n">
-        <v>2000</v>
+        <v>2792</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>44086</v>
       </c>
       <c r="B236" t="n">
-        <v>893573</v>
+        <v>1090743</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>910</v>
+        <v>2519</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="G236" t="n">
-        <v>1951</v>
+        <v>2786</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>44087</v>
       </c>
       <c r="B237" t="n">
-        <v>894438</v>
+        <v>1093174</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>865</v>
+        <v>2431</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="G237" t="n">
-        <v>1905</v>
+        <v>2780</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>44088</v>
       </c>
       <c r="B238" t="n">
-        <v>895261</v>
+        <v>1095520</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -7277,13 +7277,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>823</v>
+        <v>2346</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="G238" t="n">
-        <v>1860</v>
+        <v>2774</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>44089</v>
       </c>
       <c r="B239" t="n">
-        <v>896043</v>
+        <v>1097784</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>782</v>
+        <v>2264</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="G239" t="n">
-        <v>1817</v>
+        <v>2768</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>44090</v>
       </c>
       <c r="B240" t="n">
-        <v>896786</v>
+        <v>1099968</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>743</v>
+        <v>2184</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="G240" t="n">
-        <v>1776</v>
+        <v>2762</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>44091</v>
       </c>
       <c r="B241" t="n">
-        <v>897492</v>
+        <v>1102074</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>706</v>
+        <v>2106</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="G241" t="n">
-        <v>1736</v>
+        <v>2757</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>44092</v>
       </c>
       <c r="B242" t="n">
-        <v>898163</v>
+        <v>1104105</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>671</v>
+        <v>2031</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="G242" t="n">
-        <v>1699</v>
+        <v>2751</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>44093</v>
       </c>
       <c r="B243" t="n">
-        <v>898800</v>
+        <v>1106062</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>637</v>
+        <v>1957</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G243" t="n">
-        <v>1663</v>
+        <v>2745</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>44094</v>
       </c>
       <c r="B244" t="n">
-        <v>899404</v>
+        <v>1107949</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>604</v>
+        <v>1887</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="G244" t="n">
-        <v>1628</v>
+        <v>2739</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>44095</v>
       </c>
       <c r="B245" t="n">
-        <v>899978</v>
+        <v>1109767</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>574</v>
+        <v>1818</v>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="G245" t="n">
-        <v>1596</v>
+        <v>2734</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>44096</v>
       </c>
       <c r="B246" t="n">
-        <v>900522</v>
+        <v>1111518</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>544</v>
+        <v>1751</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="G246" t="n">
-        <v>1564</v>
+        <v>2728</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>44097</v>
       </c>
       <c r="B247" t="n">
-        <v>901038</v>
+        <v>1113205</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>516</v>
+        <v>1687</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="G247" t="n">
-        <v>1534</v>
+        <v>2723</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>44098</v>
       </c>
       <c r="B248" t="n">
-        <v>901528</v>
+        <v>1114829</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7567,13 +7567,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>490</v>
+        <v>1624</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="G248" t="n">
-        <v>1505</v>
+        <v>2717</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>44099</v>
       </c>
       <c r="B249" t="n">
-        <v>901992</v>
+        <v>1116393</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>464</v>
+        <v>1564</v>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="G249" t="n">
-        <v>1478</v>
+        <v>2712</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>44100</v>
       </c>
       <c r="B250" t="n">
-        <v>902432</v>
+        <v>1117899</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>440</v>
+        <v>1506</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="G250" t="n">
-        <v>1452</v>
+        <v>2706</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>44101</v>
       </c>
       <c r="B251" t="n">
-        <v>902849</v>
+        <v>1119348</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>417</v>
+        <v>1449</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G251" t="n">
-        <v>1427</v>
+        <v>2701</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -7672,7 +7672,7 @@
         <v>44102</v>
       </c>
       <c r="B252" t="n">
-        <v>903244</v>
+        <v>1120742</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7683,13 +7683,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>395</v>
+        <v>1394</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G252" t="n">
-        <v>1403</v>
+        <v>2695</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>44103</v>
       </c>
       <c r="B253" t="n">
-        <v>903618</v>
+        <v>1122083</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7712,30 +7712,25 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>374</v>
+        <v>1341</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>1380</v>
+        <v>2686</v>
       </c>
       <c r="H253" t="n">
-        <v>6436</v>
-      </c>
-      <c r="I253" t="inlineStr">
-        <is>
-          <t>End 97% on
-29 September 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
         <v>44104</v>
       </c>
       <c r="B254" t="n">
-        <v>903973</v>
+        <v>1123373</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7746,13 +7741,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>355</v>
+        <v>1290</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>1358</v>
+        <v>2633</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -7764,7 +7759,7 @@
         <v>44105</v>
       </c>
       <c r="B255" t="n">
-        <v>904309</v>
+        <v>1124614</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7775,13 +7770,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>336</v>
+        <v>1241</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>1337</v>
+        <v>2581</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -7793,7 +7788,7 @@
         <v>44106</v>
       </c>
       <c r="B256" t="n">
-        <v>904627</v>
+        <v>1125807</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7804,13 +7799,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>318</v>
+        <v>1193</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>1317</v>
+        <v>2530</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -7822,7 +7817,7 @@
         <v>44107</v>
       </c>
       <c r="B257" t="n">
-        <v>904928</v>
+        <v>1126954</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7833,13 +7828,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>301</v>
+        <v>1147</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>1298</v>
+        <v>2482</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -7851,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="B258" t="n">
-        <v>905213</v>
+        <v>1128057</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7862,13 +7857,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>285</v>
+        <v>1103</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>1280</v>
+        <v>2435</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7880,7 +7875,7 @@
         <v>44109</v>
       </c>
       <c r="B259" t="n">
-        <v>905482</v>
+        <v>1129117</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7891,13 +7886,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>269</v>
+        <v>1060</v>
       </c>
       <c r="F259" t="n">
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>1263</v>
+        <v>2389</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -7909,7 +7904,7 @@
         <v>44110</v>
       </c>
       <c r="B260" t="n">
-        <v>905737</v>
+        <v>1130135</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7920,13 +7915,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>255</v>
+        <v>1018</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>1247</v>
+        <v>2345</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -7938,7 +7933,7 @@
         <v>44111</v>
       </c>
       <c r="B261" t="n">
-        <v>905978</v>
+        <v>1131114</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7949,13 +7944,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>241</v>
+        <v>979</v>
       </c>
       <c r="F261" t="n">
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>1231</v>
+        <v>2303</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -7967,7 +7962,7 @@
         <v>44112</v>
       </c>
       <c r="B262" t="n">
-        <v>906206</v>
+        <v>1132054</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7978,13 +7973,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>228</v>
+        <v>940</v>
       </c>
       <c r="F262" t="n">
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>1216</v>
+        <v>2261</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -7996,7 +7991,7 @@
         <v>44113</v>
       </c>
       <c r="B263" t="n">
-        <v>906421</v>
+        <v>1132957</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -8007,13 +8002,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>215</v>
+        <v>903</v>
       </c>
       <c r="F263" t="n">
         <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>1201</v>
+        <v>2222</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -8025,7 +8020,7 @@
         <v>44114</v>
       </c>
       <c r="B264" t="n">
-        <v>906625</v>
+        <v>1133824</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -8036,13 +8031,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>204</v>
+        <v>867</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>1188</v>
+        <v>2183</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -8054,7 +8049,7 @@
         <v>44115</v>
       </c>
       <c r="B265" t="n">
-        <v>906817</v>
+        <v>1134656</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -8065,13 +8060,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>192</v>
+        <v>832</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>1175</v>
+        <v>2146</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -8083,7 +8078,7 @@
         <v>44116</v>
       </c>
       <c r="B266" t="n">
-        <v>906999</v>
+        <v>1135455</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -8094,13 +8089,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>182</v>
+        <v>799</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>1162</v>
+        <v>2111</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -8112,7 +8107,7 @@
         <v>44117</v>
       </c>
       <c r="B267" t="n">
-        <v>907171</v>
+        <v>1136222</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -8123,13 +8118,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>172</v>
+        <v>767</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>1150</v>
+        <v>2076</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8141,7 +8136,7 @@
         <v>44118</v>
       </c>
       <c r="B268" t="n">
-        <v>907333</v>
+        <v>1136958</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -8152,13 +8147,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>162</v>
+        <v>736</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>1139</v>
+        <v>2043</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -8170,7 +8165,7 @@
         <v>44119</v>
       </c>
       <c r="B269" t="n">
-        <v>907486</v>
+        <v>1137665</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -8181,13 +8176,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>153</v>
+        <v>707</v>
       </c>
       <c r="F269" t="n">
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>1128</v>
+        <v>2011</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -8199,7 +8194,7 @@
         <v>44120</v>
       </c>
       <c r="B270" t="n">
-        <v>907631</v>
+        <v>1138343</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8210,13 +8205,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>145</v>
+        <v>678</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>1118</v>
+        <v>1979</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8228,7 +8223,7 @@
         <v>44121</v>
       </c>
       <c r="B271" t="n">
-        <v>907768</v>
+        <v>1138993</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -8239,13 +8234,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>137</v>
+        <v>650</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>1108</v>
+        <v>1949</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8257,7 +8252,7 @@
         <v>44122</v>
       </c>
       <c r="B272" t="n">
-        <v>907897</v>
+        <v>1139617</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -8268,13 +8263,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>129</v>
+        <v>624</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>1098</v>
+        <v>1921</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8286,7 +8281,7 @@
         <v>44123</v>
       </c>
       <c r="B273" t="n">
-        <v>908019</v>
+        <v>1140215</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -8297,30 +8292,25 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>122</v>
+        <v>598</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>1089</v>
+        <v>1893</v>
       </c>
       <c r="H273" t="n">
-        <v>3861</v>
-      </c>
-      <c r="I273" t="inlineStr">
-        <is>
-          <t>End 99% on
-19 October 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
         <v>44124</v>
       </c>
       <c r="B274" t="n">
-        <v>908134</v>
+        <v>1140789</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -8331,13 +8321,13 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>115</v>
+        <v>574</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>1081</v>
+        <v>1866</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -8349,7 +8339,7 @@
         <v>44125</v>
       </c>
       <c r="B275" t="n">
-        <v>908242</v>
+        <v>1141339</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -8360,13 +8350,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>108</v>
+        <v>550</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>1073</v>
+        <v>1840</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -8378,7 +8368,7 @@
         <v>44126</v>
       </c>
       <c r="B276" t="n">
-        <v>908344</v>
+        <v>1141866</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -8389,13 +8379,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>102</v>
+        <v>527</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>1065</v>
+        <v>1815</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -8407,7 +8397,7 @@
         <v>44127</v>
       </c>
       <c r="B277" t="n">
-        <v>908440</v>
+        <v>1142371</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -8418,13 +8408,13 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>96</v>
+        <v>505</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>1057</v>
+        <v>1790</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -8436,7 +8426,7 @@
         <v>44128</v>
       </c>
       <c r="B278" t="n">
-        <v>908531</v>
+        <v>1142855</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -8447,13 +8437,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>91</v>
+        <v>484</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>1050</v>
+        <v>1767</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8465,7 +8455,7 @@
         <v>44129</v>
       </c>
       <c r="B279" t="n">
-        <v>908617</v>
+        <v>1143319</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -8476,13 +8466,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>86</v>
+        <v>464</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>1043</v>
+        <v>1745</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -8494,7 +8484,7 @@
         <v>44130</v>
       </c>
       <c r="B280" t="n">
-        <v>908698</v>
+        <v>1143764</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -8505,13 +8495,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>1036</v>
+        <v>1723</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -8523,7 +8513,7 @@
         <v>44131</v>
       </c>
       <c r="B281" t="n">
-        <v>908774</v>
+        <v>1144190</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -8534,25 +8524,30 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>76</v>
+        <v>426</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>1030</v>
+        <v>1702</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>7132</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>End 97% on
+27 October 2020</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
         <v>44132</v>
       </c>
       <c r="B282" t="n">
-        <v>908846</v>
+        <v>1144598</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -8563,13 +8558,13 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>72</v>
+        <v>408</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>1024</v>
+        <v>1682</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -8581,7 +8576,7 @@
         <v>44133</v>
       </c>
       <c r="B283" t="n">
-        <v>908914</v>
+        <v>1144989</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -8592,13 +8587,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>68</v>
+        <v>391</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>1018</v>
+        <v>1662</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -8610,7 +8605,7 @@
         <v>44134</v>
       </c>
       <c r="B284" t="n">
-        <v>908978</v>
+        <v>1145364</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -8621,13 +8616,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>64</v>
+        <v>375</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>1012</v>
+        <v>1643</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -8639,7 +8634,7 @@
         <v>44135</v>
       </c>
       <c r="B285" t="n">
-        <v>909038</v>
+        <v>1145723</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -8650,13 +8645,13 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>1007</v>
+        <v>1625</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -8668,7 +8663,7 @@
         <v>44136</v>
       </c>
       <c r="B286" t="n">
-        <v>909095</v>
+        <v>1146067</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8679,13 +8674,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>57</v>
+        <v>344</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>1002</v>
+        <v>1608</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -8697,7 +8692,7 @@
         <v>44137</v>
       </c>
       <c r="B287" t="n">
-        <v>909148</v>
+        <v>1146396</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -8708,13 +8703,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>53</v>
+        <v>329</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>997</v>
+        <v>1591</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -8726,7 +8721,7 @@
         <v>44138</v>
       </c>
       <c r="B288" t="n">
-        <v>909198</v>
+        <v>1146711</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -8737,13 +8732,13 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>50</v>
+        <v>315</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>992</v>
+        <v>1575</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -8755,7 +8750,7 @@
         <v>44139</v>
       </c>
       <c r="B289" t="n">
-        <v>909245</v>
+        <v>1147012</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -8766,13 +8761,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>47</v>
+        <v>301</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>988</v>
+        <v>1559</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -8784,7 +8779,7 @@
         <v>44140</v>
       </c>
       <c r="B290" t="n">
-        <v>909290</v>
+        <v>1147301</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -8795,13 +8790,13 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>983</v>
+        <v>1544</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -8813,7 +8808,7 @@
         <v>44141</v>
       </c>
       <c r="B291" t="n">
-        <v>909332</v>
+        <v>1147577</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8824,13 +8819,13 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>979</v>
+        <v>1530</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -8842,7 +8837,7 @@
         <v>44142</v>
       </c>
       <c r="B292" t="n">
-        <v>909372</v>
+        <v>1147841</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8853,13 +8848,13 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>975</v>
+        <v>1515</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -8871,7 +8866,7 @@
         <v>44143</v>
       </c>
       <c r="B293" t="n">
-        <v>909409</v>
+        <v>1148094</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8882,13 +8877,13 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>971</v>
+        <v>1502</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -8900,7 +8895,7 @@
         <v>44144</v>
       </c>
       <c r="B294" t="n">
-        <v>909444</v>
+        <v>1148336</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8911,13 +8906,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>967</v>
+        <v>1489</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -8929,7 +8924,7 @@
         <v>44145</v>
       </c>
       <c r="B295" t="n">
-        <v>909477</v>
+        <v>1148567</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8940,13 +8935,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>964</v>
+        <v>1476</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -8958,7 +8953,7 @@
         <v>44146</v>
       </c>
       <c r="B296" t="n">
-        <v>909508</v>
+        <v>1148788</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8969,13 +8964,13 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>960</v>
+        <v>1464</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -8987,7 +8982,7 @@
         <v>44147</v>
       </c>
       <c r="B297" t="n">
-        <v>909537</v>
+        <v>1149000</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8998,13 +8993,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>957</v>
+        <v>1452</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -9016,7 +9011,7 @@
         <v>44148</v>
       </c>
       <c r="B298" t="n">
-        <v>909564</v>
+        <v>1149203</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -9027,13 +9022,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>953</v>
+        <v>1441</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -9045,7 +9040,7 @@
         <v>44149</v>
       </c>
       <c r="B299" t="n">
-        <v>909590</v>
+        <v>1149397</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -9056,13 +9051,13 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>950</v>
+        <v>1430</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -9074,7 +9069,7 @@
         <v>44150</v>
       </c>
       <c r="B300" t="n">
-        <v>909614</v>
+        <v>1149582</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -9085,13 +9080,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>947</v>
+        <v>1420</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9103,7 +9098,7 @@
         <v>44151</v>
       </c>
       <c r="B301" t="n">
-        <v>909637</v>
+        <v>1149759</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -9114,13 +9109,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>944</v>
+        <v>1409</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -9132,7 +9127,7 @@
         <v>44152</v>
       </c>
       <c r="B302" t="n">
-        <v>909658</v>
+        <v>1149928</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -9143,13 +9138,13 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>941</v>
+        <v>1399</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -9161,7 +9156,7 @@
         <v>44153</v>
       </c>
       <c r="B303" t="n">
-        <v>909678</v>
+        <v>1150090</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -9172,13 +9167,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>938</v>
+        <v>1390</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -9190,7 +9185,7 @@
         <v>44154</v>
       </c>
       <c r="B304" t="n">
-        <v>909697</v>
+        <v>1150245</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -9201,13 +9196,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>936</v>
+        <v>1381</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9219,7 +9214,7 @@
         <v>44155</v>
       </c>
       <c r="B305" t="n">
-        <v>909715</v>
+        <v>1150393</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -9230,13 +9225,13 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>933</v>
+        <v>1372</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -9248,7 +9243,7 @@
         <v>44156</v>
       </c>
       <c r="B306" t="n">
-        <v>909732</v>
+        <v>1150534</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -9259,25 +9254,30 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>930</v>
+        <v>1363</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>4280</v>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>End 99% on
+21 November 2020</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="B307" t="n">
-        <v>909748</v>
+        <v>1150669</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -9288,13 +9288,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>928</v>
+        <v>1355</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -9306,7 +9306,7 @@
         <v>44158</v>
       </c>
       <c r="B308" t="n">
-        <v>909763</v>
+        <v>1150798</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -9317,13 +9317,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>925</v>
+        <v>1347</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>44159</v>
       </c>
       <c r="B309" t="n">
-        <v>909777</v>
+        <v>1150921</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -9346,13 +9346,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>923</v>
+        <v>1339</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>44160</v>
       </c>
       <c r="B310" t="n">
-        <v>909790</v>
+        <v>1151039</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -9375,13 +9375,13 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>921</v>
+        <v>1332</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>44161</v>
       </c>
       <c r="B311" t="n">
-        <v>909802</v>
+        <v>1151152</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>919</v>
+        <v>1325</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>44162</v>
       </c>
       <c r="B312" t="n">
-        <v>909814</v>
+        <v>1151260</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -9433,13 +9433,13 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>916</v>
+        <v>1318</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>44163</v>
       </c>
       <c r="B313" t="n">
-        <v>909825</v>
+        <v>1151363</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -9462,13 +9462,13 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>914</v>
+        <v>1311</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>44164</v>
       </c>
       <c r="B314" t="n">
-        <v>909835</v>
+        <v>1151461</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>912</v>
+        <v>1304</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>44165</v>
       </c>
       <c r="B315" t="n">
-        <v>909845</v>
+        <v>1151555</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -9520,13 +9520,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>910</v>
+        <v>1298</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9538,7 +9538,7 @@
         <v>44166</v>
       </c>
       <c r="B316" t="n">
-        <v>909854</v>
+        <v>1151645</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -9549,13 +9549,13 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>908</v>
+        <v>1292</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>44167</v>
       </c>
       <c r="B317" t="n">
-        <v>909862</v>
+        <v>1151730</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>906</v>
+        <v>1286</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>44168</v>
       </c>
       <c r="B318" t="n">
-        <v>909870</v>
+        <v>1151812</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>904</v>
+        <v>1280</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>44169</v>
       </c>
       <c r="B319" t="n">
-        <v>909877</v>
+        <v>1151890</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -9636,13 +9636,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>902</v>
+        <v>1275</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>44170</v>
       </c>
       <c r="B320" t="n">
-        <v>909884</v>
+        <v>1151964</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -9665,13 +9665,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>900</v>
+        <v>1269</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>44171</v>
       </c>
       <c r="B321" t="n">
-        <v>909891</v>
+        <v>1152035</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -9694,13 +9694,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>898</v>
+        <v>1264</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>44172</v>
       </c>
       <c r="B322" t="n">
-        <v>909897</v>
+        <v>1152103</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>897</v>
+        <v>1259</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>44173</v>
       </c>
       <c r="B323" t="n">
-        <v>909903</v>
+        <v>1152168</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -9752,13 +9752,13 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>895</v>
+        <v>1254</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -9770,7 +9770,7 @@
         <v>44174</v>
       </c>
       <c r="B324" t="n">
-        <v>909908</v>
+        <v>1152230</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -9781,13 +9781,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>893</v>
+        <v>1249</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>44175</v>
       </c>
       <c r="B325" t="n">
-        <v>909913</v>
+        <v>1152289</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>891</v>
+        <v>1245</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>44176</v>
       </c>
       <c r="B326" t="n">
-        <v>909918</v>
+        <v>1152345</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -9839,13 +9839,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>890</v>
+        <v>1240</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>44177</v>
       </c>
       <c r="B327" t="n">
-        <v>909923</v>
+        <v>1152399</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>888</v>
+        <v>1236</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>44178</v>
       </c>
       <c r="B328" t="n">
-        <v>909927</v>
+        <v>1152450</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>886</v>
+        <v>1231</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>44179</v>
       </c>
       <c r="B329" t="n">
-        <v>909931</v>
+        <v>1152499</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9926,13 +9926,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>885</v>
+        <v>1227</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>44180</v>
       </c>
       <c r="B330" t="n">
-        <v>909935</v>
+        <v>1152546</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9955,13 +9955,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>883</v>
+        <v>1223</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>44181</v>
       </c>
       <c r="B331" t="n">
-        <v>909938</v>
+        <v>1152591</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>882</v>
+        <v>1219</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>44182</v>
       </c>
       <c r="B332" t="n">
-        <v>909941</v>
+        <v>1152634</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -10013,13 +10013,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>880</v>
+        <v>1215</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>44183</v>
       </c>
       <c r="B333" t="n">
-        <v>909944</v>
+        <v>1152675</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -10042,13 +10042,13 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>879</v>
+        <v>1212</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>44184</v>
       </c>
       <c r="B334" t="n">
-        <v>909947</v>
+        <v>1152714</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>877</v>
+        <v>1208</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>44185</v>
       </c>
       <c r="B335" t="n">
-        <v>909950</v>
+        <v>1152751</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>876</v>
+        <v>1205</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>44186</v>
       </c>
       <c r="B336" t="n">
-        <v>909953</v>
+        <v>1152786</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>874</v>
+        <v>1201</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>44187</v>
       </c>
       <c r="B337" t="n">
-        <v>909955</v>
+        <v>1152820</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>873</v>
+        <v>1198</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>44188</v>
       </c>
       <c r="B338" t="n">
-        <v>909957</v>
+        <v>1152852</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>871</v>
+        <v>1194</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>44189</v>
       </c>
       <c r="B339" t="n">
-        <v>909959</v>
+        <v>1152883</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>870</v>
+        <v>1191</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>44190</v>
       </c>
       <c r="B340" t="n">
-        <v>909961</v>
+        <v>1152912</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -10245,13 +10245,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>868</v>
+        <v>1188</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>44191</v>
       </c>
       <c r="B341" t="n">
-        <v>909963</v>
+        <v>1152940</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -10274,13 +10274,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>867</v>
+        <v>1185</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>44192</v>
       </c>
       <c r="B342" t="n">
-        <v>909965</v>
+        <v>1152967</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -10303,13 +10303,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>866</v>
+        <v>1182</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>44193</v>
       </c>
       <c r="B343" t="n">
-        <v>909967</v>
+        <v>1152992</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -10332,13 +10332,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>864</v>
+        <v>1179</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>44194</v>
       </c>
       <c r="B344" t="n">
-        <v>909969</v>
+        <v>1153016</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>863</v>
+        <v>1176</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>44195</v>
       </c>
       <c r="B345" t="n">
-        <v>909970</v>
+        <v>1153039</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>862</v>
+        <v>1173</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>44196</v>
       </c>
       <c r="B346" t="n">
-        <v>909971</v>
+        <v>1153061</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -10419,13 +10419,13 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>860</v>
+        <v>1171</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>44197</v>
       </c>
       <c r="B347" t="n">
-        <v>909972</v>
+        <v>1153082</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -10448,13 +10448,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>859</v>
+        <v>1168</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>44198</v>
       </c>
       <c r="B348" t="n">
-        <v>909973</v>
+        <v>1153102</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -10477,13 +10477,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>858</v>
+        <v>1165</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>44199</v>
       </c>
       <c r="B349" t="n">
-        <v>909974</v>
+        <v>1153121</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>856</v>
+        <v>1163</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>44200</v>
       </c>
       <c r="B350" t="n">
-        <v>909975</v>
+        <v>1153139</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>855</v>
+        <v>1160</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>44201</v>
       </c>
       <c r="B351" t="n">
-        <v>909976</v>
+        <v>1153156</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -10564,13 +10564,13 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>854</v>
+        <v>1158</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -10582,7 +10582,7 @@
         <v>44202</v>
       </c>
       <c r="B352" t="n">
-        <v>909977</v>
+        <v>1153172</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>852</v>
+        <v>1155</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>44203</v>
       </c>
       <c r="B353" t="n">
-        <v>909978</v>
+        <v>1153188</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -10622,13 +10622,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>851</v>
+        <v>1153</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>44204</v>
       </c>
       <c r="B354" t="n">
-        <v>909979</v>
+        <v>1153203</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>850</v>
+        <v>1151</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>44205</v>
       </c>
       <c r="B355" t="n">
-        <v>909980</v>
+        <v>1153217</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>849</v>
+        <v>1148</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>44206</v>
       </c>
       <c r="B356" t="n">
-        <v>909981</v>
+        <v>1153231</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -10709,13 +10709,13 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>847</v>
+        <v>1146</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>44207</v>
       </c>
       <c r="B357" t="n">
-        <v>909982</v>
+        <v>1153244</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -10738,13 +10738,13 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>846</v>
+        <v>1144</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>44208</v>
       </c>
       <c r="B358" t="n">
-        <v>909983</v>
+        <v>1153256</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -10767,13 +10767,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>845</v>
+        <v>1142</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>44209</v>
       </c>
       <c r="B359" t="n">
-        <v>909984</v>
+        <v>1153268</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -10796,13 +10796,13 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>844</v>
+        <v>1139</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>44210</v>
       </c>
       <c r="B360" t="n">
-        <v>909985</v>
+        <v>1153279</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>842</v>
+        <v>1137</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>44211</v>
       </c>
       <c r="B361" t="n">
-        <v>909986</v>
+        <v>1153290</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -10854,13 +10854,13 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>841</v>
+        <v>1135</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>44212</v>
       </c>
       <c r="B362" t="n">
-        <v>909986</v>
+        <v>1153300</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -10883,30 +10883,25 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>840</v>
+        <v>1133</v>
       </c>
       <c r="H362" t="n">
-        <v>6436</v>
-      </c>
-      <c r="I362" t="inlineStr">
-        <is>
-          <t>No new cases on
-16 January 2021</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
         <v>44213</v>
       </c>
       <c r="B363" t="n">
-        <v>909986</v>
+        <v>1153310</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -10917,13 +10912,13 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>838</v>
+        <v>1131</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -10935,7 +10930,7 @@
         <v>44214</v>
       </c>
       <c r="B364" t="n">
-        <v>909986</v>
+        <v>1153319</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -10946,13 +10941,13 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>837</v>
+        <v>1129</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -10964,7 +10959,7 @@
         <v>44215</v>
       </c>
       <c r="B365" t="n">
-        <v>909986</v>
+        <v>1153328</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -10975,13 +10970,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>836</v>
+        <v>1127</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -10993,7 +10988,7 @@
         <v>44216</v>
       </c>
       <c r="B366" t="n">
-        <v>909986</v>
+        <v>1153336</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -11004,13 +10999,13 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>835</v>
+        <v>1125</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11022,7 +11017,7 @@
         <v>44217</v>
       </c>
       <c r="B367" t="n">
-        <v>909986</v>
+        <v>1153344</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -11033,13 +11028,13 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>834</v>
+        <v>1123</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -11051,7 +11046,7 @@
         <v>44218</v>
       </c>
       <c r="B368" t="n">
-        <v>909986</v>
+        <v>1153352</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -11062,13 +11057,13 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>833</v>
+        <v>1121</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -11080,7 +11075,7 @@
         <v>44219</v>
       </c>
       <c r="B369" t="n">
-        <v>909986</v>
+        <v>1153359</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -11091,13 +11086,13 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>832</v>
+        <v>1120</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -11109,7 +11104,7 @@
         <v>44220</v>
       </c>
       <c r="B370" t="n">
-        <v>909986</v>
+        <v>1153366</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -11120,13 +11115,13 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>830</v>
+        <v>1118</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11138,7 +11133,7 @@
         <v>44221</v>
       </c>
       <c r="B371" t="n">
-        <v>909986</v>
+        <v>1153373</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -11149,13 +11144,13 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>829</v>
+        <v>1116</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11167,7 +11162,7 @@
         <v>44222</v>
       </c>
       <c r="B372" t="n">
-        <v>909986</v>
+        <v>1153379</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -11178,13 +11173,13 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>828</v>
+        <v>1114</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -11196,7 +11191,7 @@
         <v>44223</v>
       </c>
       <c r="B373" t="n">
-        <v>909986</v>
+        <v>1153385</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -11207,13 +11202,13 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>827</v>
+        <v>1112</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -11225,7 +11220,7 @@
         <v>44224</v>
       </c>
       <c r="B374" t="n">
-        <v>909986</v>
+        <v>1153391</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -11236,13 +11231,13 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>826</v>
+        <v>1110</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -11254,7 +11249,7 @@
         <v>44225</v>
       </c>
       <c r="B375" t="n">
-        <v>909986</v>
+        <v>1153396</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -11265,13 +11260,13 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>825</v>
+        <v>1109</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -11283,7 +11278,7 @@
         <v>44226</v>
       </c>
       <c r="B376" t="n">
-        <v>909986</v>
+        <v>1153401</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -11294,13 +11289,13 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>824</v>
+        <v>1107</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -11312,7 +11307,7 @@
         <v>44227</v>
       </c>
       <c r="B377" t="n">
-        <v>909986</v>
+        <v>1153406</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -11323,18 +11318,1734 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>823</v>
+        <v>1105</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B378" t="n">
+        <v>1153411</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>5</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0</v>
+      </c>
+      <c r="G378" t="n">
+        <v>1104</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>44229</v>
+      </c>
+      <c r="B379" t="n">
+        <v>1153415</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>4</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0</v>
+      </c>
+      <c r="G379" t="n">
+        <v>1102</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>44230</v>
+      </c>
+      <c r="B380" t="n">
+        <v>1153419</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>4</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0</v>
+      </c>
+      <c r="G380" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B381" t="n">
+        <v>1153423</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>4</v>
+      </c>
+      <c r="F381" t="n">
+        <v>0</v>
+      </c>
+      <c r="G381" t="n">
+        <v>1099</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>44232</v>
+      </c>
+      <c r="B382" t="n">
+        <v>1153427</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>4</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0</v>
+      </c>
+      <c r="G382" t="n">
+        <v>1097</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>44233</v>
+      </c>
+      <c r="B383" t="n">
+        <v>1153431</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>4</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0</v>
+      </c>
+      <c r="G383" t="n">
+        <v>1095</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>44234</v>
+      </c>
+      <c r="B384" t="n">
+        <v>1153435</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>4</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0</v>
+      </c>
+      <c r="G384" t="n">
+        <v>1094</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1153438</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>3</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0</v>
+      </c>
+      <c r="G385" t="n">
+        <v>1092</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>44236</v>
+      </c>
+      <c r="B386" t="n">
+        <v>1153441</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>3</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0</v>
+      </c>
+      <c r="G386" t="n">
+        <v>1091</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>44237</v>
+      </c>
+      <c r="B387" t="n">
+        <v>1153444</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>3</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0</v>
+      </c>
+      <c r="G387" t="n">
+        <v>1089</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B388" t="n">
+        <v>1153447</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>3</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0</v>
+      </c>
+      <c r="G388" t="n">
+        <v>1087</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="B389" t="n">
+        <v>1153450</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>3</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0</v>
+      </c>
+      <c r="G389" t="n">
+        <v>1086</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="B390" t="n">
+        <v>1153453</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>3</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0</v>
+      </c>
+      <c r="G390" t="n">
+        <v>1084</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>44241</v>
+      </c>
+      <c r="B391" t="n">
+        <v>1153455</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>2</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0</v>
+      </c>
+      <c r="G391" t="n">
+        <v>1083</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="B392" t="n">
+        <v>1153457</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>2</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0</v>
+      </c>
+      <c r="G392" t="n">
+        <v>1081</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B393" t="n">
+        <v>1153459</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>2</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0</v>
+      </c>
+      <c r="G393" t="n">
+        <v>1080</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="B394" t="n">
+        <v>1153461</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>2</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0</v>
+      </c>
+      <c r="G394" t="n">
+        <v>1078</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B395" t="n">
+        <v>1153463</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>2</v>
+      </c>
+      <c r="F395" t="n">
+        <v>0</v>
+      </c>
+      <c r="G395" t="n">
+        <v>1077</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>44246</v>
+      </c>
+      <c r="B396" t="n">
+        <v>1153465</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>2</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0</v>
+      </c>
+      <c r="G396" t="n">
+        <v>1075</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>44247</v>
+      </c>
+      <c r="B397" t="n">
+        <v>1153467</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>2</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0</v>
+      </c>
+      <c r="G397" t="n">
+        <v>1074</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>44248</v>
+      </c>
+      <c r="B398" t="n">
+        <v>1153469</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>2</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0</v>
+      </c>
+      <c r="G398" t="n">
+        <v>1073</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B399" t="n">
+        <v>1153471</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>2</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0</v>
+      </c>
+      <c r="G399" t="n">
+        <v>1071</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>44250</v>
+      </c>
+      <c r="B400" t="n">
+        <v>1153473</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>2</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0</v>
+      </c>
+      <c r="G400" t="n">
+        <v>1070</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>44251</v>
+      </c>
+      <c r="B401" t="n">
+        <v>1153475</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>2</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0</v>
+      </c>
+      <c r="G401" t="n">
+        <v>1068</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B402" t="n">
+        <v>1153476</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>1</v>
+      </c>
+      <c r="F402" t="n">
+        <v>0</v>
+      </c>
+      <c r="G402" t="n">
+        <v>1067</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B403" t="n">
+        <v>1153477</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>1</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0</v>
+      </c>
+      <c r="G403" t="n">
+        <v>1065</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>44254</v>
+      </c>
+      <c r="B404" t="n">
+        <v>1153478</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>1</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0</v>
+      </c>
+      <c r="G404" t="n">
+        <v>1064</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="B405" t="n">
+        <v>1153479</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>1</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0</v>
+      </c>
+      <c r="G405" t="n">
+        <v>1063</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B406" t="n">
+        <v>1153480</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>1</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0</v>
+      </c>
+      <c r="G406" t="n">
+        <v>1061</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>44257</v>
+      </c>
+      <c r="B407" t="n">
+        <v>1153481</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>1</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0</v>
+      </c>
+      <c r="G407" t="n">
+        <v>1060</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="B408" t="n">
+        <v>1153482</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>1</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0</v>
+      </c>
+      <c r="G408" t="n">
+        <v>1059</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B409" t="n">
+        <v>1153483</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>1</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0</v>
+      </c>
+      <c r="G409" t="n">
+        <v>1057</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>44260</v>
+      </c>
+      <c r="B410" t="n">
+        <v>1153484</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>1</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0</v>
+      </c>
+      <c r="G410" t="n">
+        <v>1056</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>44261</v>
+      </c>
+      <c r="B411" t="n">
+        <v>1153485</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>1</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0</v>
+      </c>
+      <c r="G411" t="n">
+        <v>1055</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>44262</v>
+      </c>
+      <c r="B412" t="n">
+        <v>1153486</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>1</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0</v>
+      </c>
+      <c r="G412" t="n">
+        <v>1053</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B413" t="n">
+        <v>1153487</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>1</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0</v>
+      </c>
+      <c r="G413" t="n">
+        <v>1052</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>44264</v>
+      </c>
+      <c r="B414" t="n">
+        <v>1153488</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>1</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0</v>
+      </c>
+      <c r="G414" t="n">
+        <v>1051</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="B415" t="n">
+        <v>1153489</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>1</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0</v>
+      </c>
+      <c r="G415" t="n">
+        <v>1049</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B416" t="n">
+        <v>1153490</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>1</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0</v>
+      </c>
+      <c r="G416" t="n">
+        <v>1048</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>44267</v>
+      </c>
+      <c r="B417" t="n">
+        <v>1153491</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>1</v>
+      </c>
+      <c r="F417" t="n">
+        <v>0</v>
+      </c>
+      <c r="G417" t="n">
+        <v>1047</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>44268</v>
+      </c>
+      <c r="B418" t="n">
+        <v>1153492</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>1</v>
+      </c>
+      <c r="F418" t="n">
+        <v>0</v>
+      </c>
+      <c r="G418" t="n">
+        <v>1045</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>44269</v>
+      </c>
+      <c r="B419" t="n">
+        <v>1153493</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>1</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0</v>
+      </c>
+      <c r="G419" t="n">
+        <v>1044</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="B420" t="n">
+        <v>1153494</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>1</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0</v>
+      </c>
+      <c r="G420" t="n">
+        <v>1043</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>44271</v>
+      </c>
+      <c r="B421" t="n">
+        <v>1153495</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>1</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0</v>
+      </c>
+      <c r="G421" t="n">
+        <v>1042</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="B422" t="n">
+        <v>1153496</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>1</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0</v>
+      </c>
+      <c r="G422" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B423" t="n">
+        <v>1153497</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>1</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0</v>
+      </c>
+      <c r="G423" t="n">
+        <v>1039</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="B424" t="n">
+        <v>1153497</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>0</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0</v>
+      </c>
+      <c r="G424" t="n">
+        <v>1038</v>
+      </c>
+      <c r="H424" t="n">
+        <v>7132</v>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>No new cases on
+19 March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>44275</v>
+      </c>
+      <c r="B425" t="n">
+        <v>1153497</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>0</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0</v>
+      </c>
+      <c r="G425" t="n">
+        <v>1036</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>44276</v>
+      </c>
+      <c r="B426" t="n">
+        <v>1153497</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>0</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0</v>
+      </c>
+      <c r="G426" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B427" t="n">
+        <v>1153497</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>0</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0</v>
+      </c>
+      <c r="G427" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B428" t="n">
+        <v>1153497</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>0</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0</v>
+      </c>
+      <c r="G428" t="n">
+        <v>1032</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="B429" t="n">
+        <v>1153497</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>0</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0</v>
+      </c>
+      <c r="G429" t="n">
+        <v>1031</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B430" t="n">
+        <v>1153497</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>0</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0</v>
+      </c>
+      <c r="G430" t="n">
+        <v>1030</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>44281</v>
+      </c>
+      <c r="B431" t="n">
+        <v>1153497</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>0</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0</v>
+      </c>
+      <c r="G431" t="n">
+        <v>1029</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>44282</v>
+      </c>
+      <c r="B432" t="n">
+        <v>1153497</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>0</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0</v>
+      </c>
+      <c r="G432" t="n">
+        <v>1028</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>44283</v>
+      </c>
+      <c r="B433" t="n">
+        <v>1153497</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>0</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0</v>
+      </c>
+      <c r="G433" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B434" t="n">
+        <v>1153497</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>0</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0</v>
+      </c>
+      <c r="G434" t="n">
+        <v>1025</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B435" t="n">
+        <v>1153497</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>0</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0</v>
+      </c>
+      <c r="G435" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B436" t="n">
+        <v>1153497</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>0</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0</v>
+      </c>
+      <c r="G436" t="n">
+        <v>1023</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>284</v>
+        <v>189</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>327</v>
+        <v>221</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>376</v>
+        <v>258</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>431</v>
+        <v>300</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>491</v>
+        <v>347</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>558</v>
+        <v>400</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>632</v>
+        <v>459</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>713</v>
+        <v>524</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>803</v>
+        <v>597</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>900</v>
+        <v>678</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1006</v>
+        <v>767</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1121</v>
+        <v>865</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1245</v>
+        <v>972</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1379</v>
+        <v>1088</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1523</v>
+        <v>1215</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1678</v>
+        <v>1352</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1843</v>
+        <v>1500</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2019</v>
+        <v>1660</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2206</v>
+        <v>1831</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2405</v>
+        <v>2014</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2615</v>
+        <v>2210</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2836</v>
+        <v>2418</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>3069</v>
+        <v>2639</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>3313</v>
+        <v>2872</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>3569</v>
+        <v>3119</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>3835</v>
+        <v>3378</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>4113</v>
+        <v>3650</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>4402</v>
+        <v>3935</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4702</v>
+        <v>4233</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>5011</v>
+        <v>4543</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>5331</v>
+        <v>4865</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5660</v>
+        <v>5199</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>5998</v>
+        <v>5544</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>6345</v>
+        <v>5900</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6699</v>
+        <v>6266</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>7061</v>
+        <v>6643</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>7430</v>
+        <v>7028</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>7804</v>
+        <v>7422</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>8184</v>
+        <v>7823</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>8569</v>
+        <v>8231</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>8957</v>
+        <v>8646</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>9348</v>
+        <v>9065</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>9742</v>
+        <v>9489</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>10137</v>
+        <v>9917</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10533</v>
+        <v>10347</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10928</v>
+        <v>10778</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>11323</v>
+        <v>11210</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>11715</v>
+        <v>11642</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>12105</v>
+        <v>12072</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>12491</v>
+        <v>12500</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>12873</v>
+        <v>12924</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>13250</v>
+        <v>13344</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13621</v>
+        <v>13758</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>13985</v>
+        <v>14167</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>14341</v>
+        <v>14568</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14690</v>
+        <v>14960</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>15029</v>
+        <v>15344</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>15359</v>
+        <v>15718</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>15678</v>
+        <v>16081</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>15987</v>
+        <v>16433</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>16285</v>
+        <v>16773</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16570</v>
+        <v>17099</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4975,24 +4975,24 @@
         <v>44009</v>
       </c>
       <c r="B159" t="n">
-        <v>525796</v>
+        <v>528859</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>19906</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>16843</v>
+        <v>17412</v>
       </c>
       <c r="F159" t="n">
-        <v>14912</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>3863</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>44010</v>
       </c>
       <c r="B160" t="n">
-        <v>542900</v>
+        <v>546570</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>17104</v>
+        <v>17711</v>
       </c>
       <c r="F160" t="n">
-        <v>15178</v>
+        <v>15806</v>
       </c>
       <c r="G160" t="n">
-        <v>3851</v>
+        <v>3811</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5033,7 +5033,7 @@
         <v>44011</v>
       </c>
       <c r="B161" t="n">
-        <v>560251</v>
+        <v>564566</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -5044,13 +5044,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>17351</v>
+        <v>17996</v>
       </c>
       <c r="F161" t="n">
-        <v>15432</v>
+        <v>16096</v>
       </c>
       <c r="G161" t="n">
-        <v>3839</v>
+        <v>3799</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>44012</v>
       </c>
       <c r="B162" t="n">
-        <v>577836</v>
+        <v>582831</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -5073,13 +5073,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>17585</v>
+        <v>18265</v>
       </c>
       <c r="F162" t="n">
-        <v>15671</v>
+        <v>16371</v>
       </c>
       <c r="G162" t="n">
-        <v>3827</v>
+        <v>3787</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>44013</v>
       </c>
       <c r="B163" t="n">
-        <v>595640</v>
+        <v>601349</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -5102,13 +5102,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>17804</v>
+        <v>18518</v>
       </c>
       <c r="F163" t="n">
-        <v>15897</v>
+        <v>16631</v>
       </c>
       <c r="G163" t="n">
-        <v>3815</v>
+        <v>3775</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>44014</v>
       </c>
       <c r="B164" t="n">
-        <v>613650</v>
+        <v>620105</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -5131,13 +5131,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18010</v>
+        <v>18756</v>
       </c>
       <c r="F164" t="n">
-        <v>16108</v>
+        <v>16874</v>
       </c>
       <c r="G164" t="n">
-        <v>3803</v>
+        <v>3764</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>44015</v>
       </c>
       <c r="B165" t="n">
-        <v>631851</v>
+        <v>639082</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>18201</v>
+        <v>18977</v>
       </c>
       <c r="F165" t="n">
-        <v>16305</v>
+        <v>17101</v>
       </c>
       <c r="G165" t="n">
-        <v>3792</v>
+        <v>3752</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>44016</v>
       </c>
       <c r="B166" t="n">
-        <v>650228</v>
+        <v>658264</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -5189,13 +5189,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>18377</v>
+        <v>19182</v>
       </c>
       <c r="F166" t="n">
-        <v>16487</v>
+        <v>17311</v>
       </c>
       <c r="G166" t="n">
-        <v>3780</v>
+        <v>3741</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>44017</v>
       </c>
       <c r="B167" t="n">
-        <v>668767</v>
+        <v>677633</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>18539</v>
+        <v>19369</v>
       </c>
       <c r="F167" t="n">
-        <v>16655</v>
+        <v>17504</v>
       </c>
       <c r="G167" t="n">
-        <v>3769</v>
+        <v>3729</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>44018</v>
       </c>
       <c r="B168" t="n">
-        <v>687452</v>
+        <v>697173</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>18685</v>
+        <v>19540</v>
       </c>
       <c r="F168" t="n">
-        <v>16807</v>
+        <v>17680</v>
       </c>
       <c r="G168" t="n">
-        <v>3757</v>
+        <v>3718</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>44019</v>
       </c>
       <c r="B169" t="n">
-        <v>706269</v>
+        <v>716866</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5276,13 +5276,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>18817</v>
+        <v>19693</v>
       </c>
       <c r="F169" t="n">
-        <v>16944</v>
+        <v>17839</v>
       </c>
       <c r="G169" t="n">
-        <v>3746</v>
+        <v>3707</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>725203</v>
+        <v>736695</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>18934</v>
+        <v>19829</v>
       </c>
       <c r="F170" t="n">
-        <v>17066</v>
+        <v>17981</v>
       </c>
       <c r="G170" t="n">
-        <v>3735</v>
+        <v>3696</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>744238</v>
+        <v>756642</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>19035</v>
+        <v>19947</v>
       </c>
       <c r="F171" t="n">
-        <v>17173</v>
+        <v>18104</v>
       </c>
       <c r="G171" t="n">
-        <v>3724</v>
+        <v>3685</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>763359</v>
+        <v>776690</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>19121</v>
+        <v>20048</v>
       </c>
       <c r="F172" t="n">
-        <v>17265</v>
+        <v>18211</v>
       </c>
       <c r="G172" t="n">
-        <v>3713</v>
+        <v>3674</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>782552</v>
+        <v>796822</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>19193</v>
+        <v>20132</v>
       </c>
       <c r="F173" t="n">
-        <v>17342</v>
+        <v>18300</v>
       </c>
       <c r="G173" t="n">
-        <v>3702</v>
+        <v>3663</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>801801</v>
+        <v>817020</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>19249</v>
+        <v>20198</v>
       </c>
       <c r="F174" t="n">
-        <v>17404</v>
+        <v>18372</v>
       </c>
       <c r="G174" t="n">
-        <v>3691</v>
+        <v>3653</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>821092</v>
+        <v>837267</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>19291</v>
+        <v>20247</v>
       </c>
       <c r="F175" t="n">
-        <v>17451</v>
+        <v>18426</v>
       </c>
       <c r="G175" t="n">
-        <v>3680</v>
+        <v>3642</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>840410</v>
+        <v>857546</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>19318</v>
+        <v>20279</v>
       </c>
       <c r="F176" t="n">
-        <v>17483</v>
+        <v>18464</v>
       </c>
       <c r="G176" t="n">
-        <v>3670</v>
+        <v>3632</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>859741</v>
+        <v>877841</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>19331</v>
+        <v>20295</v>
       </c>
       <c r="F177" t="n">
-        <v>17501</v>
+        <v>18484</v>
       </c>
       <c r="G177" t="n">
-        <v>3659</v>
+        <v>3621</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>879070</v>
+        <v>898135</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>19329</v>
+        <v>20294</v>
       </c>
       <c r="F178" t="n">
-        <v>17505</v>
+        <v>18488</v>
       </c>
       <c r="G178" t="n">
-        <v>3649</v>
+        <v>3611</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>898384</v>
+        <v>918412</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>19314</v>
+        <v>20277</v>
       </c>
       <c r="F179" t="n">
-        <v>17494</v>
+        <v>18476</v>
       </c>
       <c r="G179" t="n">
-        <v>3639</v>
+        <v>3601</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>917668</v>
+        <v>938655</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>19284</v>
+        <v>20243</v>
       </c>
       <c r="F180" t="n">
-        <v>17470</v>
+        <v>18448</v>
       </c>
       <c r="G180" t="n">
-        <v>3628</v>
+        <v>3591</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>936910</v>
+        <v>958850</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>19242</v>
+        <v>20195</v>
       </c>
       <c r="F181" t="n">
-        <v>17433</v>
+        <v>18404</v>
       </c>
       <c r="G181" t="n">
-        <v>3618</v>
+        <v>3581</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>956096</v>
+        <v>978981</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19186</v>
+        <v>20131</v>
       </c>
       <c r="F182" t="n">
-        <v>17382</v>
+        <v>18345</v>
       </c>
       <c r="G182" t="n">
-        <v>3608</v>
+        <v>3571</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>975214</v>
+        <v>999033</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19118</v>
+        <v>20052</v>
       </c>
       <c r="F183" t="n">
-        <v>17319</v>
+        <v>18272</v>
       </c>
       <c r="G183" t="n">
-        <v>3598</v>
+        <v>3561</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>994251</v>
+        <v>1018992</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>19037</v>
+        <v>19959</v>
       </c>
       <c r="F184" t="n">
-        <v>17243</v>
+        <v>18184</v>
       </c>
       <c r="G184" t="n">
-        <v>3588</v>
+        <v>3551</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>1013195</v>
+        <v>1038844</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>18944</v>
+        <v>19852</v>
       </c>
       <c r="F185" t="n">
-        <v>17155</v>
+        <v>18081</v>
       </c>
       <c r="G185" t="n">
-        <v>3579</v>
+        <v>3541</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>1032035</v>
+        <v>1058575</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>18840</v>
+        <v>19731</v>
       </c>
       <c r="F186" t="n">
-        <v>17055</v>
+        <v>17966</v>
       </c>
       <c r="G186" t="n">
-        <v>3569</v>
+        <v>3532</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>1050759</v>
+        <v>1078173</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>18724</v>
+        <v>19598</v>
       </c>
       <c r="F187" t="n">
-        <v>16944</v>
+        <v>17837</v>
       </c>
       <c r="G187" t="n">
-        <v>3559</v>
+        <v>3522</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>1069356</v>
+        <v>1097625</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>18597</v>
+        <v>19452</v>
       </c>
       <c r="F188" t="n">
-        <v>16823</v>
+        <v>17696</v>
       </c>
       <c r="G188" t="n">
-        <v>3550</v>
+        <v>3513</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>1087816</v>
+        <v>1116919</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>18460</v>
+        <v>19294</v>
       </c>
       <c r="F189" t="n">
-        <v>16690</v>
+        <v>17543</v>
       </c>
       <c r="G189" t="n">
-        <v>3540</v>
+        <v>3503</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>1106129</v>
+        <v>1136044</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>18313</v>
+        <v>19125</v>
       </c>
       <c r="F190" t="n">
-        <v>16548</v>
+        <v>17378</v>
       </c>
       <c r="G190" t="n">
-        <v>3531</v>
+        <v>3494</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>1124286</v>
+        <v>1154988</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>18157</v>
+        <v>18944</v>
       </c>
       <c r="F191" t="n">
-        <v>16396</v>
+        <v>17202</v>
       </c>
       <c r="G191" t="n">
-        <v>3521</v>
+        <v>3485</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>44042</v>
       </c>
       <c r="B192" t="n">
-        <v>1142277</v>
+        <v>1173742</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17991</v>
+        <v>18754</v>
       </c>
       <c r="F192" t="n">
-        <v>16235</v>
+        <v>17016</v>
       </c>
       <c r="G192" t="n">
-        <v>3512</v>
+        <v>3475</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>44043</v>
       </c>
       <c r="B193" t="n">
-        <v>1160094</v>
+        <v>1192295</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>17817</v>
+        <v>18553</v>
       </c>
       <c r="F193" t="n">
-        <v>16065</v>
+        <v>16820</v>
       </c>
       <c r="G193" t="n">
-        <v>3503</v>
+        <v>3466</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>44044</v>
       </c>
       <c r="B194" t="n">
-        <v>1177728</v>
+        <v>1210638</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>17634</v>
+        <v>18343</v>
       </c>
       <c r="F194" t="n">
-        <v>15887</v>
+        <v>16615</v>
       </c>
       <c r="G194" t="n">
-        <v>3494</v>
+        <v>3457</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>44045</v>
       </c>
       <c r="B195" t="n">
-        <v>1195171</v>
+        <v>1228763</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>17443</v>
+        <v>18125</v>
       </c>
       <c r="F195" t="n">
-        <v>15701</v>
+        <v>16401</v>
       </c>
       <c r="G195" t="n">
-        <v>3485</v>
+        <v>3448</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>44046</v>
       </c>
       <c r="B196" t="n">
-        <v>1212417</v>
+        <v>1246661</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>17246</v>
+        <v>17898</v>
       </c>
       <c r="F196" t="n">
-        <v>15508</v>
+        <v>16178</v>
       </c>
       <c r="G196" t="n">
-        <v>3476</v>
+        <v>3439</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>44047</v>
       </c>
       <c r="B197" t="n">
-        <v>1229458</v>
+        <v>1264325</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>17041</v>
+        <v>17664</v>
       </c>
       <c r="F197" t="n">
-        <v>15308</v>
+        <v>15948</v>
       </c>
       <c r="G197" t="n">
-        <v>3467</v>
+        <v>3431</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>44048</v>
       </c>
       <c r="B198" t="n">
-        <v>1246288</v>
+        <v>1281747</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>16830</v>
+        <v>17422</v>
       </c>
       <c r="F198" t="n">
-        <v>15101</v>
+        <v>15711</v>
       </c>
       <c r="G198" t="n">
-        <v>3458</v>
+        <v>3422</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>44049</v>
       </c>
       <c r="B199" t="n">
-        <v>1262901</v>
+        <v>1298921</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -6146,13 +6146,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>16613</v>
+        <v>17174</v>
       </c>
       <c r="F199" t="n">
-        <v>14888</v>
+        <v>15467</v>
       </c>
       <c r="G199" t="n">
-        <v>3449</v>
+        <v>3413</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>44050</v>
       </c>
       <c r="B200" t="n">
-        <v>1279291</v>
+        <v>1315841</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>16390</v>
+        <v>16920</v>
       </c>
       <c r="F200" t="n">
-        <v>14670</v>
+        <v>15217</v>
       </c>
       <c r="G200" t="n">
-        <v>3440</v>
+        <v>3404</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>44051</v>
       </c>
       <c r="B201" t="n">
-        <v>1295453</v>
+        <v>1332501</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -6204,13 +6204,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>16162</v>
+        <v>16660</v>
       </c>
       <c r="F201" t="n">
-        <v>14446</v>
+        <v>14962</v>
       </c>
       <c r="G201" t="n">
-        <v>3432</v>
+        <v>3396</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>44052</v>
       </c>
       <c r="B202" t="n">
-        <v>1311382</v>
+        <v>1348896</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>15929</v>
+        <v>16395</v>
       </c>
       <c r="F202" t="n">
-        <v>14218</v>
+        <v>14702</v>
       </c>
       <c r="G202" t="n">
-        <v>3423</v>
+        <v>3387</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>44053</v>
       </c>
       <c r="B203" t="n">
-        <v>1327074</v>
+        <v>1365022</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15692</v>
+        <v>16126</v>
       </c>
       <c r="F203" t="n">
-        <v>13985</v>
+        <v>14437</v>
       </c>
       <c r="G203" t="n">
-        <v>3415</v>
+        <v>3379</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>44054</v>
       </c>
       <c r="B204" t="n">
-        <v>1342525</v>
+        <v>1380875</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>15451</v>
+        <v>15853</v>
       </c>
       <c r="F204" t="n">
-        <v>13748</v>
+        <v>14167</v>
       </c>
       <c r="G204" t="n">
-        <v>3406</v>
+        <v>3371</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>44055</v>
       </c>
       <c r="B205" t="n">
-        <v>1357732</v>
+        <v>1396451</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>15207</v>
+        <v>15576</v>
       </c>
       <c r="F205" t="n">
-        <v>13508</v>
+        <v>13895</v>
       </c>
       <c r="G205" t="n">
-        <v>3398</v>
+        <v>3362</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>44056</v>
       </c>
       <c r="B206" t="n">
-        <v>1372692</v>
+        <v>1411747</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>14960</v>
+        <v>15296</v>
       </c>
       <c r="F206" t="n">
-        <v>13265</v>
+        <v>13619</v>
       </c>
       <c r="G206" t="n">
-        <v>3389</v>
+        <v>3354</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>44057</v>
       </c>
       <c r="B207" t="n">
-        <v>1387402</v>
+        <v>1426761</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>14710</v>
+        <v>15014</v>
       </c>
       <c r="F207" t="n">
-        <v>13019</v>
+        <v>13341</v>
       </c>
       <c r="G207" t="n">
-        <v>3381</v>
+        <v>3346</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>44058</v>
       </c>
       <c r="B208" t="n">
-        <v>1401859</v>
+        <v>1441490</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>14457</v>
+        <v>14729</v>
       </c>
       <c r="F208" t="n">
-        <v>12771</v>
+        <v>13060</v>
       </c>
       <c r="G208" t="n">
-        <v>3373</v>
+        <v>3338</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>44059</v>
       </c>
       <c r="B209" t="n">
-        <v>1416062</v>
+        <v>1455933</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>14203</v>
+        <v>14443</v>
       </c>
       <c r="F209" t="n">
-        <v>12520</v>
+        <v>12778</v>
       </c>
       <c r="G209" t="n">
-        <v>3365</v>
+        <v>3330</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>44060</v>
       </c>
       <c r="B210" t="n">
-        <v>1430008</v>
+        <v>1470088</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>13946</v>
+        <v>14155</v>
       </c>
       <c r="F210" t="n">
-        <v>12268</v>
+        <v>12495</v>
       </c>
       <c r="G210" t="n">
-        <v>3357</v>
+        <v>3322</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>44061</v>
       </c>
       <c r="B211" t="n">
-        <v>1443697</v>
+        <v>1483955</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>13689</v>
+        <v>13867</v>
       </c>
       <c r="F211" t="n">
-        <v>12015</v>
+        <v>12210</v>
       </c>
       <c r="G211" t="n">
-        <v>3349</v>
+        <v>3314</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>44062</v>
       </c>
       <c r="B212" t="n">
-        <v>1457128</v>
+        <v>1497533</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>13431</v>
+        <v>13578</v>
       </c>
       <c r="F212" t="n">
-        <v>11761</v>
+        <v>11925</v>
       </c>
       <c r="G212" t="n">
-        <v>3341</v>
+        <v>3306</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>44063</v>
       </c>
       <c r="B213" t="n">
-        <v>1470300</v>
+        <v>1510822</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>13172</v>
+        <v>13289</v>
       </c>
       <c r="F213" t="n">
-        <v>11506</v>
+        <v>11640</v>
       </c>
       <c r="G213" t="n">
-        <v>3333</v>
+        <v>3298</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>44064</v>
       </c>
       <c r="B214" t="n">
-        <v>1483213</v>
+        <v>1523822</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>12913</v>
+        <v>13000</v>
       </c>
       <c r="F214" t="n">
-        <v>11250</v>
+        <v>11355</v>
       </c>
       <c r="G214" t="n">
-        <v>3325</v>
+        <v>3290</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>44065</v>
       </c>
       <c r="B215" t="n">
-        <v>1495866</v>
+        <v>1536534</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6610,13 +6610,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>12653</v>
+        <v>12712</v>
       </c>
       <c r="F215" t="n">
-        <v>10995</v>
+        <v>11070</v>
       </c>
       <c r="G215" t="n">
-        <v>3317</v>
+        <v>3282</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>44066</v>
       </c>
       <c r="B216" t="n">
-        <v>1508260</v>
+        <v>1548958</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12394</v>
+        <v>12424</v>
       </c>
       <c r="F216" t="n">
-        <v>10740</v>
+        <v>10787</v>
       </c>
       <c r="G216" t="n">
-        <v>3309</v>
+        <v>3275</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>44067</v>
       </c>
       <c r="B217" t="n">
-        <v>1520396</v>
+        <v>1561096</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12136</v>
+        <v>12138</v>
       </c>
       <c r="F217" t="n">
-        <v>10485</v>
+        <v>10505</v>
       </c>
       <c r="G217" t="n">
-        <v>3301</v>
+        <v>3267</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>44068</v>
       </c>
       <c r="B218" t="n">
-        <v>1532274</v>
+        <v>1572950</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>11878</v>
+        <v>11854</v>
       </c>
       <c r="F218" t="n">
-        <v>10231</v>
+        <v>10224</v>
       </c>
       <c r="G218" t="n">
-        <v>3294</v>
+        <v>3260</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44069</v>
       </c>
       <c r="B219" t="n">
-        <v>1543895</v>
+        <v>1584521</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>11621</v>
+        <v>11571</v>
       </c>
       <c r="F219" t="n">
-        <v>9978</v>
+        <v>9945</v>
       </c>
       <c r="G219" t="n">
-        <v>3286</v>
+        <v>3252</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>44070</v>
       </c>
       <c r="B220" t="n">
-        <v>1555261</v>
+        <v>1595811</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>11366</v>
+        <v>11290</v>
       </c>
       <c r="F220" t="n">
-        <v>9727</v>
+        <v>9668</v>
       </c>
       <c r="G220" t="n">
-        <v>3279</v>
+        <v>3245</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>44071</v>
       </c>
       <c r="B221" t="n">
-        <v>1566373</v>
+        <v>1606822</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>11112</v>
+        <v>11011</v>
       </c>
       <c r="F221" t="n">
-        <v>9477</v>
+        <v>9393</v>
       </c>
       <c r="G221" t="n">
-        <v>3271</v>
+        <v>3237</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>44072</v>
       </c>
       <c r="B222" t="n">
-        <v>1577233</v>
+        <v>1617557</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10860</v>
+        <v>10735</v>
       </c>
       <c r="F222" t="n">
-        <v>9228</v>
+        <v>9121</v>
       </c>
       <c r="G222" t="n">
-        <v>3264</v>
+        <v>3230</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>44073</v>
       </c>
       <c r="B223" t="n">
-        <v>1587843</v>
+        <v>1628019</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>10610</v>
+        <v>10462</v>
       </c>
       <c r="F223" t="n">
-        <v>8982</v>
+        <v>8851</v>
       </c>
       <c r="G223" t="n">
-        <v>3256</v>
+        <v>3222</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>44074</v>
       </c>
       <c r="B224" t="n">
-        <v>1598205</v>
+        <v>1638211</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>10362</v>
+        <v>10192</v>
       </c>
       <c r="F224" t="n">
-        <v>8737</v>
+        <v>8584</v>
       </c>
       <c r="G224" t="n">
-        <v>3249</v>
+        <v>3215</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>44075</v>
       </c>
       <c r="B225" t="n">
-        <v>1608321</v>
+        <v>1648136</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>10116</v>
+        <v>9925</v>
       </c>
       <c r="F225" t="n">
-        <v>8495</v>
+        <v>8321</v>
       </c>
       <c r="G225" t="n">
-        <v>3242</v>
+        <v>3208</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>44076</v>
       </c>
       <c r="B226" t="n">
-        <v>1618193</v>
+        <v>1657797</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>9872</v>
+        <v>9661</v>
       </c>
       <c r="F226" t="n">
-        <v>8255</v>
+        <v>8061</v>
       </c>
       <c r="G226" t="n">
-        <v>3234</v>
+        <v>3201</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>44077</v>
       </c>
       <c r="B227" t="n">
-        <v>1627825</v>
+        <v>1667198</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9632</v>
+        <v>9401</v>
       </c>
       <c r="F227" t="n">
-        <v>8018</v>
+        <v>7804</v>
       </c>
       <c r="G227" t="n">
-        <v>3227</v>
+        <v>3194</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>44078</v>
       </c>
       <c r="B228" t="n">
-        <v>1637219</v>
+        <v>1676342</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>9394</v>
+        <v>9144</v>
       </c>
       <c r="F228" t="n">
-        <v>7783</v>
+        <v>7551</v>
       </c>
       <c r="G228" t="n">
-        <v>3220</v>
+        <v>3187</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>44079</v>
       </c>
       <c r="B229" t="n">
-        <v>1646377</v>
+        <v>1685233</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>9158</v>
+        <v>8891</v>
       </c>
       <c r="F229" t="n">
-        <v>7552</v>
+        <v>7302</v>
       </c>
       <c r="G229" t="n">
-        <v>3213</v>
+        <v>3180</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>44080</v>
       </c>
       <c r="B230" t="n">
-        <v>1655303</v>
+        <v>1693875</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>8926</v>
+        <v>8642</v>
       </c>
       <c r="F230" t="n">
-        <v>7323</v>
+        <v>7056</v>
       </c>
       <c r="G230" t="n">
-        <v>3206</v>
+        <v>3173</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>44081</v>
       </c>
       <c r="B231" t="n">
-        <v>1664000</v>
+        <v>1702272</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8697</v>
+        <v>8397</v>
       </c>
       <c r="F231" t="n">
-        <v>7098</v>
+        <v>6815</v>
       </c>
       <c r="G231" t="n">
-        <v>3199</v>
+        <v>3166</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>44082</v>
       </c>
       <c r="B232" t="n">
-        <v>1672471</v>
+        <v>1710429</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>8471</v>
+        <v>8157</v>
       </c>
       <c r="F232" t="n">
-        <v>6875</v>
+        <v>6577</v>
       </c>
       <c r="G232" t="n">
-        <v>3192</v>
+        <v>3159</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>44083</v>
       </c>
       <c r="B233" t="n">
-        <v>1680720</v>
+        <v>1718349</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>8249</v>
+        <v>7920</v>
       </c>
       <c r="F233" t="n">
-        <v>6656</v>
+        <v>6344</v>
       </c>
       <c r="G233" t="n">
-        <v>3185</v>
+        <v>3152</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>44084</v>
       </c>
       <c r="B234" t="n">
-        <v>1688750</v>
+        <v>1726037</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>8030</v>
+        <v>7688</v>
       </c>
       <c r="F234" t="n">
-        <v>6440</v>
+        <v>6115</v>
       </c>
       <c r="G234" t="n">
-        <v>3178</v>
+        <v>3145</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>44085</v>
       </c>
       <c r="B235" t="n">
-        <v>1696564</v>
+        <v>1733496</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>7814</v>
+        <v>7459</v>
       </c>
       <c r="F235" t="n">
-        <v>6228</v>
+        <v>5890</v>
       </c>
       <c r="G235" t="n">
-        <v>3171</v>
+        <v>3138</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>44086</v>
       </c>
       <c r="B236" t="n">
-        <v>1704166</v>
+        <v>1740732</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>7602</v>
+        <v>7236</v>
       </c>
       <c r="F236" t="n">
-        <v>6019</v>
+        <v>5670</v>
       </c>
       <c r="G236" t="n">
-        <v>3165</v>
+        <v>3132</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>44087</v>
       </c>
       <c r="B237" t="n">
-        <v>1711559</v>
+        <v>1747749</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>7393</v>
+        <v>7017</v>
       </c>
       <c r="F237" t="n">
-        <v>5814</v>
+        <v>5454</v>
       </c>
       <c r="G237" t="n">
-        <v>3158</v>
+        <v>3125</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>44088</v>
       </c>
       <c r="B238" t="n">
-        <v>1718747</v>
+        <v>1754551</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -7277,13 +7277,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>7188</v>
+        <v>6802</v>
       </c>
       <c r="F238" t="n">
-        <v>5613</v>
+        <v>5243</v>
       </c>
       <c r="G238" t="n">
-        <v>3151</v>
+        <v>3118</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>44089</v>
       </c>
       <c r="B239" t="n">
-        <v>1725734</v>
+        <v>1761143</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>6987</v>
+        <v>6592</v>
       </c>
       <c r="F239" t="n">
-        <v>5415</v>
+        <v>5036</v>
       </c>
       <c r="G239" t="n">
-        <v>3145</v>
+        <v>3112</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>44090</v>
       </c>
       <c r="B240" t="n">
-        <v>1732524</v>
+        <v>1767529</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>6790</v>
+        <v>6386</v>
       </c>
       <c r="F240" t="n">
-        <v>5221</v>
+        <v>4833</v>
       </c>
       <c r="G240" t="n">
-        <v>3138</v>
+        <v>3105</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>44091</v>
       </c>
       <c r="B241" t="n">
-        <v>1739120</v>
+        <v>1773714</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>6596</v>
+        <v>6185</v>
       </c>
       <c r="F241" t="n">
-        <v>5030</v>
+        <v>4635</v>
       </c>
       <c r="G241" t="n">
-        <v>3131</v>
+        <v>3099</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>44092</v>
       </c>
       <c r="B242" t="n">
-        <v>1745526</v>
+        <v>1779702</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>6406</v>
+        <v>5988</v>
       </c>
       <c r="F242" t="n">
-        <v>4844</v>
+        <v>4442</v>
       </c>
       <c r="G242" t="n">
-        <v>3125</v>
+        <v>3092</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>44093</v>
       </c>
       <c r="B243" t="n">
-        <v>1751746</v>
+        <v>1785498</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>6220</v>
+        <v>5796</v>
       </c>
       <c r="F243" t="n">
-        <v>4661</v>
+        <v>4253</v>
       </c>
       <c r="G243" t="n">
-        <v>3118</v>
+        <v>3086</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>44094</v>
       </c>
       <c r="B244" t="n">
-        <v>1757784</v>
+        <v>1791106</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>6038</v>
+        <v>5608</v>
       </c>
       <c r="F244" t="n">
-        <v>4482</v>
+        <v>4069</v>
       </c>
       <c r="G244" t="n">
-        <v>3112</v>
+        <v>3079</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>44095</v>
       </c>
       <c r="B245" t="n">
-        <v>1763643</v>
+        <v>1796531</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>5859</v>
+        <v>5425</v>
       </c>
       <c r="F245" t="n">
-        <v>4306</v>
+        <v>3889</v>
       </c>
       <c r="G245" t="n">
-        <v>3105</v>
+        <v>3073</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>44096</v>
       </c>
       <c r="B246" t="n">
-        <v>1769328</v>
+        <v>1801778</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>5685</v>
+        <v>5247</v>
       </c>
       <c r="F246" t="n">
-        <v>4135</v>
+        <v>3713</v>
       </c>
       <c r="G246" t="n">
-        <v>3099</v>
+        <v>3067</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>44097</v>
       </c>
       <c r="B247" t="n">
-        <v>1774842</v>
+        <v>1806850</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>5514</v>
+        <v>5072</v>
       </c>
       <c r="F247" t="n">
-        <v>3967</v>
+        <v>3542</v>
       </c>
       <c r="G247" t="n">
-        <v>3093</v>
+        <v>3061</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>44098</v>
       </c>
       <c r="B248" t="n">
-        <v>1780189</v>
+        <v>1811753</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7567,13 +7567,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>5347</v>
+        <v>4903</v>
       </c>
       <c r="F248" t="n">
-        <v>3803</v>
+        <v>3376</v>
       </c>
       <c r="G248" t="n">
-        <v>3086</v>
+        <v>3054</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>44099</v>
       </c>
       <c r="B249" t="n">
-        <v>1785372</v>
+        <v>1816490</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>5183</v>
+        <v>4737</v>
       </c>
       <c r="F249" t="n">
-        <v>3643</v>
+        <v>3213</v>
       </c>
       <c r="G249" t="n">
-        <v>3080</v>
+        <v>3048</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>44100</v>
       </c>
       <c r="B250" t="n">
-        <v>1790396</v>
+        <v>1821066</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>5024</v>
+        <v>4576</v>
       </c>
       <c r="F250" t="n">
-        <v>3487</v>
+        <v>3055</v>
       </c>
       <c r="G250" t="n">
-        <v>3074</v>
+        <v>3042</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>44101</v>
       </c>
       <c r="B251" t="n">
-        <v>1795264</v>
+        <v>1825486</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>4868</v>
+        <v>4420</v>
       </c>
       <c r="F251" t="n">
-        <v>3334</v>
+        <v>2902</v>
       </c>
       <c r="G251" t="n">
-        <v>3068</v>
+        <v>3036</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -7672,7 +7672,7 @@
         <v>44102</v>
       </c>
       <c r="B252" t="n">
-        <v>1799980</v>
+        <v>1829753</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7683,13 +7683,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>4716</v>
+        <v>4267</v>
       </c>
       <c r="F252" t="n">
-        <v>3185</v>
+        <v>2752</v>
       </c>
       <c r="G252" t="n">
-        <v>3062</v>
+        <v>3030</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>44103</v>
       </c>
       <c r="B253" t="n">
-        <v>1804548</v>
+        <v>1833872</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7712,13 +7712,13 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>4568</v>
+        <v>4119</v>
       </c>
       <c r="F253" t="n">
-        <v>3040</v>
+        <v>2607</v>
       </c>
       <c r="G253" t="n">
-        <v>3056</v>
+        <v>3024</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>44104</v>
       </c>
       <c r="B254" t="n">
-        <v>1808971</v>
+        <v>1837847</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7741,13 +7741,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4423</v>
+        <v>3975</v>
       </c>
       <c r="F254" t="n">
-        <v>2898</v>
+        <v>2466</v>
       </c>
       <c r="G254" t="n">
-        <v>3049</v>
+        <v>3018</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>44105</v>
       </c>
       <c r="B255" t="n">
-        <v>1813253</v>
+        <v>1841682</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7770,13 +7770,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>4282</v>
+        <v>3835</v>
       </c>
       <c r="F255" t="n">
-        <v>2760</v>
+        <v>2329</v>
       </c>
       <c r="G255" t="n">
-        <v>3043</v>
+        <v>3012</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -7788,7 +7788,7 @@
         <v>44106</v>
       </c>
       <c r="B256" t="n">
-        <v>1817398</v>
+        <v>1845381</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7799,13 +7799,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>4145</v>
+        <v>3699</v>
       </c>
       <c r="F256" t="n">
-        <v>2626</v>
+        <v>2196</v>
       </c>
       <c r="G256" t="n">
-        <v>3037</v>
+        <v>3006</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>44107</v>
       </c>
       <c r="B257" t="n">
-        <v>1821409</v>
+        <v>1848948</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7828,13 +7828,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>4011</v>
+        <v>3567</v>
       </c>
       <c r="F257" t="n">
-        <v>2495</v>
+        <v>2067</v>
       </c>
       <c r="G257" t="n">
-        <v>3031</v>
+        <v>3000</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="B258" t="n">
-        <v>1825289</v>
+        <v>1852387</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>3880</v>
+        <v>3439</v>
       </c>
       <c r="F258" t="n">
-        <v>2367</v>
+        <v>1942</v>
       </c>
       <c r="G258" t="n">
-        <v>3026</v>
+        <v>2994</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>44109</v>
       </c>
       <c r="B259" t="n">
-        <v>1829042</v>
+        <v>1855702</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7886,13 +7886,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>3753</v>
+        <v>3315</v>
       </c>
       <c r="F259" t="n">
-        <v>2243</v>
+        <v>1820</v>
       </c>
       <c r="G259" t="n">
-        <v>3020</v>
+        <v>2988</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -7904,7 +7904,7 @@
         <v>44110</v>
       </c>
       <c r="B260" t="n">
-        <v>1832672</v>
+        <v>1858896</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>3630</v>
+        <v>3194</v>
       </c>
       <c r="F260" t="n">
-        <v>2123</v>
+        <v>1703</v>
       </c>
       <c r="G260" t="n">
-        <v>3014</v>
+        <v>2982</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>44111</v>
       </c>
       <c r="B261" t="n">
-        <v>1836181</v>
+        <v>1861973</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>3509</v>
+        <v>3077</v>
       </c>
       <c r="F261" t="n">
-        <v>2005</v>
+        <v>1589</v>
       </c>
       <c r="G261" t="n">
-        <v>3008</v>
+        <v>2977</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>44112</v>
       </c>
       <c r="B262" t="n">
-        <v>1839573</v>
+        <v>1864937</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7973,13 +7973,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>3392</v>
+        <v>2964</v>
       </c>
       <c r="F262" t="n">
-        <v>1891</v>
+        <v>1478</v>
       </c>
       <c r="G262" t="n">
-        <v>3002</v>
+        <v>2971</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>44113</v>
       </c>
       <c r="B263" t="n">
-        <v>1842852</v>
+        <v>1867791</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>3279</v>
+        <v>2854</v>
       </c>
       <c r="F263" t="n">
-        <v>1780</v>
+        <v>1372</v>
       </c>
       <c r="G263" t="n">
-        <v>2996</v>
+        <v>2965</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>44114</v>
       </c>
       <c r="B264" t="n">
-        <v>1846020</v>
+        <v>1870539</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>3168</v>
+        <v>2748</v>
       </c>
       <c r="F264" t="n">
-        <v>1673</v>
+        <v>1268</v>
       </c>
       <c r="G264" t="n">
-        <v>2991</v>
+        <v>2960</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>44115</v>
       </c>
       <c r="B265" t="n">
-        <v>1849081</v>
+        <v>1873184</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>3061</v>
+        <v>2645</v>
       </c>
       <c r="F265" t="n">
-        <v>1568</v>
+        <v>1168</v>
       </c>
       <c r="G265" t="n">
-        <v>2985</v>
+        <v>2954</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>44116</v>
       </c>
       <c r="B266" t="n">
-        <v>1852037</v>
+        <v>1875729</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -8089,13 +8089,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>2956</v>
+        <v>2545</v>
       </c>
       <c r="F266" t="n">
-        <v>1467</v>
+        <v>1071</v>
       </c>
       <c r="G266" t="n">
-        <v>2979</v>
+        <v>2948</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>44117</v>
       </c>
       <c r="B267" t="n">
-        <v>1854892</v>
+        <v>1878178</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2855</v>
+        <v>2449</v>
       </c>
       <c r="F267" t="n">
-        <v>1368</v>
+        <v>978</v>
       </c>
       <c r="G267" t="n">
-        <v>2974</v>
+        <v>2943</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>44118</v>
       </c>
       <c r="B268" t="n">
-        <v>1857648</v>
+        <v>1880534</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -8147,13 +8147,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>2756</v>
+        <v>2356</v>
       </c>
       <c r="F268" t="n">
-        <v>1272</v>
+        <v>887</v>
       </c>
       <c r="G268" t="n">
-        <v>2968</v>
+        <v>2937</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>44119</v>
       </c>
       <c r="B269" t="n">
-        <v>1860309</v>
+        <v>1882800</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -8176,13 +8176,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>2661</v>
+        <v>2266</v>
       </c>
       <c r="F269" t="n">
-        <v>1180</v>
+        <v>800</v>
       </c>
       <c r="G269" t="n">
-        <v>2963</v>
+        <v>2932</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -8194,7 +8194,7 @@
         <v>44120</v>
       </c>
       <c r="B270" t="n">
-        <v>1862877</v>
+        <v>1884979</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8205,13 +8205,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>2568</v>
+        <v>2179</v>
       </c>
       <c r="F270" t="n">
-        <v>1090</v>
+        <v>715</v>
       </c>
       <c r="G270" t="n">
-        <v>2957</v>
+        <v>2926</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>44121</v>
       </c>
       <c r="B271" t="n">
-        <v>1865355</v>
+        <v>1887073</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>2478</v>
+        <v>2094</v>
       </c>
       <c r="F271" t="n">
-        <v>1003</v>
+        <v>634</v>
       </c>
       <c r="G271" t="n">
-        <v>2952</v>
+        <v>2921</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>44122</v>
       </c>
       <c r="B272" t="n">
-        <v>1867746</v>
+        <v>1889086</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>2391</v>
+        <v>2013</v>
       </c>
       <c r="F272" t="n">
-        <v>918</v>
+        <v>555</v>
       </c>
       <c r="G272" t="n">
-        <v>2946</v>
+        <v>2915</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>44123</v>
       </c>
       <c r="B273" t="n">
-        <v>1870053</v>
+        <v>1891021</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>2307</v>
+        <v>1935</v>
       </c>
       <c r="F273" t="n">
-        <v>837</v>
+        <v>479</v>
       </c>
       <c r="G273" t="n">
-        <v>2941</v>
+        <v>2910</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>44124</v>
       </c>
       <c r="B274" t="n">
-        <v>1872278</v>
+        <v>1892880</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -8321,13 +8321,13 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>2225</v>
+        <v>1859</v>
       </c>
       <c r="F274" t="n">
-        <v>757</v>
+        <v>406</v>
       </c>
       <c r="G274" t="n">
-        <v>2935</v>
+        <v>2905</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>44125</v>
       </c>
       <c r="B275" t="n">
-        <v>1874424</v>
+        <v>1894665</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -8350,13 +8350,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>2146</v>
+        <v>1785</v>
       </c>
       <c r="F275" t="n">
-        <v>681</v>
+        <v>336</v>
       </c>
       <c r="G275" t="n">
-        <v>2930</v>
+        <v>2899</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -8368,7 +8368,7 @@
         <v>44126</v>
       </c>
       <c r="B276" t="n">
-        <v>1876493</v>
+        <v>1896380</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>2069</v>
+        <v>1715</v>
       </c>
       <c r="F276" t="n">
-        <v>606</v>
+        <v>268</v>
       </c>
       <c r="G276" t="n">
-        <v>2925</v>
+        <v>2894</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -8397,7 +8397,7 @@
         <v>44127</v>
       </c>
       <c r="B277" t="n">
-        <v>1878487</v>
+        <v>1898027</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -8408,13 +8408,13 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1994</v>
+        <v>1647</v>
       </c>
       <c r="F277" t="n">
-        <v>535</v>
+        <v>202</v>
       </c>
       <c r="G277" t="n">
-        <v>2919</v>
+        <v>2889</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>44128</v>
       </c>
       <c r="B278" t="n">
-        <v>1880409</v>
+        <v>1899608</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -8437,13 +8437,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1922</v>
+        <v>1581</v>
       </c>
       <c r="F278" t="n">
-        <v>465</v>
+        <v>139</v>
       </c>
       <c r="G278" t="n">
-        <v>2914</v>
+        <v>2884</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>44129</v>
       </c>
       <c r="B279" t="n">
-        <v>1882261</v>
+        <v>1901126</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -8466,13 +8466,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>1852</v>
+        <v>1518</v>
       </c>
       <c r="F279" t="n">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="G279" t="n">
-        <v>2909</v>
+        <v>2878</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>44130</v>
       </c>
       <c r="B280" t="n">
-        <v>1884046</v>
+        <v>1902583</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -8495,13 +8495,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1785</v>
+        <v>1457</v>
       </c>
       <c r="F280" t="n">
-        <v>333</v>
+        <v>20</v>
       </c>
       <c r="G280" t="n">
-        <v>2903</v>
+        <v>2873</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -8513,7 +8513,7 @@
         <v>44131</v>
       </c>
       <c r="B281" t="n">
-        <v>1885766</v>
+        <v>1903981</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -8524,13 +8524,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>1720</v>
+        <v>1398</v>
       </c>
       <c r="F281" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>2898</v>
+        <v>2832</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>44132</v>
       </c>
       <c r="B282" t="n">
-        <v>1887422</v>
+        <v>1905322</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -8553,13 +8553,13 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>1656</v>
+        <v>1341</v>
       </c>
       <c r="F282" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>2893</v>
+        <v>2772</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         <v>44133</v>
       </c>
       <c r="B283" t="n">
-        <v>1889017</v>
+        <v>1906608</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -8582,13 +8582,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>1595</v>
+        <v>1286</v>
       </c>
       <c r="F283" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>2888</v>
+        <v>2715</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -8600,7 +8600,7 @@
         <v>44134</v>
       </c>
       <c r="B284" t="n">
-        <v>1890553</v>
+        <v>1907842</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -8611,13 +8611,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>1536</v>
+        <v>1234</v>
       </c>
       <c r="F284" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>2883</v>
+        <v>2660</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -8629,7 +8629,7 @@
         <v>44135</v>
       </c>
       <c r="B285" t="n">
-        <v>1892032</v>
+        <v>1909025</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -8640,13 +8640,13 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>1479</v>
+        <v>1183</v>
       </c>
       <c r="F285" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>2878</v>
+        <v>2607</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -8658,7 +8658,7 @@
         <v>44136</v>
       </c>
       <c r="B286" t="n">
-        <v>1893456</v>
+        <v>1910159</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8669,13 +8669,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1424</v>
+        <v>1134</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>2860</v>
+        <v>2556</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>44137</v>
       </c>
       <c r="B287" t="n">
-        <v>1894826</v>
+        <v>1911246</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1370</v>
+        <v>1087</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>2804</v>
+        <v>2506</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>44138</v>
       </c>
       <c r="B288" t="n">
-        <v>1896145</v>
+        <v>1912288</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -8727,13 +8727,13 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>1319</v>
+        <v>1042</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>2750</v>
+        <v>2459</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>44139</v>
       </c>
       <c r="B289" t="n">
-        <v>1897414</v>
+        <v>1913287</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -8756,13 +8756,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>1269</v>
+        <v>999</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>2698</v>
+        <v>2413</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>44140</v>
       </c>
       <c r="B290" t="n">
-        <v>1898635</v>
+        <v>1914244</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -8785,13 +8785,13 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>1221</v>
+        <v>957</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>2647</v>
+        <v>2368</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -8803,7 +8803,7 @@
         <v>44141</v>
       </c>
       <c r="B291" t="n">
-        <v>1899810</v>
+        <v>1915161</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8814,13 +8814,13 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>1175</v>
+        <v>917</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>2599</v>
+        <v>2326</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -8832,7 +8832,7 @@
         <v>44142</v>
       </c>
       <c r="B292" t="n">
-        <v>1900940</v>
+        <v>1916039</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8843,13 +8843,13 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>1130</v>
+        <v>878</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>2551</v>
+        <v>2285</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>44143</v>
       </c>
       <c r="B293" t="n">
-        <v>1902027</v>
+        <v>1916880</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8872,13 +8872,13 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>1087</v>
+        <v>841</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>2506</v>
+        <v>2245</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>44144</v>
       </c>
       <c r="B294" t="n">
-        <v>1903072</v>
+        <v>1917685</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8901,13 +8901,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>1045</v>
+        <v>805</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>2461</v>
+        <v>2207</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -8919,7 +8919,7 @@
         <v>44145</v>
       </c>
       <c r="B295" t="n">
-        <v>1904077</v>
+        <v>1918456</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1005</v>
+        <v>771</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>2419</v>
+        <v>2171</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>44146</v>
       </c>
       <c r="B296" t="n">
-        <v>1905043</v>
+        <v>1919194</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8959,13 +8959,13 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>966</v>
+        <v>738</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>2378</v>
+        <v>2135</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -8977,7 +8977,7 @@
         <v>44147</v>
       </c>
       <c r="B297" t="n">
-        <v>1905971</v>
+        <v>1919901</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8988,13 +8988,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>928</v>
+        <v>707</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>2338</v>
+        <v>2101</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>44148</v>
       </c>
       <c r="B298" t="n">
-        <v>1906863</v>
+        <v>1920577</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>892</v>
+        <v>676</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>2299</v>
+        <v>2069</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -9035,7 +9035,7 @@
         <v>44149</v>
       </c>
       <c r="B299" t="n">
-        <v>1907721</v>
+        <v>1921224</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -9046,25 +9046,30 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>858</v>
+        <v>647</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>2262</v>
+        <v>2037</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>11052</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>End 97% on
+14 November 2020</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="B300" t="n">
-        <v>1908545</v>
+        <v>1921843</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -9075,13 +9080,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>824</v>
+        <v>619</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>2226</v>
+        <v>2007</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9093,7 +9098,7 @@
         <v>44151</v>
       </c>
       <c r="B301" t="n">
-        <v>1909337</v>
+        <v>1922436</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -9104,13 +9109,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>792</v>
+        <v>593</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>2192</v>
+        <v>1978</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -9122,7 +9127,7 @@
         <v>44152</v>
       </c>
       <c r="B302" t="n">
-        <v>1910098</v>
+        <v>1923003</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -9133,13 +9138,13 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>761</v>
+        <v>567</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>2158</v>
+        <v>1950</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -9151,7 +9156,7 @@
         <v>44153</v>
       </c>
       <c r="B303" t="n">
-        <v>1910829</v>
+        <v>1923545</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -9162,13 +9167,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>731</v>
+        <v>542</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>2126</v>
+        <v>1923</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -9180,7 +9185,7 @@
         <v>44154</v>
       </c>
       <c r="B304" t="n">
-        <v>1911531</v>
+        <v>1924063</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -9191,13 +9196,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>702</v>
+        <v>518</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>2095</v>
+        <v>1897</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9209,7 +9214,7 @@
         <v>44155</v>
       </c>
       <c r="B305" t="n">
-        <v>1912205</v>
+        <v>1924559</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -9220,13 +9225,13 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>674</v>
+        <v>496</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>2064</v>
+        <v>1872</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -9238,7 +9243,7 @@
         <v>44156</v>
       </c>
       <c r="B306" t="n">
-        <v>1912852</v>
+        <v>1925033</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -9249,13 +9254,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>647</v>
+        <v>474</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>2035</v>
+        <v>1848</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -9267,7 +9272,7 @@
         <v>44157</v>
       </c>
       <c r="B307" t="n">
-        <v>1913473</v>
+        <v>1925486</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -9278,30 +9283,25 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>621</v>
+        <v>453</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>2007</v>
+        <v>1825</v>
       </c>
       <c r="H307" t="n">
-        <v>10580</v>
-      </c>
-      <c r="I307" t="inlineStr">
-        <is>
-          <t>End 97% on
-22 November 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="B308" t="n">
-        <v>1914069</v>
+        <v>1925919</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -9312,13 +9312,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>596</v>
+        <v>433</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1980</v>
+        <v>1802</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>44159</v>
       </c>
       <c r="B309" t="n">
-        <v>1914642</v>
+        <v>1926333</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -9341,13 +9341,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>573</v>
+        <v>414</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1954</v>
+        <v>1781</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -9359,7 +9359,7 @@
         <v>44160</v>
       </c>
       <c r="B310" t="n">
-        <v>1915192</v>
+        <v>1926729</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -9370,13 +9370,13 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>550</v>
+        <v>396</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1929</v>
+        <v>1760</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -9388,7 +9388,7 @@
         <v>44161</v>
       </c>
       <c r="B311" t="n">
-        <v>1915719</v>
+        <v>1927107</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -9399,13 +9399,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>527</v>
+        <v>378</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1904</v>
+        <v>1741</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9417,7 +9417,7 @@
         <v>44162</v>
       </c>
       <c r="B312" t="n">
-        <v>1916225</v>
+        <v>1927468</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -9428,13 +9428,13 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>506</v>
+        <v>361</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1881</v>
+        <v>1722</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         <v>44163</v>
       </c>
       <c r="B313" t="n">
-        <v>1916711</v>
+        <v>1927813</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -9457,13 +9457,13 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>486</v>
+        <v>345</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1858</v>
+        <v>1703</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -9475,7 +9475,7 @@
         <v>44164</v>
       </c>
       <c r="B314" t="n">
-        <v>1917177</v>
+        <v>1928143</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -9486,13 +9486,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>466</v>
+        <v>330</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1836</v>
+        <v>1686</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -9504,7 +9504,7 @@
         <v>44165</v>
       </c>
       <c r="B315" t="n">
-        <v>1917624</v>
+        <v>1928458</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -9515,13 +9515,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>447</v>
+        <v>315</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1815</v>
+        <v>1669</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9533,7 +9533,7 @@
         <v>44166</v>
       </c>
       <c r="B316" t="n">
-        <v>1918053</v>
+        <v>1928759</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -9544,13 +9544,13 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>429</v>
+        <v>301</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1795</v>
+        <v>1652</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -9562,7 +9562,7 @@
         <v>44167</v>
       </c>
       <c r="B317" t="n">
-        <v>1918464</v>
+        <v>1929046</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -9573,13 +9573,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>411</v>
+        <v>287</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1775</v>
+        <v>1637</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -9591,7 +9591,7 @@
         <v>44168</v>
       </c>
       <c r="B318" t="n">
-        <v>1918858</v>
+        <v>1929320</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -9602,13 +9602,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>394</v>
+        <v>274</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1756</v>
+        <v>1622</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -9620,7 +9620,7 @@
         <v>44169</v>
       </c>
       <c r="B319" t="n">
-        <v>1919236</v>
+        <v>1929582</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -9631,13 +9631,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>378</v>
+        <v>262</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1738</v>
+        <v>1607</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>44170</v>
       </c>
       <c r="B320" t="n">
-        <v>1919599</v>
+        <v>1929832</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -9660,13 +9660,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>363</v>
+        <v>250</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1720</v>
+        <v>1593</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -9678,7 +9678,7 @@
         <v>44171</v>
       </c>
       <c r="B321" t="n">
-        <v>1919947</v>
+        <v>1930070</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -9689,13 +9689,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>348</v>
+        <v>238</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>1703</v>
+        <v>1580</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -9707,7 +9707,7 @@
         <v>44172</v>
       </c>
       <c r="B322" t="n">
-        <v>1920280</v>
+        <v>1930298</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -9718,13 +9718,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>333</v>
+        <v>228</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>1686</v>
+        <v>1567</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>44173</v>
       </c>
       <c r="B323" t="n">
-        <v>1920600</v>
+        <v>1930515</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -9747,25 +9747,30 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1671</v>
+        <v>1554</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>6632</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>End 99% on
+08 December 2020</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
         <v>44174</v>
       </c>
       <c r="B324" t="n">
-        <v>1920906</v>
+        <v>1930722</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -9776,13 +9781,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1655</v>
+        <v>1542</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -9794,7 +9799,7 @@
         <v>44175</v>
       </c>
       <c r="B325" t="n">
-        <v>1921200</v>
+        <v>1930920</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -9805,13 +9810,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>294</v>
+        <v>198</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1640</v>
+        <v>1530</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -9823,7 +9828,7 @@
         <v>44176</v>
       </c>
       <c r="B326" t="n">
-        <v>1921481</v>
+        <v>1931109</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -9834,13 +9839,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1626</v>
+        <v>1519</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -9852,7 +9857,7 @@
         <v>44177</v>
       </c>
       <c r="B327" t="n">
-        <v>1921751</v>
+        <v>1931289</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -9863,13 +9868,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1612</v>
+        <v>1509</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -9881,7 +9886,7 @@
         <v>44178</v>
       </c>
       <c r="B328" t="n">
-        <v>1922009</v>
+        <v>1931461</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -9892,13 +9897,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1599</v>
+        <v>1498</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -9910,7 +9915,7 @@
         <v>44179</v>
       </c>
       <c r="B329" t="n">
-        <v>1922257</v>
+        <v>1931625</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9921,13 +9926,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1586</v>
+        <v>1488</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -9939,7 +9944,7 @@
         <v>44180</v>
       </c>
       <c r="B330" t="n">
-        <v>1922494</v>
+        <v>1931781</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9950,13 +9955,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1574</v>
+        <v>1479</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -9968,7 +9973,7 @@
         <v>44181</v>
       </c>
       <c r="B331" t="n">
-        <v>1922721</v>
+        <v>1931930</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9979,13 +9984,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1562</v>
+        <v>1469</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -9997,7 +10002,7 @@
         <v>44182</v>
       </c>
       <c r="B332" t="n">
-        <v>1922939</v>
+        <v>1932072</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -10008,13 +10013,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1550</v>
+        <v>1461</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -10026,7 +10031,7 @@
         <v>44183</v>
       </c>
       <c r="B333" t="n">
-        <v>1923148</v>
+        <v>1932207</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -10037,30 +10042,25 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1539</v>
+        <v>1452</v>
       </c>
       <c r="H333" t="n">
-        <v>6348</v>
-      </c>
-      <c r="I333" t="inlineStr">
-        <is>
-          <t>End 99% on
-18 December 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
         <v>44184</v>
       </c>
       <c r="B334" t="n">
-        <v>1923348</v>
+        <v>1932336</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>1528</v>
+        <v>1444</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>44185</v>
       </c>
       <c r="B335" t="n">
-        <v>1923539</v>
+        <v>1932459</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>1518</v>
+        <v>1436</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>44186</v>
       </c>
       <c r="B336" t="n">
-        <v>1923722</v>
+        <v>1932576</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>1508</v>
+        <v>1428</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>44187</v>
       </c>
       <c r="B337" t="n">
-        <v>1923897</v>
+        <v>1932688</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>1498</v>
+        <v>1420</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>44188</v>
       </c>
       <c r="B338" t="n">
-        <v>1924065</v>
+        <v>1932795</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1488</v>
+        <v>1413</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>44189</v>
       </c>
       <c r="B339" t="n">
-        <v>1924226</v>
+        <v>1932897</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1479</v>
+        <v>1406</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>44190</v>
       </c>
       <c r="B340" t="n">
-        <v>1924380</v>
+        <v>1932994</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -10245,13 +10245,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>1471</v>
+        <v>1400</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>44191</v>
       </c>
       <c r="B341" t="n">
-        <v>1924527</v>
+        <v>1933086</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -10274,13 +10274,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>1462</v>
+        <v>1393</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>44192</v>
       </c>
       <c r="B342" t="n">
-        <v>1924668</v>
+        <v>1933174</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -10303,13 +10303,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1454</v>
+        <v>1387</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>44193</v>
       </c>
       <c r="B343" t="n">
-        <v>1924803</v>
+        <v>1933258</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -10332,13 +10332,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>1446</v>
+        <v>1381</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>44194</v>
       </c>
       <c r="B344" t="n">
-        <v>1924932</v>
+        <v>1933338</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1438</v>
+        <v>1375</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>44195</v>
       </c>
       <c r="B345" t="n">
-        <v>1925056</v>
+        <v>1933414</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1431</v>
+        <v>1369</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>44196</v>
       </c>
       <c r="B346" t="n">
-        <v>1925174</v>
+        <v>1933486</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -10419,13 +10419,13 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>1423</v>
+        <v>1364</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>44197</v>
       </c>
       <c r="B347" t="n">
-        <v>1925287</v>
+        <v>1933555</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -10448,13 +10448,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1416</v>
+        <v>1358</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>44198</v>
       </c>
       <c r="B348" t="n">
-        <v>1925395</v>
+        <v>1933621</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -10477,13 +10477,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>1410</v>
+        <v>1353</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>44199</v>
       </c>
       <c r="B349" t="n">
-        <v>1925499</v>
+        <v>1933684</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>1403</v>
+        <v>1348</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>44200</v>
       </c>
       <c r="B350" t="n">
-        <v>1925598</v>
+        <v>1933744</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>1397</v>
+        <v>1344</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>44201</v>
       </c>
       <c r="B351" t="n">
-        <v>1925693</v>
+        <v>1933801</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -10564,13 +10564,13 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1391</v>
+        <v>1339</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -10582,7 +10582,7 @@
         <v>44202</v>
       </c>
       <c r="B352" t="n">
-        <v>1925784</v>
+        <v>1933855</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>1385</v>
+        <v>1334</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>44203</v>
       </c>
       <c r="B353" t="n">
-        <v>1925871</v>
+        <v>1933906</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -10622,13 +10622,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>1379</v>
+        <v>1330</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>44204</v>
       </c>
       <c r="B354" t="n">
-        <v>1925954</v>
+        <v>1933955</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>1373</v>
+        <v>1326</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>44205</v>
       </c>
       <c r="B355" t="n">
-        <v>1926033</v>
+        <v>1934002</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>1368</v>
+        <v>1321</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>44206</v>
       </c>
       <c r="B356" t="n">
-        <v>1926109</v>
+        <v>1934046</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -10709,13 +10709,13 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>1362</v>
+        <v>1317</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>44207</v>
       </c>
       <c r="B357" t="n">
-        <v>1926182</v>
+        <v>1934088</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -10738,13 +10738,13 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1357</v>
+        <v>1313</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>44208</v>
       </c>
       <c r="B358" t="n">
-        <v>1926252</v>
+        <v>1934128</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -10767,13 +10767,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>1352</v>
+        <v>1310</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>44209</v>
       </c>
       <c r="B359" t="n">
-        <v>1926319</v>
+        <v>1934166</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -10796,13 +10796,13 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>1348</v>
+        <v>1306</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>44210</v>
       </c>
       <c r="B360" t="n">
-        <v>1926383</v>
+        <v>1934202</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>1343</v>
+        <v>1302</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>44211</v>
       </c>
       <c r="B361" t="n">
-        <v>1926444</v>
+        <v>1934237</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -10854,13 +10854,13 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>1338</v>
+        <v>1299</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>44212</v>
       </c>
       <c r="B362" t="n">
-        <v>1926502</v>
+        <v>1934270</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -10883,13 +10883,13 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1334</v>
+        <v>1295</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>44213</v>
       </c>
       <c r="B363" t="n">
-        <v>1926558</v>
+        <v>1934301</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -10912,13 +10912,13 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>1330</v>
+        <v>1292</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>44214</v>
       </c>
       <c r="B364" t="n">
-        <v>1926611</v>
+        <v>1934331</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -10941,13 +10941,13 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>1325</v>
+        <v>1289</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>44215</v>
       </c>
       <c r="B365" t="n">
-        <v>1926662</v>
+        <v>1934359</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -10970,13 +10970,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>1321</v>
+        <v>1286</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>44216</v>
       </c>
       <c r="B366" t="n">
-        <v>1926711</v>
+        <v>1934386</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -10999,13 +10999,13 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>1317</v>
+        <v>1282</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>44217</v>
       </c>
       <c r="B367" t="n">
-        <v>1926757</v>
+        <v>1934412</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -11028,13 +11028,13 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1313</v>
+        <v>1279</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -11046,7 +11046,7 @@
         <v>44218</v>
       </c>
       <c r="B368" t="n">
-        <v>1926801</v>
+        <v>1934436</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>1310</v>
+        <v>1276</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>44219</v>
       </c>
       <c r="B369" t="n">
-        <v>1926843</v>
+        <v>1934459</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -11086,13 +11086,13 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>1306</v>
+        <v>1274</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>44220</v>
       </c>
       <c r="B370" t="n">
-        <v>1926884</v>
+        <v>1934481</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -11115,13 +11115,13 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>1302</v>
+        <v>1271</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>44221</v>
       </c>
       <c r="B371" t="n">
-        <v>1926923</v>
+        <v>1934502</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -11144,13 +11144,13 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>1299</v>
+        <v>1268</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>44222</v>
       </c>
       <c r="B372" t="n">
-        <v>1926960</v>
+        <v>1934522</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -11173,13 +11173,13 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>1295</v>
+        <v>1265</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -11191,7 +11191,7 @@
         <v>44223</v>
       </c>
       <c r="B373" t="n">
-        <v>1926995</v>
+        <v>1934541</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -11202,13 +11202,13 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>1292</v>
+        <v>1263</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>44224</v>
       </c>
       <c r="B374" t="n">
-        <v>1927029</v>
+        <v>1934559</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -11231,13 +11231,13 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>1289</v>
+        <v>1260</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -11249,7 +11249,7 @@
         <v>44225</v>
       </c>
       <c r="B375" t="n">
-        <v>1927061</v>
+        <v>1934576</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -11260,13 +11260,13 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>1286</v>
+        <v>1257</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -11278,7 +11278,7 @@
         <v>44226</v>
       </c>
       <c r="B376" t="n">
-        <v>1927092</v>
+        <v>1934592</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -11289,13 +11289,13 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>1282</v>
+        <v>1255</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>44227</v>
       </c>
       <c r="B377" t="n">
-        <v>1927122</v>
+        <v>1934608</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -11318,13 +11318,13 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1279</v>
+        <v>1252</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>44228</v>
       </c>
       <c r="B378" t="n">
-        <v>1927150</v>
+        <v>1934623</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -11347,13 +11347,13 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1276</v>
+        <v>1250</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>44229</v>
       </c>
       <c r="B379" t="n">
-        <v>1927177</v>
+        <v>1934637</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1274</v>
+        <v>1248</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>44230</v>
       </c>
       <c r="B380" t="n">
-        <v>1927203</v>
+        <v>1934650</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -11405,13 +11405,13 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>1271</v>
+        <v>1245</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>44231</v>
       </c>
       <c r="B381" t="n">
-        <v>1927228</v>
+        <v>1934663</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>1268</v>
+        <v>1243</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>44232</v>
       </c>
       <c r="B382" t="n">
-        <v>1927251</v>
+        <v>1934675</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -11463,13 +11463,13 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>1265</v>
+        <v>1241</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -11481,7 +11481,7 @@
         <v>44233</v>
       </c>
       <c r="B383" t="n">
-        <v>1927273</v>
+        <v>1934686</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -11492,13 +11492,13 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>1262</v>
+        <v>1239</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -11510,7 +11510,7 @@
         <v>44234</v>
       </c>
       <c r="B384" t="n">
-        <v>1927294</v>
+        <v>1934697</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -11521,13 +11521,13 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>1260</v>
+        <v>1236</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>44235</v>
       </c>
       <c r="B385" t="n">
-        <v>1927314</v>
+        <v>1934707</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -11550,13 +11550,13 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>1257</v>
+        <v>1234</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -11568,7 +11568,7 @@
         <v>44236</v>
       </c>
       <c r="B386" t="n">
-        <v>1927334</v>
+        <v>1934717</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -11579,13 +11579,13 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>1255</v>
+        <v>1232</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>44237</v>
       </c>
       <c r="B387" t="n">
-        <v>1927353</v>
+        <v>1934726</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -11608,13 +11608,13 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>1252</v>
+        <v>1230</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>44238</v>
       </c>
       <c r="B388" t="n">
-        <v>1927371</v>
+        <v>1934735</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -11637,13 +11637,13 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>1250</v>
+        <v>1228</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -11655,7 +11655,7 @@
         <v>44239</v>
       </c>
       <c r="B389" t="n">
-        <v>1927388</v>
+        <v>1934743</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -11666,13 +11666,13 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>1247</v>
+        <v>1226</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -11684,7 +11684,7 @@
         <v>44240</v>
       </c>
       <c r="B390" t="n">
-        <v>1927404</v>
+        <v>1934751</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -11695,13 +11695,13 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>1245</v>
+        <v>1224</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
         <v>44241</v>
       </c>
       <c r="B391" t="n">
-        <v>1927420</v>
+        <v>1934759</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -11724,13 +11724,13 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>1243</v>
+        <v>1222</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>44242</v>
       </c>
       <c r="B392" t="n">
-        <v>1927435</v>
+        <v>1934766</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -11753,13 +11753,13 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>1241</v>
+        <v>1220</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -11771,7 +11771,7 @@
         <v>44243</v>
       </c>
       <c r="B393" t="n">
-        <v>1927449</v>
+        <v>1934773</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -11782,13 +11782,13 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F393" t="n">
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>1238</v>
+        <v>1218</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -11800,7 +11800,7 @@
         <v>44244</v>
       </c>
       <c r="B394" t="n">
-        <v>1927463</v>
+        <v>1934780</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -11811,13 +11811,13 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F394" t="n">
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>1236</v>
+        <v>1216</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>44245</v>
       </c>
       <c r="B395" t="n">
-        <v>1927476</v>
+        <v>1934786</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -11840,13 +11840,13 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F395" t="n">
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>1234</v>
+        <v>1214</v>
       </c>
       <c r="H395" t="n">
         <v>0</v>
@@ -11858,7 +11858,7 @@
         <v>44246</v>
       </c>
       <c r="B396" t="n">
-        <v>1927488</v>
+        <v>1934792</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -11869,13 +11869,13 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F396" t="n">
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>1232</v>
+        <v>1213</v>
       </c>
       <c r="H396" t="n">
         <v>0</v>
@@ -11887,7 +11887,7 @@
         <v>44247</v>
       </c>
       <c r="B397" t="n">
-        <v>1927500</v>
+        <v>1934798</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -11898,13 +11898,13 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F397" t="n">
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>1230</v>
+        <v>1211</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -11916,7 +11916,7 @@
         <v>44248</v>
       </c>
       <c r="B398" t="n">
-        <v>1927511</v>
+        <v>1934803</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -11927,13 +11927,13 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F398" t="n">
         <v>0</v>
       </c>
       <c r="G398" t="n">
-        <v>1228</v>
+        <v>1209</v>
       </c>
       <c r="H398" t="n">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>44249</v>
       </c>
       <c r="B399" t="n">
-        <v>1927522</v>
+        <v>1934808</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -11956,13 +11956,13 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F399" t="n">
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>1226</v>
+        <v>1207</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -11974,7 +11974,7 @@
         <v>44250</v>
       </c>
       <c r="B400" t="n">
-        <v>1927532</v>
+        <v>1934813</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -11985,13 +11985,13 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F400" t="n">
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>1224</v>
+        <v>1205</v>
       </c>
       <c r="H400" t="n">
         <v>0</v>
@@ -12003,7 +12003,7 @@
         <v>44251</v>
       </c>
       <c r="B401" t="n">
-        <v>1927542</v>
+        <v>1934818</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -12014,13 +12014,13 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F401" t="n">
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>1222</v>
+        <v>1204</v>
       </c>
       <c r="H401" t="n">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>44252</v>
       </c>
       <c r="B402" t="n">
-        <v>1927551</v>
+        <v>1934822</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -12043,13 +12043,13 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F402" t="n">
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -12061,7 +12061,7 @@
         <v>44253</v>
       </c>
       <c r="B403" t="n">
-        <v>1927560</v>
+        <v>1934826</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -12072,13 +12072,13 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F403" t="n">
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>1218</v>
+        <v>1200</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -12090,7 +12090,7 @@
         <v>44254</v>
       </c>
       <c r="B404" t="n">
-        <v>1927569</v>
+        <v>1934830</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -12101,13 +12101,13 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F404" t="n">
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>1216</v>
+        <v>1199</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -12119,7 +12119,7 @@
         <v>44255</v>
       </c>
       <c r="B405" t="n">
-        <v>1927577</v>
+        <v>1934834</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -12130,13 +12130,13 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F405" t="n">
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>1214</v>
+        <v>1197</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -12148,7 +12148,7 @@
         <v>44256</v>
       </c>
       <c r="B406" t="n">
-        <v>1927585</v>
+        <v>1934838</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -12159,13 +12159,13 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F406" t="n">
         <v>0</v>
       </c>
       <c r="G406" t="n">
-        <v>1212</v>
+        <v>1195</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -12177,7 +12177,7 @@
         <v>44257</v>
       </c>
       <c r="B407" t="n">
-        <v>1927592</v>
+        <v>1934841</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -12188,13 +12188,13 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F407" t="n">
         <v>0</v>
       </c>
       <c r="G407" t="n">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -12206,7 +12206,7 @@
         <v>44258</v>
       </c>
       <c r="B408" t="n">
-        <v>1927599</v>
+        <v>1934844</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -12217,13 +12217,13 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F408" t="n">
         <v>0</v>
       </c>
       <c r="G408" t="n">
-        <v>1208</v>
+        <v>1192</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>44259</v>
       </c>
       <c r="B409" t="n">
-        <v>1927606</v>
+        <v>1934847</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -12246,13 +12246,13 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F409" t="n">
         <v>0</v>
       </c>
       <c r="G409" t="n">
-        <v>1207</v>
+        <v>1190</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -12264,7 +12264,7 @@
         <v>44260</v>
       </c>
       <c r="B410" t="n">
-        <v>1927612</v>
+        <v>1934850</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -12275,13 +12275,13 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F410" t="n">
         <v>0</v>
       </c>
       <c r="G410" t="n">
-        <v>1205</v>
+        <v>1189</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -12293,7 +12293,7 @@
         <v>44261</v>
       </c>
       <c r="B411" t="n">
-        <v>1927618</v>
+        <v>1934853</v>
       </c>
       <c r="C411" t="n">
         <v>0</v>
@@ -12304,13 +12304,13 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F411" t="n">
         <v>0</v>
       </c>
       <c r="G411" t="n">
-        <v>1203</v>
+        <v>1187</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -12322,7 +12322,7 @@
         <v>44262</v>
       </c>
       <c r="B412" t="n">
-        <v>1927624</v>
+        <v>1934856</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -12333,13 +12333,13 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F412" t="n">
         <v>0</v>
       </c>
       <c r="G412" t="n">
-        <v>1201</v>
+        <v>1186</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -12351,7 +12351,7 @@
         <v>44263</v>
       </c>
       <c r="B413" t="n">
-        <v>1927630</v>
+        <v>1934858</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -12362,13 +12362,13 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F413" t="n">
         <v>0</v>
       </c>
       <c r="G413" t="n">
-        <v>1200</v>
+        <v>1184</v>
       </c>
       <c r="H413" t="n">
         <v>0</v>
@@ -12380,7 +12380,7 @@
         <v>44264</v>
       </c>
       <c r="B414" t="n">
-        <v>1927635</v>
+        <v>1934860</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -12391,13 +12391,13 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F414" t="n">
         <v>0</v>
       </c>
       <c r="G414" t="n">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="H414" t="n">
         <v>0</v>
@@ -12409,7 +12409,7 @@
         <v>44265</v>
       </c>
       <c r="B415" t="n">
-        <v>1927640</v>
+        <v>1934862</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -12420,13 +12420,13 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F415" t="n">
         <v>0</v>
       </c>
       <c r="G415" t="n">
-        <v>1196</v>
+        <v>1181</v>
       </c>
       <c r="H415" t="n">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>44266</v>
       </c>
       <c r="B416" t="n">
-        <v>1927645</v>
+        <v>1934864</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -12449,13 +12449,13 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F416" t="n">
         <v>0</v>
       </c>
       <c r="G416" t="n">
-        <v>1194</v>
+        <v>1179</v>
       </c>
       <c r="H416" t="n">
         <v>0</v>
@@ -12467,7 +12467,7 @@
         <v>44267</v>
       </c>
       <c r="B417" t="n">
-        <v>1927650</v>
+        <v>1934866</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -12478,13 +12478,13 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F417" t="n">
         <v>0</v>
       </c>
       <c r="G417" t="n">
-        <v>1193</v>
+        <v>1178</v>
       </c>
       <c r="H417" t="n">
         <v>0</v>
@@ -12496,7 +12496,7 @@
         <v>44268</v>
       </c>
       <c r="B418" t="n">
-        <v>1927654</v>
+        <v>1934868</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -12507,13 +12507,13 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F418" t="n">
         <v>0</v>
       </c>
       <c r="G418" t="n">
-        <v>1191</v>
+        <v>1176</v>
       </c>
       <c r="H418" t="n">
         <v>0</v>
@@ -12525,7 +12525,7 @@
         <v>44269</v>
       </c>
       <c r="B419" t="n">
-        <v>1927658</v>
+        <v>1934870</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -12536,13 +12536,13 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F419" t="n">
         <v>0</v>
       </c>
       <c r="G419" t="n">
-        <v>1190</v>
+        <v>1175</v>
       </c>
       <c r="H419" t="n">
         <v>0</v>
@@ -12554,7 +12554,7 @@
         <v>44270</v>
       </c>
       <c r="B420" t="n">
-        <v>1927662</v>
+        <v>1934872</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -12565,13 +12565,13 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F420" t="n">
         <v>0</v>
       </c>
       <c r="G420" t="n">
-        <v>1188</v>
+        <v>1173</v>
       </c>
       <c r="H420" t="n">
         <v>0</v>
@@ -12583,7 +12583,7 @@
         <v>44271</v>
       </c>
       <c r="B421" t="n">
-        <v>1927666</v>
+        <v>1934874</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -12594,13 +12594,13 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F421" t="n">
         <v>0</v>
       </c>
       <c r="G421" t="n">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="H421" t="n">
         <v>0</v>
@@ -12612,7 +12612,7 @@
         <v>44272</v>
       </c>
       <c r="B422" t="n">
-        <v>1927670</v>
+        <v>1934876</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -12623,13 +12623,13 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F422" t="n">
         <v>0</v>
       </c>
       <c r="G422" t="n">
-        <v>1185</v>
+        <v>1170</v>
       </c>
       <c r="H422" t="n">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>44273</v>
       </c>
       <c r="B423" t="n">
-        <v>1927674</v>
+        <v>1934877</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -12652,13 +12652,13 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F423" t="n">
         <v>0</v>
       </c>
       <c r="G423" t="n">
-        <v>1183</v>
+        <v>1169</v>
       </c>
       <c r="H423" t="n">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>44274</v>
       </c>
       <c r="B424" t="n">
-        <v>1927677</v>
+        <v>1934878</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -12681,13 +12681,13 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F424" t="n">
         <v>0</v>
       </c>
       <c r="G424" t="n">
-        <v>1182</v>
+        <v>1167</v>
       </c>
       <c r="H424" t="n">
         <v>0</v>
@@ -12699,7 +12699,7 @@
         <v>44275</v>
       </c>
       <c r="B425" t="n">
-        <v>1927680</v>
+        <v>1934879</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -12710,13 +12710,13 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F425" t="n">
         <v>0</v>
       </c>
       <c r="G425" t="n">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="H425" t="n">
         <v>0</v>
@@ -12728,7 +12728,7 @@
         <v>44276</v>
       </c>
       <c r="B426" t="n">
-        <v>1927683</v>
+        <v>1934880</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -12739,13 +12739,13 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F426" t="n">
         <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="H426" t="n">
         <v>0</v>
@@ -12757,7 +12757,7 @@
         <v>44277</v>
       </c>
       <c r="B427" t="n">
-        <v>1927686</v>
+        <v>1934881</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -12768,13 +12768,13 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F427" t="n">
         <v>0</v>
       </c>
       <c r="G427" t="n">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="H427" t="n">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>44278</v>
       </c>
       <c r="B428" t="n">
-        <v>1927689</v>
+        <v>1934882</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -12797,13 +12797,13 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F428" t="n">
         <v>0</v>
       </c>
       <c r="G428" t="n">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="H428" t="n">
         <v>0</v>
@@ -12815,7 +12815,7 @@
         <v>44279</v>
       </c>
       <c r="B429" t="n">
-        <v>1927692</v>
+        <v>1934883</v>
       </c>
       <c r="C429" t="n">
         <v>0</v>
@@ -12826,13 +12826,13 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F429" t="n">
         <v>0</v>
       </c>
       <c r="G429" t="n">
-        <v>1174</v>
+        <v>1160</v>
       </c>
       <c r="H429" t="n">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>44280</v>
       </c>
       <c r="B430" t="n">
-        <v>1927695</v>
+        <v>1934884</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -12855,13 +12855,13 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F430" t="n">
         <v>0</v>
       </c>
       <c r="G430" t="n">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="H430" t="n">
         <v>0</v>
@@ -12873,7 +12873,7 @@
         <v>44281</v>
       </c>
       <c r="B431" t="n">
-        <v>1927697</v>
+        <v>1934885</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -12884,13 +12884,13 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F431" t="n">
         <v>0</v>
       </c>
       <c r="G431" t="n">
-        <v>1171</v>
+        <v>1157</v>
       </c>
       <c r="H431" t="n">
         <v>0</v>
@@ -12902,7 +12902,7 @@
         <v>44282</v>
       </c>
       <c r="B432" t="n">
-        <v>1927699</v>
+        <v>1934886</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -12913,13 +12913,13 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F432" t="n">
         <v>0</v>
       </c>
       <c r="G432" t="n">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="H432" t="n">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>44283</v>
       </c>
       <c r="B433" t="n">
-        <v>1927701</v>
+        <v>1934887</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -12942,13 +12942,13 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F433" t="n">
         <v>0</v>
       </c>
       <c r="G433" t="n">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="H433" t="n">
         <v>0</v>
@@ -12960,7 +12960,7 @@
         <v>44284</v>
       </c>
       <c r="B434" t="n">
-        <v>1927703</v>
+        <v>1934888</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -12971,13 +12971,13 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F434" t="n">
         <v>0</v>
       </c>
       <c r="G434" t="n">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="H434" t="n">
         <v>0</v>
@@ -12989,7 +12989,7 @@
         <v>44285</v>
       </c>
       <c r="B435" t="n">
-        <v>1927705</v>
+        <v>1934889</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -13000,13 +13000,13 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F435" t="n">
         <v>0</v>
       </c>
       <c r="G435" t="n">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="H435" t="n">
         <v>0</v>
@@ -13018,7 +13018,7 @@
         <v>44286</v>
       </c>
       <c r="B436" t="n">
-        <v>1927707</v>
+        <v>1934890</v>
       </c>
       <c r="C436" t="n">
         <v>0</v>
@@ -13029,13 +13029,13 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F436" t="n">
         <v>0</v>
       </c>
       <c r="G436" t="n">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="H436" t="n">
         <v>0</v>
@@ -13047,7 +13047,7 @@
         <v>44287</v>
       </c>
       <c r="B437" t="n">
-        <v>1927709</v>
+        <v>1934891</v>
       </c>
       <c r="C437" t="n">
         <v>0</v>
@@ -13058,13 +13058,13 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F437" t="n">
         <v>0</v>
       </c>
       <c r="G437" t="n">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="H437" t="n">
         <v>0</v>
@@ -13076,7 +13076,7 @@
         <v>44288</v>
       </c>
       <c r="B438" t="n">
-        <v>1927711</v>
+        <v>1934892</v>
       </c>
       <c r="C438" t="n">
         <v>0</v>
@@ -13087,13 +13087,13 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F438" t="n">
         <v>0</v>
       </c>
       <c r="G438" t="n">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="H438" t="n">
         <v>0</v>
@@ -13105,7 +13105,7 @@
         <v>44289</v>
       </c>
       <c r="B439" t="n">
-        <v>1927713</v>
+        <v>1934893</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -13116,13 +13116,13 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F439" t="n">
         <v>0</v>
       </c>
       <c r="G439" t="n">
-        <v>1160</v>
+        <v>1146</v>
       </c>
       <c r="H439" t="n">
         <v>0</v>
@@ -13134,7 +13134,7 @@
         <v>44290</v>
       </c>
       <c r="B440" t="n">
-        <v>1927715</v>
+        <v>1934894</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
@@ -13145,13 +13145,13 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F440" t="n">
         <v>0</v>
       </c>
       <c r="G440" t="n">
-        <v>1158</v>
+        <v>1145</v>
       </c>
       <c r="H440" t="n">
         <v>0</v>
@@ -13163,7 +13163,7 @@
         <v>44291</v>
       </c>
       <c r="B441" t="n">
-        <v>1927717</v>
+        <v>1934895</v>
       </c>
       <c r="C441" t="n">
         <v>0</v>
@@ -13174,13 +13174,13 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F441" t="n">
         <v>0</v>
       </c>
       <c r="G441" t="n">
-        <v>1157</v>
+        <v>1144</v>
       </c>
       <c r="H441" t="n">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>44292</v>
       </c>
       <c r="B442" t="n">
-        <v>1927718</v>
+        <v>1934896</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -13209,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="G442" t="n">
-        <v>1155</v>
+        <v>1142</v>
       </c>
       <c r="H442" t="n">
         <v>0</v>
@@ -13221,7 +13221,7 @@
         <v>44293</v>
       </c>
       <c r="B443" t="n">
-        <v>1927719</v>
+        <v>1934897</v>
       </c>
       <c r="C443" t="n">
         <v>0</v>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="G443" t="n">
-        <v>1154</v>
+        <v>1141</v>
       </c>
       <c r="H443" t="n">
         <v>0</v>
@@ -13250,7 +13250,7 @@
         <v>44294</v>
       </c>
       <c r="B444" t="n">
-        <v>1927720</v>
+        <v>1934897</v>
       </c>
       <c r="C444" t="n">
         <v>0</v>
@@ -13261,25 +13261,30 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F444" t="n">
         <v>0</v>
       </c>
       <c r="G444" t="n">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>11052</v>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>No new cases on
+08 April 2021</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
         <v>44295</v>
       </c>
       <c r="B445" t="n">
-        <v>1927721</v>
+        <v>1934897</v>
       </c>
       <c r="C445" t="n">
         <v>0</v>
@@ -13290,13 +13295,13 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F445" t="n">
         <v>0</v>
       </c>
       <c r="G445" t="n">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="H445" t="n">
         <v>0</v>
@@ -13308,7 +13313,7 @@
         <v>44296</v>
       </c>
       <c r="B446" t="n">
-        <v>1927722</v>
+        <v>1934897</v>
       </c>
       <c r="C446" t="n">
         <v>0</v>
@@ -13319,13 +13324,13 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F446" t="n">
         <v>0</v>
       </c>
       <c r="G446" t="n">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="H446" t="n">
         <v>0</v>
@@ -13337,7 +13342,7 @@
         <v>44297</v>
       </c>
       <c r="B447" t="n">
-        <v>1927723</v>
+        <v>1934897</v>
       </c>
       <c r="C447" t="n">
         <v>0</v>
@@ -13348,13 +13353,13 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F447" t="n">
         <v>0</v>
       </c>
       <c r="G447" t="n">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="H447" t="n">
         <v>0</v>
@@ -13366,7 +13371,7 @@
         <v>44298</v>
       </c>
       <c r="B448" t="n">
-        <v>1927724</v>
+        <v>1934897</v>
       </c>
       <c r="C448" t="n">
         <v>0</v>
@@ -13377,13 +13382,13 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F448" t="n">
         <v>0</v>
       </c>
       <c r="G448" t="n">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="H448" t="n">
         <v>0</v>
@@ -13395,7 +13400,7 @@
         <v>44299</v>
       </c>
       <c r="B449" t="n">
-        <v>1927725</v>
+        <v>1934897</v>
       </c>
       <c r="C449" t="n">
         <v>0</v>
@@ -13406,13 +13411,13 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F449" t="n">
         <v>0</v>
       </c>
       <c r="G449" t="n">
-        <v>1146</v>
+        <v>1133</v>
       </c>
       <c r="H449" t="n">
         <v>0</v>
@@ -13424,7 +13429,7 @@
         <v>44300</v>
       </c>
       <c r="B450" t="n">
-        <v>1927726</v>
+        <v>1934897</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -13435,13 +13440,13 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F450" t="n">
         <v>0</v>
       </c>
       <c r="G450" t="n">
-        <v>1145</v>
+        <v>1132</v>
       </c>
       <c r="H450" t="n">
         <v>0</v>
@@ -13453,7 +13458,7 @@
         <v>44301</v>
       </c>
       <c r="B451" t="n">
-        <v>1927727</v>
+        <v>1934897</v>
       </c>
       <c r="C451" t="n">
         <v>0</v>
@@ -13464,13 +13469,13 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F451" t="n">
         <v>0</v>
       </c>
       <c r="G451" t="n">
-        <v>1143</v>
+        <v>1130</v>
       </c>
       <c r="H451" t="n">
         <v>0</v>
@@ -13482,7 +13487,7 @@
         <v>44302</v>
       </c>
       <c r="B452" t="n">
-        <v>1927728</v>
+        <v>1934897</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -13493,13 +13498,13 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F452" t="n">
         <v>0</v>
       </c>
       <c r="G452" t="n">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="H452" t="n">
         <v>0</v>
@@ -13511,7 +13516,7 @@
         <v>44303</v>
       </c>
       <c r="B453" t="n">
-        <v>1927729</v>
+        <v>1934897</v>
       </c>
       <c r="C453" t="n">
         <v>0</v>
@@ -13522,13 +13527,13 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F453" t="n">
         <v>0</v>
       </c>
       <c r="G453" t="n">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="H453" t="n">
         <v>0</v>
@@ -13540,7 +13545,7 @@
         <v>44304</v>
       </c>
       <c r="B454" t="n">
-        <v>1927730</v>
+        <v>1934897</v>
       </c>
       <c r="C454" t="n">
         <v>0</v>
@@ -13551,13 +13556,13 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F454" t="n">
         <v>0</v>
       </c>
       <c r="G454" t="n">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="H454" t="n">
         <v>0</v>
@@ -13569,7 +13574,7 @@
         <v>44305</v>
       </c>
       <c r="B455" t="n">
-        <v>1927731</v>
+        <v>1934897</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -13580,13 +13585,13 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F455" t="n">
         <v>0</v>
       </c>
       <c r="G455" t="n">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="H455" t="n">
         <v>0</v>
@@ -13598,7 +13603,7 @@
         <v>44306</v>
       </c>
       <c r="B456" t="n">
-        <v>1927732</v>
+        <v>1934897</v>
       </c>
       <c r="C456" t="n">
         <v>0</v>
@@ -13609,13 +13614,13 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F456" t="n">
         <v>0</v>
       </c>
       <c r="G456" t="n">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="H456" t="n">
         <v>0</v>
@@ -13627,7 +13632,7 @@
         <v>44307</v>
       </c>
       <c r="B457" t="n">
-        <v>1927733</v>
+        <v>1934897</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -13638,13 +13643,13 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F457" t="n">
         <v>0</v>
       </c>
       <c r="G457" t="n">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="H457" t="n">
         <v>0</v>
@@ -13656,7 +13661,7 @@
         <v>44308</v>
       </c>
       <c r="B458" t="n">
-        <v>1927734</v>
+        <v>1934897</v>
       </c>
       <c r="C458" t="n">
         <v>0</v>
@@ -13667,13 +13672,13 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F458" t="n">
         <v>0</v>
       </c>
       <c r="G458" t="n">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="H458" t="n">
         <v>0</v>
@@ -13685,7 +13690,7 @@
         <v>44309</v>
       </c>
       <c r="B459" t="n">
-        <v>1927735</v>
+        <v>1934897</v>
       </c>
       <c r="C459" t="n">
         <v>0</v>
@@ -13696,13 +13701,13 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F459" t="n">
         <v>0</v>
       </c>
       <c r="G459" t="n">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="H459" t="n">
         <v>0</v>
@@ -13714,7 +13719,7 @@
         <v>44310</v>
       </c>
       <c r="B460" t="n">
-        <v>1927736</v>
+        <v>1934897</v>
       </c>
       <c r="C460" t="n">
         <v>0</v>
@@ -13725,13 +13730,13 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F460" t="n">
         <v>0</v>
       </c>
       <c r="G460" t="n">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="H460" t="n">
         <v>0</v>
@@ -13743,7 +13748,7 @@
         <v>44311</v>
       </c>
       <c r="B461" t="n">
-        <v>1927737</v>
+        <v>1934897</v>
       </c>
       <c r="C461" t="n">
         <v>0</v>
@@ -13754,13 +13759,13 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F461" t="n">
         <v>0</v>
       </c>
       <c r="G461" t="n">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="H461" t="n">
         <v>0</v>
@@ -13772,7 +13777,7 @@
         <v>44312</v>
       </c>
       <c r="B462" t="n">
-        <v>1927738</v>
+        <v>1934897</v>
       </c>
       <c r="C462" t="n">
         <v>0</v>
@@ -13783,13 +13788,13 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F462" t="n">
         <v>0</v>
       </c>
       <c r="G462" t="n">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="H462" t="n">
         <v>0</v>
@@ -13801,7 +13806,7 @@
         <v>44313</v>
       </c>
       <c r="B463" t="n">
-        <v>1927739</v>
+        <v>1934897</v>
       </c>
       <c r="C463" t="n">
         <v>0</v>
@@ -13812,13 +13817,13 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F463" t="n">
         <v>0</v>
       </c>
       <c r="G463" t="n">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="H463" t="n">
         <v>0</v>
@@ -13830,7 +13835,7 @@
         <v>44314</v>
       </c>
       <c r="B464" t="n">
-        <v>1927740</v>
+        <v>1934897</v>
       </c>
       <c r="C464" t="n">
         <v>0</v>
@@ -13841,13 +13846,13 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F464" t="n">
         <v>0</v>
       </c>
       <c r="G464" t="n">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="H464" t="n">
         <v>0</v>
@@ -13859,7 +13864,7 @@
         <v>44315</v>
       </c>
       <c r="B465" t="n">
-        <v>1927740</v>
+        <v>1934897</v>
       </c>
       <c r="C465" t="n">
         <v>0</v>
@@ -13876,24 +13881,19 @@
         <v>0</v>
       </c>
       <c r="G465" t="n">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="H465" t="n">
-        <v>10580</v>
-      </c>
-      <c r="I465" t="inlineStr">
-        <is>
-          <t>No new cases on
-29 April 2021</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
         <v>44316</v>
       </c>
       <c r="B466" t="n">
-        <v>1927740</v>
+        <v>1934897</v>
       </c>
       <c r="C466" t="n">
         <v>0</v>
@@ -13910,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="G466" t="n">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="H466" t="n">
         <v>0</v>

--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I466"/>
+  <dimension ref="A1:I436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>300</v>
+        <v>216</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>347</v>
+        <v>253</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>459</v>
+        <v>343</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>524</v>
+        <v>396</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>597</v>
+        <v>457</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>678</v>
+        <v>524</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>767</v>
+        <v>599</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>865</v>
+        <v>682</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>972</v>
+        <v>774</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1088</v>
+        <v>875</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1215</v>
+        <v>986</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1352</v>
+        <v>1108</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1500</v>
+        <v>1240</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1660</v>
+        <v>1384</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1831</v>
+        <v>1539</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2014</v>
+        <v>1707</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2210</v>
+        <v>1888</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2418</v>
+        <v>2082</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2639</v>
+        <v>2289</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2872</v>
+        <v>2509</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>3119</v>
+        <v>2744</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>3378</v>
+        <v>2993</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>3650</v>
+        <v>3255</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3935</v>
+        <v>3532</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4233</v>
+        <v>3823</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4543</v>
+        <v>4128</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>4865</v>
+        <v>4447</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5199</v>
+        <v>4779</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>5544</v>
+        <v>5125</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>5900</v>
+        <v>5483</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6266</v>
+        <v>5854</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6643</v>
+        <v>6237</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>7028</v>
+        <v>6631</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>7422</v>
+        <v>7036</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>7823</v>
+        <v>7450</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>8231</v>
+        <v>7874</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>8646</v>
+        <v>8306</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>9065</v>
+        <v>8745</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>9489</v>
+        <v>9191</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9917</v>
+        <v>9642</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10347</v>
+        <v>10097</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10778</v>
+        <v>10556</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>11210</v>
+        <v>11017</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>11642</v>
+        <v>11479</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>12072</v>
+        <v>11942</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>12500</v>
+        <v>12403</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>12924</v>
+        <v>12862</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>13344</v>
+        <v>13318</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13758</v>
+        <v>13769</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>14167</v>
+        <v>14215</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>14568</v>
+        <v>14654</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14960</v>
+        <v>15085</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>15344</v>
+        <v>15507</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>15718</v>
+        <v>15920</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16081</v>
+        <v>16322</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16433</v>
+        <v>16712</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>16773</v>
+        <v>17089</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17099</v>
+        <v>17453</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>17412</v>
+        <v>17803</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5004,24 +5004,24 @@
         <v>44010</v>
       </c>
       <c r="B160" t="n">
-        <v>546570</v>
+        <v>548318</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>19459</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>17711</v>
+        <v>18137</v>
       </c>
       <c r="F160" t="n">
-        <v>15806</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>3811</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5033,7 +5033,7 @@
         <v>44011</v>
       </c>
       <c r="B161" t="n">
-        <v>564566</v>
+        <v>566774</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -5044,13 +5044,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>17996</v>
+        <v>18456</v>
       </c>
       <c r="F161" t="n">
-        <v>16096</v>
+        <v>16571</v>
       </c>
       <c r="G161" t="n">
-        <v>3799</v>
+        <v>3770</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>44012</v>
       </c>
       <c r="B162" t="n">
-        <v>582831</v>
+        <v>585533</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -5073,13 +5073,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>18265</v>
+        <v>18759</v>
       </c>
       <c r="F162" t="n">
-        <v>16371</v>
+        <v>16880</v>
       </c>
       <c r="G162" t="n">
-        <v>3787</v>
+        <v>3758</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>44013</v>
       </c>
       <c r="B163" t="n">
-        <v>601349</v>
+        <v>604577</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -5102,13 +5102,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>18518</v>
+        <v>19044</v>
       </c>
       <c r="F163" t="n">
-        <v>16631</v>
+        <v>17171</v>
       </c>
       <c r="G163" t="n">
-        <v>3775</v>
+        <v>3746</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>44014</v>
       </c>
       <c r="B164" t="n">
-        <v>620105</v>
+        <v>623889</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -5131,13 +5131,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18756</v>
+        <v>19312</v>
       </c>
       <c r="F164" t="n">
-        <v>16874</v>
+        <v>17445</v>
       </c>
       <c r="G164" t="n">
-        <v>3764</v>
+        <v>3735</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>44015</v>
       </c>
       <c r="B165" t="n">
-        <v>639082</v>
+        <v>643452</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>18977</v>
+        <v>19563</v>
       </c>
       <c r="F165" t="n">
-        <v>17101</v>
+        <v>17701</v>
       </c>
       <c r="G165" t="n">
-        <v>3752</v>
+        <v>3723</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>44016</v>
       </c>
       <c r="B166" t="n">
-        <v>658264</v>
+        <v>663246</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -5189,13 +5189,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>19182</v>
+        <v>19794</v>
       </c>
       <c r="F166" t="n">
-        <v>17311</v>
+        <v>17939</v>
       </c>
       <c r="G166" t="n">
-        <v>3741</v>
+        <v>3712</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>44017</v>
       </c>
       <c r="B167" t="n">
-        <v>677633</v>
+        <v>683254</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19369</v>
+        <v>20008</v>
       </c>
       <c r="F167" t="n">
-        <v>17504</v>
+        <v>18157</v>
       </c>
       <c r="G167" t="n">
-        <v>3729</v>
+        <v>3700</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>44018</v>
       </c>
       <c r="B168" t="n">
-        <v>697173</v>
+        <v>703456</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>19540</v>
+        <v>20202</v>
       </c>
       <c r="F168" t="n">
-        <v>17680</v>
+        <v>18357</v>
       </c>
       <c r="G168" t="n">
-        <v>3718</v>
+        <v>3689</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>44019</v>
       </c>
       <c r="B169" t="n">
-        <v>716866</v>
+        <v>723833</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5276,13 +5276,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>19693</v>
+        <v>20377</v>
       </c>
       <c r="F169" t="n">
-        <v>17839</v>
+        <v>18538</v>
       </c>
       <c r="G169" t="n">
-        <v>3707</v>
+        <v>3678</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>736695</v>
+        <v>744366</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>19829</v>
+        <v>20533</v>
       </c>
       <c r="F170" t="n">
-        <v>17981</v>
+        <v>18699</v>
       </c>
       <c r="G170" t="n">
-        <v>3696</v>
+        <v>3667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>756642</v>
+        <v>765035</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>19947</v>
+        <v>20669</v>
       </c>
       <c r="F171" t="n">
-        <v>18104</v>
+        <v>18841</v>
       </c>
       <c r="G171" t="n">
-        <v>3685</v>
+        <v>3656</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>776690</v>
+        <v>785821</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>20048</v>
+        <v>20786</v>
       </c>
       <c r="F172" t="n">
-        <v>18211</v>
+        <v>18963</v>
       </c>
       <c r="G172" t="n">
-        <v>3674</v>
+        <v>3646</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>796822</v>
+        <v>806705</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>20132</v>
+        <v>20884</v>
       </c>
       <c r="F173" t="n">
-        <v>18300</v>
+        <v>19066</v>
       </c>
       <c r="G173" t="n">
-        <v>3663</v>
+        <v>3635</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>817020</v>
+        <v>827667</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>20198</v>
+        <v>20962</v>
       </c>
       <c r="F174" t="n">
-        <v>18372</v>
+        <v>19150</v>
       </c>
       <c r="G174" t="n">
-        <v>3653</v>
+        <v>3624</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>837267</v>
+        <v>848688</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>20247</v>
+        <v>21021</v>
       </c>
       <c r="F175" t="n">
-        <v>18426</v>
+        <v>19214</v>
       </c>
       <c r="G175" t="n">
-        <v>3642</v>
+        <v>3614</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>857546</v>
+        <v>869749</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>20279</v>
+        <v>21061</v>
       </c>
       <c r="F176" t="n">
-        <v>18464</v>
+        <v>19259</v>
       </c>
       <c r="G176" t="n">
-        <v>3632</v>
+        <v>3603</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>877841</v>
+        <v>890831</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>20295</v>
+        <v>21082</v>
       </c>
       <c r="F177" t="n">
-        <v>18484</v>
+        <v>19285</v>
       </c>
       <c r="G177" t="n">
-        <v>3621</v>
+        <v>3593</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>898135</v>
+        <v>911915</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>20294</v>
+        <v>21084</v>
       </c>
       <c r="F178" t="n">
-        <v>18488</v>
+        <v>19293</v>
       </c>
       <c r="G178" t="n">
-        <v>3611</v>
+        <v>3583</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>918412</v>
+        <v>932983</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>20277</v>
+        <v>21068</v>
       </c>
       <c r="F179" t="n">
-        <v>18476</v>
+        <v>19282</v>
       </c>
       <c r="G179" t="n">
-        <v>3601</v>
+        <v>3573</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>938655</v>
+        <v>954018</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>20243</v>
+        <v>21035</v>
       </c>
       <c r="F180" t="n">
-        <v>18448</v>
+        <v>19253</v>
       </c>
       <c r="G180" t="n">
-        <v>3591</v>
+        <v>3563</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>958850</v>
+        <v>975001</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>20195</v>
+        <v>20983</v>
       </c>
       <c r="F181" t="n">
-        <v>18404</v>
+        <v>19207</v>
       </c>
       <c r="G181" t="n">
-        <v>3581</v>
+        <v>3553</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>978981</v>
+        <v>995916</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>20131</v>
+        <v>20915</v>
       </c>
       <c r="F182" t="n">
-        <v>18345</v>
+        <v>19143</v>
       </c>
       <c r="G182" t="n">
-        <v>3571</v>
+        <v>3543</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>999033</v>
+        <v>1016746</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>20052</v>
+        <v>20830</v>
       </c>
       <c r="F183" t="n">
-        <v>18272</v>
+        <v>19063</v>
       </c>
       <c r="G183" t="n">
-        <v>3561</v>
+        <v>3533</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>1018992</v>
+        <v>1037474</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>19959</v>
+        <v>20728</v>
       </c>
       <c r="F184" t="n">
-        <v>18184</v>
+        <v>18967</v>
       </c>
       <c r="G184" t="n">
-        <v>3551</v>
+        <v>3523</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>1038844</v>
+        <v>1058085</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>19852</v>
+        <v>20611</v>
       </c>
       <c r="F185" t="n">
-        <v>18081</v>
+        <v>18855</v>
       </c>
       <c r="G185" t="n">
-        <v>3541</v>
+        <v>3514</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>1058575</v>
+        <v>1078564</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19731</v>
+        <v>20479</v>
       </c>
       <c r="F186" t="n">
-        <v>17966</v>
+        <v>18727</v>
       </c>
       <c r="G186" t="n">
-        <v>3532</v>
+        <v>3504</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>1078173</v>
+        <v>1098897</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>19598</v>
+        <v>20333</v>
       </c>
       <c r="F187" t="n">
-        <v>17837</v>
+        <v>18585</v>
       </c>
       <c r="G187" t="n">
-        <v>3522</v>
+        <v>3495</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>1097625</v>
+        <v>1119069</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19452</v>
+        <v>20172</v>
       </c>
       <c r="F188" t="n">
-        <v>17696</v>
+        <v>18429</v>
       </c>
       <c r="G188" t="n">
-        <v>3513</v>
+        <v>3485</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>1116919</v>
+        <v>1139067</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>19294</v>
+        <v>19998</v>
       </c>
       <c r="F189" t="n">
-        <v>17543</v>
+        <v>18260</v>
       </c>
       <c r="G189" t="n">
-        <v>3503</v>
+        <v>3476</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>1136044</v>
+        <v>1158878</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>19125</v>
+        <v>19811</v>
       </c>
       <c r="F190" t="n">
-        <v>17378</v>
+        <v>18078</v>
       </c>
       <c r="G190" t="n">
-        <v>3494</v>
+        <v>3467</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>1154988</v>
+        <v>1178490</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>18944</v>
+        <v>19612</v>
       </c>
       <c r="F191" t="n">
-        <v>17202</v>
+        <v>17883</v>
       </c>
       <c r="G191" t="n">
-        <v>3485</v>
+        <v>3458</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>44042</v>
       </c>
       <c r="B192" t="n">
-        <v>1173742</v>
+        <v>1197892</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>18754</v>
+        <v>19402</v>
       </c>
       <c r="F192" t="n">
-        <v>17016</v>
+        <v>17677</v>
       </c>
       <c r="G192" t="n">
-        <v>3475</v>
+        <v>3448</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>44043</v>
       </c>
       <c r="B193" t="n">
-        <v>1192295</v>
+        <v>1217072</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>18553</v>
+        <v>19180</v>
       </c>
       <c r="F193" t="n">
-        <v>16820</v>
+        <v>17460</v>
       </c>
       <c r="G193" t="n">
-        <v>3466</v>
+        <v>3439</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>44044</v>
       </c>
       <c r="B194" t="n">
-        <v>1210638</v>
+        <v>1236020</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18343</v>
+        <v>18948</v>
       </c>
       <c r="F194" t="n">
-        <v>16615</v>
+        <v>17233</v>
       </c>
       <c r="G194" t="n">
-        <v>3457</v>
+        <v>3430</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>44045</v>
       </c>
       <c r="B195" t="n">
-        <v>1228763</v>
+        <v>1254727</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18125</v>
+        <v>18707</v>
       </c>
       <c r="F195" t="n">
-        <v>16401</v>
+        <v>16996</v>
       </c>
       <c r="G195" t="n">
-        <v>3448</v>
+        <v>3422</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>44046</v>
       </c>
       <c r="B196" t="n">
-        <v>1246661</v>
+        <v>1273183</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>17898</v>
+        <v>18456</v>
       </c>
       <c r="F196" t="n">
-        <v>16178</v>
+        <v>16750</v>
       </c>
       <c r="G196" t="n">
-        <v>3439</v>
+        <v>3413</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>44047</v>
       </c>
       <c r="B197" t="n">
-        <v>1264325</v>
+        <v>1291381</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>17664</v>
+        <v>18198</v>
       </c>
       <c r="F197" t="n">
-        <v>15948</v>
+        <v>16496</v>
       </c>
       <c r="G197" t="n">
-        <v>3431</v>
+        <v>3404</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>44048</v>
       </c>
       <c r="B198" t="n">
-        <v>1281747</v>
+        <v>1309312</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>17422</v>
+        <v>17931</v>
       </c>
       <c r="F198" t="n">
-        <v>15711</v>
+        <v>16233</v>
       </c>
       <c r="G198" t="n">
-        <v>3422</v>
+        <v>3395</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>44049</v>
       </c>
       <c r="B199" t="n">
-        <v>1298921</v>
+        <v>1326969</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -6146,13 +6146,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>17174</v>
+        <v>17657</v>
       </c>
       <c r="F199" t="n">
-        <v>15467</v>
+        <v>15964</v>
       </c>
       <c r="G199" t="n">
-        <v>3413</v>
+        <v>3387</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>44050</v>
       </c>
       <c r="B200" t="n">
-        <v>1315841</v>
+        <v>1344346</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>16920</v>
+        <v>17377</v>
       </c>
       <c r="F200" t="n">
-        <v>15217</v>
+        <v>15688</v>
       </c>
       <c r="G200" t="n">
-        <v>3404</v>
+        <v>3378</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>44051</v>
       </c>
       <c r="B201" t="n">
-        <v>1332501</v>
+        <v>1361437</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -6204,13 +6204,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>16660</v>
+        <v>17091</v>
       </c>
       <c r="F201" t="n">
-        <v>14962</v>
+        <v>15406</v>
       </c>
       <c r="G201" t="n">
-        <v>3396</v>
+        <v>3370</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>44052</v>
       </c>
       <c r="B202" t="n">
-        <v>1348896</v>
+        <v>1378237</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>16395</v>
+        <v>16800</v>
       </c>
       <c r="F202" t="n">
-        <v>14702</v>
+        <v>15119</v>
       </c>
       <c r="G202" t="n">
-        <v>3387</v>
+        <v>3361</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>44053</v>
       </c>
       <c r="B203" t="n">
-        <v>1365022</v>
+        <v>1394741</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>16126</v>
+        <v>16504</v>
       </c>
       <c r="F203" t="n">
-        <v>14437</v>
+        <v>14827</v>
       </c>
       <c r="G203" t="n">
-        <v>3379</v>
+        <v>3353</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>44054</v>
       </c>
       <c r="B204" t="n">
-        <v>1380875</v>
+        <v>1410945</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>15853</v>
+        <v>16204</v>
       </c>
       <c r="F204" t="n">
-        <v>14167</v>
+        <v>14531</v>
       </c>
       <c r="G204" t="n">
-        <v>3371</v>
+        <v>3344</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>44055</v>
       </c>
       <c r="B205" t="n">
-        <v>1396451</v>
+        <v>1426845</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>15576</v>
+        <v>15900</v>
       </c>
       <c r="F205" t="n">
-        <v>13895</v>
+        <v>14232</v>
       </c>
       <c r="G205" t="n">
-        <v>3362</v>
+        <v>3336</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>44056</v>
       </c>
       <c r="B206" t="n">
-        <v>1411747</v>
+        <v>1442438</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>15296</v>
+        <v>15593</v>
       </c>
       <c r="F206" t="n">
-        <v>13619</v>
+        <v>13929</v>
       </c>
       <c r="G206" t="n">
-        <v>3354</v>
+        <v>3328</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>44057</v>
       </c>
       <c r="B207" t="n">
-        <v>1426761</v>
+        <v>1457722</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>15014</v>
+        <v>15284</v>
       </c>
       <c r="F207" t="n">
-        <v>13341</v>
+        <v>13624</v>
       </c>
       <c r="G207" t="n">
-        <v>3346</v>
+        <v>3320</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>44058</v>
       </c>
       <c r="B208" t="n">
-        <v>1441490</v>
+        <v>1472695</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>14729</v>
+        <v>14973</v>
       </c>
       <c r="F208" t="n">
-        <v>13060</v>
+        <v>13317</v>
       </c>
       <c r="G208" t="n">
-        <v>3338</v>
+        <v>3312</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>44059</v>
       </c>
       <c r="B209" t="n">
-        <v>1455933</v>
+        <v>1487355</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>14443</v>
+        <v>14660</v>
       </c>
       <c r="F209" t="n">
-        <v>12778</v>
+        <v>13008</v>
       </c>
       <c r="G209" t="n">
-        <v>3330</v>
+        <v>3304</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>44060</v>
       </c>
       <c r="B210" t="n">
-        <v>1470088</v>
+        <v>1501701</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>14155</v>
+        <v>14346</v>
       </c>
       <c r="F210" t="n">
-        <v>12495</v>
+        <v>12699</v>
       </c>
       <c r="G210" t="n">
-        <v>3322</v>
+        <v>3296</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>44061</v>
       </c>
       <c r="B211" t="n">
-        <v>1483955</v>
+        <v>1515733</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>13867</v>
+        <v>14032</v>
       </c>
       <c r="F211" t="n">
-        <v>12210</v>
+        <v>12388</v>
       </c>
       <c r="G211" t="n">
-        <v>3314</v>
+        <v>3288</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>44062</v>
       </c>
       <c r="B212" t="n">
-        <v>1497533</v>
+        <v>1529451</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>13578</v>
+        <v>13718</v>
       </c>
       <c r="F212" t="n">
-        <v>11925</v>
+        <v>12078</v>
       </c>
       <c r="G212" t="n">
-        <v>3306</v>
+        <v>3280</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>44063</v>
       </c>
       <c r="B213" t="n">
-        <v>1510822</v>
+        <v>1542855</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>13289</v>
+        <v>13404</v>
       </c>
       <c r="F213" t="n">
-        <v>11640</v>
+        <v>11768</v>
       </c>
       <c r="G213" t="n">
-        <v>3298</v>
+        <v>3272</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>44064</v>
       </c>
       <c r="B214" t="n">
-        <v>1523822</v>
+        <v>1555946</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>13000</v>
+        <v>13091</v>
       </c>
       <c r="F214" t="n">
-        <v>11355</v>
+        <v>11458</v>
       </c>
       <c r="G214" t="n">
-        <v>3290</v>
+        <v>3265</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>44065</v>
       </c>
       <c r="B215" t="n">
-        <v>1536534</v>
+        <v>1568724</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6610,13 +6610,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>12712</v>
+        <v>12778</v>
       </c>
       <c r="F215" t="n">
-        <v>11070</v>
+        <v>11150</v>
       </c>
       <c r="G215" t="n">
-        <v>3282</v>
+        <v>3257</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>44066</v>
       </c>
       <c r="B216" t="n">
-        <v>1548958</v>
+        <v>1581192</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12424</v>
+        <v>12468</v>
       </c>
       <c r="F216" t="n">
-        <v>10787</v>
+        <v>10843</v>
       </c>
       <c r="G216" t="n">
-        <v>3275</v>
+        <v>3249</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>44067</v>
       </c>
       <c r="B217" t="n">
-        <v>1561096</v>
+        <v>1593351</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12138</v>
+        <v>12159</v>
       </c>
       <c r="F217" t="n">
-        <v>10505</v>
+        <v>10538</v>
       </c>
       <c r="G217" t="n">
-        <v>3267</v>
+        <v>3242</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>44068</v>
       </c>
       <c r="B218" t="n">
-        <v>1572950</v>
+        <v>1605203</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>11854</v>
+        <v>11852</v>
       </c>
       <c r="F218" t="n">
-        <v>10224</v>
+        <v>10235</v>
       </c>
       <c r="G218" t="n">
-        <v>3260</v>
+        <v>3234</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44069</v>
       </c>
       <c r="B219" t="n">
-        <v>1584521</v>
+        <v>1616751</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>11571</v>
+        <v>11548</v>
       </c>
       <c r="F219" t="n">
-        <v>9945</v>
+        <v>9934</v>
       </c>
       <c r="G219" t="n">
-        <v>3252</v>
+        <v>3227</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>44070</v>
       </c>
       <c r="B220" t="n">
-        <v>1595811</v>
+        <v>1627997</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>11290</v>
+        <v>11246</v>
       </c>
       <c r="F220" t="n">
-        <v>9668</v>
+        <v>9637</v>
       </c>
       <c r="G220" t="n">
-        <v>3245</v>
+        <v>3219</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>44071</v>
       </c>
       <c r="B221" t="n">
-        <v>1606822</v>
+        <v>1638945</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>11011</v>
+        <v>10948</v>
       </c>
       <c r="F221" t="n">
-        <v>9393</v>
+        <v>9342</v>
       </c>
       <c r="G221" t="n">
-        <v>3237</v>
+        <v>3212</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>44072</v>
       </c>
       <c r="B222" t="n">
-        <v>1617557</v>
+        <v>1649597</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10735</v>
+        <v>10652</v>
       </c>
       <c r="F222" t="n">
-        <v>9121</v>
+        <v>9050</v>
       </c>
       <c r="G222" t="n">
-        <v>3230</v>
+        <v>3205</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>44073</v>
       </c>
       <c r="B223" t="n">
-        <v>1628019</v>
+        <v>1659958</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>10462</v>
+        <v>10361</v>
       </c>
       <c r="F223" t="n">
-        <v>8851</v>
+        <v>8762</v>
       </c>
       <c r="G223" t="n">
-        <v>3222</v>
+        <v>3197</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>44074</v>
       </c>
       <c r="B224" t="n">
-        <v>1638211</v>
+        <v>1670031</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>10192</v>
+        <v>10073</v>
       </c>
       <c r="F224" t="n">
-        <v>8584</v>
+        <v>8478</v>
       </c>
       <c r="G224" t="n">
-        <v>3215</v>
+        <v>3190</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>44075</v>
       </c>
       <c r="B225" t="n">
-        <v>1648136</v>
+        <v>1679819</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>9925</v>
+        <v>9788</v>
       </c>
       <c r="F225" t="n">
-        <v>8321</v>
+        <v>8197</v>
       </c>
       <c r="G225" t="n">
-        <v>3208</v>
+        <v>3183</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>44076</v>
       </c>
       <c r="B226" t="n">
-        <v>1657797</v>
+        <v>1689327</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>9661</v>
+        <v>9508</v>
       </c>
       <c r="F226" t="n">
-        <v>8061</v>
+        <v>7920</v>
       </c>
       <c r="G226" t="n">
-        <v>3201</v>
+        <v>3176</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>44077</v>
       </c>
       <c r="B227" t="n">
-        <v>1667198</v>
+        <v>1698560</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9401</v>
+        <v>9233</v>
       </c>
       <c r="F227" t="n">
-        <v>7804</v>
+        <v>7648</v>
       </c>
       <c r="G227" t="n">
-        <v>3194</v>
+        <v>3169</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>44078</v>
       </c>
       <c r="B228" t="n">
-        <v>1676342</v>
+        <v>1707521</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>9144</v>
+        <v>8961</v>
       </c>
       <c r="F228" t="n">
-        <v>7551</v>
+        <v>7380</v>
       </c>
       <c r="G228" t="n">
-        <v>3187</v>
+        <v>3162</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>44079</v>
       </c>
       <c r="B229" t="n">
-        <v>1685233</v>
+        <v>1716215</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>8891</v>
+        <v>8694</v>
       </c>
       <c r="F229" t="n">
-        <v>7302</v>
+        <v>7117</v>
       </c>
       <c r="G229" t="n">
-        <v>3180</v>
+        <v>3155</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>44080</v>
       </c>
       <c r="B230" t="n">
-        <v>1693875</v>
+        <v>1724647</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>8642</v>
+        <v>8432</v>
       </c>
       <c r="F230" t="n">
-        <v>7056</v>
+        <v>6858</v>
       </c>
       <c r="G230" t="n">
-        <v>3173</v>
+        <v>3148</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>44081</v>
       </c>
       <c r="B231" t="n">
-        <v>1702272</v>
+        <v>1732822</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8397</v>
+        <v>8175</v>
       </c>
       <c r="F231" t="n">
-        <v>6815</v>
+        <v>6604</v>
       </c>
       <c r="G231" t="n">
-        <v>3166</v>
+        <v>3141</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>44082</v>
       </c>
       <c r="B232" t="n">
-        <v>1710429</v>
+        <v>1740744</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>8157</v>
+        <v>7922</v>
       </c>
       <c r="F232" t="n">
-        <v>6577</v>
+        <v>6355</v>
       </c>
       <c r="G232" t="n">
-        <v>3159</v>
+        <v>3134</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>44083</v>
       </c>
       <c r="B233" t="n">
-        <v>1718349</v>
+        <v>1748419</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>7920</v>
+        <v>7675</v>
       </c>
       <c r="F233" t="n">
-        <v>6344</v>
+        <v>6111</v>
       </c>
       <c r="G233" t="n">
-        <v>3152</v>
+        <v>3127</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>44084</v>
       </c>
       <c r="B234" t="n">
-        <v>1726037</v>
+        <v>1755851</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>7688</v>
+        <v>7432</v>
       </c>
       <c r="F234" t="n">
-        <v>6115</v>
+        <v>5872</v>
       </c>
       <c r="G234" t="n">
-        <v>3145</v>
+        <v>3121</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>44085</v>
       </c>
       <c r="B235" t="n">
-        <v>1733496</v>
+        <v>1763046</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>7459</v>
+        <v>7195</v>
       </c>
       <c r="F235" t="n">
-        <v>5890</v>
+        <v>5638</v>
       </c>
       <c r="G235" t="n">
-        <v>3138</v>
+        <v>3114</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>44086</v>
       </c>
       <c r="B236" t="n">
-        <v>1740732</v>
+        <v>1770009</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>7236</v>
+        <v>6963</v>
       </c>
       <c r="F236" t="n">
-        <v>5670</v>
+        <v>5409</v>
       </c>
       <c r="G236" t="n">
-        <v>3132</v>
+        <v>3107</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>44087</v>
       </c>
       <c r="B237" t="n">
-        <v>1747749</v>
+        <v>1776744</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>7017</v>
+        <v>6735</v>
       </c>
       <c r="F237" t="n">
-        <v>5454</v>
+        <v>5185</v>
       </c>
       <c r="G237" t="n">
-        <v>3125</v>
+        <v>3101</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>44088</v>
       </c>
       <c r="B238" t="n">
-        <v>1754551</v>
+        <v>1783257</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -7277,13 +7277,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>6802</v>
+        <v>6513</v>
       </c>
       <c r="F238" t="n">
-        <v>5243</v>
+        <v>4966</v>
       </c>
       <c r="G238" t="n">
-        <v>3118</v>
+        <v>3094</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>44089</v>
       </c>
       <c r="B239" t="n">
-        <v>1761143</v>
+        <v>1789553</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>6592</v>
+        <v>6296</v>
       </c>
       <c r="F239" t="n">
-        <v>5036</v>
+        <v>4753</v>
       </c>
       <c r="G239" t="n">
-        <v>3112</v>
+        <v>3088</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>44090</v>
       </c>
       <c r="B240" t="n">
-        <v>1767529</v>
+        <v>1795638</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>6386</v>
+        <v>6085</v>
       </c>
       <c r="F240" t="n">
-        <v>4833</v>
+        <v>4544</v>
       </c>
       <c r="G240" t="n">
-        <v>3105</v>
+        <v>3081</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>44091</v>
       </c>
       <c r="B241" t="n">
-        <v>1773714</v>
+        <v>1801516</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>6185</v>
+        <v>5878</v>
       </c>
       <c r="F241" t="n">
-        <v>4635</v>
+        <v>4341</v>
       </c>
       <c r="G241" t="n">
-        <v>3099</v>
+        <v>3075</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>44092</v>
       </c>
       <c r="B242" t="n">
-        <v>1779702</v>
+        <v>1807193</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>5988</v>
+        <v>5677</v>
       </c>
       <c r="F242" t="n">
-        <v>4442</v>
+        <v>4143</v>
       </c>
       <c r="G242" t="n">
-        <v>3092</v>
+        <v>3068</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>44093</v>
       </c>
       <c r="B243" t="n">
-        <v>1785498</v>
+        <v>1812674</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>5796</v>
+        <v>5481</v>
       </c>
       <c r="F243" t="n">
-        <v>4253</v>
+        <v>3950</v>
       </c>
       <c r="G243" t="n">
-        <v>3086</v>
+        <v>3062</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>44094</v>
       </c>
       <c r="B244" t="n">
-        <v>1791106</v>
+        <v>1817963</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>5608</v>
+        <v>5289</v>
       </c>
       <c r="F244" t="n">
-        <v>4069</v>
+        <v>3762</v>
       </c>
       <c r="G244" t="n">
-        <v>3079</v>
+        <v>3056</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>44095</v>
       </c>
       <c r="B245" t="n">
-        <v>1796531</v>
+        <v>1823066</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>5425</v>
+        <v>5103</v>
       </c>
       <c r="F245" t="n">
-        <v>3889</v>
+        <v>3579</v>
       </c>
       <c r="G245" t="n">
-        <v>3073</v>
+        <v>3049</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>44096</v>
       </c>
       <c r="B246" t="n">
-        <v>1801778</v>
+        <v>1827988</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>5247</v>
+        <v>4922</v>
       </c>
       <c r="F246" t="n">
-        <v>3713</v>
+        <v>3401</v>
       </c>
       <c r="G246" t="n">
-        <v>3067</v>
+        <v>3043</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>44097</v>
       </c>
       <c r="B247" t="n">
-        <v>1806850</v>
+        <v>1832734</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>5072</v>
+        <v>4746</v>
       </c>
       <c r="F247" t="n">
-        <v>3542</v>
+        <v>3228</v>
       </c>
       <c r="G247" t="n">
-        <v>3061</v>
+        <v>3037</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>44098</v>
       </c>
       <c r="B248" t="n">
-        <v>1811753</v>
+        <v>1837309</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7567,13 +7567,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>4903</v>
+        <v>4575</v>
       </c>
       <c r="F248" t="n">
-        <v>3376</v>
+        <v>3060</v>
       </c>
       <c r="G248" t="n">
-        <v>3054</v>
+        <v>3031</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>44099</v>
       </c>
       <c r="B249" t="n">
-        <v>1816490</v>
+        <v>1841718</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>4737</v>
+        <v>4409</v>
       </c>
       <c r="F249" t="n">
-        <v>3213</v>
+        <v>2897</v>
       </c>
       <c r="G249" t="n">
-        <v>3048</v>
+        <v>3024</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>44100</v>
       </c>
       <c r="B250" t="n">
-        <v>1821066</v>
+        <v>1845965</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>4576</v>
+        <v>4247</v>
       </c>
       <c r="F250" t="n">
-        <v>3055</v>
+        <v>2738</v>
       </c>
       <c r="G250" t="n">
-        <v>3042</v>
+        <v>3018</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>44101</v>
       </c>
       <c r="B251" t="n">
-        <v>1825486</v>
+        <v>1850056</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>4420</v>
+        <v>4091</v>
       </c>
       <c r="F251" t="n">
-        <v>2902</v>
+        <v>2585</v>
       </c>
       <c r="G251" t="n">
-        <v>3036</v>
+        <v>3012</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -7672,7 +7672,7 @@
         <v>44102</v>
       </c>
       <c r="B252" t="n">
-        <v>1829753</v>
+        <v>1853995</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7683,13 +7683,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>4267</v>
+        <v>3939</v>
       </c>
       <c r="F252" t="n">
-        <v>2752</v>
+        <v>2436</v>
       </c>
       <c r="G252" t="n">
-        <v>3030</v>
+        <v>3006</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>44103</v>
       </c>
       <c r="B253" t="n">
-        <v>1833872</v>
+        <v>1857786</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7712,13 +7712,13 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>4119</v>
+        <v>3791</v>
       </c>
       <c r="F253" t="n">
-        <v>2607</v>
+        <v>2291</v>
       </c>
       <c r="G253" t="n">
-        <v>3024</v>
+        <v>3000</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>44104</v>
       </c>
       <c r="B254" t="n">
-        <v>1837847</v>
+        <v>1861434</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7741,13 +7741,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3975</v>
+        <v>3648</v>
       </c>
       <c r="F254" t="n">
-        <v>2466</v>
+        <v>2151</v>
       </c>
       <c r="G254" t="n">
-        <v>3018</v>
+        <v>2994</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>44105</v>
       </c>
       <c r="B255" t="n">
-        <v>1841682</v>
+        <v>1864944</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7770,13 +7770,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>3835</v>
+        <v>3510</v>
       </c>
       <c r="F255" t="n">
-        <v>2329</v>
+        <v>2016</v>
       </c>
       <c r="G255" t="n">
-        <v>3012</v>
+        <v>2988</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -7788,7 +7788,7 @@
         <v>44106</v>
       </c>
       <c r="B256" t="n">
-        <v>1845381</v>
+        <v>1868320</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7799,13 +7799,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>3699</v>
+        <v>3376</v>
       </c>
       <c r="F256" t="n">
-        <v>2196</v>
+        <v>1884</v>
       </c>
       <c r="G256" t="n">
-        <v>3006</v>
+        <v>2982</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>44107</v>
       </c>
       <c r="B257" t="n">
-        <v>1848948</v>
+        <v>1871566</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7828,13 +7828,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>3567</v>
+        <v>3246</v>
       </c>
       <c r="F257" t="n">
-        <v>2067</v>
+        <v>1758</v>
       </c>
       <c r="G257" t="n">
-        <v>3000</v>
+        <v>2977</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="B258" t="n">
-        <v>1852387</v>
+        <v>1874686</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>3439</v>
+        <v>3120</v>
       </c>
       <c r="F258" t="n">
-        <v>1942</v>
+        <v>1635</v>
       </c>
       <c r="G258" t="n">
-        <v>2994</v>
+        <v>2971</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>44109</v>
       </c>
       <c r="B259" t="n">
-        <v>1855702</v>
+        <v>1877685</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7886,13 +7886,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>3315</v>
+        <v>2999</v>
       </c>
       <c r="F259" t="n">
-        <v>1820</v>
+        <v>1516</v>
       </c>
       <c r="G259" t="n">
-        <v>2988</v>
+        <v>2965</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -7904,7 +7904,7 @@
         <v>44110</v>
       </c>
       <c r="B260" t="n">
-        <v>1858896</v>
+        <v>1880566</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>3194</v>
+        <v>2881</v>
       </c>
       <c r="F260" t="n">
-        <v>1703</v>
+        <v>1401</v>
       </c>
       <c r="G260" t="n">
-        <v>2982</v>
+        <v>2959</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>44111</v>
       </c>
       <c r="B261" t="n">
-        <v>1861973</v>
+        <v>1883333</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>3077</v>
+        <v>2767</v>
       </c>
       <c r="F261" t="n">
-        <v>1589</v>
+        <v>1291</v>
       </c>
       <c r="G261" t="n">
-        <v>2977</v>
+        <v>2954</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>44112</v>
       </c>
       <c r="B262" t="n">
-        <v>1864937</v>
+        <v>1885991</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7973,13 +7973,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2964</v>
+        <v>2658</v>
       </c>
       <c r="F262" t="n">
-        <v>1478</v>
+        <v>1184</v>
       </c>
       <c r="G262" t="n">
-        <v>2971</v>
+        <v>2948</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>44113</v>
       </c>
       <c r="B263" t="n">
-        <v>1867791</v>
+        <v>1888543</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>2854</v>
+        <v>2552</v>
       </c>
       <c r="F263" t="n">
-        <v>1372</v>
+        <v>1080</v>
       </c>
       <c r="G263" t="n">
-        <v>2965</v>
+        <v>2942</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>44114</v>
       </c>
       <c r="B264" t="n">
-        <v>1870539</v>
+        <v>1890992</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>2748</v>
+        <v>2449</v>
       </c>
       <c r="F264" t="n">
-        <v>1268</v>
+        <v>981</v>
       </c>
       <c r="G264" t="n">
-        <v>2960</v>
+        <v>2937</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>44115</v>
       </c>
       <c r="B265" t="n">
-        <v>1873184</v>
+        <v>1893342</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>2645</v>
+        <v>2350</v>
       </c>
       <c r="F265" t="n">
-        <v>1168</v>
+        <v>885</v>
       </c>
       <c r="G265" t="n">
-        <v>2954</v>
+        <v>2931</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>44116</v>
       </c>
       <c r="B266" t="n">
-        <v>1875729</v>
+        <v>1895597</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -8089,13 +8089,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>2545</v>
+        <v>2255</v>
       </c>
       <c r="F266" t="n">
-        <v>1071</v>
+        <v>792</v>
       </c>
       <c r="G266" t="n">
-        <v>2948</v>
+        <v>2925</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>44117</v>
       </c>
       <c r="B267" t="n">
-        <v>1878178</v>
+        <v>1897760</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2449</v>
+        <v>2163</v>
       </c>
       <c r="F267" t="n">
-        <v>978</v>
+        <v>703</v>
       </c>
       <c r="G267" t="n">
-        <v>2943</v>
+        <v>2920</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>44118</v>
       </c>
       <c r="B268" t="n">
-        <v>1880534</v>
+        <v>1899834</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -8147,13 +8147,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>2356</v>
+        <v>2074</v>
       </c>
       <c r="F268" t="n">
-        <v>887</v>
+        <v>617</v>
       </c>
       <c r="G268" t="n">
-        <v>2937</v>
+        <v>2914</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>44119</v>
       </c>
       <c r="B269" t="n">
-        <v>1882800</v>
+        <v>1901823</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -8176,13 +8176,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>2266</v>
+        <v>1989</v>
       </c>
       <c r="F269" t="n">
-        <v>800</v>
+        <v>534</v>
       </c>
       <c r="G269" t="n">
-        <v>2932</v>
+        <v>2909</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -8194,7 +8194,7 @@
         <v>44120</v>
       </c>
       <c r="B270" t="n">
-        <v>1884979</v>
+        <v>1903729</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8205,13 +8205,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>2179</v>
+        <v>1906</v>
       </c>
       <c r="F270" t="n">
-        <v>715</v>
+        <v>454</v>
       </c>
       <c r="G270" t="n">
-        <v>2926</v>
+        <v>2904</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>44121</v>
       </c>
       <c r="B271" t="n">
-        <v>1887073</v>
+        <v>1905556</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>2094</v>
+        <v>1827</v>
       </c>
       <c r="F271" t="n">
-        <v>634</v>
+        <v>378</v>
       </c>
       <c r="G271" t="n">
-        <v>2921</v>
+        <v>2898</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>44122</v>
       </c>
       <c r="B272" t="n">
-        <v>1889086</v>
+        <v>1907306</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>2013</v>
+        <v>1750</v>
       </c>
       <c r="F272" t="n">
-        <v>555</v>
+        <v>304</v>
       </c>
       <c r="G272" t="n">
-        <v>2915</v>
+        <v>2893</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>44123</v>
       </c>
       <c r="B273" t="n">
-        <v>1891021</v>
+        <v>1908983</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1935</v>
+        <v>1677</v>
       </c>
       <c r="F273" t="n">
-        <v>479</v>
+        <v>233</v>
       </c>
       <c r="G273" t="n">
-        <v>2910</v>
+        <v>2887</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>44124</v>
       </c>
       <c r="B274" t="n">
-        <v>1892880</v>
+        <v>1910589</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -8321,13 +8321,13 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1859</v>
+        <v>1606</v>
       </c>
       <c r="F274" t="n">
-        <v>406</v>
+        <v>165</v>
       </c>
       <c r="G274" t="n">
-        <v>2905</v>
+        <v>2882</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>44125</v>
       </c>
       <c r="B275" t="n">
-        <v>1894665</v>
+        <v>1912127</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -8350,13 +8350,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1785</v>
+        <v>1538</v>
       </c>
       <c r="F275" t="n">
-        <v>336</v>
+        <v>99</v>
       </c>
       <c r="G275" t="n">
-        <v>2899</v>
+        <v>2877</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -8368,7 +8368,7 @@
         <v>44126</v>
       </c>
       <c r="B276" t="n">
-        <v>1896380</v>
+        <v>1913599</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1715</v>
+        <v>1472</v>
       </c>
       <c r="F276" t="n">
-        <v>268</v>
+        <v>36</v>
       </c>
       <c r="G276" t="n">
-        <v>2894</v>
+        <v>2872</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -8397,7 +8397,7 @@
         <v>44127</v>
       </c>
       <c r="B277" t="n">
-        <v>1898027</v>
+        <v>1915008</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -8408,13 +8408,13 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1647</v>
+        <v>1409</v>
       </c>
       <c r="F277" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>2889</v>
+        <v>2842</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>44128</v>
       </c>
       <c r="B278" t="n">
-        <v>1899608</v>
+        <v>1916356</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -8437,13 +8437,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1581</v>
+        <v>1348</v>
       </c>
       <c r="F278" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>2884</v>
+        <v>2779</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>44129</v>
       </c>
       <c r="B279" t="n">
-        <v>1901126</v>
+        <v>1917646</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -8466,13 +8466,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>1518</v>
+        <v>1290</v>
       </c>
       <c r="F279" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>2878</v>
+        <v>2718</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>44130</v>
       </c>
       <c r="B280" t="n">
-        <v>1902583</v>
+        <v>1918880</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -8495,13 +8495,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1457</v>
+        <v>1234</v>
       </c>
       <c r="F280" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>2873</v>
+        <v>2659</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -8513,7 +8513,7 @@
         <v>44131</v>
       </c>
       <c r="B281" t="n">
-        <v>1903981</v>
+        <v>1920060</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -8524,13 +8524,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>1398</v>
+        <v>1180</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>2832</v>
+        <v>2603</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>44132</v>
       </c>
       <c r="B282" t="n">
-        <v>1905322</v>
+        <v>1921189</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -8553,13 +8553,13 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>1341</v>
+        <v>1129</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>2772</v>
+        <v>2549</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         <v>44133</v>
       </c>
       <c r="B283" t="n">
-        <v>1906608</v>
+        <v>1922268</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -8582,13 +8582,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>1286</v>
+        <v>1079</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>2715</v>
+        <v>2497</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -8600,7 +8600,7 @@
         <v>44134</v>
       </c>
       <c r="B284" t="n">
-        <v>1907842</v>
+        <v>1923299</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -8611,13 +8611,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>1234</v>
+        <v>1031</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>2660</v>
+        <v>2447</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -8629,7 +8629,7 @@
         <v>44135</v>
       </c>
       <c r="B285" t="n">
-        <v>1909025</v>
+        <v>1924285</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -8640,13 +8640,13 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>1183</v>
+        <v>986</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>2607</v>
+        <v>2399</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -8658,7 +8658,7 @@
         <v>44136</v>
       </c>
       <c r="B286" t="n">
-        <v>1910159</v>
+        <v>1925227</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8669,13 +8669,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1134</v>
+        <v>942</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>2556</v>
+        <v>2352</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>44137</v>
       </c>
       <c r="B287" t="n">
-        <v>1911246</v>
+        <v>1926127</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1087</v>
+        <v>900</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>2506</v>
+        <v>2308</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>44138</v>
       </c>
       <c r="B288" t="n">
-        <v>1912288</v>
+        <v>1926987</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -8727,13 +8727,13 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>1042</v>
+        <v>860</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>2459</v>
+        <v>2265</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>44139</v>
       </c>
       <c r="B289" t="n">
-        <v>1913287</v>
+        <v>1927808</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -8756,13 +8756,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>999</v>
+        <v>821</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>2413</v>
+        <v>2224</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>44140</v>
       </c>
       <c r="B290" t="n">
-        <v>1914244</v>
+        <v>1928592</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -8785,13 +8785,13 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>957</v>
+        <v>784</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>2368</v>
+        <v>2184</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -8803,7 +8803,7 @@
         <v>44141</v>
       </c>
       <c r="B291" t="n">
-        <v>1915161</v>
+        <v>1929341</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8814,13 +8814,13 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>917</v>
+        <v>749</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>2326</v>
+        <v>2147</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -8832,7 +8832,7 @@
         <v>44142</v>
       </c>
       <c r="B292" t="n">
-        <v>1916039</v>
+        <v>1930056</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8843,13 +8843,13 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>878</v>
+        <v>715</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>2285</v>
+        <v>2110</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>44143</v>
       </c>
       <c r="B293" t="n">
-        <v>1916880</v>
+        <v>1930738</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8872,25 +8872,30 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>841</v>
+        <v>682</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>2245</v>
+        <v>2075</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>11439</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>End 97% on
+08 November 2020</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
         <v>44144</v>
       </c>
       <c r="B294" t="n">
-        <v>1917685</v>
+        <v>1931389</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8901,13 +8906,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>805</v>
+        <v>651</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>2207</v>
+        <v>2042</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -8919,7 +8924,7 @@
         <v>44145</v>
       </c>
       <c r="B295" t="n">
-        <v>1918456</v>
+        <v>1932010</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8930,13 +8935,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>771</v>
+        <v>621</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>2171</v>
+        <v>2009</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -8948,7 +8953,7 @@
         <v>44146</v>
       </c>
       <c r="B296" t="n">
-        <v>1919194</v>
+        <v>1932602</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8959,13 +8964,13 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>738</v>
+        <v>592</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>2135</v>
+        <v>1979</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -8977,7 +8982,7 @@
         <v>44147</v>
       </c>
       <c r="B297" t="n">
-        <v>1919901</v>
+        <v>1933167</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8988,13 +8993,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>707</v>
+        <v>565</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>2101</v>
+        <v>1949</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -9006,7 +9011,7 @@
         <v>44148</v>
       </c>
       <c r="B298" t="n">
-        <v>1920577</v>
+        <v>1933706</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -9017,13 +9022,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>676</v>
+        <v>539</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>2069</v>
+        <v>1920</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -9035,7 +9040,7 @@
         <v>44149</v>
       </c>
       <c r="B299" t="n">
-        <v>1921224</v>
+        <v>1934220</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -9046,30 +9051,25 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>647</v>
+        <v>514</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>2037</v>
+        <v>1893</v>
       </c>
       <c r="H299" t="n">
-        <v>11052</v>
-      </c>
-      <c r="I299" t="inlineStr">
-        <is>
-          <t>End 97% on
-14 November 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="B300" t="n">
-        <v>1921843</v>
+        <v>1934710</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -9080,13 +9080,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>619</v>
+        <v>490</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>2007</v>
+        <v>1867</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>44151</v>
       </c>
       <c r="B301" t="n">
-        <v>1922436</v>
+        <v>1935177</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -9109,13 +9109,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>593</v>
+        <v>467</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1978</v>
+        <v>1842</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>44152</v>
       </c>
       <c r="B302" t="n">
-        <v>1923003</v>
+        <v>1935622</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -9138,13 +9138,13 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>567</v>
+        <v>445</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1950</v>
+        <v>1817</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -9156,7 +9156,7 @@
         <v>44153</v>
       </c>
       <c r="B303" t="n">
-        <v>1923545</v>
+        <v>1936046</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>542</v>
+        <v>424</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1923</v>
+        <v>1794</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>44154</v>
       </c>
       <c r="B304" t="n">
-        <v>1924063</v>
+        <v>1936450</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -9196,13 +9196,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>518</v>
+        <v>404</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1897</v>
+        <v>1772</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9214,7 +9214,7 @@
         <v>44155</v>
       </c>
       <c r="B305" t="n">
-        <v>1924559</v>
+        <v>1936835</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>496</v>
+        <v>385</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1872</v>
+        <v>1751</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>44156</v>
       </c>
       <c r="B306" t="n">
-        <v>1925033</v>
+        <v>1937202</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -9254,13 +9254,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>474</v>
+        <v>367</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1848</v>
+        <v>1730</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>44157</v>
       </c>
       <c r="B307" t="n">
-        <v>1925486</v>
+        <v>1937552</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -9283,13 +9283,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>453</v>
+        <v>350</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1825</v>
+        <v>1710</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -9301,7 +9301,7 @@
         <v>44158</v>
       </c>
       <c r="B308" t="n">
-        <v>1925919</v>
+        <v>1937885</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -9312,13 +9312,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>433</v>
+        <v>333</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1802</v>
+        <v>1692</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>44159</v>
       </c>
       <c r="B309" t="n">
-        <v>1926333</v>
+        <v>1938202</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -9341,13 +9341,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>414</v>
+        <v>317</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1781</v>
+        <v>1673</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -9359,7 +9359,7 @@
         <v>44160</v>
       </c>
       <c r="B310" t="n">
-        <v>1926729</v>
+        <v>1938504</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -9370,13 +9370,13 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1760</v>
+        <v>1656</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -9388,7 +9388,7 @@
         <v>44161</v>
       </c>
       <c r="B311" t="n">
-        <v>1927107</v>
+        <v>1938791</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -9399,13 +9399,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>378</v>
+        <v>287</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1741</v>
+        <v>1639</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9417,7 +9417,7 @@
         <v>44162</v>
       </c>
       <c r="B312" t="n">
-        <v>1927468</v>
+        <v>1939065</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -9428,13 +9428,13 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>361</v>
+        <v>274</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1722</v>
+        <v>1623</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         <v>44163</v>
       </c>
       <c r="B313" t="n">
-        <v>1927813</v>
+        <v>1939325</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -9457,13 +9457,13 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1703</v>
+        <v>1608</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -9475,7 +9475,7 @@
         <v>44164</v>
       </c>
       <c r="B314" t="n">
-        <v>1928143</v>
+        <v>1939573</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -9486,13 +9486,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1686</v>
+        <v>1593</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -9504,7 +9504,7 @@
         <v>44165</v>
       </c>
       <c r="B315" t="n">
-        <v>1928458</v>
+        <v>1939809</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -9515,13 +9515,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1669</v>
+        <v>1579</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9533,7 +9533,7 @@
         <v>44166</v>
       </c>
       <c r="B316" t="n">
-        <v>1928759</v>
+        <v>1940033</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -9544,25 +9544,30 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>301</v>
+        <v>224</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1652</v>
+        <v>1566</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>6863</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>End 99% on
+01 December 2020</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
         <v>44167</v>
       </c>
       <c r="B317" t="n">
-        <v>1929046</v>
+        <v>1940246</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -9573,13 +9578,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1637</v>
+        <v>1553</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -9591,7 +9596,7 @@
         <v>44168</v>
       </c>
       <c r="B318" t="n">
-        <v>1929320</v>
+        <v>1940449</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -9602,13 +9607,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1622</v>
+        <v>1540</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -9620,7 +9625,7 @@
         <v>44169</v>
       </c>
       <c r="B319" t="n">
-        <v>1929582</v>
+        <v>1940642</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -9631,13 +9636,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1607</v>
+        <v>1528</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -9649,7 +9654,7 @@
         <v>44170</v>
       </c>
       <c r="B320" t="n">
-        <v>1929832</v>
+        <v>1940826</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -9660,13 +9665,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1593</v>
+        <v>1516</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -9678,7 +9683,7 @@
         <v>44171</v>
       </c>
       <c r="B321" t="n">
-        <v>1930070</v>
+        <v>1941001</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -9689,13 +9694,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>1580</v>
+        <v>1505</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -9707,7 +9712,7 @@
         <v>44172</v>
       </c>
       <c r="B322" t="n">
-        <v>1930298</v>
+        <v>1941167</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -9718,13 +9723,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>1567</v>
+        <v>1495</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -9736,7 +9741,7 @@
         <v>44173</v>
       </c>
       <c r="B323" t="n">
-        <v>1930515</v>
+        <v>1941325</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -9747,30 +9752,25 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1554</v>
+        <v>1484</v>
       </c>
       <c r="H323" t="n">
-        <v>6632</v>
-      </c>
-      <c r="I323" t="inlineStr">
-        <is>
-          <t>End 99% on
-08 December 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
         <v>44174</v>
       </c>
       <c r="B324" t="n">
-        <v>1930722</v>
+        <v>1941475</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -9781,13 +9781,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1542</v>
+        <v>1475</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>44175</v>
       </c>
       <c r="B325" t="n">
-        <v>1930920</v>
+        <v>1941618</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1530</v>
+        <v>1465</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>44176</v>
       </c>
       <c r="B326" t="n">
-        <v>1931109</v>
+        <v>1941754</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -9839,13 +9839,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1519</v>
+        <v>1456</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>44177</v>
       </c>
       <c r="B327" t="n">
-        <v>1931289</v>
+        <v>1941883</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1509</v>
+        <v>1447</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>44178</v>
       </c>
       <c r="B328" t="n">
-        <v>1931461</v>
+        <v>1942005</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1498</v>
+        <v>1439</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>44179</v>
       </c>
       <c r="B329" t="n">
-        <v>1931625</v>
+        <v>1942121</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9926,13 +9926,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1488</v>
+        <v>1431</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>44180</v>
       </c>
       <c r="B330" t="n">
-        <v>1931781</v>
+        <v>1942232</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9955,13 +9955,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1479</v>
+        <v>1423</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>44181</v>
       </c>
       <c r="B331" t="n">
-        <v>1931930</v>
+        <v>1942337</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1469</v>
+        <v>1415</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>44182</v>
       </c>
       <c r="B332" t="n">
-        <v>1932072</v>
+        <v>1942437</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -10013,13 +10013,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1461</v>
+        <v>1408</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>44183</v>
       </c>
       <c r="B333" t="n">
-        <v>1932207</v>
+        <v>1942532</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -10042,13 +10042,13 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1452</v>
+        <v>1401</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>44184</v>
       </c>
       <c r="B334" t="n">
-        <v>1932336</v>
+        <v>1942622</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>1444</v>
+        <v>1394</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>44185</v>
       </c>
       <c r="B335" t="n">
-        <v>1932459</v>
+        <v>1942707</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>1436</v>
+        <v>1388</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>44186</v>
       </c>
       <c r="B336" t="n">
-        <v>1932576</v>
+        <v>1942788</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>1428</v>
+        <v>1382</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>44187</v>
       </c>
       <c r="B337" t="n">
-        <v>1932688</v>
+        <v>1942865</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>1420</v>
+        <v>1376</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>44188</v>
       </c>
       <c r="B338" t="n">
-        <v>1932795</v>
+        <v>1942938</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1413</v>
+        <v>1370</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>44189</v>
       </c>
       <c r="B339" t="n">
-        <v>1932897</v>
+        <v>1943007</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1406</v>
+        <v>1364</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>44190</v>
       </c>
       <c r="B340" t="n">
-        <v>1932994</v>
+        <v>1943073</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -10245,13 +10245,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>1400</v>
+        <v>1359</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>44191</v>
       </c>
       <c r="B341" t="n">
-        <v>1933086</v>
+        <v>1943136</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -10274,13 +10274,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>1393</v>
+        <v>1353</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>44192</v>
       </c>
       <c r="B342" t="n">
-        <v>1933174</v>
+        <v>1943195</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -10303,13 +10303,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1387</v>
+        <v>1348</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>44193</v>
       </c>
       <c r="B343" t="n">
-        <v>1933258</v>
+        <v>1943251</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -10332,13 +10332,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>1381</v>
+        <v>1343</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>44194</v>
       </c>
       <c r="B344" t="n">
-        <v>1933338</v>
+        <v>1943304</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1375</v>
+        <v>1339</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>44195</v>
       </c>
       <c r="B345" t="n">
-        <v>1933414</v>
+        <v>1943355</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1369</v>
+        <v>1334</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>44196</v>
       </c>
       <c r="B346" t="n">
-        <v>1933486</v>
+        <v>1943403</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -10419,13 +10419,13 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>1364</v>
+        <v>1330</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>44197</v>
       </c>
       <c r="B347" t="n">
-        <v>1933555</v>
+        <v>1943449</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -10448,13 +10448,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1358</v>
+        <v>1325</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>44198</v>
       </c>
       <c r="B348" t="n">
-        <v>1933621</v>
+        <v>1943492</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -10477,13 +10477,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>1353</v>
+        <v>1321</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>44199</v>
       </c>
       <c r="B349" t="n">
-        <v>1933684</v>
+        <v>1943533</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>1348</v>
+        <v>1317</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>44200</v>
       </c>
       <c r="B350" t="n">
-        <v>1933744</v>
+        <v>1943572</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>1344</v>
+        <v>1313</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>44201</v>
       </c>
       <c r="B351" t="n">
-        <v>1933801</v>
+        <v>1943609</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -10564,13 +10564,13 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1339</v>
+        <v>1309</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -10582,7 +10582,7 @@
         <v>44202</v>
       </c>
       <c r="B352" t="n">
-        <v>1933855</v>
+        <v>1943644</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>1334</v>
+        <v>1305</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>44203</v>
       </c>
       <c r="B353" t="n">
-        <v>1933906</v>
+        <v>1943677</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -10622,13 +10622,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>1330</v>
+        <v>1302</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>44204</v>
       </c>
       <c r="B354" t="n">
-        <v>1933955</v>
+        <v>1943709</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>1326</v>
+        <v>1298</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>44205</v>
       </c>
       <c r="B355" t="n">
-        <v>1934002</v>
+        <v>1943739</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>1321</v>
+        <v>1295</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>44206</v>
       </c>
       <c r="B356" t="n">
-        <v>1934046</v>
+        <v>1943767</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -10709,13 +10709,13 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>1317</v>
+        <v>1292</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>44207</v>
       </c>
       <c r="B357" t="n">
-        <v>1934088</v>
+        <v>1943794</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -10738,13 +10738,13 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1313</v>
+        <v>1288</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>44208</v>
       </c>
       <c r="B358" t="n">
-        <v>1934128</v>
+        <v>1943819</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -10767,13 +10767,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>1310</v>
+        <v>1285</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>44209</v>
       </c>
       <c r="B359" t="n">
-        <v>1934166</v>
+        <v>1943843</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -10796,13 +10796,13 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>1306</v>
+        <v>1282</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>44210</v>
       </c>
       <c r="B360" t="n">
-        <v>1934202</v>
+        <v>1943866</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>1302</v>
+        <v>1279</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>44211</v>
       </c>
       <c r="B361" t="n">
-        <v>1934237</v>
+        <v>1943888</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -10854,13 +10854,13 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>1299</v>
+        <v>1276</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>44212</v>
       </c>
       <c r="B362" t="n">
-        <v>1934270</v>
+        <v>1943909</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -10883,13 +10883,13 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1295</v>
+        <v>1273</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>44213</v>
       </c>
       <c r="B363" t="n">
-        <v>1934301</v>
+        <v>1943928</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -10912,13 +10912,13 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>1292</v>
+        <v>1270</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>44214</v>
       </c>
       <c r="B364" t="n">
-        <v>1934331</v>
+        <v>1943946</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -10941,13 +10941,13 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>1289</v>
+        <v>1268</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>44215</v>
       </c>
       <c r="B365" t="n">
-        <v>1934359</v>
+        <v>1943964</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -10970,13 +10970,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>1286</v>
+        <v>1265</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>44216</v>
       </c>
       <c r="B366" t="n">
-        <v>1934386</v>
+        <v>1943981</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -10999,13 +10999,13 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>1282</v>
+        <v>1262</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>44217</v>
       </c>
       <c r="B367" t="n">
-        <v>1934412</v>
+        <v>1943997</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -11028,13 +11028,13 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1279</v>
+        <v>1260</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -11046,7 +11046,7 @@
         <v>44218</v>
       </c>
       <c r="B368" t="n">
-        <v>1934436</v>
+        <v>1944012</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>1276</v>
+        <v>1257</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>44219</v>
       </c>
       <c r="B369" t="n">
-        <v>1934459</v>
+        <v>1944026</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -11086,13 +11086,13 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>1274</v>
+        <v>1255</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>44220</v>
       </c>
       <c r="B370" t="n">
-        <v>1934481</v>
+        <v>1944039</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -11115,13 +11115,13 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>1271</v>
+        <v>1252</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>44221</v>
       </c>
       <c r="B371" t="n">
-        <v>1934502</v>
+        <v>1944052</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -11144,13 +11144,13 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>1268</v>
+        <v>1250</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>44222</v>
       </c>
       <c r="B372" t="n">
-        <v>1934522</v>
+        <v>1944064</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -11173,13 +11173,13 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>1265</v>
+        <v>1248</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -11191,7 +11191,7 @@
         <v>44223</v>
       </c>
       <c r="B373" t="n">
-        <v>1934541</v>
+        <v>1944075</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -11202,13 +11202,13 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>1263</v>
+        <v>1245</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>44224</v>
       </c>
       <c r="B374" t="n">
-        <v>1934559</v>
+        <v>1944086</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -11231,13 +11231,13 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>1260</v>
+        <v>1243</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -11249,7 +11249,7 @@
         <v>44225</v>
       </c>
       <c r="B375" t="n">
-        <v>1934576</v>
+        <v>1944096</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -11260,13 +11260,13 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>1257</v>
+        <v>1241</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -11278,7 +11278,7 @@
         <v>44226</v>
       </c>
       <c r="B376" t="n">
-        <v>1934592</v>
+        <v>1944106</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -11289,13 +11289,13 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>1255</v>
+        <v>1239</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>44227</v>
       </c>
       <c r="B377" t="n">
-        <v>1934608</v>
+        <v>1944115</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -11318,13 +11318,13 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>44228</v>
       </c>
       <c r="B378" t="n">
-        <v>1934623</v>
+        <v>1944124</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -11347,13 +11347,13 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1250</v>
+        <v>1234</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>44229</v>
       </c>
       <c r="B379" t="n">
-        <v>1934637</v>
+        <v>1944132</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1248</v>
+        <v>1232</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>44230</v>
       </c>
       <c r="B380" t="n">
-        <v>1934650</v>
+        <v>1944140</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -11405,13 +11405,13 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>44231</v>
       </c>
       <c r="B381" t="n">
-        <v>1934663</v>
+        <v>1944147</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>1243</v>
+        <v>1228</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>44232</v>
       </c>
       <c r="B382" t="n">
-        <v>1934675</v>
+        <v>1944154</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -11463,13 +11463,13 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>1241</v>
+        <v>1226</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -11481,7 +11481,7 @@
         <v>44233</v>
       </c>
       <c r="B383" t="n">
-        <v>1934686</v>
+        <v>1944161</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -11492,13 +11492,13 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>1239</v>
+        <v>1224</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -11510,7 +11510,7 @@
         <v>44234</v>
       </c>
       <c r="B384" t="n">
-        <v>1934697</v>
+        <v>1944167</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -11521,13 +11521,13 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>44235</v>
       </c>
       <c r="B385" t="n">
-        <v>1934707</v>
+        <v>1944173</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -11550,13 +11550,13 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>1234</v>
+        <v>1220</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -11568,7 +11568,7 @@
         <v>44236</v>
       </c>
       <c r="B386" t="n">
-        <v>1934717</v>
+        <v>1944179</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -11579,13 +11579,13 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>1232</v>
+        <v>1218</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>44237</v>
       </c>
       <c r="B387" t="n">
-        <v>1934726</v>
+        <v>1944184</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -11608,13 +11608,13 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>44238</v>
       </c>
       <c r="B388" t="n">
-        <v>1934735</v>
+        <v>1944189</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -11637,13 +11637,13 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -11655,7 +11655,7 @@
         <v>44239</v>
       </c>
       <c r="B389" t="n">
-        <v>1934743</v>
+        <v>1944194</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -11666,13 +11666,13 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -11684,7 +11684,7 @@
         <v>44240</v>
       </c>
       <c r="B390" t="n">
-        <v>1934751</v>
+        <v>1944198</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -11695,13 +11695,13 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
         <v>44241</v>
       </c>
       <c r="B391" t="n">
-        <v>1934759</v>
+        <v>1944202</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -11724,13 +11724,13 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>44242</v>
       </c>
       <c r="B392" t="n">
-        <v>1934766</v>
+        <v>1944206</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -11753,13 +11753,13 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -11771,7 +11771,7 @@
         <v>44243</v>
       </c>
       <c r="B393" t="n">
-        <v>1934773</v>
+        <v>1944210</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -11782,13 +11782,13 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F393" t="n">
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -11800,7 +11800,7 @@
         <v>44244</v>
       </c>
       <c r="B394" t="n">
-        <v>1934780</v>
+        <v>1944214</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -11811,13 +11811,13 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F394" t="n">
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>44245</v>
       </c>
       <c r="B395" t="n">
-        <v>1934786</v>
+        <v>1944217</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -11840,13 +11840,13 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F395" t="n">
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="H395" t="n">
         <v>0</v>
@@ -11858,7 +11858,7 @@
         <v>44246</v>
       </c>
       <c r="B396" t="n">
-        <v>1934792</v>
+        <v>1944220</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -11869,13 +11869,13 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F396" t="n">
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="H396" t="n">
         <v>0</v>
@@ -11887,7 +11887,7 @@
         <v>44247</v>
       </c>
       <c r="B397" t="n">
-        <v>1934798</v>
+        <v>1944223</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -11898,13 +11898,13 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F397" t="n">
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -11916,7 +11916,7 @@
         <v>44248</v>
       </c>
       <c r="B398" t="n">
-        <v>1934803</v>
+        <v>1944226</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -11927,13 +11927,13 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F398" t="n">
         <v>0</v>
       </c>
       <c r="G398" t="n">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="H398" t="n">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>44249</v>
       </c>
       <c r="B399" t="n">
-        <v>1934808</v>
+        <v>1944229</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -11956,13 +11956,13 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F399" t="n">
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -11974,7 +11974,7 @@
         <v>44250</v>
       </c>
       <c r="B400" t="n">
-        <v>1934813</v>
+        <v>1944232</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -11985,13 +11985,13 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F400" t="n">
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="H400" t="n">
         <v>0</v>
@@ -12003,7 +12003,7 @@
         <v>44251</v>
       </c>
       <c r="B401" t="n">
-        <v>1934818</v>
+        <v>1944234</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -12014,13 +12014,13 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F401" t="n">
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="H401" t="n">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>44252</v>
       </c>
       <c r="B402" t="n">
-        <v>1934822</v>
+        <v>1944236</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -12043,13 +12043,13 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F402" t="n">
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -12061,7 +12061,7 @@
         <v>44253</v>
       </c>
       <c r="B403" t="n">
-        <v>1934826</v>
+        <v>1944238</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -12072,13 +12072,13 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F403" t="n">
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -12090,7 +12090,7 @@
         <v>44254</v>
       </c>
       <c r="B404" t="n">
-        <v>1934830</v>
+        <v>1944240</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -12101,13 +12101,13 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F404" t="n">
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -12119,7 +12119,7 @@
         <v>44255</v>
       </c>
       <c r="B405" t="n">
-        <v>1934834</v>
+        <v>1944242</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -12130,13 +12130,13 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F405" t="n">
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -12148,7 +12148,7 @@
         <v>44256</v>
       </c>
       <c r="B406" t="n">
-        <v>1934838</v>
+        <v>1944244</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -12159,13 +12159,13 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F406" t="n">
         <v>0</v>
       </c>
       <c r="G406" t="n">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -12177,7 +12177,7 @@
         <v>44257</v>
       </c>
       <c r="B407" t="n">
-        <v>1934841</v>
+        <v>1944246</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -12188,13 +12188,13 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F407" t="n">
         <v>0</v>
       </c>
       <c r="G407" t="n">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -12206,7 +12206,7 @@
         <v>44258</v>
       </c>
       <c r="B408" t="n">
-        <v>1934844</v>
+        <v>1944248</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -12217,13 +12217,13 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F408" t="n">
         <v>0</v>
       </c>
       <c r="G408" t="n">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>44259</v>
       </c>
       <c r="B409" t="n">
-        <v>1934847</v>
+        <v>1944250</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -12246,13 +12246,13 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F409" t="n">
         <v>0</v>
       </c>
       <c r="G409" t="n">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -12264,7 +12264,7 @@
         <v>44260</v>
       </c>
       <c r="B410" t="n">
-        <v>1934850</v>
+        <v>1944251</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -12275,13 +12275,13 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F410" t="n">
         <v>0</v>
       </c>
       <c r="G410" t="n">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -12293,7 +12293,7 @@
         <v>44261</v>
       </c>
       <c r="B411" t="n">
-        <v>1934853</v>
+        <v>1944252</v>
       </c>
       <c r="C411" t="n">
         <v>0</v>
@@ -12304,13 +12304,13 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F411" t="n">
         <v>0</v>
       </c>
       <c r="G411" t="n">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -12322,7 +12322,7 @@
         <v>44262</v>
       </c>
       <c r="B412" t="n">
-        <v>1934856</v>
+        <v>1944253</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -12333,13 +12333,13 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F412" t="n">
         <v>0</v>
       </c>
       <c r="G412" t="n">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -12351,7 +12351,7 @@
         <v>44263</v>
       </c>
       <c r="B413" t="n">
-        <v>1934858</v>
+        <v>1944254</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -12362,13 +12362,13 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F413" t="n">
         <v>0</v>
       </c>
       <c r="G413" t="n">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="H413" t="n">
         <v>0</v>
@@ -12380,7 +12380,7 @@
         <v>44264</v>
       </c>
       <c r="B414" t="n">
-        <v>1934860</v>
+        <v>1944255</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -12391,13 +12391,13 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F414" t="n">
         <v>0</v>
       </c>
       <c r="G414" t="n">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="H414" t="n">
         <v>0</v>
@@ -12409,7 +12409,7 @@
         <v>44265</v>
       </c>
       <c r="B415" t="n">
-        <v>1934862</v>
+        <v>1944256</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -12420,13 +12420,13 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F415" t="n">
         <v>0</v>
       </c>
       <c r="G415" t="n">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="H415" t="n">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>44266</v>
       </c>
       <c r="B416" t="n">
-        <v>1934864</v>
+        <v>1944257</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -12449,13 +12449,13 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F416" t="n">
         <v>0</v>
       </c>
       <c r="G416" t="n">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="H416" t="n">
         <v>0</v>
@@ -12467,7 +12467,7 @@
         <v>44267</v>
       </c>
       <c r="B417" t="n">
-        <v>1934866</v>
+        <v>1944258</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -12478,13 +12478,13 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F417" t="n">
         <v>0</v>
       </c>
       <c r="G417" t="n">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="H417" t="n">
         <v>0</v>
@@ -12496,7 +12496,7 @@
         <v>44268</v>
       </c>
       <c r="B418" t="n">
-        <v>1934868</v>
+        <v>1944259</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -12507,13 +12507,13 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F418" t="n">
         <v>0</v>
       </c>
       <c r="G418" t="n">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="H418" t="n">
         <v>0</v>
@@ -12525,7 +12525,7 @@
         <v>44269</v>
       </c>
       <c r="B419" t="n">
-        <v>1934870</v>
+        <v>1944260</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -12536,13 +12536,13 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F419" t="n">
         <v>0</v>
       </c>
       <c r="G419" t="n">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="H419" t="n">
         <v>0</v>
@@ -12554,7 +12554,7 @@
         <v>44270</v>
       </c>
       <c r="B420" t="n">
-        <v>1934872</v>
+        <v>1944261</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -12565,13 +12565,13 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F420" t="n">
         <v>0</v>
       </c>
       <c r="G420" t="n">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="H420" t="n">
         <v>0</v>
@@ -12583,7 +12583,7 @@
         <v>44271</v>
       </c>
       <c r="B421" t="n">
-        <v>1934874</v>
+        <v>1944262</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -12594,13 +12594,13 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F421" t="n">
         <v>0</v>
       </c>
       <c r="G421" t="n">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="H421" t="n">
         <v>0</v>
@@ -12612,7 +12612,7 @@
         <v>44272</v>
       </c>
       <c r="B422" t="n">
-        <v>1934876</v>
+        <v>1944263</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -12623,13 +12623,13 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F422" t="n">
         <v>0</v>
       </c>
       <c r="G422" t="n">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="H422" t="n">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>44273</v>
       </c>
       <c r="B423" t="n">
-        <v>1934877</v>
+        <v>1944264</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="G423" t="n">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="H423" t="n">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>44274</v>
       </c>
       <c r="B424" t="n">
-        <v>1934878</v>
+        <v>1944265</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="G424" t="n">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="H424" t="n">
         <v>0</v>
@@ -12699,7 +12699,7 @@
         <v>44275</v>
       </c>
       <c r="B425" t="n">
-        <v>1934879</v>
+        <v>1944266</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -12716,7 +12716,7 @@
         <v>0</v>
       </c>
       <c r="G425" t="n">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="H425" t="n">
         <v>0</v>
@@ -12728,7 +12728,7 @@
         <v>44276</v>
       </c>
       <c r="B426" t="n">
-        <v>1934880</v>
+        <v>1944267</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -12745,7 +12745,7 @@
         <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="H426" t="n">
         <v>0</v>
@@ -12757,7 +12757,7 @@
         <v>44277</v>
       </c>
       <c r="B427" t="n">
-        <v>1934881</v>
+        <v>1944268</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -12774,7 +12774,7 @@
         <v>0</v>
       </c>
       <c r="G427" t="n">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="H427" t="n">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>44278</v>
       </c>
       <c r="B428" t="n">
-        <v>1934882</v>
+        <v>1944269</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -12803,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="G428" t="n">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="H428" t="n">
         <v>0</v>
@@ -12815,7 +12815,7 @@
         <v>44279</v>
       </c>
       <c r="B429" t="n">
-        <v>1934883</v>
+        <v>1944270</v>
       </c>
       <c r="C429" t="n">
         <v>0</v>
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="G429" t="n">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="H429" t="n">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>44280</v>
       </c>
       <c r="B430" t="n">
-        <v>1934884</v>
+        <v>1944270</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -12855,25 +12855,30 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F430" t="n">
         <v>0</v>
       </c>
       <c r="G430" t="n">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>11439</v>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>No new cases on
+25 March 2021</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
         <v>44281</v>
       </c>
       <c r="B431" t="n">
-        <v>1934885</v>
+        <v>1944270</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -12884,13 +12889,13 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F431" t="n">
         <v>0</v>
       </c>
       <c r="G431" t="n">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="H431" t="n">
         <v>0</v>
@@ -12902,7 +12907,7 @@
         <v>44282</v>
       </c>
       <c r="B432" t="n">
-        <v>1934886</v>
+        <v>1944270</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -12913,13 +12918,13 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F432" t="n">
         <v>0</v>
       </c>
       <c r="G432" t="n">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="H432" t="n">
         <v>0</v>
@@ -12931,7 +12936,7 @@
         <v>44283</v>
       </c>
       <c r="B433" t="n">
-        <v>1934887</v>
+        <v>1944270</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -12942,13 +12947,13 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F433" t="n">
         <v>0</v>
       </c>
       <c r="G433" t="n">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="H433" t="n">
         <v>0</v>
@@ -12960,7 +12965,7 @@
         <v>44284</v>
       </c>
       <c r="B434" t="n">
-        <v>1934888</v>
+        <v>1944270</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -12971,13 +12976,13 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F434" t="n">
         <v>0</v>
       </c>
       <c r="G434" t="n">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="H434" t="n">
         <v>0</v>
@@ -12989,7 +12994,7 @@
         <v>44285</v>
       </c>
       <c r="B435" t="n">
-        <v>1934889</v>
+        <v>1944270</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -13000,13 +13005,13 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F435" t="n">
         <v>0</v>
       </c>
       <c r="G435" t="n">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="H435" t="n">
         <v>0</v>
@@ -13018,7 +13023,7 @@
         <v>44286</v>
       </c>
       <c r="B436" t="n">
-        <v>1934890</v>
+        <v>1944270</v>
       </c>
       <c r="C436" t="n">
         <v>0</v>
@@ -13029,893 +13034,18 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F436" t="n">
         <v>0</v>
       </c>
       <c r="G436" t="n">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="H436" t="n">
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="B437" t="n">
-        <v>1934891</v>
-      </c>
-      <c r="C437" t="n">
-        <v>0</v>
-      </c>
-      <c r="D437" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E437" t="n">
-        <v>1</v>
-      </c>
-      <c r="F437" t="n">
-        <v>0</v>
-      </c>
-      <c r="G437" t="n">
-        <v>1149</v>
-      </c>
-      <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
-        <v>44288</v>
-      </c>
-      <c r="B438" t="n">
-        <v>1934892</v>
-      </c>
-      <c r="C438" t="n">
-        <v>0</v>
-      </c>
-      <c r="D438" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E438" t="n">
-        <v>1</v>
-      </c>
-      <c r="F438" t="n">
-        <v>0</v>
-      </c>
-      <c r="G438" t="n">
-        <v>1148</v>
-      </c>
-      <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
-        <v>44289</v>
-      </c>
-      <c r="B439" t="n">
-        <v>1934893</v>
-      </c>
-      <c r="C439" t="n">
-        <v>0</v>
-      </c>
-      <c r="D439" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E439" t="n">
-        <v>1</v>
-      </c>
-      <c r="F439" t="n">
-        <v>0</v>
-      </c>
-      <c r="G439" t="n">
-        <v>1146</v>
-      </c>
-      <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
-        <v>44290</v>
-      </c>
-      <c r="B440" t="n">
-        <v>1934894</v>
-      </c>
-      <c r="C440" t="n">
-        <v>0</v>
-      </c>
-      <c r="D440" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E440" t="n">
-        <v>1</v>
-      </c>
-      <c r="F440" t="n">
-        <v>0</v>
-      </c>
-      <c r="G440" t="n">
-        <v>1145</v>
-      </c>
-      <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
-        <v>44291</v>
-      </c>
-      <c r="B441" t="n">
-        <v>1934895</v>
-      </c>
-      <c r="C441" t="n">
-        <v>0</v>
-      </c>
-      <c r="D441" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E441" t="n">
-        <v>1</v>
-      </c>
-      <c r="F441" t="n">
-        <v>0</v>
-      </c>
-      <c r="G441" t="n">
-        <v>1144</v>
-      </c>
-      <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
-        <v>44292</v>
-      </c>
-      <c r="B442" t="n">
-        <v>1934896</v>
-      </c>
-      <c r="C442" t="n">
-        <v>0</v>
-      </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E442" t="n">
-        <v>1</v>
-      </c>
-      <c r="F442" t="n">
-        <v>0</v>
-      </c>
-      <c r="G442" t="n">
-        <v>1142</v>
-      </c>
-      <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
-        <v>44293</v>
-      </c>
-      <c r="B443" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C443" t="n">
-        <v>0</v>
-      </c>
-      <c r="D443" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E443" t="n">
-        <v>1</v>
-      </c>
-      <c r="F443" t="n">
-        <v>0</v>
-      </c>
-      <c r="G443" t="n">
-        <v>1141</v>
-      </c>
-      <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
-        <v>44294</v>
-      </c>
-      <c r="B444" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C444" t="n">
-        <v>0</v>
-      </c>
-      <c r="D444" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E444" t="n">
-        <v>0</v>
-      </c>
-      <c r="F444" t="n">
-        <v>0</v>
-      </c>
-      <c r="G444" t="n">
-        <v>1140</v>
-      </c>
-      <c r="H444" t="n">
-        <v>11052</v>
-      </c>
-      <c r="I444" t="inlineStr">
-        <is>
-          <t>No new cases on
-08 April 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
-        <v>44295</v>
-      </c>
-      <c r="B445" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C445" t="n">
-        <v>0</v>
-      </c>
-      <c r="D445" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E445" t="n">
-        <v>0</v>
-      </c>
-      <c r="F445" t="n">
-        <v>0</v>
-      </c>
-      <c r="G445" t="n">
-        <v>1138</v>
-      </c>
-      <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
-        <v>44296</v>
-      </c>
-      <c r="B446" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C446" t="n">
-        <v>0</v>
-      </c>
-      <c r="D446" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E446" t="n">
-        <v>0</v>
-      </c>
-      <c r="F446" t="n">
-        <v>0</v>
-      </c>
-      <c r="G446" t="n">
-        <v>1137</v>
-      </c>
-      <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
-        <v>44297</v>
-      </c>
-      <c r="B447" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C447" t="n">
-        <v>0</v>
-      </c>
-      <c r="D447" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E447" t="n">
-        <v>0</v>
-      </c>
-      <c r="F447" t="n">
-        <v>0</v>
-      </c>
-      <c r="G447" t="n">
-        <v>1135</v>
-      </c>
-      <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
-        <v>44298</v>
-      </c>
-      <c r="B448" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C448" t="n">
-        <v>0</v>
-      </c>
-      <c r="D448" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E448" t="n">
-        <v>0</v>
-      </c>
-      <c r="F448" t="n">
-        <v>0</v>
-      </c>
-      <c r="G448" t="n">
-        <v>1134</v>
-      </c>
-      <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
-        <v>44299</v>
-      </c>
-      <c r="B449" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C449" t="n">
-        <v>0</v>
-      </c>
-      <c r="D449" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E449" t="n">
-        <v>0</v>
-      </c>
-      <c r="F449" t="n">
-        <v>0</v>
-      </c>
-      <c r="G449" t="n">
-        <v>1133</v>
-      </c>
-      <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
-        <v>44300</v>
-      </c>
-      <c r="B450" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C450" t="n">
-        <v>0</v>
-      </c>
-      <c r="D450" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E450" t="n">
-        <v>0</v>
-      </c>
-      <c r="F450" t="n">
-        <v>0</v>
-      </c>
-      <c r="G450" t="n">
-        <v>1132</v>
-      </c>
-      <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
-        <v>44301</v>
-      </c>
-      <c r="B451" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C451" t="n">
-        <v>0</v>
-      </c>
-      <c r="D451" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E451" t="n">
-        <v>0</v>
-      </c>
-      <c r="F451" t="n">
-        <v>0</v>
-      </c>
-      <c r="G451" t="n">
-        <v>1130</v>
-      </c>
-      <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
-        <v>44302</v>
-      </c>
-      <c r="B452" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C452" t="n">
-        <v>0</v>
-      </c>
-      <c r="D452" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E452" t="n">
-        <v>0</v>
-      </c>
-      <c r="F452" t="n">
-        <v>0</v>
-      </c>
-      <c r="G452" t="n">
-        <v>1129</v>
-      </c>
-      <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
-        <v>44303</v>
-      </c>
-      <c r="B453" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C453" t="n">
-        <v>0</v>
-      </c>
-      <c r="D453" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E453" t="n">
-        <v>0</v>
-      </c>
-      <c r="F453" t="n">
-        <v>0</v>
-      </c>
-      <c r="G453" t="n">
-        <v>1128</v>
-      </c>
-      <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
-        <v>44304</v>
-      </c>
-      <c r="B454" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C454" t="n">
-        <v>0</v>
-      </c>
-      <c r="D454" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E454" t="n">
-        <v>0</v>
-      </c>
-      <c r="F454" t="n">
-        <v>0</v>
-      </c>
-      <c r="G454" t="n">
-        <v>1127</v>
-      </c>
-      <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
-        <v>44305</v>
-      </c>
-      <c r="B455" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C455" t="n">
-        <v>0</v>
-      </c>
-      <c r="D455" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E455" t="n">
-        <v>0</v>
-      </c>
-      <c r="F455" t="n">
-        <v>0</v>
-      </c>
-      <c r="G455" t="n">
-        <v>1125</v>
-      </c>
-      <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
-        <v>44306</v>
-      </c>
-      <c r="B456" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C456" t="n">
-        <v>0</v>
-      </c>
-      <c r="D456" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E456" t="n">
-        <v>0</v>
-      </c>
-      <c r="F456" t="n">
-        <v>0</v>
-      </c>
-      <c r="G456" t="n">
-        <v>1124</v>
-      </c>
-      <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
-        <v>44307</v>
-      </c>
-      <c r="B457" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C457" t="n">
-        <v>0</v>
-      </c>
-      <c r="D457" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E457" t="n">
-        <v>0</v>
-      </c>
-      <c r="F457" t="n">
-        <v>0</v>
-      </c>
-      <c r="G457" t="n">
-        <v>1123</v>
-      </c>
-      <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
-        <v>44308</v>
-      </c>
-      <c r="B458" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C458" t="n">
-        <v>0</v>
-      </c>
-      <c r="D458" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E458" t="n">
-        <v>0</v>
-      </c>
-      <c r="F458" t="n">
-        <v>0</v>
-      </c>
-      <c r="G458" t="n">
-        <v>1122</v>
-      </c>
-      <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
-        <v>44309</v>
-      </c>
-      <c r="B459" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C459" t="n">
-        <v>0</v>
-      </c>
-      <c r="D459" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E459" t="n">
-        <v>0</v>
-      </c>
-      <c r="F459" t="n">
-        <v>0</v>
-      </c>
-      <c r="G459" t="n">
-        <v>1120</v>
-      </c>
-      <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
-        <v>44310</v>
-      </c>
-      <c r="B460" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C460" t="n">
-        <v>0</v>
-      </c>
-      <c r="D460" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E460" t="n">
-        <v>0</v>
-      </c>
-      <c r="F460" t="n">
-        <v>0</v>
-      </c>
-      <c r="G460" t="n">
-        <v>1119</v>
-      </c>
-      <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
-        <v>44311</v>
-      </c>
-      <c r="B461" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C461" t="n">
-        <v>0</v>
-      </c>
-      <c r="D461" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E461" t="n">
-        <v>0</v>
-      </c>
-      <c r="F461" t="n">
-        <v>0</v>
-      </c>
-      <c r="G461" t="n">
-        <v>1118</v>
-      </c>
-      <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
-        <v>44312</v>
-      </c>
-      <c r="B462" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C462" t="n">
-        <v>0</v>
-      </c>
-      <c r="D462" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E462" t="n">
-        <v>0</v>
-      </c>
-      <c r="F462" t="n">
-        <v>0</v>
-      </c>
-      <c r="G462" t="n">
-        <v>1117</v>
-      </c>
-      <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
-        <v>44313</v>
-      </c>
-      <c r="B463" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C463" t="n">
-        <v>0</v>
-      </c>
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E463" t="n">
-        <v>0</v>
-      </c>
-      <c r="F463" t="n">
-        <v>0</v>
-      </c>
-      <c r="G463" t="n">
-        <v>1116</v>
-      </c>
-      <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
-        <v>44314</v>
-      </c>
-      <c r="B464" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C464" t="n">
-        <v>0</v>
-      </c>
-      <c r="D464" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E464" t="n">
-        <v>0</v>
-      </c>
-      <c r="F464" t="n">
-        <v>0</v>
-      </c>
-      <c r="G464" t="n">
-        <v>1114</v>
-      </c>
-      <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
-        <v>44315</v>
-      </c>
-      <c r="B465" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C465" t="n">
-        <v>0</v>
-      </c>
-      <c r="D465" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E465" t="n">
-        <v>0</v>
-      </c>
-      <c r="F465" t="n">
-        <v>0</v>
-      </c>
-      <c r="G465" t="n">
-        <v>1113</v>
-      </c>
-      <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
-        <v>44316</v>
-      </c>
-      <c r="B466" t="n">
-        <v>1934897</v>
-      </c>
-      <c r="C466" t="n">
-        <v>0</v>
-      </c>
-      <c r="D466" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E466" t="n">
-        <v>0</v>
-      </c>
-      <c r="F466" t="n">
-        <v>0</v>
-      </c>
-      <c r="G466" t="n">
-        <v>1112</v>
-      </c>
-      <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>396</v>
+        <v>335</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>457</v>
+        <v>389</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>524</v>
+        <v>449</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>599</v>
+        <v>516</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>682</v>
+        <v>591</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>774</v>
+        <v>674</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>875</v>
+        <v>767</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>986</v>
+        <v>868</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1108</v>
+        <v>980</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1240</v>
+        <v>1103</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1384</v>
+        <v>1237</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1539</v>
+        <v>1383</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1707</v>
+        <v>1541</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1888</v>
+        <v>1711</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2082</v>
+        <v>1895</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2289</v>
+        <v>2092</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2509</v>
+        <v>2304</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>2744</v>
+        <v>2529</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2993</v>
+        <v>2769</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>3255</v>
+        <v>3024</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3532</v>
+        <v>3293</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3823</v>
+        <v>3577</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4128</v>
+        <v>3876</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>4447</v>
+        <v>4190</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4779</v>
+        <v>4518</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>5125</v>
+        <v>4860</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>5483</v>
+        <v>5216</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>5854</v>
+        <v>5586</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6237</v>
+        <v>5969</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>6631</v>
+        <v>6364</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>7036</v>
+        <v>6771</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>7450</v>
+        <v>7189</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>7874</v>
+        <v>7617</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>8306</v>
+        <v>8055</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>8745</v>
+        <v>8502</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>9191</v>
+        <v>8956</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9642</v>
+        <v>9417</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10097</v>
+        <v>9884</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10556</v>
+        <v>10355</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>11017</v>
+        <v>10830</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>11479</v>
+        <v>11307</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>11942</v>
+        <v>11785</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>12403</v>
+        <v>12263</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>12862</v>
+        <v>12739</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>13318</v>
+        <v>13214</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13769</v>
+        <v>13684</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>14215</v>
+        <v>14150</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>14654</v>
+        <v>14609</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>15085</v>
+        <v>15061</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>15507</v>
+        <v>15505</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>15920</v>
+        <v>15940</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16322</v>
+        <v>16363</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16712</v>
+        <v>16775</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17089</v>
+        <v>17175</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17453</v>
+        <v>17561</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>17803</v>
+        <v>17932</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>18137</v>
+        <v>18288</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -5033,24 +5033,24 @@
         <v>44011</v>
       </c>
       <c r="B161" t="n">
-        <v>566774</v>
+        <v>566840</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>18522</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>18456</v>
+        <v>18629</v>
       </c>
       <c r="F161" t="n">
-        <v>16571</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>3770</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>44012</v>
       </c>
       <c r="B162" t="n">
-        <v>585533</v>
+        <v>585792</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -5073,13 +5073,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>18759</v>
+        <v>18952</v>
       </c>
       <c r="F162" t="n">
-        <v>16880</v>
+        <v>17080</v>
       </c>
       <c r="G162" t="n">
-        <v>3758</v>
+        <v>3744</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>44013</v>
       </c>
       <c r="B163" t="n">
-        <v>604577</v>
+        <v>605050</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -5102,13 +5102,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>19044</v>
+        <v>19258</v>
       </c>
       <c r="F163" t="n">
-        <v>17171</v>
+        <v>17392</v>
       </c>
       <c r="G163" t="n">
-        <v>3746</v>
+        <v>3732</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>44014</v>
       </c>
       <c r="B164" t="n">
-        <v>623889</v>
+        <v>624595</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -5131,13 +5131,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19312</v>
+        <v>19545</v>
       </c>
       <c r="F164" t="n">
-        <v>17445</v>
+        <v>17685</v>
       </c>
       <c r="G164" t="n">
-        <v>3735</v>
+        <v>3720</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>44015</v>
       </c>
       <c r="B165" t="n">
-        <v>643452</v>
+        <v>644409</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>19563</v>
+        <v>19814</v>
       </c>
       <c r="F165" t="n">
-        <v>17701</v>
+        <v>17960</v>
       </c>
       <c r="G165" t="n">
-        <v>3723</v>
+        <v>3709</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>44016</v>
       </c>
       <c r="B166" t="n">
-        <v>663246</v>
+        <v>664473</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -5189,13 +5189,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>19794</v>
+        <v>20064</v>
       </c>
       <c r="F166" t="n">
-        <v>17939</v>
+        <v>18216</v>
       </c>
       <c r="G166" t="n">
-        <v>3712</v>
+        <v>3698</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>44017</v>
       </c>
       <c r="B167" t="n">
-        <v>683254</v>
+        <v>684768</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20008</v>
+        <v>20295</v>
       </c>
       <c r="F167" t="n">
-        <v>18157</v>
+        <v>18452</v>
       </c>
       <c r="G167" t="n">
-        <v>3700</v>
+        <v>3686</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>44018</v>
       </c>
       <c r="B168" t="n">
-        <v>703456</v>
+        <v>705274</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>20202</v>
+        <v>20506</v>
       </c>
       <c r="F168" t="n">
-        <v>18357</v>
+        <v>18668</v>
       </c>
       <c r="G168" t="n">
-        <v>3689</v>
+        <v>3675</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>44019</v>
       </c>
       <c r="B169" t="n">
-        <v>723833</v>
+        <v>725970</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5276,13 +5276,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>20377</v>
+        <v>20696</v>
       </c>
       <c r="F169" t="n">
-        <v>18538</v>
+        <v>18864</v>
       </c>
       <c r="G169" t="n">
-        <v>3678</v>
+        <v>3664</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>744366</v>
+        <v>746837</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20533</v>
+        <v>20867</v>
       </c>
       <c r="F170" t="n">
-        <v>18699</v>
+        <v>19040</v>
       </c>
       <c r="G170" t="n">
-        <v>3667</v>
+        <v>3653</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>765035</v>
+        <v>767853</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>20669</v>
+        <v>21016</v>
       </c>
       <c r="F171" t="n">
-        <v>18841</v>
+        <v>19195</v>
       </c>
       <c r="G171" t="n">
-        <v>3656</v>
+        <v>3642</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>785821</v>
+        <v>788999</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>20786</v>
+        <v>21146</v>
       </c>
       <c r="F172" t="n">
-        <v>18963</v>
+        <v>19330</v>
       </c>
       <c r="G172" t="n">
-        <v>3646</v>
+        <v>3632</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>806705</v>
+        <v>810254</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>20884</v>
+        <v>21255</v>
       </c>
       <c r="F173" t="n">
-        <v>19066</v>
+        <v>19444</v>
       </c>
       <c r="G173" t="n">
-        <v>3635</v>
+        <v>3621</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>827667</v>
+        <v>831597</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>20962</v>
+        <v>21343</v>
       </c>
       <c r="F174" t="n">
-        <v>19150</v>
+        <v>19538</v>
       </c>
       <c r="G174" t="n">
-        <v>3624</v>
+        <v>3611</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>848688</v>
+        <v>853008</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>21021</v>
+        <v>21411</v>
       </c>
       <c r="F175" t="n">
-        <v>19214</v>
+        <v>19611</v>
       </c>
       <c r="G175" t="n">
-        <v>3614</v>
+        <v>3600</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>869749</v>
+        <v>874467</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>21061</v>
+        <v>21459</v>
       </c>
       <c r="F176" t="n">
-        <v>19259</v>
+        <v>19664</v>
       </c>
       <c r="G176" t="n">
-        <v>3603</v>
+        <v>3590</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>890831</v>
+        <v>895954</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>21082</v>
+        <v>21487</v>
       </c>
       <c r="F177" t="n">
-        <v>19285</v>
+        <v>19697</v>
       </c>
       <c r="G177" t="n">
-        <v>3593</v>
+        <v>3580</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>911915</v>
+        <v>917449</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>21084</v>
+        <v>21495</v>
       </c>
       <c r="F178" t="n">
-        <v>19293</v>
+        <v>19710</v>
       </c>
       <c r="G178" t="n">
-        <v>3583</v>
+        <v>3569</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>932983</v>
+        <v>938933</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>21068</v>
+        <v>21484</v>
       </c>
       <c r="F179" t="n">
-        <v>19282</v>
+        <v>19704</v>
       </c>
       <c r="G179" t="n">
-        <v>3573</v>
+        <v>3559</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>954018</v>
+        <v>960386</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>21035</v>
+        <v>21453</v>
       </c>
       <c r="F180" t="n">
-        <v>19253</v>
+        <v>19679</v>
       </c>
       <c r="G180" t="n">
-        <v>3563</v>
+        <v>3549</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>975001</v>
+        <v>981790</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>20983</v>
+        <v>21404</v>
       </c>
       <c r="F181" t="n">
-        <v>19207</v>
+        <v>19635</v>
       </c>
       <c r="G181" t="n">
-        <v>3553</v>
+        <v>3539</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>995916</v>
+        <v>1003127</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>20915</v>
+        <v>21337</v>
       </c>
       <c r="F182" t="n">
-        <v>19143</v>
+        <v>19572</v>
       </c>
       <c r="G182" t="n">
-        <v>3543</v>
+        <v>3529</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>1016746</v>
+        <v>1024379</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>20830</v>
+        <v>21252</v>
       </c>
       <c r="F183" t="n">
-        <v>19063</v>
+        <v>19492</v>
       </c>
       <c r="G183" t="n">
-        <v>3533</v>
+        <v>3520</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>1037474</v>
+        <v>1045529</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>20728</v>
+        <v>21150</v>
       </c>
       <c r="F184" t="n">
-        <v>18967</v>
+        <v>19395</v>
       </c>
       <c r="G184" t="n">
-        <v>3523</v>
+        <v>3510</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>1058085</v>
+        <v>1066560</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>20611</v>
+        <v>21031</v>
       </c>
       <c r="F185" t="n">
-        <v>18855</v>
+        <v>19280</v>
       </c>
       <c r="G185" t="n">
-        <v>3514</v>
+        <v>3500</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>1078564</v>
+        <v>1087455</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>20479</v>
+        <v>20895</v>
       </c>
       <c r="F186" t="n">
-        <v>18727</v>
+        <v>19150</v>
       </c>
       <c r="G186" t="n">
-        <v>3504</v>
+        <v>3491</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>1098897</v>
+        <v>1108200</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20333</v>
+        <v>20745</v>
       </c>
       <c r="F187" t="n">
-        <v>18585</v>
+        <v>19004</v>
       </c>
       <c r="G187" t="n">
-        <v>3495</v>
+        <v>3481</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>1119069</v>
+        <v>1128779</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>20172</v>
+        <v>20579</v>
       </c>
       <c r="F188" t="n">
-        <v>18429</v>
+        <v>18843</v>
       </c>
       <c r="G188" t="n">
-        <v>3485</v>
+        <v>3472</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>1139067</v>
+        <v>1149178</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>19998</v>
+        <v>20399</v>
       </c>
       <c r="F189" t="n">
-        <v>18260</v>
+        <v>18668</v>
       </c>
       <c r="G189" t="n">
-        <v>3476</v>
+        <v>3463</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>1158878</v>
+        <v>1169384</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>19811</v>
+        <v>20206</v>
       </c>
       <c r="F190" t="n">
-        <v>18078</v>
+        <v>18479</v>
       </c>
       <c r="G190" t="n">
-        <v>3467</v>
+        <v>3454</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>1178490</v>
+        <v>1189384</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>19612</v>
+        <v>20000</v>
       </c>
       <c r="F191" t="n">
-        <v>17883</v>
+        <v>18277</v>
       </c>
       <c r="G191" t="n">
-        <v>3458</v>
+        <v>3444</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>44042</v>
       </c>
       <c r="B192" t="n">
-        <v>1197892</v>
+        <v>1209165</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>19402</v>
+        <v>19781</v>
       </c>
       <c r="F192" t="n">
-        <v>17677</v>
+        <v>18063</v>
       </c>
       <c r="G192" t="n">
-        <v>3448</v>
+        <v>3435</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>44043</v>
       </c>
       <c r="B193" t="n">
-        <v>1217072</v>
+        <v>1228715</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19180</v>
+        <v>19550</v>
       </c>
       <c r="F193" t="n">
-        <v>17460</v>
+        <v>17837</v>
       </c>
       <c r="G193" t="n">
-        <v>3439</v>
+        <v>3426</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>44044</v>
       </c>
       <c r="B194" t="n">
-        <v>1236020</v>
+        <v>1248024</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18948</v>
+        <v>19309</v>
       </c>
       <c r="F194" t="n">
-        <v>17233</v>
+        <v>17601</v>
       </c>
       <c r="G194" t="n">
-        <v>3430</v>
+        <v>3417</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>44045</v>
       </c>
       <c r="B195" t="n">
-        <v>1254727</v>
+        <v>1267082</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18707</v>
+        <v>19058</v>
       </c>
       <c r="F195" t="n">
-        <v>16996</v>
+        <v>17353</v>
       </c>
       <c r="G195" t="n">
-        <v>3422</v>
+        <v>3408</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>44046</v>
       </c>
       <c r="B196" t="n">
-        <v>1273183</v>
+        <v>1285879</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>18456</v>
+        <v>18797</v>
       </c>
       <c r="F196" t="n">
-        <v>16750</v>
+        <v>17097</v>
       </c>
       <c r="G196" t="n">
-        <v>3413</v>
+        <v>3400</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>44047</v>
       </c>
       <c r="B197" t="n">
-        <v>1291381</v>
+        <v>1304406</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>18198</v>
+        <v>18527</v>
       </c>
       <c r="F197" t="n">
-        <v>16496</v>
+        <v>16831</v>
       </c>
       <c r="G197" t="n">
-        <v>3404</v>
+        <v>3391</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>44048</v>
       </c>
       <c r="B198" t="n">
-        <v>1309312</v>
+        <v>1322655</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>17931</v>
+        <v>18249</v>
       </c>
       <c r="F198" t="n">
-        <v>16233</v>
+        <v>16557</v>
       </c>
       <c r="G198" t="n">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>44049</v>
       </c>
       <c r="B199" t="n">
-        <v>1326969</v>
+        <v>1340618</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -6146,13 +6146,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>17657</v>
+        <v>17963</v>
       </c>
       <c r="F199" t="n">
-        <v>15964</v>
+        <v>16276</v>
       </c>
       <c r="G199" t="n">
-        <v>3387</v>
+        <v>3374</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>44050</v>
       </c>
       <c r="B200" t="n">
-        <v>1344346</v>
+        <v>1358288</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>17377</v>
+        <v>17670</v>
       </c>
       <c r="F200" t="n">
-        <v>15688</v>
+        <v>15988</v>
       </c>
       <c r="G200" t="n">
-        <v>3378</v>
+        <v>3365</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>44051</v>
       </c>
       <c r="B201" t="n">
-        <v>1361437</v>
+        <v>1375660</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -6204,13 +6204,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>17091</v>
+        <v>17372</v>
       </c>
       <c r="F201" t="n">
-        <v>15406</v>
+        <v>15693</v>
       </c>
       <c r="G201" t="n">
-        <v>3370</v>
+        <v>3357</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>44052</v>
       </c>
       <c r="B202" t="n">
-        <v>1378237</v>
+        <v>1392728</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>16800</v>
+        <v>17068</v>
       </c>
       <c r="F202" t="n">
-        <v>15119</v>
+        <v>15393</v>
       </c>
       <c r="G202" t="n">
-        <v>3361</v>
+        <v>3348</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>44053</v>
       </c>
       <c r="B203" t="n">
-        <v>1394741</v>
+        <v>1409486</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>16504</v>
+        <v>16758</v>
       </c>
       <c r="F203" t="n">
-        <v>14827</v>
+        <v>15088</v>
       </c>
       <c r="G203" t="n">
-        <v>3353</v>
+        <v>3340</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>44054</v>
       </c>
       <c r="B204" t="n">
-        <v>1410945</v>
+        <v>1425931</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>16204</v>
+        <v>16445</v>
       </c>
       <c r="F204" t="n">
-        <v>14531</v>
+        <v>14779</v>
       </c>
       <c r="G204" t="n">
-        <v>3344</v>
+        <v>3332</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>44055</v>
       </c>
       <c r="B205" t="n">
-        <v>1426845</v>
+        <v>1442059</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>15900</v>
+        <v>16128</v>
       </c>
       <c r="F205" t="n">
-        <v>14232</v>
+        <v>14466</v>
       </c>
       <c r="G205" t="n">
-        <v>3336</v>
+        <v>3323</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>44056</v>
       </c>
       <c r="B206" t="n">
-        <v>1442438</v>
+        <v>1457867</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>15593</v>
+        <v>15808</v>
       </c>
       <c r="F206" t="n">
-        <v>13929</v>
+        <v>14150</v>
       </c>
       <c r="G206" t="n">
-        <v>3328</v>
+        <v>3315</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>44057</v>
       </c>
       <c r="B207" t="n">
-        <v>1457722</v>
+        <v>1473352</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>15284</v>
+        <v>15485</v>
       </c>
       <c r="F207" t="n">
-        <v>13624</v>
+        <v>13831</v>
       </c>
       <c r="G207" t="n">
-        <v>3320</v>
+        <v>3307</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>44058</v>
       </c>
       <c r="B208" t="n">
-        <v>1472695</v>
+        <v>1488512</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>14973</v>
+        <v>15160</v>
       </c>
       <c r="F208" t="n">
-        <v>13317</v>
+        <v>13511</v>
       </c>
       <c r="G208" t="n">
-        <v>3312</v>
+        <v>3299</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>44059</v>
       </c>
       <c r="B209" t="n">
-        <v>1487355</v>
+        <v>1503346</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>14660</v>
+        <v>14834</v>
       </c>
       <c r="F209" t="n">
-        <v>13008</v>
+        <v>13189</v>
       </c>
       <c r="G209" t="n">
-        <v>3304</v>
+        <v>3291</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>44060</v>
       </c>
       <c r="B210" t="n">
-        <v>1501701</v>
+        <v>1517853</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>14346</v>
+        <v>14507</v>
       </c>
       <c r="F210" t="n">
-        <v>12699</v>
+        <v>12866</v>
       </c>
       <c r="G210" t="n">
-        <v>3296</v>
+        <v>3283</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>44061</v>
       </c>
       <c r="B211" t="n">
-        <v>1515733</v>
+        <v>1532033</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14032</v>
+        <v>14180</v>
       </c>
       <c r="F211" t="n">
-        <v>12388</v>
+        <v>12542</v>
       </c>
       <c r="G211" t="n">
-        <v>3288</v>
+        <v>3275</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>44062</v>
       </c>
       <c r="B212" t="n">
-        <v>1529451</v>
+        <v>1545885</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>13718</v>
+        <v>13852</v>
       </c>
       <c r="F212" t="n">
-        <v>12078</v>
+        <v>12219</v>
       </c>
       <c r="G212" t="n">
-        <v>3280</v>
+        <v>3268</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>44063</v>
       </c>
       <c r="B213" t="n">
-        <v>1542855</v>
+        <v>1559410</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>13404</v>
+        <v>13525</v>
       </c>
       <c r="F213" t="n">
-        <v>11768</v>
+        <v>11895</v>
       </c>
       <c r="G213" t="n">
-        <v>3272</v>
+        <v>3260</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>44064</v>
       </c>
       <c r="B214" t="n">
-        <v>1555946</v>
+        <v>1572609</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>13091</v>
+        <v>13199</v>
       </c>
       <c r="F214" t="n">
-        <v>11458</v>
+        <v>11573</v>
       </c>
       <c r="G214" t="n">
-        <v>3265</v>
+        <v>3252</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>44065</v>
       </c>
       <c r="B215" t="n">
-        <v>1568724</v>
+        <v>1585484</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6610,13 +6610,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>12778</v>
+        <v>12875</v>
       </c>
       <c r="F215" t="n">
-        <v>11150</v>
+        <v>11252</v>
       </c>
       <c r="G215" t="n">
-        <v>3257</v>
+        <v>3245</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>44066</v>
       </c>
       <c r="B216" t="n">
-        <v>1581192</v>
+        <v>1598036</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12468</v>
+        <v>12552</v>
       </c>
       <c r="F216" t="n">
-        <v>10843</v>
+        <v>10933</v>
       </c>
       <c r="G216" t="n">
-        <v>3249</v>
+        <v>3237</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>44067</v>
       </c>
       <c r="B217" t="n">
-        <v>1593351</v>
+        <v>1610267</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12159</v>
+        <v>12231</v>
       </c>
       <c r="F217" t="n">
-        <v>10538</v>
+        <v>10616</v>
       </c>
       <c r="G217" t="n">
-        <v>3242</v>
+        <v>3229</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>44068</v>
       </c>
       <c r="B218" t="n">
-        <v>1605203</v>
+        <v>1622179</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>11852</v>
+        <v>11912</v>
       </c>
       <c r="F218" t="n">
-        <v>10235</v>
+        <v>10301</v>
       </c>
       <c r="G218" t="n">
-        <v>3234</v>
+        <v>3222</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44069</v>
       </c>
       <c r="B219" t="n">
-        <v>1616751</v>
+        <v>1633776</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>11548</v>
+        <v>11597</v>
       </c>
       <c r="F219" t="n">
-        <v>9934</v>
+        <v>9989</v>
       </c>
       <c r="G219" t="n">
-        <v>3227</v>
+        <v>3214</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>44070</v>
       </c>
       <c r="B220" t="n">
-        <v>1627997</v>
+        <v>1645060</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>11246</v>
+        <v>11284</v>
       </c>
       <c r="F220" t="n">
-        <v>9637</v>
+        <v>9680</v>
       </c>
       <c r="G220" t="n">
-        <v>3219</v>
+        <v>3207</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>44071</v>
       </c>
       <c r="B221" t="n">
-        <v>1638945</v>
+        <v>1656035</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>10948</v>
+        <v>10975</v>
       </c>
       <c r="F221" t="n">
-        <v>9342</v>
+        <v>9375</v>
       </c>
       <c r="G221" t="n">
-        <v>3212</v>
+        <v>3200</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>44072</v>
       </c>
       <c r="B222" t="n">
-        <v>1649597</v>
+        <v>1666704</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10652</v>
+        <v>10669</v>
       </c>
       <c r="F222" t="n">
-        <v>9050</v>
+        <v>9073</v>
       </c>
       <c r="G222" t="n">
-        <v>3205</v>
+        <v>3192</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>44073</v>
       </c>
       <c r="B223" t="n">
-        <v>1659958</v>
+        <v>1677071</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>10361</v>
+        <v>10367</v>
       </c>
       <c r="F223" t="n">
-        <v>8762</v>
+        <v>8774</v>
       </c>
       <c r="G223" t="n">
-        <v>3197</v>
+        <v>3185</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>44074</v>
       </c>
       <c r="B224" t="n">
-        <v>1670031</v>
+        <v>1687140</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>10073</v>
+        <v>10069</v>
       </c>
       <c r="F224" t="n">
-        <v>8478</v>
+        <v>8480</v>
       </c>
       <c r="G224" t="n">
-        <v>3190</v>
+        <v>3178</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>44075</v>
       </c>
       <c r="B225" t="n">
-        <v>1679819</v>
+        <v>1696916</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>9788</v>
+        <v>9776</v>
       </c>
       <c r="F225" t="n">
-        <v>8197</v>
+        <v>8190</v>
       </c>
       <c r="G225" t="n">
-        <v>3183</v>
+        <v>3171</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>44076</v>
       </c>
       <c r="B226" t="n">
-        <v>1689327</v>
+        <v>1706403</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>9508</v>
+        <v>9487</v>
       </c>
       <c r="F226" t="n">
-        <v>7920</v>
+        <v>7905</v>
       </c>
       <c r="G226" t="n">
-        <v>3176</v>
+        <v>3164</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>44077</v>
       </c>
       <c r="B227" t="n">
-        <v>1698560</v>
+        <v>1715606</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9233</v>
+        <v>9203</v>
       </c>
       <c r="F227" t="n">
-        <v>7648</v>
+        <v>7624</v>
       </c>
       <c r="G227" t="n">
-        <v>3169</v>
+        <v>3157</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>44078</v>
       </c>
       <c r="B228" t="n">
-        <v>1707521</v>
+        <v>1724529</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8961</v>
+        <v>8923</v>
       </c>
       <c r="F228" t="n">
-        <v>7380</v>
+        <v>7348</v>
       </c>
       <c r="G228" t="n">
-        <v>3162</v>
+        <v>3150</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>44079</v>
       </c>
       <c r="B229" t="n">
-        <v>1716215</v>
+        <v>1733177</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>8694</v>
+        <v>8648</v>
       </c>
       <c r="F229" t="n">
-        <v>7117</v>
+        <v>7077</v>
       </c>
       <c r="G229" t="n">
-        <v>3155</v>
+        <v>3143</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>44080</v>
       </c>
       <c r="B230" t="n">
-        <v>1724647</v>
+        <v>1741556</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>8432</v>
+        <v>8379</v>
       </c>
       <c r="F230" t="n">
-        <v>6858</v>
+        <v>6811</v>
       </c>
       <c r="G230" t="n">
-        <v>3148</v>
+        <v>3136</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>44081</v>
       </c>
       <c r="B231" t="n">
-        <v>1732822</v>
+        <v>1749670</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8175</v>
+        <v>8114</v>
       </c>
       <c r="F231" t="n">
-        <v>6604</v>
+        <v>6550</v>
       </c>
       <c r="G231" t="n">
-        <v>3141</v>
+        <v>3129</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>44082</v>
       </c>
       <c r="B232" t="n">
-        <v>1740744</v>
+        <v>1757525</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>7922</v>
+        <v>7855</v>
       </c>
       <c r="F232" t="n">
-        <v>6355</v>
+        <v>6294</v>
       </c>
       <c r="G232" t="n">
-        <v>3134</v>
+        <v>3122</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>44083</v>
       </c>
       <c r="B233" t="n">
-        <v>1748419</v>
+        <v>1765126</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>7675</v>
+        <v>7601</v>
       </c>
       <c r="F233" t="n">
-        <v>6111</v>
+        <v>6044</v>
       </c>
       <c r="G233" t="n">
-        <v>3127</v>
+        <v>3116</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>44084</v>
       </c>
       <c r="B234" t="n">
-        <v>1755851</v>
+        <v>1772479</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>7432</v>
+        <v>7353</v>
       </c>
       <c r="F234" t="n">
-        <v>5872</v>
+        <v>5799</v>
       </c>
       <c r="G234" t="n">
-        <v>3121</v>
+        <v>3109</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>44085</v>
       </c>
       <c r="B235" t="n">
-        <v>1763046</v>
+        <v>1779589</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>7195</v>
+        <v>7110</v>
       </c>
       <c r="F235" t="n">
-        <v>5638</v>
+        <v>5559</v>
       </c>
       <c r="G235" t="n">
-        <v>3114</v>
+        <v>3102</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>44086</v>
       </c>
       <c r="B236" t="n">
-        <v>1770009</v>
+        <v>1786462</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>6963</v>
+        <v>6873</v>
       </c>
       <c r="F236" t="n">
-        <v>5409</v>
+        <v>5325</v>
       </c>
       <c r="G236" t="n">
-        <v>3107</v>
+        <v>3096</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>44087</v>
       </c>
       <c r="B237" t="n">
-        <v>1776744</v>
+        <v>1793103</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>6735</v>
+        <v>6641</v>
       </c>
       <c r="F237" t="n">
-        <v>5185</v>
+        <v>5096</v>
       </c>
       <c r="G237" t="n">
-        <v>3101</v>
+        <v>3089</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>44088</v>
       </c>
       <c r="B238" t="n">
-        <v>1783257</v>
+        <v>1799517</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -7277,13 +7277,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>6513</v>
+        <v>6414</v>
       </c>
       <c r="F238" t="n">
-        <v>4966</v>
+        <v>4873</v>
       </c>
       <c r="G238" t="n">
-        <v>3094</v>
+        <v>3082</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>44089</v>
       </c>
       <c r="B239" t="n">
-        <v>1789553</v>
+        <v>1805710</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>6296</v>
+        <v>6193</v>
       </c>
       <c r="F239" t="n">
-        <v>4753</v>
+        <v>4655</v>
       </c>
       <c r="G239" t="n">
-        <v>3088</v>
+        <v>3076</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>44090</v>
       </c>
       <c r="B240" t="n">
-        <v>1795638</v>
+        <v>1811688</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>6085</v>
+        <v>5978</v>
       </c>
       <c r="F240" t="n">
-        <v>4544</v>
+        <v>4443</v>
       </c>
       <c r="G240" t="n">
-        <v>3081</v>
+        <v>3069</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>44091</v>
       </c>
       <c r="B241" t="n">
-        <v>1801516</v>
+        <v>1817456</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>5878</v>
+        <v>5768</v>
       </c>
       <c r="F241" t="n">
-        <v>4341</v>
+        <v>4236</v>
       </c>
       <c r="G241" t="n">
-        <v>3075</v>
+        <v>3063</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>44092</v>
       </c>
       <c r="B242" t="n">
-        <v>1807193</v>
+        <v>1823019</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>5677</v>
+        <v>5563</v>
       </c>
       <c r="F242" t="n">
-        <v>4143</v>
+        <v>4035</v>
       </c>
       <c r="G242" t="n">
-        <v>3068</v>
+        <v>3057</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>44093</v>
       </c>
       <c r="B243" t="n">
-        <v>1812674</v>
+        <v>1828383</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>5481</v>
+        <v>5364</v>
       </c>
       <c r="F243" t="n">
-        <v>3950</v>
+        <v>3839</v>
       </c>
       <c r="G243" t="n">
-        <v>3062</v>
+        <v>3050</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>44094</v>
       </c>
       <c r="B244" t="n">
-        <v>1817963</v>
+        <v>1833554</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>5289</v>
+        <v>5171</v>
       </c>
       <c r="F244" t="n">
-        <v>3762</v>
+        <v>3649</v>
       </c>
       <c r="G244" t="n">
-        <v>3056</v>
+        <v>3044</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>44095</v>
       </c>
       <c r="B245" t="n">
-        <v>1823066</v>
+        <v>1838537</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>5103</v>
+        <v>4983</v>
       </c>
       <c r="F245" t="n">
-        <v>3579</v>
+        <v>3464</v>
       </c>
       <c r="G245" t="n">
-        <v>3049</v>
+        <v>3038</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>44096</v>
       </c>
       <c r="B246" t="n">
-        <v>1827988</v>
+        <v>1843337</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4922</v>
+        <v>4800</v>
       </c>
       <c r="F246" t="n">
-        <v>3401</v>
+        <v>3284</v>
       </c>
       <c r="G246" t="n">
-        <v>3043</v>
+        <v>3031</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>44097</v>
       </c>
       <c r="B247" t="n">
-        <v>1832734</v>
+        <v>1847959</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>4746</v>
+        <v>4622</v>
       </c>
       <c r="F247" t="n">
-        <v>3228</v>
+        <v>3109</v>
       </c>
       <c r="G247" t="n">
-        <v>3037</v>
+        <v>3025</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>44098</v>
       </c>
       <c r="B248" t="n">
-        <v>1837309</v>
+        <v>1852408</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7567,13 +7567,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>4575</v>
+        <v>4449</v>
       </c>
       <c r="F248" t="n">
-        <v>3060</v>
+        <v>2940</v>
       </c>
       <c r="G248" t="n">
-        <v>3031</v>
+        <v>3019</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>44099</v>
       </c>
       <c r="B249" t="n">
-        <v>1841718</v>
+        <v>1856690</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>4409</v>
+        <v>4282</v>
       </c>
       <c r="F249" t="n">
-        <v>2897</v>
+        <v>2776</v>
       </c>
       <c r="G249" t="n">
-        <v>3024</v>
+        <v>3013</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>44100</v>
       </c>
       <c r="B250" t="n">
-        <v>1845965</v>
+        <v>1860810</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>4247</v>
+        <v>4120</v>
       </c>
       <c r="F250" t="n">
-        <v>2738</v>
+        <v>2616</v>
       </c>
       <c r="G250" t="n">
-        <v>3018</v>
+        <v>3007</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>44101</v>
       </c>
       <c r="B251" t="n">
-        <v>1850056</v>
+        <v>1864772</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>4091</v>
+        <v>3962</v>
       </c>
       <c r="F251" t="n">
-        <v>2585</v>
+        <v>2462</v>
       </c>
       <c r="G251" t="n">
-        <v>3012</v>
+        <v>3001</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -7672,7 +7672,7 @@
         <v>44102</v>
       </c>
       <c r="B252" t="n">
-        <v>1853995</v>
+        <v>1868582</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7683,13 +7683,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>3939</v>
+        <v>3810</v>
       </c>
       <c r="F252" t="n">
-        <v>2436</v>
+        <v>2313</v>
       </c>
       <c r="G252" t="n">
-        <v>3006</v>
+        <v>2995</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>44103</v>
       </c>
       <c r="B253" t="n">
-        <v>1857786</v>
+        <v>1872244</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7712,13 +7712,13 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3791</v>
+        <v>3662</v>
       </c>
       <c r="F253" t="n">
-        <v>2291</v>
+        <v>2168</v>
       </c>
       <c r="G253" t="n">
-        <v>3000</v>
+        <v>2989</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>44104</v>
       </c>
       <c r="B254" t="n">
-        <v>1861434</v>
+        <v>1875763</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7741,13 +7741,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3648</v>
+        <v>3519</v>
       </c>
       <c r="F254" t="n">
-        <v>2151</v>
+        <v>2028</v>
       </c>
       <c r="G254" t="n">
-        <v>2994</v>
+        <v>2983</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>44105</v>
       </c>
       <c r="B255" t="n">
-        <v>1864944</v>
+        <v>1879144</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7770,13 +7770,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>3510</v>
+        <v>3381</v>
       </c>
       <c r="F255" t="n">
-        <v>2016</v>
+        <v>1893</v>
       </c>
       <c r="G255" t="n">
-        <v>2988</v>
+        <v>2977</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -7788,7 +7788,7 @@
         <v>44106</v>
       </c>
       <c r="B256" t="n">
-        <v>1868320</v>
+        <v>1882391</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7799,13 +7799,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>3376</v>
+        <v>3247</v>
       </c>
       <c r="F256" t="n">
-        <v>1884</v>
+        <v>1762</v>
       </c>
       <c r="G256" t="n">
-        <v>2982</v>
+        <v>2971</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>44107</v>
       </c>
       <c r="B257" t="n">
-        <v>1871566</v>
+        <v>1885509</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7828,13 +7828,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>3246</v>
+        <v>3118</v>
       </c>
       <c r="F257" t="n">
-        <v>1758</v>
+        <v>1635</v>
       </c>
       <c r="G257" t="n">
-        <v>2977</v>
+        <v>2965</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="B258" t="n">
-        <v>1874686</v>
+        <v>1888502</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>3120</v>
+        <v>2993</v>
       </c>
       <c r="F258" t="n">
-        <v>1635</v>
+        <v>1513</v>
       </c>
       <c r="G258" t="n">
-        <v>2971</v>
+        <v>2960</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>44109</v>
       </c>
       <c r="B259" t="n">
-        <v>1877685</v>
+        <v>1891374</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7886,13 +7886,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>2999</v>
+        <v>2872</v>
       </c>
       <c r="F259" t="n">
-        <v>1516</v>
+        <v>1395</v>
       </c>
       <c r="G259" t="n">
-        <v>2965</v>
+        <v>2954</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -7904,7 +7904,7 @@
         <v>44110</v>
       </c>
       <c r="B260" t="n">
-        <v>1880566</v>
+        <v>1894130</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>2881</v>
+        <v>2756</v>
       </c>
       <c r="F260" t="n">
-        <v>1401</v>
+        <v>1282</v>
       </c>
       <c r="G260" t="n">
-        <v>2959</v>
+        <v>2948</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>44111</v>
       </c>
       <c r="B261" t="n">
-        <v>1883333</v>
+        <v>1896773</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>2767</v>
+        <v>2643</v>
       </c>
       <c r="F261" t="n">
-        <v>1291</v>
+        <v>1172</v>
       </c>
       <c r="G261" t="n">
-        <v>2954</v>
+        <v>2942</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>44112</v>
       </c>
       <c r="B262" t="n">
-        <v>1885991</v>
+        <v>1899307</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7973,13 +7973,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2658</v>
+        <v>2534</v>
       </c>
       <c r="F262" t="n">
-        <v>1184</v>
+        <v>1066</v>
       </c>
       <c r="G262" t="n">
-        <v>2948</v>
+        <v>2937</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>44113</v>
       </c>
       <c r="B263" t="n">
-        <v>1888543</v>
+        <v>1901737</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>2552</v>
+        <v>2430</v>
       </c>
       <c r="F263" t="n">
-        <v>1080</v>
+        <v>964</v>
       </c>
       <c r="G263" t="n">
-        <v>2942</v>
+        <v>2931</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>44114</v>
       </c>
       <c r="B264" t="n">
-        <v>1890992</v>
+        <v>1904066</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>2449</v>
+        <v>2329</v>
       </c>
       <c r="F264" t="n">
-        <v>981</v>
+        <v>866</v>
       </c>
       <c r="G264" t="n">
-        <v>2937</v>
+        <v>2925</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>44115</v>
       </c>
       <c r="B265" t="n">
-        <v>1893342</v>
+        <v>1906297</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>2350</v>
+        <v>2231</v>
       </c>
       <c r="F265" t="n">
-        <v>885</v>
+        <v>771</v>
       </c>
       <c r="G265" t="n">
-        <v>2931</v>
+        <v>2920</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>44116</v>
       </c>
       <c r="B266" t="n">
-        <v>1895597</v>
+        <v>1908434</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -8089,13 +8089,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>2255</v>
+        <v>2137</v>
       </c>
       <c r="F266" t="n">
-        <v>792</v>
+        <v>680</v>
       </c>
       <c r="G266" t="n">
-        <v>2925</v>
+        <v>2914</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>44117</v>
       </c>
       <c r="B267" t="n">
-        <v>1897760</v>
+        <v>1910481</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2163</v>
+        <v>2047</v>
       </c>
       <c r="F267" t="n">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="G267" t="n">
-        <v>2920</v>
+        <v>2909</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>44118</v>
       </c>
       <c r="B268" t="n">
-        <v>1899834</v>
+        <v>1912441</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -8147,13 +8147,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>2074</v>
+        <v>1960</v>
       </c>
       <c r="F268" t="n">
-        <v>617</v>
+        <v>508</v>
       </c>
       <c r="G268" t="n">
-        <v>2914</v>
+        <v>2903</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>44119</v>
       </c>
       <c r="B269" t="n">
-        <v>1901823</v>
+        <v>1914317</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -8176,13 +8176,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1989</v>
+        <v>1876</v>
       </c>
       <c r="F269" t="n">
-        <v>534</v>
+        <v>427</v>
       </c>
       <c r="G269" t="n">
-        <v>2909</v>
+        <v>2898</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -8194,7 +8194,7 @@
         <v>44120</v>
       </c>
       <c r="B270" t="n">
-        <v>1903729</v>
+        <v>1916113</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8205,13 +8205,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1906</v>
+        <v>1796</v>
       </c>
       <c r="F270" t="n">
-        <v>454</v>
+        <v>349</v>
       </c>
       <c r="G270" t="n">
-        <v>2904</v>
+        <v>2893</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>44121</v>
       </c>
       <c r="B271" t="n">
-        <v>1905556</v>
+        <v>1917831</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1827</v>
+        <v>1718</v>
       </c>
       <c r="F271" t="n">
-        <v>378</v>
+        <v>275</v>
       </c>
       <c r="G271" t="n">
-        <v>2898</v>
+        <v>2887</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>44122</v>
       </c>
       <c r="B272" t="n">
-        <v>1907306</v>
+        <v>1919475</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1750</v>
+        <v>1644</v>
       </c>
       <c r="F272" t="n">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="G272" t="n">
-        <v>2893</v>
+        <v>2882</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>44123</v>
       </c>
       <c r="B273" t="n">
-        <v>1908983</v>
+        <v>1921047</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1677</v>
+        <v>1572</v>
       </c>
       <c r="F273" t="n">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="G273" t="n">
-        <v>2887</v>
+        <v>2876</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>44124</v>
       </c>
       <c r="B274" t="n">
-        <v>1910589</v>
+        <v>1922550</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -8321,13 +8321,13 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1606</v>
+        <v>1503</v>
       </c>
       <c r="F274" t="n">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="G274" t="n">
-        <v>2882</v>
+        <v>2871</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>44125</v>
       </c>
       <c r="B275" t="n">
-        <v>1912127</v>
+        <v>1923987</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -8350,13 +8350,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1538</v>
+        <v>1437</v>
       </c>
       <c r="F275" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="G275" t="n">
-        <v>2877</v>
+        <v>2866</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -8368,7 +8368,7 @@
         <v>44126</v>
       </c>
       <c r="B276" t="n">
-        <v>1913599</v>
+        <v>1925361</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1472</v>
+        <v>1374</v>
       </c>
       <c r="F276" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>2872</v>
+        <v>2804</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -8397,7 +8397,7 @@
         <v>44127</v>
       </c>
       <c r="B277" t="n">
-        <v>1915008</v>
+        <v>1926674</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -8408,13 +8408,13 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1409</v>
+        <v>1313</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>2842</v>
+        <v>2740</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>44128</v>
       </c>
       <c r="B278" t="n">
-        <v>1916356</v>
+        <v>1927928</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -8437,13 +8437,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1348</v>
+        <v>1254</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>2779</v>
+        <v>2679</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>44129</v>
       </c>
       <c r="B279" t="n">
-        <v>1917646</v>
+        <v>1929126</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -8466,13 +8466,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>1290</v>
+        <v>1198</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>2718</v>
+        <v>2620</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>44130</v>
       </c>
       <c r="B280" t="n">
-        <v>1918880</v>
+        <v>1930270</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -8495,13 +8495,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1234</v>
+        <v>1144</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>2659</v>
+        <v>2564</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -8513,7 +8513,7 @@
         <v>44131</v>
       </c>
       <c r="B281" t="n">
-        <v>1920060</v>
+        <v>1931362</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -8524,13 +8524,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>1180</v>
+        <v>1092</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>2603</v>
+        <v>2510</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>44132</v>
       </c>
       <c r="B282" t="n">
-        <v>1921189</v>
+        <v>1932405</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -8553,13 +8553,13 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>1129</v>
+        <v>1043</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>2549</v>
+        <v>2458</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         <v>44133</v>
       </c>
       <c r="B283" t="n">
-        <v>1922268</v>
+        <v>1933400</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -8582,13 +8582,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>1079</v>
+        <v>995</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>2497</v>
+        <v>2408</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -8600,7 +8600,7 @@
         <v>44134</v>
       </c>
       <c r="B284" t="n">
-        <v>1923299</v>
+        <v>1934350</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -8611,13 +8611,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>1031</v>
+        <v>950</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>2447</v>
+        <v>2360</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -8629,7 +8629,7 @@
         <v>44135</v>
       </c>
       <c r="B285" t="n">
-        <v>1924285</v>
+        <v>1935256</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -8640,13 +8640,13 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>986</v>
+        <v>906</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>2399</v>
+        <v>2314</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -8658,7 +8658,7 @@
         <v>44136</v>
       </c>
       <c r="B286" t="n">
-        <v>1925227</v>
+        <v>1936121</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8669,13 +8669,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>942</v>
+        <v>865</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>2352</v>
+        <v>2269</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>44137</v>
       </c>
       <c r="B287" t="n">
-        <v>1926127</v>
+        <v>1936946</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>900</v>
+        <v>825</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>2308</v>
+        <v>2227</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>44138</v>
       </c>
       <c r="B288" t="n">
-        <v>1926987</v>
+        <v>1937732</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -8727,13 +8727,13 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>2265</v>
+        <v>2186</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>44139</v>
       </c>
       <c r="B289" t="n">
-        <v>1927808</v>
+        <v>1938482</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -8756,13 +8756,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>821</v>
+        <v>750</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>2224</v>
+        <v>2147</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>44140</v>
       </c>
       <c r="B290" t="n">
-        <v>1928592</v>
+        <v>1939197</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -8785,13 +8785,13 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>784</v>
+        <v>715</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>2184</v>
+        <v>2110</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -8803,7 +8803,7 @@
         <v>44141</v>
       </c>
       <c r="B291" t="n">
-        <v>1929341</v>
+        <v>1939878</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8814,25 +8814,30 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>749</v>
+        <v>681</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>2147</v>
+        <v>2074</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>11640</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>End 97% on
+06 November 2020</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
         <v>44142</v>
       </c>
       <c r="B292" t="n">
-        <v>1930056</v>
+        <v>1940527</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8843,13 +8848,13 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>715</v>
+        <v>649</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>2110</v>
+        <v>2039</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -8861,7 +8866,7 @@
         <v>44143</v>
       </c>
       <c r="B293" t="n">
-        <v>1930738</v>
+        <v>1941145</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8872,30 +8877,25 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>682</v>
+        <v>618</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>2075</v>
+        <v>2006</v>
       </c>
       <c r="H293" t="n">
-        <v>11439</v>
-      </c>
-      <c r="I293" t="inlineStr">
-        <is>
-          <t>End 97% on
-08 November 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
         <v>44144</v>
       </c>
       <c r="B294" t="n">
-        <v>1931389</v>
+        <v>1941734</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8906,13 +8906,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>651</v>
+        <v>589</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>2042</v>
+        <v>1975</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>44145</v>
       </c>
       <c r="B295" t="n">
-        <v>1932010</v>
+        <v>1942295</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>621</v>
+        <v>561</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>2009</v>
+        <v>1944</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -8953,7 +8953,7 @@
         <v>44146</v>
       </c>
       <c r="B296" t="n">
-        <v>1932602</v>
+        <v>1942829</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8964,13 +8964,13 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>592</v>
+        <v>534</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>1979</v>
+        <v>1915</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>44147</v>
       </c>
       <c r="B297" t="n">
-        <v>1933167</v>
+        <v>1943338</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8993,13 +8993,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>1949</v>
+        <v>1887</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>44148</v>
       </c>
       <c r="B298" t="n">
-        <v>1933706</v>
+        <v>1943822</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -9022,13 +9022,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>539</v>
+        <v>484</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>1920</v>
+        <v>1861</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>44149</v>
       </c>
       <c r="B299" t="n">
-        <v>1934220</v>
+        <v>1944283</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -9051,13 +9051,13 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>1893</v>
+        <v>1835</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -9069,7 +9069,7 @@
         <v>44150</v>
       </c>
       <c r="B300" t="n">
-        <v>1934710</v>
+        <v>1944722</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -9080,13 +9080,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>490</v>
+        <v>439</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1867</v>
+        <v>1810</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>44151</v>
       </c>
       <c r="B301" t="n">
-        <v>1935177</v>
+        <v>1945140</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -9109,13 +9109,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>467</v>
+        <v>418</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1842</v>
+        <v>1787</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>44152</v>
       </c>
       <c r="B302" t="n">
-        <v>1935622</v>
+        <v>1945537</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -9138,13 +9138,13 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1817</v>
+        <v>1764</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -9156,7 +9156,7 @@
         <v>44153</v>
       </c>
       <c r="B303" t="n">
-        <v>1936046</v>
+        <v>1945915</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1794</v>
+        <v>1743</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>44154</v>
       </c>
       <c r="B304" t="n">
-        <v>1936450</v>
+        <v>1946275</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -9196,13 +9196,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1772</v>
+        <v>1722</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9214,7 +9214,7 @@
         <v>44155</v>
       </c>
       <c r="B305" t="n">
-        <v>1936835</v>
+        <v>1946617</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1751</v>
+        <v>1702</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>44156</v>
       </c>
       <c r="B306" t="n">
-        <v>1937202</v>
+        <v>1946942</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -9254,13 +9254,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1730</v>
+        <v>1683</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>44157</v>
       </c>
       <c r="B307" t="n">
-        <v>1937552</v>
+        <v>1947251</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -9283,13 +9283,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1710</v>
+        <v>1665</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -9301,7 +9301,7 @@
         <v>44158</v>
       </c>
       <c r="B308" t="n">
-        <v>1937885</v>
+        <v>1947545</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -9312,13 +9312,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1692</v>
+        <v>1647</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>44159</v>
       </c>
       <c r="B309" t="n">
-        <v>1938202</v>
+        <v>1947824</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -9341,13 +9341,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1673</v>
+        <v>1631</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -9359,7 +9359,7 @@
         <v>44160</v>
       </c>
       <c r="B310" t="n">
-        <v>1938504</v>
+        <v>1948089</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -9370,13 +9370,13 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1656</v>
+        <v>1615</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -9388,7 +9388,7 @@
         <v>44161</v>
       </c>
       <c r="B311" t="n">
-        <v>1938791</v>
+        <v>1948341</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -9399,13 +9399,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1639</v>
+        <v>1599</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9417,7 +9417,7 @@
         <v>44162</v>
       </c>
       <c r="B312" t="n">
-        <v>1939065</v>
+        <v>1948581</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -9428,13 +9428,13 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1623</v>
+        <v>1584</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         <v>44163</v>
       </c>
       <c r="B313" t="n">
-        <v>1939325</v>
+        <v>1948809</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -9457,25 +9457,30 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1608</v>
+        <v>1570</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>6984</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>End 99% on
+28 November 2020</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="B314" t="n">
-        <v>1939573</v>
+        <v>1949025</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -9486,13 +9491,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1593</v>
+        <v>1557</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -9504,7 +9509,7 @@
         <v>44165</v>
       </c>
       <c r="B315" t="n">
-        <v>1939809</v>
+        <v>1949230</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -9515,13 +9520,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1579</v>
+        <v>1544</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9533,7 +9538,7 @@
         <v>44166</v>
       </c>
       <c r="B316" t="n">
-        <v>1940033</v>
+        <v>1949425</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -9544,30 +9549,25 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1566</v>
+        <v>1531</v>
       </c>
       <c r="H316" t="n">
-        <v>6863</v>
-      </c>
-      <c r="I316" t="inlineStr">
-        <is>
-          <t>End 99% on
-01 December 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
         <v>44167</v>
       </c>
       <c r="B317" t="n">
-        <v>1940246</v>
+        <v>1949610</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1553</v>
+        <v>1519</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>44168</v>
       </c>
       <c r="B318" t="n">
-        <v>1940449</v>
+        <v>1949786</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1540</v>
+        <v>1508</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>44169</v>
       </c>
       <c r="B319" t="n">
-        <v>1940642</v>
+        <v>1949953</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -9636,13 +9636,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1528</v>
+        <v>1497</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>44170</v>
       </c>
       <c r="B320" t="n">
-        <v>1940826</v>
+        <v>1950112</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -9665,13 +9665,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1516</v>
+        <v>1486</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>44171</v>
       </c>
       <c r="B321" t="n">
-        <v>1941001</v>
+        <v>1950262</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -9694,13 +9694,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>1505</v>
+        <v>1476</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>44172</v>
       </c>
       <c r="B322" t="n">
-        <v>1941167</v>
+        <v>1950405</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>1495</v>
+        <v>1466</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>44173</v>
       </c>
       <c r="B323" t="n">
-        <v>1941325</v>
+        <v>1950540</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -9752,13 +9752,13 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1484</v>
+        <v>1457</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -9770,7 +9770,7 @@
         <v>44174</v>
       </c>
       <c r="B324" t="n">
-        <v>1941475</v>
+        <v>1950669</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -9781,13 +9781,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1475</v>
+        <v>1448</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>44175</v>
       </c>
       <c r="B325" t="n">
-        <v>1941618</v>
+        <v>1950791</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1465</v>
+        <v>1439</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>44176</v>
       </c>
       <c r="B326" t="n">
-        <v>1941754</v>
+        <v>1950907</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -9839,13 +9839,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1456</v>
+        <v>1431</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>44177</v>
       </c>
       <c r="B327" t="n">
-        <v>1941883</v>
+        <v>1951017</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1447</v>
+        <v>1423</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>44178</v>
       </c>
       <c r="B328" t="n">
-        <v>1942005</v>
+        <v>1951121</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1439</v>
+        <v>1415</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>44179</v>
       </c>
       <c r="B329" t="n">
-        <v>1942121</v>
+        <v>1951220</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9926,13 +9926,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>44180</v>
       </c>
       <c r="B330" t="n">
-        <v>1942232</v>
+        <v>1951314</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9955,13 +9955,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1423</v>
+        <v>1401</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>44181</v>
       </c>
       <c r="B331" t="n">
-        <v>1942337</v>
+        <v>1951403</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1415</v>
+        <v>1394</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>44182</v>
       </c>
       <c r="B332" t="n">
-        <v>1942437</v>
+        <v>1951487</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -10013,13 +10013,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1408</v>
+        <v>1387</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>44183</v>
       </c>
       <c r="B333" t="n">
-        <v>1942532</v>
+        <v>1951567</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -10042,13 +10042,13 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1401</v>
+        <v>1381</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>44184</v>
       </c>
       <c r="B334" t="n">
-        <v>1942622</v>
+        <v>1951643</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>1394</v>
+        <v>1375</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>44185</v>
       </c>
       <c r="B335" t="n">
-        <v>1942707</v>
+        <v>1951715</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>1388</v>
+        <v>1369</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>44186</v>
       </c>
       <c r="B336" t="n">
-        <v>1942788</v>
+        <v>1951783</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>1382</v>
+        <v>1363</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>44187</v>
       </c>
       <c r="B337" t="n">
-        <v>1942865</v>
+        <v>1951847</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>1376</v>
+        <v>1358</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>44188</v>
       </c>
       <c r="B338" t="n">
-        <v>1942938</v>
+        <v>1951908</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1370</v>
+        <v>1353</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>44189</v>
       </c>
       <c r="B339" t="n">
-        <v>1943007</v>
+        <v>1951966</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1364</v>
+        <v>1347</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>44190</v>
       </c>
       <c r="B340" t="n">
-        <v>1943073</v>
+        <v>1952021</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -10245,13 +10245,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>1359</v>
+        <v>1343</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>44191</v>
       </c>
       <c r="B341" t="n">
-        <v>1943136</v>
+        <v>1952073</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -10274,13 +10274,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>1353</v>
+        <v>1338</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>44192</v>
       </c>
       <c r="B342" t="n">
-        <v>1943195</v>
+        <v>1952122</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -10303,13 +10303,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1348</v>
+        <v>1333</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>44193</v>
       </c>
       <c r="B343" t="n">
-        <v>1943251</v>
+        <v>1952168</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -10332,13 +10332,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>1343</v>
+        <v>1329</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>44194</v>
       </c>
       <c r="B344" t="n">
-        <v>1943304</v>
+        <v>1952212</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1339</v>
+        <v>1324</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>44195</v>
       </c>
       <c r="B345" t="n">
-        <v>1943355</v>
+        <v>1952254</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1334</v>
+        <v>1320</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>44196</v>
       </c>
       <c r="B346" t="n">
-        <v>1943403</v>
+        <v>1952293</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -10419,13 +10419,13 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>44197</v>
       </c>
       <c r="B347" t="n">
-        <v>1943449</v>
+        <v>1952330</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -10448,13 +10448,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>44198</v>
       </c>
       <c r="B348" t="n">
-        <v>1943492</v>
+        <v>1952365</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -10477,13 +10477,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>1321</v>
+        <v>1308</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>44199</v>
       </c>
       <c r="B349" t="n">
-        <v>1943533</v>
+        <v>1952399</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>44200</v>
       </c>
       <c r="B350" t="n">
-        <v>1943572</v>
+        <v>1952431</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>44201</v>
       </c>
       <c r="B351" t="n">
-        <v>1943609</v>
+        <v>1952461</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -10564,13 +10564,13 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -10582,7 +10582,7 @@
         <v>44202</v>
       </c>
       <c r="B352" t="n">
-        <v>1943644</v>
+        <v>1952489</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>44203</v>
       </c>
       <c r="B353" t="n">
-        <v>1943677</v>
+        <v>1952516</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -10622,13 +10622,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>1302</v>
+        <v>1291</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>44204</v>
       </c>
       <c r="B354" t="n">
-        <v>1943709</v>
+        <v>1952541</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>1298</v>
+        <v>1287</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>44205</v>
       </c>
       <c r="B355" t="n">
-        <v>1943739</v>
+        <v>1952565</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>1295</v>
+        <v>1284</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>44206</v>
       </c>
       <c r="B356" t="n">
-        <v>1943767</v>
+        <v>1952588</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -10709,13 +10709,13 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>1292</v>
+        <v>1281</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>44207</v>
       </c>
       <c r="B357" t="n">
-        <v>1943794</v>
+        <v>1952610</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -10738,13 +10738,13 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>44208</v>
       </c>
       <c r="B358" t="n">
-        <v>1943819</v>
+        <v>1952630</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -10767,13 +10767,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>44209</v>
       </c>
       <c r="B359" t="n">
-        <v>1943843</v>
+        <v>1952649</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -10796,13 +10796,13 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>1282</v>
+        <v>1272</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>44210</v>
       </c>
       <c r="B360" t="n">
-        <v>1943866</v>
+        <v>1952667</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>44211</v>
       </c>
       <c r="B361" t="n">
-        <v>1943888</v>
+        <v>1952684</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -10854,13 +10854,13 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>44212</v>
       </c>
       <c r="B362" t="n">
-        <v>1943909</v>
+        <v>1952700</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -10883,13 +10883,13 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>44213</v>
       </c>
       <c r="B363" t="n">
-        <v>1943928</v>
+        <v>1952715</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -10912,13 +10912,13 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>44214</v>
       </c>
       <c r="B364" t="n">
-        <v>1943946</v>
+        <v>1952730</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -10941,13 +10941,13 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>44215</v>
       </c>
       <c r="B365" t="n">
-        <v>1943964</v>
+        <v>1952744</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -10970,13 +10970,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>44216</v>
       </c>
       <c r="B366" t="n">
-        <v>1943981</v>
+        <v>1952757</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -10999,13 +10999,13 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>44217</v>
       </c>
       <c r="B367" t="n">
-        <v>1943997</v>
+        <v>1952769</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -11028,13 +11028,13 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -11046,7 +11046,7 @@
         <v>44218</v>
       </c>
       <c r="B368" t="n">
-        <v>1944012</v>
+        <v>1952781</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>44219</v>
       </c>
       <c r="B369" t="n">
-        <v>1944026</v>
+        <v>1952792</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -11086,13 +11086,13 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>44220</v>
       </c>
       <c r="B370" t="n">
-        <v>1944039</v>
+        <v>1952802</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -11115,13 +11115,13 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>44221</v>
       </c>
       <c r="B371" t="n">
-        <v>1944052</v>
+        <v>1952812</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -11144,13 +11144,13 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>44222</v>
       </c>
       <c r="B372" t="n">
-        <v>1944064</v>
+        <v>1952821</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -11173,13 +11173,13 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -11191,7 +11191,7 @@
         <v>44223</v>
       </c>
       <c r="B373" t="n">
-        <v>1944075</v>
+        <v>1952830</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -11202,13 +11202,13 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>44224</v>
       </c>
       <c r="B374" t="n">
-        <v>1944086</v>
+        <v>1952838</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -11231,13 +11231,13 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -11249,7 +11249,7 @@
         <v>44225</v>
       </c>
       <c r="B375" t="n">
-        <v>1944096</v>
+        <v>1952846</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -11260,13 +11260,13 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -11278,7 +11278,7 @@
         <v>44226</v>
       </c>
       <c r="B376" t="n">
-        <v>1944106</v>
+        <v>1952853</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -11289,13 +11289,13 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>44227</v>
       </c>
       <c r="B377" t="n">
-        <v>1944115</v>
+        <v>1952860</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -11318,13 +11318,13 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>44228</v>
       </c>
       <c r="B378" t="n">
-        <v>1944124</v>
+        <v>1952867</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -11347,13 +11347,13 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>44229</v>
       </c>
       <c r="B379" t="n">
-        <v>1944132</v>
+        <v>1952873</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>44230</v>
       </c>
       <c r="B380" t="n">
-        <v>1944140</v>
+        <v>1952879</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -11405,13 +11405,13 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>44231</v>
       </c>
       <c r="B381" t="n">
-        <v>1944147</v>
+        <v>1952885</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>44232</v>
       </c>
       <c r="B382" t="n">
-        <v>1944154</v>
+        <v>1952890</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -11463,13 +11463,13 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -11481,7 +11481,7 @@
         <v>44233</v>
       </c>
       <c r="B383" t="n">
-        <v>1944161</v>
+        <v>1952895</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -11492,13 +11492,13 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -11510,7 +11510,7 @@
         <v>44234</v>
       </c>
       <c r="B384" t="n">
-        <v>1944167</v>
+        <v>1952900</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -11521,13 +11521,13 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>44235</v>
       </c>
       <c r="B385" t="n">
-        <v>1944173</v>
+        <v>1952904</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -11550,13 +11550,13 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -11568,7 +11568,7 @@
         <v>44236</v>
       </c>
       <c r="B386" t="n">
-        <v>1944179</v>
+        <v>1952908</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -11579,13 +11579,13 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>44237</v>
       </c>
       <c r="B387" t="n">
-        <v>1944184</v>
+        <v>1952912</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -11608,13 +11608,13 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>44238</v>
       </c>
       <c r="B388" t="n">
-        <v>1944189</v>
+        <v>1952916</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -11637,13 +11637,13 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -11655,7 +11655,7 @@
         <v>44239</v>
       </c>
       <c r="B389" t="n">
-        <v>1944194</v>
+        <v>1952920</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -11666,13 +11666,13 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -11684,7 +11684,7 @@
         <v>44240</v>
       </c>
       <c r="B390" t="n">
-        <v>1944198</v>
+        <v>1952923</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -11695,13 +11695,13 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
         <v>44241</v>
       </c>
       <c r="B391" t="n">
-        <v>1944202</v>
+        <v>1952926</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -11724,13 +11724,13 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>44242</v>
       </c>
       <c r="B392" t="n">
-        <v>1944206</v>
+        <v>1952929</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -11753,13 +11753,13 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -11771,7 +11771,7 @@
         <v>44243</v>
       </c>
       <c r="B393" t="n">
-        <v>1944210</v>
+        <v>1952932</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -11782,13 +11782,13 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F393" t="n">
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -11800,7 +11800,7 @@
         <v>44244</v>
       </c>
       <c r="B394" t="n">
-        <v>1944214</v>
+        <v>1952935</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -11811,13 +11811,13 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F394" t="n">
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>44245</v>
       </c>
       <c r="B395" t="n">
-        <v>1944217</v>
+        <v>1952938</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -11846,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="H395" t="n">
         <v>0</v>
@@ -11858,7 +11858,7 @@
         <v>44246</v>
       </c>
       <c r="B396" t="n">
-        <v>1944220</v>
+        <v>1952940</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -11869,13 +11869,13 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F396" t="n">
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="H396" t="n">
         <v>0</v>
@@ -11887,7 +11887,7 @@
         <v>44247</v>
       </c>
       <c r="B397" t="n">
-        <v>1944223</v>
+        <v>1952942</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -11898,13 +11898,13 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F397" t="n">
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -11916,7 +11916,7 @@
         <v>44248</v>
       </c>
       <c r="B398" t="n">
-        <v>1944226</v>
+        <v>1952944</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -11927,13 +11927,13 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F398" t="n">
         <v>0</v>
       </c>
       <c r="G398" t="n">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="H398" t="n">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>44249</v>
       </c>
       <c r="B399" t="n">
-        <v>1944229</v>
+        <v>1952946</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -11956,13 +11956,13 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F399" t="n">
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -11974,7 +11974,7 @@
         <v>44250</v>
       </c>
       <c r="B400" t="n">
-        <v>1944232</v>
+        <v>1952948</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -11985,13 +11985,13 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F400" t="n">
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="H400" t="n">
         <v>0</v>
@@ -12003,7 +12003,7 @@
         <v>44251</v>
       </c>
       <c r="B401" t="n">
-        <v>1944234</v>
+        <v>1952950</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="H401" t="n">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>44252</v>
       </c>
       <c r="B402" t="n">
-        <v>1944236</v>
+        <v>1952952</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -12049,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -12061,7 +12061,7 @@
         <v>44253</v>
       </c>
       <c r="B403" t="n">
-        <v>1944238</v>
+        <v>1952954</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -12078,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -12090,7 +12090,7 @@
         <v>44254</v>
       </c>
       <c r="B404" t="n">
-        <v>1944240</v>
+        <v>1952956</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -12119,7 +12119,7 @@
         <v>44255</v>
       </c>
       <c r="B405" t="n">
-        <v>1944242</v>
+        <v>1952957</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -12130,13 +12130,13 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F405" t="n">
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -12148,7 +12148,7 @@
         <v>44256</v>
       </c>
       <c r="B406" t="n">
-        <v>1944244</v>
+        <v>1952958</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -12159,13 +12159,13 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F406" t="n">
         <v>0</v>
       </c>
       <c r="G406" t="n">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -12177,7 +12177,7 @@
         <v>44257</v>
       </c>
       <c r="B407" t="n">
-        <v>1944246</v>
+        <v>1952959</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -12188,13 +12188,13 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F407" t="n">
         <v>0</v>
       </c>
       <c r="G407" t="n">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -12206,7 +12206,7 @@
         <v>44258</v>
       </c>
       <c r="B408" t="n">
-        <v>1944248</v>
+        <v>1952960</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -12217,13 +12217,13 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F408" t="n">
         <v>0</v>
       </c>
       <c r="G408" t="n">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>44259</v>
       </c>
       <c r="B409" t="n">
-        <v>1944250</v>
+        <v>1952961</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -12246,13 +12246,13 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F409" t="n">
         <v>0</v>
       </c>
       <c r="G409" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -12264,7 +12264,7 @@
         <v>44260</v>
       </c>
       <c r="B410" t="n">
-        <v>1944251</v>
+        <v>1952962</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="G410" t="n">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -12293,7 +12293,7 @@
         <v>44261</v>
       </c>
       <c r="B411" t="n">
-        <v>1944252</v>
+        <v>1952963</v>
       </c>
       <c r="C411" t="n">
         <v>0</v>
@@ -12310,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="G411" t="n">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -12322,7 +12322,7 @@
         <v>44262</v>
       </c>
       <c r="B412" t="n">
-        <v>1944253</v>
+        <v>1952964</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="G412" t="n">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -12351,7 +12351,7 @@
         <v>44263</v>
       </c>
       <c r="B413" t="n">
-        <v>1944254</v>
+        <v>1952965</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="G413" t="n">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="H413" t="n">
         <v>0</v>
@@ -12380,7 +12380,7 @@
         <v>44264</v>
       </c>
       <c r="B414" t="n">
-        <v>1944255</v>
+        <v>1952966</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="G414" t="n">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="H414" t="n">
         <v>0</v>
@@ -12409,7 +12409,7 @@
         <v>44265</v>
       </c>
       <c r="B415" t="n">
-        <v>1944256</v>
+        <v>1952967</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="G415" t="n">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="H415" t="n">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>44266</v>
       </c>
       <c r="B416" t="n">
-        <v>1944257</v>
+        <v>1952968</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -12455,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="G416" t="n">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="H416" t="n">
         <v>0</v>
@@ -12467,7 +12467,7 @@
         <v>44267</v>
       </c>
       <c r="B417" t="n">
-        <v>1944258</v>
+        <v>1952969</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="G417" t="n">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="H417" t="n">
         <v>0</v>
@@ -12496,7 +12496,7 @@
         <v>44268</v>
       </c>
       <c r="B418" t="n">
-        <v>1944259</v>
+        <v>1952970</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -12513,7 +12513,7 @@
         <v>0</v>
       </c>
       <c r="G418" t="n">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="H418" t="n">
         <v>0</v>
@@ -12525,7 +12525,7 @@
         <v>44269</v>
       </c>
       <c r="B419" t="n">
-        <v>1944260</v>
+        <v>1952971</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -12542,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="G419" t="n">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="H419" t="n">
         <v>0</v>
@@ -12554,7 +12554,7 @@
         <v>44270</v>
       </c>
       <c r="B420" t="n">
-        <v>1944261</v>
+        <v>1952972</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -12571,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="G420" t="n">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="H420" t="n">
         <v>0</v>
@@ -12583,7 +12583,7 @@
         <v>44271</v>
       </c>
       <c r="B421" t="n">
-        <v>1944262</v>
+        <v>1952973</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -12600,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="G421" t="n">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="H421" t="n">
         <v>0</v>
@@ -12612,7 +12612,7 @@
         <v>44272</v>
       </c>
       <c r="B422" t="n">
-        <v>1944263</v>
+        <v>1952974</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -12629,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="G422" t="n">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="H422" t="n">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>44273</v>
       </c>
       <c r="B423" t="n">
-        <v>1944264</v>
+        <v>1952975</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="G423" t="n">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="H423" t="n">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>44274</v>
       </c>
       <c r="B424" t="n">
-        <v>1944265</v>
+        <v>1952975</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -12681,25 +12681,30 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F424" t="n">
         <v>0</v>
       </c>
       <c r="G424" t="n">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>11640</v>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>No new cases on
+19 March 2021</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
         <v>44275</v>
       </c>
       <c r="B425" t="n">
-        <v>1944266</v>
+        <v>1952975</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -12710,13 +12715,13 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F425" t="n">
         <v>0</v>
       </c>
       <c r="G425" t="n">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="H425" t="n">
         <v>0</v>
@@ -12728,7 +12733,7 @@
         <v>44276</v>
       </c>
       <c r="B426" t="n">
-        <v>1944267</v>
+        <v>1952975</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -12739,13 +12744,13 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F426" t="n">
         <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="H426" t="n">
         <v>0</v>
@@ -12757,7 +12762,7 @@
         <v>44277</v>
       </c>
       <c r="B427" t="n">
-        <v>1944268</v>
+        <v>1952975</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -12768,13 +12773,13 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F427" t="n">
         <v>0</v>
       </c>
       <c r="G427" t="n">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="H427" t="n">
         <v>0</v>
@@ -12786,7 +12791,7 @@
         <v>44278</v>
       </c>
       <c r="B428" t="n">
-        <v>1944269</v>
+        <v>1952975</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -12797,13 +12802,13 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F428" t="n">
         <v>0</v>
       </c>
       <c r="G428" t="n">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="H428" t="n">
         <v>0</v>
@@ -12815,7 +12820,7 @@
         <v>44279</v>
       </c>
       <c r="B429" t="n">
-        <v>1944270</v>
+        <v>1952975</v>
       </c>
       <c r="C429" t="n">
         <v>0</v>
@@ -12826,13 +12831,13 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F429" t="n">
         <v>0</v>
       </c>
       <c r="G429" t="n">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="H429" t="n">
         <v>0</v>
@@ -12844,7 +12849,7 @@
         <v>44280</v>
       </c>
       <c r="B430" t="n">
-        <v>1944270</v>
+        <v>1952975</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -12861,24 +12866,19 @@
         <v>0</v>
       </c>
       <c r="G430" t="n">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="H430" t="n">
-        <v>11439</v>
-      </c>
-      <c r="I430" t="inlineStr">
-        <is>
-          <t>No new cases on
-25 March 2021</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
         <v>44281</v>
       </c>
       <c r="B431" t="n">
-        <v>1944270</v>
+        <v>1952975</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="G431" t="n">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="H431" t="n">
         <v>0</v>
@@ -12907,7 +12907,7 @@
         <v>44282</v>
       </c>
       <c r="B432" t="n">
-        <v>1944270</v>
+        <v>1952975</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -12924,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="G432" t="n">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="H432" t="n">
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>44283</v>
       </c>
       <c r="B433" t="n">
-        <v>1944270</v>
+        <v>1952975</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -12953,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="G433" t="n">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="H433" t="n">
         <v>0</v>
@@ -12965,7 +12965,7 @@
         <v>44284</v>
       </c>
       <c r="B434" t="n">
-        <v>1944270</v>
+        <v>1952975</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -12982,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="G434" t="n">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="H434" t="n">
         <v>0</v>
@@ -12994,7 +12994,7 @@
         <v>44285</v>
       </c>
       <c r="B435" t="n">
-        <v>1944270</v>
+        <v>1952975</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="G435" t="n">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="H435" t="n">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>44286</v>
       </c>
       <c r="B436" t="n">
-        <v>1944270</v>
+        <v>1952975</v>
       </c>
       <c r="C436" t="n">
         <v>0</v>
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="G436" t="n">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="H436" t="n">
         <v>0</v>

--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>767</v>
+        <v>714</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>868</v>
+        <v>811</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>980</v>
+        <v>918</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1103</v>
+        <v>1035</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1237</v>
+        <v>1164</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1383</v>
+        <v>1304</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1541</v>
+        <v>1456</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1711</v>
+        <v>1621</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1895</v>
+        <v>1800</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2092</v>
+        <v>1991</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2304</v>
+        <v>2197</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>2529</v>
+        <v>2417</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2769</v>
+        <v>2652</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>3024</v>
+        <v>2902</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3293</v>
+        <v>3166</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3577</v>
+        <v>3446</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3876</v>
+        <v>3740</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>4190</v>
+        <v>4050</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4518</v>
+        <v>4374</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4860</v>
+        <v>4714</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>5216</v>
+        <v>5067</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>5586</v>
+        <v>5435</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>5969</v>
+        <v>5816</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>6364</v>
+        <v>6210</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6771</v>
+        <v>6617</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>7189</v>
+        <v>7035</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>7617</v>
+        <v>7465</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>8055</v>
+        <v>7905</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>8502</v>
+        <v>8354</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>8956</v>
+        <v>8811</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9417</v>
+        <v>9276</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>9884</v>
+        <v>9747</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10355</v>
+        <v>10223</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10830</v>
+        <v>10704</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>11307</v>
+        <v>11187</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>11785</v>
+        <v>11672</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>12263</v>
+        <v>12157</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>12739</v>
+        <v>12642</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>13214</v>
+        <v>13125</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13684</v>
+        <v>13605</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>14150</v>
+        <v>14080</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>14609</v>
+        <v>14549</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>15061</v>
+        <v>15012</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>15505</v>
+        <v>15467</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>15940</v>
+        <v>15912</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16363</v>
+        <v>16347</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16775</v>
+        <v>16770</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17175</v>
+        <v>17181</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17561</v>
+        <v>17579</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>17932</v>
+        <v>17962</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>18288</v>
+        <v>18329</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>18629</v>
+        <v>18681</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5062,24 +5062,24 @@
         <v>44012</v>
       </c>
       <c r="B162" t="n">
-        <v>585792</v>
+        <v>585481</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>18641</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>18952</v>
+        <v>19015</v>
       </c>
       <c r="F162" t="n">
-        <v>17080</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>3744</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>44013</v>
       </c>
       <c r="B163" t="n">
-        <v>605050</v>
+        <v>604813</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -5102,13 +5102,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>19258</v>
+        <v>19332</v>
       </c>
       <c r="F163" t="n">
-        <v>17392</v>
+        <v>17469</v>
       </c>
       <c r="G163" t="n">
-        <v>3732</v>
+        <v>3725</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>44014</v>
       </c>
       <c r="B164" t="n">
-        <v>624595</v>
+        <v>624444</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -5131,13 +5131,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19545</v>
+        <v>19631</v>
       </c>
       <c r="F164" t="n">
-        <v>17685</v>
+        <v>17774</v>
       </c>
       <c r="G164" t="n">
-        <v>3720</v>
+        <v>3714</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>44015</v>
       </c>
       <c r="B165" t="n">
-        <v>644409</v>
+        <v>644354</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>19814</v>
+        <v>19910</v>
       </c>
       <c r="F165" t="n">
-        <v>17960</v>
+        <v>18059</v>
       </c>
       <c r="G165" t="n">
-        <v>3709</v>
+        <v>3702</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>44016</v>
       </c>
       <c r="B166" t="n">
-        <v>664473</v>
+        <v>664525</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -5189,13 +5189,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20064</v>
+        <v>20171</v>
       </c>
       <c r="F166" t="n">
-        <v>18216</v>
+        <v>18325</v>
       </c>
       <c r="G166" t="n">
-        <v>3698</v>
+        <v>3691</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>44017</v>
       </c>
       <c r="B167" t="n">
-        <v>684768</v>
+        <v>684936</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20295</v>
+        <v>20411</v>
       </c>
       <c r="F167" t="n">
-        <v>18452</v>
+        <v>18571</v>
       </c>
       <c r="G167" t="n">
-        <v>3686</v>
+        <v>3680</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>44018</v>
       </c>
       <c r="B168" t="n">
-        <v>705274</v>
+        <v>705568</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>20506</v>
+        <v>20632</v>
       </c>
       <c r="F168" t="n">
-        <v>18668</v>
+        <v>18797</v>
       </c>
       <c r="G168" t="n">
-        <v>3675</v>
+        <v>3669</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>44019</v>
       </c>
       <c r="B169" t="n">
-        <v>725970</v>
+        <v>726400</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5276,13 +5276,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>20696</v>
+        <v>20832</v>
       </c>
       <c r="F169" t="n">
-        <v>18864</v>
+        <v>19003</v>
       </c>
       <c r="G169" t="n">
-        <v>3664</v>
+        <v>3658</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>746837</v>
+        <v>747411</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20867</v>
+        <v>21011</v>
       </c>
       <c r="F170" t="n">
-        <v>19040</v>
+        <v>19187</v>
       </c>
       <c r="G170" t="n">
-        <v>3653</v>
+        <v>3647</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>767853</v>
+        <v>768580</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>21016</v>
+        <v>21169</v>
       </c>
       <c r="F171" t="n">
-        <v>19195</v>
+        <v>19351</v>
       </c>
       <c r="G171" t="n">
-        <v>3642</v>
+        <v>3636</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>788999</v>
+        <v>789886</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21146</v>
+        <v>21306</v>
       </c>
       <c r="F172" t="n">
-        <v>19330</v>
+        <v>19493</v>
       </c>
       <c r="G172" t="n">
-        <v>3632</v>
+        <v>3625</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>810254</v>
+        <v>811308</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21255</v>
+        <v>21422</v>
       </c>
       <c r="F173" t="n">
-        <v>19444</v>
+        <v>19615</v>
       </c>
       <c r="G173" t="n">
-        <v>3621</v>
+        <v>3615</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>831597</v>
+        <v>832826</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>21343</v>
+        <v>21518</v>
       </c>
       <c r="F174" t="n">
-        <v>19538</v>
+        <v>19715</v>
       </c>
       <c r="G174" t="n">
-        <v>3611</v>
+        <v>3604</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>853008</v>
+        <v>854418</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>21411</v>
+        <v>21592</v>
       </c>
       <c r="F175" t="n">
-        <v>19611</v>
+        <v>19795</v>
       </c>
       <c r="G175" t="n">
-        <v>3600</v>
+        <v>3594</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>874467</v>
+        <v>876063</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>21459</v>
+        <v>21645</v>
       </c>
       <c r="F176" t="n">
-        <v>19664</v>
+        <v>19854</v>
       </c>
       <c r="G176" t="n">
-        <v>3590</v>
+        <v>3583</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>895954</v>
+        <v>897741</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>21487</v>
+        <v>21678</v>
       </c>
       <c r="F177" t="n">
-        <v>19697</v>
+        <v>19892</v>
       </c>
       <c r="G177" t="n">
-        <v>3580</v>
+        <v>3573</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>917449</v>
+        <v>919432</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>21495</v>
+        <v>21691</v>
       </c>
       <c r="F178" t="n">
-        <v>19710</v>
+        <v>19909</v>
       </c>
       <c r="G178" t="n">
-        <v>3569</v>
+        <v>3563</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>938933</v>
+        <v>941116</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>21484</v>
+        <v>21684</v>
       </c>
       <c r="F179" t="n">
-        <v>19704</v>
+        <v>19907</v>
       </c>
       <c r="G179" t="n">
-        <v>3559</v>
+        <v>3553</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>960386</v>
+        <v>962773</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>21453</v>
+        <v>21657</v>
       </c>
       <c r="F180" t="n">
-        <v>19679</v>
+        <v>19885</v>
       </c>
       <c r="G180" t="n">
-        <v>3549</v>
+        <v>3543</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>981790</v>
+        <v>984383</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>21404</v>
+        <v>21610</v>
       </c>
       <c r="F181" t="n">
-        <v>19635</v>
+        <v>19844</v>
       </c>
       <c r="G181" t="n">
-        <v>3539</v>
+        <v>3533</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>1003127</v>
+        <v>1005928</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>21337</v>
+        <v>21545</v>
       </c>
       <c r="F182" t="n">
-        <v>19572</v>
+        <v>19784</v>
       </c>
       <c r="G182" t="n">
-        <v>3529</v>
+        <v>3523</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>1024379</v>
+        <v>1027390</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21252</v>
+        <v>21462</v>
       </c>
       <c r="F183" t="n">
-        <v>19492</v>
+        <v>19705</v>
       </c>
       <c r="G183" t="n">
-        <v>3520</v>
+        <v>3513</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>1045529</v>
+        <v>1048751</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>21150</v>
+        <v>21361</v>
       </c>
       <c r="F184" t="n">
-        <v>19395</v>
+        <v>19609</v>
       </c>
       <c r="G184" t="n">
-        <v>3510</v>
+        <v>3504</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>1066560</v>
+        <v>1069993</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>21031</v>
+        <v>21242</v>
       </c>
       <c r="F185" t="n">
-        <v>19280</v>
+        <v>19495</v>
       </c>
       <c r="G185" t="n">
-        <v>3500</v>
+        <v>3494</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>1087455</v>
+        <v>1091100</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>20895</v>
+        <v>21107</v>
       </c>
       <c r="F186" t="n">
-        <v>19150</v>
+        <v>19365</v>
       </c>
       <c r="G186" t="n">
-        <v>3491</v>
+        <v>3485</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>1108200</v>
+        <v>1112056</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20745</v>
+        <v>20956</v>
       </c>
       <c r="F187" t="n">
-        <v>19004</v>
+        <v>19219</v>
       </c>
       <c r="G187" t="n">
-        <v>3481</v>
+        <v>3475</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>1128779</v>
+        <v>1132846</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>20579</v>
+        <v>20790</v>
       </c>
       <c r="F188" t="n">
-        <v>18843</v>
+        <v>19057</v>
       </c>
       <c r="G188" t="n">
-        <v>3472</v>
+        <v>3466</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>1149178</v>
+        <v>1153455</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>20399</v>
+        <v>20609</v>
       </c>
       <c r="F189" t="n">
-        <v>18668</v>
+        <v>18880</v>
       </c>
       <c r="G189" t="n">
-        <v>3463</v>
+        <v>3457</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>1169384</v>
+        <v>1173868</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>20206</v>
+        <v>20413</v>
       </c>
       <c r="F190" t="n">
-        <v>18479</v>
+        <v>18690</v>
       </c>
       <c r="G190" t="n">
-        <v>3454</v>
+        <v>3447</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>1189384</v>
+        <v>1194073</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20000</v>
+        <v>20205</v>
       </c>
       <c r="F191" t="n">
-        <v>18277</v>
+        <v>18485</v>
       </c>
       <c r="G191" t="n">
-        <v>3444</v>
+        <v>3438</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>44042</v>
       </c>
       <c r="B192" t="n">
-        <v>1209165</v>
+        <v>1214056</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>19781</v>
+        <v>19983</v>
       </c>
       <c r="F192" t="n">
-        <v>18063</v>
+        <v>18269</v>
       </c>
       <c r="G192" t="n">
-        <v>3435</v>
+        <v>3429</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>44043</v>
       </c>
       <c r="B193" t="n">
-        <v>1228715</v>
+        <v>1233806</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19550</v>
+        <v>19750</v>
       </c>
       <c r="F193" t="n">
-        <v>17837</v>
+        <v>18040</v>
       </c>
       <c r="G193" t="n">
-        <v>3426</v>
+        <v>3420</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>44044</v>
       </c>
       <c r="B194" t="n">
-        <v>1248024</v>
+        <v>1253311</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19309</v>
+        <v>19505</v>
       </c>
       <c r="F194" t="n">
-        <v>17601</v>
+        <v>17799</v>
       </c>
       <c r="G194" t="n">
-        <v>3417</v>
+        <v>3411</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>44045</v>
       </c>
       <c r="B195" t="n">
-        <v>1267082</v>
+        <v>1272561</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19058</v>
+        <v>19250</v>
       </c>
       <c r="F195" t="n">
-        <v>17353</v>
+        <v>17548</v>
       </c>
       <c r="G195" t="n">
-        <v>3408</v>
+        <v>3402</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>44046</v>
       </c>
       <c r="B196" t="n">
-        <v>1285879</v>
+        <v>1291545</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>18797</v>
+        <v>18984</v>
       </c>
       <c r="F196" t="n">
-        <v>17097</v>
+        <v>17287</v>
       </c>
       <c r="G196" t="n">
-        <v>3400</v>
+        <v>3394</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>44047</v>
       </c>
       <c r="B197" t="n">
-        <v>1304406</v>
+        <v>1310255</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>18527</v>
+        <v>18710</v>
       </c>
       <c r="F197" t="n">
-        <v>16831</v>
+        <v>17017</v>
       </c>
       <c r="G197" t="n">
-        <v>3391</v>
+        <v>3385</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>44048</v>
       </c>
       <c r="B198" t="n">
-        <v>1322655</v>
+        <v>1328682</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>18249</v>
+        <v>18427</v>
       </c>
       <c r="F198" t="n">
-        <v>16557</v>
+        <v>16739</v>
       </c>
       <c r="G198" t="n">
-        <v>3382</v>
+        <v>3376</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>44049</v>
       </c>
       <c r="B199" t="n">
-        <v>1340618</v>
+        <v>1346818</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -6146,13 +6146,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>17963</v>
+        <v>18136</v>
       </c>
       <c r="F199" t="n">
-        <v>16276</v>
+        <v>16453</v>
       </c>
       <c r="G199" t="n">
-        <v>3374</v>
+        <v>3368</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>44050</v>
       </c>
       <c r="B200" t="n">
-        <v>1358288</v>
+        <v>1364657</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>17670</v>
+        <v>17839</v>
       </c>
       <c r="F200" t="n">
-        <v>15988</v>
+        <v>16159</v>
       </c>
       <c r="G200" t="n">
-        <v>3365</v>
+        <v>3359</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>44051</v>
       </c>
       <c r="B201" t="n">
-        <v>1375660</v>
+        <v>1382192</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -6204,13 +6204,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>17372</v>
+        <v>17535</v>
       </c>
       <c r="F201" t="n">
-        <v>15693</v>
+        <v>15859</v>
       </c>
       <c r="G201" t="n">
-        <v>3357</v>
+        <v>3351</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>44052</v>
       </c>
       <c r="B202" t="n">
-        <v>1392728</v>
+        <v>1399417</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>17068</v>
+        <v>17225</v>
       </c>
       <c r="F202" t="n">
-        <v>15393</v>
+        <v>15554</v>
       </c>
       <c r="G202" t="n">
-        <v>3348</v>
+        <v>3342</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>44053</v>
       </c>
       <c r="B203" t="n">
-        <v>1409486</v>
+        <v>1416327</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>16758</v>
+        <v>16910</v>
       </c>
       <c r="F203" t="n">
-        <v>15088</v>
+        <v>15243</v>
       </c>
       <c r="G203" t="n">
-        <v>3340</v>
+        <v>3334</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>44054</v>
       </c>
       <c r="B204" t="n">
-        <v>1425931</v>
+        <v>1432918</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>16445</v>
+        <v>16591</v>
       </c>
       <c r="F204" t="n">
-        <v>14779</v>
+        <v>14928</v>
       </c>
       <c r="G204" t="n">
-        <v>3332</v>
+        <v>3326</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>44055</v>
       </c>
       <c r="B205" t="n">
-        <v>1442059</v>
+        <v>1449186</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16128</v>
+        <v>16268</v>
       </c>
       <c r="F205" t="n">
-        <v>14466</v>
+        <v>14609</v>
       </c>
       <c r="G205" t="n">
-        <v>3323</v>
+        <v>3318</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>44056</v>
       </c>
       <c r="B206" t="n">
-        <v>1457867</v>
+        <v>1465127</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>15808</v>
+        <v>15941</v>
       </c>
       <c r="F206" t="n">
-        <v>14150</v>
+        <v>14287</v>
       </c>
       <c r="G206" t="n">
-        <v>3315</v>
+        <v>3309</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>44057</v>
       </c>
       <c r="B207" t="n">
-        <v>1473352</v>
+        <v>1480739</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>15485</v>
+        <v>15612</v>
       </c>
       <c r="F207" t="n">
-        <v>13831</v>
+        <v>13962</v>
       </c>
       <c r="G207" t="n">
-        <v>3307</v>
+        <v>3301</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>44058</v>
       </c>
       <c r="B208" t="n">
-        <v>1488512</v>
+        <v>1496020</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>15160</v>
+        <v>15281</v>
       </c>
       <c r="F208" t="n">
-        <v>13511</v>
+        <v>13635</v>
       </c>
       <c r="G208" t="n">
-        <v>3299</v>
+        <v>3293</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>44059</v>
       </c>
       <c r="B209" t="n">
-        <v>1503346</v>
+        <v>1510969</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>14834</v>
+        <v>14949</v>
       </c>
       <c r="F209" t="n">
-        <v>13189</v>
+        <v>13306</v>
       </c>
       <c r="G209" t="n">
-        <v>3291</v>
+        <v>3285</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>44060</v>
       </c>
       <c r="B210" t="n">
-        <v>1517853</v>
+        <v>1525585</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>14507</v>
+        <v>14616</v>
       </c>
       <c r="F210" t="n">
-        <v>12866</v>
+        <v>12977</v>
       </c>
       <c r="G210" t="n">
-        <v>3283</v>
+        <v>3277</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>44061</v>
       </c>
       <c r="B211" t="n">
-        <v>1532033</v>
+        <v>1539867</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14180</v>
+        <v>14282</v>
       </c>
       <c r="F211" t="n">
-        <v>12542</v>
+        <v>12647</v>
       </c>
       <c r="G211" t="n">
-        <v>3275</v>
+        <v>3270</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>44062</v>
       </c>
       <c r="B212" t="n">
-        <v>1545885</v>
+        <v>1553815</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>13852</v>
+        <v>13948</v>
       </c>
       <c r="F212" t="n">
-        <v>12219</v>
+        <v>12317</v>
       </c>
       <c r="G212" t="n">
-        <v>3268</v>
+        <v>3262</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>44063</v>
       </c>
       <c r="B213" t="n">
-        <v>1559410</v>
+        <v>1567430</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>13525</v>
+        <v>13615</v>
       </c>
       <c r="F213" t="n">
-        <v>11895</v>
+        <v>11988</v>
       </c>
       <c r="G213" t="n">
-        <v>3260</v>
+        <v>3254</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>44064</v>
       </c>
       <c r="B214" t="n">
-        <v>1572609</v>
+        <v>1580713</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>13199</v>
+        <v>13283</v>
       </c>
       <c r="F214" t="n">
-        <v>11573</v>
+        <v>11660</v>
       </c>
       <c r="G214" t="n">
-        <v>3252</v>
+        <v>3246</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>44065</v>
       </c>
       <c r="B215" t="n">
-        <v>1585484</v>
+        <v>1593665</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6610,13 +6610,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>12875</v>
+        <v>12952</v>
       </c>
       <c r="F215" t="n">
-        <v>11252</v>
+        <v>11333</v>
       </c>
       <c r="G215" t="n">
-        <v>3245</v>
+        <v>3239</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>44066</v>
       </c>
       <c r="B216" t="n">
-        <v>1598036</v>
+        <v>1606288</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12552</v>
+        <v>12623</v>
       </c>
       <c r="F216" t="n">
-        <v>10933</v>
+        <v>11008</v>
       </c>
       <c r="G216" t="n">
-        <v>3237</v>
+        <v>3231</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>44067</v>
       </c>
       <c r="B217" t="n">
-        <v>1610267</v>
+        <v>1618585</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12231</v>
+        <v>12297</v>
       </c>
       <c r="F217" t="n">
-        <v>10616</v>
+        <v>10685</v>
       </c>
       <c r="G217" t="n">
-        <v>3229</v>
+        <v>3224</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>44068</v>
       </c>
       <c r="B218" t="n">
-        <v>1622179</v>
+        <v>1630557</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>11912</v>
+        <v>11972</v>
       </c>
       <c r="F218" t="n">
-        <v>10301</v>
+        <v>10364</v>
       </c>
       <c r="G218" t="n">
-        <v>3222</v>
+        <v>3216</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44069</v>
       </c>
       <c r="B219" t="n">
-        <v>1633776</v>
+        <v>1642208</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>11597</v>
+        <v>11651</v>
       </c>
       <c r="F219" t="n">
-        <v>9989</v>
+        <v>10047</v>
       </c>
       <c r="G219" t="n">
-        <v>3214</v>
+        <v>3209</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>44070</v>
       </c>
       <c r="B220" t="n">
-        <v>1645060</v>
+        <v>1653541</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>11284</v>
+        <v>11333</v>
       </c>
       <c r="F220" t="n">
-        <v>9680</v>
+        <v>9732</v>
       </c>
       <c r="G220" t="n">
-        <v>3207</v>
+        <v>3201</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>44071</v>
       </c>
       <c r="B221" t="n">
-        <v>1656035</v>
+        <v>1664559</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>10975</v>
+        <v>11018</v>
       </c>
       <c r="F221" t="n">
-        <v>9375</v>
+        <v>9421</v>
       </c>
       <c r="G221" t="n">
-        <v>3200</v>
+        <v>3194</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>44072</v>
       </c>
       <c r="B222" t="n">
-        <v>1666704</v>
+        <v>1675266</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10669</v>
+        <v>10707</v>
       </c>
       <c r="F222" t="n">
-        <v>9073</v>
+        <v>9114</v>
       </c>
       <c r="G222" t="n">
-        <v>3192</v>
+        <v>3187</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>44073</v>
       </c>
       <c r="B223" t="n">
-        <v>1677071</v>
+        <v>1685666</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>10367</v>
+        <v>10400</v>
       </c>
       <c r="F223" t="n">
-        <v>8774</v>
+        <v>8810</v>
       </c>
       <c r="G223" t="n">
-        <v>3185</v>
+        <v>3180</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>44074</v>
       </c>
       <c r="B224" t="n">
-        <v>1687140</v>
+        <v>1695764</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>10069</v>
+        <v>10098</v>
       </c>
       <c r="F224" t="n">
-        <v>8480</v>
+        <v>8511</v>
       </c>
       <c r="G224" t="n">
-        <v>3178</v>
+        <v>3172</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>44075</v>
       </c>
       <c r="B225" t="n">
-        <v>1696916</v>
+        <v>1705563</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>9776</v>
+        <v>9799</v>
       </c>
       <c r="F225" t="n">
-        <v>8190</v>
+        <v>8217</v>
       </c>
       <c r="G225" t="n">
-        <v>3171</v>
+        <v>3165</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>44076</v>
       </c>
       <c r="B226" t="n">
-        <v>1706403</v>
+        <v>1715069</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>9487</v>
+        <v>9506</v>
       </c>
       <c r="F226" t="n">
-        <v>7905</v>
+        <v>7927</v>
       </c>
       <c r="G226" t="n">
-        <v>3164</v>
+        <v>3158</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>44077</v>
       </c>
       <c r="B227" t="n">
-        <v>1715606</v>
+        <v>1724286</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9203</v>
+        <v>9217</v>
       </c>
       <c r="F227" t="n">
-        <v>7624</v>
+        <v>7641</v>
       </c>
       <c r="G227" t="n">
-        <v>3157</v>
+        <v>3151</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>44078</v>
       </c>
       <c r="B228" t="n">
-        <v>1724529</v>
+        <v>1733219</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8923</v>
+        <v>8933</v>
       </c>
       <c r="F228" t="n">
-        <v>7348</v>
+        <v>7361</v>
       </c>
       <c r="G228" t="n">
-        <v>3150</v>
+        <v>3144</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>44079</v>
       </c>
       <c r="B229" t="n">
-        <v>1733177</v>
+        <v>1741873</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>8648</v>
+        <v>8654</v>
       </c>
       <c r="F229" t="n">
-        <v>7077</v>
+        <v>7086</v>
       </c>
       <c r="G229" t="n">
-        <v>3143</v>
+        <v>3137</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>44080</v>
       </c>
       <c r="B230" t="n">
-        <v>1741556</v>
+        <v>1750254</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>8379</v>
+        <v>8381</v>
       </c>
       <c r="F230" t="n">
-        <v>6811</v>
+        <v>6816</v>
       </c>
       <c r="G230" t="n">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>44081</v>
       </c>
       <c r="B231" t="n">
-        <v>1749670</v>
+        <v>1758367</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8114</v>
+        <v>8113</v>
       </c>
       <c r="F231" t="n">
-        <v>6550</v>
+        <v>6551</v>
       </c>
       <c r="G231" t="n">
-        <v>3129</v>
+        <v>3124</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>44082</v>
       </c>
       <c r="B232" t="n">
-        <v>1757525</v>
+        <v>1766217</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>7855</v>
+        <v>7850</v>
       </c>
       <c r="F232" t="n">
-        <v>6294</v>
+        <v>6292</v>
       </c>
       <c r="G232" t="n">
-        <v>3122</v>
+        <v>3117</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>44083</v>
       </c>
       <c r="B233" t="n">
-        <v>1765126</v>
+        <v>1773810</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>7601</v>
+        <v>7593</v>
       </c>
       <c r="F233" t="n">
-        <v>6044</v>
+        <v>6038</v>
       </c>
       <c r="G233" t="n">
-        <v>3116</v>
+        <v>3110</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>44084</v>
       </c>
       <c r="B234" t="n">
-        <v>1772479</v>
+        <v>1781151</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>7353</v>
+        <v>7341</v>
       </c>
       <c r="F234" t="n">
-        <v>5799</v>
+        <v>5789</v>
       </c>
       <c r="G234" t="n">
-        <v>3109</v>
+        <v>3103</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>44085</v>
       </c>
       <c r="B235" t="n">
-        <v>1779589</v>
+        <v>1788246</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>7110</v>
+        <v>7095</v>
       </c>
       <c r="F235" t="n">
-        <v>5559</v>
+        <v>5547</v>
       </c>
       <c r="G235" t="n">
-        <v>3102</v>
+        <v>3097</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>44086</v>
       </c>
       <c r="B236" t="n">
-        <v>1786462</v>
+        <v>1795101</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>6873</v>
+        <v>6855</v>
       </c>
       <c r="F236" t="n">
-        <v>5325</v>
+        <v>5310</v>
       </c>
       <c r="G236" t="n">
-        <v>3096</v>
+        <v>3090</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>44087</v>
       </c>
       <c r="B237" t="n">
-        <v>1793103</v>
+        <v>1801721</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>6641</v>
+        <v>6620</v>
       </c>
       <c r="F237" t="n">
-        <v>5096</v>
+        <v>5078</v>
       </c>
       <c r="G237" t="n">
-        <v>3089</v>
+        <v>3083</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>44088</v>
       </c>
       <c r="B238" t="n">
-        <v>1799517</v>
+        <v>1808112</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -7277,13 +7277,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>6414</v>
+        <v>6391</v>
       </c>
       <c r="F238" t="n">
-        <v>4873</v>
+        <v>4852</v>
       </c>
       <c r="G238" t="n">
-        <v>3082</v>
+        <v>3077</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>44089</v>
       </c>
       <c r="B239" t="n">
-        <v>1805710</v>
+        <v>1814280</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>6193</v>
+        <v>6168</v>
       </c>
       <c r="F239" t="n">
-        <v>4655</v>
+        <v>4632</v>
       </c>
       <c r="G239" t="n">
-        <v>3076</v>
+        <v>3070</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>44090</v>
       </c>
       <c r="B240" t="n">
-        <v>1811688</v>
+        <v>1820230</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5978</v>
+        <v>5950</v>
       </c>
       <c r="F240" t="n">
-        <v>4443</v>
+        <v>4418</v>
       </c>
       <c r="G240" t="n">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>44091</v>
       </c>
       <c r="B241" t="n">
-        <v>1817456</v>
+        <v>1825968</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>5768</v>
+        <v>5738</v>
       </c>
       <c r="F241" t="n">
-        <v>4236</v>
+        <v>4209</v>
       </c>
       <c r="G241" t="n">
-        <v>3063</v>
+        <v>3058</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>44092</v>
       </c>
       <c r="B242" t="n">
-        <v>1823019</v>
+        <v>1831499</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>5563</v>
+        <v>5531</v>
       </c>
       <c r="F242" t="n">
-        <v>4035</v>
+        <v>4006</v>
       </c>
       <c r="G242" t="n">
-        <v>3057</v>
+        <v>3051</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>44093</v>
       </c>
       <c r="B243" t="n">
-        <v>1828383</v>
+        <v>1836830</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>5364</v>
+        <v>5331</v>
       </c>
       <c r="F243" t="n">
-        <v>3839</v>
+        <v>3808</v>
       </c>
       <c r="G243" t="n">
-        <v>3050</v>
+        <v>3045</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>44094</v>
       </c>
       <c r="B244" t="n">
-        <v>1833554</v>
+        <v>1841966</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>5171</v>
+        <v>5136</v>
       </c>
       <c r="F244" t="n">
-        <v>3649</v>
+        <v>3616</v>
       </c>
       <c r="G244" t="n">
-        <v>3044</v>
+        <v>3039</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>44095</v>
       </c>
       <c r="B245" t="n">
-        <v>1838537</v>
+        <v>1846912</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>4983</v>
+        <v>4946</v>
       </c>
       <c r="F245" t="n">
-        <v>3464</v>
+        <v>3430</v>
       </c>
       <c r="G245" t="n">
-        <v>3038</v>
+        <v>3032</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>44096</v>
       </c>
       <c r="B246" t="n">
-        <v>1843337</v>
+        <v>1851674</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4800</v>
+        <v>4762</v>
       </c>
       <c r="F246" t="n">
-        <v>3284</v>
+        <v>3248</v>
       </c>
       <c r="G246" t="n">
-        <v>3031</v>
+        <v>3026</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>44097</v>
       </c>
       <c r="B247" t="n">
-        <v>1847959</v>
+        <v>1856257</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>4622</v>
+        <v>4583</v>
       </c>
       <c r="F247" t="n">
-        <v>3109</v>
+        <v>3073</v>
       </c>
       <c r="G247" t="n">
-        <v>3025</v>
+        <v>3020</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>44098</v>
       </c>
       <c r="B248" t="n">
-        <v>1852408</v>
+        <v>1860666</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7567,13 +7567,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>4449</v>
+        <v>4409</v>
       </c>
       <c r="F248" t="n">
-        <v>2940</v>
+        <v>2902</v>
       </c>
       <c r="G248" t="n">
-        <v>3019</v>
+        <v>3014</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>44099</v>
       </c>
       <c r="B249" t="n">
-        <v>1856690</v>
+        <v>1864907</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>4282</v>
+        <v>4241</v>
       </c>
       <c r="F249" t="n">
-        <v>2776</v>
+        <v>2737</v>
       </c>
       <c r="G249" t="n">
-        <v>3013</v>
+        <v>3008</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>44100</v>
       </c>
       <c r="B250" t="n">
-        <v>1860810</v>
+        <v>1868985</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>4120</v>
+        <v>4078</v>
       </c>
       <c r="F250" t="n">
-        <v>2616</v>
+        <v>2577</v>
       </c>
       <c r="G250" t="n">
-        <v>3007</v>
+        <v>3002</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>44101</v>
       </c>
       <c r="B251" t="n">
-        <v>1864772</v>
+        <v>1872904</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>3962</v>
+        <v>3919</v>
       </c>
       <c r="F251" t="n">
-        <v>2462</v>
+        <v>2422</v>
       </c>
       <c r="G251" t="n">
-        <v>3001</v>
+        <v>2996</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -7672,7 +7672,7 @@
         <v>44102</v>
       </c>
       <c r="B252" t="n">
-        <v>1868582</v>
+        <v>1876670</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7683,13 +7683,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>3810</v>
+        <v>3766</v>
       </c>
       <c r="F252" t="n">
-        <v>2313</v>
+        <v>2272</v>
       </c>
       <c r="G252" t="n">
-        <v>2995</v>
+        <v>2990</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>44103</v>
       </c>
       <c r="B253" t="n">
-        <v>1872244</v>
+        <v>1880288</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7712,13 +7712,13 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3662</v>
+        <v>3618</v>
       </c>
       <c r="F253" t="n">
-        <v>2168</v>
+        <v>2126</v>
       </c>
       <c r="G253" t="n">
-        <v>2989</v>
+        <v>2984</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>44104</v>
       </c>
       <c r="B254" t="n">
-        <v>1875763</v>
+        <v>1883763</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7741,13 +7741,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3519</v>
+        <v>3475</v>
       </c>
       <c r="F254" t="n">
-        <v>2028</v>
+        <v>1986</v>
       </c>
       <c r="G254" t="n">
-        <v>2983</v>
+        <v>2978</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>44105</v>
       </c>
       <c r="B255" t="n">
-        <v>1879144</v>
+        <v>1887099</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7770,13 +7770,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>3381</v>
+        <v>3336</v>
       </c>
       <c r="F255" t="n">
-        <v>1893</v>
+        <v>1850</v>
       </c>
       <c r="G255" t="n">
-        <v>2977</v>
+        <v>2972</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -7788,7 +7788,7 @@
         <v>44106</v>
       </c>
       <c r="B256" t="n">
-        <v>1882391</v>
+        <v>1890301</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7799,13 +7799,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>3247</v>
+        <v>3202</v>
       </c>
       <c r="F256" t="n">
-        <v>1762</v>
+        <v>1719</v>
       </c>
       <c r="G256" t="n">
-        <v>2971</v>
+        <v>2966</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>44107</v>
       </c>
       <c r="B257" t="n">
-        <v>1885509</v>
+        <v>1893374</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7828,13 +7828,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>3118</v>
+        <v>3073</v>
       </c>
       <c r="F257" t="n">
-        <v>1635</v>
+        <v>1593</v>
       </c>
       <c r="G257" t="n">
-        <v>2965</v>
+        <v>2960</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="B258" t="n">
-        <v>1888502</v>
+        <v>1896322</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>2993</v>
+        <v>2948</v>
       </c>
       <c r="F258" t="n">
-        <v>1513</v>
+        <v>1470</v>
       </c>
       <c r="G258" t="n">
-        <v>2960</v>
+        <v>2954</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>44109</v>
       </c>
       <c r="B259" t="n">
-        <v>1891374</v>
+        <v>1899149</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7886,13 +7886,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>2872</v>
+        <v>2827</v>
       </c>
       <c r="F259" t="n">
-        <v>1395</v>
+        <v>1353</v>
       </c>
       <c r="G259" t="n">
-        <v>2954</v>
+        <v>2949</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -7904,7 +7904,7 @@
         <v>44110</v>
       </c>
       <c r="B260" t="n">
-        <v>1894130</v>
+        <v>1901859</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>2756</v>
+        <v>2710</v>
       </c>
       <c r="F260" t="n">
-        <v>1282</v>
+        <v>1239</v>
       </c>
       <c r="G260" t="n">
-        <v>2948</v>
+        <v>2943</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>44111</v>
       </c>
       <c r="B261" t="n">
-        <v>1896773</v>
+        <v>1904457</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>2643</v>
+        <v>2598</v>
       </c>
       <c r="F261" t="n">
-        <v>1172</v>
+        <v>1129</v>
       </c>
       <c r="G261" t="n">
-        <v>2942</v>
+        <v>2937</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>44112</v>
       </c>
       <c r="B262" t="n">
-        <v>1899307</v>
+        <v>1906946</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7973,13 +7973,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2534</v>
+        <v>2489</v>
       </c>
       <c r="F262" t="n">
-        <v>1066</v>
+        <v>1024</v>
       </c>
       <c r="G262" t="n">
-        <v>2937</v>
+        <v>2931</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>44113</v>
       </c>
       <c r="B263" t="n">
-        <v>1901737</v>
+        <v>1909331</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>2430</v>
+        <v>2385</v>
       </c>
       <c r="F263" t="n">
-        <v>964</v>
+        <v>922</v>
       </c>
       <c r="G263" t="n">
-        <v>2931</v>
+        <v>2926</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>44114</v>
       </c>
       <c r="B264" t="n">
-        <v>1904066</v>
+        <v>1911615</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>2329</v>
+        <v>2284</v>
       </c>
       <c r="F264" t="n">
-        <v>866</v>
+        <v>824</v>
       </c>
       <c r="G264" t="n">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>44115</v>
       </c>
       <c r="B265" t="n">
-        <v>1906297</v>
+        <v>1913802</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>2231</v>
+        <v>2187</v>
       </c>
       <c r="F265" t="n">
-        <v>771</v>
+        <v>730</v>
       </c>
       <c r="G265" t="n">
-        <v>2920</v>
+        <v>2915</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>44116</v>
       </c>
       <c r="B266" t="n">
-        <v>1908434</v>
+        <v>1915896</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -8089,13 +8089,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>2137</v>
+        <v>2094</v>
       </c>
       <c r="F266" t="n">
-        <v>680</v>
+        <v>639</v>
       </c>
       <c r="G266" t="n">
-        <v>2914</v>
+        <v>2909</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>44117</v>
       </c>
       <c r="B267" t="n">
-        <v>1910481</v>
+        <v>1917900</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2047</v>
+        <v>2004</v>
       </c>
       <c r="F267" t="n">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="G267" t="n">
-        <v>2909</v>
+        <v>2904</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>44118</v>
       </c>
       <c r="B268" t="n">
-        <v>1912441</v>
+        <v>1919817</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -8147,13 +8147,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1960</v>
+        <v>1917</v>
       </c>
       <c r="F268" t="n">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="G268" t="n">
-        <v>2903</v>
+        <v>2898</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>44119</v>
       </c>
       <c r="B269" t="n">
-        <v>1914317</v>
+        <v>1921651</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -8176,13 +8176,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1876</v>
+        <v>1834</v>
       </c>
       <c r="F269" t="n">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="G269" t="n">
-        <v>2898</v>
+        <v>2893</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -8194,7 +8194,7 @@
         <v>44120</v>
       </c>
       <c r="B270" t="n">
-        <v>1916113</v>
+        <v>1923405</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8205,13 +8205,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1796</v>
+        <v>1754</v>
       </c>
       <c r="F270" t="n">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="G270" t="n">
-        <v>2893</v>
+        <v>2887</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>44121</v>
       </c>
       <c r="B271" t="n">
-        <v>1917831</v>
+        <v>1925082</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1718</v>
+        <v>1677</v>
       </c>
       <c r="F271" t="n">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="G271" t="n">
-        <v>2887</v>
+        <v>2882</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>44122</v>
       </c>
       <c r="B272" t="n">
-        <v>1919475</v>
+        <v>1926685</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1644</v>
+        <v>1603</v>
       </c>
       <c r="F272" t="n">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="G272" t="n">
-        <v>2882</v>
+        <v>2877</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>44123</v>
       </c>
       <c r="B273" t="n">
-        <v>1921047</v>
+        <v>1928217</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1572</v>
+        <v>1532</v>
       </c>
       <c r="F273" t="n">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="G273" t="n">
-        <v>2876</v>
+        <v>2871</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>44124</v>
       </c>
       <c r="B274" t="n">
-        <v>1922550</v>
+        <v>1929681</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -8321,13 +8321,13 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1503</v>
+        <v>1464</v>
       </c>
       <c r="F274" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="G274" t="n">
-        <v>2871</v>
+        <v>2866</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>44125</v>
       </c>
       <c r="B275" t="n">
-        <v>1923987</v>
+        <v>1931080</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -8350,13 +8350,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1437</v>
+        <v>1399</v>
       </c>
       <c r="F275" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>2866</v>
+        <v>2829</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -8368,7 +8368,7 @@
         <v>44126</v>
       </c>
       <c r="B276" t="n">
-        <v>1925361</v>
+        <v>1932416</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1374</v>
+        <v>1336</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>2804</v>
+        <v>2764</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -8397,7 +8397,7 @@
         <v>44127</v>
       </c>
       <c r="B277" t="n">
-        <v>1926674</v>
+        <v>1933692</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -8408,13 +8408,13 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1313</v>
+        <v>1276</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>2740</v>
+        <v>2701</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>44128</v>
       </c>
       <c r="B278" t="n">
-        <v>1927928</v>
+        <v>1934910</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -8437,13 +8437,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1254</v>
+        <v>1218</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>2679</v>
+        <v>2641</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>44129</v>
       </c>
       <c r="B279" t="n">
-        <v>1929126</v>
+        <v>1936073</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -8466,13 +8466,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>1198</v>
+        <v>1163</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>2620</v>
+        <v>2583</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>44130</v>
       </c>
       <c r="B280" t="n">
-        <v>1930270</v>
+        <v>1937183</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -8495,13 +8495,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1144</v>
+        <v>1110</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>2564</v>
+        <v>2527</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -8513,7 +8513,7 @@
         <v>44131</v>
       </c>
       <c r="B281" t="n">
-        <v>1931362</v>
+        <v>1938242</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -8524,13 +8524,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>1092</v>
+        <v>1059</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>2510</v>
+        <v>2474</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>44132</v>
       </c>
       <c r="B282" t="n">
-        <v>1932405</v>
+        <v>1939252</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -8553,13 +8553,13 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>1043</v>
+        <v>1010</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>2458</v>
+        <v>2422</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         <v>44133</v>
       </c>
       <c r="B283" t="n">
-        <v>1933400</v>
+        <v>1940215</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -8582,13 +8582,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>995</v>
+        <v>963</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>2408</v>
+        <v>2373</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -8600,7 +8600,7 @@
         <v>44134</v>
       </c>
       <c r="B284" t="n">
-        <v>1934350</v>
+        <v>1941133</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -8611,13 +8611,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>950</v>
+        <v>918</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>2360</v>
+        <v>2326</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -8629,7 +8629,7 @@
         <v>44135</v>
       </c>
       <c r="B285" t="n">
-        <v>1935256</v>
+        <v>1942009</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -8640,13 +8640,13 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>906</v>
+        <v>876</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>2314</v>
+        <v>2281</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -8658,7 +8658,7 @@
         <v>44136</v>
       </c>
       <c r="B286" t="n">
-        <v>1936121</v>
+        <v>1942844</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8669,13 +8669,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>865</v>
+        <v>835</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>2269</v>
+        <v>2237</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>44137</v>
       </c>
       <c r="B287" t="n">
-        <v>1936946</v>
+        <v>1943639</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>825</v>
+        <v>795</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>2227</v>
+        <v>2195</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>44138</v>
       </c>
       <c r="B288" t="n">
-        <v>1937732</v>
+        <v>1944397</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -8727,13 +8727,13 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>2186</v>
+        <v>2155</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>44139</v>
       </c>
       <c r="B289" t="n">
-        <v>1938482</v>
+        <v>1945119</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -8756,13 +8756,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>2147</v>
+        <v>2117</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>44140</v>
       </c>
       <c r="B290" t="n">
-        <v>1939197</v>
+        <v>1945807</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -8785,25 +8785,30 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>715</v>
+        <v>688</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>2110</v>
+        <v>2080</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>11736</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>End 97% on
+05 November 2020</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="B291" t="n">
-        <v>1939878</v>
+        <v>1946462</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8814,30 +8819,25 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>2074</v>
+        <v>2045</v>
       </c>
       <c r="H291" t="n">
-        <v>11640</v>
-      </c>
-      <c r="I291" t="inlineStr">
-        <is>
-          <t>End 97% on
-06 November 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
         <v>44142</v>
       </c>
       <c r="B292" t="n">
-        <v>1940527</v>
+        <v>1947086</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8848,13 +8848,13 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>2039</v>
+        <v>2012</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>44143</v>
       </c>
       <c r="B293" t="n">
-        <v>1941145</v>
+        <v>1947680</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8877,13 +8877,13 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>2006</v>
+        <v>1979</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>44144</v>
       </c>
       <c r="B294" t="n">
-        <v>1941734</v>
+        <v>1948245</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8906,13 +8906,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1975</v>
+        <v>1948</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>44145</v>
       </c>
       <c r="B295" t="n">
-        <v>1942295</v>
+        <v>1948783</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>1944</v>
+        <v>1919</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -8953,7 +8953,7 @@
         <v>44146</v>
       </c>
       <c r="B296" t="n">
-        <v>1942829</v>
+        <v>1949295</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8964,13 +8964,13 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>1915</v>
+        <v>1890</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>44147</v>
       </c>
       <c r="B297" t="n">
-        <v>1943338</v>
+        <v>1949782</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8993,13 +8993,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>1887</v>
+        <v>1863</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>44148</v>
       </c>
       <c r="B298" t="n">
-        <v>1943822</v>
+        <v>1950245</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -9022,13 +9022,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>1861</v>
+        <v>1837</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>44149</v>
       </c>
       <c r="B299" t="n">
-        <v>1944283</v>
+        <v>1950686</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -9051,13 +9051,13 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>1835</v>
+        <v>1812</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -9069,7 +9069,7 @@
         <v>44150</v>
       </c>
       <c r="B300" t="n">
-        <v>1944722</v>
+        <v>1951105</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -9080,13 +9080,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1810</v>
+        <v>1788</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>44151</v>
       </c>
       <c r="B301" t="n">
-        <v>1945140</v>
+        <v>1951503</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -9109,13 +9109,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1787</v>
+        <v>1765</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>44152</v>
       </c>
       <c r="B302" t="n">
-        <v>1945537</v>
+        <v>1951882</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -9138,13 +9138,13 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1764</v>
+        <v>1743</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -9156,7 +9156,7 @@
         <v>44153</v>
       </c>
       <c r="B303" t="n">
-        <v>1945915</v>
+        <v>1952242</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1743</v>
+        <v>1722</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>44154</v>
       </c>
       <c r="B304" t="n">
-        <v>1946275</v>
+        <v>1952584</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -9196,13 +9196,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1722</v>
+        <v>1702</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9214,7 +9214,7 @@
         <v>44155</v>
       </c>
       <c r="B305" t="n">
-        <v>1946617</v>
+        <v>1952909</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1702</v>
+        <v>1683</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>44156</v>
       </c>
       <c r="B306" t="n">
-        <v>1946942</v>
+        <v>1953218</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -9254,13 +9254,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1683</v>
+        <v>1664</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>44157</v>
       </c>
       <c r="B307" t="n">
-        <v>1947251</v>
+        <v>1953511</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -9283,13 +9283,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1665</v>
+        <v>1647</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -9301,7 +9301,7 @@
         <v>44158</v>
       </c>
       <c r="B308" t="n">
-        <v>1947545</v>
+        <v>1953790</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -9312,13 +9312,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1647</v>
+        <v>1630</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>44159</v>
       </c>
       <c r="B309" t="n">
-        <v>1947824</v>
+        <v>1954055</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -9341,13 +9341,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1631</v>
+        <v>1614</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -9359,7 +9359,7 @@
         <v>44160</v>
       </c>
       <c r="B310" t="n">
-        <v>1948089</v>
+        <v>1954306</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -9370,13 +9370,13 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1615</v>
+        <v>1598</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -9388,7 +9388,7 @@
         <v>44161</v>
       </c>
       <c r="B311" t="n">
-        <v>1948341</v>
+        <v>1954545</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -9399,13 +9399,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1599</v>
+        <v>1583</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9417,7 +9417,7 @@
         <v>44162</v>
       </c>
       <c r="B312" t="n">
-        <v>1948581</v>
+        <v>1954772</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -9428,25 +9428,30 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1584</v>
+        <v>1569</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>7042</v>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>End 99% on
+27 November 2020</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="B313" t="n">
-        <v>1948809</v>
+        <v>1954987</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -9457,30 +9462,25 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1570</v>
+        <v>1555</v>
       </c>
       <c r="H313" t="n">
-        <v>6984</v>
-      </c>
-      <c r="I313" t="inlineStr">
-        <is>
-          <t>End 99% on
-28 November 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="B314" t="n">
-        <v>1949025</v>
+        <v>1955191</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1557</v>
+        <v>1542</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>44165</v>
       </c>
       <c r="B315" t="n">
-        <v>1949230</v>
+        <v>1955385</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -9520,13 +9520,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1544</v>
+        <v>1530</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9538,7 +9538,7 @@
         <v>44166</v>
       </c>
       <c r="B316" t="n">
-        <v>1949425</v>
+        <v>1955569</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -9549,13 +9549,13 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>44167</v>
       </c>
       <c r="B317" t="n">
-        <v>1949610</v>
+        <v>1955743</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1519</v>
+        <v>1506</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>44168</v>
       </c>
       <c r="B318" t="n">
-        <v>1949786</v>
+        <v>1955908</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1508</v>
+        <v>1495</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>44169</v>
       </c>
       <c r="B319" t="n">
-        <v>1949953</v>
+        <v>1956065</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -9636,13 +9636,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1497</v>
+        <v>1484</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>44170</v>
       </c>
       <c r="B320" t="n">
-        <v>1950112</v>
+        <v>1956214</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -9665,13 +9665,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1486</v>
+        <v>1474</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>44171</v>
       </c>
       <c r="B321" t="n">
-        <v>1950262</v>
+        <v>1956355</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -9694,13 +9694,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>1476</v>
+        <v>1464</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>44172</v>
       </c>
       <c r="B322" t="n">
-        <v>1950405</v>
+        <v>1956489</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>44173</v>
       </c>
       <c r="B323" t="n">
-        <v>1950540</v>
+        <v>1956616</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -9752,13 +9752,13 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1457</v>
+        <v>1446</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -9770,7 +9770,7 @@
         <v>44174</v>
       </c>
       <c r="B324" t="n">
-        <v>1950669</v>
+        <v>1956736</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -9781,13 +9781,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1448</v>
+        <v>1437</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>44175</v>
       </c>
       <c r="B325" t="n">
-        <v>1950791</v>
+        <v>1956850</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1439</v>
+        <v>1429</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>44176</v>
       </c>
       <c r="B326" t="n">
-        <v>1950907</v>
+        <v>1956958</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -9839,13 +9839,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1431</v>
+        <v>1421</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>44177</v>
       </c>
       <c r="B327" t="n">
-        <v>1951017</v>
+        <v>1957060</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1423</v>
+        <v>1413</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>44178</v>
       </c>
       <c r="B328" t="n">
-        <v>1951121</v>
+        <v>1957157</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>44179</v>
       </c>
       <c r="B329" t="n">
-        <v>1951220</v>
+        <v>1957249</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9926,13 +9926,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1408</v>
+        <v>1399</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>44180</v>
       </c>
       <c r="B330" t="n">
-        <v>1951314</v>
+        <v>1957336</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9955,13 +9955,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>44181</v>
       </c>
       <c r="B331" t="n">
-        <v>1951403</v>
+        <v>1957418</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>44182</v>
       </c>
       <c r="B332" t="n">
-        <v>1951487</v>
+        <v>1957496</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -10013,13 +10013,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>44183</v>
       </c>
       <c r="B333" t="n">
-        <v>1951567</v>
+        <v>1957570</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -10042,13 +10042,13 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>44184</v>
       </c>
       <c r="B334" t="n">
-        <v>1951643</v>
+        <v>1957640</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>44185</v>
       </c>
       <c r="B335" t="n">
-        <v>1951715</v>
+        <v>1957706</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>44186</v>
       </c>
       <c r="B336" t="n">
-        <v>1951783</v>
+        <v>1957769</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>44187</v>
       </c>
       <c r="B337" t="n">
-        <v>1951847</v>
+        <v>1957828</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>44188</v>
       </c>
       <c r="B338" t="n">
-        <v>1951908</v>
+        <v>1957884</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>44189</v>
       </c>
       <c r="B339" t="n">
-        <v>1951966</v>
+        <v>1957937</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>44190</v>
       </c>
       <c r="B340" t="n">
-        <v>1952021</v>
+        <v>1957987</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -10245,13 +10245,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>44191</v>
       </c>
       <c r="B341" t="n">
-        <v>1952073</v>
+        <v>1958035</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -10274,13 +10274,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>44192</v>
       </c>
       <c r="B342" t="n">
-        <v>1952122</v>
+        <v>1958080</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -10303,13 +10303,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>44193</v>
       </c>
       <c r="B343" t="n">
-        <v>1952168</v>
+        <v>1958123</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -10332,13 +10332,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>44194</v>
       </c>
       <c r="B344" t="n">
-        <v>1952212</v>
+        <v>1958163</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>44195</v>
       </c>
       <c r="B345" t="n">
-        <v>1952254</v>
+        <v>1958201</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>44196</v>
       </c>
       <c r="B346" t="n">
-        <v>1952293</v>
+        <v>1958237</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -10419,13 +10419,13 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>44197</v>
       </c>
       <c r="B347" t="n">
-        <v>1952330</v>
+        <v>1958271</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -10448,13 +10448,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>44198</v>
       </c>
       <c r="B348" t="n">
-        <v>1952365</v>
+        <v>1958303</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -10477,13 +10477,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>44199</v>
       </c>
       <c r="B349" t="n">
-        <v>1952399</v>
+        <v>1958334</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>44200</v>
       </c>
       <c r="B350" t="n">
-        <v>1952431</v>
+        <v>1958363</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>44201</v>
       </c>
       <c r="B351" t="n">
-        <v>1952461</v>
+        <v>1958390</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -10564,13 +10564,13 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -10582,7 +10582,7 @@
         <v>44202</v>
       </c>
       <c r="B352" t="n">
-        <v>1952489</v>
+        <v>1958416</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>44203</v>
       </c>
       <c r="B353" t="n">
-        <v>1952516</v>
+        <v>1958440</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -10622,13 +10622,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>44204</v>
       </c>
       <c r="B354" t="n">
-        <v>1952541</v>
+        <v>1958463</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>44205</v>
       </c>
       <c r="B355" t="n">
-        <v>1952565</v>
+        <v>1958485</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>44206</v>
       </c>
       <c r="B356" t="n">
-        <v>1952588</v>
+        <v>1958506</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -10709,13 +10709,13 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>44207</v>
       </c>
       <c r="B357" t="n">
-        <v>1952610</v>
+        <v>1958526</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -10738,13 +10738,13 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>44208</v>
       </c>
       <c r="B358" t="n">
-        <v>1952630</v>
+        <v>1958544</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -10767,13 +10767,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>44209</v>
       </c>
       <c r="B359" t="n">
-        <v>1952649</v>
+        <v>1958561</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -10796,13 +10796,13 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>44210</v>
       </c>
       <c r="B360" t="n">
-        <v>1952667</v>
+        <v>1958578</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>44211</v>
       </c>
       <c r="B361" t="n">
-        <v>1952684</v>
+        <v>1958594</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -10854,13 +10854,13 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>44212</v>
       </c>
       <c r="B362" t="n">
-        <v>1952700</v>
+        <v>1958609</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -10883,13 +10883,13 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>44213</v>
       </c>
       <c r="B363" t="n">
-        <v>1952715</v>
+        <v>1958623</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -10912,13 +10912,13 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>44214</v>
       </c>
       <c r="B364" t="n">
-        <v>1952730</v>
+        <v>1958636</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -10941,13 +10941,13 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>44215</v>
       </c>
       <c r="B365" t="n">
-        <v>1952744</v>
+        <v>1958648</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -10970,13 +10970,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>44216</v>
       </c>
       <c r="B366" t="n">
-        <v>1952757</v>
+        <v>1958660</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -10999,13 +10999,13 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>44217</v>
       </c>
       <c r="B367" t="n">
-        <v>1952769</v>
+        <v>1958671</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -11028,13 +11028,13 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -11046,7 +11046,7 @@
         <v>44218</v>
       </c>
       <c r="B368" t="n">
-        <v>1952781</v>
+        <v>1958681</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>44219</v>
       </c>
       <c r="B369" t="n">
-        <v>1952792</v>
+        <v>1958691</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -11086,13 +11086,13 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>44220</v>
       </c>
       <c r="B370" t="n">
-        <v>1952802</v>
+        <v>1958700</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -11115,13 +11115,13 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>44221</v>
       </c>
       <c r="B371" t="n">
-        <v>1952812</v>
+        <v>1958709</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -11144,13 +11144,13 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>44222</v>
       </c>
       <c r="B372" t="n">
-        <v>1952821</v>
+        <v>1958717</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -11173,13 +11173,13 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -11191,7 +11191,7 @@
         <v>44223</v>
       </c>
       <c r="B373" t="n">
-        <v>1952830</v>
+        <v>1958725</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -11202,13 +11202,13 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>44224</v>
       </c>
       <c r="B374" t="n">
-        <v>1952838</v>
+        <v>1958732</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -11231,13 +11231,13 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -11249,7 +11249,7 @@
         <v>44225</v>
       </c>
       <c r="B375" t="n">
-        <v>1952846</v>
+        <v>1958739</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -11260,13 +11260,13 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -11278,7 +11278,7 @@
         <v>44226</v>
       </c>
       <c r="B376" t="n">
-        <v>1952853</v>
+        <v>1958746</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>44227</v>
       </c>
       <c r="B377" t="n">
-        <v>1952860</v>
+        <v>1958752</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -11318,13 +11318,13 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>44228</v>
       </c>
       <c r="B378" t="n">
-        <v>1952867</v>
+        <v>1958758</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -11347,13 +11347,13 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>44229</v>
       </c>
       <c r="B379" t="n">
-        <v>1952873</v>
+        <v>1958764</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>44230</v>
       </c>
       <c r="B380" t="n">
-        <v>1952879</v>
+        <v>1958769</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -11405,13 +11405,13 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>44231</v>
       </c>
       <c r="B381" t="n">
-        <v>1952885</v>
+        <v>1958774</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>44232</v>
       </c>
       <c r="B382" t="n">
-        <v>1952890</v>
+        <v>1958779</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -11481,7 +11481,7 @@
         <v>44233</v>
       </c>
       <c r="B383" t="n">
-        <v>1952895</v>
+        <v>1958783</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -11492,13 +11492,13 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -11510,7 +11510,7 @@
         <v>44234</v>
       </c>
       <c r="B384" t="n">
-        <v>1952900</v>
+        <v>1958787</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -11521,13 +11521,13 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>44235</v>
       </c>
       <c r="B385" t="n">
-        <v>1952904</v>
+        <v>1958791</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -11568,7 +11568,7 @@
         <v>44236</v>
       </c>
       <c r="B386" t="n">
-        <v>1952908</v>
+        <v>1958795</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -11585,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>44237</v>
       </c>
       <c r="B387" t="n">
-        <v>1952912</v>
+        <v>1958799</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>44238</v>
       </c>
       <c r="B388" t="n">
-        <v>1952916</v>
+        <v>1958802</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -11637,13 +11637,13 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -11655,7 +11655,7 @@
         <v>44239</v>
       </c>
       <c r="B389" t="n">
-        <v>1952920</v>
+        <v>1958805</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -11666,13 +11666,13 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -11684,7 +11684,7 @@
         <v>44240</v>
       </c>
       <c r="B390" t="n">
-        <v>1952923</v>
+        <v>1958808</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -11701,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
         <v>44241</v>
       </c>
       <c r="B391" t="n">
-        <v>1952926</v>
+        <v>1958811</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>44242</v>
       </c>
       <c r="B392" t="n">
-        <v>1952929</v>
+        <v>1958814</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -11771,7 +11771,7 @@
         <v>44243</v>
       </c>
       <c r="B393" t="n">
-        <v>1952932</v>
+        <v>1958816</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -11782,13 +11782,13 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F393" t="n">
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -11800,7 +11800,7 @@
         <v>44244</v>
       </c>
       <c r="B394" t="n">
-        <v>1952935</v>
+        <v>1958818</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -11811,13 +11811,13 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F394" t="n">
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>44245</v>
       </c>
       <c r="B395" t="n">
-        <v>1952938</v>
+        <v>1958820</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -11840,13 +11840,13 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F395" t="n">
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="H395" t="n">
         <v>0</v>
@@ -11858,7 +11858,7 @@
         <v>44246</v>
       </c>
       <c r="B396" t="n">
-        <v>1952940</v>
+        <v>1958822</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="H396" t="n">
         <v>0</v>
@@ -11887,7 +11887,7 @@
         <v>44247</v>
       </c>
       <c r="B397" t="n">
-        <v>1952942</v>
+        <v>1958824</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -11916,7 +11916,7 @@
         <v>44248</v>
       </c>
       <c r="B398" t="n">
-        <v>1952944</v>
+        <v>1958826</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="G398" t="n">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="H398" t="n">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>44249</v>
       </c>
       <c r="B399" t="n">
-        <v>1952946</v>
+        <v>1958828</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -11962,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -11974,7 +11974,7 @@
         <v>44250</v>
       </c>
       <c r="B400" t="n">
-        <v>1952948</v>
+        <v>1958830</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -11991,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="H400" t="n">
         <v>0</v>
@@ -12003,7 +12003,7 @@
         <v>44251</v>
       </c>
       <c r="B401" t="n">
-        <v>1952950</v>
+        <v>1958832</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="H401" t="n">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>44252</v>
       </c>
       <c r="B402" t="n">
-        <v>1952952</v>
+        <v>1958833</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -12043,13 +12043,13 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F402" t="n">
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -12061,7 +12061,7 @@
         <v>44253</v>
       </c>
       <c r="B403" t="n">
-        <v>1952954</v>
+        <v>1958834</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -12072,13 +12072,13 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F403" t="n">
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -12090,7 +12090,7 @@
         <v>44254</v>
       </c>
       <c r="B404" t="n">
-        <v>1952956</v>
+        <v>1958835</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -12101,13 +12101,13 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F404" t="n">
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -12119,7 +12119,7 @@
         <v>44255</v>
       </c>
       <c r="B405" t="n">
-        <v>1952957</v>
+        <v>1958836</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -12148,7 +12148,7 @@
         <v>44256</v>
       </c>
       <c r="B406" t="n">
-        <v>1952958</v>
+        <v>1958837</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -12165,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="G406" t="n">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -12177,7 +12177,7 @@
         <v>44257</v>
       </c>
       <c r="B407" t="n">
-        <v>1952959</v>
+        <v>1958838</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -12194,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="G407" t="n">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -12206,7 +12206,7 @@
         <v>44258</v>
       </c>
       <c r="B408" t="n">
-        <v>1952960</v>
+        <v>1958839</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="G408" t="n">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>44259</v>
       </c>
       <c r="B409" t="n">
-        <v>1952961</v>
+        <v>1958840</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="G409" t="n">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -12264,7 +12264,7 @@
         <v>44260</v>
       </c>
       <c r="B410" t="n">
-        <v>1952962</v>
+        <v>1958841</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="G410" t="n">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -12293,7 +12293,7 @@
         <v>44261</v>
       </c>
       <c r="B411" t="n">
-        <v>1952963</v>
+        <v>1958842</v>
       </c>
       <c r="C411" t="n">
         <v>0</v>
@@ -12310,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="G411" t="n">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -12322,7 +12322,7 @@
         <v>44262</v>
       </c>
       <c r="B412" t="n">
-        <v>1952964</v>
+        <v>1958843</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="G412" t="n">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -12351,7 +12351,7 @@
         <v>44263</v>
       </c>
       <c r="B413" t="n">
-        <v>1952965</v>
+        <v>1958844</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="G413" t="n">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H413" t="n">
         <v>0</v>
@@ -12380,7 +12380,7 @@
         <v>44264</v>
       </c>
       <c r="B414" t="n">
-        <v>1952966</v>
+        <v>1958845</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="G414" t="n">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H414" t="n">
         <v>0</v>
@@ -12409,7 +12409,7 @@
         <v>44265</v>
       </c>
       <c r="B415" t="n">
-        <v>1952967</v>
+        <v>1958846</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="G415" t="n">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H415" t="n">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>44266</v>
       </c>
       <c r="B416" t="n">
-        <v>1952968</v>
+        <v>1958847</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -12455,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="G416" t="n">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H416" t="n">
         <v>0</v>
@@ -12467,7 +12467,7 @@
         <v>44267</v>
       </c>
       <c r="B417" t="n">
-        <v>1952969</v>
+        <v>1958848</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="G417" t="n">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="H417" t="n">
         <v>0</v>
@@ -12496,7 +12496,7 @@
         <v>44268</v>
       </c>
       <c r="B418" t="n">
-        <v>1952970</v>
+        <v>1958849</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -12513,7 +12513,7 @@
         <v>0</v>
       </c>
       <c r="G418" t="n">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H418" t="n">
         <v>0</v>
@@ -12525,7 +12525,7 @@
         <v>44269</v>
       </c>
       <c r="B419" t="n">
-        <v>1952971</v>
+        <v>1958850</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -12542,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="G419" t="n">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H419" t="n">
         <v>0</v>
@@ -12554,7 +12554,7 @@
         <v>44270</v>
       </c>
       <c r="B420" t="n">
-        <v>1952972</v>
+        <v>1958851</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -12571,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="G420" t="n">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H420" t="n">
         <v>0</v>
@@ -12583,7 +12583,7 @@
         <v>44271</v>
       </c>
       <c r="B421" t="n">
-        <v>1952973</v>
+        <v>1958851</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -12594,25 +12594,30 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F421" t="n">
         <v>0</v>
       </c>
       <c r="G421" t="n">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>11736</v>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>No new cases on
+16 March 2021</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
         <v>44272</v>
       </c>
       <c r="B422" t="n">
-        <v>1952974</v>
+        <v>1958851</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -12623,13 +12628,13 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F422" t="n">
         <v>0</v>
       </c>
       <c r="G422" t="n">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="H422" t="n">
         <v>0</v>
@@ -12641,7 +12646,7 @@
         <v>44273</v>
       </c>
       <c r="B423" t="n">
-        <v>1952975</v>
+        <v>1958851</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -12652,13 +12657,13 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F423" t="n">
         <v>0</v>
       </c>
       <c r="G423" t="n">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="H423" t="n">
         <v>0</v>
@@ -12670,7 +12675,7 @@
         <v>44274</v>
       </c>
       <c r="B424" t="n">
-        <v>1952975</v>
+        <v>1958851</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -12687,24 +12692,19 @@
         <v>0</v>
       </c>
       <c r="G424" t="n">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H424" t="n">
-        <v>11640</v>
-      </c>
-      <c r="I424" t="inlineStr">
-        <is>
-          <t>No new cases on
-19 March 2021</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
         <v>44275</v>
       </c>
       <c r="B425" t="n">
-        <v>1952975</v>
+        <v>1958851</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="G425" t="n">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H425" t="n">
         <v>0</v>
@@ -12733,7 +12733,7 @@
         <v>44276</v>
       </c>
       <c r="B426" t="n">
-        <v>1952975</v>
+        <v>1958851</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="H426" t="n">
         <v>0</v>
@@ -12762,7 +12762,7 @@
         <v>44277</v>
       </c>
       <c r="B427" t="n">
-        <v>1952975</v>
+        <v>1958851</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -12779,7 +12779,7 @@
         <v>0</v>
       </c>
       <c r="G427" t="n">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H427" t="n">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>44278</v>
       </c>
       <c r="B428" t="n">
-        <v>1952975</v>
+        <v>1958851</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -12808,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="G428" t="n">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H428" t="n">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>44279</v>
       </c>
       <c r="B429" t="n">
-        <v>1952975</v>
+        <v>1958851</v>
       </c>
       <c r="C429" t="n">
         <v>0</v>
@@ -12837,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="G429" t="n">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="H429" t="n">
         <v>0</v>
@@ -12849,7 +12849,7 @@
         <v>44280</v>
       </c>
       <c r="B430" t="n">
-        <v>1952975</v>
+        <v>1958851</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -12866,7 +12866,7 @@
         <v>0</v>
       </c>
       <c r="G430" t="n">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="H430" t="n">
         <v>0</v>
@@ -12878,7 +12878,7 @@
         <v>44281</v>
       </c>
       <c r="B431" t="n">
-        <v>1952975</v>
+        <v>1958851</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="G431" t="n">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H431" t="n">
         <v>0</v>
@@ -12907,7 +12907,7 @@
         <v>44282</v>
       </c>
       <c r="B432" t="n">
-        <v>1952975</v>
+        <v>1958851</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -12924,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="G432" t="n">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="H432" t="n">
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>44283</v>
       </c>
       <c r="B433" t="n">
-        <v>1952975</v>
+        <v>1958851</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -12953,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="G433" t="n">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="H433" t="n">
         <v>0</v>
@@ -12965,7 +12965,7 @@
         <v>44284</v>
       </c>
       <c r="B434" t="n">
-        <v>1952975</v>
+        <v>1958851</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -12982,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="G434" t="n">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H434" t="n">
         <v>0</v>
@@ -12994,7 +12994,7 @@
         <v>44285</v>
       </c>
       <c r="B435" t="n">
-        <v>1952975</v>
+        <v>1958851</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="G435" t="n">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H435" t="n">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>44286</v>
       </c>
       <c r="B436" t="n">
-        <v>1952975</v>
+        <v>1958851</v>
       </c>
       <c r="C436" t="n">
         <v>0</v>
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="G436" t="n">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H436" t="n">
         <v>0</v>

--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>476</v>
+        <v>415</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>547</v>
+        <v>479</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>626</v>
+        <v>551</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>714</v>
+        <v>631</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>811</v>
+        <v>721</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>918</v>
+        <v>819</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1035</v>
+        <v>928</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1164</v>
+        <v>1048</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1304</v>
+        <v>1179</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1456</v>
+        <v>1323</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1621</v>
+        <v>1478</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1800</v>
+        <v>1647</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1991</v>
+        <v>1830</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2197</v>
+        <v>2026</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>2417</v>
+        <v>2237</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2652</v>
+        <v>2463</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>2902</v>
+        <v>2704</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3166</v>
+        <v>2960</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3446</v>
+        <v>3232</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3740</v>
+        <v>3520</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>4050</v>
+        <v>3823</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4374</v>
+        <v>4141</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4714</v>
+        <v>4475</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>5067</v>
+        <v>4824</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>5435</v>
+        <v>5188</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>5816</v>
+        <v>5567</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>6210</v>
+        <v>5960</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6617</v>
+        <v>6366</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>7035</v>
+        <v>6785</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>7465</v>
+        <v>7216</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7905</v>
+        <v>7658</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>8354</v>
+        <v>8111</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>8811</v>
+        <v>8573</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9276</v>
+        <v>9044</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>9747</v>
+        <v>9523</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10223</v>
+        <v>10008</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10704</v>
+        <v>10498</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>11187</v>
+        <v>10992</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>11672</v>
+        <v>11489</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>12157</v>
+        <v>11987</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>12642</v>
+        <v>12486</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>13125</v>
+        <v>12983</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13605</v>
+        <v>13478</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>14080</v>
+        <v>13970</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>14549</v>
+        <v>14456</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>15012</v>
+        <v>14937</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>15467</v>
+        <v>15409</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>15912</v>
+        <v>15873</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16347</v>
+        <v>16327</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17181</v>
+        <v>17201</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17579</v>
+        <v>17618</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>17962</v>
+        <v>18021</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>18329</v>
+        <v>18408</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>18681</v>
+        <v>18779</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>19015</v>
+        <v>19133</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -5091,24 +5091,24 @@
         <v>44013</v>
       </c>
       <c r="B163" t="n">
-        <v>604813</v>
+        <v>604641</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>19160</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>19332</v>
+        <v>19469</v>
       </c>
       <c r="F163" t="n">
-        <v>17469</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>3725</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>44014</v>
       </c>
       <c r="B164" t="n">
-        <v>624444</v>
+        <v>624427</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -5131,13 +5131,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19631</v>
+        <v>19786</v>
       </c>
       <c r="F164" t="n">
-        <v>17774</v>
+        <v>17934</v>
       </c>
       <c r="G164" t="n">
-        <v>3714</v>
+        <v>3703</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>44015</v>
       </c>
       <c r="B165" t="n">
-        <v>644354</v>
+        <v>644510</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>19910</v>
+        <v>20083</v>
       </c>
       <c r="F165" t="n">
-        <v>18059</v>
+        <v>18238</v>
       </c>
       <c r="G165" t="n">
-        <v>3702</v>
+        <v>3691</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>44016</v>
       </c>
       <c r="B166" t="n">
-        <v>664525</v>
+        <v>664871</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -5189,13 +5189,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20171</v>
+        <v>20361</v>
       </c>
       <c r="F166" t="n">
-        <v>18325</v>
+        <v>18521</v>
       </c>
       <c r="G166" t="n">
-        <v>3691</v>
+        <v>3680</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>44017</v>
       </c>
       <c r="B167" t="n">
-        <v>684936</v>
+        <v>685490</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20411</v>
+        <v>20619</v>
       </c>
       <c r="F167" t="n">
-        <v>18571</v>
+        <v>18784</v>
       </c>
       <c r="G167" t="n">
-        <v>3680</v>
+        <v>3669</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>44018</v>
       </c>
       <c r="B168" t="n">
-        <v>705568</v>
+        <v>706345</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>20632</v>
+        <v>20855</v>
       </c>
       <c r="F168" t="n">
-        <v>18797</v>
+        <v>19027</v>
       </c>
       <c r="G168" t="n">
-        <v>3669</v>
+        <v>3658</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>44019</v>
       </c>
       <c r="B169" t="n">
-        <v>726400</v>
+        <v>727416</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5276,13 +5276,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>20832</v>
+        <v>21071</v>
       </c>
       <c r="F169" t="n">
-        <v>19003</v>
+        <v>19247</v>
       </c>
       <c r="G169" t="n">
-        <v>3658</v>
+        <v>3647</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>747411</v>
+        <v>748681</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>21011</v>
+        <v>21265</v>
       </c>
       <c r="F170" t="n">
-        <v>19187</v>
+        <v>19447</v>
       </c>
       <c r="G170" t="n">
-        <v>3647</v>
+        <v>3636</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>768580</v>
+        <v>770118</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>21169</v>
+        <v>21437</v>
       </c>
       <c r="F171" t="n">
-        <v>19351</v>
+        <v>19624</v>
       </c>
       <c r="G171" t="n">
-        <v>3636</v>
+        <v>3625</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>789886</v>
+        <v>791705</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21306</v>
+        <v>21587</v>
       </c>
       <c r="F172" t="n">
-        <v>19493</v>
+        <v>19780</v>
       </c>
       <c r="G172" t="n">
-        <v>3625</v>
+        <v>3614</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>811308</v>
+        <v>813421</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21422</v>
+        <v>21716</v>
       </c>
       <c r="F173" t="n">
-        <v>19615</v>
+        <v>19914</v>
       </c>
       <c r="G173" t="n">
-        <v>3615</v>
+        <v>3604</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>832826</v>
+        <v>835243</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>21518</v>
+        <v>21822</v>
       </c>
       <c r="F174" t="n">
-        <v>19715</v>
+        <v>20025</v>
       </c>
       <c r="G174" t="n">
-        <v>3604</v>
+        <v>3593</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>854418</v>
+        <v>857150</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>21592</v>
+        <v>21907</v>
       </c>
       <c r="F175" t="n">
-        <v>19795</v>
+        <v>20115</v>
       </c>
       <c r="G175" t="n">
-        <v>3594</v>
+        <v>3583</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>876063</v>
+        <v>879119</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>21645</v>
+        <v>21969</v>
       </c>
       <c r="F176" t="n">
-        <v>19854</v>
+        <v>20183</v>
       </c>
       <c r="G176" t="n">
-        <v>3583</v>
+        <v>3573</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>897741</v>
+        <v>901130</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>21678</v>
+        <v>22011</v>
       </c>
       <c r="F177" t="n">
-        <v>19892</v>
+        <v>20229</v>
       </c>
       <c r="G177" t="n">
-        <v>3573</v>
+        <v>3562</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>919432</v>
+        <v>923160</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>21691</v>
+        <v>22030</v>
       </c>
       <c r="F178" t="n">
-        <v>19909</v>
+        <v>20254</v>
       </c>
       <c r="G178" t="n">
-        <v>3563</v>
+        <v>3552</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>941116</v>
+        <v>945189</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>21684</v>
+        <v>22029</v>
       </c>
       <c r="F179" t="n">
-        <v>19907</v>
+        <v>20258</v>
       </c>
       <c r="G179" t="n">
-        <v>3553</v>
+        <v>3542</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>962773</v>
+        <v>967197</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>21657</v>
+        <v>22008</v>
       </c>
       <c r="F180" t="n">
-        <v>19885</v>
+        <v>20241</v>
       </c>
       <c r="G180" t="n">
-        <v>3543</v>
+        <v>3532</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>984383</v>
+        <v>989163</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>21610</v>
+        <v>21966</v>
       </c>
       <c r="F181" t="n">
-        <v>19844</v>
+        <v>20204</v>
       </c>
       <c r="G181" t="n">
-        <v>3533</v>
+        <v>3522</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>1005928</v>
+        <v>1011067</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>21545</v>
+        <v>21904</v>
       </c>
       <c r="F182" t="n">
-        <v>19784</v>
+        <v>20147</v>
       </c>
       <c r="G182" t="n">
-        <v>3523</v>
+        <v>3513</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>1027390</v>
+        <v>1032890</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21462</v>
+        <v>21823</v>
       </c>
       <c r="F183" t="n">
-        <v>19705</v>
+        <v>20071</v>
       </c>
       <c r="G183" t="n">
-        <v>3513</v>
+        <v>3503</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>1048751</v>
+        <v>1054613</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>21361</v>
+        <v>21723</v>
       </c>
       <c r="F184" t="n">
-        <v>19609</v>
+        <v>19976</v>
       </c>
       <c r="G184" t="n">
-        <v>3504</v>
+        <v>3493</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>1069993</v>
+        <v>1076218</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>21242</v>
+        <v>21605</v>
       </c>
       <c r="F185" t="n">
-        <v>19495</v>
+        <v>19863</v>
       </c>
       <c r="G185" t="n">
-        <v>3494</v>
+        <v>3484</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>1091100</v>
+        <v>1097687</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21107</v>
+        <v>21469</v>
       </c>
       <c r="F186" t="n">
-        <v>19365</v>
+        <v>19732</v>
       </c>
       <c r="G186" t="n">
-        <v>3485</v>
+        <v>3474</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>1112056</v>
+        <v>1119004</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20956</v>
+        <v>21317</v>
       </c>
       <c r="F187" t="n">
-        <v>19219</v>
+        <v>19584</v>
       </c>
       <c r="G187" t="n">
-        <v>3475</v>
+        <v>3465</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>1132846</v>
+        <v>1140152</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>20790</v>
+        <v>21148</v>
       </c>
       <c r="F188" t="n">
-        <v>19057</v>
+        <v>19420</v>
       </c>
       <c r="G188" t="n">
-        <v>3466</v>
+        <v>3456</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>1153455</v>
+        <v>1161115</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>20609</v>
+        <v>20963</v>
       </c>
       <c r="F189" t="n">
-        <v>18880</v>
+        <v>19240</v>
       </c>
       <c r="G189" t="n">
-        <v>3457</v>
+        <v>3446</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>1173868</v>
+        <v>1181879</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>20413</v>
+        <v>20764</v>
       </c>
       <c r="F190" t="n">
-        <v>18690</v>
+        <v>19045</v>
       </c>
       <c r="G190" t="n">
-        <v>3447</v>
+        <v>3437</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>1194073</v>
+        <v>1202429</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20205</v>
+        <v>20550</v>
       </c>
       <c r="F191" t="n">
-        <v>18485</v>
+        <v>18836</v>
       </c>
       <c r="G191" t="n">
-        <v>3438</v>
+        <v>3428</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>44042</v>
       </c>
       <c r="B192" t="n">
-        <v>1214056</v>
+        <v>1222752</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>19983</v>
+        <v>20323</v>
       </c>
       <c r="F192" t="n">
-        <v>18269</v>
+        <v>18614</v>
       </c>
       <c r="G192" t="n">
-        <v>3429</v>
+        <v>3419</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>44043</v>
       </c>
       <c r="B193" t="n">
-        <v>1233806</v>
+        <v>1242836</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19750</v>
+        <v>20084</v>
       </c>
       <c r="F193" t="n">
-        <v>18040</v>
+        <v>18379</v>
       </c>
       <c r="G193" t="n">
-        <v>3420</v>
+        <v>3410</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>44044</v>
       </c>
       <c r="B194" t="n">
-        <v>1253311</v>
+        <v>1262668</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19505</v>
+        <v>19832</v>
       </c>
       <c r="F194" t="n">
-        <v>17799</v>
+        <v>18132</v>
       </c>
       <c r="G194" t="n">
-        <v>3411</v>
+        <v>3401</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>44045</v>
       </c>
       <c r="B195" t="n">
-        <v>1272561</v>
+        <v>1282238</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19250</v>
+        <v>19570</v>
       </c>
       <c r="F195" t="n">
-        <v>17548</v>
+        <v>17873</v>
       </c>
       <c r="G195" t="n">
-        <v>3402</v>
+        <v>3392</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>44046</v>
       </c>
       <c r="B196" t="n">
-        <v>1291545</v>
+        <v>1301534</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>18984</v>
+        <v>19296</v>
       </c>
       <c r="F196" t="n">
-        <v>17287</v>
+        <v>17605</v>
       </c>
       <c r="G196" t="n">
-        <v>3394</v>
+        <v>3384</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>44047</v>
       </c>
       <c r="B197" t="n">
-        <v>1310255</v>
+        <v>1320547</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>18710</v>
+        <v>19013</v>
       </c>
       <c r="F197" t="n">
-        <v>17017</v>
+        <v>17326</v>
       </c>
       <c r="G197" t="n">
-        <v>3385</v>
+        <v>3375</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>44048</v>
       </c>
       <c r="B198" t="n">
-        <v>1328682</v>
+        <v>1339269</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>18427</v>
+        <v>18722</v>
       </c>
       <c r="F198" t="n">
-        <v>16739</v>
+        <v>17039</v>
       </c>
       <c r="G198" t="n">
-        <v>3376</v>
+        <v>3366</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>44049</v>
       </c>
       <c r="B199" t="n">
-        <v>1346818</v>
+        <v>1357691</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -6146,13 +6146,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>18136</v>
+        <v>18422</v>
       </c>
       <c r="F199" t="n">
-        <v>16453</v>
+        <v>16743</v>
       </c>
       <c r="G199" t="n">
-        <v>3368</v>
+        <v>3358</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>44050</v>
       </c>
       <c r="B200" t="n">
-        <v>1364657</v>
+        <v>1375805</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>17839</v>
+        <v>18114</v>
       </c>
       <c r="F200" t="n">
-        <v>16159</v>
+        <v>16440</v>
       </c>
       <c r="G200" t="n">
-        <v>3359</v>
+        <v>3349</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>44051</v>
       </c>
       <c r="B201" t="n">
-        <v>1382192</v>
+        <v>1393605</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -6204,13 +6204,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>17535</v>
+        <v>17800</v>
       </c>
       <c r="F201" t="n">
-        <v>15859</v>
+        <v>16130</v>
       </c>
       <c r="G201" t="n">
-        <v>3351</v>
+        <v>3341</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>44052</v>
       </c>
       <c r="B202" t="n">
-        <v>1399417</v>
+        <v>1411085</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>17225</v>
+        <v>17480</v>
       </c>
       <c r="F202" t="n">
-        <v>15554</v>
+        <v>15814</v>
       </c>
       <c r="G202" t="n">
-        <v>3342</v>
+        <v>3332</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>44053</v>
       </c>
       <c r="B203" t="n">
-        <v>1416327</v>
+        <v>1428240</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>16910</v>
+        <v>17155</v>
       </c>
       <c r="F203" t="n">
-        <v>15243</v>
+        <v>15493</v>
       </c>
       <c r="G203" t="n">
-        <v>3334</v>
+        <v>3324</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>44054</v>
       </c>
       <c r="B204" t="n">
-        <v>1432918</v>
+        <v>1445065</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>16591</v>
+        <v>16825</v>
       </c>
       <c r="F204" t="n">
-        <v>14928</v>
+        <v>15167</v>
       </c>
       <c r="G204" t="n">
-        <v>3326</v>
+        <v>3316</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>44055</v>
       </c>
       <c r="B205" t="n">
-        <v>1449186</v>
+        <v>1461556</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16268</v>
+        <v>16491</v>
       </c>
       <c r="F205" t="n">
-        <v>14609</v>
+        <v>14837</v>
       </c>
       <c r="G205" t="n">
-        <v>3318</v>
+        <v>3308</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>44056</v>
       </c>
       <c r="B206" t="n">
-        <v>1465127</v>
+        <v>1477709</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>15941</v>
+        <v>16153</v>
       </c>
       <c r="F206" t="n">
-        <v>14287</v>
+        <v>14504</v>
       </c>
       <c r="G206" t="n">
-        <v>3309</v>
+        <v>3300</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>44057</v>
       </c>
       <c r="B207" t="n">
-        <v>1480739</v>
+        <v>1493522</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>15612</v>
+        <v>15813</v>
       </c>
       <c r="F207" t="n">
-        <v>13962</v>
+        <v>14168</v>
       </c>
       <c r="G207" t="n">
-        <v>3301</v>
+        <v>3291</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>44058</v>
       </c>
       <c r="B208" t="n">
-        <v>1496020</v>
+        <v>1508993</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>15281</v>
+        <v>15471</v>
       </c>
       <c r="F208" t="n">
-        <v>13635</v>
+        <v>13830</v>
       </c>
       <c r="G208" t="n">
-        <v>3293</v>
+        <v>3283</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>44059</v>
       </c>
       <c r="B209" t="n">
-        <v>1510969</v>
+        <v>1524121</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>14949</v>
+        <v>15128</v>
       </c>
       <c r="F209" t="n">
-        <v>13306</v>
+        <v>13490</v>
       </c>
       <c r="G209" t="n">
-        <v>3285</v>
+        <v>3276</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>44060</v>
       </c>
       <c r="B210" t="n">
-        <v>1525585</v>
+        <v>1538904</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>14616</v>
+        <v>14783</v>
       </c>
       <c r="F210" t="n">
-        <v>12977</v>
+        <v>13149</v>
       </c>
       <c r="G210" t="n">
-        <v>3277</v>
+        <v>3268</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>44061</v>
       </c>
       <c r="B211" t="n">
-        <v>1539867</v>
+        <v>1553342</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14282</v>
+        <v>14438</v>
       </c>
       <c r="F211" t="n">
-        <v>12647</v>
+        <v>12808</v>
       </c>
       <c r="G211" t="n">
-        <v>3270</v>
+        <v>3260</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>44062</v>
       </c>
       <c r="B212" t="n">
-        <v>1553815</v>
+        <v>1567436</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>13948</v>
+        <v>14094</v>
       </c>
       <c r="F212" t="n">
-        <v>12317</v>
+        <v>12468</v>
       </c>
       <c r="G212" t="n">
-        <v>3262</v>
+        <v>3252</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>44063</v>
       </c>
       <c r="B213" t="n">
-        <v>1567430</v>
+        <v>1581186</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>13615</v>
+        <v>13750</v>
       </c>
       <c r="F213" t="n">
-        <v>11988</v>
+        <v>12127</v>
       </c>
       <c r="G213" t="n">
-        <v>3254</v>
+        <v>3244</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>44064</v>
       </c>
       <c r="B214" t="n">
-        <v>1580713</v>
+        <v>1594593</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>13283</v>
+        <v>13407</v>
       </c>
       <c r="F214" t="n">
-        <v>11660</v>
+        <v>11788</v>
       </c>
       <c r="G214" t="n">
-        <v>3246</v>
+        <v>3237</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>44065</v>
       </c>
       <c r="B215" t="n">
-        <v>1593665</v>
+        <v>1607658</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6610,13 +6610,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>12952</v>
+        <v>13065</v>
       </c>
       <c r="F215" t="n">
-        <v>11333</v>
+        <v>11451</v>
       </c>
       <c r="G215" t="n">
-        <v>3239</v>
+        <v>3229</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>44066</v>
       </c>
       <c r="B216" t="n">
-        <v>1606288</v>
+        <v>1620384</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12623</v>
+        <v>12726</v>
       </c>
       <c r="F216" t="n">
-        <v>11008</v>
+        <v>11115</v>
       </c>
       <c r="G216" t="n">
-        <v>3231</v>
+        <v>3222</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>44067</v>
       </c>
       <c r="B217" t="n">
-        <v>1618585</v>
+        <v>1632773</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12297</v>
+        <v>12389</v>
       </c>
       <c r="F217" t="n">
-        <v>10685</v>
+        <v>10782</v>
       </c>
       <c r="G217" t="n">
-        <v>3224</v>
+        <v>3214</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>44068</v>
       </c>
       <c r="B218" t="n">
-        <v>1630557</v>
+        <v>1644827</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>11972</v>
+        <v>12054</v>
       </c>
       <c r="F218" t="n">
-        <v>10364</v>
+        <v>10451</v>
       </c>
       <c r="G218" t="n">
-        <v>3216</v>
+        <v>3207</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44069</v>
       </c>
       <c r="B219" t="n">
-        <v>1642208</v>
+        <v>1656550</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>11651</v>
+        <v>11723</v>
       </c>
       <c r="F219" t="n">
-        <v>10047</v>
+        <v>10124</v>
       </c>
       <c r="G219" t="n">
-        <v>3209</v>
+        <v>3199</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>44070</v>
       </c>
       <c r="B220" t="n">
-        <v>1653541</v>
+        <v>1667945</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>11333</v>
+        <v>11395</v>
       </c>
       <c r="F220" t="n">
-        <v>9732</v>
+        <v>9800</v>
       </c>
       <c r="G220" t="n">
-        <v>3201</v>
+        <v>3192</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>44071</v>
       </c>
       <c r="B221" t="n">
-        <v>1664559</v>
+        <v>1679016</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>11018</v>
+        <v>11071</v>
       </c>
       <c r="F221" t="n">
-        <v>9421</v>
+        <v>9479</v>
       </c>
       <c r="G221" t="n">
-        <v>3194</v>
+        <v>3185</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>44072</v>
       </c>
       <c r="B222" t="n">
-        <v>1675266</v>
+        <v>1689767</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10707</v>
+        <v>10751</v>
       </c>
       <c r="F222" t="n">
-        <v>9114</v>
+        <v>9163</v>
       </c>
       <c r="G222" t="n">
-        <v>3187</v>
+        <v>3177</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>44073</v>
       </c>
       <c r="B223" t="n">
-        <v>1685666</v>
+        <v>1700203</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>10400</v>
+        <v>10436</v>
       </c>
       <c r="F223" t="n">
-        <v>8810</v>
+        <v>8851</v>
       </c>
       <c r="G223" t="n">
-        <v>3180</v>
+        <v>3170</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>44074</v>
       </c>
       <c r="B224" t="n">
-        <v>1695764</v>
+        <v>1710328</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>10098</v>
+        <v>10125</v>
       </c>
       <c r="F224" t="n">
-        <v>8511</v>
+        <v>8543</v>
       </c>
       <c r="G224" t="n">
-        <v>3172</v>
+        <v>3163</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>44075</v>
       </c>
       <c r="B225" t="n">
-        <v>1705563</v>
+        <v>1720146</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>9799</v>
+        <v>9818</v>
       </c>
       <c r="F225" t="n">
-        <v>8217</v>
+        <v>8240</v>
       </c>
       <c r="G225" t="n">
-        <v>3165</v>
+        <v>3156</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>44076</v>
       </c>
       <c r="B226" t="n">
-        <v>1715069</v>
+        <v>1729663</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>9506</v>
+        <v>9517</v>
       </c>
       <c r="F226" t="n">
-        <v>7927</v>
+        <v>7942</v>
       </c>
       <c r="G226" t="n">
-        <v>3158</v>
+        <v>3149</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>44077</v>
       </c>
       <c r="B227" t="n">
-        <v>1724286</v>
+        <v>1738883</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9217</v>
+        <v>9220</v>
       </c>
       <c r="F227" t="n">
-        <v>7641</v>
+        <v>7650</v>
       </c>
       <c r="G227" t="n">
-        <v>3151</v>
+        <v>3142</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>44078</v>
       </c>
       <c r="B228" t="n">
-        <v>1733219</v>
+        <v>1747812</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8933</v>
+        <v>8929</v>
       </c>
       <c r="F228" t="n">
-        <v>7361</v>
+        <v>7362</v>
       </c>
       <c r="G228" t="n">
-        <v>3144</v>
+        <v>3135</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>44079</v>
       </c>
       <c r="B229" t="n">
-        <v>1741873</v>
+        <v>1756456</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>8654</v>
+        <v>8644</v>
       </c>
       <c r="F229" t="n">
-        <v>7086</v>
+        <v>7080</v>
       </c>
       <c r="G229" t="n">
-        <v>3137</v>
+        <v>3128</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>44080</v>
       </c>
       <c r="B230" t="n">
-        <v>1750254</v>
+        <v>1764820</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>8381</v>
+        <v>8364</v>
       </c>
       <c r="F230" t="n">
-        <v>6816</v>
+        <v>6803</v>
       </c>
       <c r="G230" t="n">
-        <v>3130</v>
+        <v>3121</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>44081</v>
       </c>
       <c r="B231" t="n">
-        <v>1758367</v>
+        <v>1772909</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8113</v>
+        <v>8089</v>
       </c>
       <c r="F231" t="n">
-        <v>6551</v>
+        <v>6532</v>
       </c>
       <c r="G231" t="n">
-        <v>3124</v>
+        <v>3114</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>44082</v>
       </c>
       <c r="B232" t="n">
-        <v>1766217</v>
+        <v>1780730</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>7850</v>
+        <v>7821</v>
       </c>
       <c r="F232" t="n">
-        <v>6292</v>
+        <v>6267</v>
       </c>
       <c r="G232" t="n">
-        <v>3117</v>
+        <v>3107</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>44083</v>
       </c>
       <c r="B233" t="n">
-        <v>1773810</v>
+        <v>1788288</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>7593</v>
+        <v>7558</v>
       </c>
       <c r="F233" t="n">
-        <v>6038</v>
+        <v>6008</v>
       </c>
       <c r="G233" t="n">
-        <v>3110</v>
+        <v>3101</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>44084</v>
       </c>
       <c r="B234" t="n">
-        <v>1781151</v>
+        <v>1795589</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>7341</v>
+        <v>7301</v>
       </c>
       <c r="F234" t="n">
-        <v>5789</v>
+        <v>5754</v>
       </c>
       <c r="G234" t="n">
-        <v>3103</v>
+        <v>3094</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>44085</v>
       </c>
       <c r="B235" t="n">
-        <v>1788246</v>
+        <v>1802639</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>7095</v>
+        <v>7050</v>
       </c>
       <c r="F235" t="n">
-        <v>5547</v>
+        <v>5506</v>
       </c>
       <c r="G235" t="n">
-        <v>3097</v>
+        <v>3087</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>44086</v>
       </c>
       <c r="B236" t="n">
-        <v>1795101</v>
+        <v>1809444</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>6855</v>
+        <v>6805</v>
       </c>
       <c r="F236" t="n">
-        <v>5310</v>
+        <v>5265</v>
       </c>
       <c r="G236" t="n">
-        <v>3090</v>
+        <v>3081</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>44087</v>
       </c>
       <c r="B237" t="n">
-        <v>1801721</v>
+        <v>1816010</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>6620</v>
+        <v>6566</v>
       </c>
       <c r="F237" t="n">
-        <v>5078</v>
+        <v>5029</v>
       </c>
       <c r="G237" t="n">
-        <v>3083</v>
+        <v>3074</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>44088</v>
       </c>
       <c r="B238" t="n">
-        <v>1808112</v>
+        <v>1822343</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -7277,13 +7277,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>6391</v>
+        <v>6333</v>
       </c>
       <c r="F238" t="n">
-        <v>4852</v>
+        <v>4799</v>
       </c>
       <c r="G238" t="n">
-        <v>3077</v>
+        <v>3068</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>44089</v>
       </c>
       <c r="B239" t="n">
-        <v>1814280</v>
+        <v>1828449</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>6168</v>
+        <v>6106</v>
       </c>
       <c r="F239" t="n">
-        <v>4632</v>
+        <v>4575</v>
       </c>
       <c r="G239" t="n">
-        <v>3070</v>
+        <v>3061</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>44090</v>
       </c>
       <c r="B240" t="n">
-        <v>1820230</v>
+        <v>1834334</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5950</v>
+        <v>5885</v>
       </c>
       <c r="F240" t="n">
-        <v>4418</v>
+        <v>4357</v>
       </c>
       <c r="G240" t="n">
-        <v>3064</v>
+        <v>3055</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>44091</v>
       </c>
       <c r="B241" t="n">
-        <v>1825968</v>
+        <v>1840003</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>5738</v>
+        <v>5669</v>
       </c>
       <c r="F241" t="n">
-        <v>4209</v>
+        <v>4145</v>
       </c>
       <c r="G241" t="n">
-        <v>3058</v>
+        <v>3048</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>44092</v>
       </c>
       <c r="B242" t="n">
-        <v>1831499</v>
+        <v>1845463</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>5531</v>
+        <v>5460</v>
       </c>
       <c r="F242" t="n">
-        <v>4006</v>
+        <v>3939</v>
       </c>
       <c r="G242" t="n">
-        <v>3051</v>
+        <v>3042</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>44093</v>
       </c>
       <c r="B243" t="n">
-        <v>1836830</v>
+        <v>1850720</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>5331</v>
+        <v>5257</v>
       </c>
       <c r="F243" t="n">
-        <v>3808</v>
+        <v>3739</v>
       </c>
       <c r="G243" t="n">
-        <v>3045</v>
+        <v>3036</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>44094</v>
       </c>
       <c r="B244" t="n">
-        <v>1841966</v>
+        <v>1855779</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>5136</v>
+        <v>5059</v>
       </c>
       <c r="F244" t="n">
-        <v>3616</v>
+        <v>3544</v>
       </c>
       <c r="G244" t="n">
-        <v>3039</v>
+        <v>3029</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>44095</v>
       </c>
       <c r="B245" t="n">
-        <v>1846912</v>
+        <v>1860646</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>4946</v>
+        <v>4867</v>
       </c>
       <c r="F245" t="n">
-        <v>3430</v>
+        <v>3356</v>
       </c>
       <c r="G245" t="n">
-        <v>3032</v>
+        <v>3023</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>44096</v>
       </c>
       <c r="B246" t="n">
-        <v>1851674</v>
+        <v>1865327</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4762</v>
+        <v>4681</v>
       </c>
       <c r="F246" t="n">
-        <v>3248</v>
+        <v>3173</v>
       </c>
       <c r="G246" t="n">
-        <v>3026</v>
+        <v>3017</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>44097</v>
       </c>
       <c r="B247" t="n">
-        <v>1856257</v>
+        <v>1869828</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>4583</v>
+        <v>4501</v>
       </c>
       <c r="F247" t="n">
-        <v>3073</v>
+        <v>2995</v>
       </c>
       <c r="G247" t="n">
-        <v>3020</v>
+        <v>3011</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>44098</v>
       </c>
       <c r="B248" t="n">
-        <v>1860666</v>
+        <v>1874154</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7567,13 +7567,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>4409</v>
+        <v>4326</v>
       </c>
       <c r="F248" t="n">
-        <v>2902</v>
+        <v>2823</v>
       </c>
       <c r="G248" t="n">
-        <v>3014</v>
+        <v>3005</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>44099</v>
       </c>
       <c r="B249" t="n">
-        <v>1864907</v>
+        <v>1878310</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>4241</v>
+        <v>4156</v>
       </c>
       <c r="F249" t="n">
-        <v>2737</v>
+        <v>2657</v>
       </c>
       <c r="G249" t="n">
-        <v>3008</v>
+        <v>2999</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>44100</v>
       </c>
       <c r="B250" t="n">
-        <v>1868985</v>
+        <v>1882302</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>4078</v>
+        <v>3992</v>
       </c>
       <c r="F250" t="n">
-        <v>2577</v>
+        <v>2495</v>
       </c>
       <c r="G250" t="n">
-        <v>3002</v>
+        <v>2993</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>44101</v>
       </c>
       <c r="B251" t="n">
-        <v>1872904</v>
+        <v>1886135</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>3919</v>
+        <v>3833</v>
       </c>
       <c r="F251" t="n">
-        <v>2422</v>
+        <v>2340</v>
       </c>
       <c r="G251" t="n">
-        <v>2996</v>
+        <v>2987</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -7672,7 +7672,7 @@
         <v>44102</v>
       </c>
       <c r="B252" t="n">
-        <v>1876670</v>
+        <v>1889814</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7683,13 +7683,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>3766</v>
+        <v>3679</v>
       </c>
       <c r="F252" t="n">
-        <v>2272</v>
+        <v>2189</v>
       </c>
       <c r="G252" t="n">
-        <v>2990</v>
+        <v>2981</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>44103</v>
       </c>
       <c r="B253" t="n">
-        <v>1880288</v>
+        <v>1893344</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7712,13 +7712,13 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3618</v>
+        <v>3530</v>
       </c>
       <c r="F253" t="n">
-        <v>2126</v>
+        <v>2043</v>
       </c>
       <c r="G253" t="n">
-        <v>2984</v>
+        <v>2975</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>44104</v>
       </c>
       <c r="B254" t="n">
-        <v>1883763</v>
+        <v>1896731</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7741,13 +7741,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3475</v>
+        <v>3387</v>
       </c>
       <c r="F254" t="n">
-        <v>1986</v>
+        <v>1902</v>
       </c>
       <c r="G254" t="n">
-        <v>2978</v>
+        <v>2969</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>44105</v>
       </c>
       <c r="B255" t="n">
-        <v>1887099</v>
+        <v>1899979</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7770,13 +7770,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>3336</v>
+        <v>3248</v>
       </c>
       <c r="F255" t="n">
-        <v>1850</v>
+        <v>1767</v>
       </c>
       <c r="G255" t="n">
-        <v>2972</v>
+        <v>2963</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -7788,7 +7788,7 @@
         <v>44106</v>
       </c>
       <c r="B256" t="n">
-        <v>1890301</v>
+        <v>1903093</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7799,13 +7799,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>3202</v>
+        <v>3114</v>
       </c>
       <c r="F256" t="n">
-        <v>1719</v>
+        <v>1635</v>
       </c>
       <c r="G256" t="n">
-        <v>2966</v>
+        <v>2957</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>44107</v>
       </c>
       <c r="B257" t="n">
-        <v>1893374</v>
+        <v>1906078</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7828,13 +7828,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>3073</v>
+        <v>2985</v>
       </c>
       <c r="F257" t="n">
-        <v>1593</v>
+        <v>1509</v>
       </c>
       <c r="G257" t="n">
-        <v>2960</v>
+        <v>2951</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="B258" t="n">
-        <v>1896322</v>
+        <v>1908938</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>2948</v>
+        <v>2860</v>
       </c>
       <c r="F258" t="n">
-        <v>1470</v>
+        <v>1387</v>
       </c>
       <c r="G258" t="n">
-        <v>2954</v>
+        <v>2945</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>44109</v>
       </c>
       <c r="B259" t="n">
-        <v>1899149</v>
+        <v>1911677</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7886,13 +7886,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>2827</v>
+        <v>2739</v>
       </c>
       <c r="F259" t="n">
-        <v>1353</v>
+        <v>1270</v>
       </c>
       <c r="G259" t="n">
-        <v>2949</v>
+        <v>2940</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -7904,7 +7904,7 @@
         <v>44110</v>
       </c>
       <c r="B260" t="n">
-        <v>1901859</v>
+        <v>1914300</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>2710</v>
+        <v>2623</v>
       </c>
       <c r="F260" t="n">
-        <v>1239</v>
+        <v>1156</v>
       </c>
       <c r="G260" t="n">
-        <v>2943</v>
+        <v>2934</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>44111</v>
       </c>
       <c r="B261" t="n">
-        <v>1904457</v>
+        <v>1916812</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>2598</v>
+        <v>2512</v>
       </c>
       <c r="F261" t="n">
-        <v>1129</v>
+        <v>1047</v>
       </c>
       <c r="G261" t="n">
-        <v>2937</v>
+        <v>2928</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>44112</v>
       </c>
       <c r="B262" t="n">
-        <v>1906946</v>
+        <v>1919216</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7973,13 +7973,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2489</v>
+        <v>2404</v>
       </c>
       <c r="F262" t="n">
-        <v>1024</v>
+        <v>942</v>
       </c>
       <c r="G262" t="n">
-        <v>2931</v>
+        <v>2923</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>44113</v>
       </c>
       <c r="B263" t="n">
-        <v>1909331</v>
+        <v>1921516</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>2385</v>
+        <v>2300</v>
       </c>
       <c r="F263" t="n">
-        <v>922</v>
+        <v>842</v>
       </c>
       <c r="G263" t="n">
-        <v>2926</v>
+        <v>2917</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>44114</v>
       </c>
       <c r="B264" t="n">
-        <v>1911615</v>
+        <v>1923716</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>2284</v>
+        <v>2200</v>
       </c>
       <c r="F264" t="n">
-        <v>824</v>
+        <v>745</v>
       </c>
       <c r="G264" t="n">
-        <v>2920</v>
+        <v>2912</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>44115</v>
       </c>
       <c r="B265" t="n">
-        <v>1913802</v>
+        <v>1925820</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>2187</v>
+        <v>2104</v>
       </c>
       <c r="F265" t="n">
-        <v>730</v>
+        <v>651</v>
       </c>
       <c r="G265" t="n">
-        <v>2915</v>
+        <v>2906</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>44116</v>
       </c>
       <c r="B266" t="n">
-        <v>1915896</v>
+        <v>1927832</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -8089,13 +8089,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>2094</v>
+        <v>2012</v>
       </c>
       <c r="F266" t="n">
-        <v>639</v>
+        <v>562</v>
       </c>
       <c r="G266" t="n">
-        <v>2909</v>
+        <v>2900</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>44117</v>
       </c>
       <c r="B267" t="n">
-        <v>1917900</v>
+        <v>1929755</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2004</v>
+        <v>1923</v>
       </c>
       <c r="F267" t="n">
-        <v>552</v>
+        <v>476</v>
       </c>
       <c r="G267" t="n">
-        <v>2904</v>
+        <v>2895</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>44118</v>
       </c>
       <c r="B268" t="n">
-        <v>1919817</v>
+        <v>1931593</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -8147,13 +8147,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1917</v>
+        <v>1838</v>
       </c>
       <c r="F268" t="n">
-        <v>468</v>
+        <v>393</v>
       </c>
       <c r="G268" t="n">
-        <v>2898</v>
+        <v>2890</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>44119</v>
       </c>
       <c r="B269" t="n">
-        <v>1921651</v>
+        <v>1933349</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -8176,13 +8176,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1834</v>
+        <v>1756</v>
       </c>
       <c r="F269" t="n">
-        <v>388</v>
+        <v>314</v>
       </c>
       <c r="G269" t="n">
-        <v>2893</v>
+        <v>2884</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -8194,7 +8194,7 @@
         <v>44120</v>
       </c>
       <c r="B270" t="n">
-        <v>1923405</v>
+        <v>1935026</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8205,13 +8205,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1754</v>
+        <v>1677</v>
       </c>
       <c r="F270" t="n">
-        <v>311</v>
+        <v>238</v>
       </c>
       <c r="G270" t="n">
-        <v>2887</v>
+        <v>2879</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>44121</v>
       </c>
       <c r="B271" t="n">
-        <v>1925082</v>
+        <v>1936628</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1677</v>
+        <v>1602</v>
       </c>
       <c r="F271" t="n">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="G271" t="n">
-        <v>2882</v>
+        <v>2873</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>44122</v>
       </c>
       <c r="B272" t="n">
-        <v>1926685</v>
+        <v>1938157</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1603</v>
+        <v>1529</v>
       </c>
       <c r="F272" t="n">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="G272" t="n">
-        <v>2877</v>
+        <v>2868</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>44123</v>
       </c>
       <c r="B273" t="n">
-        <v>1928217</v>
+        <v>1939617</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1532</v>
+        <v>1460</v>
       </c>
       <c r="F273" t="n">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="G273" t="n">
-        <v>2871</v>
+        <v>2863</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>44124</v>
       </c>
       <c r="B274" t="n">
-        <v>1929681</v>
+        <v>1941010</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -8321,13 +8321,13 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1464</v>
+        <v>1393</v>
       </c>
       <c r="F274" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>2866</v>
+        <v>2822</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>44125</v>
       </c>
       <c r="B275" t="n">
-        <v>1931080</v>
+        <v>1942339</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -8350,13 +8350,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1399</v>
+        <v>1329</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>2829</v>
+        <v>2755</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -8368,7 +8368,7 @@
         <v>44126</v>
       </c>
       <c r="B276" t="n">
-        <v>1932416</v>
+        <v>1943607</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1336</v>
+        <v>1268</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>2764</v>
+        <v>2691</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -8397,7 +8397,7 @@
         <v>44127</v>
       </c>
       <c r="B277" t="n">
-        <v>1933692</v>
+        <v>1944816</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -8408,13 +8408,13 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1276</v>
+        <v>1209</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>2701</v>
+        <v>2630</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>44128</v>
       </c>
       <c r="B278" t="n">
-        <v>1934910</v>
+        <v>1945968</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -8437,13 +8437,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1218</v>
+        <v>1152</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>2641</v>
+        <v>2571</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>44129</v>
       </c>
       <c r="B279" t="n">
-        <v>1936073</v>
+        <v>1947067</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -8466,13 +8466,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>1163</v>
+        <v>1099</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>2583</v>
+        <v>2514</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>44130</v>
       </c>
       <c r="B280" t="n">
-        <v>1937183</v>
+        <v>1948114</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -8495,13 +8495,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1110</v>
+        <v>1047</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>2527</v>
+        <v>2460</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -8513,7 +8513,7 @@
         <v>44131</v>
       </c>
       <c r="B281" t="n">
-        <v>1938242</v>
+        <v>1949112</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -8524,13 +8524,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>1059</v>
+        <v>998</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>2474</v>
+        <v>2408</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>44132</v>
       </c>
       <c r="B282" t="n">
-        <v>1939252</v>
+        <v>1950062</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -8553,13 +8553,13 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>1010</v>
+        <v>950</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>2422</v>
+        <v>2359</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         <v>44133</v>
       </c>
       <c r="B283" t="n">
-        <v>1940215</v>
+        <v>1950967</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -8582,13 +8582,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>963</v>
+        <v>905</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>2373</v>
+        <v>2311</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -8600,7 +8600,7 @@
         <v>44134</v>
       </c>
       <c r="B284" t="n">
-        <v>1941133</v>
+        <v>1951829</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -8611,13 +8611,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>918</v>
+        <v>862</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>2326</v>
+        <v>2265</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -8629,7 +8629,7 @@
         <v>44135</v>
       </c>
       <c r="B285" t="n">
-        <v>1942009</v>
+        <v>1952650</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -8640,13 +8640,13 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>876</v>
+        <v>821</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>2281</v>
+        <v>2221</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -8658,7 +8658,7 @@
         <v>44136</v>
       </c>
       <c r="B286" t="n">
-        <v>1942844</v>
+        <v>1953431</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8669,13 +8669,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>835</v>
+        <v>781</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>2237</v>
+        <v>2179</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>44137</v>
       </c>
       <c r="B287" t="n">
-        <v>1943639</v>
+        <v>1954174</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>795</v>
+        <v>743</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>2195</v>
+        <v>2139</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>44138</v>
       </c>
       <c r="B288" t="n">
-        <v>1944397</v>
+        <v>1954881</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -8727,25 +8727,30 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>758</v>
+        <v>707</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>2155</v>
+        <v>2101</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>11903</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>End 97% on
+03 November 2020</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
         <v>44139</v>
       </c>
       <c r="B289" t="n">
-        <v>1945119</v>
+        <v>1955554</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -8756,13 +8761,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>722</v>
+        <v>673</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>2117</v>
+        <v>2064</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -8774,7 +8779,7 @@
         <v>44140</v>
       </c>
       <c r="B290" t="n">
-        <v>1945807</v>
+        <v>1956194</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -8785,30 +8790,25 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>688</v>
+        <v>640</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>2080</v>
+        <v>2029</v>
       </c>
       <c r="H290" t="n">
-        <v>11736</v>
-      </c>
-      <c r="I290" t="inlineStr">
-        <is>
-          <t>End 97% on
-05 November 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="B291" t="n">
-        <v>1946462</v>
+        <v>1956803</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8819,13 +8819,13 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>655</v>
+        <v>609</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>2045</v>
+        <v>1995</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>44142</v>
       </c>
       <c r="B292" t="n">
-        <v>1947086</v>
+        <v>1957382</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8848,13 +8848,13 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>624</v>
+        <v>579</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>2012</v>
+        <v>1962</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>44143</v>
       </c>
       <c r="B293" t="n">
-        <v>1947680</v>
+        <v>1957932</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8877,13 +8877,13 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>1979</v>
+        <v>1932</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>44144</v>
       </c>
       <c r="B294" t="n">
-        <v>1948245</v>
+        <v>1958455</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8906,13 +8906,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>565</v>
+        <v>523</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1948</v>
+        <v>1902</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>44145</v>
       </c>
       <c r="B295" t="n">
-        <v>1948783</v>
+        <v>1958952</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>1919</v>
+        <v>1874</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -8953,7 +8953,7 @@
         <v>44146</v>
       </c>
       <c r="B296" t="n">
-        <v>1949295</v>
+        <v>1959424</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8964,13 +8964,13 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>1890</v>
+        <v>1846</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>44147</v>
       </c>
       <c r="B297" t="n">
-        <v>1949782</v>
+        <v>1959873</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8993,13 +8993,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>1863</v>
+        <v>1821</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>44148</v>
       </c>
       <c r="B298" t="n">
-        <v>1950245</v>
+        <v>1960299</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -9022,13 +9022,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>1837</v>
+        <v>1796</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>44149</v>
       </c>
       <c r="B299" t="n">
-        <v>1950686</v>
+        <v>1960704</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -9051,13 +9051,13 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>1812</v>
+        <v>1772</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -9069,7 +9069,7 @@
         <v>44150</v>
       </c>
       <c r="B300" t="n">
-        <v>1951105</v>
+        <v>1961088</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -9080,13 +9080,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1788</v>
+        <v>1749</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>44151</v>
       </c>
       <c r="B301" t="n">
-        <v>1951503</v>
+        <v>1961453</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -9109,13 +9109,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1765</v>
+        <v>1728</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>44152</v>
       </c>
       <c r="B302" t="n">
-        <v>1951882</v>
+        <v>1961799</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -9138,13 +9138,13 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1743</v>
+        <v>1707</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -9156,7 +9156,7 @@
         <v>44153</v>
       </c>
       <c r="B303" t="n">
-        <v>1952242</v>
+        <v>1962128</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1722</v>
+        <v>1687</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>44154</v>
       </c>
       <c r="B304" t="n">
-        <v>1952584</v>
+        <v>1962440</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -9196,13 +9196,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1702</v>
+        <v>1668</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9214,7 +9214,7 @@
         <v>44155</v>
       </c>
       <c r="B305" t="n">
-        <v>1952909</v>
+        <v>1962736</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1683</v>
+        <v>1650</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>44156</v>
       </c>
       <c r="B306" t="n">
-        <v>1953218</v>
+        <v>1963017</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -9254,13 +9254,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1664</v>
+        <v>1632</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>44157</v>
       </c>
       <c r="B307" t="n">
-        <v>1953511</v>
+        <v>1963283</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -9283,13 +9283,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1647</v>
+        <v>1616</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -9301,7 +9301,7 @@
         <v>44158</v>
       </c>
       <c r="B308" t="n">
-        <v>1953790</v>
+        <v>1963536</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -9312,13 +9312,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1630</v>
+        <v>1600</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>44159</v>
       </c>
       <c r="B309" t="n">
-        <v>1954055</v>
+        <v>1963775</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -9341,13 +9341,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1614</v>
+        <v>1584</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -9359,7 +9359,7 @@
         <v>44160</v>
       </c>
       <c r="B310" t="n">
-        <v>1954306</v>
+        <v>1964002</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -9370,25 +9370,30 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1598</v>
+        <v>1570</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>7142</v>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>End 99% on
+25 November 2020</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="B311" t="n">
-        <v>1954545</v>
+        <v>1964217</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -9399,13 +9404,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1583</v>
+        <v>1556</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9417,7 +9422,7 @@
         <v>44162</v>
       </c>
       <c r="B312" t="n">
-        <v>1954772</v>
+        <v>1964421</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -9428,30 +9433,25 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1569</v>
+        <v>1542</v>
       </c>
       <c r="H312" t="n">
-        <v>7042</v>
-      </c>
-      <c r="I312" t="inlineStr">
-        <is>
-          <t>End 99% on
-27 November 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="B313" t="n">
-        <v>1954987</v>
+        <v>1964614</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -9462,13 +9462,13 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1555</v>
+        <v>1530</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>44164</v>
       </c>
       <c r="B314" t="n">
-        <v>1955191</v>
+        <v>1964797</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1542</v>
+        <v>1517</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>44165</v>
       </c>
       <c r="B315" t="n">
-        <v>1955385</v>
+        <v>1964971</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -9520,13 +9520,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1530</v>
+        <v>1506</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9538,7 +9538,7 @@
         <v>44166</v>
       </c>
       <c r="B316" t="n">
-        <v>1955569</v>
+        <v>1965135</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -9549,13 +9549,13 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1518</v>
+        <v>1494</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>44167</v>
       </c>
       <c r="B317" t="n">
-        <v>1955743</v>
+        <v>1965291</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1506</v>
+        <v>1483</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>44168</v>
       </c>
       <c r="B318" t="n">
-        <v>1955908</v>
+        <v>1965439</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1495</v>
+        <v>1473</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>44169</v>
       </c>
       <c r="B319" t="n">
-        <v>1956065</v>
+        <v>1965579</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -9636,13 +9636,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1484</v>
+        <v>1463</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>44170</v>
       </c>
       <c r="B320" t="n">
-        <v>1956214</v>
+        <v>1965711</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -9665,13 +9665,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1474</v>
+        <v>1454</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>44171</v>
       </c>
       <c r="B321" t="n">
-        <v>1956355</v>
+        <v>1965836</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -9694,13 +9694,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>1464</v>
+        <v>1445</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>44172</v>
       </c>
       <c r="B322" t="n">
-        <v>1956489</v>
+        <v>1965955</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>1455</v>
+        <v>1436</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>44173</v>
       </c>
       <c r="B323" t="n">
-        <v>1956616</v>
+        <v>1966067</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -9752,13 +9752,13 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1446</v>
+        <v>1427</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -9770,7 +9770,7 @@
         <v>44174</v>
       </c>
       <c r="B324" t="n">
-        <v>1956736</v>
+        <v>1966173</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -9781,13 +9781,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1437</v>
+        <v>1419</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>44175</v>
       </c>
       <c r="B325" t="n">
-        <v>1956850</v>
+        <v>1966274</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1429</v>
+        <v>1412</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>44176</v>
       </c>
       <c r="B326" t="n">
-        <v>1956958</v>
+        <v>1966369</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -9839,13 +9839,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1421</v>
+        <v>1404</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>44177</v>
       </c>
       <c r="B327" t="n">
-        <v>1957060</v>
+        <v>1966459</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1413</v>
+        <v>1397</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>44178</v>
       </c>
       <c r="B328" t="n">
-        <v>1957157</v>
+        <v>1966544</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1406</v>
+        <v>1390</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>44179</v>
       </c>
       <c r="B329" t="n">
-        <v>1957249</v>
+        <v>1966625</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9926,13 +9926,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1399</v>
+        <v>1384</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>44180</v>
       </c>
       <c r="B330" t="n">
-        <v>1957336</v>
+        <v>1966701</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9955,13 +9955,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1392</v>
+        <v>1377</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>44181</v>
       </c>
       <c r="B331" t="n">
-        <v>1957418</v>
+        <v>1966773</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>44182</v>
       </c>
       <c r="B332" t="n">
-        <v>1957496</v>
+        <v>1966841</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -10013,13 +10013,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1379</v>
+        <v>1365</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>44183</v>
       </c>
       <c r="B333" t="n">
-        <v>1957570</v>
+        <v>1966905</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -10042,13 +10042,13 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1373</v>
+        <v>1360</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>44184</v>
       </c>
       <c r="B334" t="n">
-        <v>1957640</v>
+        <v>1966966</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>1367</v>
+        <v>1354</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>44185</v>
       </c>
       <c r="B335" t="n">
-        <v>1957706</v>
+        <v>1967024</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>44186</v>
       </c>
       <c r="B336" t="n">
-        <v>1957769</v>
+        <v>1967078</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>44187</v>
       </c>
       <c r="B337" t="n">
-        <v>1957828</v>
+        <v>1967129</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>44188</v>
       </c>
       <c r="B338" t="n">
-        <v>1957884</v>
+        <v>1967178</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>44189</v>
       </c>
       <c r="B339" t="n">
-        <v>1957937</v>
+        <v>1967224</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>44190</v>
       </c>
       <c r="B340" t="n">
-        <v>1957987</v>
+        <v>1967267</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -10245,13 +10245,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>1336</v>
+        <v>1325</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>44191</v>
       </c>
       <c r="B341" t="n">
-        <v>1958035</v>
+        <v>1967308</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -10274,13 +10274,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>44192</v>
       </c>
       <c r="B342" t="n">
-        <v>1958080</v>
+        <v>1967347</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -10303,13 +10303,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>44193</v>
       </c>
       <c r="B343" t="n">
-        <v>1958123</v>
+        <v>1967384</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -10332,13 +10332,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>44194</v>
       </c>
       <c r="B344" t="n">
-        <v>1958163</v>
+        <v>1967419</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>44195</v>
       </c>
       <c r="B345" t="n">
-        <v>1958201</v>
+        <v>1967452</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>44196</v>
       </c>
       <c r="B346" t="n">
-        <v>1958237</v>
+        <v>1967483</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -10419,13 +10419,13 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>44197</v>
       </c>
       <c r="B347" t="n">
-        <v>1958271</v>
+        <v>1967512</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -10448,13 +10448,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>44198</v>
       </c>
       <c r="B348" t="n">
-        <v>1958303</v>
+        <v>1967540</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -10477,13 +10477,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>44199</v>
       </c>
       <c r="B349" t="n">
-        <v>1958334</v>
+        <v>1967566</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>44200</v>
       </c>
       <c r="B350" t="n">
-        <v>1958363</v>
+        <v>1967591</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>44201</v>
       </c>
       <c r="B351" t="n">
-        <v>1958390</v>
+        <v>1967614</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -10564,13 +10564,13 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -10582,7 +10582,7 @@
         <v>44202</v>
       </c>
       <c r="B352" t="n">
-        <v>1958416</v>
+        <v>1967636</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>44203</v>
       </c>
       <c r="B353" t="n">
-        <v>1958440</v>
+        <v>1967657</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -10622,13 +10622,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>44204</v>
       </c>
       <c r="B354" t="n">
-        <v>1958463</v>
+        <v>1967676</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>44205</v>
       </c>
       <c r="B355" t="n">
-        <v>1958485</v>
+        <v>1967694</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>44206</v>
       </c>
       <c r="B356" t="n">
-        <v>1958506</v>
+        <v>1967711</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -10709,13 +10709,13 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>44207</v>
       </c>
       <c r="B357" t="n">
-        <v>1958526</v>
+        <v>1967727</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -10738,13 +10738,13 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>44208</v>
       </c>
       <c r="B358" t="n">
-        <v>1958544</v>
+        <v>1967742</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -10767,13 +10767,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>44209</v>
       </c>
       <c r="B359" t="n">
-        <v>1958561</v>
+        <v>1967757</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -10796,13 +10796,13 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>44210</v>
       </c>
       <c r="B360" t="n">
-        <v>1958578</v>
+        <v>1967771</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>44211</v>
       </c>
       <c r="B361" t="n">
-        <v>1958594</v>
+        <v>1967784</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -10854,13 +10854,13 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>44212</v>
       </c>
       <c r="B362" t="n">
-        <v>1958609</v>
+        <v>1967796</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -10883,13 +10883,13 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>44213</v>
       </c>
       <c r="B363" t="n">
-        <v>1958623</v>
+        <v>1967808</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -10912,13 +10912,13 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>44214</v>
       </c>
       <c r="B364" t="n">
-        <v>1958636</v>
+        <v>1967819</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -10941,13 +10941,13 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>44215</v>
       </c>
       <c r="B365" t="n">
-        <v>1958648</v>
+        <v>1967829</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -10970,13 +10970,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>44216</v>
       </c>
       <c r="B366" t="n">
-        <v>1958660</v>
+        <v>1967839</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -10999,13 +10999,13 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>44217</v>
       </c>
       <c r="B367" t="n">
-        <v>1958671</v>
+        <v>1967848</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -11028,13 +11028,13 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -11046,7 +11046,7 @@
         <v>44218</v>
       </c>
       <c r="B368" t="n">
-        <v>1958681</v>
+        <v>1967857</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>44219</v>
       </c>
       <c r="B369" t="n">
-        <v>1958691</v>
+        <v>1967865</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -11086,13 +11086,13 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>44220</v>
       </c>
       <c r="B370" t="n">
-        <v>1958700</v>
+        <v>1967873</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -11115,13 +11115,13 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>44221</v>
       </c>
       <c r="B371" t="n">
-        <v>1958709</v>
+        <v>1967880</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -11144,13 +11144,13 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>44222</v>
       </c>
       <c r="B372" t="n">
-        <v>1958717</v>
+        <v>1967887</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -11173,13 +11173,13 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -11191,7 +11191,7 @@
         <v>44223</v>
       </c>
       <c r="B373" t="n">
-        <v>1958725</v>
+        <v>1967893</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -11202,13 +11202,13 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>44224</v>
       </c>
       <c r="B374" t="n">
-        <v>1958732</v>
+        <v>1967899</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -11231,13 +11231,13 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -11249,7 +11249,7 @@
         <v>44225</v>
       </c>
       <c r="B375" t="n">
-        <v>1958739</v>
+        <v>1967905</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -11260,13 +11260,13 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -11278,7 +11278,7 @@
         <v>44226</v>
       </c>
       <c r="B376" t="n">
-        <v>1958746</v>
+        <v>1967910</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -11289,13 +11289,13 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>44227</v>
       </c>
       <c r="B377" t="n">
-        <v>1958752</v>
+        <v>1967915</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -11318,13 +11318,13 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>44228</v>
       </c>
       <c r="B378" t="n">
-        <v>1958758</v>
+        <v>1967920</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -11347,13 +11347,13 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>44229</v>
       </c>
       <c r="B379" t="n">
-        <v>1958764</v>
+        <v>1967924</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>44230</v>
       </c>
       <c r="B380" t="n">
-        <v>1958769</v>
+        <v>1967928</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -11405,13 +11405,13 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>44231</v>
       </c>
       <c r="B381" t="n">
-        <v>1958774</v>
+        <v>1967932</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>44232</v>
       </c>
       <c r="B382" t="n">
-        <v>1958779</v>
+        <v>1967936</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -11463,13 +11463,13 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -11481,7 +11481,7 @@
         <v>44233</v>
       </c>
       <c r="B383" t="n">
-        <v>1958783</v>
+        <v>1967940</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -11510,7 +11510,7 @@
         <v>44234</v>
       </c>
       <c r="B384" t="n">
-        <v>1958787</v>
+        <v>1967943</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -11521,13 +11521,13 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>44235</v>
       </c>
       <c r="B385" t="n">
-        <v>1958791</v>
+        <v>1967946</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -11550,13 +11550,13 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -11568,7 +11568,7 @@
         <v>44236</v>
       </c>
       <c r="B386" t="n">
-        <v>1958795</v>
+        <v>1967949</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -11579,13 +11579,13 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>44237</v>
       </c>
       <c r="B387" t="n">
-        <v>1958799</v>
+        <v>1967952</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -11608,13 +11608,13 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>44238</v>
       </c>
       <c r="B388" t="n">
-        <v>1958802</v>
+        <v>1967955</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -11643,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -11655,7 +11655,7 @@
         <v>44239</v>
       </c>
       <c r="B389" t="n">
-        <v>1958805</v>
+        <v>1967957</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -11666,13 +11666,13 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -11684,7 +11684,7 @@
         <v>44240</v>
       </c>
       <c r="B390" t="n">
-        <v>1958808</v>
+        <v>1967959</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -11695,13 +11695,13 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
         <v>44241</v>
       </c>
       <c r="B391" t="n">
-        <v>1958811</v>
+        <v>1967961</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -11724,13 +11724,13 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>44242</v>
       </c>
       <c r="B392" t="n">
-        <v>1958814</v>
+        <v>1967963</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -11753,13 +11753,13 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -11771,7 +11771,7 @@
         <v>44243</v>
       </c>
       <c r="B393" t="n">
-        <v>1958816</v>
+        <v>1967965</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -11788,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -11800,7 +11800,7 @@
         <v>44244</v>
       </c>
       <c r="B394" t="n">
-        <v>1958818</v>
+        <v>1967967</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>44245</v>
       </c>
       <c r="B395" t="n">
-        <v>1958820</v>
+        <v>1967969</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -11846,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="H395" t="n">
         <v>0</v>
@@ -11858,7 +11858,7 @@
         <v>44246</v>
       </c>
       <c r="B396" t="n">
-        <v>1958822</v>
+        <v>1967971</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="H396" t="n">
         <v>0</v>
@@ -11887,7 +11887,7 @@
         <v>44247</v>
       </c>
       <c r="B397" t="n">
-        <v>1958824</v>
+        <v>1967973</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -11916,7 +11916,7 @@
         <v>44248</v>
       </c>
       <c r="B398" t="n">
-        <v>1958826</v>
+        <v>1967974</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -11927,13 +11927,13 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F398" t="n">
         <v>0</v>
       </c>
       <c r="G398" t="n">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="H398" t="n">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>44249</v>
       </c>
       <c r="B399" t="n">
-        <v>1958828</v>
+        <v>1967975</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -11956,13 +11956,13 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F399" t="n">
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -11974,7 +11974,7 @@
         <v>44250</v>
       </c>
       <c r="B400" t="n">
-        <v>1958830</v>
+        <v>1967976</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -11985,13 +11985,13 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F400" t="n">
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="H400" t="n">
         <v>0</v>
@@ -12003,7 +12003,7 @@
         <v>44251</v>
       </c>
       <c r="B401" t="n">
-        <v>1958832</v>
+        <v>1967977</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -12014,13 +12014,13 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F401" t="n">
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="H401" t="n">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>44252</v>
       </c>
       <c r="B402" t="n">
-        <v>1958833</v>
+        <v>1967978</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -12049,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -12061,7 +12061,7 @@
         <v>44253</v>
       </c>
       <c r="B403" t="n">
-        <v>1958834</v>
+        <v>1967979</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -12078,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -12090,7 +12090,7 @@
         <v>44254</v>
       </c>
       <c r="B404" t="n">
-        <v>1958835</v>
+        <v>1967980</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -12119,7 +12119,7 @@
         <v>44255</v>
       </c>
       <c r="B405" t="n">
-        <v>1958836</v>
+        <v>1967981</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -12148,7 +12148,7 @@
         <v>44256</v>
       </c>
       <c r="B406" t="n">
-        <v>1958837</v>
+        <v>1967982</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -12165,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="G406" t="n">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -12177,7 +12177,7 @@
         <v>44257</v>
       </c>
       <c r="B407" t="n">
-        <v>1958838</v>
+        <v>1967983</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -12194,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="G407" t="n">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -12206,7 +12206,7 @@
         <v>44258</v>
       </c>
       <c r="B408" t="n">
-        <v>1958839</v>
+        <v>1967984</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="G408" t="n">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>44259</v>
       </c>
       <c r="B409" t="n">
-        <v>1958840</v>
+        <v>1967985</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="G409" t="n">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -12264,7 +12264,7 @@
         <v>44260</v>
       </c>
       <c r="B410" t="n">
-        <v>1958841</v>
+        <v>1967986</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="G410" t="n">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -12293,7 +12293,7 @@
         <v>44261</v>
       </c>
       <c r="B411" t="n">
-        <v>1958842</v>
+        <v>1967987</v>
       </c>
       <c r="C411" t="n">
         <v>0</v>
@@ -12310,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="G411" t="n">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -12322,7 +12322,7 @@
         <v>44262</v>
       </c>
       <c r="B412" t="n">
-        <v>1958843</v>
+        <v>1967988</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="G412" t="n">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -12351,7 +12351,7 @@
         <v>44263</v>
       </c>
       <c r="B413" t="n">
-        <v>1958844</v>
+        <v>1967989</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="G413" t="n">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="H413" t="n">
         <v>0</v>
@@ -12380,7 +12380,7 @@
         <v>44264</v>
       </c>
       <c r="B414" t="n">
-        <v>1958845</v>
+        <v>1967990</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="G414" t="n">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="H414" t="n">
         <v>0</v>
@@ -12409,7 +12409,7 @@
         <v>44265</v>
       </c>
       <c r="B415" t="n">
-        <v>1958846</v>
+        <v>1967991</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="G415" t="n">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="H415" t="n">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>44266</v>
       </c>
       <c r="B416" t="n">
-        <v>1958847</v>
+        <v>1967991</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -12449,25 +12449,30 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F416" t="n">
         <v>0</v>
       </c>
       <c r="G416" t="n">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>11903</v>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>No new cases on
+11 March 2021</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
         <v>44267</v>
       </c>
       <c r="B417" t="n">
-        <v>1958848</v>
+        <v>1967991</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -12478,13 +12483,13 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F417" t="n">
         <v>0</v>
       </c>
       <c r="G417" t="n">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="H417" t="n">
         <v>0</v>
@@ -12496,7 +12501,7 @@
         <v>44268</v>
       </c>
       <c r="B418" t="n">
-        <v>1958849</v>
+        <v>1967991</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -12507,13 +12512,13 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F418" t="n">
         <v>0</v>
       </c>
       <c r="G418" t="n">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="H418" t="n">
         <v>0</v>
@@ -12525,7 +12530,7 @@
         <v>44269</v>
       </c>
       <c r="B419" t="n">
-        <v>1958850</v>
+        <v>1967991</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -12536,13 +12541,13 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F419" t="n">
         <v>0</v>
       </c>
       <c r="G419" t="n">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="H419" t="n">
         <v>0</v>
@@ -12554,7 +12559,7 @@
         <v>44270</v>
       </c>
       <c r="B420" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -12565,13 +12570,13 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F420" t="n">
         <v>0</v>
       </c>
       <c r="G420" t="n">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="H420" t="n">
         <v>0</v>
@@ -12583,7 +12588,7 @@
         <v>44271</v>
       </c>
       <c r="B421" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -12600,24 +12605,19 @@
         <v>0</v>
       </c>
       <c r="G421" t="n">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="H421" t="n">
-        <v>11736</v>
-      </c>
-      <c r="I421" t="inlineStr">
-        <is>
-          <t>No new cases on
-16 March 2021</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
         <v>44272</v>
       </c>
       <c r="B422" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -12634,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="G422" t="n">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="H422" t="n">
         <v>0</v>
@@ -12646,7 +12646,7 @@
         <v>44273</v>
       </c>
       <c r="B423" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -12663,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="G423" t="n">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="H423" t="n">
         <v>0</v>
@@ -12675,7 +12675,7 @@
         <v>44274</v>
       </c>
       <c r="B424" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -12692,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="G424" t="n">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="H424" t="n">
         <v>0</v>
@@ -12704,7 +12704,7 @@
         <v>44275</v>
       </c>
       <c r="B425" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="G425" t="n">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="H425" t="n">
         <v>0</v>
@@ -12733,7 +12733,7 @@
         <v>44276</v>
       </c>
       <c r="B426" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="H426" t="n">
         <v>0</v>
@@ -12762,7 +12762,7 @@
         <v>44277</v>
       </c>
       <c r="B427" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -12779,7 +12779,7 @@
         <v>0</v>
       </c>
       <c r="G427" t="n">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="H427" t="n">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>44278</v>
       </c>
       <c r="B428" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -12808,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="G428" t="n">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="H428" t="n">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>44279</v>
       </c>
       <c r="B429" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C429" t="n">
         <v>0</v>
@@ -12837,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="G429" t="n">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="H429" t="n">
         <v>0</v>
@@ -12849,7 +12849,7 @@
         <v>44280</v>
       </c>
       <c r="B430" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -12866,7 +12866,7 @@
         <v>0</v>
       </c>
       <c r="G430" t="n">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="H430" t="n">
         <v>0</v>
@@ -12878,7 +12878,7 @@
         <v>44281</v>
       </c>
       <c r="B431" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="G431" t="n">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="H431" t="n">
         <v>0</v>
@@ -12907,7 +12907,7 @@
         <v>44282</v>
       </c>
       <c r="B432" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -12924,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="G432" t="n">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="H432" t="n">
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>44283</v>
       </c>
       <c r="B433" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -12953,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="G433" t="n">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="H433" t="n">
         <v>0</v>
@@ -12965,7 +12965,7 @@
         <v>44284</v>
       </c>
       <c r="B434" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -12982,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="G434" t="n">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="H434" t="n">
         <v>0</v>
@@ -12994,7 +12994,7 @@
         <v>44285</v>
       </c>
       <c r="B435" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="G435" t="n">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="H435" t="n">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>44286</v>
       </c>
       <c r="B436" t="n">
-        <v>1958851</v>
+        <v>1967991</v>
       </c>
       <c r="C436" t="n">
         <v>0</v>
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="G436" t="n">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="H436" t="n">
         <v>0</v>

--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>415</v>
+        <v>325</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>479</v>
+        <v>379</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>551</v>
+        <v>440</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>631</v>
+        <v>509</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>721</v>
+        <v>585</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>819</v>
+        <v>671</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>928</v>
+        <v>767</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1048</v>
+        <v>873</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1179</v>
+        <v>990</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1323</v>
+        <v>1118</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1478</v>
+        <v>1259</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1647</v>
+        <v>1413</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1830</v>
+        <v>1580</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2026</v>
+        <v>1762</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>2237</v>
+        <v>1958</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2463</v>
+        <v>2169</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>2704</v>
+        <v>2396</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2960</v>
+        <v>2639</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3232</v>
+        <v>2898</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3520</v>
+        <v>3174</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>3823</v>
+        <v>3466</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4141</v>
+        <v>3775</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4475</v>
+        <v>4101</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>4824</v>
+        <v>4443</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>5188</v>
+        <v>4802</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>5567</v>
+        <v>5177</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5960</v>
+        <v>5568</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6366</v>
+        <v>5974</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>6785</v>
+        <v>6395</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>7216</v>
+        <v>6830</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7658</v>
+        <v>7278</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>8111</v>
+        <v>7739</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>8573</v>
+        <v>8211</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9044</v>
+        <v>8694</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>9523</v>
+        <v>9187</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10008</v>
+        <v>9688</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10498</v>
+        <v>10196</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>10992</v>
+        <v>10710</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>11489</v>
+        <v>11229</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>11987</v>
+        <v>11751</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>12486</v>
+        <v>12275</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>12983</v>
+        <v>12800</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13478</v>
+        <v>13324</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>13970</v>
+        <v>13845</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>14456</v>
+        <v>14363</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14937</v>
+        <v>14876</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>15409</v>
+        <v>15382</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>15873</v>
+        <v>15879</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16327</v>
+        <v>16368</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16770</v>
+        <v>16845</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17201</v>
+        <v>17311</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17618</v>
+        <v>17763</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>18021</v>
+        <v>18201</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>18408</v>
+        <v>18623</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>18779</v>
+        <v>19028</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>19133</v>
+        <v>19416</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>19469</v>
+        <v>19784</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -5120,24 +5120,24 @@
         <v>44014</v>
       </c>
       <c r="B164" t="n">
-        <v>624427</v>
+        <v>625544</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>20903</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19786</v>
+        <v>20133</v>
       </c>
       <c r="F164" t="n">
-        <v>17934</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>3703</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>44015</v>
       </c>
       <c r="B165" t="n">
-        <v>644510</v>
+        <v>646006</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>20083</v>
+        <v>20462</v>
       </c>
       <c r="F165" t="n">
-        <v>18238</v>
+        <v>18627</v>
       </c>
       <c r="G165" t="n">
-        <v>3691</v>
+        <v>3671</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>44016</v>
       </c>
       <c r="B166" t="n">
-        <v>664871</v>
+        <v>666776</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -5189,13 +5189,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20361</v>
+        <v>20770</v>
       </c>
       <c r="F166" t="n">
-        <v>18521</v>
+        <v>18940</v>
       </c>
       <c r="G166" t="n">
-        <v>3680</v>
+        <v>3660</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>44017</v>
       </c>
       <c r="B167" t="n">
-        <v>685490</v>
+        <v>687832</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20619</v>
+        <v>21056</v>
       </c>
       <c r="F167" t="n">
-        <v>18784</v>
+        <v>19231</v>
       </c>
       <c r="G167" t="n">
-        <v>3669</v>
+        <v>3649</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>44018</v>
       </c>
       <c r="B168" t="n">
-        <v>706345</v>
+        <v>709152</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>20855</v>
+        <v>21320</v>
       </c>
       <c r="F168" t="n">
-        <v>19027</v>
+        <v>19500</v>
       </c>
       <c r="G168" t="n">
-        <v>3658</v>
+        <v>3638</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>44019</v>
       </c>
       <c r="B169" t="n">
-        <v>727416</v>
+        <v>730712</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5276,13 +5276,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>21071</v>
+        <v>21560</v>
       </c>
       <c r="F169" t="n">
-        <v>19247</v>
+        <v>19747</v>
       </c>
       <c r="G169" t="n">
-        <v>3647</v>
+        <v>3627</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>748681</v>
+        <v>752490</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>21265</v>
+        <v>21778</v>
       </c>
       <c r="F170" t="n">
-        <v>19447</v>
+        <v>19970</v>
       </c>
       <c r="G170" t="n">
-        <v>3636</v>
+        <v>3616</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>770118</v>
+        <v>774463</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>21437</v>
+        <v>21973</v>
       </c>
       <c r="F171" t="n">
-        <v>19624</v>
+        <v>20170</v>
       </c>
       <c r="G171" t="n">
-        <v>3625</v>
+        <v>3606</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>791705</v>
+        <v>796606</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21587</v>
+        <v>22143</v>
       </c>
       <c r="F172" t="n">
-        <v>19780</v>
+        <v>20346</v>
       </c>
       <c r="G172" t="n">
-        <v>3614</v>
+        <v>3595</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>813421</v>
+        <v>818896</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21716</v>
+        <v>22290</v>
       </c>
       <c r="F173" t="n">
-        <v>19914</v>
+        <v>20498</v>
       </c>
       <c r="G173" t="n">
-        <v>3604</v>
+        <v>3584</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>835243</v>
+        <v>841310</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>21822</v>
+        <v>22414</v>
       </c>
       <c r="F174" t="n">
-        <v>20025</v>
+        <v>20627</v>
       </c>
       <c r="G174" t="n">
-        <v>3593</v>
+        <v>3574</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>857150</v>
+        <v>863823</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>21907</v>
+        <v>22513</v>
       </c>
       <c r="F175" t="n">
-        <v>20115</v>
+        <v>20731</v>
       </c>
       <c r="G175" t="n">
-        <v>3583</v>
+        <v>3564</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>879119</v>
+        <v>886412</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>21969</v>
+        <v>22589</v>
       </c>
       <c r="F176" t="n">
-        <v>20183</v>
+        <v>20812</v>
       </c>
       <c r="G176" t="n">
-        <v>3573</v>
+        <v>3553</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>901130</v>
+        <v>909053</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>22011</v>
+        <v>22641</v>
       </c>
       <c r="F177" t="n">
-        <v>20229</v>
+        <v>20869</v>
       </c>
       <c r="G177" t="n">
-        <v>3562</v>
+        <v>3543</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>923160</v>
+        <v>931723</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>22030</v>
+        <v>22670</v>
       </c>
       <c r="F178" t="n">
-        <v>20254</v>
+        <v>20903</v>
       </c>
       <c r="G178" t="n">
-        <v>3552</v>
+        <v>3533</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>945189</v>
+        <v>954399</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22029</v>
+        <v>22676</v>
       </c>
       <c r="F179" t="n">
-        <v>20258</v>
+        <v>20914</v>
       </c>
       <c r="G179" t="n">
-        <v>3542</v>
+        <v>3523</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>967197</v>
+        <v>977058</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>22008</v>
+        <v>22659</v>
       </c>
       <c r="F180" t="n">
-        <v>20241</v>
+        <v>20902</v>
       </c>
       <c r="G180" t="n">
-        <v>3532</v>
+        <v>3513</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>989163</v>
+        <v>999678</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>21966</v>
+        <v>22620</v>
       </c>
       <c r="F181" t="n">
-        <v>20204</v>
+        <v>20868</v>
       </c>
       <c r="G181" t="n">
-        <v>3522</v>
+        <v>3503</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>1011067</v>
+        <v>1022238</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>21904</v>
+        <v>22560</v>
       </c>
       <c r="F182" t="n">
-        <v>20147</v>
+        <v>20813</v>
       </c>
       <c r="G182" t="n">
-        <v>3513</v>
+        <v>3494</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>1032890</v>
+        <v>1044716</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21823</v>
+        <v>22478</v>
       </c>
       <c r="F183" t="n">
-        <v>20071</v>
+        <v>20736</v>
       </c>
       <c r="G183" t="n">
-        <v>3503</v>
+        <v>3484</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>1054613</v>
+        <v>1067091</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>21723</v>
+        <v>22375</v>
       </c>
       <c r="F184" t="n">
-        <v>19976</v>
+        <v>20638</v>
       </c>
       <c r="G184" t="n">
-        <v>3493</v>
+        <v>3474</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>1076218</v>
+        <v>1089344</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>21605</v>
+        <v>22253</v>
       </c>
       <c r="F185" t="n">
-        <v>19863</v>
+        <v>20521</v>
       </c>
       <c r="G185" t="n">
-        <v>3484</v>
+        <v>3465</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>1097687</v>
+        <v>1111456</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21469</v>
+        <v>22112</v>
       </c>
       <c r="F186" t="n">
-        <v>19732</v>
+        <v>20384</v>
       </c>
       <c r="G186" t="n">
-        <v>3474</v>
+        <v>3456</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>1119004</v>
+        <v>1133407</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21317</v>
+        <v>21951</v>
       </c>
       <c r="F187" t="n">
-        <v>19584</v>
+        <v>20228</v>
       </c>
       <c r="G187" t="n">
-        <v>3465</v>
+        <v>3446</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>1140152</v>
+        <v>1155180</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>21148</v>
+        <v>21773</v>
       </c>
       <c r="F188" t="n">
-        <v>19420</v>
+        <v>20055</v>
       </c>
       <c r="G188" t="n">
-        <v>3456</v>
+        <v>3437</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>1161115</v>
+        <v>1176758</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>20963</v>
+        <v>21578</v>
       </c>
       <c r="F189" t="n">
-        <v>19240</v>
+        <v>19864</v>
       </c>
       <c r="G189" t="n">
-        <v>3446</v>
+        <v>3428</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>1181879</v>
+        <v>1198125</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>20764</v>
+        <v>21367</v>
       </c>
       <c r="F190" t="n">
-        <v>19045</v>
+        <v>19658</v>
       </c>
       <c r="G190" t="n">
-        <v>3437</v>
+        <v>3419</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>1202429</v>
+        <v>1219265</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20550</v>
+        <v>21140</v>
       </c>
       <c r="F191" t="n">
-        <v>18836</v>
+        <v>19435</v>
       </c>
       <c r="G191" t="n">
-        <v>3428</v>
+        <v>3409</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>44042</v>
       </c>
       <c r="B192" t="n">
-        <v>1222752</v>
+        <v>1240163</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>20323</v>
+        <v>20898</v>
       </c>
       <c r="F192" t="n">
-        <v>18614</v>
+        <v>19198</v>
       </c>
       <c r="G192" t="n">
-        <v>3419</v>
+        <v>3401</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>44043</v>
       </c>
       <c r="B193" t="n">
-        <v>1242836</v>
+        <v>1260806</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>20084</v>
+        <v>20643</v>
       </c>
       <c r="F193" t="n">
-        <v>18379</v>
+        <v>18947</v>
       </c>
       <c r="G193" t="n">
-        <v>3410</v>
+        <v>3392</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>44044</v>
       </c>
       <c r="B194" t="n">
-        <v>1262668</v>
+        <v>1281181</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19832</v>
+        <v>20375</v>
       </c>
       <c r="F194" t="n">
-        <v>18132</v>
+        <v>18683</v>
       </c>
       <c r="G194" t="n">
-        <v>3401</v>
+        <v>3383</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>44045</v>
       </c>
       <c r="B195" t="n">
-        <v>1282238</v>
+        <v>1301275</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19570</v>
+        <v>20094</v>
       </c>
       <c r="F195" t="n">
-        <v>17873</v>
+        <v>18407</v>
       </c>
       <c r="G195" t="n">
-        <v>3392</v>
+        <v>3374</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>44046</v>
       </c>
       <c r="B196" t="n">
-        <v>1301534</v>
+        <v>1321077</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>19296</v>
+        <v>19802</v>
       </c>
       <c r="F196" t="n">
-        <v>17605</v>
+        <v>18119</v>
       </c>
       <c r="G196" t="n">
-        <v>3384</v>
+        <v>3365</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>44047</v>
       </c>
       <c r="B197" t="n">
-        <v>1320547</v>
+        <v>1340577</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19013</v>
+        <v>19500</v>
       </c>
       <c r="F197" t="n">
-        <v>17326</v>
+        <v>17821</v>
       </c>
       <c r="G197" t="n">
-        <v>3375</v>
+        <v>3357</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>44048</v>
       </c>
       <c r="B198" t="n">
-        <v>1339269</v>
+        <v>1359765</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>18722</v>
+        <v>19188</v>
       </c>
       <c r="F198" t="n">
-        <v>17039</v>
+        <v>17514</v>
       </c>
       <c r="G198" t="n">
-        <v>3366</v>
+        <v>3348</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>44049</v>
       </c>
       <c r="B199" t="n">
-        <v>1357691</v>
+        <v>1378632</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -6146,13 +6146,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>18422</v>
+        <v>18867</v>
       </c>
       <c r="F199" t="n">
-        <v>16743</v>
+        <v>17197</v>
       </c>
       <c r="G199" t="n">
-        <v>3358</v>
+        <v>3340</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>44050</v>
       </c>
       <c r="B200" t="n">
-        <v>1375805</v>
+        <v>1397170</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>18114</v>
+        <v>18538</v>
       </c>
       <c r="F200" t="n">
-        <v>16440</v>
+        <v>16872</v>
       </c>
       <c r="G200" t="n">
-        <v>3349</v>
+        <v>3331</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>44051</v>
       </c>
       <c r="B201" t="n">
-        <v>1393605</v>
+        <v>1415372</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -6204,13 +6204,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>17800</v>
+        <v>18202</v>
       </c>
       <c r="F201" t="n">
-        <v>16130</v>
+        <v>16541</v>
       </c>
       <c r="G201" t="n">
-        <v>3341</v>
+        <v>3323</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>44052</v>
       </c>
       <c r="B202" t="n">
-        <v>1411085</v>
+        <v>1433232</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>17480</v>
+        <v>17860</v>
       </c>
       <c r="F202" t="n">
-        <v>15814</v>
+        <v>16203</v>
       </c>
       <c r="G202" t="n">
-        <v>3332</v>
+        <v>3314</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>44053</v>
       </c>
       <c r="B203" t="n">
-        <v>1428240</v>
+        <v>1450744</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17155</v>
+        <v>17512</v>
       </c>
       <c r="F203" t="n">
-        <v>15493</v>
+        <v>15859</v>
       </c>
       <c r="G203" t="n">
-        <v>3324</v>
+        <v>3306</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>44054</v>
       </c>
       <c r="B204" t="n">
-        <v>1445065</v>
+        <v>1467903</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>16825</v>
+        <v>17159</v>
       </c>
       <c r="F204" t="n">
-        <v>15167</v>
+        <v>15510</v>
       </c>
       <c r="G204" t="n">
-        <v>3316</v>
+        <v>3298</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>44055</v>
       </c>
       <c r="B205" t="n">
-        <v>1461556</v>
+        <v>1484706</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16491</v>
+        <v>16803</v>
       </c>
       <c r="F205" t="n">
-        <v>14837</v>
+        <v>15158</v>
       </c>
       <c r="G205" t="n">
-        <v>3308</v>
+        <v>3290</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>44056</v>
       </c>
       <c r="B206" t="n">
-        <v>1477709</v>
+        <v>1501148</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>16153</v>
+        <v>16442</v>
       </c>
       <c r="F206" t="n">
-        <v>14504</v>
+        <v>14802</v>
       </c>
       <c r="G206" t="n">
-        <v>3300</v>
+        <v>3282</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>44057</v>
       </c>
       <c r="B207" t="n">
-        <v>1493522</v>
+        <v>1517228</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>15813</v>
+        <v>16080</v>
       </c>
       <c r="F207" t="n">
-        <v>14168</v>
+        <v>14443</v>
       </c>
       <c r="G207" t="n">
-        <v>3291</v>
+        <v>3274</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>44058</v>
       </c>
       <c r="B208" t="n">
-        <v>1508993</v>
+        <v>1532943</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>15471</v>
+        <v>15715</v>
       </c>
       <c r="F208" t="n">
-        <v>13830</v>
+        <v>14082</v>
       </c>
       <c r="G208" t="n">
-        <v>3283</v>
+        <v>3266</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>44059</v>
       </c>
       <c r="B209" t="n">
-        <v>1524121</v>
+        <v>1548292</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>15128</v>
+        <v>15349</v>
       </c>
       <c r="F209" t="n">
-        <v>13490</v>
+        <v>13720</v>
       </c>
       <c r="G209" t="n">
-        <v>3276</v>
+        <v>3258</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>44060</v>
       </c>
       <c r="B210" t="n">
-        <v>1538904</v>
+        <v>1563274</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>14783</v>
+        <v>14982</v>
       </c>
       <c r="F210" t="n">
-        <v>13149</v>
+        <v>13357</v>
       </c>
       <c r="G210" t="n">
-        <v>3268</v>
+        <v>3250</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>44061</v>
       </c>
       <c r="B211" t="n">
-        <v>1553342</v>
+        <v>1577889</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14438</v>
+        <v>14615</v>
       </c>
       <c r="F211" t="n">
-        <v>12808</v>
+        <v>12994</v>
       </c>
       <c r="G211" t="n">
-        <v>3260</v>
+        <v>3242</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>44062</v>
       </c>
       <c r="B212" t="n">
-        <v>1567436</v>
+        <v>1592138</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>14094</v>
+        <v>14249</v>
       </c>
       <c r="F212" t="n">
-        <v>12468</v>
+        <v>12632</v>
       </c>
       <c r="G212" t="n">
-        <v>3252</v>
+        <v>3235</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>44063</v>
       </c>
       <c r="B213" t="n">
-        <v>1581186</v>
+        <v>1606022</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>13750</v>
+        <v>13884</v>
       </c>
       <c r="F213" t="n">
-        <v>12127</v>
+        <v>12270</v>
       </c>
       <c r="G213" t="n">
-        <v>3244</v>
+        <v>3227</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>44064</v>
       </c>
       <c r="B214" t="n">
-        <v>1594593</v>
+        <v>1619542</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>13407</v>
+        <v>13520</v>
       </c>
       <c r="F214" t="n">
-        <v>11788</v>
+        <v>11910</v>
       </c>
       <c r="G214" t="n">
-        <v>3237</v>
+        <v>3219</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>44065</v>
       </c>
       <c r="B215" t="n">
-        <v>1607658</v>
+        <v>1632700</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6610,13 +6610,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>13065</v>
+        <v>13158</v>
       </c>
       <c r="F215" t="n">
-        <v>11451</v>
+        <v>11553</v>
       </c>
       <c r="G215" t="n">
-        <v>3229</v>
+        <v>3212</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>44066</v>
       </c>
       <c r="B216" t="n">
-        <v>1620384</v>
+        <v>1645499</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12726</v>
+        <v>12799</v>
       </c>
       <c r="F216" t="n">
-        <v>11115</v>
+        <v>11197</v>
       </c>
       <c r="G216" t="n">
-        <v>3222</v>
+        <v>3204</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>44067</v>
       </c>
       <c r="B217" t="n">
-        <v>1632773</v>
+        <v>1657942</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12389</v>
+        <v>12443</v>
       </c>
       <c r="F217" t="n">
-        <v>10782</v>
+        <v>10844</v>
       </c>
       <c r="G217" t="n">
-        <v>3214</v>
+        <v>3197</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>44068</v>
       </c>
       <c r="B218" t="n">
-        <v>1644827</v>
+        <v>1670032</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>12054</v>
+        <v>12090</v>
       </c>
       <c r="F218" t="n">
-        <v>10451</v>
+        <v>10495</v>
       </c>
       <c r="G218" t="n">
-        <v>3207</v>
+        <v>3189</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44069</v>
       </c>
       <c r="B219" t="n">
-        <v>1656550</v>
+        <v>1681773</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>11723</v>
+        <v>11741</v>
       </c>
       <c r="F219" t="n">
-        <v>10124</v>
+        <v>10150</v>
       </c>
       <c r="G219" t="n">
-        <v>3199</v>
+        <v>3182</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>44070</v>
       </c>
       <c r="B220" t="n">
-        <v>1667945</v>
+        <v>1693168</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6758,10 +6758,10 @@
         <v>11395</v>
       </c>
       <c r="F220" t="n">
-        <v>9800</v>
+        <v>9808</v>
       </c>
       <c r="G220" t="n">
-        <v>3192</v>
+        <v>3175</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>44071</v>
       </c>
       <c r="B221" t="n">
-        <v>1679016</v>
+        <v>1704223</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>11071</v>
+        <v>11055</v>
       </c>
       <c r="F221" t="n">
-        <v>9479</v>
+        <v>9471</v>
       </c>
       <c r="G221" t="n">
-        <v>3185</v>
+        <v>3167</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>44072</v>
       </c>
       <c r="B222" t="n">
-        <v>1689767</v>
+        <v>1714942</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10751</v>
+        <v>10719</v>
       </c>
       <c r="F222" t="n">
-        <v>9163</v>
+        <v>9138</v>
       </c>
       <c r="G222" t="n">
-        <v>3177</v>
+        <v>3160</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>44073</v>
       </c>
       <c r="B223" t="n">
-        <v>1700203</v>
+        <v>1725329</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>10436</v>
+        <v>10387</v>
       </c>
       <c r="F223" t="n">
-        <v>8851</v>
+        <v>8811</v>
       </c>
       <c r="G223" t="n">
-        <v>3170</v>
+        <v>3153</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>44074</v>
       </c>
       <c r="B224" t="n">
-        <v>1710328</v>
+        <v>1735391</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>10125</v>
+        <v>10062</v>
       </c>
       <c r="F224" t="n">
-        <v>8543</v>
+        <v>8489</v>
       </c>
       <c r="G224" t="n">
-        <v>3163</v>
+        <v>3146</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>44075</v>
       </c>
       <c r="B225" t="n">
-        <v>1720146</v>
+        <v>1745132</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>9818</v>
+        <v>9741</v>
       </c>
       <c r="F225" t="n">
-        <v>8240</v>
+        <v>8172</v>
       </c>
       <c r="G225" t="n">
-        <v>3156</v>
+        <v>3139</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>44076</v>
       </c>
       <c r="B226" t="n">
-        <v>1729663</v>
+        <v>1754558</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>9517</v>
+        <v>9426</v>
       </c>
       <c r="F226" t="n">
-        <v>7942</v>
+        <v>7860</v>
       </c>
       <c r="G226" t="n">
-        <v>3149</v>
+        <v>3132</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>44077</v>
       </c>
       <c r="B227" t="n">
-        <v>1738883</v>
+        <v>1763675</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9220</v>
+        <v>9117</v>
       </c>
       <c r="F227" t="n">
-        <v>7650</v>
+        <v>7555</v>
       </c>
       <c r="G227" t="n">
-        <v>3142</v>
+        <v>3125</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>44078</v>
       </c>
       <c r="B228" t="n">
-        <v>1747812</v>
+        <v>1772489</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8929</v>
+        <v>8814</v>
       </c>
       <c r="F228" t="n">
-        <v>7362</v>
+        <v>7255</v>
       </c>
       <c r="G228" t="n">
-        <v>3135</v>
+        <v>3118</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>44079</v>
       </c>
       <c r="B229" t="n">
-        <v>1756456</v>
+        <v>1781006</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>8644</v>
+        <v>8517</v>
       </c>
       <c r="F229" t="n">
-        <v>7080</v>
+        <v>6962</v>
       </c>
       <c r="G229" t="n">
-        <v>3128</v>
+        <v>3111</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>44080</v>
       </c>
       <c r="B230" t="n">
-        <v>1764820</v>
+        <v>1789233</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>8364</v>
+        <v>8227</v>
       </c>
       <c r="F230" t="n">
-        <v>6803</v>
+        <v>6675</v>
       </c>
       <c r="G230" t="n">
-        <v>3121</v>
+        <v>3104</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>44081</v>
       </c>
       <c r="B231" t="n">
-        <v>1772909</v>
+        <v>1797176</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8089</v>
+        <v>7943</v>
       </c>
       <c r="F231" t="n">
-        <v>6532</v>
+        <v>6394</v>
       </c>
       <c r="G231" t="n">
-        <v>3114</v>
+        <v>3097</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>44082</v>
       </c>
       <c r="B232" t="n">
-        <v>1780730</v>
+        <v>1804841</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>7821</v>
+        <v>7665</v>
       </c>
       <c r="F232" t="n">
-        <v>6267</v>
+        <v>6119</v>
       </c>
       <c r="G232" t="n">
-        <v>3107</v>
+        <v>3091</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>44083</v>
       </c>
       <c r="B233" t="n">
-        <v>1788288</v>
+        <v>1812234</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>7558</v>
+        <v>7393</v>
       </c>
       <c r="F233" t="n">
-        <v>6008</v>
+        <v>5851</v>
       </c>
       <c r="G233" t="n">
-        <v>3101</v>
+        <v>3084</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>44084</v>
       </c>
       <c r="B234" t="n">
-        <v>1795589</v>
+        <v>1819363</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>7301</v>
+        <v>7129</v>
       </c>
       <c r="F234" t="n">
-        <v>5754</v>
+        <v>5590</v>
       </c>
       <c r="G234" t="n">
-        <v>3094</v>
+        <v>3077</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>44085</v>
       </c>
       <c r="B235" t="n">
-        <v>1802639</v>
+        <v>1826234</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>7050</v>
+        <v>6871</v>
       </c>
       <c r="F235" t="n">
-        <v>5506</v>
+        <v>5335</v>
       </c>
       <c r="G235" t="n">
-        <v>3087</v>
+        <v>3071</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>44086</v>
       </c>
       <c r="B236" t="n">
-        <v>1809444</v>
+        <v>1832853</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>6805</v>
+        <v>6619</v>
       </c>
       <c r="F236" t="n">
-        <v>5265</v>
+        <v>5087</v>
       </c>
       <c r="G236" t="n">
-        <v>3081</v>
+        <v>3064</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>44087</v>
       </c>
       <c r="B237" t="n">
-        <v>1816010</v>
+        <v>1839227</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>6566</v>
+        <v>6374</v>
       </c>
       <c r="F237" t="n">
-        <v>5029</v>
+        <v>4845</v>
       </c>
       <c r="G237" t="n">
-        <v>3074</v>
+        <v>3058</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>44088</v>
       </c>
       <c r="B238" t="n">
-        <v>1822343</v>
+        <v>1845362</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -7277,13 +7277,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>6333</v>
+        <v>6135</v>
       </c>
       <c r="F238" t="n">
-        <v>4799</v>
+        <v>4610</v>
       </c>
       <c r="G238" t="n">
-        <v>3068</v>
+        <v>3051</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>44089</v>
       </c>
       <c r="B239" t="n">
-        <v>1828449</v>
+        <v>1851266</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>6106</v>
+        <v>5904</v>
       </c>
       <c r="F239" t="n">
-        <v>4575</v>
+        <v>4381</v>
       </c>
       <c r="G239" t="n">
-        <v>3061</v>
+        <v>3045</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>44090</v>
       </c>
       <c r="B240" t="n">
-        <v>1834334</v>
+        <v>1856944</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5885</v>
+        <v>5678</v>
       </c>
       <c r="F240" t="n">
-        <v>4357</v>
+        <v>4159</v>
       </c>
       <c r="G240" t="n">
-        <v>3055</v>
+        <v>3038</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>44091</v>
       </c>
       <c r="B241" t="n">
-        <v>1840003</v>
+        <v>1862403</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>5669</v>
+        <v>5459</v>
       </c>
       <c r="F241" t="n">
-        <v>4145</v>
+        <v>3943</v>
       </c>
       <c r="G241" t="n">
-        <v>3048</v>
+        <v>3032</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>44092</v>
       </c>
       <c r="B242" t="n">
-        <v>1845463</v>
+        <v>1867650</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>5460</v>
+        <v>5247</v>
       </c>
       <c r="F242" t="n">
-        <v>3939</v>
+        <v>3734</v>
       </c>
       <c r="G242" t="n">
-        <v>3042</v>
+        <v>3026</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>44093</v>
       </c>
       <c r="B243" t="n">
-        <v>1850720</v>
+        <v>1872691</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>5257</v>
+        <v>5041</v>
       </c>
       <c r="F243" t="n">
-        <v>3739</v>
+        <v>3531</v>
       </c>
       <c r="G243" t="n">
-        <v>3036</v>
+        <v>3019</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>44094</v>
       </c>
       <c r="B244" t="n">
-        <v>1855779</v>
+        <v>1877532</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>5059</v>
+        <v>4841</v>
       </c>
       <c r="F244" t="n">
-        <v>3544</v>
+        <v>3334</v>
       </c>
       <c r="G244" t="n">
-        <v>3029</v>
+        <v>3013</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>44095</v>
       </c>
       <c r="B245" t="n">
-        <v>1860646</v>
+        <v>1882179</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>4867</v>
+        <v>4647</v>
       </c>
       <c r="F245" t="n">
-        <v>3356</v>
+        <v>3144</v>
       </c>
       <c r="G245" t="n">
-        <v>3023</v>
+        <v>3007</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>44096</v>
       </c>
       <c r="B246" t="n">
-        <v>1865327</v>
+        <v>1886639</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4681</v>
+        <v>4460</v>
       </c>
       <c r="F246" t="n">
-        <v>3173</v>
+        <v>2960</v>
       </c>
       <c r="G246" t="n">
-        <v>3017</v>
+        <v>3001</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>44097</v>
       </c>
       <c r="B247" t="n">
-        <v>1869828</v>
+        <v>1890918</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>4501</v>
+        <v>4279</v>
       </c>
       <c r="F247" t="n">
+        <v>2781</v>
+      </c>
+      <c r="G247" t="n">
         <v>2995</v>
-      </c>
-      <c r="G247" t="n">
-        <v>3011</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>44098</v>
       </c>
       <c r="B248" t="n">
-        <v>1874154</v>
+        <v>1895021</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7567,13 +7567,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>4326</v>
+        <v>4103</v>
       </c>
       <c r="F248" t="n">
-        <v>2823</v>
+        <v>2609</v>
       </c>
       <c r="G248" t="n">
-        <v>3005</v>
+        <v>2989</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>44099</v>
       </c>
       <c r="B249" t="n">
-        <v>1878310</v>
+        <v>1898955</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>4156</v>
+        <v>3934</v>
       </c>
       <c r="F249" t="n">
-        <v>2657</v>
+        <v>2442</v>
       </c>
       <c r="G249" t="n">
-        <v>2999</v>
+        <v>2982</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>44100</v>
       </c>
       <c r="B250" t="n">
-        <v>1882302</v>
+        <v>1902725</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>3992</v>
+        <v>3770</v>
       </c>
       <c r="F250" t="n">
-        <v>2495</v>
+        <v>2281</v>
       </c>
       <c r="G250" t="n">
-        <v>2993</v>
+        <v>2976</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>44101</v>
       </c>
       <c r="B251" t="n">
-        <v>1886135</v>
+        <v>1906336</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>3833</v>
+        <v>3611</v>
       </c>
       <c r="F251" t="n">
-        <v>2340</v>
+        <v>2126</v>
       </c>
       <c r="G251" t="n">
-        <v>2987</v>
+        <v>2970</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -7672,7 +7672,7 @@
         <v>44102</v>
       </c>
       <c r="B252" t="n">
-        <v>1889814</v>
+        <v>1909795</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7683,13 +7683,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>3679</v>
+        <v>3459</v>
       </c>
       <c r="F252" t="n">
-        <v>2189</v>
+        <v>1976</v>
       </c>
       <c r="G252" t="n">
-        <v>2981</v>
+        <v>2964</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>44103</v>
       </c>
       <c r="B253" t="n">
-        <v>1893344</v>
+        <v>1913106</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7712,13 +7712,13 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3530</v>
+        <v>3311</v>
       </c>
       <c r="F253" t="n">
-        <v>2043</v>
+        <v>1832</v>
       </c>
       <c r="G253" t="n">
-        <v>2975</v>
+        <v>2959</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>44104</v>
       </c>
       <c r="B254" t="n">
-        <v>1896731</v>
+        <v>1916275</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7741,13 +7741,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3387</v>
+        <v>3169</v>
       </c>
       <c r="F254" t="n">
-        <v>1902</v>
+        <v>1693</v>
       </c>
       <c r="G254" t="n">
-        <v>2969</v>
+        <v>2953</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>44105</v>
       </c>
       <c r="B255" t="n">
-        <v>1899979</v>
+        <v>1919307</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7770,13 +7770,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>3248</v>
+        <v>3032</v>
       </c>
       <c r="F255" t="n">
-        <v>1767</v>
+        <v>1559</v>
       </c>
       <c r="G255" t="n">
-        <v>2963</v>
+        <v>2947</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -7788,7 +7788,7 @@
         <v>44106</v>
       </c>
       <c r="B256" t="n">
-        <v>1903093</v>
+        <v>1922207</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7799,13 +7799,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>3114</v>
+        <v>2900</v>
       </c>
       <c r="F256" t="n">
-        <v>1635</v>
+        <v>1429</v>
       </c>
       <c r="G256" t="n">
-        <v>2957</v>
+        <v>2941</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>44107</v>
       </c>
       <c r="B257" t="n">
-        <v>1906078</v>
+        <v>1924980</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7828,13 +7828,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>2985</v>
+        <v>2773</v>
       </c>
       <c r="F257" t="n">
-        <v>1509</v>
+        <v>1305</v>
       </c>
       <c r="G257" t="n">
-        <v>2951</v>
+        <v>2935</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="B258" t="n">
-        <v>1908938</v>
+        <v>1927631</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>2860</v>
+        <v>2651</v>
       </c>
       <c r="F258" t="n">
-        <v>1387</v>
+        <v>1186</v>
       </c>
       <c r="G258" t="n">
-        <v>2945</v>
+        <v>2930</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>44109</v>
       </c>
       <c r="B259" t="n">
-        <v>1911677</v>
+        <v>1930164</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7886,13 +7886,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>2739</v>
+        <v>2533</v>
       </c>
       <c r="F259" t="n">
-        <v>1270</v>
+        <v>1071</v>
       </c>
       <c r="G259" t="n">
-        <v>2940</v>
+        <v>2924</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -7904,7 +7904,7 @@
         <v>44110</v>
       </c>
       <c r="B260" t="n">
-        <v>1914300</v>
+        <v>1932584</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>2623</v>
+        <v>2420</v>
       </c>
       <c r="F260" t="n">
-        <v>1156</v>
+        <v>961</v>
       </c>
       <c r="G260" t="n">
-        <v>2934</v>
+        <v>2918</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>44111</v>
       </c>
       <c r="B261" t="n">
-        <v>1916812</v>
+        <v>1934895</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>2512</v>
+        <v>2311</v>
       </c>
       <c r="F261" t="n">
-        <v>1047</v>
+        <v>855</v>
       </c>
       <c r="G261" t="n">
-        <v>2928</v>
+        <v>2913</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>44112</v>
       </c>
       <c r="B262" t="n">
-        <v>1919216</v>
+        <v>1937101</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7973,13 +7973,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2404</v>
+        <v>2206</v>
       </c>
       <c r="F262" t="n">
-        <v>942</v>
+        <v>753</v>
       </c>
       <c r="G262" t="n">
-        <v>2923</v>
+        <v>2907</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>44113</v>
       </c>
       <c r="B263" t="n">
-        <v>1921516</v>
+        <v>1939207</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>2300</v>
+        <v>2106</v>
       </c>
       <c r="F263" t="n">
-        <v>842</v>
+        <v>655</v>
       </c>
       <c r="G263" t="n">
-        <v>2917</v>
+        <v>2901</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>44114</v>
       </c>
       <c r="B264" t="n">
-        <v>1923716</v>
+        <v>1941216</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>2200</v>
+        <v>2009</v>
       </c>
       <c r="F264" t="n">
-        <v>745</v>
+        <v>561</v>
       </c>
       <c r="G264" t="n">
-        <v>2912</v>
+        <v>2896</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>44115</v>
       </c>
       <c r="B265" t="n">
-        <v>1925820</v>
+        <v>1943133</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>2104</v>
+        <v>1917</v>
       </c>
       <c r="F265" t="n">
-        <v>651</v>
+        <v>472</v>
       </c>
       <c r="G265" t="n">
-        <v>2906</v>
+        <v>2890</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>44116</v>
       </c>
       <c r="B266" t="n">
-        <v>1927832</v>
+        <v>1944961</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -8089,13 +8089,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>2012</v>
+        <v>1828</v>
       </c>
       <c r="F266" t="n">
-        <v>562</v>
+        <v>386</v>
       </c>
       <c r="G266" t="n">
-        <v>2900</v>
+        <v>2885</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>44117</v>
       </c>
       <c r="B267" t="n">
-        <v>1929755</v>
+        <v>1946704</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1923</v>
+        <v>1743</v>
       </c>
       <c r="F267" t="n">
-        <v>476</v>
+        <v>303</v>
       </c>
       <c r="G267" t="n">
-        <v>2895</v>
+        <v>2879</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>44118</v>
       </c>
       <c r="B268" t="n">
-        <v>1931593</v>
+        <v>1948365</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -8147,13 +8147,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1838</v>
+        <v>1661</v>
       </c>
       <c r="F268" t="n">
-        <v>393</v>
+        <v>224</v>
       </c>
       <c r="G268" t="n">
-        <v>2890</v>
+        <v>2874</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>44119</v>
       </c>
       <c r="B269" t="n">
-        <v>1933349</v>
+        <v>1949948</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -8176,13 +8176,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1756</v>
+        <v>1583</v>
       </c>
       <c r="F269" t="n">
-        <v>314</v>
+        <v>149</v>
       </c>
       <c r="G269" t="n">
-        <v>2884</v>
+        <v>2869</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -8194,7 +8194,7 @@
         <v>44120</v>
       </c>
       <c r="B270" t="n">
-        <v>1935026</v>
+        <v>1951456</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8205,13 +8205,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1677</v>
+        <v>1508</v>
       </c>
       <c r="F270" t="n">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="G270" t="n">
-        <v>2879</v>
+        <v>2863</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>44121</v>
       </c>
       <c r="B271" t="n">
-        <v>1936628</v>
+        <v>1952893</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1602</v>
+        <v>1437</v>
       </c>
       <c r="F271" t="n">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="G271" t="n">
-        <v>2873</v>
+        <v>2858</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>44122</v>
       </c>
       <c r="B272" t="n">
-        <v>1938157</v>
+        <v>1954261</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1529</v>
+        <v>1368</v>
       </c>
       <c r="F272" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>2868</v>
+        <v>2794</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>44123</v>
       </c>
       <c r="B273" t="n">
-        <v>1939617</v>
+        <v>1955563</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1460</v>
+        <v>1302</v>
       </c>
       <c r="F273" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>2863</v>
+        <v>2726</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>44124</v>
       </c>
       <c r="B274" t="n">
-        <v>1941010</v>
+        <v>1956802</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -8321,13 +8321,13 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1393</v>
+        <v>1239</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>2822</v>
+        <v>2660</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>44125</v>
       </c>
       <c r="B275" t="n">
-        <v>1942339</v>
+        <v>1957981</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -8350,13 +8350,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1329</v>
+        <v>1179</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>2755</v>
+        <v>2598</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -8368,7 +8368,7 @@
         <v>44126</v>
       </c>
       <c r="B276" t="n">
-        <v>1943607</v>
+        <v>1959103</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1268</v>
+        <v>1122</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>2691</v>
+        <v>2538</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -8397,7 +8397,7 @@
         <v>44127</v>
       </c>
       <c r="B277" t="n">
-        <v>1944816</v>
+        <v>1960170</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -8408,13 +8408,13 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1209</v>
+        <v>1067</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>2630</v>
+        <v>2480</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>44128</v>
       </c>
       <c r="B278" t="n">
-        <v>1945968</v>
+        <v>1961184</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -8437,13 +8437,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1152</v>
+        <v>1014</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>2571</v>
+        <v>2425</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>44129</v>
       </c>
       <c r="B279" t="n">
-        <v>1947067</v>
+        <v>1962148</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -8466,13 +8466,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>1099</v>
+        <v>964</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>2514</v>
+        <v>2372</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>44130</v>
       </c>
       <c r="B280" t="n">
-        <v>1948114</v>
+        <v>1963065</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -8495,13 +8495,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1047</v>
+        <v>917</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>2460</v>
+        <v>2322</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -8513,7 +8513,7 @@
         <v>44131</v>
       </c>
       <c r="B281" t="n">
-        <v>1949112</v>
+        <v>1963936</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -8524,13 +8524,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>998</v>
+        <v>871</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>2408</v>
+        <v>2274</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>44132</v>
       </c>
       <c r="B282" t="n">
-        <v>1950062</v>
+        <v>1964763</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -8553,13 +8553,13 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>950</v>
+        <v>827</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>2359</v>
+        <v>2228</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         <v>44133</v>
       </c>
       <c r="B283" t="n">
-        <v>1950967</v>
+        <v>1965549</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -8582,13 +8582,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>905</v>
+        <v>786</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>2311</v>
+        <v>2184</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -8600,7 +8600,7 @@
         <v>44134</v>
       </c>
       <c r="B284" t="n">
-        <v>1951829</v>
+        <v>1966295</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -8611,13 +8611,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>862</v>
+        <v>746</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>2265</v>
+        <v>2142</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -8629,7 +8629,7 @@
         <v>44135</v>
       </c>
       <c r="B285" t="n">
-        <v>1952650</v>
+        <v>1967003</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -8640,25 +8640,30 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>821</v>
+        <v>708</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>2221</v>
+        <v>2102</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>12218</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>End 97% on
+31 October 2020</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
         <v>44136</v>
       </c>
       <c r="B286" t="n">
-        <v>1953431</v>
+        <v>1967675</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8669,13 +8674,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>781</v>
+        <v>672</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>2179</v>
+        <v>2063</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -8687,7 +8692,7 @@
         <v>44137</v>
       </c>
       <c r="B287" t="n">
-        <v>1954174</v>
+        <v>1968313</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -8698,13 +8703,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>743</v>
+        <v>638</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>2139</v>
+        <v>2026</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -8716,7 +8721,7 @@
         <v>44138</v>
       </c>
       <c r="B288" t="n">
-        <v>1954881</v>
+        <v>1968918</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -8727,30 +8732,25 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>707</v>
+        <v>605</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>2101</v>
+        <v>1991</v>
       </c>
       <c r="H288" t="n">
-        <v>11903</v>
-      </c>
-      <c r="I288" t="inlineStr">
-        <is>
-          <t>End 97% on
-03 November 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
         <v>44139</v>
       </c>
       <c r="B289" t="n">
-        <v>1955554</v>
+        <v>1969492</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -8761,13 +8761,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>673</v>
+        <v>574</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>2064</v>
+        <v>1958</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>44140</v>
       </c>
       <c r="B290" t="n">
-        <v>1956194</v>
+        <v>1970037</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -8790,13 +8790,13 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>640</v>
+        <v>545</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>2029</v>
+        <v>1926</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -8808,7 +8808,7 @@
         <v>44141</v>
       </c>
       <c r="B291" t="n">
-        <v>1956803</v>
+        <v>1970554</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8819,13 +8819,13 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>609</v>
+        <v>517</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>1995</v>
+        <v>1895</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>44142</v>
       </c>
       <c r="B292" t="n">
-        <v>1957382</v>
+        <v>1971044</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8848,13 +8848,13 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>579</v>
+        <v>490</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>1962</v>
+        <v>1866</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>44143</v>
       </c>
       <c r="B293" t="n">
-        <v>1957932</v>
+        <v>1971508</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8877,13 +8877,13 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>550</v>
+        <v>464</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>1932</v>
+        <v>1838</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>44144</v>
       </c>
       <c r="B294" t="n">
-        <v>1958455</v>
+        <v>1971948</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8906,13 +8906,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>523</v>
+        <v>440</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1902</v>
+        <v>1811</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>44145</v>
       </c>
       <c r="B295" t="n">
-        <v>1958952</v>
+        <v>1972365</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>497</v>
+        <v>417</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>1874</v>
+        <v>1786</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -8953,7 +8953,7 @@
         <v>44146</v>
       </c>
       <c r="B296" t="n">
-        <v>1959424</v>
+        <v>1972760</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8964,13 +8964,13 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>472</v>
+        <v>395</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>1846</v>
+        <v>1762</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>44147</v>
       </c>
       <c r="B297" t="n">
-        <v>1959873</v>
+        <v>1973134</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8993,13 +8993,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>449</v>
+        <v>374</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>1821</v>
+        <v>1739</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>44148</v>
       </c>
       <c r="B298" t="n">
-        <v>1960299</v>
+        <v>1973488</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -9022,13 +9022,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>426</v>
+        <v>354</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>1796</v>
+        <v>1716</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>44149</v>
       </c>
       <c r="B299" t="n">
-        <v>1960704</v>
+        <v>1973823</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -9051,13 +9051,13 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>1772</v>
+        <v>1695</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -9069,7 +9069,7 @@
         <v>44150</v>
       </c>
       <c r="B300" t="n">
-        <v>1961088</v>
+        <v>1974141</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -9080,13 +9080,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1749</v>
+        <v>1675</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>44151</v>
       </c>
       <c r="B301" t="n">
-        <v>1961453</v>
+        <v>1974442</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -9109,13 +9109,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1728</v>
+        <v>1656</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>44152</v>
       </c>
       <c r="B302" t="n">
-        <v>1961799</v>
+        <v>1974726</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -9138,13 +9138,13 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1707</v>
+        <v>1638</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -9156,7 +9156,7 @@
         <v>44153</v>
       </c>
       <c r="B303" t="n">
-        <v>1962128</v>
+        <v>1974995</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>329</v>
+        <v>269</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1687</v>
+        <v>1620</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>44154</v>
       </c>
       <c r="B304" t="n">
-        <v>1962440</v>
+        <v>1975250</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -9196,13 +9196,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1668</v>
+        <v>1603</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9214,7 +9214,7 @@
         <v>44155</v>
       </c>
       <c r="B305" t="n">
-        <v>1962736</v>
+        <v>1975491</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -9225,25 +9225,30 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1650</v>
+        <v>1587</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>7331</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>End 99% on
+20 November 2020</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="B306" t="n">
-        <v>1963017</v>
+        <v>1975719</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -9254,13 +9259,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1632</v>
+        <v>1572</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -9272,7 +9277,7 @@
         <v>44157</v>
       </c>
       <c r="B307" t="n">
-        <v>1963283</v>
+        <v>1975934</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -9283,13 +9288,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1616</v>
+        <v>1557</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -9301,7 +9306,7 @@
         <v>44158</v>
       </c>
       <c r="B308" t="n">
-        <v>1963536</v>
+        <v>1976138</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -9312,13 +9317,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1600</v>
+        <v>1543</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -9330,7 +9335,7 @@
         <v>44159</v>
       </c>
       <c r="B309" t="n">
-        <v>1963775</v>
+        <v>1976331</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -9341,13 +9346,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1584</v>
+        <v>1530</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -9359,7 +9364,7 @@
         <v>44160</v>
       </c>
       <c r="B310" t="n">
-        <v>1964002</v>
+        <v>1976513</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -9370,30 +9375,25 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1570</v>
+        <v>1517</v>
       </c>
       <c r="H310" t="n">
-        <v>7142</v>
-      </c>
-      <c r="I310" t="inlineStr">
-        <is>
-          <t>End 99% on
-25 November 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="B311" t="n">
-        <v>1964217</v>
+        <v>1976685</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1556</v>
+        <v>1505</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>44162</v>
       </c>
       <c r="B312" t="n">
-        <v>1964421</v>
+        <v>1976848</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -9433,13 +9433,13 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1542</v>
+        <v>1494</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>44163</v>
       </c>
       <c r="B313" t="n">
-        <v>1964614</v>
+        <v>1977002</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -9462,13 +9462,13 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1530</v>
+        <v>1483</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>44164</v>
       </c>
       <c r="B314" t="n">
-        <v>1964797</v>
+        <v>1977147</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1517</v>
+        <v>1472</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>44165</v>
       </c>
       <c r="B315" t="n">
-        <v>1964971</v>
+        <v>1977284</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -9520,13 +9520,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1506</v>
+        <v>1462</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9538,7 +9538,7 @@
         <v>44166</v>
       </c>
       <c r="B316" t="n">
-        <v>1965135</v>
+        <v>1977413</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -9549,13 +9549,13 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1494</v>
+        <v>1452</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>44167</v>
       </c>
       <c r="B317" t="n">
-        <v>1965291</v>
+        <v>1977535</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1483</v>
+        <v>1443</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>44168</v>
       </c>
       <c r="B318" t="n">
-        <v>1965439</v>
+        <v>1977650</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1473</v>
+        <v>1434</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>44169</v>
       </c>
       <c r="B319" t="n">
-        <v>1965579</v>
+        <v>1977759</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -9636,13 +9636,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1463</v>
+        <v>1425</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>44170</v>
       </c>
       <c r="B320" t="n">
-        <v>1965711</v>
+        <v>1977862</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -9665,13 +9665,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1454</v>
+        <v>1417</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>44171</v>
       </c>
       <c r="B321" t="n">
-        <v>1965836</v>
+        <v>1977959</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -9694,13 +9694,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>1445</v>
+        <v>1409</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>44172</v>
       </c>
       <c r="B322" t="n">
-        <v>1965955</v>
+        <v>1978051</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>1436</v>
+        <v>1402</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>44173</v>
       </c>
       <c r="B323" t="n">
-        <v>1966067</v>
+        <v>1978137</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -9752,13 +9752,13 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1427</v>
+        <v>1394</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -9770,7 +9770,7 @@
         <v>44174</v>
       </c>
       <c r="B324" t="n">
-        <v>1966173</v>
+        <v>1978219</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -9781,13 +9781,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1419</v>
+        <v>1388</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>44175</v>
       </c>
       <c r="B325" t="n">
-        <v>1966274</v>
+        <v>1978296</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1412</v>
+        <v>1381</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>44176</v>
       </c>
       <c r="B326" t="n">
-        <v>1966369</v>
+        <v>1978369</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -9839,13 +9839,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1404</v>
+        <v>1375</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>44177</v>
       </c>
       <c r="B327" t="n">
-        <v>1966459</v>
+        <v>1978437</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1397</v>
+        <v>1368</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>44178</v>
       </c>
       <c r="B328" t="n">
-        <v>1966544</v>
+        <v>1978501</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1390</v>
+        <v>1363</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>44179</v>
       </c>
       <c r="B329" t="n">
-        <v>1966625</v>
+        <v>1978562</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9926,13 +9926,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1384</v>
+        <v>1357</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>44180</v>
       </c>
       <c r="B330" t="n">
-        <v>1966701</v>
+        <v>1978619</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9955,13 +9955,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1377</v>
+        <v>1351</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>44181</v>
       </c>
       <c r="B331" t="n">
-        <v>1966773</v>
+        <v>1978673</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1371</v>
+        <v>1346</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>44182</v>
       </c>
       <c r="B332" t="n">
-        <v>1966841</v>
+        <v>1978724</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -10013,13 +10013,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>44183</v>
       </c>
       <c r="B333" t="n">
-        <v>1966905</v>
+        <v>1978772</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -10042,13 +10042,13 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1360</v>
+        <v>1336</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>44184</v>
       </c>
       <c r="B334" t="n">
-        <v>1966966</v>
+        <v>1978817</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>1354</v>
+        <v>1331</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>44185</v>
       </c>
       <c r="B335" t="n">
-        <v>1967024</v>
+        <v>1978860</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>1349</v>
+        <v>1327</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>44186</v>
       </c>
       <c r="B336" t="n">
-        <v>1967078</v>
+        <v>1978900</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>1344</v>
+        <v>1323</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>44187</v>
       </c>
       <c r="B337" t="n">
-        <v>1967129</v>
+        <v>1978938</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>1339</v>
+        <v>1318</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>44188</v>
       </c>
       <c r="B338" t="n">
-        <v>1967178</v>
+        <v>1978974</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1334</v>
+        <v>1314</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>44189</v>
       </c>
       <c r="B339" t="n">
-        <v>1967224</v>
+        <v>1979008</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1330</v>
+        <v>1310</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>44190</v>
       </c>
       <c r="B340" t="n">
-        <v>1967267</v>
+        <v>1979040</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -10245,13 +10245,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>1325</v>
+        <v>1306</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>44191</v>
       </c>
       <c r="B341" t="n">
-        <v>1967308</v>
+        <v>1979070</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -10274,13 +10274,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>1321</v>
+        <v>1303</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>44192</v>
       </c>
       <c r="B342" t="n">
-        <v>1967347</v>
+        <v>1979098</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -10303,13 +10303,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1317</v>
+        <v>1299</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>44193</v>
       </c>
       <c r="B343" t="n">
-        <v>1967384</v>
+        <v>1979124</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -10332,13 +10332,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>44194</v>
       </c>
       <c r="B344" t="n">
-        <v>1967419</v>
+        <v>1979149</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>44195</v>
       </c>
       <c r="B345" t="n">
-        <v>1967452</v>
+        <v>1979172</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1305</v>
+        <v>1289</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>44196</v>
       </c>
       <c r="B346" t="n">
-        <v>1967483</v>
+        <v>1979194</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -10419,13 +10419,13 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>1301</v>
+        <v>1286</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>44197</v>
       </c>
       <c r="B347" t="n">
-        <v>1967512</v>
+        <v>1979215</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -10448,13 +10448,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1298</v>
+        <v>1282</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>44198</v>
       </c>
       <c r="B348" t="n">
-        <v>1967540</v>
+        <v>1979235</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -10477,13 +10477,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>1294</v>
+        <v>1279</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>44199</v>
       </c>
       <c r="B349" t="n">
-        <v>1967566</v>
+        <v>1979253</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>1291</v>
+        <v>1276</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>44200</v>
       </c>
       <c r="B350" t="n">
-        <v>1967591</v>
+        <v>1979270</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>1288</v>
+        <v>1274</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>44201</v>
       </c>
       <c r="B351" t="n">
-        <v>1967614</v>
+        <v>1979286</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -10564,13 +10564,13 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1284</v>
+        <v>1271</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -10582,7 +10582,7 @@
         <v>44202</v>
       </c>
       <c r="B352" t="n">
-        <v>1967636</v>
+        <v>1979301</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>1281</v>
+        <v>1268</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>44203</v>
       </c>
       <c r="B353" t="n">
-        <v>1967657</v>
+        <v>1979315</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -10622,13 +10622,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>1278</v>
+        <v>1265</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>44204</v>
       </c>
       <c r="B354" t="n">
-        <v>1967676</v>
+        <v>1979329</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>44205</v>
       </c>
       <c r="B355" t="n">
-        <v>1967694</v>
+        <v>1979342</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>1273</v>
+        <v>1260</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>44206</v>
       </c>
       <c r="B356" t="n">
-        <v>1967711</v>
+        <v>1979354</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -10709,13 +10709,13 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>44207</v>
       </c>
       <c r="B357" t="n">
-        <v>1967727</v>
+        <v>1979365</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -10738,13 +10738,13 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>44208</v>
       </c>
       <c r="B358" t="n">
-        <v>1967742</v>
+        <v>1979376</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -10767,13 +10767,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>1264</v>
+        <v>1253</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>44209</v>
       </c>
       <c r="B359" t="n">
-        <v>1967757</v>
+        <v>1979386</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -10796,13 +10796,13 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>44210</v>
       </c>
       <c r="B360" t="n">
-        <v>1967771</v>
+        <v>1979395</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>44211</v>
       </c>
       <c r="B361" t="n">
-        <v>1967784</v>
+        <v>1979404</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -10854,13 +10854,13 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>1257</v>
+        <v>1246</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>44212</v>
       </c>
       <c r="B362" t="n">
-        <v>1967796</v>
+        <v>1979412</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -10883,13 +10883,13 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1254</v>
+        <v>1243</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>44213</v>
       </c>
       <c r="B363" t="n">
-        <v>1967808</v>
+        <v>1979420</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -10912,13 +10912,13 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>1252</v>
+        <v>1241</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>44214</v>
       </c>
       <c r="B364" t="n">
-        <v>1967819</v>
+        <v>1979427</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -10941,13 +10941,13 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>44215</v>
       </c>
       <c r="B365" t="n">
-        <v>1967829</v>
+        <v>1979434</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -10970,13 +10970,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>44216</v>
       </c>
       <c r="B366" t="n">
-        <v>1967839</v>
+        <v>1979440</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -10999,13 +10999,13 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>44217</v>
       </c>
       <c r="B367" t="n">
-        <v>1967848</v>
+        <v>1979446</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -11028,13 +11028,13 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -11046,7 +11046,7 @@
         <v>44218</v>
       </c>
       <c r="B368" t="n">
-        <v>1967857</v>
+        <v>1979452</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>44219</v>
       </c>
       <c r="B369" t="n">
-        <v>1967865</v>
+        <v>1979457</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -11086,13 +11086,13 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>44220</v>
       </c>
       <c r="B370" t="n">
-        <v>1967873</v>
+        <v>1979462</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -11115,13 +11115,13 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>44221</v>
       </c>
       <c r="B371" t="n">
-        <v>1967880</v>
+        <v>1979467</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -11144,13 +11144,13 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>44222</v>
       </c>
       <c r="B372" t="n">
-        <v>1967887</v>
+        <v>1979471</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -11173,13 +11173,13 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -11191,7 +11191,7 @@
         <v>44223</v>
       </c>
       <c r="B373" t="n">
-        <v>1967893</v>
+        <v>1979475</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -11202,13 +11202,13 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>44224</v>
       </c>
       <c r="B374" t="n">
-        <v>1967899</v>
+        <v>1979479</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -11231,13 +11231,13 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -11249,7 +11249,7 @@
         <v>44225</v>
       </c>
       <c r="B375" t="n">
-        <v>1967905</v>
+        <v>1979483</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -11260,13 +11260,13 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -11278,7 +11278,7 @@
         <v>44226</v>
       </c>
       <c r="B376" t="n">
-        <v>1967910</v>
+        <v>1979486</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -11289,13 +11289,13 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>44227</v>
       </c>
       <c r="B377" t="n">
-        <v>1967915</v>
+        <v>1979489</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -11318,13 +11318,13 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>44228</v>
       </c>
       <c r="B378" t="n">
-        <v>1967920</v>
+        <v>1979492</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -11347,13 +11347,13 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>44229</v>
       </c>
       <c r="B379" t="n">
-        <v>1967924</v>
+        <v>1979495</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>44230</v>
       </c>
       <c r="B380" t="n">
-        <v>1967928</v>
+        <v>1979498</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -11405,13 +11405,13 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>44231</v>
       </c>
       <c r="B381" t="n">
-        <v>1967932</v>
+        <v>1979501</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>44232</v>
       </c>
       <c r="B382" t="n">
-        <v>1967936</v>
+        <v>1979503</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -11463,13 +11463,13 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -11481,7 +11481,7 @@
         <v>44233</v>
       </c>
       <c r="B383" t="n">
-        <v>1967940</v>
+        <v>1979505</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -11492,13 +11492,13 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -11510,7 +11510,7 @@
         <v>44234</v>
       </c>
       <c r="B384" t="n">
-        <v>1967943</v>
+        <v>1979507</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -11521,13 +11521,13 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>44235</v>
       </c>
       <c r="B385" t="n">
-        <v>1967946</v>
+        <v>1979509</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -11550,13 +11550,13 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -11568,7 +11568,7 @@
         <v>44236</v>
       </c>
       <c r="B386" t="n">
-        <v>1967949</v>
+        <v>1979511</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -11579,13 +11579,13 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>44237</v>
       </c>
       <c r="B387" t="n">
-        <v>1967952</v>
+        <v>1979513</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -11608,13 +11608,13 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>44238</v>
       </c>
       <c r="B388" t="n">
-        <v>1967955</v>
+        <v>1979515</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -11637,13 +11637,13 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -11655,7 +11655,7 @@
         <v>44239</v>
       </c>
       <c r="B389" t="n">
-        <v>1967957</v>
+        <v>1979517</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -11672,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -11684,7 +11684,7 @@
         <v>44240</v>
       </c>
       <c r="B390" t="n">
-        <v>1967959</v>
+        <v>1979518</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -11695,13 +11695,13 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
         <v>44241</v>
       </c>
       <c r="B391" t="n">
-        <v>1967961</v>
+        <v>1979519</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -11724,13 +11724,13 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>44242</v>
       </c>
       <c r="B392" t="n">
-        <v>1967963</v>
+        <v>1979520</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -11753,13 +11753,13 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -11771,7 +11771,7 @@
         <v>44243</v>
       </c>
       <c r="B393" t="n">
-        <v>1967965</v>
+        <v>1979521</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -11782,13 +11782,13 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F393" t="n">
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -11800,7 +11800,7 @@
         <v>44244</v>
       </c>
       <c r="B394" t="n">
-        <v>1967967</v>
+        <v>1979522</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -11811,13 +11811,13 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F394" t="n">
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>44245</v>
       </c>
       <c r="B395" t="n">
-        <v>1967969</v>
+        <v>1979523</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -11840,13 +11840,13 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F395" t="n">
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="H395" t="n">
         <v>0</v>
@@ -11858,7 +11858,7 @@
         <v>44246</v>
       </c>
       <c r="B396" t="n">
-        <v>1967971</v>
+        <v>1979524</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -11869,13 +11869,13 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F396" t="n">
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="H396" t="n">
         <v>0</v>
@@ -11887,7 +11887,7 @@
         <v>44247</v>
       </c>
       <c r="B397" t="n">
-        <v>1967973</v>
+        <v>1979525</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -11898,13 +11898,13 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F397" t="n">
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -11916,7 +11916,7 @@
         <v>44248</v>
       </c>
       <c r="B398" t="n">
-        <v>1967974</v>
+        <v>1979526</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="G398" t="n">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="H398" t="n">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>44249</v>
       </c>
       <c r="B399" t="n">
-        <v>1967975</v>
+        <v>1979527</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -11962,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -11974,7 +11974,7 @@
         <v>44250</v>
       </c>
       <c r="B400" t="n">
-        <v>1967976</v>
+        <v>1979528</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -11991,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="H400" t="n">
         <v>0</v>
@@ -12003,7 +12003,7 @@
         <v>44251</v>
       </c>
       <c r="B401" t="n">
-        <v>1967977</v>
+        <v>1979529</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="H401" t="n">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>44252</v>
       </c>
       <c r="B402" t="n">
-        <v>1967978</v>
+        <v>1979530</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -12049,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -12061,7 +12061,7 @@
         <v>44253</v>
       </c>
       <c r="B403" t="n">
-        <v>1967979</v>
+        <v>1979531</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -12078,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -12090,7 +12090,7 @@
         <v>44254</v>
       </c>
       <c r="B404" t="n">
-        <v>1967980</v>
+        <v>1979532</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -12119,7 +12119,7 @@
         <v>44255</v>
       </c>
       <c r="B405" t="n">
-        <v>1967981</v>
+        <v>1979533</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -12148,7 +12148,7 @@
         <v>44256</v>
       </c>
       <c r="B406" t="n">
-        <v>1967982</v>
+        <v>1979534</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -12165,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="G406" t="n">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -12177,7 +12177,7 @@
         <v>44257</v>
       </c>
       <c r="B407" t="n">
-        <v>1967983</v>
+        <v>1979534</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -12188,25 +12188,30 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F407" t="n">
         <v>0</v>
       </c>
       <c r="G407" t="n">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>12218</v>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>No new cases on
+02 March 2021</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
         <v>44258</v>
       </c>
       <c r="B408" t="n">
-        <v>1967984</v>
+        <v>1979534</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -12217,13 +12222,13 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F408" t="n">
         <v>0</v>
       </c>
       <c r="G408" t="n">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -12235,7 +12240,7 @@
         <v>44259</v>
       </c>
       <c r="B409" t="n">
-        <v>1967985</v>
+        <v>1979534</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -12246,13 +12251,13 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F409" t="n">
         <v>0</v>
       </c>
       <c r="G409" t="n">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -12264,7 +12269,7 @@
         <v>44260</v>
       </c>
       <c r="B410" t="n">
-        <v>1967986</v>
+        <v>1979534</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -12275,13 +12280,13 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F410" t="n">
         <v>0</v>
       </c>
       <c r="G410" t="n">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -12293,7 +12298,7 @@
         <v>44261</v>
       </c>
       <c r="B411" t="n">
-        <v>1967987</v>
+        <v>1979534</v>
       </c>
       <c r="C411" t="n">
         <v>0</v>
@@ -12304,13 +12309,13 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F411" t="n">
         <v>0</v>
       </c>
       <c r="G411" t="n">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -12322,7 +12327,7 @@
         <v>44262</v>
       </c>
       <c r="B412" t="n">
-        <v>1967988</v>
+        <v>1979534</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -12333,13 +12338,13 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F412" t="n">
         <v>0</v>
       </c>
       <c r="G412" t="n">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -12351,7 +12356,7 @@
         <v>44263</v>
       </c>
       <c r="B413" t="n">
-        <v>1967989</v>
+        <v>1979534</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -12362,13 +12367,13 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F413" t="n">
         <v>0</v>
       </c>
       <c r="G413" t="n">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="H413" t="n">
         <v>0</v>
@@ -12380,7 +12385,7 @@
         <v>44264</v>
       </c>
       <c r="B414" t="n">
-        <v>1967990</v>
+        <v>1979534</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -12391,13 +12396,13 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F414" t="n">
         <v>0</v>
       </c>
       <c r="G414" t="n">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="H414" t="n">
         <v>0</v>
@@ -12409,7 +12414,7 @@
         <v>44265</v>
       </c>
       <c r="B415" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -12420,13 +12425,13 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F415" t="n">
         <v>0</v>
       </c>
       <c r="G415" t="n">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="H415" t="n">
         <v>0</v>
@@ -12438,7 +12443,7 @@
         <v>44266</v>
       </c>
       <c r="B416" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -12455,24 +12460,19 @@
         <v>0</v>
       </c>
       <c r="G416" t="n">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="H416" t="n">
-        <v>11903</v>
-      </c>
-      <c r="I416" t="inlineStr">
-        <is>
-          <t>No new cases on
-11 March 2021</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
         <v>44267</v>
       </c>
       <c r="B417" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -12489,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="G417" t="n">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="H417" t="n">
         <v>0</v>
@@ -12501,7 +12501,7 @@
         <v>44268</v>
       </c>
       <c r="B418" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="G418" t="n">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="H418" t="n">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>44269</v>
       </c>
       <c r="B419" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -12547,7 +12547,7 @@
         <v>0</v>
       </c>
       <c r="G419" t="n">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="H419" t="n">
         <v>0</v>
@@ -12559,7 +12559,7 @@
         <v>44270</v>
       </c>
       <c r="B420" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -12576,7 +12576,7 @@
         <v>0</v>
       </c>
       <c r="G420" t="n">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="H420" t="n">
         <v>0</v>
@@ -12588,7 +12588,7 @@
         <v>44271</v>
       </c>
       <c r="B421" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="G421" t="n">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="H421" t="n">
         <v>0</v>
@@ -12617,7 +12617,7 @@
         <v>44272</v>
       </c>
       <c r="B422" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -12634,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="G422" t="n">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="H422" t="n">
         <v>0</v>
@@ -12646,7 +12646,7 @@
         <v>44273</v>
       </c>
       <c r="B423" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -12663,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="G423" t="n">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="H423" t="n">
         <v>0</v>
@@ -12675,7 +12675,7 @@
         <v>44274</v>
       </c>
       <c r="B424" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -12692,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="G424" t="n">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="H424" t="n">
         <v>0</v>
@@ -12704,7 +12704,7 @@
         <v>44275</v>
       </c>
       <c r="B425" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="G425" t="n">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="H425" t="n">
         <v>0</v>
@@ -12733,7 +12733,7 @@
         <v>44276</v>
       </c>
       <c r="B426" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="H426" t="n">
         <v>0</v>
@@ -12762,7 +12762,7 @@
         <v>44277</v>
       </c>
       <c r="B427" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -12779,7 +12779,7 @@
         <v>0</v>
       </c>
       <c r="G427" t="n">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="H427" t="n">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>44278</v>
       </c>
       <c r="B428" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -12808,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="G428" t="n">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="H428" t="n">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>44279</v>
       </c>
       <c r="B429" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C429" t="n">
         <v>0</v>
@@ -12837,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="G429" t="n">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="H429" t="n">
         <v>0</v>
@@ -12849,7 +12849,7 @@
         <v>44280</v>
       </c>
       <c r="B430" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -12866,7 +12866,7 @@
         <v>0</v>
       </c>
       <c r="G430" t="n">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="H430" t="n">
         <v>0</v>
@@ -12878,7 +12878,7 @@
         <v>44281</v>
       </c>
       <c r="B431" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="G431" t="n">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="H431" t="n">
         <v>0</v>
@@ -12907,7 +12907,7 @@
         <v>44282</v>
       </c>
       <c r="B432" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -12924,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="G432" t="n">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="H432" t="n">
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>44283</v>
       </c>
       <c r="B433" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -12953,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="G433" t="n">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="H433" t="n">
         <v>0</v>
@@ -12965,7 +12965,7 @@
         <v>44284</v>
       </c>
       <c r="B434" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -12982,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="G434" t="n">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="H434" t="n">
         <v>0</v>
@@ -12994,7 +12994,7 @@
         <v>44285</v>
       </c>
       <c r="B435" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="G435" t="n">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="H435" t="n">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>44286</v>
       </c>
       <c r="B436" t="n">
-        <v>1967991</v>
+        <v>1979534</v>
       </c>
       <c r="C436" t="n">
         <v>0</v>
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="G436" t="n">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="H436" t="n">
         <v>0</v>

--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I436"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>585</v>
+        <v>517</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>671</v>
+        <v>596</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>767</v>
+        <v>684</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>873</v>
+        <v>783</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>990</v>
+        <v>892</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1118</v>
+        <v>1013</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1259</v>
+        <v>1146</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1413</v>
+        <v>1292</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1580</v>
+        <v>1451</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1762</v>
+        <v>1625</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1958</v>
+        <v>1814</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2169</v>
+        <v>2018</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>2396</v>
+        <v>2238</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2639</v>
+        <v>2474</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2898</v>
+        <v>2727</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3174</v>
+        <v>2998</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>3466</v>
+        <v>3285</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>3775</v>
+        <v>3590</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4101</v>
+        <v>3913</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>4443</v>
+        <v>4253</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>4802</v>
+        <v>4611</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>5177</v>
+        <v>4986</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5568</v>
+        <v>5378</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>5974</v>
+        <v>5786</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>6395</v>
+        <v>6210</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>6830</v>
+        <v>6650</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7278</v>
+        <v>7104</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>7739</v>
+        <v>7573</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>8211</v>
+        <v>8054</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>8694</v>
+        <v>8547</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>9187</v>
+        <v>9051</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>9688</v>
+        <v>9564</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10196</v>
+        <v>10087</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>10710</v>
+        <v>10616</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>11229</v>
+        <v>11151</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>11751</v>
+        <v>11690</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>12275</v>
+        <v>12233</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>12800</v>
+        <v>12776</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13324</v>
+        <v>13320</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>13845</v>
+        <v>13862</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>14363</v>
+        <v>14401</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14876</v>
+        <v>14935</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>15382</v>
+        <v>15463</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>15879</v>
+        <v>15983</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16368</v>
+        <v>16494</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16845</v>
+        <v>16994</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17311</v>
+        <v>17482</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17763</v>
+        <v>17957</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>18201</v>
+        <v>18416</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>18623</v>
+        <v>18859</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>19028</v>
+        <v>19285</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>19416</v>
+        <v>19693</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>19784</v>
+        <v>20081</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20133</v>
+        <v>20449</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -5149,24 +5149,24 @@
         <v>44015</v>
       </c>
       <c r="B165" t="n">
-        <v>646006</v>
+        <v>648315</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>22771</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>20462</v>
+        <v>20795</v>
       </c>
       <c r="F165" t="n">
-        <v>18627</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>3671</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>44016</v>
       </c>
       <c r="B166" t="n">
-        <v>666776</v>
+        <v>669434</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -5189,13 +5189,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20770</v>
+        <v>21119</v>
       </c>
       <c r="F166" t="n">
-        <v>18940</v>
+        <v>19296</v>
       </c>
       <c r="G166" t="n">
-        <v>3660</v>
+        <v>3647</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>44017</v>
       </c>
       <c r="B167" t="n">
-        <v>687832</v>
+        <v>690855</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>21056</v>
+        <v>21421</v>
       </c>
       <c r="F167" t="n">
-        <v>19231</v>
+        <v>19602</v>
       </c>
       <c r="G167" t="n">
-        <v>3649</v>
+        <v>3636</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>44018</v>
       </c>
       <c r="B168" t="n">
-        <v>709152</v>
+        <v>712553</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>21320</v>
+        <v>21698</v>
       </c>
       <c r="F168" t="n">
-        <v>19500</v>
+        <v>19886</v>
       </c>
       <c r="G168" t="n">
-        <v>3638</v>
+        <v>3625</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>44019</v>
       </c>
       <c r="B169" t="n">
-        <v>730712</v>
+        <v>734505</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5276,13 +5276,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>21560</v>
+        <v>21952</v>
       </c>
       <c r="F169" t="n">
-        <v>19747</v>
+        <v>20145</v>
       </c>
       <c r="G169" t="n">
-        <v>3627</v>
+        <v>3614</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>752490</v>
+        <v>756687</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>21778</v>
+        <v>22182</v>
       </c>
       <c r="F170" t="n">
-        <v>19970</v>
+        <v>20380</v>
       </c>
       <c r="G170" t="n">
-        <v>3616</v>
+        <v>3603</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>774463</v>
+        <v>779073</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>21973</v>
+        <v>22386</v>
       </c>
       <c r="F171" t="n">
-        <v>20170</v>
+        <v>20590</v>
       </c>
       <c r="G171" t="n">
-        <v>3606</v>
+        <v>3593</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>796606</v>
+        <v>801639</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>22143</v>
+        <v>22566</v>
       </c>
       <c r="F172" t="n">
-        <v>20346</v>
+        <v>20775</v>
       </c>
       <c r="G172" t="n">
-        <v>3595</v>
+        <v>3582</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>818896</v>
+        <v>824359</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22290</v>
+        <v>22720</v>
       </c>
       <c r="F173" t="n">
-        <v>20498</v>
+        <v>20935</v>
       </c>
       <c r="G173" t="n">
-        <v>3584</v>
+        <v>3572</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>841310</v>
+        <v>847209</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>22414</v>
+        <v>22850</v>
       </c>
       <c r="F174" t="n">
-        <v>20627</v>
+        <v>21069</v>
       </c>
       <c r="G174" t="n">
-        <v>3574</v>
+        <v>3561</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>863823</v>
+        <v>870163</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>22513</v>
+        <v>22954</v>
       </c>
       <c r="F175" t="n">
-        <v>20731</v>
+        <v>21178</v>
       </c>
       <c r="G175" t="n">
-        <v>3564</v>
+        <v>3551</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>886412</v>
+        <v>893196</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>22589</v>
+        <v>23033</v>
       </c>
       <c r="F176" t="n">
-        <v>20812</v>
+        <v>21262</v>
       </c>
       <c r="G176" t="n">
-        <v>3553</v>
+        <v>3541</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>909053</v>
+        <v>916283</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>22641</v>
+        <v>23087</v>
       </c>
       <c r="F177" t="n">
-        <v>20869</v>
+        <v>21321</v>
       </c>
       <c r="G177" t="n">
-        <v>3543</v>
+        <v>3531</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>931723</v>
+        <v>939399</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>22670</v>
+        <v>23116</v>
       </c>
       <c r="F178" t="n">
-        <v>20903</v>
+        <v>21355</v>
       </c>
       <c r="G178" t="n">
-        <v>3533</v>
+        <v>3521</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>954399</v>
+        <v>962520</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22676</v>
+        <v>23121</v>
       </c>
       <c r="F179" t="n">
-        <v>20914</v>
+        <v>21365</v>
       </c>
       <c r="G179" t="n">
-        <v>3523</v>
+        <v>3511</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>977058</v>
+        <v>985621</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>22659</v>
+        <v>23101</v>
       </c>
       <c r="F180" t="n">
-        <v>20902</v>
+        <v>21351</v>
       </c>
       <c r="G180" t="n">
-        <v>3513</v>
+        <v>3501</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>999678</v>
+        <v>1008680</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>22620</v>
+        <v>23059</v>
       </c>
       <c r="F181" t="n">
-        <v>20868</v>
+        <v>21313</v>
       </c>
       <c r="G181" t="n">
-        <v>3503</v>
+        <v>3491</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>1022238</v>
+        <v>1031673</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22560</v>
+        <v>22993</v>
       </c>
       <c r="F182" t="n">
-        <v>20813</v>
+        <v>21252</v>
       </c>
       <c r="G182" t="n">
-        <v>3494</v>
+        <v>3481</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>1044716</v>
+        <v>1054578</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22478</v>
+        <v>22905</v>
       </c>
       <c r="F183" t="n">
-        <v>20736</v>
+        <v>21169</v>
       </c>
       <c r="G183" t="n">
-        <v>3484</v>
+        <v>3472</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>1067091</v>
+        <v>1077373</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22375</v>
+        <v>22795</v>
       </c>
       <c r="F184" t="n">
-        <v>20638</v>
+        <v>21064</v>
       </c>
       <c r="G184" t="n">
-        <v>3474</v>
+        <v>3462</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>1089344</v>
+        <v>1100037</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>22253</v>
+        <v>22664</v>
       </c>
       <c r="F185" t="n">
-        <v>20521</v>
+        <v>20937</v>
       </c>
       <c r="G185" t="n">
-        <v>3465</v>
+        <v>3453</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>1111456</v>
+        <v>1122549</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22112</v>
+        <v>22512</v>
       </c>
       <c r="F186" t="n">
-        <v>20384</v>
+        <v>20791</v>
       </c>
       <c r="G186" t="n">
-        <v>3456</v>
+        <v>3443</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>1133407</v>
+        <v>1144890</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21951</v>
+        <v>22341</v>
       </c>
       <c r="F187" t="n">
-        <v>20228</v>
+        <v>20624</v>
       </c>
       <c r="G187" t="n">
-        <v>3446</v>
+        <v>3434</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>1155180</v>
+        <v>1167041</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>21773</v>
+        <v>22151</v>
       </c>
       <c r="F188" t="n">
-        <v>20055</v>
+        <v>20439</v>
       </c>
       <c r="G188" t="n">
-        <v>3437</v>
+        <v>3425</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>1176758</v>
+        <v>1188984</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>21578</v>
+        <v>21943</v>
       </c>
       <c r="F189" t="n">
-        <v>19864</v>
+        <v>20236</v>
       </c>
       <c r="G189" t="n">
-        <v>3428</v>
+        <v>3416</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>1198125</v>
+        <v>1210702</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>21367</v>
+        <v>21718</v>
       </c>
       <c r="F190" t="n">
-        <v>19658</v>
+        <v>20015</v>
       </c>
       <c r="G190" t="n">
-        <v>3419</v>
+        <v>3406</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>1219265</v>
+        <v>1232179</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>21140</v>
+        <v>21477</v>
       </c>
       <c r="F191" t="n">
-        <v>19435</v>
+        <v>19778</v>
       </c>
       <c r="G191" t="n">
-        <v>3409</v>
+        <v>3397</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>44042</v>
       </c>
       <c r="B192" t="n">
-        <v>1240163</v>
+        <v>1253399</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>20898</v>
+        <v>21220</v>
       </c>
       <c r="F192" t="n">
-        <v>19198</v>
+        <v>19526</v>
       </c>
       <c r="G192" t="n">
-        <v>3401</v>
+        <v>3388</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>44043</v>
       </c>
       <c r="B193" t="n">
-        <v>1260806</v>
+        <v>1274348</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>20643</v>
+        <v>20949</v>
       </c>
       <c r="F193" t="n">
-        <v>18947</v>
+        <v>19260</v>
       </c>
       <c r="G193" t="n">
-        <v>3392</v>
+        <v>3380</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>44044</v>
       </c>
       <c r="B194" t="n">
-        <v>1281181</v>
+        <v>1295013</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20375</v>
+        <v>20665</v>
       </c>
       <c r="F194" t="n">
-        <v>18683</v>
+        <v>18979</v>
       </c>
       <c r="G194" t="n">
-        <v>3383</v>
+        <v>3371</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>44045</v>
       </c>
       <c r="B195" t="n">
-        <v>1301275</v>
+        <v>1315380</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>20094</v>
+        <v>20367</v>
       </c>
       <c r="F195" t="n">
-        <v>18407</v>
+        <v>18686</v>
       </c>
       <c r="G195" t="n">
-        <v>3374</v>
+        <v>3362</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>44046</v>
       </c>
       <c r="B196" t="n">
-        <v>1321077</v>
+        <v>1335438</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>19802</v>
+        <v>20058</v>
       </c>
       <c r="F196" t="n">
-        <v>18119</v>
+        <v>18382</v>
       </c>
       <c r="G196" t="n">
-        <v>3365</v>
+        <v>3353</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>44047</v>
       </c>
       <c r="B197" t="n">
-        <v>1340577</v>
+        <v>1355176</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19500</v>
+        <v>19738</v>
       </c>
       <c r="F197" t="n">
-        <v>17821</v>
+        <v>18066</v>
       </c>
       <c r="G197" t="n">
-        <v>3357</v>
+        <v>3345</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>44048</v>
       </c>
       <c r="B198" t="n">
-        <v>1359765</v>
+        <v>1374585</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>19188</v>
+        <v>19409</v>
       </c>
       <c r="F198" t="n">
-        <v>17514</v>
+        <v>17740</v>
       </c>
       <c r="G198" t="n">
-        <v>3348</v>
+        <v>3336</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>44049</v>
       </c>
       <c r="B199" t="n">
-        <v>1378632</v>
+        <v>1393655</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -6146,13 +6146,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>18867</v>
+        <v>19070</v>
       </c>
       <c r="F199" t="n">
-        <v>17197</v>
+        <v>17406</v>
       </c>
       <c r="G199" t="n">
-        <v>3340</v>
+        <v>3328</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>44050</v>
       </c>
       <c r="B200" t="n">
-        <v>1397170</v>
+        <v>1412378</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>18538</v>
+        <v>18723</v>
       </c>
       <c r="F200" t="n">
-        <v>16872</v>
+        <v>17063</v>
       </c>
       <c r="G200" t="n">
-        <v>3331</v>
+        <v>3319</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>44051</v>
       </c>
       <c r="B201" t="n">
-        <v>1415372</v>
+        <v>1430747</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -6204,13 +6204,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>18202</v>
+        <v>18369</v>
       </c>
       <c r="F201" t="n">
-        <v>16541</v>
+        <v>16713</v>
       </c>
       <c r="G201" t="n">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>44052</v>
       </c>
       <c r="B202" t="n">
-        <v>1433232</v>
+        <v>1448755</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>17860</v>
+        <v>18008</v>
       </c>
       <c r="F202" t="n">
-        <v>16203</v>
+        <v>16357</v>
       </c>
       <c r="G202" t="n">
-        <v>3314</v>
+        <v>3303</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>44053</v>
       </c>
       <c r="B203" t="n">
-        <v>1450744</v>
+        <v>1466397</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17512</v>
+        <v>17642</v>
       </c>
       <c r="F203" t="n">
-        <v>15859</v>
+        <v>15995</v>
       </c>
       <c r="G203" t="n">
-        <v>3306</v>
+        <v>3294</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>44054</v>
       </c>
       <c r="B204" t="n">
-        <v>1467903</v>
+        <v>1483669</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>17159</v>
+        <v>17272</v>
       </c>
       <c r="F204" t="n">
-        <v>15510</v>
+        <v>15629</v>
       </c>
       <c r="G204" t="n">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>44055</v>
       </c>
       <c r="B205" t="n">
-        <v>1484706</v>
+        <v>1500566</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16803</v>
+        <v>16897</v>
       </c>
       <c r="F205" t="n">
-        <v>15158</v>
+        <v>15258</v>
       </c>
       <c r="G205" t="n">
-        <v>3290</v>
+        <v>3278</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>44056</v>
       </c>
       <c r="B206" t="n">
-        <v>1501148</v>
+        <v>1517086</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>16442</v>
+        <v>16520</v>
       </c>
       <c r="F206" t="n">
-        <v>14802</v>
+        <v>14884</v>
       </c>
       <c r="G206" t="n">
-        <v>3282</v>
+        <v>3270</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>44057</v>
       </c>
       <c r="B207" t="n">
-        <v>1517228</v>
+        <v>1533225</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>16080</v>
+        <v>16139</v>
       </c>
       <c r="F207" t="n">
-        <v>14443</v>
+        <v>14508</v>
       </c>
       <c r="G207" t="n">
-        <v>3274</v>
+        <v>3262</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>44058</v>
       </c>
       <c r="B208" t="n">
-        <v>1532943</v>
+        <v>1548983</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>15715</v>
+        <v>15758</v>
       </c>
       <c r="F208" t="n">
-        <v>14082</v>
+        <v>14131</v>
       </c>
       <c r="G208" t="n">
-        <v>3266</v>
+        <v>3254</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>44059</v>
       </c>
       <c r="B209" t="n">
-        <v>1548292</v>
+        <v>1564358</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>15349</v>
+        <v>15375</v>
       </c>
       <c r="F209" t="n">
-        <v>13720</v>
+        <v>13752</v>
       </c>
       <c r="G209" t="n">
-        <v>3258</v>
+        <v>3246</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>44060</v>
       </c>
       <c r="B210" t="n">
-        <v>1563274</v>
+        <v>1579350</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>14982</v>
+        <v>14992</v>
       </c>
       <c r="F210" t="n">
-        <v>13357</v>
+        <v>13373</v>
       </c>
       <c r="G210" t="n">
-        <v>3250</v>
+        <v>3239</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>44061</v>
       </c>
       <c r="B211" t="n">
-        <v>1577889</v>
+        <v>1593959</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14615</v>
+        <v>14609</v>
       </c>
       <c r="F211" t="n">
         <v>12994</v>
       </c>
       <c r="G211" t="n">
-        <v>3242</v>
+        <v>3231</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>44062</v>
       </c>
       <c r="B212" t="n">
-        <v>1592138</v>
+        <v>1608187</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>14249</v>
+        <v>14228</v>
       </c>
       <c r="F212" t="n">
-        <v>12632</v>
+        <v>12616</v>
       </c>
       <c r="G212" t="n">
-        <v>3235</v>
+        <v>3223</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>44063</v>
       </c>
       <c r="B213" t="n">
-        <v>1606022</v>
+        <v>1622034</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>13884</v>
+        <v>13847</v>
       </c>
       <c r="F213" t="n">
-        <v>12270</v>
+        <v>12240</v>
       </c>
       <c r="G213" t="n">
-        <v>3227</v>
+        <v>3215</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>44064</v>
       </c>
       <c r="B214" t="n">
-        <v>1619542</v>
+        <v>1635503</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>13520</v>
+        <v>13469</v>
       </c>
       <c r="F214" t="n">
-        <v>11910</v>
+        <v>11865</v>
       </c>
       <c r="G214" t="n">
-        <v>3219</v>
+        <v>3208</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>44065</v>
       </c>
       <c r="B215" t="n">
-        <v>1632700</v>
+        <v>1648597</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6610,13 +6610,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>13158</v>
+        <v>13094</v>
       </c>
       <c r="F215" t="n">
-        <v>11553</v>
+        <v>11494</v>
       </c>
       <c r="G215" t="n">
-        <v>3212</v>
+        <v>3200</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>44066</v>
       </c>
       <c r="B216" t="n">
-        <v>1645499</v>
+        <v>1661318</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12799</v>
+        <v>12721</v>
       </c>
       <c r="F216" t="n">
-        <v>11197</v>
+        <v>11125</v>
       </c>
       <c r="G216" t="n">
-        <v>3204</v>
+        <v>3193</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>44067</v>
       </c>
       <c r="B217" t="n">
-        <v>1657942</v>
+        <v>1673670</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12443</v>
+        <v>12352</v>
       </c>
       <c r="F217" t="n">
-        <v>10844</v>
+        <v>10759</v>
       </c>
       <c r="G217" t="n">
-        <v>3197</v>
+        <v>3185</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>44068</v>
       </c>
       <c r="B218" t="n">
-        <v>1670032</v>
+        <v>1685657</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>12090</v>
+        <v>11987</v>
       </c>
       <c r="F218" t="n">
-        <v>10495</v>
+        <v>10398</v>
       </c>
       <c r="G218" t="n">
-        <v>3189</v>
+        <v>3178</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44069</v>
       </c>
       <c r="B219" t="n">
-        <v>1681773</v>
+        <v>1697283</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>11741</v>
+        <v>11626</v>
       </c>
       <c r="F219" t="n">
-        <v>10150</v>
+        <v>10041</v>
       </c>
       <c r="G219" t="n">
-        <v>3182</v>
+        <v>3171</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>44070</v>
       </c>
       <c r="B220" t="n">
-        <v>1693168</v>
+        <v>1708553</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>11395</v>
+        <v>11270</v>
       </c>
       <c r="F220" t="n">
-        <v>9808</v>
+        <v>9688</v>
       </c>
       <c r="G220" t="n">
-        <v>3175</v>
+        <v>3163</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>44071</v>
       </c>
       <c r="B221" t="n">
-        <v>1704223</v>
+        <v>1719472</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>11055</v>
+        <v>10919</v>
       </c>
       <c r="F221" t="n">
-        <v>9471</v>
+        <v>9341</v>
       </c>
       <c r="G221" t="n">
-        <v>3167</v>
+        <v>3156</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>44072</v>
       </c>
       <c r="B222" t="n">
-        <v>1714942</v>
+        <v>1730045</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10719</v>
+        <v>10573</v>
       </c>
       <c r="F222" t="n">
-        <v>9138</v>
+        <v>8998</v>
       </c>
       <c r="G222" t="n">
-        <v>3160</v>
+        <v>3149</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>44073</v>
       </c>
       <c r="B223" t="n">
-        <v>1725329</v>
+        <v>1740278</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>10387</v>
+        <v>10233</v>
       </c>
       <c r="F223" t="n">
-        <v>8811</v>
+        <v>8662</v>
       </c>
       <c r="G223" t="n">
-        <v>3153</v>
+        <v>3142</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>44074</v>
       </c>
       <c r="B224" t="n">
-        <v>1735391</v>
+        <v>1750176</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>10062</v>
+        <v>9898</v>
       </c>
       <c r="F224" t="n">
-        <v>8489</v>
+        <v>8331</v>
       </c>
       <c r="G224" t="n">
-        <v>3146</v>
+        <v>3135</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>44075</v>
       </c>
       <c r="B225" t="n">
-        <v>1745132</v>
+        <v>1759746</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>9741</v>
+        <v>9570</v>
       </c>
       <c r="F225" t="n">
-        <v>8172</v>
+        <v>8006</v>
       </c>
       <c r="G225" t="n">
-        <v>3139</v>
+        <v>3128</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>44076</v>
       </c>
       <c r="B226" t="n">
-        <v>1754558</v>
+        <v>1768993</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>9426</v>
+        <v>9247</v>
       </c>
       <c r="F226" t="n">
-        <v>7860</v>
+        <v>7687</v>
       </c>
       <c r="G226" t="n">
-        <v>3132</v>
+        <v>3121</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>44077</v>
       </c>
       <c r="B227" t="n">
-        <v>1763675</v>
+        <v>1777925</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9117</v>
+        <v>8932</v>
       </c>
       <c r="F227" t="n">
-        <v>7555</v>
+        <v>7375</v>
       </c>
       <c r="G227" t="n">
-        <v>3125</v>
+        <v>3114</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>44078</v>
       </c>
       <c r="B228" t="n">
-        <v>1772489</v>
+        <v>1786548</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8814</v>
+        <v>8623</v>
       </c>
       <c r="F228" t="n">
-        <v>7255</v>
+        <v>7069</v>
       </c>
       <c r="G228" t="n">
-        <v>3118</v>
+        <v>3107</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>44079</v>
       </c>
       <c r="B229" t="n">
-        <v>1781006</v>
+        <v>1794868</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>8517</v>
+        <v>8320</v>
       </c>
       <c r="F229" t="n">
-        <v>6962</v>
+        <v>6770</v>
       </c>
       <c r="G229" t="n">
-        <v>3111</v>
+        <v>3100</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>44080</v>
       </c>
       <c r="B230" t="n">
-        <v>1789233</v>
+        <v>1802892</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>8227</v>
+        <v>8024</v>
       </c>
       <c r="F230" t="n">
-        <v>6675</v>
+        <v>6478</v>
       </c>
       <c r="G230" t="n">
-        <v>3104</v>
+        <v>3093</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>44081</v>
       </c>
       <c r="B231" t="n">
-        <v>1797176</v>
+        <v>1810628</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>7943</v>
+        <v>7736</v>
       </c>
       <c r="F231" t="n">
-        <v>6394</v>
+        <v>6192</v>
       </c>
       <c r="G231" t="n">
-        <v>3097</v>
+        <v>3086</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>44082</v>
       </c>
       <c r="B232" t="n">
-        <v>1804841</v>
+        <v>1818082</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>7665</v>
+        <v>7454</v>
       </c>
       <c r="F232" t="n">
-        <v>6119</v>
+        <v>5914</v>
       </c>
       <c r="G232" t="n">
-        <v>3091</v>
+        <v>3080</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>44083</v>
       </c>
       <c r="B233" t="n">
-        <v>1812234</v>
+        <v>1825261</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>7393</v>
+        <v>7179</v>
       </c>
       <c r="F233" t="n">
-        <v>5851</v>
+        <v>5642</v>
       </c>
       <c r="G233" t="n">
-        <v>3084</v>
+        <v>3073</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>44084</v>
       </c>
       <c r="B234" t="n">
-        <v>1819363</v>
+        <v>1832172</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>7129</v>
+        <v>6911</v>
       </c>
       <c r="F234" t="n">
-        <v>5590</v>
+        <v>5378</v>
       </c>
       <c r="G234" t="n">
-        <v>3077</v>
+        <v>3066</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>44085</v>
       </c>
       <c r="B235" t="n">
-        <v>1826234</v>
+        <v>1838823</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>6871</v>
+        <v>6651</v>
       </c>
       <c r="F235" t="n">
-        <v>5335</v>
+        <v>5121</v>
       </c>
       <c r="G235" t="n">
-        <v>3071</v>
+        <v>3060</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>44086</v>
       </c>
       <c r="B236" t="n">
-        <v>1832853</v>
+        <v>1845220</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>6619</v>
+        <v>6397</v>
       </c>
       <c r="F236" t="n">
-        <v>5087</v>
+        <v>4870</v>
       </c>
       <c r="G236" t="n">
-        <v>3064</v>
+        <v>3053</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>44087</v>
       </c>
       <c r="B237" t="n">
-        <v>1839227</v>
+        <v>1851370</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>6374</v>
+        <v>6150</v>
       </c>
       <c r="F237" t="n">
-        <v>4845</v>
+        <v>4627</v>
       </c>
       <c r="G237" t="n">
-        <v>3058</v>
+        <v>3047</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>44088</v>
       </c>
       <c r="B238" t="n">
-        <v>1845362</v>
+        <v>1857281</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -7277,13 +7277,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>6135</v>
+        <v>5911</v>
       </c>
       <c r="F238" t="n">
-        <v>4610</v>
+        <v>4390</v>
       </c>
       <c r="G238" t="n">
-        <v>3051</v>
+        <v>3040</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>44089</v>
       </c>
       <c r="B239" t="n">
-        <v>1851266</v>
+        <v>1862959</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>5904</v>
+        <v>5678</v>
       </c>
       <c r="F239" t="n">
-        <v>4381</v>
+        <v>4161</v>
       </c>
       <c r="G239" t="n">
-        <v>3045</v>
+        <v>3034</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>44090</v>
       </c>
       <c r="B240" t="n">
-        <v>1856944</v>
+        <v>1868411</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5678</v>
+        <v>5452</v>
       </c>
       <c r="F240" t="n">
-        <v>4159</v>
+        <v>3939</v>
       </c>
       <c r="G240" t="n">
-        <v>3038</v>
+        <v>3028</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>44091</v>
       </c>
       <c r="B241" t="n">
-        <v>1862403</v>
+        <v>1873645</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>5459</v>
+        <v>5234</v>
       </c>
       <c r="F241" t="n">
-        <v>3943</v>
+        <v>3723</v>
       </c>
       <c r="G241" t="n">
-        <v>3032</v>
+        <v>3021</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>44092</v>
       </c>
       <c r="B242" t="n">
-        <v>1867650</v>
+        <v>1878666</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>5247</v>
+        <v>5021</v>
       </c>
       <c r="F242" t="n">
-        <v>3734</v>
+        <v>3514</v>
       </c>
       <c r="G242" t="n">
-        <v>3026</v>
+        <v>3015</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>44093</v>
       </c>
       <c r="B243" t="n">
-        <v>1872691</v>
+        <v>1883482</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>5041</v>
+        <v>4816</v>
       </c>
       <c r="F243" t="n">
-        <v>3531</v>
+        <v>3312</v>
       </c>
       <c r="G243" t="n">
-        <v>3019</v>
+        <v>3009</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>44094</v>
       </c>
       <c r="B244" t="n">
-        <v>1877532</v>
+        <v>1888099</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>4841</v>
+        <v>4617</v>
       </c>
       <c r="F244" t="n">
-        <v>3334</v>
+        <v>3116</v>
       </c>
       <c r="G244" t="n">
-        <v>3013</v>
+        <v>3002</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>44095</v>
       </c>
       <c r="B245" t="n">
-        <v>1882179</v>
+        <v>1892524</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>4647</v>
+        <v>4425</v>
       </c>
       <c r="F245" t="n">
-        <v>3144</v>
+        <v>2927</v>
       </c>
       <c r="G245" t="n">
-        <v>3007</v>
+        <v>2996</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>44096</v>
       </c>
       <c r="B246" t="n">
-        <v>1886639</v>
+        <v>1896763</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4460</v>
+        <v>4239</v>
       </c>
       <c r="F246" t="n">
-        <v>2960</v>
+        <v>2744</v>
       </c>
       <c r="G246" t="n">
-        <v>3001</v>
+        <v>2990</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>44097</v>
       </c>
       <c r="B247" t="n">
-        <v>1890918</v>
+        <v>1900823</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>4279</v>
+        <v>4060</v>
       </c>
       <c r="F247" t="n">
-        <v>2781</v>
+        <v>2568</v>
       </c>
       <c r="G247" t="n">
-        <v>2995</v>
+        <v>2984</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>44098</v>
       </c>
       <c r="B248" t="n">
-        <v>1895021</v>
+        <v>1904709</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7567,13 +7567,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>4103</v>
+        <v>3886</v>
       </c>
       <c r="F248" t="n">
-        <v>2609</v>
+        <v>2397</v>
       </c>
       <c r="G248" t="n">
-        <v>2989</v>
+        <v>2978</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>44099</v>
       </c>
       <c r="B249" t="n">
-        <v>1898955</v>
+        <v>1908428</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>3934</v>
+        <v>3719</v>
       </c>
       <c r="F249" t="n">
-        <v>2442</v>
+        <v>2233</v>
       </c>
       <c r="G249" t="n">
-        <v>2982</v>
+        <v>2972</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>44100</v>
       </c>
       <c r="B250" t="n">
-        <v>1902725</v>
+        <v>1911986</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>3770</v>
+        <v>3558</v>
       </c>
       <c r="F250" t="n">
-        <v>2281</v>
+        <v>2075</v>
       </c>
       <c r="G250" t="n">
-        <v>2976</v>
+        <v>2966</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>44101</v>
       </c>
       <c r="B251" t="n">
-        <v>1906336</v>
+        <v>1915388</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>3611</v>
+        <v>3402</v>
       </c>
       <c r="F251" t="n">
-        <v>2126</v>
+        <v>1922</v>
       </c>
       <c r="G251" t="n">
-        <v>2970</v>
+        <v>2960</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -7672,7 +7672,7 @@
         <v>44102</v>
       </c>
       <c r="B252" t="n">
-        <v>1909795</v>
+        <v>1918640</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7683,13 +7683,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>3459</v>
+        <v>3252</v>
       </c>
       <c r="F252" t="n">
-        <v>1976</v>
+        <v>1775</v>
       </c>
       <c r="G252" t="n">
-        <v>2964</v>
+        <v>2954</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>44103</v>
       </c>
       <c r="B253" t="n">
-        <v>1913106</v>
+        <v>1921748</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7712,13 +7712,13 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3311</v>
+        <v>3108</v>
       </c>
       <c r="F253" t="n">
-        <v>1832</v>
+        <v>1634</v>
       </c>
       <c r="G253" t="n">
-        <v>2959</v>
+        <v>2948</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>44104</v>
       </c>
       <c r="B254" t="n">
-        <v>1916275</v>
+        <v>1924717</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7741,13 +7741,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3169</v>
+        <v>2969</v>
       </c>
       <c r="F254" t="n">
-        <v>1693</v>
+        <v>1498</v>
       </c>
       <c r="G254" t="n">
-        <v>2953</v>
+        <v>2942</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>44105</v>
       </c>
       <c r="B255" t="n">
-        <v>1919307</v>
+        <v>1927553</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7770,13 +7770,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>3032</v>
+        <v>2836</v>
       </c>
       <c r="F255" t="n">
-        <v>1559</v>
+        <v>1367</v>
       </c>
       <c r="G255" t="n">
-        <v>2947</v>
+        <v>2936</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -7788,7 +7788,7 @@
         <v>44106</v>
       </c>
       <c r="B256" t="n">
-        <v>1922207</v>
+        <v>1930260</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7799,13 +7799,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>2900</v>
+        <v>2707</v>
       </c>
       <c r="F256" t="n">
-        <v>1429</v>
+        <v>1242</v>
       </c>
       <c r="G256" t="n">
-        <v>2941</v>
+        <v>2931</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>44107</v>
       </c>
       <c r="B257" t="n">
-        <v>1924980</v>
+        <v>1932844</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7828,13 +7828,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>2773</v>
+        <v>2584</v>
       </c>
       <c r="F257" t="n">
-        <v>1305</v>
+        <v>1121</v>
       </c>
       <c r="G257" t="n">
-        <v>2935</v>
+        <v>2925</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="B258" t="n">
-        <v>1927631</v>
+        <v>1935309</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>2651</v>
+        <v>2465</v>
       </c>
       <c r="F258" t="n">
-        <v>1186</v>
+        <v>1005</v>
       </c>
       <c r="G258" t="n">
-        <v>2930</v>
+        <v>2919</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>44109</v>
       </c>
       <c r="B259" t="n">
-        <v>1930164</v>
+        <v>1937660</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7886,13 +7886,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>2533</v>
+        <v>2351</v>
       </c>
       <c r="F259" t="n">
-        <v>1071</v>
+        <v>894</v>
       </c>
       <c r="G259" t="n">
-        <v>2924</v>
+        <v>2913</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -7904,7 +7904,7 @@
         <v>44110</v>
       </c>
       <c r="B260" t="n">
-        <v>1932584</v>
+        <v>1939902</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>2420</v>
+        <v>2242</v>
       </c>
       <c r="F260" t="n">
-        <v>961</v>
+        <v>788</v>
       </c>
       <c r="G260" t="n">
-        <v>2918</v>
+        <v>2908</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>44111</v>
       </c>
       <c r="B261" t="n">
-        <v>1934895</v>
+        <v>1942039</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>2311</v>
+        <v>2137</v>
       </c>
       <c r="F261" t="n">
-        <v>855</v>
+        <v>686</v>
       </c>
       <c r="G261" t="n">
-        <v>2913</v>
+        <v>2902</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>44112</v>
       </c>
       <c r="B262" t="n">
-        <v>1937101</v>
+        <v>1944075</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7973,13 +7973,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2206</v>
+        <v>2036</v>
       </c>
       <c r="F262" t="n">
-        <v>753</v>
+        <v>588</v>
       </c>
       <c r="G262" t="n">
-        <v>2907</v>
+        <v>2897</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>44113</v>
       </c>
       <c r="B263" t="n">
-        <v>1939207</v>
+        <v>1946015</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>2106</v>
+        <v>1940</v>
       </c>
       <c r="F263" t="n">
-        <v>655</v>
+        <v>494</v>
       </c>
       <c r="G263" t="n">
-        <v>2901</v>
+        <v>2891</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>44114</v>
       </c>
       <c r="B264" t="n">
-        <v>1941216</v>
+        <v>1947862</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>2009</v>
+        <v>1847</v>
       </c>
       <c r="F264" t="n">
-        <v>561</v>
+        <v>404</v>
       </c>
       <c r="G264" t="n">
-        <v>2896</v>
+        <v>2886</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>44115</v>
       </c>
       <c r="B265" t="n">
-        <v>1943133</v>
+        <v>1949621</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1917</v>
+        <v>1759</v>
       </c>
       <c r="F265" t="n">
-        <v>472</v>
+        <v>319</v>
       </c>
       <c r="G265" t="n">
-        <v>2890</v>
+        <v>2880</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>44116</v>
       </c>
       <c r="B266" t="n">
-        <v>1944961</v>
+        <v>1951295</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -8089,13 +8089,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1828</v>
+        <v>1674</v>
       </c>
       <c r="F266" t="n">
-        <v>386</v>
+        <v>237</v>
       </c>
       <c r="G266" t="n">
-        <v>2885</v>
+        <v>2875</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>44117</v>
       </c>
       <c r="B267" t="n">
-        <v>1946704</v>
+        <v>1952888</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1743</v>
+        <v>1593</v>
       </c>
       <c r="F267" t="n">
-        <v>303</v>
+        <v>158</v>
       </c>
       <c r="G267" t="n">
-        <v>2879</v>
+        <v>2869</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>44118</v>
       </c>
       <c r="B268" t="n">
-        <v>1948365</v>
+        <v>1954403</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -8147,13 +8147,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1661</v>
+        <v>1515</v>
       </c>
       <c r="F268" t="n">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="G268" t="n">
-        <v>2874</v>
+        <v>2864</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>44119</v>
       </c>
       <c r="B269" t="n">
-        <v>1949948</v>
+        <v>1955844</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -8176,13 +8176,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1583</v>
+        <v>1441</v>
       </c>
       <c r="F269" t="n">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="G269" t="n">
-        <v>2869</v>
+        <v>2858</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -8194,7 +8194,7 @@
         <v>44120</v>
       </c>
       <c r="B270" t="n">
-        <v>1951456</v>
+        <v>1957214</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8205,13 +8205,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1508</v>
+        <v>1370</v>
       </c>
       <c r="F270" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>2863</v>
+        <v>2796</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>44121</v>
       </c>
       <c r="B271" t="n">
-        <v>1952893</v>
+        <v>1958516</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1437</v>
+        <v>1302</v>
       </c>
       <c r="F271" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>2858</v>
+        <v>2726</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>44122</v>
       </c>
       <c r="B272" t="n">
-        <v>1954261</v>
+        <v>1959753</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1368</v>
+        <v>1237</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>2794</v>
+        <v>2659</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>44123</v>
       </c>
       <c r="B273" t="n">
-        <v>1955563</v>
+        <v>1960928</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1302</v>
+        <v>1175</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>2726</v>
+        <v>2594</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>44124</v>
       </c>
       <c r="B274" t="n">
-        <v>1956802</v>
+        <v>1962044</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -8321,13 +8321,13 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1239</v>
+        <v>1116</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>2660</v>
+        <v>2532</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>44125</v>
       </c>
       <c r="B275" t="n">
-        <v>1957981</v>
+        <v>1963104</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -8350,13 +8350,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1179</v>
+        <v>1060</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>2598</v>
+        <v>2474</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -8368,7 +8368,7 @@
         <v>44126</v>
       </c>
       <c r="B276" t="n">
-        <v>1959103</v>
+        <v>1964110</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1122</v>
+        <v>1006</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>2538</v>
+        <v>2417</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -8397,7 +8397,7 @@
         <v>44127</v>
       </c>
       <c r="B277" t="n">
-        <v>1960170</v>
+        <v>1965065</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -8408,13 +8408,13 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1067</v>
+        <v>955</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>2480</v>
+        <v>2363</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>44128</v>
       </c>
       <c r="B278" t="n">
-        <v>1961184</v>
+        <v>1965971</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -8437,13 +8437,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1014</v>
+        <v>906</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>2425</v>
+        <v>2312</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>44129</v>
       </c>
       <c r="B279" t="n">
-        <v>1962148</v>
+        <v>1966831</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -8466,13 +8466,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>964</v>
+        <v>860</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>2372</v>
+        <v>2263</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>44130</v>
       </c>
       <c r="B280" t="n">
-        <v>1963065</v>
+        <v>1967646</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -8495,13 +8495,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>917</v>
+        <v>815</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>2322</v>
+        <v>2216</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -8513,7 +8513,7 @@
         <v>44131</v>
       </c>
       <c r="B281" t="n">
-        <v>1963936</v>
+        <v>1968419</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -8524,13 +8524,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>871</v>
+        <v>773</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>2274</v>
+        <v>2171</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>44132</v>
       </c>
       <c r="B282" t="n">
-        <v>1964763</v>
+        <v>1969152</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -8553,25 +8553,30 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>827</v>
+        <v>733</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>2228</v>
+        <v>2128</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>12438</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>End 97% on
+28 October 2020</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
         <v>44133</v>
       </c>
       <c r="B283" t="n">
-        <v>1965549</v>
+        <v>1969847</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -8582,13 +8587,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>786</v>
+        <v>695</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>2184</v>
+        <v>2088</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -8600,7 +8605,7 @@
         <v>44134</v>
       </c>
       <c r="B284" t="n">
-        <v>1966295</v>
+        <v>1970505</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -8611,13 +8616,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>746</v>
+        <v>658</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>2142</v>
+        <v>2049</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -8629,7 +8634,7 @@
         <v>44135</v>
       </c>
       <c r="B285" t="n">
-        <v>1967003</v>
+        <v>1971128</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -8640,30 +8645,25 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>708</v>
+        <v>623</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>2102</v>
+        <v>2012</v>
       </c>
       <c r="H285" t="n">
-        <v>12218</v>
-      </c>
-      <c r="I285" t="inlineStr">
-        <is>
-          <t>End 97% on
-31 October 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
         <v>44136</v>
       </c>
       <c r="B286" t="n">
-        <v>1967675</v>
+        <v>1971718</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8674,13 +8674,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>672</v>
+        <v>590</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>2063</v>
+        <v>1976</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>44137</v>
       </c>
       <c r="B287" t="n">
-        <v>1968313</v>
+        <v>1972277</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -8703,13 +8703,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>638</v>
+        <v>559</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>2026</v>
+        <v>1942</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>44138</v>
       </c>
       <c r="B288" t="n">
-        <v>1968918</v>
+        <v>1972806</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -8732,13 +8732,13 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>605</v>
+        <v>529</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>1991</v>
+        <v>1910</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>44139</v>
       </c>
       <c r="B289" t="n">
-        <v>1969492</v>
+        <v>1973307</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -8761,13 +8761,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>574</v>
+        <v>501</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>1958</v>
+        <v>1880</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>44140</v>
       </c>
       <c r="B290" t="n">
-        <v>1970037</v>
+        <v>1973781</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -8790,13 +8790,13 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>545</v>
+        <v>474</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>1926</v>
+        <v>1850</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -8808,7 +8808,7 @@
         <v>44141</v>
       </c>
       <c r="B291" t="n">
-        <v>1970554</v>
+        <v>1974230</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8819,13 +8819,13 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>517</v>
+        <v>449</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>1895</v>
+        <v>1822</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>44142</v>
       </c>
       <c r="B292" t="n">
-        <v>1971044</v>
+        <v>1974654</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8848,13 +8848,13 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>490</v>
+        <v>424</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>1866</v>
+        <v>1796</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>44143</v>
       </c>
       <c r="B293" t="n">
-        <v>1971508</v>
+        <v>1975055</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8877,13 +8877,13 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>464</v>
+        <v>401</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>1838</v>
+        <v>1770</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>44144</v>
       </c>
       <c r="B294" t="n">
-        <v>1971948</v>
+        <v>1975435</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8906,13 +8906,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1811</v>
+        <v>1746</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>44145</v>
       </c>
       <c r="B295" t="n">
-        <v>1972365</v>
+        <v>1975794</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>1786</v>
+        <v>1723</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -8953,7 +8953,7 @@
         <v>44146</v>
       </c>
       <c r="B296" t="n">
-        <v>1972760</v>
+        <v>1976133</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8964,13 +8964,13 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>1762</v>
+        <v>1701</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>44147</v>
       </c>
       <c r="B297" t="n">
-        <v>1973134</v>
+        <v>1976454</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8993,13 +8993,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>1739</v>
+        <v>1680</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>44148</v>
       </c>
       <c r="B298" t="n">
-        <v>1973488</v>
+        <v>1976757</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -9022,13 +9022,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>1716</v>
+        <v>1660</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>44149</v>
       </c>
       <c r="B299" t="n">
-        <v>1973823</v>
+        <v>1977043</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -9051,13 +9051,13 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>1695</v>
+        <v>1641</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -9069,7 +9069,7 @@
         <v>44150</v>
       </c>
       <c r="B300" t="n">
-        <v>1974141</v>
+        <v>1977313</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -9080,13 +9080,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1675</v>
+        <v>1623</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>44151</v>
       </c>
       <c r="B301" t="n">
-        <v>1974442</v>
+        <v>1977568</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -9109,13 +9109,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1656</v>
+        <v>1606</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>44152</v>
       </c>
       <c r="B302" t="n">
-        <v>1974726</v>
+        <v>1977809</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -9138,25 +9138,30 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1638</v>
+        <v>1589</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>7463</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>End 99% on
+17 November 2020</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="B303" t="n">
-        <v>1974995</v>
+        <v>1978037</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -9167,13 +9172,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1620</v>
+        <v>1574</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -9185,7 +9190,7 @@
         <v>44154</v>
       </c>
       <c r="B304" t="n">
-        <v>1975250</v>
+        <v>1978252</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -9196,13 +9201,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1603</v>
+        <v>1559</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9214,7 +9219,7 @@
         <v>44155</v>
       </c>
       <c r="B305" t="n">
-        <v>1975491</v>
+        <v>1978455</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -9225,30 +9230,25 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1587</v>
+        <v>1544</v>
       </c>
       <c r="H305" t="n">
-        <v>7331</v>
-      </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>End 99% on
-20 November 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="B306" t="n">
-        <v>1975719</v>
+        <v>1978646</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -9259,13 +9259,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1572</v>
+        <v>1531</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -9277,7 +9277,7 @@
         <v>44157</v>
       </c>
       <c r="B307" t="n">
-        <v>1975934</v>
+        <v>1978826</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -9288,13 +9288,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1557</v>
+        <v>1518</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -9306,7 +9306,7 @@
         <v>44158</v>
       </c>
       <c r="B308" t="n">
-        <v>1976138</v>
+        <v>1978996</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -9317,13 +9317,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1543</v>
+        <v>1505</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>44159</v>
       </c>
       <c r="B309" t="n">
-        <v>1976331</v>
+        <v>1979157</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -9346,13 +9346,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1530</v>
+        <v>1493</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>44160</v>
       </c>
       <c r="B310" t="n">
-        <v>1976513</v>
+        <v>1979308</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -9375,13 +9375,13 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1517</v>
+        <v>1482</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>44161</v>
       </c>
       <c r="B311" t="n">
-        <v>1976685</v>
+        <v>1979451</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1505</v>
+        <v>1471</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>44162</v>
       </c>
       <c r="B312" t="n">
-        <v>1976848</v>
+        <v>1979586</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -9433,13 +9433,13 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1494</v>
+        <v>1461</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>44163</v>
       </c>
       <c r="B313" t="n">
-        <v>1977002</v>
+        <v>1979713</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -9462,13 +9462,13 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1483</v>
+        <v>1451</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>44164</v>
       </c>
       <c r="B314" t="n">
-        <v>1977147</v>
+        <v>1979833</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1472</v>
+        <v>1442</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>44165</v>
       </c>
       <c r="B315" t="n">
-        <v>1977284</v>
+        <v>1979946</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -9520,13 +9520,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1462</v>
+        <v>1433</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9538,7 +9538,7 @@
         <v>44166</v>
       </c>
       <c r="B316" t="n">
-        <v>1977413</v>
+        <v>1980052</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -9549,13 +9549,13 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1452</v>
+        <v>1424</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>44167</v>
       </c>
       <c r="B317" t="n">
-        <v>1977535</v>
+        <v>1980152</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1443</v>
+        <v>1416</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>44168</v>
       </c>
       <c r="B318" t="n">
-        <v>1977650</v>
+        <v>1980246</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1434</v>
+        <v>1408</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>44169</v>
       </c>
       <c r="B319" t="n">
-        <v>1977759</v>
+        <v>1980335</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -9636,13 +9636,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1425</v>
+        <v>1400</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>44170</v>
       </c>
       <c r="B320" t="n">
-        <v>1977862</v>
+        <v>1980418</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -9665,13 +9665,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1417</v>
+        <v>1393</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>44171</v>
       </c>
       <c r="B321" t="n">
-        <v>1977959</v>
+        <v>1980497</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -9694,13 +9694,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>1409</v>
+        <v>1386</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>44172</v>
       </c>
       <c r="B322" t="n">
-        <v>1978051</v>
+        <v>1980571</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>1402</v>
+        <v>1379</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>44173</v>
       </c>
       <c r="B323" t="n">
-        <v>1978137</v>
+        <v>1980641</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -9752,13 +9752,13 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1394</v>
+        <v>1373</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -9770,7 +9770,7 @@
         <v>44174</v>
       </c>
       <c r="B324" t="n">
-        <v>1978219</v>
+        <v>1980707</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -9781,13 +9781,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1388</v>
+        <v>1367</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>44175</v>
       </c>
       <c r="B325" t="n">
-        <v>1978296</v>
+        <v>1980769</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1381</v>
+        <v>1361</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>44176</v>
       </c>
       <c r="B326" t="n">
-        <v>1978369</v>
+        <v>1980827</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -9839,13 +9839,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1375</v>
+        <v>1355</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>44177</v>
       </c>
       <c r="B327" t="n">
-        <v>1978437</v>
+        <v>1980882</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1368</v>
+        <v>1350</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>44178</v>
       </c>
       <c r="B328" t="n">
-        <v>1978501</v>
+        <v>1980933</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1363</v>
+        <v>1345</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>44179</v>
       </c>
       <c r="B329" t="n">
-        <v>1978562</v>
+        <v>1980981</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9926,13 +9926,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1357</v>
+        <v>1340</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>44180</v>
       </c>
       <c r="B330" t="n">
-        <v>1978619</v>
+        <v>1981026</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9955,13 +9955,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1351</v>
+        <v>1335</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>44181</v>
       </c>
       <c r="B331" t="n">
-        <v>1978673</v>
+        <v>1981069</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1346</v>
+        <v>1330</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>44182</v>
       </c>
       <c r="B332" t="n">
-        <v>1978724</v>
+        <v>1981109</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -10013,13 +10013,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1341</v>
+        <v>1326</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>44183</v>
       </c>
       <c r="B333" t="n">
-        <v>1978772</v>
+        <v>1981147</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -10042,13 +10042,13 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1336</v>
+        <v>1321</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>44184</v>
       </c>
       <c r="B334" t="n">
-        <v>1978817</v>
+        <v>1981183</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>1331</v>
+        <v>1317</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>44185</v>
       </c>
       <c r="B335" t="n">
-        <v>1978860</v>
+        <v>1981216</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>1327</v>
+        <v>1313</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>44186</v>
       </c>
       <c r="B336" t="n">
-        <v>1978900</v>
+        <v>1981247</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>44187</v>
       </c>
       <c r="B337" t="n">
-        <v>1978938</v>
+        <v>1981276</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>1318</v>
+        <v>1305</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>44188</v>
       </c>
       <c r="B338" t="n">
-        <v>1978974</v>
+        <v>1981304</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>44189</v>
       </c>
       <c r="B339" t="n">
-        <v>1979008</v>
+        <v>1981330</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>44190</v>
       </c>
       <c r="B340" t="n">
-        <v>1979040</v>
+        <v>1981354</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -10245,13 +10245,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>44191</v>
       </c>
       <c r="B341" t="n">
-        <v>1979070</v>
+        <v>1981377</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -10274,13 +10274,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>44192</v>
       </c>
       <c r="B342" t="n">
-        <v>1979098</v>
+        <v>1981399</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -10303,13 +10303,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1299</v>
+        <v>1288</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>44193</v>
       </c>
       <c r="B343" t="n">
-        <v>1979124</v>
+        <v>1981419</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -10332,13 +10332,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>1296</v>
+        <v>1285</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>44194</v>
       </c>
       <c r="B344" t="n">
-        <v>1979149</v>
+        <v>1981438</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>44195</v>
       </c>
       <c r="B345" t="n">
-        <v>1979172</v>
+        <v>1981456</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>44196</v>
       </c>
       <c r="B346" t="n">
-        <v>1979194</v>
+        <v>1981473</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -10419,13 +10419,13 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>44197</v>
       </c>
       <c r="B347" t="n">
-        <v>1979215</v>
+        <v>1981489</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -10448,13 +10448,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>44198</v>
       </c>
       <c r="B348" t="n">
-        <v>1979235</v>
+        <v>1981504</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -10477,13 +10477,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>44199</v>
       </c>
       <c r="B349" t="n">
-        <v>1979253</v>
+        <v>1981518</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>44200</v>
       </c>
       <c r="B350" t="n">
-        <v>1979270</v>
+        <v>1981531</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>44201</v>
       </c>
       <c r="B351" t="n">
-        <v>1979286</v>
+        <v>1981543</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -10564,13 +10564,13 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -10582,7 +10582,7 @@
         <v>44202</v>
       </c>
       <c r="B352" t="n">
-        <v>1979301</v>
+        <v>1981554</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>44203</v>
       </c>
       <c r="B353" t="n">
-        <v>1979315</v>
+        <v>1981565</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -10622,13 +10622,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>44204</v>
       </c>
       <c r="B354" t="n">
-        <v>1979329</v>
+        <v>1981575</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>44205</v>
       </c>
       <c r="B355" t="n">
-        <v>1979342</v>
+        <v>1981584</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>44206</v>
       </c>
       <c r="B356" t="n">
-        <v>1979354</v>
+        <v>1981593</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -10709,13 +10709,13 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>44207</v>
       </c>
       <c r="B357" t="n">
-        <v>1979365</v>
+        <v>1981601</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -10738,13 +10738,13 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>44208</v>
       </c>
       <c r="B358" t="n">
-        <v>1979376</v>
+        <v>1981609</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -10767,13 +10767,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>44209</v>
       </c>
       <c r="B359" t="n">
-        <v>1979386</v>
+        <v>1981616</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -10796,13 +10796,13 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>44210</v>
       </c>
       <c r="B360" t="n">
-        <v>1979395</v>
+        <v>1981623</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>44211</v>
       </c>
       <c r="B361" t="n">
-        <v>1979404</v>
+        <v>1981629</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -10854,13 +10854,13 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>44212</v>
       </c>
       <c r="B362" t="n">
-        <v>1979412</v>
+        <v>1981635</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -10883,13 +10883,13 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>44213</v>
       </c>
       <c r="B363" t="n">
-        <v>1979420</v>
+        <v>1981641</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -10912,13 +10912,13 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>44214</v>
       </c>
       <c r="B364" t="n">
-        <v>1979427</v>
+        <v>1981646</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -10941,13 +10941,13 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>44215</v>
       </c>
       <c r="B365" t="n">
-        <v>1979434</v>
+        <v>1981651</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -10970,13 +10970,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>44216</v>
       </c>
       <c r="B366" t="n">
-        <v>1979440</v>
+        <v>1981656</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -10999,13 +10999,13 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>44217</v>
       </c>
       <c r="B367" t="n">
-        <v>1979446</v>
+        <v>1981660</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -11028,13 +11028,13 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -11046,7 +11046,7 @@
         <v>44218</v>
       </c>
       <c r="B368" t="n">
-        <v>1979452</v>
+        <v>1981664</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>44219</v>
       </c>
       <c r="B369" t="n">
-        <v>1979457</v>
+        <v>1981668</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -11086,13 +11086,13 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>44220</v>
       </c>
       <c r="B370" t="n">
-        <v>1979462</v>
+        <v>1981672</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -11115,13 +11115,13 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>44221</v>
       </c>
       <c r="B371" t="n">
-        <v>1979467</v>
+        <v>1981675</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -11144,13 +11144,13 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>44222</v>
       </c>
       <c r="B372" t="n">
-        <v>1979471</v>
+        <v>1981678</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -11173,13 +11173,13 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -11191,7 +11191,7 @@
         <v>44223</v>
       </c>
       <c r="B373" t="n">
-        <v>1979475</v>
+        <v>1981681</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -11202,13 +11202,13 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>44224</v>
       </c>
       <c r="B374" t="n">
-        <v>1979479</v>
+        <v>1981684</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -11231,13 +11231,13 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -11249,7 +11249,7 @@
         <v>44225</v>
       </c>
       <c r="B375" t="n">
-        <v>1979483</v>
+        <v>1981687</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -11260,13 +11260,13 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -11278,7 +11278,7 @@
         <v>44226</v>
       </c>
       <c r="B376" t="n">
-        <v>1979486</v>
+        <v>1981689</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -11289,13 +11289,13 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>44227</v>
       </c>
       <c r="B377" t="n">
-        <v>1979489</v>
+        <v>1981691</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -11318,13 +11318,13 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>44228</v>
       </c>
       <c r="B378" t="n">
-        <v>1979492</v>
+        <v>1981693</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -11347,13 +11347,13 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>44229</v>
       </c>
       <c r="B379" t="n">
-        <v>1979495</v>
+        <v>1981695</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>44230</v>
       </c>
       <c r="B380" t="n">
-        <v>1979498</v>
+        <v>1981697</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -11405,13 +11405,13 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>44231</v>
       </c>
       <c r="B381" t="n">
-        <v>1979501</v>
+        <v>1981699</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>44232</v>
       </c>
       <c r="B382" t="n">
-        <v>1979503</v>
+        <v>1981701</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -11481,7 +11481,7 @@
         <v>44233</v>
       </c>
       <c r="B383" t="n">
-        <v>1979505</v>
+        <v>1981703</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -11510,7 +11510,7 @@
         <v>44234</v>
       </c>
       <c r="B384" t="n">
-        <v>1979507</v>
+        <v>1981704</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -11521,13 +11521,13 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>44235</v>
       </c>
       <c r="B385" t="n">
-        <v>1979509</v>
+        <v>1981705</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -11550,13 +11550,13 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -11568,7 +11568,7 @@
         <v>44236</v>
       </c>
       <c r="B386" t="n">
-        <v>1979511</v>
+        <v>1981706</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -11579,13 +11579,13 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>44237</v>
       </c>
       <c r="B387" t="n">
-        <v>1979513</v>
+        <v>1981707</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -11608,13 +11608,13 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>44238</v>
       </c>
       <c r="B388" t="n">
-        <v>1979515</v>
+        <v>1981708</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -11637,13 +11637,13 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -11655,7 +11655,7 @@
         <v>44239</v>
       </c>
       <c r="B389" t="n">
-        <v>1979517</v>
+        <v>1981709</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -11666,13 +11666,13 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -11684,7 +11684,7 @@
         <v>44240</v>
       </c>
       <c r="B390" t="n">
-        <v>1979518</v>
+        <v>1981710</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -11701,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
         <v>44241</v>
       </c>
       <c r="B391" t="n">
-        <v>1979519</v>
+        <v>1981711</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>44242</v>
       </c>
       <c r="B392" t="n">
-        <v>1979520</v>
+        <v>1981712</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -11771,7 +11771,7 @@
         <v>44243</v>
       </c>
       <c r="B393" t="n">
-        <v>1979521</v>
+        <v>1981713</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -11788,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -11800,7 +11800,7 @@
         <v>44244</v>
       </c>
       <c r="B394" t="n">
-        <v>1979522</v>
+        <v>1981714</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>44245</v>
       </c>
       <c r="B395" t="n">
-        <v>1979523</v>
+        <v>1981715</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -11846,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="H395" t="n">
         <v>0</v>
@@ -11858,7 +11858,7 @@
         <v>44246</v>
       </c>
       <c r="B396" t="n">
-        <v>1979524</v>
+        <v>1981716</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="H396" t="n">
         <v>0</v>
@@ -11887,7 +11887,7 @@
         <v>44247</v>
       </c>
       <c r="B397" t="n">
-        <v>1979525</v>
+        <v>1981717</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -11916,7 +11916,7 @@
         <v>44248</v>
       </c>
       <c r="B398" t="n">
-        <v>1979526</v>
+        <v>1981718</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="G398" t="n">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="H398" t="n">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>44249</v>
       </c>
       <c r="B399" t="n">
-        <v>1979527</v>
+        <v>1981719</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -11962,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -11974,7 +11974,7 @@
         <v>44250</v>
       </c>
       <c r="B400" t="n">
-        <v>1979528</v>
+        <v>1981720</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -11991,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="H400" t="n">
         <v>0</v>
@@ -12003,7 +12003,7 @@
         <v>44251</v>
       </c>
       <c r="B401" t="n">
-        <v>1979529</v>
+        <v>1981720</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -12014,25 +12014,30 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F401" t="n">
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>12438</v>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>No new cases on
+24 February 2021</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
         <v>44252</v>
       </c>
       <c r="B402" t="n">
-        <v>1979530</v>
+        <v>1981720</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -12043,13 +12048,13 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F402" t="n">
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -12061,7 +12066,7 @@
         <v>44253</v>
       </c>
       <c r="B403" t="n">
-        <v>1979531</v>
+        <v>1981720</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -12072,13 +12077,13 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F403" t="n">
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -12090,7 +12095,7 @@
         <v>44254</v>
       </c>
       <c r="B404" t="n">
-        <v>1979532</v>
+        <v>1981720</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -12101,13 +12106,13 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F404" t="n">
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -12119,7 +12124,7 @@
         <v>44255</v>
       </c>
       <c r="B405" t="n">
-        <v>1979533</v>
+        <v>1981720</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -12130,922 +12135,18 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F405" t="n">
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
-        <v>44256</v>
-      </c>
-      <c r="B406" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C406" t="n">
-        <v>0</v>
-      </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E406" t="n">
-        <v>1</v>
-      </c>
-      <c r="F406" t="n">
-        <v>0</v>
-      </c>
-      <c r="G406" t="n">
-        <v>1167</v>
-      </c>
-      <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
-        <v>44257</v>
-      </c>
-      <c r="B407" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C407" t="n">
-        <v>0</v>
-      </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E407" t="n">
-        <v>0</v>
-      </c>
-      <c r="F407" t="n">
-        <v>0</v>
-      </c>
-      <c r="G407" t="n">
-        <v>1165</v>
-      </c>
-      <c r="H407" t="n">
-        <v>12218</v>
-      </c>
-      <c r="I407" t="inlineStr">
-        <is>
-          <t>No new cases on
-02 March 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
-        <v>44258</v>
-      </c>
-      <c r="B408" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C408" t="n">
-        <v>0</v>
-      </c>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E408" t="n">
-        <v>0</v>
-      </c>
-      <c r="F408" t="n">
-        <v>0</v>
-      </c>
-      <c r="G408" t="n">
-        <v>1163</v>
-      </c>
-      <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
-        <v>44259</v>
-      </c>
-      <c r="B409" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C409" t="n">
-        <v>0</v>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E409" t="n">
-        <v>0</v>
-      </c>
-      <c r="F409" t="n">
-        <v>0</v>
-      </c>
-      <c r="G409" t="n">
-        <v>1162</v>
-      </c>
-      <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
-        <v>44260</v>
-      </c>
-      <c r="B410" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C410" t="n">
-        <v>0</v>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E410" t="n">
-        <v>0</v>
-      </c>
-      <c r="F410" t="n">
-        <v>0</v>
-      </c>
-      <c r="G410" t="n">
-        <v>1160</v>
-      </c>
-      <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
-        <v>44261</v>
-      </c>
-      <c r="B411" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C411" t="n">
-        <v>0</v>
-      </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E411" t="n">
-        <v>0</v>
-      </c>
-      <c r="F411" t="n">
-        <v>0</v>
-      </c>
-      <c r="G411" t="n">
-        <v>1159</v>
-      </c>
-      <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
-        <v>44262</v>
-      </c>
-      <c r="B412" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C412" t="n">
-        <v>0</v>
-      </c>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E412" t="n">
-        <v>0</v>
-      </c>
-      <c r="F412" t="n">
-        <v>0</v>
-      </c>
-      <c r="G412" t="n">
-        <v>1157</v>
-      </c>
-      <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
-        <v>44263</v>
-      </c>
-      <c r="B413" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C413" t="n">
-        <v>0</v>
-      </c>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E413" t="n">
-        <v>0</v>
-      </c>
-      <c r="F413" t="n">
-        <v>0</v>
-      </c>
-      <c r="G413" t="n">
-        <v>1156</v>
-      </c>
-      <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
-        <v>44264</v>
-      </c>
-      <c r="B414" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C414" t="n">
-        <v>0</v>
-      </c>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E414" t="n">
-        <v>0</v>
-      </c>
-      <c r="F414" t="n">
-        <v>0</v>
-      </c>
-      <c r="G414" t="n">
-        <v>1155</v>
-      </c>
-      <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
-        <v>44265</v>
-      </c>
-      <c r="B415" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C415" t="n">
-        <v>0</v>
-      </c>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E415" t="n">
-        <v>0</v>
-      </c>
-      <c r="F415" t="n">
-        <v>0</v>
-      </c>
-      <c r="G415" t="n">
-        <v>1153</v>
-      </c>
-      <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
-        <v>44266</v>
-      </c>
-      <c r="B416" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C416" t="n">
-        <v>0</v>
-      </c>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E416" t="n">
-        <v>0</v>
-      </c>
-      <c r="F416" t="n">
-        <v>0</v>
-      </c>
-      <c r="G416" t="n">
-        <v>1152</v>
-      </c>
-      <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
-        <v>44267</v>
-      </c>
-      <c r="B417" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C417" t="n">
-        <v>0</v>
-      </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E417" t="n">
-        <v>0</v>
-      </c>
-      <c r="F417" t="n">
-        <v>0</v>
-      </c>
-      <c r="G417" t="n">
-        <v>1150</v>
-      </c>
-      <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
-        <v>44268</v>
-      </c>
-      <c r="B418" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C418" t="n">
-        <v>0</v>
-      </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E418" t="n">
-        <v>0</v>
-      </c>
-      <c r="F418" t="n">
-        <v>0</v>
-      </c>
-      <c r="G418" t="n">
-        <v>1149</v>
-      </c>
-      <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
-        <v>44269</v>
-      </c>
-      <c r="B419" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C419" t="n">
-        <v>0</v>
-      </c>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E419" t="n">
-        <v>0</v>
-      </c>
-      <c r="F419" t="n">
-        <v>0</v>
-      </c>
-      <c r="G419" t="n">
-        <v>1148</v>
-      </c>
-      <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
-        <v>44270</v>
-      </c>
-      <c r="B420" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C420" t="n">
-        <v>0</v>
-      </c>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E420" t="n">
-        <v>0</v>
-      </c>
-      <c r="F420" t="n">
-        <v>0</v>
-      </c>
-      <c r="G420" t="n">
-        <v>1146</v>
-      </c>
-      <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
-        <v>44271</v>
-      </c>
-      <c r="B421" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C421" t="n">
-        <v>0</v>
-      </c>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E421" t="n">
-        <v>0</v>
-      </c>
-      <c r="F421" t="n">
-        <v>0</v>
-      </c>
-      <c r="G421" t="n">
-        <v>1145</v>
-      </c>
-      <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
-        <v>44272</v>
-      </c>
-      <c r="B422" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C422" t="n">
-        <v>0</v>
-      </c>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E422" t="n">
-        <v>0</v>
-      </c>
-      <c r="F422" t="n">
-        <v>0</v>
-      </c>
-      <c r="G422" t="n">
-        <v>1144</v>
-      </c>
-      <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
-        <v>44273</v>
-      </c>
-      <c r="B423" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C423" t="n">
-        <v>0</v>
-      </c>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E423" t="n">
-        <v>0</v>
-      </c>
-      <c r="F423" t="n">
-        <v>0</v>
-      </c>
-      <c r="G423" t="n">
-        <v>1142</v>
-      </c>
-      <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
-        <v>44274</v>
-      </c>
-      <c r="B424" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C424" t="n">
-        <v>0</v>
-      </c>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E424" t="n">
-        <v>0</v>
-      </c>
-      <c r="F424" t="n">
-        <v>0</v>
-      </c>
-      <c r="G424" t="n">
-        <v>1141</v>
-      </c>
-      <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
-        <v>44275</v>
-      </c>
-      <c r="B425" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C425" t="n">
-        <v>0</v>
-      </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E425" t="n">
-        <v>0</v>
-      </c>
-      <c r="F425" t="n">
-        <v>0</v>
-      </c>
-      <c r="G425" t="n">
-        <v>1140</v>
-      </c>
-      <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
-        <v>44276</v>
-      </c>
-      <c r="B426" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C426" t="n">
-        <v>0</v>
-      </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E426" t="n">
-        <v>0</v>
-      </c>
-      <c r="F426" t="n">
-        <v>0</v>
-      </c>
-      <c r="G426" t="n">
-        <v>1138</v>
-      </c>
-      <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
-        <v>44277</v>
-      </c>
-      <c r="B427" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C427" t="n">
-        <v>0</v>
-      </c>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E427" t="n">
-        <v>0</v>
-      </c>
-      <c r="F427" t="n">
-        <v>0</v>
-      </c>
-      <c r="G427" t="n">
-        <v>1137</v>
-      </c>
-      <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
-        <v>44278</v>
-      </c>
-      <c r="B428" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C428" t="n">
-        <v>0</v>
-      </c>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E428" t="n">
-        <v>0</v>
-      </c>
-      <c r="F428" t="n">
-        <v>0</v>
-      </c>
-      <c r="G428" t="n">
-        <v>1135</v>
-      </c>
-      <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B429" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C429" t="n">
-        <v>0</v>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E429" t="n">
-        <v>0</v>
-      </c>
-      <c r="F429" t="n">
-        <v>0</v>
-      </c>
-      <c r="G429" t="n">
-        <v>1134</v>
-      </c>
-      <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
-        <v>44280</v>
-      </c>
-      <c r="B430" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C430" t="n">
-        <v>0</v>
-      </c>
-      <c r="D430" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E430" t="n">
-        <v>0</v>
-      </c>
-      <c r="F430" t="n">
-        <v>0</v>
-      </c>
-      <c r="G430" t="n">
-        <v>1133</v>
-      </c>
-      <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
-        <v>44281</v>
-      </c>
-      <c r="B431" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C431" t="n">
-        <v>0</v>
-      </c>
-      <c r="D431" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E431" t="n">
-        <v>0</v>
-      </c>
-      <c r="F431" t="n">
-        <v>0</v>
-      </c>
-      <c r="G431" t="n">
-        <v>1132</v>
-      </c>
-      <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
-        <v>44282</v>
-      </c>
-      <c r="B432" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C432" t="n">
-        <v>0</v>
-      </c>
-      <c r="D432" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E432" t="n">
-        <v>0</v>
-      </c>
-      <c r="F432" t="n">
-        <v>0</v>
-      </c>
-      <c r="G432" t="n">
-        <v>1130</v>
-      </c>
-      <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
-        <v>44283</v>
-      </c>
-      <c r="B433" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C433" t="n">
-        <v>0</v>
-      </c>
-      <c r="D433" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E433" t="n">
-        <v>0</v>
-      </c>
-      <c r="F433" t="n">
-        <v>0</v>
-      </c>
-      <c r="G433" t="n">
-        <v>1129</v>
-      </c>
-      <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
-        <v>44284</v>
-      </c>
-      <c r="B434" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C434" t="n">
-        <v>0</v>
-      </c>
-      <c r="D434" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E434" t="n">
-        <v>0</v>
-      </c>
-      <c r="F434" t="n">
-        <v>0</v>
-      </c>
-      <c r="G434" t="n">
-        <v>1128</v>
-      </c>
-      <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
-        <v>44285</v>
-      </c>
-      <c r="B435" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C435" t="n">
-        <v>0</v>
-      </c>
-      <c r="D435" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E435" t="n">
-        <v>0</v>
-      </c>
-      <c r="F435" t="n">
-        <v>0</v>
-      </c>
-      <c r="G435" t="n">
-        <v>1126</v>
-      </c>
-      <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
-        <v>44286</v>
-      </c>
-      <c r="B436" t="n">
-        <v>1979534</v>
-      </c>
-      <c r="C436" t="n">
-        <v>0</v>
-      </c>
-      <c r="D436" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E436" t="n">
-        <v>0</v>
-      </c>
-      <c r="F436" t="n">
-        <v>0</v>
-      </c>
-      <c r="G436" t="n">
-        <v>1125</v>
-      </c>
-      <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>329</v>
+        <v>232</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>384</v>
+        <v>275</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>446</v>
+        <v>324</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>517</v>
+        <v>380</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>596</v>
+        <v>444</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>684</v>
+        <v>516</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>783</v>
+        <v>598</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>892</v>
+        <v>689</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1013</v>
+        <v>791</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1146</v>
+        <v>905</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1292</v>
+        <v>1032</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1451</v>
+        <v>1171</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1625</v>
+        <v>1325</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1814</v>
+        <v>1494</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2018</v>
+        <v>1678</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>2238</v>
+        <v>1878</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2474</v>
+        <v>2095</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2727</v>
+        <v>2330</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2998</v>
+        <v>2583</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>3285</v>
+        <v>2854</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>3590</v>
+        <v>3145</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>3913</v>
+        <v>3454</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>4253</v>
+        <v>3783</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>4611</v>
+        <v>4131</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>4986</v>
+        <v>4499</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5378</v>
+        <v>4886</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>5786</v>
+        <v>5292</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>6210</v>
+        <v>5716</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>6650</v>
+        <v>6159</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7104</v>
+        <v>6620</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>7573</v>
+        <v>7097</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>8054</v>
+        <v>7591</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>8547</v>
+        <v>8100</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>9051</v>
+        <v>8622</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>9564</v>
+        <v>9158</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10087</v>
+        <v>9705</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>10616</v>
+        <v>10262</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>11151</v>
+        <v>10828</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>11690</v>
+        <v>11402</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>12233</v>
+        <v>11981</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>12776</v>
+        <v>12564</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13320</v>
+        <v>13149</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>13862</v>
+        <v>13735</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>14401</v>
+        <v>14319</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14935</v>
+        <v>14901</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>15463</v>
+        <v>15478</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>15983</v>
+        <v>16048</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16494</v>
+        <v>16610</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16994</v>
+        <v>17162</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17482</v>
+        <v>17702</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17957</v>
+        <v>18228</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>18416</v>
+        <v>18740</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>18859</v>
+        <v>19234</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>19285</v>
+        <v>19711</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>19693</v>
+        <v>20168</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>20081</v>
+        <v>20605</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20449</v>
+        <v>21019</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>20795</v>
+        <v>21411</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -5178,24 +5178,24 @@
         <v>44016</v>
       </c>
       <c r="B166" t="n">
-        <v>669434</v>
+        <v>673165</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>24850</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>21119</v>
+        <v>21778</v>
       </c>
       <c r="F166" t="n">
-        <v>19296</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>3647</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>44017</v>
       </c>
       <c r="B167" t="n">
-        <v>690855</v>
+        <v>695285</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>21421</v>
+        <v>22120</v>
       </c>
       <c r="F167" t="n">
-        <v>19602</v>
+        <v>20315</v>
       </c>
       <c r="G167" t="n">
-        <v>3636</v>
+        <v>3610</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>44018</v>
       </c>
       <c r="B168" t="n">
-        <v>712553</v>
+        <v>717721</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>21698</v>
+        <v>22436</v>
       </c>
       <c r="F168" t="n">
-        <v>19886</v>
+        <v>20637</v>
       </c>
       <c r="G168" t="n">
-        <v>3625</v>
+        <v>3599</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>44019</v>
       </c>
       <c r="B169" t="n">
-        <v>734505</v>
+        <v>740447</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5276,13 +5276,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>21952</v>
+        <v>22726</v>
       </c>
       <c r="F169" t="n">
-        <v>20145</v>
+        <v>20932</v>
       </c>
       <c r="G169" t="n">
-        <v>3614</v>
+        <v>3588</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>756687</v>
+        <v>763435</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22182</v>
+        <v>22988</v>
       </c>
       <c r="F170" t="n">
-        <v>20380</v>
+        <v>21199</v>
       </c>
       <c r="G170" t="n">
-        <v>3603</v>
+        <v>3578</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>779073</v>
+        <v>786658</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>22386</v>
+        <v>23223</v>
       </c>
       <c r="F171" t="n">
-        <v>20590</v>
+        <v>21440</v>
       </c>
       <c r="G171" t="n">
-        <v>3593</v>
+        <v>3567</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>801639</v>
+        <v>810088</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>22566</v>
+        <v>23430</v>
       </c>
       <c r="F172" t="n">
-        <v>20775</v>
+        <v>21652</v>
       </c>
       <c r="G172" t="n">
-        <v>3582</v>
+        <v>3556</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>824359</v>
+        <v>833697</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22720</v>
+        <v>23609</v>
       </c>
       <c r="F173" t="n">
-        <v>20935</v>
+        <v>21836</v>
       </c>
       <c r="G173" t="n">
-        <v>3572</v>
+        <v>3546</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>847209</v>
+        <v>857456</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>22850</v>
+        <v>23759</v>
       </c>
       <c r="F174" t="n">
-        <v>21069</v>
+        <v>21991</v>
       </c>
       <c r="G174" t="n">
-        <v>3561</v>
+        <v>3536</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>870163</v>
+        <v>881336</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>22954</v>
+        <v>23880</v>
       </c>
       <c r="F175" t="n">
-        <v>21178</v>
+        <v>22118</v>
       </c>
       <c r="G175" t="n">
-        <v>3551</v>
+        <v>3525</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>893196</v>
+        <v>905310</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>23033</v>
+        <v>23974</v>
       </c>
       <c r="F176" t="n">
-        <v>21262</v>
+        <v>22216</v>
       </c>
       <c r="G176" t="n">
-        <v>3541</v>
+        <v>3515</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>916283</v>
+        <v>929349</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>23087</v>
+        <v>24039</v>
       </c>
       <c r="F177" t="n">
-        <v>21321</v>
+        <v>22286</v>
       </c>
       <c r="G177" t="n">
-        <v>3531</v>
+        <v>3505</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>939399</v>
+        <v>953425</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>23116</v>
+        <v>24076</v>
       </c>
       <c r="F178" t="n">
-        <v>21355</v>
+        <v>22328</v>
       </c>
       <c r="G178" t="n">
-        <v>3521</v>
+        <v>3495</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>962520</v>
+        <v>977510</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>23121</v>
+        <v>24085</v>
       </c>
       <c r="F179" t="n">
-        <v>21365</v>
+        <v>22342</v>
       </c>
       <c r="G179" t="n">
-        <v>3511</v>
+        <v>3485</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>985621</v>
+        <v>1001577</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>23101</v>
+        <v>24067</v>
       </c>
       <c r="F180" t="n">
-        <v>21351</v>
+        <v>22330</v>
       </c>
       <c r="G180" t="n">
-        <v>3501</v>
+        <v>3476</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>1008680</v>
+        <v>1025600</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>23059</v>
+        <v>24023</v>
       </c>
       <c r="F181" t="n">
-        <v>21313</v>
+        <v>22290</v>
       </c>
       <c r="G181" t="n">
-        <v>3491</v>
+        <v>3466</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>1031673</v>
+        <v>1049552</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22993</v>
+        <v>23952</v>
       </c>
       <c r="F182" t="n">
-        <v>21252</v>
+        <v>22224</v>
       </c>
       <c r="G182" t="n">
-        <v>3481</v>
+        <v>3456</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>1054578</v>
+        <v>1073408</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22905</v>
+        <v>23856</v>
       </c>
       <c r="F183" t="n">
-        <v>21169</v>
+        <v>22133</v>
       </c>
       <c r="G183" t="n">
-        <v>3472</v>
+        <v>3447</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>1077373</v>
+        <v>1097144</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22795</v>
+        <v>23736</v>
       </c>
       <c r="F184" t="n">
-        <v>21064</v>
+        <v>22017</v>
       </c>
       <c r="G184" t="n">
-        <v>3462</v>
+        <v>3437</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>1100037</v>
+        <v>1120735</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>22664</v>
+        <v>23591</v>
       </c>
       <c r="F185" t="n">
-        <v>20937</v>
+        <v>21877</v>
       </c>
       <c r="G185" t="n">
-        <v>3453</v>
+        <v>3428</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>1122549</v>
+        <v>1144158</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22512</v>
+        <v>23423</v>
       </c>
       <c r="F186" t="n">
-        <v>20791</v>
+        <v>21714</v>
       </c>
       <c r="G186" t="n">
-        <v>3443</v>
+        <v>3418</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>1144890</v>
+        <v>1167391</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22341</v>
+        <v>23233</v>
       </c>
       <c r="F187" t="n">
-        <v>20624</v>
+        <v>21529</v>
       </c>
       <c r="G187" t="n">
-        <v>3434</v>
+        <v>3409</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>1167041</v>
+        <v>1190413</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>22151</v>
+        <v>23022</v>
       </c>
       <c r="F188" t="n">
-        <v>20439</v>
+        <v>21322</v>
       </c>
       <c r="G188" t="n">
-        <v>3425</v>
+        <v>3400</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>1188984</v>
+        <v>1213204</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>21943</v>
+        <v>22791</v>
       </c>
       <c r="F189" t="n">
-        <v>20236</v>
+        <v>21095</v>
       </c>
       <c r="G189" t="n">
-        <v>3416</v>
+        <v>3391</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>1210702</v>
+        <v>1235744</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>21718</v>
+        <v>22540</v>
       </c>
       <c r="F190" t="n">
-        <v>20015</v>
+        <v>20849</v>
       </c>
       <c r="G190" t="n">
-        <v>3406</v>
+        <v>3382</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>1232179</v>
+        <v>1258015</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>21477</v>
+        <v>22271</v>
       </c>
       <c r="F191" t="n">
-        <v>19778</v>
+        <v>20585</v>
       </c>
       <c r="G191" t="n">
-        <v>3397</v>
+        <v>3373</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>44042</v>
       </c>
       <c r="B192" t="n">
-        <v>1253399</v>
+        <v>1280000</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>21220</v>
+        <v>21985</v>
       </c>
       <c r="F192" t="n">
-        <v>19526</v>
+        <v>20303</v>
       </c>
       <c r="G192" t="n">
-        <v>3388</v>
+        <v>3364</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>44043</v>
       </c>
       <c r="B193" t="n">
-        <v>1274348</v>
+        <v>1301683</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>20949</v>
+        <v>21683</v>
       </c>
       <c r="F193" t="n">
-        <v>19260</v>
+        <v>20006</v>
       </c>
       <c r="G193" t="n">
-        <v>3380</v>
+        <v>3355</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>44044</v>
       </c>
       <c r="B194" t="n">
-        <v>1295013</v>
+        <v>1323049</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20665</v>
+        <v>21366</v>
       </c>
       <c r="F194" t="n">
-        <v>18979</v>
+        <v>19693</v>
       </c>
       <c r="G194" t="n">
-        <v>3371</v>
+        <v>3347</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>44045</v>
       </c>
       <c r="B195" t="n">
-        <v>1315380</v>
+        <v>1344084</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>20367</v>
+        <v>21035</v>
       </c>
       <c r="F195" t="n">
-        <v>18686</v>
+        <v>19366</v>
       </c>
       <c r="G195" t="n">
-        <v>3362</v>
+        <v>3338</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>44046</v>
       </c>
       <c r="B196" t="n">
-        <v>1335438</v>
+        <v>1364775</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20058</v>
+        <v>20691</v>
       </c>
       <c r="F196" t="n">
-        <v>18382</v>
+        <v>19027</v>
       </c>
       <c r="G196" t="n">
-        <v>3353</v>
+        <v>3329</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>44047</v>
       </c>
       <c r="B197" t="n">
-        <v>1355176</v>
+        <v>1385110</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19738</v>
+        <v>20335</v>
       </c>
       <c r="F197" t="n">
-        <v>18066</v>
+        <v>18675</v>
       </c>
       <c r="G197" t="n">
-        <v>3345</v>
+        <v>3321</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>44048</v>
       </c>
       <c r="B198" t="n">
-        <v>1374585</v>
+        <v>1405079</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>19409</v>
+        <v>19969</v>
       </c>
       <c r="F198" t="n">
-        <v>17740</v>
+        <v>18313</v>
       </c>
       <c r="G198" t="n">
-        <v>3336</v>
+        <v>3312</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>44049</v>
       </c>
       <c r="B199" t="n">
-        <v>1393655</v>
+        <v>1424672</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -6146,13 +6146,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>19070</v>
+        <v>19593</v>
       </c>
       <c r="F199" t="n">
-        <v>17406</v>
+        <v>17941</v>
       </c>
       <c r="G199" t="n">
-        <v>3328</v>
+        <v>3304</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>44050</v>
       </c>
       <c r="B200" t="n">
-        <v>1412378</v>
+        <v>1443881</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>18723</v>
+        <v>19209</v>
       </c>
       <c r="F200" t="n">
-        <v>17063</v>
+        <v>17561</v>
       </c>
       <c r="G200" t="n">
-        <v>3319</v>
+        <v>3295</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>44051</v>
       </c>
       <c r="B201" t="n">
-        <v>1430747</v>
+        <v>1462698</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -6204,13 +6204,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>18369</v>
+        <v>18817</v>
       </c>
       <c r="F201" t="n">
-        <v>16713</v>
+        <v>17173</v>
       </c>
       <c r="G201" t="n">
-        <v>3311</v>
+        <v>3287</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>44052</v>
       </c>
       <c r="B202" t="n">
-        <v>1448755</v>
+        <v>1481116</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>18008</v>
+        <v>18418</v>
       </c>
       <c r="F202" t="n">
-        <v>16357</v>
+        <v>16779</v>
       </c>
       <c r="G202" t="n">
-        <v>3303</v>
+        <v>3279</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>44053</v>
       </c>
       <c r="B203" t="n">
-        <v>1466397</v>
+        <v>1499130</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17642</v>
+        <v>18014</v>
       </c>
       <c r="F203" t="n">
-        <v>15995</v>
+        <v>16378</v>
       </c>
       <c r="G203" t="n">
-        <v>3294</v>
+        <v>3271</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>44054</v>
       </c>
       <c r="B204" t="n">
-        <v>1483669</v>
+        <v>1516735</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>17272</v>
+        <v>17605</v>
       </c>
       <c r="F204" t="n">
-        <v>15629</v>
+        <v>15974</v>
       </c>
       <c r="G204" t="n">
-        <v>3286</v>
+        <v>3263</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>44055</v>
       </c>
       <c r="B205" t="n">
-        <v>1500566</v>
+        <v>1533928</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16897</v>
+        <v>17193</v>
       </c>
       <c r="F205" t="n">
-        <v>15258</v>
+        <v>15565</v>
       </c>
       <c r="G205" t="n">
-        <v>3278</v>
+        <v>3255</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>44056</v>
       </c>
       <c r="B206" t="n">
-        <v>1517086</v>
+        <v>1550705</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>16520</v>
+        <v>16777</v>
       </c>
       <c r="F206" t="n">
-        <v>14884</v>
+        <v>15154</v>
       </c>
       <c r="G206" t="n">
-        <v>3270</v>
+        <v>3247</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>44057</v>
       </c>
       <c r="B207" t="n">
-        <v>1533225</v>
+        <v>1567065</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>16139</v>
+        <v>16360</v>
       </c>
       <c r="F207" t="n">
-        <v>14508</v>
+        <v>14741</v>
       </c>
       <c r="G207" t="n">
-        <v>3262</v>
+        <v>3239</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>44058</v>
       </c>
       <c r="B208" t="n">
-        <v>1548983</v>
+        <v>1583007</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>15758</v>
+        <v>15942</v>
       </c>
       <c r="F208" t="n">
-        <v>14131</v>
+        <v>14327</v>
       </c>
       <c r="G208" t="n">
-        <v>3254</v>
+        <v>3231</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>44059</v>
       </c>
       <c r="B209" t="n">
-        <v>1564358</v>
+        <v>1598530</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>15375</v>
+        <v>15523</v>
       </c>
       <c r="F209" t="n">
-        <v>13752</v>
+        <v>13912</v>
       </c>
       <c r="G209" t="n">
-        <v>3246</v>
+        <v>3223</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>44060</v>
       </c>
       <c r="B210" t="n">
-        <v>1579350</v>
+        <v>1613635</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>14992</v>
+        <v>15105</v>
       </c>
       <c r="F210" t="n">
-        <v>13373</v>
+        <v>13498</v>
       </c>
       <c r="G210" t="n">
-        <v>3239</v>
+        <v>3215</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>44061</v>
       </c>
       <c r="B211" t="n">
-        <v>1593959</v>
+        <v>1628324</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14609</v>
+        <v>14689</v>
       </c>
       <c r="F211" t="n">
-        <v>12994</v>
+        <v>13085</v>
       </c>
       <c r="G211" t="n">
-        <v>3231</v>
+        <v>3208</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>44062</v>
       </c>
       <c r="B212" t="n">
-        <v>1608187</v>
+        <v>1642597</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>14228</v>
+        <v>14273</v>
       </c>
       <c r="F212" t="n">
-        <v>12616</v>
+        <v>12674</v>
       </c>
       <c r="G212" t="n">
-        <v>3223</v>
+        <v>3200</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>44063</v>
       </c>
       <c r="B213" t="n">
-        <v>1622034</v>
+        <v>1656458</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>13847</v>
+        <v>13861</v>
       </c>
       <c r="F213" t="n">
-        <v>12240</v>
+        <v>12265</v>
       </c>
       <c r="G213" t="n">
-        <v>3215</v>
+        <v>3192</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>44064</v>
       </c>
       <c r="B214" t="n">
-        <v>1635503</v>
+        <v>1669910</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>13469</v>
+        <v>13452</v>
       </c>
       <c r="F214" t="n">
-        <v>11865</v>
+        <v>11859</v>
       </c>
       <c r="G214" t="n">
-        <v>3208</v>
+        <v>3185</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>44065</v>
       </c>
       <c r="B215" t="n">
-        <v>1648597</v>
+        <v>1682956</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6610,13 +6610,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>13094</v>
+        <v>13046</v>
       </c>
       <c r="F215" t="n">
-        <v>11494</v>
+        <v>11457</v>
       </c>
       <c r="G215" t="n">
-        <v>3200</v>
+        <v>3177</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>44066</v>
       </c>
       <c r="B216" t="n">
-        <v>1661318</v>
+        <v>1695600</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12721</v>
+        <v>12644</v>
       </c>
       <c r="F216" t="n">
-        <v>11125</v>
+        <v>11059</v>
       </c>
       <c r="G216" t="n">
-        <v>3193</v>
+        <v>3170</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>44067</v>
       </c>
       <c r="B217" t="n">
-        <v>1673670</v>
+        <v>1707847</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12352</v>
+        <v>12247</v>
       </c>
       <c r="F217" t="n">
-        <v>10759</v>
+        <v>10666</v>
       </c>
       <c r="G217" t="n">
-        <v>3185</v>
+        <v>3162</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>44068</v>
       </c>
       <c r="B218" t="n">
-        <v>1685657</v>
+        <v>1719703</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>11987</v>
+        <v>11856</v>
       </c>
       <c r="F218" t="n">
-        <v>10398</v>
+        <v>10278</v>
       </c>
       <c r="G218" t="n">
-        <v>3178</v>
+        <v>3155</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44069</v>
       </c>
       <c r="B219" t="n">
-        <v>1697283</v>
+        <v>1731172</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>11626</v>
+        <v>11469</v>
       </c>
       <c r="F219" t="n">
-        <v>10041</v>
+        <v>9896</v>
       </c>
       <c r="G219" t="n">
-        <v>3171</v>
+        <v>3148</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>44070</v>
       </c>
       <c r="B220" t="n">
-        <v>1708553</v>
+        <v>1742261</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>11270</v>
+        <v>11089</v>
       </c>
       <c r="F220" t="n">
-        <v>9688</v>
+        <v>9519</v>
       </c>
       <c r="G220" t="n">
-        <v>3163</v>
+        <v>3141</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>44071</v>
       </c>
       <c r="B221" t="n">
-        <v>1719472</v>
+        <v>1752976</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>10919</v>
+        <v>10715</v>
       </c>
       <c r="F221" t="n">
-        <v>9341</v>
+        <v>9149</v>
       </c>
       <c r="G221" t="n">
-        <v>3156</v>
+        <v>3133</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>44072</v>
       </c>
       <c r="B222" t="n">
-        <v>1730045</v>
+        <v>1763324</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10573</v>
+        <v>10348</v>
       </c>
       <c r="F222" t="n">
-        <v>8998</v>
+        <v>8785</v>
       </c>
       <c r="G222" t="n">
-        <v>3149</v>
+        <v>3126</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>44073</v>
       </c>
       <c r="B223" t="n">
-        <v>1740278</v>
+        <v>1773311</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>10233</v>
+        <v>9987</v>
       </c>
       <c r="F223" t="n">
-        <v>8662</v>
+        <v>8428</v>
       </c>
       <c r="G223" t="n">
-        <v>3142</v>
+        <v>3119</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>44074</v>
       </c>
       <c r="B224" t="n">
-        <v>1750176</v>
+        <v>1782945</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>9898</v>
+        <v>9634</v>
       </c>
       <c r="F224" t="n">
-        <v>8331</v>
+        <v>8078</v>
       </c>
       <c r="G224" t="n">
-        <v>3135</v>
+        <v>3112</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>44075</v>
       </c>
       <c r="B225" t="n">
-        <v>1759746</v>
+        <v>1792233</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>9570</v>
+        <v>9288</v>
       </c>
       <c r="F225" t="n">
-        <v>8006</v>
+        <v>7735</v>
       </c>
       <c r="G225" t="n">
-        <v>3128</v>
+        <v>3105</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>44076</v>
       </c>
       <c r="B226" t="n">
-        <v>1768993</v>
+        <v>1801183</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>9247</v>
+        <v>8950</v>
       </c>
       <c r="F226" t="n">
-        <v>7687</v>
+        <v>7400</v>
       </c>
       <c r="G226" t="n">
-        <v>3121</v>
+        <v>3098</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>44077</v>
       </c>
       <c r="B227" t="n">
-        <v>1777925</v>
+        <v>1809802</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>8932</v>
+        <v>8619</v>
       </c>
       <c r="F227" t="n">
-        <v>7375</v>
+        <v>7073</v>
       </c>
       <c r="G227" t="n">
-        <v>3114</v>
+        <v>3091</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>44078</v>
       </c>
       <c r="B228" t="n">
-        <v>1786548</v>
+        <v>1818098</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8623</v>
+        <v>8296</v>
       </c>
       <c r="F228" t="n">
-        <v>7069</v>
+        <v>6754</v>
       </c>
       <c r="G228" t="n">
-        <v>3107</v>
+        <v>3085</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>44079</v>
       </c>
       <c r="B229" t="n">
-        <v>1794868</v>
+        <v>1826079</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>8320</v>
+        <v>7981</v>
       </c>
       <c r="F229" t="n">
-        <v>6770</v>
+        <v>6442</v>
       </c>
       <c r="G229" t="n">
-        <v>3100</v>
+        <v>3078</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>44080</v>
       </c>
       <c r="B230" t="n">
-        <v>1802892</v>
+        <v>1833753</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>8024</v>
+        <v>7674</v>
       </c>
       <c r="F230" t="n">
-        <v>6478</v>
+        <v>6138</v>
       </c>
       <c r="G230" t="n">
-        <v>3093</v>
+        <v>3071</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>44081</v>
       </c>
       <c r="B231" t="n">
-        <v>1810628</v>
+        <v>1841128</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>7736</v>
+        <v>7375</v>
       </c>
       <c r="F231" t="n">
-        <v>6192</v>
+        <v>5843</v>
       </c>
       <c r="G231" t="n">
-        <v>3086</v>
+        <v>3064</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>44082</v>
       </c>
       <c r="B232" t="n">
-        <v>1818082</v>
+        <v>1848212</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>7454</v>
+        <v>7084</v>
       </c>
       <c r="F232" t="n">
-        <v>5914</v>
+        <v>5555</v>
       </c>
       <c r="G232" t="n">
-        <v>3080</v>
+        <v>3058</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>44083</v>
       </c>
       <c r="B233" t="n">
-        <v>1825261</v>
+        <v>1855013</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>7179</v>
+        <v>6801</v>
       </c>
       <c r="F233" t="n">
-        <v>5642</v>
+        <v>5276</v>
       </c>
       <c r="G233" t="n">
-        <v>3073</v>
+        <v>3051</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>44084</v>
       </c>
       <c r="B234" t="n">
-        <v>1832172</v>
+        <v>1861539</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>6911</v>
+        <v>6526</v>
       </c>
       <c r="F234" t="n">
-        <v>5378</v>
+        <v>5004</v>
       </c>
       <c r="G234" t="n">
-        <v>3066</v>
+        <v>3044</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>44085</v>
       </c>
       <c r="B235" t="n">
-        <v>1838823</v>
+        <v>1867799</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>6651</v>
+        <v>6260</v>
       </c>
       <c r="F235" t="n">
-        <v>5121</v>
+        <v>4741</v>
       </c>
       <c r="G235" t="n">
-        <v>3060</v>
+        <v>3038</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>44086</v>
       </c>
       <c r="B236" t="n">
-        <v>1845220</v>
+        <v>1873800</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>6397</v>
+        <v>6001</v>
       </c>
       <c r="F236" t="n">
-        <v>4870</v>
+        <v>4486</v>
       </c>
       <c r="G236" t="n">
-        <v>3053</v>
+        <v>3031</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>44087</v>
       </c>
       <c r="B237" t="n">
-        <v>1851370</v>
+        <v>1879551</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>6150</v>
+        <v>5751</v>
       </c>
       <c r="F237" t="n">
-        <v>4627</v>
+        <v>4238</v>
       </c>
       <c r="G237" t="n">
-        <v>3047</v>
+        <v>3025</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>44088</v>
       </c>
       <c r="B238" t="n">
-        <v>1857281</v>
+        <v>1885059</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -7277,13 +7277,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>5911</v>
+        <v>5508</v>
       </c>
       <c r="F238" t="n">
-        <v>4390</v>
+        <v>3999</v>
       </c>
       <c r="G238" t="n">
-        <v>3040</v>
+        <v>3018</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>44089</v>
       </c>
       <c r="B239" t="n">
-        <v>1862959</v>
+        <v>1890332</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>5678</v>
+        <v>5273</v>
       </c>
       <c r="F239" t="n">
-        <v>4161</v>
+        <v>3767</v>
       </c>
       <c r="G239" t="n">
-        <v>3034</v>
+        <v>3012</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>44090</v>
       </c>
       <c r="B240" t="n">
-        <v>1868411</v>
+        <v>1895378</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5452</v>
+        <v>5046</v>
       </c>
       <c r="F240" t="n">
-        <v>3939</v>
+        <v>3544</v>
       </c>
       <c r="G240" t="n">
-        <v>3028</v>
+        <v>3006</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>44091</v>
       </c>
       <c r="B241" t="n">
-        <v>1873645</v>
+        <v>1900205</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>5234</v>
+        <v>4827</v>
       </c>
       <c r="F241" t="n">
-        <v>3723</v>
+        <v>3327</v>
       </c>
       <c r="G241" t="n">
-        <v>3021</v>
+        <v>2999</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>44092</v>
       </c>
       <c r="B242" t="n">
-        <v>1878666</v>
+        <v>1904820</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>5021</v>
+        <v>4615</v>
       </c>
       <c r="F242" t="n">
-        <v>3514</v>
+        <v>3119</v>
       </c>
       <c r="G242" t="n">
-        <v>3015</v>
+        <v>2993</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>44093</v>
       </c>
       <c r="B243" t="n">
-        <v>1883482</v>
+        <v>1909231</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4816</v>
+        <v>4411</v>
       </c>
       <c r="F243" t="n">
-        <v>3312</v>
+        <v>2917</v>
       </c>
       <c r="G243" t="n">
-        <v>3009</v>
+        <v>2987</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>44094</v>
       </c>
       <c r="B244" t="n">
-        <v>1888099</v>
+        <v>1913445</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>4617</v>
+        <v>4214</v>
       </c>
       <c r="F244" t="n">
-        <v>3116</v>
+        <v>2723</v>
       </c>
       <c r="G244" t="n">
-        <v>3002</v>
+        <v>2981</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>44095</v>
       </c>
       <c r="B245" t="n">
-        <v>1892524</v>
+        <v>1917469</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>4425</v>
+        <v>4024</v>
       </c>
       <c r="F245" t="n">
-        <v>2927</v>
+        <v>2536</v>
       </c>
       <c r="G245" t="n">
-        <v>2996</v>
+        <v>2975</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>44096</v>
       </c>
       <c r="B246" t="n">
-        <v>1896763</v>
+        <v>1921310</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4239</v>
+        <v>3841</v>
       </c>
       <c r="F246" t="n">
-        <v>2744</v>
+        <v>2356</v>
       </c>
       <c r="G246" t="n">
-        <v>2990</v>
+        <v>2969</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>44097</v>
       </c>
       <c r="B247" t="n">
-        <v>1900823</v>
+        <v>1924975</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>4060</v>
+        <v>3665</v>
       </c>
       <c r="F247" t="n">
-        <v>2568</v>
+        <v>2183</v>
       </c>
       <c r="G247" t="n">
-        <v>2984</v>
+        <v>2963</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>44098</v>
       </c>
       <c r="B248" t="n">
-        <v>1904709</v>
+        <v>1928470</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7567,13 +7567,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>3886</v>
+        <v>3495</v>
       </c>
       <c r="F248" t="n">
-        <v>2397</v>
+        <v>2017</v>
       </c>
       <c r="G248" t="n">
-        <v>2978</v>
+        <v>2956</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>44099</v>
       </c>
       <c r="B249" t="n">
-        <v>1908428</v>
+        <v>1931802</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>3719</v>
+        <v>3332</v>
       </c>
       <c r="F249" t="n">
-        <v>2233</v>
+        <v>1857</v>
       </c>
       <c r="G249" t="n">
-        <v>2972</v>
+        <v>2950</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>44100</v>
       </c>
       <c r="B250" t="n">
-        <v>1911986</v>
+        <v>1934978</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>3558</v>
+        <v>3176</v>
       </c>
       <c r="F250" t="n">
-        <v>2075</v>
+        <v>1703</v>
       </c>
       <c r="G250" t="n">
-        <v>2966</v>
+        <v>2945</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>44101</v>
       </c>
       <c r="B251" t="n">
-        <v>1915388</v>
+        <v>1938003</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>3402</v>
+        <v>3025</v>
       </c>
       <c r="F251" t="n">
-        <v>1922</v>
+        <v>1556</v>
       </c>
       <c r="G251" t="n">
-        <v>2960</v>
+        <v>2939</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -7672,7 +7672,7 @@
         <v>44102</v>
       </c>
       <c r="B252" t="n">
-        <v>1918640</v>
+        <v>1940884</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7683,13 +7683,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>3252</v>
+        <v>2881</v>
       </c>
       <c r="F252" t="n">
-        <v>1775</v>
+        <v>1415</v>
       </c>
       <c r="G252" t="n">
-        <v>2954</v>
+        <v>2933</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>44103</v>
       </c>
       <c r="B253" t="n">
-        <v>1921748</v>
+        <v>1943626</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7712,13 +7712,13 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3108</v>
+        <v>2742</v>
       </c>
       <c r="F253" t="n">
-        <v>1634</v>
+        <v>1279</v>
       </c>
       <c r="G253" t="n">
-        <v>2948</v>
+        <v>2927</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>44104</v>
       </c>
       <c r="B254" t="n">
-        <v>1924717</v>
+        <v>1946236</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7741,13 +7741,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>2969</v>
+        <v>2610</v>
       </c>
       <c r="F254" t="n">
-        <v>1498</v>
+        <v>1149</v>
       </c>
       <c r="G254" t="n">
-        <v>2942</v>
+        <v>2921</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>44105</v>
       </c>
       <c r="B255" t="n">
-        <v>1927553</v>
+        <v>1948718</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7770,13 +7770,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>2836</v>
+        <v>2482</v>
       </c>
       <c r="F255" t="n">
-        <v>1367</v>
+        <v>1025</v>
       </c>
       <c r="G255" t="n">
-        <v>2936</v>
+        <v>2915</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -7788,7 +7788,7 @@
         <v>44106</v>
       </c>
       <c r="B256" t="n">
-        <v>1930260</v>
+        <v>1951079</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7799,13 +7799,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>2707</v>
+        <v>2361</v>
       </c>
       <c r="F256" t="n">
-        <v>1242</v>
+        <v>906</v>
       </c>
       <c r="G256" t="n">
-        <v>2931</v>
+        <v>2910</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>44107</v>
       </c>
       <c r="B257" t="n">
-        <v>1932844</v>
+        <v>1953323</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7828,13 +7828,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>2584</v>
+        <v>2244</v>
       </c>
       <c r="F257" t="n">
-        <v>1121</v>
+        <v>792</v>
       </c>
       <c r="G257" t="n">
-        <v>2925</v>
+        <v>2904</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="B258" t="n">
-        <v>1935309</v>
+        <v>1955455</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>2465</v>
+        <v>2132</v>
       </c>
       <c r="F258" t="n">
-        <v>1005</v>
+        <v>683</v>
       </c>
       <c r="G258" t="n">
-        <v>2919</v>
+        <v>2898</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>44109</v>
       </c>
       <c r="B259" t="n">
-        <v>1937660</v>
+        <v>1957481</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7886,13 +7886,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>2351</v>
+        <v>2026</v>
       </c>
       <c r="F259" t="n">
-        <v>894</v>
+        <v>579</v>
       </c>
       <c r="G259" t="n">
-        <v>2913</v>
+        <v>2893</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -7904,7 +7904,7 @@
         <v>44110</v>
       </c>
       <c r="B260" t="n">
-        <v>1939902</v>
+        <v>1959404</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>2242</v>
+        <v>1923</v>
       </c>
       <c r="F260" t="n">
-        <v>788</v>
+        <v>480</v>
       </c>
       <c r="G260" t="n">
-        <v>2908</v>
+        <v>2887</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>44111</v>
       </c>
       <c r="B261" t="n">
-        <v>1942039</v>
+        <v>1961230</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>2137</v>
+        <v>1826</v>
       </c>
       <c r="F261" t="n">
-        <v>686</v>
+        <v>385</v>
       </c>
       <c r="G261" t="n">
-        <v>2902</v>
+        <v>2881</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>44112</v>
       </c>
       <c r="B262" t="n">
-        <v>1944075</v>
+        <v>1962963</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7973,13 +7973,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2036</v>
+        <v>1733</v>
       </c>
       <c r="F262" t="n">
-        <v>588</v>
+        <v>295</v>
       </c>
       <c r="G262" t="n">
-        <v>2897</v>
+        <v>2876</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>44113</v>
       </c>
       <c r="B263" t="n">
-        <v>1946015</v>
+        <v>1964607</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1940</v>
+        <v>1644</v>
       </c>
       <c r="F263" t="n">
-        <v>494</v>
+        <v>209</v>
       </c>
       <c r="G263" t="n">
-        <v>2891</v>
+        <v>2870</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>44114</v>
       </c>
       <c r="B264" t="n">
-        <v>1947862</v>
+        <v>1966166</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1847</v>
+        <v>1559</v>
       </c>
       <c r="F264" t="n">
-        <v>404</v>
+        <v>127</v>
       </c>
       <c r="G264" t="n">
-        <v>2886</v>
+        <v>2865</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>44115</v>
       </c>
       <c r="B265" t="n">
-        <v>1949621</v>
+        <v>1967644</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1759</v>
+        <v>1478</v>
       </c>
       <c r="F265" t="n">
-        <v>319</v>
+        <v>48</v>
       </c>
       <c r="G265" t="n">
-        <v>2880</v>
+        <v>2859</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>44116</v>
       </c>
       <c r="B266" t="n">
-        <v>1951295</v>
+        <v>1969045</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -8089,13 +8089,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1674</v>
+        <v>1401</v>
       </c>
       <c r="F266" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>2875</v>
+        <v>2828</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>44117</v>
       </c>
       <c r="B267" t="n">
-        <v>1952888</v>
+        <v>1970372</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1593</v>
+        <v>1327</v>
       </c>
       <c r="F267" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>2869</v>
+        <v>2752</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>44118</v>
       </c>
       <c r="B268" t="n">
-        <v>1954403</v>
+        <v>1971629</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -8147,13 +8147,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1515</v>
+        <v>1257</v>
       </c>
       <c r="F268" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>2864</v>
+        <v>2679</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>44119</v>
       </c>
       <c r="B269" t="n">
-        <v>1955844</v>
+        <v>1972819</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -8176,13 +8176,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1441</v>
+        <v>1190</v>
       </c>
       <c r="F269" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>2858</v>
+        <v>2609</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -8194,7 +8194,7 @@
         <v>44120</v>
       </c>
       <c r="B270" t="n">
-        <v>1957214</v>
+        <v>1973946</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8205,13 +8205,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1370</v>
+        <v>1127</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>2796</v>
+        <v>2543</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>44121</v>
       </c>
       <c r="B271" t="n">
-        <v>1958516</v>
+        <v>1975013</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1302</v>
+        <v>1067</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>2726</v>
+        <v>2480</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>44122</v>
       </c>
       <c r="B272" t="n">
-        <v>1959753</v>
+        <v>1976022</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1237</v>
+        <v>1009</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>2659</v>
+        <v>2420</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>44123</v>
       </c>
       <c r="B273" t="n">
-        <v>1960928</v>
+        <v>1976976</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1175</v>
+        <v>954</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>2594</v>
+        <v>2363</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>44124</v>
       </c>
       <c r="B274" t="n">
-        <v>1962044</v>
+        <v>1977878</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -8321,13 +8321,13 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1116</v>
+        <v>902</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>2532</v>
+        <v>2308</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>44125</v>
       </c>
       <c r="B275" t="n">
-        <v>1963104</v>
+        <v>1978731</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -8350,13 +8350,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1060</v>
+        <v>853</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>2474</v>
+        <v>2256</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -8368,7 +8368,7 @@
         <v>44126</v>
       </c>
       <c r="B276" t="n">
-        <v>1964110</v>
+        <v>1979537</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1006</v>
+        <v>806</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>2417</v>
+        <v>2207</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -8397,7 +8397,7 @@
         <v>44127</v>
       </c>
       <c r="B277" t="n">
-        <v>1965065</v>
+        <v>1980299</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -8408,25 +8408,30 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>955</v>
+        <v>762</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>2363</v>
+        <v>2160</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>12914</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>End 97% on
+23 October 2020</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
         <v>44128</v>
       </c>
       <c r="B278" t="n">
-        <v>1965971</v>
+        <v>1981019</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -8437,13 +8442,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>906</v>
+        <v>720</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>2312</v>
+        <v>2115</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8455,7 +8460,7 @@
         <v>44129</v>
       </c>
       <c r="B279" t="n">
-        <v>1966831</v>
+        <v>1981699</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -8466,13 +8471,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>860</v>
+        <v>680</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>2263</v>
+        <v>2073</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -8484,7 +8489,7 @@
         <v>44130</v>
       </c>
       <c r="B280" t="n">
-        <v>1967646</v>
+        <v>1982341</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -8495,13 +8500,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>815</v>
+        <v>642</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>2216</v>
+        <v>2032</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -8513,7 +8518,7 @@
         <v>44131</v>
       </c>
       <c r="B281" t="n">
-        <v>1968419</v>
+        <v>1982947</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -8524,13 +8529,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>773</v>
+        <v>606</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>2171</v>
+        <v>1994</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -8542,7 +8547,7 @@
         <v>44132</v>
       </c>
       <c r="B282" t="n">
-        <v>1969152</v>
+        <v>1983518</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -8553,30 +8558,25 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>733</v>
+        <v>571</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>2128</v>
+        <v>1957</v>
       </c>
       <c r="H282" t="n">
-        <v>12438</v>
-      </c>
-      <c r="I282" t="inlineStr">
-        <is>
-          <t>End 97% on
-28 October 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
         <v>44133</v>
       </c>
       <c r="B283" t="n">
-        <v>1969847</v>
+        <v>1984057</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -8587,13 +8587,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>695</v>
+        <v>539</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>2088</v>
+        <v>1922</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>44134</v>
       </c>
       <c r="B284" t="n">
-        <v>1970505</v>
+        <v>1984565</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -8616,13 +8616,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>658</v>
+        <v>508</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>2049</v>
+        <v>1889</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>44135</v>
       </c>
       <c r="B285" t="n">
-        <v>1971128</v>
+        <v>1985044</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -8645,13 +8645,13 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>623</v>
+        <v>479</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>2012</v>
+        <v>1858</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -8663,7 +8663,7 @@
         <v>44136</v>
       </c>
       <c r="B286" t="n">
-        <v>1971718</v>
+        <v>1985496</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8674,13 +8674,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>590</v>
+        <v>452</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>1976</v>
+        <v>1828</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>44137</v>
       </c>
       <c r="B287" t="n">
-        <v>1972277</v>
+        <v>1985922</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -8703,13 +8703,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>559</v>
+        <v>426</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>1942</v>
+        <v>1799</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>44138</v>
       </c>
       <c r="B288" t="n">
-        <v>1972806</v>
+        <v>1986323</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -8732,13 +8732,13 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>529</v>
+        <v>401</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>1910</v>
+        <v>1772</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>44139</v>
       </c>
       <c r="B289" t="n">
-        <v>1973307</v>
+        <v>1986701</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -8761,13 +8761,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>501</v>
+        <v>378</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>1880</v>
+        <v>1747</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>44140</v>
       </c>
       <c r="B290" t="n">
-        <v>1973781</v>
+        <v>1987057</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -8790,13 +8790,13 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>474</v>
+        <v>356</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>1850</v>
+        <v>1722</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -8808,7 +8808,7 @@
         <v>44141</v>
       </c>
       <c r="B291" t="n">
-        <v>1974230</v>
+        <v>1987392</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8819,13 +8819,13 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>449</v>
+        <v>335</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>1822</v>
+        <v>1699</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>44142</v>
       </c>
       <c r="B292" t="n">
-        <v>1974654</v>
+        <v>1987708</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8848,13 +8848,13 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>424</v>
+        <v>316</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>1796</v>
+        <v>1677</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>44143</v>
       </c>
       <c r="B293" t="n">
-        <v>1975055</v>
+        <v>1988005</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8877,13 +8877,13 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>401</v>
+        <v>297</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>1770</v>
+        <v>1656</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>44144</v>
       </c>
       <c r="B294" t="n">
-        <v>1975435</v>
+        <v>1988285</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8906,13 +8906,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1746</v>
+        <v>1636</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>44145</v>
       </c>
       <c r="B295" t="n">
-        <v>1975794</v>
+        <v>1988548</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>359</v>
+        <v>263</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>1723</v>
+        <v>1618</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -8953,7 +8953,7 @@
         <v>44146</v>
       </c>
       <c r="B296" t="n">
-        <v>1976133</v>
+        <v>1988795</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8964,25 +8964,30 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>339</v>
+        <v>247</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>1701</v>
+        <v>1600</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>7748</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>End 99% on
+11 November 2020</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="B297" t="n">
-        <v>1976454</v>
+        <v>1989028</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8993,13 +8998,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>1680</v>
+        <v>1583</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -9011,7 +9016,7 @@
         <v>44148</v>
       </c>
       <c r="B298" t="n">
-        <v>1976757</v>
+        <v>1989247</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -9022,13 +9027,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>1660</v>
+        <v>1566</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -9040,7 +9045,7 @@
         <v>44149</v>
       </c>
       <c r="B299" t="n">
-        <v>1977043</v>
+        <v>1989453</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -9051,13 +9056,13 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>1641</v>
+        <v>1551</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -9069,7 +9074,7 @@
         <v>44150</v>
       </c>
       <c r="B300" t="n">
-        <v>1977313</v>
+        <v>1989646</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -9080,13 +9085,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1623</v>
+        <v>1536</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9098,7 +9103,7 @@
         <v>44151</v>
       </c>
       <c r="B301" t="n">
-        <v>1977568</v>
+        <v>1989828</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -9109,13 +9114,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1606</v>
+        <v>1523</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -9127,7 +9132,7 @@
         <v>44152</v>
       </c>
       <c r="B302" t="n">
-        <v>1977809</v>
+        <v>1989999</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -9138,30 +9143,25 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1589</v>
+        <v>1509</v>
       </c>
       <c r="H302" t="n">
-        <v>7463</v>
-      </c>
-      <c r="I302" t="inlineStr">
-        <is>
-          <t>End 99% on
-17 November 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="B303" t="n">
-        <v>1978037</v>
+        <v>1990159</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1574</v>
+        <v>1497</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>44154</v>
       </c>
       <c r="B304" t="n">
-        <v>1978252</v>
+        <v>1990310</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -9201,13 +9201,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1559</v>
+        <v>1485</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>44155</v>
       </c>
       <c r="B305" t="n">
-        <v>1978455</v>
+        <v>1990451</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -9230,13 +9230,13 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1544</v>
+        <v>1473</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>44156</v>
       </c>
       <c r="B306" t="n">
-        <v>1978646</v>
+        <v>1990584</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -9259,13 +9259,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1531</v>
+        <v>1463</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -9277,7 +9277,7 @@
         <v>44157</v>
       </c>
       <c r="B307" t="n">
-        <v>1978826</v>
+        <v>1990709</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -9288,13 +9288,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1518</v>
+        <v>1452</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -9306,7 +9306,7 @@
         <v>44158</v>
       </c>
       <c r="B308" t="n">
-        <v>1978996</v>
+        <v>1990826</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -9317,13 +9317,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1505</v>
+        <v>1442</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>44159</v>
       </c>
       <c r="B309" t="n">
-        <v>1979157</v>
+        <v>1990936</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -9346,13 +9346,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1493</v>
+        <v>1433</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>44160</v>
       </c>
       <c r="B310" t="n">
-        <v>1979308</v>
+        <v>1991039</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -9375,13 +9375,13 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1482</v>
+        <v>1424</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>44161</v>
       </c>
       <c r="B311" t="n">
-        <v>1979451</v>
+        <v>1991136</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1471</v>
+        <v>1416</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>44162</v>
       </c>
       <c r="B312" t="n">
-        <v>1979586</v>
+        <v>1991227</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -9433,13 +9433,13 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1461</v>
+        <v>1407</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>44163</v>
       </c>
       <c r="B313" t="n">
-        <v>1979713</v>
+        <v>1991312</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -9462,13 +9462,13 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1451</v>
+        <v>1400</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>44164</v>
       </c>
       <c r="B314" t="n">
-        <v>1979833</v>
+        <v>1991392</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1442</v>
+        <v>1392</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>44165</v>
       </c>
       <c r="B315" t="n">
-        <v>1979946</v>
+        <v>1991467</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -9520,13 +9520,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1433</v>
+        <v>1385</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9538,7 +9538,7 @@
         <v>44166</v>
       </c>
       <c r="B316" t="n">
-        <v>1980052</v>
+        <v>1991537</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -9549,13 +9549,13 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1424</v>
+        <v>1378</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>44167</v>
       </c>
       <c r="B317" t="n">
-        <v>1980152</v>
+        <v>1991603</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1416</v>
+        <v>1372</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>44168</v>
       </c>
       <c r="B318" t="n">
-        <v>1980246</v>
+        <v>1991665</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1408</v>
+        <v>1366</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>44169</v>
       </c>
       <c r="B319" t="n">
-        <v>1980335</v>
+        <v>1991723</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -9636,13 +9636,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>44170</v>
       </c>
       <c r="B320" t="n">
-        <v>1980418</v>
+        <v>1991777</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -9665,13 +9665,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1393</v>
+        <v>1354</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>44171</v>
       </c>
       <c r="B321" t="n">
-        <v>1980497</v>
+        <v>1991828</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -9694,13 +9694,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>1386</v>
+        <v>1349</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>44172</v>
       </c>
       <c r="B322" t="n">
-        <v>1980571</v>
+        <v>1991875</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>1379</v>
+        <v>1343</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>44173</v>
       </c>
       <c r="B323" t="n">
-        <v>1980641</v>
+        <v>1991919</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -9752,13 +9752,13 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1373</v>
+        <v>1338</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -9770,7 +9770,7 @@
         <v>44174</v>
       </c>
       <c r="B324" t="n">
-        <v>1980707</v>
+        <v>1991961</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -9781,13 +9781,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1367</v>
+        <v>1334</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>44175</v>
       </c>
       <c r="B325" t="n">
-        <v>1980769</v>
+        <v>1992000</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1361</v>
+        <v>1329</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>44176</v>
       </c>
       <c r="B326" t="n">
-        <v>1980827</v>
+        <v>1992036</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -9839,13 +9839,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1355</v>
+        <v>1324</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>44177</v>
       </c>
       <c r="B327" t="n">
-        <v>1980882</v>
+        <v>1992070</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1350</v>
+        <v>1320</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>44178</v>
       </c>
       <c r="B328" t="n">
-        <v>1980933</v>
+        <v>1992102</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1345</v>
+        <v>1316</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>44179</v>
       </c>
       <c r="B329" t="n">
-        <v>1980981</v>
+        <v>1992132</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9926,13 +9926,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1340</v>
+        <v>1312</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>44180</v>
       </c>
       <c r="B330" t="n">
-        <v>1981026</v>
+        <v>1992160</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9955,13 +9955,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1335</v>
+        <v>1308</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>44181</v>
       </c>
       <c r="B331" t="n">
-        <v>1981069</v>
+        <v>1992186</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1330</v>
+        <v>1304</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>44182</v>
       </c>
       <c r="B332" t="n">
-        <v>1981109</v>
+        <v>1992210</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -10013,13 +10013,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1326</v>
+        <v>1301</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>44183</v>
       </c>
       <c r="B333" t="n">
-        <v>1981147</v>
+        <v>1992233</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -10042,13 +10042,13 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1321</v>
+        <v>1297</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>44184</v>
       </c>
       <c r="B334" t="n">
-        <v>1981183</v>
+        <v>1992254</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>1317</v>
+        <v>1294</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>44185</v>
       </c>
       <c r="B335" t="n">
-        <v>1981216</v>
+        <v>1992274</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>1313</v>
+        <v>1290</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>44186</v>
       </c>
       <c r="B336" t="n">
-        <v>1981247</v>
+        <v>1992293</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>1309</v>
+        <v>1287</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>44187</v>
       </c>
       <c r="B337" t="n">
-        <v>1981276</v>
+        <v>1992310</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>1305</v>
+        <v>1284</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>44188</v>
       </c>
       <c r="B338" t="n">
-        <v>1981304</v>
+        <v>1992326</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>44189</v>
       </c>
       <c r="B339" t="n">
-        <v>1981330</v>
+        <v>1992341</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1298</v>
+        <v>1278</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>44190</v>
       </c>
       <c r="B340" t="n">
-        <v>1981354</v>
+        <v>1992355</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -10245,13 +10245,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>1295</v>
+        <v>1275</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>44191</v>
       </c>
       <c r="B341" t="n">
-        <v>1981377</v>
+        <v>1992368</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -10274,13 +10274,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>1291</v>
+        <v>1273</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>44192</v>
       </c>
       <c r="B342" t="n">
-        <v>1981399</v>
+        <v>1992380</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -10303,13 +10303,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1288</v>
+        <v>1270</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>44193</v>
       </c>
       <c r="B343" t="n">
-        <v>1981419</v>
+        <v>1992392</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -10332,13 +10332,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>1285</v>
+        <v>1267</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>44194</v>
       </c>
       <c r="B344" t="n">
-        <v>1981438</v>
+        <v>1992403</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1282</v>
+        <v>1265</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>44195</v>
       </c>
       <c r="B345" t="n">
-        <v>1981456</v>
+        <v>1992413</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1279</v>
+        <v>1262</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>44196</v>
       </c>
       <c r="B346" t="n">
-        <v>1981473</v>
+        <v>1992422</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -10419,13 +10419,13 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>1276</v>
+        <v>1260</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>44197</v>
       </c>
       <c r="B347" t="n">
-        <v>1981489</v>
+        <v>1992431</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -10448,13 +10448,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1273</v>
+        <v>1257</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>44198</v>
       </c>
       <c r="B348" t="n">
-        <v>1981504</v>
+        <v>1992439</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -10477,13 +10477,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>44199</v>
       </c>
       <c r="B349" t="n">
-        <v>1981518</v>
+        <v>1992447</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>1268</v>
+        <v>1252</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>44200</v>
       </c>
       <c r="B350" t="n">
-        <v>1981531</v>
+        <v>1992454</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>44201</v>
       </c>
       <c r="B351" t="n">
-        <v>1981543</v>
+        <v>1992461</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -10564,13 +10564,13 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1262</v>
+        <v>1248</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -10582,7 +10582,7 @@
         <v>44202</v>
       </c>
       <c r="B352" t="n">
-        <v>1981554</v>
+        <v>1992467</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>1260</v>
+        <v>1246</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>44203</v>
       </c>
       <c r="B353" t="n">
-        <v>1981565</v>
+        <v>1992473</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -10622,13 +10622,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>1257</v>
+        <v>1243</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>44204</v>
       </c>
       <c r="B354" t="n">
-        <v>1981575</v>
+        <v>1992478</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>1255</v>
+        <v>1241</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>44205</v>
       </c>
       <c r="B355" t="n">
-        <v>1981584</v>
+        <v>1992483</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>44206</v>
       </c>
       <c r="B356" t="n">
-        <v>1981593</v>
+        <v>1992488</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -10709,13 +10709,13 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>44207</v>
       </c>
       <c r="B357" t="n">
-        <v>1981601</v>
+        <v>1992492</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -10738,13 +10738,13 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>44208</v>
       </c>
       <c r="B358" t="n">
-        <v>1981609</v>
+        <v>1992496</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -10767,13 +10767,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>44209</v>
       </c>
       <c r="B359" t="n">
-        <v>1981616</v>
+        <v>1992500</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -10796,13 +10796,13 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>44210</v>
       </c>
       <c r="B360" t="n">
-        <v>1981623</v>
+        <v>1992504</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>44211</v>
       </c>
       <c r="B361" t="n">
-        <v>1981629</v>
+        <v>1992507</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -10854,13 +10854,13 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>44212</v>
       </c>
       <c r="B362" t="n">
-        <v>1981635</v>
+        <v>1992510</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -10883,13 +10883,13 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>44213</v>
       </c>
       <c r="B363" t="n">
-        <v>1981641</v>
+        <v>1992513</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -10912,13 +10912,13 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>44214</v>
       </c>
       <c r="B364" t="n">
-        <v>1981646</v>
+        <v>1992516</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -10941,13 +10941,13 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>44215</v>
       </c>
       <c r="B365" t="n">
-        <v>1981651</v>
+        <v>1992519</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -10970,13 +10970,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>44216</v>
       </c>
       <c r="B366" t="n">
-        <v>1981656</v>
+        <v>1992521</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -10999,13 +10999,13 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>44217</v>
       </c>
       <c r="B367" t="n">
-        <v>1981660</v>
+        <v>1992523</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -11028,13 +11028,13 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -11046,7 +11046,7 @@
         <v>44218</v>
       </c>
       <c r="B368" t="n">
-        <v>1981664</v>
+        <v>1992525</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>44219</v>
       </c>
       <c r="B369" t="n">
-        <v>1981668</v>
+        <v>1992527</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -11086,13 +11086,13 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>44220</v>
       </c>
       <c r="B370" t="n">
-        <v>1981672</v>
+        <v>1992529</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -11115,13 +11115,13 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>44221</v>
       </c>
       <c r="B371" t="n">
-        <v>1981675</v>
+        <v>1992531</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -11144,13 +11144,13 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>44222</v>
       </c>
       <c r="B372" t="n">
-        <v>1981678</v>
+        <v>1992533</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -11173,13 +11173,13 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -11191,7 +11191,7 @@
         <v>44223</v>
       </c>
       <c r="B373" t="n">
-        <v>1981681</v>
+        <v>1992534</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -11202,13 +11202,13 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>44224</v>
       </c>
       <c r="B374" t="n">
-        <v>1981684</v>
+        <v>1992535</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -11231,13 +11231,13 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -11249,7 +11249,7 @@
         <v>44225</v>
       </c>
       <c r="B375" t="n">
-        <v>1981687</v>
+        <v>1992536</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -11260,13 +11260,13 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -11278,7 +11278,7 @@
         <v>44226</v>
       </c>
       <c r="B376" t="n">
-        <v>1981689</v>
+        <v>1992537</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -11289,13 +11289,13 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>44227</v>
       </c>
       <c r="B377" t="n">
-        <v>1981691</v>
+        <v>1992538</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -11318,13 +11318,13 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>44228</v>
       </c>
       <c r="B378" t="n">
-        <v>1981693</v>
+        <v>1992539</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -11347,13 +11347,13 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>44229</v>
       </c>
       <c r="B379" t="n">
-        <v>1981695</v>
+        <v>1992540</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>44230</v>
       </c>
       <c r="B380" t="n">
-        <v>1981697</v>
+        <v>1992541</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -11405,13 +11405,13 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>44231</v>
       </c>
       <c r="B381" t="n">
-        <v>1981699</v>
+        <v>1992542</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -11434,13 +11434,13 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>44232</v>
       </c>
       <c r="B382" t="n">
-        <v>1981701</v>
+        <v>1992543</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -11463,13 +11463,13 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -11481,7 +11481,7 @@
         <v>44233</v>
       </c>
       <c r="B383" t="n">
-        <v>1981703</v>
+        <v>1992544</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -11492,13 +11492,13 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -11510,7 +11510,7 @@
         <v>44234</v>
       </c>
       <c r="B384" t="n">
-        <v>1981704</v>
+        <v>1992545</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>44235</v>
       </c>
       <c r="B385" t="n">
-        <v>1981705</v>
+        <v>1992546</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -11568,7 +11568,7 @@
         <v>44236</v>
       </c>
       <c r="B386" t="n">
-        <v>1981706</v>
+        <v>1992547</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -11585,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>44237</v>
       </c>
       <c r="B387" t="n">
-        <v>1981707</v>
+        <v>1992548</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>44238</v>
       </c>
       <c r="B388" t="n">
-        <v>1981708</v>
+        <v>1992548</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -11637,25 +11637,30 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>12914</v>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>No new cases on
+11 February 2021</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="B389" t="n">
-        <v>1981709</v>
+        <v>1992548</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -11666,13 +11671,13 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -11684,7 +11689,7 @@
         <v>44240</v>
       </c>
       <c r="B390" t="n">
-        <v>1981710</v>
+        <v>1992548</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -11695,13 +11700,13 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -11713,7 +11718,7 @@
         <v>44241</v>
       </c>
       <c r="B391" t="n">
-        <v>1981711</v>
+        <v>1992548</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -11724,13 +11729,13 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -11742,7 +11747,7 @@
         <v>44242</v>
       </c>
       <c r="B392" t="n">
-        <v>1981712</v>
+        <v>1992548</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -11753,13 +11758,13 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -11771,7 +11776,7 @@
         <v>44243</v>
       </c>
       <c r="B393" t="n">
-        <v>1981713</v>
+        <v>1992548</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -11782,13 +11787,13 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F393" t="n">
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -11800,7 +11805,7 @@
         <v>44244</v>
       </c>
       <c r="B394" t="n">
-        <v>1981714</v>
+        <v>1992548</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -11811,13 +11816,13 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F394" t="n">
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -11829,7 +11834,7 @@
         <v>44245</v>
       </c>
       <c r="B395" t="n">
-        <v>1981715</v>
+        <v>1992548</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -11840,13 +11845,13 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F395" t="n">
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="H395" t="n">
         <v>0</v>
@@ -11858,7 +11863,7 @@
         <v>44246</v>
       </c>
       <c r="B396" t="n">
-        <v>1981716</v>
+        <v>1992548</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -11869,13 +11874,13 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F396" t="n">
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="H396" t="n">
         <v>0</v>
@@ -11887,7 +11892,7 @@
         <v>44247</v>
       </c>
       <c r="B397" t="n">
-        <v>1981717</v>
+        <v>1992548</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -11898,13 +11903,13 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F397" t="n">
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -11916,7 +11921,7 @@
         <v>44248</v>
       </c>
       <c r="B398" t="n">
-        <v>1981718</v>
+        <v>1992548</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -11927,13 +11932,13 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F398" t="n">
         <v>0</v>
       </c>
       <c r="G398" t="n">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="H398" t="n">
         <v>0</v>
@@ -11945,7 +11950,7 @@
         <v>44249</v>
       </c>
       <c r="B399" t="n">
-        <v>1981719</v>
+        <v>1992548</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -11956,13 +11961,13 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F399" t="n">
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -11974,7 +11979,7 @@
         <v>44250</v>
       </c>
       <c r="B400" t="n">
-        <v>1981720</v>
+        <v>1992548</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -11985,13 +11990,13 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F400" t="n">
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="H400" t="n">
         <v>0</v>
@@ -12003,7 +12008,7 @@
         <v>44251</v>
       </c>
       <c r="B401" t="n">
-        <v>1981720</v>
+        <v>1992548</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -12020,24 +12025,19 @@
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="H401" t="n">
-        <v>12438</v>
-      </c>
-      <c r="I401" t="inlineStr">
-        <is>
-          <t>No new cases on
-24 February 2021</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
         <v>44252</v>
       </c>
       <c r="B402" t="n">
-        <v>1981720</v>
+        <v>1992548</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -12066,7 +12066,7 @@
         <v>44253</v>
       </c>
       <c r="B403" t="n">
-        <v>1981720</v>
+        <v>1992548</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -12095,7 +12095,7 @@
         <v>44254</v>
       </c>
       <c r="B404" t="n">
-        <v>1981720</v>
+        <v>1992548</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>44255</v>
       </c>
       <c r="B405" t="n">
-        <v>1981720</v>
+        <v>1992548</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -12141,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>

--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>380</v>
+        <v>305</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>444</v>
+        <v>359</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>516</v>
+        <v>422</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>598</v>
+        <v>492</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>689</v>
+        <v>572</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>791</v>
+        <v>663</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>905</v>
+        <v>764</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1032</v>
+        <v>877</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1171</v>
+        <v>1003</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1325</v>
+        <v>1143</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1494</v>
+        <v>1297</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1678</v>
+        <v>1467</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1878</v>
+        <v>1653</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2095</v>
+        <v>1856</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2330</v>
+        <v>2076</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2583</v>
+        <v>2315</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2854</v>
+        <v>2573</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>3145</v>
+        <v>2851</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>3454</v>
+        <v>3149</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3783</v>
+        <v>3467</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>4131</v>
+        <v>3805</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>4499</v>
+        <v>4165</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>4886</v>
+        <v>4545</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>5292</v>
+        <v>4945</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>5716</v>
+        <v>5367</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>6159</v>
+        <v>5808</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6620</v>
+        <v>6269</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>7097</v>
+        <v>6748</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>7591</v>
+        <v>7246</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>8100</v>
+        <v>7761</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>8622</v>
+        <v>8293</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>9158</v>
+        <v>8839</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9705</v>
+        <v>9400</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>10262</v>
+        <v>9973</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>10828</v>
+        <v>10557</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>11402</v>
+        <v>11150</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>11981</v>
+        <v>11751</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>12564</v>
+        <v>12358</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13149</v>
+        <v>12970</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>13735</v>
+        <v>13583</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>14319</v>
+        <v>14197</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14901</v>
+        <v>14810</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>15478</v>
+        <v>15419</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>16048</v>
+        <v>16023</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16610</v>
+        <v>16619</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>17162</v>
+        <v>17206</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17702</v>
+        <v>17782</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>18228</v>
+        <v>18344</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>18740</v>
+        <v>18892</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>19234</v>
+        <v>19423</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>19711</v>
+        <v>19936</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>20168</v>
+        <v>20429</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>20605</v>
+        <v>20900</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21019</v>
+        <v>21348</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>21411</v>
+        <v>21773</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>21778</v>
+        <v>22172</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -5207,24 +5207,24 @@
         <v>44017</v>
       </c>
       <c r="B167" t="n">
-        <v>695285</v>
+        <v>697413</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>24248</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22120</v>
+        <v>22544</v>
       </c>
       <c r="F167" t="n">
-        <v>20315</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>3610</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>44018</v>
       </c>
       <c r="B168" t="n">
-        <v>717721</v>
+        <v>720302</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>22436</v>
+        <v>22889</v>
       </c>
       <c r="F168" t="n">
-        <v>20637</v>
+        <v>21098</v>
       </c>
       <c r="G168" t="n">
-        <v>3599</v>
+        <v>3583</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>44019</v>
       </c>
       <c r="B169" t="n">
-        <v>740447</v>
+        <v>743508</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5276,13 +5276,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>22726</v>
+        <v>23206</v>
       </c>
       <c r="F169" t="n">
-        <v>20932</v>
+        <v>21420</v>
       </c>
       <c r="G169" t="n">
-        <v>3588</v>
+        <v>3572</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>763435</v>
+        <v>767002</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22988</v>
+        <v>23494</v>
       </c>
       <c r="F170" t="n">
-        <v>21199</v>
+        <v>21713</v>
       </c>
       <c r="G170" t="n">
-        <v>3578</v>
+        <v>3562</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>786658</v>
+        <v>790754</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>23223</v>
+        <v>23752</v>
       </c>
       <c r="F171" t="n">
-        <v>21440</v>
+        <v>21976</v>
       </c>
       <c r="G171" t="n">
-        <v>3567</v>
+        <v>3551</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>810088</v>
+        <v>814734</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>23430</v>
+        <v>23980</v>
       </c>
       <c r="F172" t="n">
-        <v>21652</v>
+        <v>22210</v>
       </c>
       <c r="G172" t="n">
-        <v>3556</v>
+        <v>3541</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>833697</v>
+        <v>838912</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23609</v>
+        <v>24178</v>
       </c>
       <c r="F173" t="n">
-        <v>21836</v>
+        <v>22413</v>
       </c>
       <c r="G173" t="n">
-        <v>3546</v>
+        <v>3530</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>857456</v>
+        <v>863257</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>23759</v>
+        <v>24345</v>
       </c>
       <c r="F174" t="n">
-        <v>21991</v>
+        <v>22585</v>
       </c>
       <c r="G174" t="n">
-        <v>3536</v>
+        <v>3520</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>881336</v>
+        <v>887739</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>23880</v>
+        <v>24482</v>
       </c>
       <c r="F175" t="n">
-        <v>22118</v>
+        <v>22727</v>
       </c>
       <c r="G175" t="n">
-        <v>3525</v>
+        <v>3510</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>905310</v>
+        <v>912327</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>23974</v>
+        <v>24588</v>
       </c>
       <c r="F176" t="n">
-        <v>22216</v>
+        <v>22838</v>
       </c>
       <c r="G176" t="n">
-        <v>3515</v>
+        <v>3500</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>929349</v>
+        <v>936990</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>24039</v>
+        <v>24663</v>
       </c>
       <c r="F177" t="n">
-        <v>22286</v>
+        <v>22918</v>
       </c>
       <c r="G177" t="n">
-        <v>3505</v>
+        <v>3490</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>953425</v>
+        <v>961698</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24076</v>
+        <v>24708</v>
       </c>
       <c r="F178" t="n">
-        <v>22328</v>
+        <v>22968</v>
       </c>
       <c r="G178" t="n">
-        <v>3495</v>
+        <v>3480</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>977510</v>
+        <v>986421</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>24085</v>
+        <v>24723</v>
       </c>
       <c r="F179" t="n">
-        <v>22342</v>
+        <v>22988</v>
       </c>
       <c r="G179" t="n">
-        <v>3485</v>
+        <v>3470</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>1001577</v>
+        <v>1011129</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>24067</v>
+        <v>24708</v>
       </c>
       <c r="F180" t="n">
-        <v>22330</v>
+        <v>22978</v>
       </c>
       <c r="G180" t="n">
-        <v>3476</v>
+        <v>3460</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>1025600</v>
+        <v>1035794</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>24023</v>
+        <v>24665</v>
       </c>
       <c r="F181" t="n">
-        <v>22290</v>
+        <v>22940</v>
       </c>
       <c r="G181" t="n">
-        <v>3466</v>
+        <v>3451</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>1049552</v>
+        <v>1060387</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23952</v>
+        <v>24593</v>
       </c>
       <c r="F182" t="n">
-        <v>22224</v>
+        <v>22873</v>
       </c>
       <c r="G182" t="n">
-        <v>3456</v>
+        <v>3441</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>1073408</v>
+        <v>1084881</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>23856</v>
+        <v>24494</v>
       </c>
       <c r="F183" t="n">
-        <v>22133</v>
+        <v>22778</v>
       </c>
       <c r="G183" t="n">
-        <v>3447</v>
+        <v>3431</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>1097144</v>
+        <v>1109249</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>23736</v>
+        <v>24368</v>
       </c>
       <c r="F184" t="n">
-        <v>22017</v>
+        <v>22657</v>
       </c>
       <c r="G184" t="n">
-        <v>3437</v>
+        <v>3422</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>1120735</v>
+        <v>1133465</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>23591</v>
+        <v>24216</v>
       </c>
       <c r="F185" t="n">
-        <v>21877</v>
+        <v>22510</v>
       </c>
       <c r="G185" t="n">
-        <v>3428</v>
+        <v>3413</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>1144158</v>
+        <v>1157504</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>23423</v>
+        <v>24039</v>
       </c>
       <c r="F186" t="n">
-        <v>21714</v>
+        <v>22337</v>
       </c>
       <c r="G186" t="n">
-        <v>3418</v>
+        <v>3403</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>1167391</v>
+        <v>1181342</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>23233</v>
+        <v>23838</v>
       </c>
       <c r="F187" t="n">
-        <v>21529</v>
+        <v>22141</v>
       </c>
       <c r="G187" t="n">
-        <v>3409</v>
+        <v>3394</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>1190413</v>
+        <v>1204956</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23022</v>
+        <v>23614</v>
       </c>
       <c r="F188" t="n">
-        <v>21322</v>
+        <v>21921</v>
       </c>
       <c r="G188" t="n">
-        <v>3400</v>
+        <v>3385</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>1213204</v>
+        <v>1228324</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>22791</v>
+        <v>23368</v>
       </c>
       <c r="F189" t="n">
-        <v>21095</v>
+        <v>21680</v>
       </c>
       <c r="G189" t="n">
-        <v>3391</v>
+        <v>3376</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>1235744</v>
+        <v>1251425</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>22540</v>
+        <v>23101</v>
       </c>
       <c r="F190" t="n">
-        <v>20849</v>
+        <v>21417</v>
       </c>
       <c r="G190" t="n">
-        <v>3382</v>
+        <v>3367</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>1258015</v>
+        <v>1274239</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22271</v>
+        <v>22814</v>
       </c>
       <c r="F191" t="n">
-        <v>20585</v>
+        <v>21135</v>
       </c>
       <c r="G191" t="n">
-        <v>3373</v>
+        <v>3358</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>44042</v>
       </c>
       <c r="B192" t="n">
-        <v>1280000</v>
+        <v>1296749</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>21985</v>
+        <v>22510</v>
       </c>
       <c r="F192" t="n">
-        <v>20303</v>
+        <v>20835</v>
       </c>
       <c r="G192" t="n">
-        <v>3364</v>
+        <v>3349</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>44043</v>
       </c>
       <c r="B193" t="n">
-        <v>1301683</v>
+        <v>1318936</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>21683</v>
+        <v>22187</v>
       </c>
       <c r="F193" t="n">
-        <v>20006</v>
+        <v>20517</v>
       </c>
       <c r="G193" t="n">
-        <v>3355</v>
+        <v>3340</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>44044</v>
       </c>
       <c r="B194" t="n">
-        <v>1323049</v>
+        <v>1340785</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21366</v>
+        <v>21849</v>
       </c>
       <c r="F194" t="n">
-        <v>19693</v>
+        <v>20183</v>
       </c>
       <c r="G194" t="n">
-        <v>3347</v>
+        <v>3332</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>44045</v>
       </c>
       <c r="B195" t="n">
-        <v>1344084</v>
+        <v>1362281</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>21035</v>
+        <v>21496</v>
       </c>
       <c r="F195" t="n">
-        <v>19366</v>
+        <v>19834</v>
       </c>
       <c r="G195" t="n">
-        <v>3338</v>
+        <v>3323</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>44046</v>
       </c>
       <c r="B196" t="n">
-        <v>1364775</v>
+        <v>1383410</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20691</v>
+        <v>21129</v>
       </c>
       <c r="F196" t="n">
-        <v>19027</v>
+        <v>19472</v>
       </c>
       <c r="G196" t="n">
-        <v>3329</v>
+        <v>3314</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>44047</v>
       </c>
       <c r="B197" t="n">
-        <v>1385110</v>
+        <v>1404160</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20335</v>
+        <v>20750</v>
       </c>
       <c r="F197" t="n">
-        <v>18675</v>
+        <v>19097</v>
       </c>
       <c r="G197" t="n">
-        <v>3321</v>
+        <v>3306</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>44048</v>
       </c>
       <c r="B198" t="n">
-        <v>1405079</v>
+        <v>1424519</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>19969</v>
+        <v>20359</v>
       </c>
       <c r="F198" t="n">
-        <v>18313</v>
+        <v>18710</v>
       </c>
       <c r="G198" t="n">
-        <v>3312</v>
+        <v>3297</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>44049</v>
       </c>
       <c r="B199" t="n">
-        <v>1424672</v>
+        <v>1444477</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -6146,13 +6146,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>19593</v>
+        <v>19958</v>
       </c>
       <c r="F199" t="n">
-        <v>17941</v>
+        <v>18314</v>
       </c>
       <c r="G199" t="n">
-        <v>3304</v>
+        <v>3289</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>44050</v>
       </c>
       <c r="B200" t="n">
-        <v>1443881</v>
+        <v>1464026</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>19209</v>
+        <v>19549</v>
       </c>
       <c r="F200" t="n">
-        <v>17561</v>
+        <v>17908</v>
       </c>
       <c r="G200" t="n">
-        <v>3295</v>
+        <v>3281</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>44051</v>
       </c>
       <c r="B201" t="n">
-        <v>1462698</v>
+        <v>1483157</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -6204,13 +6204,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>18817</v>
+        <v>19131</v>
       </c>
       <c r="F201" t="n">
-        <v>17173</v>
+        <v>17495</v>
       </c>
       <c r="G201" t="n">
-        <v>3287</v>
+        <v>3273</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>44052</v>
       </c>
       <c r="B202" t="n">
-        <v>1481116</v>
+        <v>1501864</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>18418</v>
+        <v>18707</v>
       </c>
       <c r="F202" t="n">
-        <v>16779</v>
+        <v>17075</v>
       </c>
       <c r="G202" t="n">
-        <v>3279</v>
+        <v>3264</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>44053</v>
       </c>
       <c r="B203" t="n">
-        <v>1499130</v>
+        <v>1520141</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>18014</v>
+        <v>18277</v>
       </c>
       <c r="F203" t="n">
-        <v>16378</v>
+        <v>16649</v>
       </c>
       <c r="G203" t="n">
-        <v>3271</v>
+        <v>3256</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>44054</v>
       </c>
       <c r="B204" t="n">
-        <v>1516735</v>
+        <v>1537984</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>17605</v>
+        <v>17843</v>
       </c>
       <c r="F204" t="n">
-        <v>15974</v>
+        <v>16219</v>
       </c>
       <c r="G204" t="n">
-        <v>3263</v>
+        <v>3248</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>44055</v>
       </c>
       <c r="B205" t="n">
-        <v>1533928</v>
+        <v>1555389</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17193</v>
+        <v>17405</v>
       </c>
       <c r="F205" t="n">
-        <v>15565</v>
+        <v>15785</v>
       </c>
       <c r="G205" t="n">
-        <v>3255</v>
+        <v>3240</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>44056</v>
       </c>
       <c r="B206" t="n">
-        <v>1550705</v>
+        <v>1572354</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>16777</v>
+        <v>16965</v>
       </c>
       <c r="F206" t="n">
-        <v>15154</v>
+        <v>15349</v>
       </c>
       <c r="G206" t="n">
-        <v>3247</v>
+        <v>3232</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>44057</v>
       </c>
       <c r="B207" t="n">
-        <v>1567065</v>
+        <v>1588877</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>16360</v>
+        <v>16523</v>
       </c>
       <c r="F207" t="n">
-        <v>14741</v>
+        <v>14911</v>
       </c>
       <c r="G207" t="n">
-        <v>3239</v>
+        <v>3224</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>44058</v>
       </c>
       <c r="B208" t="n">
-        <v>1583007</v>
+        <v>1604957</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>15942</v>
+        <v>16080</v>
       </c>
       <c r="F208" t="n">
-        <v>14327</v>
+        <v>14472</v>
       </c>
       <c r="G208" t="n">
-        <v>3231</v>
+        <v>3216</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>44059</v>
       </c>
       <c r="B209" t="n">
-        <v>1598530</v>
+        <v>1620595</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>15523</v>
+        <v>15638</v>
       </c>
       <c r="F209" t="n">
-        <v>13912</v>
+        <v>14034</v>
       </c>
       <c r="G209" t="n">
-        <v>3223</v>
+        <v>3209</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>44060</v>
       </c>
       <c r="B210" t="n">
-        <v>1613635</v>
+        <v>1635791</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>15105</v>
+        <v>15196</v>
       </c>
       <c r="F210" t="n">
-        <v>13498</v>
+        <v>13596</v>
       </c>
       <c r="G210" t="n">
-        <v>3215</v>
+        <v>3201</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>44061</v>
       </c>
       <c r="B211" t="n">
-        <v>1628324</v>
+        <v>1650548</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14689</v>
+        <v>14757</v>
       </c>
       <c r="F211" t="n">
-        <v>13085</v>
+        <v>13160</v>
       </c>
       <c r="G211" t="n">
-        <v>3208</v>
+        <v>3193</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>44062</v>
       </c>
       <c r="B212" t="n">
-        <v>1642597</v>
+        <v>1664867</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>14273</v>
+        <v>14319</v>
       </c>
       <c r="F212" t="n">
-        <v>12674</v>
+        <v>12727</v>
       </c>
       <c r="G212" t="n">
-        <v>3200</v>
+        <v>3186</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>44063</v>
       </c>
       <c r="B213" t="n">
-        <v>1656458</v>
+        <v>1678752</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>13861</v>
+        <v>13885</v>
       </c>
       <c r="F213" t="n">
-        <v>12265</v>
+        <v>12296</v>
       </c>
       <c r="G213" t="n">
-        <v>3192</v>
+        <v>3178</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>44064</v>
       </c>
       <c r="B214" t="n">
-        <v>1669910</v>
+        <v>1692207</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>13452</v>
+        <v>13455</v>
       </c>
       <c r="F214" t="n">
-        <v>11859</v>
+        <v>11870</v>
       </c>
       <c r="G214" t="n">
-        <v>3185</v>
+        <v>3171</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>44065</v>
       </c>
       <c r="B215" t="n">
-        <v>1682956</v>
+        <v>1705236</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6610,13 +6610,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>13046</v>
+        <v>13029</v>
       </c>
       <c r="F215" t="n">
-        <v>11457</v>
+        <v>11448</v>
       </c>
       <c r="G215" t="n">
-        <v>3177</v>
+        <v>3163</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>44066</v>
       </c>
       <c r="B216" t="n">
-        <v>1695600</v>
+        <v>1717845</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12644</v>
+        <v>12609</v>
       </c>
       <c r="F216" t="n">
-        <v>11059</v>
+        <v>11031</v>
       </c>
       <c r="G216" t="n">
-        <v>3170</v>
+        <v>3156</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>44067</v>
       </c>
       <c r="B217" t="n">
-        <v>1707847</v>
+        <v>1730038</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12247</v>
+        <v>12193</v>
       </c>
       <c r="F217" t="n">
-        <v>10666</v>
+        <v>10619</v>
       </c>
       <c r="G217" t="n">
-        <v>3162</v>
+        <v>3148</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>44068</v>
       </c>
       <c r="B218" t="n">
-        <v>1719703</v>
+        <v>1741822</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>11856</v>
+        <v>11784</v>
       </c>
       <c r="F218" t="n">
-        <v>10278</v>
+        <v>10214</v>
       </c>
       <c r="G218" t="n">
-        <v>3155</v>
+        <v>3141</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44069</v>
       </c>
       <c r="B219" t="n">
-        <v>1731172</v>
+        <v>1753203</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>11469</v>
+        <v>11381</v>
       </c>
       <c r="F219" t="n">
-        <v>9896</v>
+        <v>9814</v>
       </c>
       <c r="G219" t="n">
-        <v>3148</v>
+        <v>3134</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>44070</v>
       </c>
       <c r="B220" t="n">
-        <v>1742261</v>
+        <v>1764188</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>11089</v>
+        <v>10985</v>
       </c>
       <c r="F220" t="n">
-        <v>9519</v>
+        <v>9422</v>
       </c>
       <c r="G220" t="n">
-        <v>3141</v>
+        <v>3127</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>44071</v>
       </c>
       <c r="B221" t="n">
-        <v>1752976</v>
+        <v>1774784</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>10715</v>
+        <v>10596</v>
       </c>
       <c r="F221" t="n">
-        <v>9149</v>
+        <v>9037</v>
       </c>
       <c r="G221" t="n">
-        <v>3133</v>
+        <v>3120</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>44072</v>
       </c>
       <c r="B222" t="n">
-        <v>1763324</v>
+        <v>1784999</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10348</v>
+        <v>10215</v>
       </c>
       <c r="F222" t="n">
-        <v>8785</v>
+        <v>8659</v>
       </c>
       <c r="G222" t="n">
-        <v>3126</v>
+        <v>3112</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>44073</v>
       </c>
       <c r="B223" t="n">
-        <v>1773311</v>
+        <v>1794841</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>9987</v>
+        <v>9842</v>
       </c>
       <c r="F223" t="n">
-        <v>8428</v>
+        <v>8289</v>
       </c>
       <c r="G223" t="n">
-        <v>3119</v>
+        <v>3105</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>44074</v>
       </c>
       <c r="B224" t="n">
-        <v>1782945</v>
+        <v>1804317</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>9634</v>
+        <v>9476</v>
       </c>
       <c r="F224" t="n">
-        <v>8078</v>
+        <v>7927</v>
       </c>
       <c r="G224" t="n">
-        <v>3112</v>
+        <v>3098</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>44075</v>
       </c>
       <c r="B225" t="n">
-        <v>1792233</v>
+        <v>1813436</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>9288</v>
+        <v>9119</v>
       </c>
       <c r="F225" t="n">
-        <v>7735</v>
+        <v>7573</v>
       </c>
       <c r="G225" t="n">
-        <v>3105</v>
+        <v>3091</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>44076</v>
       </c>
       <c r="B226" t="n">
-        <v>1801183</v>
+        <v>1822206</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>8950</v>
+        <v>8770</v>
       </c>
       <c r="F226" t="n">
-        <v>7400</v>
+        <v>7227</v>
       </c>
       <c r="G226" t="n">
-        <v>3098</v>
+        <v>3085</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>44077</v>
       </c>
       <c r="B227" t="n">
-        <v>1809802</v>
+        <v>1830635</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>8619</v>
+        <v>8429</v>
       </c>
       <c r="F227" t="n">
-        <v>7073</v>
+        <v>6891</v>
       </c>
       <c r="G227" t="n">
-        <v>3091</v>
+        <v>3078</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>44078</v>
       </c>
       <c r="B228" t="n">
-        <v>1818098</v>
+        <v>1838733</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8296</v>
+        <v>8098</v>
       </c>
       <c r="F228" t="n">
-        <v>6754</v>
+        <v>6562</v>
       </c>
       <c r="G228" t="n">
-        <v>3085</v>
+        <v>3071</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>44079</v>
       </c>
       <c r="B229" t="n">
-        <v>1826079</v>
+        <v>1846508</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>7981</v>
+        <v>7775</v>
       </c>
       <c r="F229" t="n">
-        <v>6442</v>
+        <v>6243</v>
       </c>
       <c r="G229" t="n">
-        <v>3078</v>
+        <v>3064</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>44080</v>
       </c>
       <c r="B230" t="n">
-        <v>1833753</v>
+        <v>1853969</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>7674</v>
+        <v>7461</v>
       </c>
       <c r="F230" t="n">
-        <v>6138</v>
+        <v>5932</v>
       </c>
       <c r="G230" t="n">
-        <v>3071</v>
+        <v>3057</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>44081</v>
       </c>
       <c r="B231" t="n">
-        <v>1841128</v>
+        <v>1861124</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>7375</v>
+        <v>7155</v>
       </c>
       <c r="F231" t="n">
-        <v>5843</v>
+        <v>5630</v>
       </c>
       <c r="G231" t="n">
-        <v>3064</v>
+        <v>3051</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>44082</v>
       </c>
       <c r="B232" t="n">
-        <v>1848212</v>
+        <v>1867983</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>7084</v>
+        <v>6859</v>
       </c>
       <c r="F232" t="n">
-        <v>5555</v>
+        <v>5337</v>
       </c>
       <c r="G232" t="n">
-        <v>3058</v>
+        <v>3044</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>44083</v>
       </c>
       <c r="B233" t="n">
-        <v>1855013</v>
+        <v>1874554</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>6801</v>
+        <v>6571</v>
       </c>
       <c r="F233" t="n">
-        <v>5276</v>
+        <v>5052</v>
       </c>
       <c r="G233" t="n">
-        <v>3051</v>
+        <v>3037</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>44084</v>
       </c>
       <c r="B234" t="n">
-        <v>1861539</v>
+        <v>1880846</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>6526</v>
+        <v>6292</v>
       </c>
       <c r="F234" t="n">
-        <v>5004</v>
+        <v>4777</v>
       </c>
       <c r="G234" t="n">
-        <v>3044</v>
+        <v>3031</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>44085</v>
       </c>
       <c r="B235" t="n">
-        <v>1867799</v>
+        <v>1886868</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>6260</v>
+        <v>6022</v>
       </c>
       <c r="F235" t="n">
-        <v>4741</v>
+        <v>4510</v>
       </c>
       <c r="G235" t="n">
-        <v>3038</v>
+        <v>3024</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>44086</v>
       </c>
       <c r="B236" t="n">
-        <v>1873800</v>
+        <v>1892629</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>6001</v>
+        <v>5761</v>
       </c>
       <c r="F236" t="n">
-        <v>4486</v>
+        <v>4252</v>
       </c>
       <c r="G236" t="n">
-        <v>3031</v>
+        <v>3018</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>44087</v>
       </c>
       <c r="B237" t="n">
-        <v>1879551</v>
+        <v>1898138</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>5751</v>
+        <v>5509</v>
       </c>
       <c r="F237" t="n">
-        <v>4238</v>
+        <v>4003</v>
       </c>
       <c r="G237" t="n">
-        <v>3025</v>
+        <v>3011</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>44088</v>
       </c>
       <c r="B238" t="n">
-        <v>1885059</v>
+        <v>1903402</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -7277,13 +7277,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>5508</v>
+        <v>5264</v>
       </c>
       <c r="F238" t="n">
-        <v>3999</v>
+        <v>3762</v>
       </c>
       <c r="G238" t="n">
-        <v>3018</v>
+        <v>3005</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>44089</v>
       </c>
       <c r="B239" t="n">
-        <v>1890332</v>
+        <v>1908431</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>5273</v>
+        <v>5029</v>
       </c>
       <c r="F239" t="n">
-        <v>3767</v>
+        <v>3529</v>
       </c>
       <c r="G239" t="n">
-        <v>3012</v>
+        <v>2999</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>44090</v>
       </c>
       <c r="B240" t="n">
-        <v>1895378</v>
+        <v>1913232</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5046</v>
+        <v>4801</v>
       </c>
       <c r="F240" t="n">
-        <v>3544</v>
+        <v>3305</v>
       </c>
       <c r="G240" t="n">
-        <v>3006</v>
+        <v>2992</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>44091</v>
       </c>
       <c r="B241" t="n">
-        <v>1900205</v>
+        <v>1917814</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>4827</v>
+        <v>4582</v>
       </c>
       <c r="F241" t="n">
-        <v>3327</v>
+        <v>3089</v>
       </c>
       <c r="G241" t="n">
-        <v>2999</v>
+        <v>2986</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>44092</v>
       </c>
       <c r="B242" t="n">
-        <v>1904820</v>
+        <v>1922185</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>4615</v>
+        <v>4371</v>
       </c>
       <c r="F242" t="n">
-        <v>3119</v>
+        <v>2881</v>
       </c>
       <c r="G242" t="n">
-        <v>2993</v>
+        <v>2980</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>44093</v>
       </c>
       <c r="B243" t="n">
-        <v>1909231</v>
+        <v>1926352</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4411</v>
+        <v>4167</v>
       </c>
       <c r="F243" t="n">
-        <v>2917</v>
+        <v>2680</v>
       </c>
       <c r="G243" t="n">
-        <v>2987</v>
+        <v>2974</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>44094</v>
       </c>
       <c r="B244" t="n">
-        <v>1913445</v>
+        <v>1930324</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>4214</v>
+        <v>3972</v>
       </c>
       <c r="F244" t="n">
-        <v>2723</v>
+        <v>2488</v>
       </c>
       <c r="G244" t="n">
-        <v>2981</v>
+        <v>2968</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>44095</v>
       </c>
       <c r="B245" t="n">
-        <v>1917469</v>
+        <v>1934107</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>4024</v>
+        <v>3783</v>
       </c>
       <c r="F245" t="n">
-        <v>2536</v>
+        <v>2303</v>
       </c>
       <c r="G245" t="n">
-        <v>2975</v>
+        <v>2961</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>44096</v>
       </c>
       <c r="B246" t="n">
-        <v>1921310</v>
+        <v>1937710</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>3841</v>
+        <v>3603</v>
       </c>
       <c r="F246" t="n">
-        <v>2356</v>
+        <v>2125</v>
       </c>
       <c r="G246" t="n">
-        <v>2969</v>
+        <v>2955</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>44097</v>
       </c>
       <c r="B247" t="n">
-        <v>1924975</v>
+        <v>1941139</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>3665</v>
+        <v>3429</v>
       </c>
       <c r="F247" t="n">
-        <v>2183</v>
+        <v>1954</v>
       </c>
       <c r="G247" t="n">
-        <v>2963</v>
+        <v>2949</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>44098</v>
       </c>
       <c r="B248" t="n">
-        <v>1928470</v>
+        <v>1944401</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7567,13 +7567,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>3495</v>
+        <v>3262</v>
       </c>
       <c r="F248" t="n">
-        <v>2017</v>
+        <v>1791</v>
       </c>
       <c r="G248" t="n">
-        <v>2956</v>
+        <v>2943</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>44099</v>
       </c>
       <c r="B249" t="n">
-        <v>1931802</v>
+        <v>1947503</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>3332</v>
+        <v>3102</v>
       </c>
       <c r="F249" t="n">
-        <v>1857</v>
+        <v>1634</v>
       </c>
       <c r="G249" t="n">
-        <v>2950</v>
+        <v>2937</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>44100</v>
       </c>
       <c r="B250" t="n">
-        <v>1934978</v>
+        <v>1950452</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>3176</v>
+        <v>2949</v>
       </c>
       <c r="F250" t="n">
-        <v>1703</v>
+        <v>1484</v>
       </c>
       <c r="G250" t="n">
-        <v>2945</v>
+        <v>2931</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>44101</v>
       </c>
       <c r="B251" t="n">
-        <v>1938003</v>
+        <v>1953255</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>3025</v>
+        <v>2803</v>
       </c>
       <c r="F251" t="n">
-        <v>1556</v>
+        <v>1340</v>
       </c>
       <c r="G251" t="n">
-        <v>2939</v>
+        <v>2926</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -7672,7 +7672,7 @@
         <v>44102</v>
       </c>
       <c r="B252" t="n">
-        <v>1940884</v>
+        <v>1955917</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7683,13 +7683,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>2881</v>
+        <v>2662</v>
       </c>
       <c r="F252" t="n">
-        <v>1415</v>
+        <v>1202</v>
       </c>
       <c r="G252" t="n">
-        <v>2933</v>
+        <v>2920</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>44103</v>
       </c>
       <c r="B253" t="n">
-        <v>1943626</v>
+        <v>1958445</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7712,13 +7712,13 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>2742</v>
+        <v>2528</v>
       </c>
       <c r="F253" t="n">
-        <v>1279</v>
+        <v>1071</v>
       </c>
       <c r="G253" t="n">
-        <v>2927</v>
+        <v>2914</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>44104</v>
       </c>
       <c r="B254" t="n">
-        <v>1946236</v>
+        <v>1960844</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7741,13 +7741,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>2610</v>
+        <v>2399</v>
       </c>
       <c r="F254" t="n">
-        <v>1149</v>
+        <v>945</v>
       </c>
       <c r="G254" t="n">
-        <v>2921</v>
+        <v>2908</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>44105</v>
       </c>
       <c r="B255" t="n">
-        <v>1948718</v>
+        <v>1963120</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7770,13 +7770,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>2482</v>
+        <v>2276</v>
       </c>
       <c r="F255" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="G255" t="n">
-        <v>2915</v>
+        <v>2902</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -7788,7 +7788,7 @@
         <v>44106</v>
       </c>
       <c r="B256" t="n">
-        <v>1951079</v>
+        <v>1965279</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7799,13 +7799,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>2361</v>
+        <v>2159</v>
       </c>
       <c r="F256" t="n">
-        <v>906</v>
+        <v>710</v>
       </c>
       <c r="G256" t="n">
-        <v>2910</v>
+        <v>2897</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>44107</v>
       </c>
       <c r="B257" t="n">
-        <v>1953323</v>
+        <v>1967325</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7828,13 +7828,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>2244</v>
+        <v>2046</v>
       </c>
       <c r="F257" t="n">
-        <v>792</v>
+        <v>601</v>
       </c>
       <c r="G257" t="n">
-        <v>2904</v>
+        <v>2891</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="B258" t="n">
-        <v>1955455</v>
+        <v>1969264</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>2132</v>
+        <v>1939</v>
       </c>
       <c r="F258" t="n">
-        <v>683</v>
+        <v>497</v>
       </c>
       <c r="G258" t="n">
-        <v>2898</v>
+        <v>2885</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>44109</v>
       </c>
       <c r="B259" t="n">
-        <v>1957481</v>
+        <v>1971101</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7886,13 +7886,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>2026</v>
+        <v>1837</v>
       </c>
       <c r="F259" t="n">
-        <v>579</v>
+        <v>397</v>
       </c>
       <c r="G259" t="n">
-        <v>2893</v>
+        <v>2880</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -7904,7 +7904,7 @@
         <v>44110</v>
       </c>
       <c r="B260" t="n">
-        <v>1959404</v>
+        <v>1972841</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1923</v>
+        <v>1740</v>
       </c>
       <c r="F260" t="n">
-        <v>480</v>
+        <v>303</v>
       </c>
       <c r="G260" t="n">
-        <v>2887</v>
+        <v>2874</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>44111</v>
       </c>
       <c r="B261" t="n">
-        <v>1961230</v>
+        <v>1974488</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1826</v>
+        <v>1647</v>
       </c>
       <c r="F261" t="n">
-        <v>385</v>
+        <v>213</v>
       </c>
       <c r="G261" t="n">
-        <v>2881</v>
+        <v>2869</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>44112</v>
       </c>
       <c r="B262" t="n">
-        <v>1962963</v>
+        <v>1976047</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7973,13 +7973,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1733</v>
+        <v>1559</v>
       </c>
       <c r="F262" t="n">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="G262" t="n">
-        <v>2876</v>
+        <v>2863</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>44113</v>
       </c>
       <c r="B263" t="n">
-        <v>1964607</v>
+        <v>1977522</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1644</v>
+        <v>1475</v>
       </c>
       <c r="F263" t="n">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="G263" t="n">
-        <v>2870</v>
+        <v>2858</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>44114</v>
       </c>
       <c r="B264" t="n">
-        <v>1966166</v>
+        <v>1978917</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1559</v>
+        <v>1395</v>
       </c>
       <c r="F264" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>2865</v>
+        <v>2821</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>44115</v>
       </c>
       <c r="B265" t="n">
-        <v>1967644</v>
+        <v>1980236</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1478</v>
+        <v>1319</v>
       </c>
       <c r="F265" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>2859</v>
+        <v>2742</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>44116</v>
       </c>
       <c r="B266" t="n">
-        <v>1969045</v>
+        <v>1981482</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -8089,13 +8089,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1401</v>
+        <v>1246</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>2828</v>
+        <v>2667</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>44117</v>
       </c>
       <c r="B267" t="n">
-        <v>1970372</v>
+        <v>1982659</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1327</v>
+        <v>1177</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>2752</v>
+        <v>2595</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>44118</v>
       </c>
       <c r="B268" t="n">
-        <v>1971629</v>
+        <v>1983771</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -8147,13 +8147,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1257</v>
+        <v>1112</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>2679</v>
+        <v>2527</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>44119</v>
       </c>
       <c r="B269" t="n">
-        <v>1972819</v>
+        <v>1984821</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -8176,13 +8176,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1190</v>
+        <v>1050</v>
       </c>
       <c r="F269" t="n">
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>2609</v>
+        <v>2463</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -8194,7 +8194,7 @@
         <v>44120</v>
       </c>
       <c r="B270" t="n">
-        <v>1973946</v>
+        <v>1985812</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8205,13 +8205,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1127</v>
+        <v>991</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>2543</v>
+        <v>2401</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>44121</v>
       </c>
       <c r="B271" t="n">
-        <v>1975013</v>
+        <v>1986747</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1067</v>
+        <v>935</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>2480</v>
+        <v>2343</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>44122</v>
       </c>
       <c r="B272" t="n">
-        <v>1976022</v>
+        <v>1987629</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1009</v>
+        <v>882</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>2420</v>
+        <v>2287</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>44123</v>
       </c>
       <c r="B273" t="n">
-        <v>1976976</v>
+        <v>1988461</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>954</v>
+        <v>832</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>2363</v>
+        <v>2234</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>44124</v>
       </c>
       <c r="B274" t="n">
-        <v>1977878</v>
+        <v>1989245</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -8321,25 +8321,30 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>902</v>
+        <v>784</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>2308</v>
+        <v>2184</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>13229</v>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>End 97% on
+20 October 2020</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
         <v>44125</v>
       </c>
       <c r="B275" t="n">
-        <v>1978731</v>
+        <v>1989984</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -8350,13 +8355,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>853</v>
+        <v>739</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>2256</v>
+        <v>2136</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -8368,7 +8373,7 @@
         <v>44126</v>
       </c>
       <c r="B276" t="n">
-        <v>1979537</v>
+        <v>1990681</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -8379,13 +8384,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>806</v>
+        <v>697</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>2207</v>
+        <v>2091</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -8397,7 +8402,7 @@
         <v>44127</v>
       </c>
       <c r="B277" t="n">
-        <v>1980299</v>
+        <v>1991337</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -8408,30 +8413,25 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>762</v>
+        <v>656</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>2160</v>
+        <v>2048</v>
       </c>
       <c r="H277" t="n">
-        <v>12914</v>
-      </c>
-      <c r="I277" t="inlineStr">
-        <is>
-          <t>End 97% on
-23 October 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
         <v>44128</v>
       </c>
       <c r="B278" t="n">
-        <v>1981019</v>
+        <v>1991955</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -8442,13 +8442,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>720</v>
+        <v>618</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>2115</v>
+        <v>2007</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>44129</v>
       </c>
       <c r="B279" t="n">
-        <v>1981699</v>
+        <v>1992537</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -8471,13 +8471,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>680</v>
+        <v>582</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>2073</v>
+        <v>1969</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -8489,7 +8489,7 @@
         <v>44130</v>
       </c>
       <c r="B280" t="n">
-        <v>1982341</v>
+        <v>1993085</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -8500,13 +8500,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>642</v>
+        <v>548</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>2032</v>
+        <v>1932</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>44131</v>
       </c>
       <c r="B281" t="n">
-        <v>1982947</v>
+        <v>1993600</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>606</v>
+        <v>515</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>1994</v>
+        <v>1897</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>44132</v>
       </c>
       <c r="B282" t="n">
-        <v>1983518</v>
+        <v>1994085</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -8558,13 +8558,13 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>571</v>
+        <v>485</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>1957</v>
+        <v>1864</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -8576,7 +8576,7 @@
         <v>44133</v>
       </c>
       <c r="B283" t="n">
-        <v>1984057</v>
+        <v>1994541</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -8587,13 +8587,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>539</v>
+        <v>456</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>1922</v>
+        <v>1833</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>44134</v>
       </c>
       <c r="B284" t="n">
-        <v>1984565</v>
+        <v>1994970</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -8616,13 +8616,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>508</v>
+        <v>429</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>1889</v>
+        <v>1803</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>44135</v>
       </c>
       <c r="B285" t="n">
-        <v>1985044</v>
+        <v>1995373</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -8645,13 +8645,13 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>479</v>
+        <v>403</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>1858</v>
+        <v>1775</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -8663,7 +8663,7 @@
         <v>44136</v>
       </c>
       <c r="B286" t="n">
-        <v>1985496</v>
+        <v>1995752</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8674,13 +8674,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>452</v>
+        <v>379</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>1828</v>
+        <v>1748</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>44137</v>
       </c>
       <c r="B287" t="n">
-        <v>1985922</v>
+        <v>1996108</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -8703,13 +8703,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>1799</v>
+        <v>1723</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>44138</v>
       </c>
       <c r="B288" t="n">
-        <v>1986323</v>
+        <v>1996442</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -8732,13 +8732,13 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>1772</v>
+        <v>1699</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>44139</v>
       </c>
       <c r="B289" t="n">
-        <v>1986701</v>
+        <v>1996756</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -8761,13 +8761,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>1747</v>
+        <v>1676</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>44140</v>
       </c>
       <c r="B290" t="n">
-        <v>1987057</v>
+        <v>1997051</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -8790,13 +8790,13 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>1722</v>
+        <v>1655</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -8808,7 +8808,7 @@
         <v>44141</v>
       </c>
       <c r="B291" t="n">
-        <v>1987392</v>
+        <v>1997328</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8819,13 +8819,13 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>335</v>
+        <v>277</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>1699</v>
+        <v>1634</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>44142</v>
       </c>
       <c r="B292" t="n">
-        <v>1987708</v>
+        <v>1997588</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8848,25 +8848,30 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>1677</v>
+        <v>1615</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>7937</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>End 99% on
+07 November 2020</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
         <v>44143</v>
       </c>
       <c r="B293" t="n">
-        <v>1988005</v>
+        <v>1997832</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8877,13 +8882,13 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>1656</v>
+        <v>1597</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -8895,7 +8900,7 @@
         <v>44144</v>
       </c>
       <c r="B294" t="n">
-        <v>1988285</v>
+        <v>1998060</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8906,13 +8911,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1636</v>
+        <v>1579</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -8924,7 +8929,7 @@
         <v>44145</v>
       </c>
       <c r="B295" t="n">
-        <v>1988548</v>
+        <v>1998274</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8935,13 +8940,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>1618</v>
+        <v>1563</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -8953,7 +8958,7 @@
         <v>44146</v>
       </c>
       <c r="B296" t="n">
-        <v>1988795</v>
+        <v>1998475</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8964,30 +8969,25 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>1600</v>
+        <v>1547</v>
       </c>
       <c r="H296" t="n">
-        <v>7748</v>
-      </c>
-      <c r="I296" t="inlineStr">
-        <is>
-          <t>End 99% on
-11 November 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="B297" t="n">
-        <v>1989028</v>
+        <v>1998663</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8998,13 +8998,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>1583</v>
+        <v>1532</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>44148</v>
       </c>
       <c r="B298" t="n">
-        <v>1989247</v>
+        <v>1998839</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -9027,13 +9027,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>1566</v>
+        <v>1518</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -9045,7 +9045,7 @@
         <v>44149</v>
       </c>
       <c r="B299" t="n">
-        <v>1989453</v>
+        <v>1999004</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -9056,13 +9056,13 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>1551</v>
+        <v>1505</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -9074,7 +9074,7 @@
         <v>44150</v>
       </c>
       <c r="B300" t="n">
-        <v>1989646</v>
+        <v>1999159</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -9085,13 +9085,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1536</v>
+        <v>1492</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>44151</v>
       </c>
       <c r="B301" t="n">
-        <v>1989828</v>
+        <v>1999304</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -9114,13 +9114,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1523</v>
+        <v>1480</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>44152</v>
       </c>
       <c r="B302" t="n">
-        <v>1989999</v>
+        <v>1999440</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1509</v>
+        <v>1469</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>44153</v>
       </c>
       <c r="B303" t="n">
-        <v>1990159</v>
+        <v>1999567</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1497</v>
+        <v>1458</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>44154</v>
       </c>
       <c r="B304" t="n">
-        <v>1990310</v>
+        <v>1999686</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -9201,13 +9201,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1485</v>
+        <v>1447</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>44155</v>
       </c>
       <c r="B305" t="n">
-        <v>1990451</v>
+        <v>1999797</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -9230,13 +9230,13 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1473</v>
+        <v>1437</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>44156</v>
       </c>
       <c r="B306" t="n">
-        <v>1990584</v>
+        <v>1999901</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -9259,13 +9259,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1463</v>
+        <v>1428</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -9277,7 +9277,7 @@
         <v>44157</v>
       </c>
       <c r="B307" t="n">
-        <v>1990709</v>
+        <v>1999999</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -9288,13 +9288,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1452</v>
+        <v>1419</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -9306,7 +9306,7 @@
         <v>44158</v>
       </c>
       <c r="B308" t="n">
-        <v>1990826</v>
+        <v>2000090</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -9317,13 +9317,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1442</v>
+        <v>1411</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>44159</v>
       </c>
       <c r="B309" t="n">
-        <v>1990936</v>
+        <v>2000175</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -9346,13 +9346,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1433</v>
+        <v>1403</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>44160</v>
       </c>
       <c r="B310" t="n">
-        <v>1991039</v>
+        <v>2000255</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -9375,13 +9375,13 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1424</v>
+        <v>1395</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>44161</v>
       </c>
       <c r="B311" t="n">
-        <v>1991136</v>
+        <v>2000330</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1416</v>
+        <v>1388</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>44162</v>
       </c>
       <c r="B312" t="n">
-        <v>1991227</v>
+        <v>2000400</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -9433,13 +9433,13 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1407</v>
+        <v>1381</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>44163</v>
       </c>
       <c r="B313" t="n">
-        <v>1991312</v>
+        <v>2000465</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -9462,13 +9462,13 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1400</v>
+        <v>1374</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>44164</v>
       </c>
       <c r="B314" t="n">
-        <v>1991392</v>
+        <v>2000526</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1392</v>
+        <v>1368</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>44165</v>
       </c>
       <c r="B315" t="n">
-        <v>1991467</v>
+        <v>2000583</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -9520,13 +9520,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1385</v>
+        <v>1362</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9538,7 +9538,7 @@
         <v>44166</v>
       </c>
       <c r="B316" t="n">
-        <v>1991537</v>
+        <v>2000636</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -9549,13 +9549,13 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1378</v>
+        <v>1356</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>44167</v>
       </c>
       <c r="B317" t="n">
-        <v>1991603</v>
+        <v>2000686</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1372</v>
+        <v>1350</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>44168</v>
       </c>
       <c r="B318" t="n">
-        <v>1991665</v>
+        <v>2000732</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1366</v>
+        <v>1345</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>44169</v>
       </c>
       <c r="B319" t="n">
-        <v>1991723</v>
+        <v>2000775</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -9636,13 +9636,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>44170</v>
       </c>
       <c r="B320" t="n">
-        <v>1991777</v>
+        <v>2000815</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -9665,13 +9665,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1354</v>
+        <v>1335</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>44171</v>
       </c>
       <c r="B321" t="n">
-        <v>1991828</v>
+        <v>2000853</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -9694,13 +9694,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>1349</v>
+        <v>1330</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>44172</v>
       </c>
       <c r="B322" t="n">
-        <v>1991875</v>
+        <v>2000888</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>1343</v>
+        <v>1326</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>44173</v>
       </c>
       <c r="B323" t="n">
-        <v>1991919</v>
+        <v>2000921</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -9752,13 +9752,13 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1338</v>
+        <v>1321</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -9770,7 +9770,7 @@
         <v>44174</v>
       </c>
       <c r="B324" t="n">
-        <v>1991961</v>
+        <v>2000952</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -9781,13 +9781,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1334</v>
+        <v>1317</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>44175</v>
       </c>
       <c r="B325" t="n">
-        <v>1992000</v>
+        <v>2000981</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1329</v>
+        <v>1313</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>44176</v>
       </c>
       <c r="B326" t="n">
-        <v>1992036</v>
+        <v>2001008</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -9839,13 +9839,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1324</v>
+        <v>1309</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>44177</v>
       </c>
       <c r="B327" t="n">
-        <v>1992070</v>
+        <v>2001033</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1320</v>
+        <v>1305</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>44178</v>
       </c>
       <c r="B328" t="n">
-        <v>1992102</v>
+        <v>2001056</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1316</v>
+        <v>1302</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>44179</v>
       </c>
       <c r="B329" t="n">
-        <v>1992132</v>
+        <v>2001078</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9926,13 +9926,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1312</v>
+        <v>1298</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>44180</v>
       </c>
       <c r="B330" t="n">
-        <v>1992160</v>
+        <v>2001098</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9955,13 +9955,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1308</v>
+        <v>1295</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>44181</v>
       </c>
       <c r="B331" t="n">
-        <v>1992186</v>
+        <v>2001117</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1304</v>
+        <v>1291</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>44182</v>
       </c>
       <c r="B332" t="n">
-        <v>1992210</v>
+        <v>2001134</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -10013,13 +10013,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1301</v>
+        <v>1288</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>44183</v>
       </c>
       <c r="B333" t="n">
-        <v>1992233</v>
+        <v>2001150</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -10042,13 +10042,13 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>44184</v>
       </c>
       <c r="B334" t="n">
-        <v>1992254</v>
+        <v>2001165</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>44185</v>
       </c>
       <c r="B335" t="n">
-        <v>1992274</v>
+        <v>2001179</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>1290</v>
+        <v>1279</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>44186</v>
       </c>
       <c r="B336" t="n">
-        <v>1992293</v>
+        <v>2001192</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>1287</v>
+        <v>1276</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>44187</v>
       </c>
       <c r="B337" t="n">
-        <v>1992310</v>
+        <v>2001204</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>1284</v>
+        <v>1273</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>44188</v>
       </c>
       <c r="B338" t="n">
-        <v>1992326</v>
+        <v>2001215</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>44189</v>
       </c>
       <c r="B339" t="n">
-        <v>1992341</v>
+        <v>2001226</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>44190</v>
       </c>
       <c r="B340" t="n">
-        <v>1992355</v>
+        <v>2001236</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -10245,13 +10245,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>44191</v>
       </c>
       <c r="B341" t="n">
-        <v>1992368</v>
+        <v>2001245</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -10274,13 +10274,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>44192</v>
       </c>
       <c r="B342" t="n">
-        <v>1992380</v>
+        <v>2001254</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -10303,13 +10303,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>44193</v>
       </c>
       <c r="B343" t="n">
-        <v>1992392</v>
+        <v>2001262</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -10332,13 +10332,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>44194</v>
       </c>
       <c r="B344" t="n">
-        <v>1992403</v>
+        <v>2001269</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>44195</v>
       </c>
       <c r="B345" t="n">
-        <v>1992413</v>
+        <v>2001276</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>44196</v>
       </c>
       <c r="B346" t="n">
-        <v>1992422</v>
+        <v>2001282</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -10419,13 +10419,13 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>44197</v>
       </c>
       <c r="B347" t="n">
-        <v>1992431</v>
+        <v>2001288</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -10448,13 +10448,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>44198</v>
       </c>
       <c r="B348" t="n">
-        <v>1992439</v>
+        <v>2001294</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -10477,13 +10477,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>44199</v>
       </c>
       <c r="B349" t="n">
-        <v>1992447</v>
+        <v>2001299</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>44200</v>
       </c>
       <c r="B350" t="n">
-        <v>1992454</v>
+        <v>2001304</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>44201</v>
       </c>
       <c r="B351" t="n">
-        <v>1992461</v>
+        <v>2001308</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -10564,13 +10564,13 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -10582,7 +10582,7 @@
         <v>44202</v>
       </c>
       <c r="B352" t="n">
-        <v>1992467</v>
+        <v>2001312</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>44203</v>
       </c>
       <c r="B353" t="n">
-        <v>1992473</v>
+        <v>2001316</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -10622,13 +10622,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>44204</v>
       </c>
       <c r="B354" t="n">
-        <v>1992478</v>
+        <v>2001320</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>44205</v>
       </c>
       <c r="B355" t="n">
-        <v>1992483</v>
+        <v>2001323</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>44206</v>
       </c>
       <c r="B356" t="n">
-        <v>1992488</v>
+        <v>2001326</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -10709,13 +10709,13 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>44207</v>
       </c>
       <c r="B357" t="n">
-        <v>1992492</v>
+        <v>2001329</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -10738,13 +10738,13 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>44208</v>
       </c>
       <c r="B358" t="n">
-        <v>1992496</v>
+        <v>2001332</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -10767,13 +10767,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>44209</v>
       </c>
       <c r="B359" t="n">
-        <v>1992500</v>
+        <v>2001334</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -10796,13 +10796,13 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>44210</v>
       </c>
       <c r="B360" t="n">
-        <v>1992504</v>
+        <v>2001336</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>44211</v>
       </c>
       <c r="B361" t="n">
-        <v>1992507</v>
+        <v>2001338</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -10854,13 +10854,13 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>44212</v>
       </c>
       <c r="B362" t="n">
-        <v>1992510</v>
+        <v>2001340</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -10883,13 +10883,13 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>44213</v>
       </c>
       <c r="B363" t="n">
-        <v>1992513</v>
+        <v>2001342</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -10912,13 +10912,13 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>44214</v>
       </c>
       <c r="B364" t="n">
-        <v>1992516</v>
+        <v>2001344</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -10941,13 +10941,13 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>44215</v>
       </c>
       <c r="B365" t="n">
-        <v>1992519</v>
+        <v>2001346</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -10970,13 +10970,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>44216</v>
       </c>
       <c r="B366" t="n">
-        <v>1992521</v>
+        <v>2001347</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -10999,13 +10999,13 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>44217</v>
       </c>
       <c r="B367" t="n">
-        <v>1992523</v>
+        <v>2001348</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -11028,13 +11028,13 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -11046,7 +11046,7 @@
         <v>44218</v>
       </c>
       <c r="B368" t="n">
-        <v>1992525</v>
+        <v>2001349</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>44219</v>
       </c>
       <c r="B369" t="n">
-        <v>1992527</v>
+        <v>2001350</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -11086,13 +11086,13 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>44220</v>
       </c>
       <c r="B370" t="n">
-        <v>1992529</v>
+        <v>2001351</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -11115,13 +11115,13 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>44221</v>
       </c>
       <c r="B371" t="n">
-        <v>1992531</v>
+        <v>2001352</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -11144,13 +11144,13 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>44222</v>
       </c>
       <c r="B372" t="n">
-        <v>1992533</v>
+        <v>2001353</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -11173,13 +11173,13 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -11191,7 +11191,7 @@
         <v>44223</v>
       </c>
       <c r="B373" t="n">
-        <v>1992534</v>
+        <v>2001354</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>44224</v>
       </c>
       <c r="B374" t="n">
-        <v>1992535</v>
+        <v>2001355</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -11237,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -11249,7 +11249,7 @@
         <v>44225</v>
       </c>
       <c r="B375" t="n">
-        <v>1992536</v>
+        <v>2001356</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -11266,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -11278,7 +11278,7 @@
         <v>44226</v>
       </c>
       <c r="B376" t="n">
-        <v>1992537</v>
+        <v>2001357</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>44227</v>
       </c>
       <c r="B377" t="n">
-        <v>1992538</v>
+        <v>2001358</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>44228</v>
       </c>
       <c r="B378" t="n">
-        <v>1992539</v>
+        <v>2001359</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>44229</v>
       </c>
       <c r="B379" t="n">
-        <v>1992540</v>
+        <v>2001360</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>44230</v>
       </c>
       <c r="B380" t="n">
-        <v>1992541</v>
+        <v>2001361</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>44231</v>
       </c>
       <c r="B381" t="n">
-        <v>1992542</v>
+        <v>2001361</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -11434,25 +11434,30 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>13229</v>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>No new cases on
+04 February 2021</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
         <v>44232</v>
       </c>
       <c r="B382" t="n">
-        <v>1992543</v>
+        <v>2001361</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -11463,13 +11468,13 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -11481,7 +11486,7 @@
         <v>44233</v>
       </c>
       <c r="B383" t="n">
-        <v>1992544</v>
+        <v>2001361</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -11492,13 +11497,13 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -11510,7 +11515,7 @@
         <v>44234</v>
       </c>
       <c r="B384" t="n">
-        <v>1992545</v>
+        <v>2001361</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -11521,13 +11526,13 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -11539,7 +11544,7 @@
         <v>44235</v>
       </c>
       <c r="B385" t="n">
-        <v>1992546</v>
+        <v>2001361</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -11550,13 +11555,13 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -11568,7 +11573,7 @@
         <v>44236</v>
       </c>
       <c r="B386" t="n">
-        <v>1992547</v>
+        <v>2001361</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -11579,13 +11584,13 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -11597,7 +11602,7 @@
         <v>44237</v>
       </c>
       <c r="B387" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -11608,13 +11613,13 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -11626,7 +11631,7 @@
         <v>44238</v>
       </c>
       <c r="B388" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -11643,24 +11648,19 @@
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="H388" t="n">
-        <v>12914</v>
-      </c>
-      <c r="I388" t="inlineStr">
-        <is>
-          <t>No new cases on
-11 February 2021</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="B389" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -11677,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -11689,7 +11689,7 @@
         <v>44240</v>
       </c>
       <c r="B390" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -11718,7 +11718,7 @@
         <v>44241</v>
       </c>
       <c r="B391" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>44242</v>
       </c>
       <c r="B392" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -11764,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>44243</v>
       </c>
       <c r="B393" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         <v>44244</v>
       </c>
       <c r="B394" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -11834,7 +11834,7 @@
         <v>44245</v>
       </c>
       <c r="B395" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="H395" t="n">
         <v>0</v>
@@ -11863,7 +11863,7 @@
         <v>44246</v>
       </c>
       <c r="B396" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -11880,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="H396" t="n">
         <v>0</v>
@@ -11892,7 +11892,7 @@
         <v>44247</v>
       </c>
       <c r="B397" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         <v>44248</v>
       </c>
       <c r="B398" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -11938,7 +11938,7 @@
         <v>0</v>
       </c>
       <c r="G398" t="n">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="H398" t="n">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>44249</v>
       </c>
       <c r="B399" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -11967,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -11979,7 +11979,7 @@
         <v>44250</v>
       </c>
       <c r="B400" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -11996,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="H400" t="n">
         <v>0</v>
@@ -12008,7 +12008,7 @@
         <v>44251</v>
       </c>
       <c r="B401" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -12025,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="H401" t="n">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>44252</v>
       </c>
       <c r="B402" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -12066,7 +12066,7 @@
         <v>44253</v>
       </c>
       <c r="B403" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -12095,7 +12095,7 @@
         <v>44254</v>
       </c>
       <c r="B404" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>44255</v>
       </c>
       <c r="B405" t="n">
-        <v>1992548</v>
+        <v>2001361</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -12141,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>

--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>764</v>
+        <v>730</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>877</v>
+        <v>839</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1003</v>
+        <v>962</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1143</v>
+        <v>1097</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1297</v>
+        <v>1247</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1467</v>
+        <v>1412</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1653</v>
+        <v>1594</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1856</v>
+        <v>1792</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2076</v>
+        <v>2008</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2315</v>
+        <v>2242</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2573</v>
+        <v>2495</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2851</v>
+        <v>2768</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>3149</v>
+        <v>3060</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3467</v>
+        <v>3374</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3805</v>
+        <v>3707</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>4165</v>
+        <v>4062</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>4545</v>
+        <v>4438</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>4945</v>
+        <v>4834</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>5367</v>
+        <v>5252</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>5808</v>
+        <v>5689</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6269</v>
+        <v>6147</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6748</v>
+        <v>6624</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>7246</v>
+        <v>7120</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>7761</v>
+        <v>7633</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>8293</v>
+        <v>8163</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>8839</v>
+        <v>8709</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9400</v>
+        <v>9269</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>9973</v>
+        <v>9842</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>10557</v>
+        <v>10427</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>11150</v>
+        <v>11022</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>11751</v>
+        <v>11625</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>12358</v>
+        <v>12235</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>12970</v>
+        <v>12849</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>13583</v>
+        <v>13467</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>14197</v>
+        <v>14085</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14810</v>
+        <v>14703</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>15419</v>
+        <v>15317</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>16023</v>
+        <v>15927</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16619</v>
+        <v>16530</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>17206</v>
+        <v>17124</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17782</v>
+        <v>17707</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>18344</v>
+        <v>18278</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>18892</v>
+        <v>18833</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>19423</v>
+        <v>19373</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>19936</v>
+        <v>19894</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>20429</v>
+        <v>20396</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>20900</v>
+        <v>20876</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21348</v>
+        <v>21334</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>21773</v>
+        <v>21768</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>22172</v>
+        <v>22176</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22544</v>
+        <v>22557</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -5236,24 +5236,24 @@
         <v>44018</v>
       </c>
       <c r="B168" t="n">
-        <v>720302</v>
+        <v>719664</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>22251</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>22889</v>
+        <v>22912</v>
       </c>
       <c r="F168" t="n">
-        <v>21098</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>3583</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>44019</v>
       </c>
       <c r="B169" t="n">
-        <v>743508</v>
+        <v>742902</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5276,13 +5276,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>23206</v>
+        <v>23238</v>
       </c>
       <c r="F169" t="n">
-        <v>21420</v>
+        <v>21453</v>
       </c>
       <c r="G169" t="n">
-        <v>3572</v>
+        <v>3570</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>767002</v>
+        <v>766436</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>23494</v>
+        <v>23534</v>
       </c>
       <c r="F170" t="n">
-        <v>21713</v>
+        <v>21755</v>
       </c>
       <c r="G170" t="n">
-        <v>3562</v>
+        <v>3559</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>790754</v>
+        <v>790237</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>23752</v>
+        <v>23801</v>
       </c>
       <c r="F171" t="n">
-        <v>21976</v>
+        <v>22027</v>
       </c>
       <c r="G171" t="n">
-        <v>3551</v>
+        <v>3548</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>814734</v>
+        <v>814275</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>23980</v>
+        <v>24038</v>
       </c>
       <c r="F172" t="n">
-        <v>22210</v>
+        <v>22269</v>
       </c>
       <c r="G172" t="n">
-        <v>3541</v>
+        <v>3538</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>838912</v>
+        <v>838519</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24178</v>
+        <v>24244</v>
       </c>
       <c r="F173" t="n">
-        <v>22413</v>
+        <v>22480</v>
       </c>
       <c r="G173" t="n">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>863257</v>
+        <v>862938</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>24345</v>
+        <v>24419</v>
       </c>
       <c r="F174" t="n">
-        <v>22585</v>
+        <v>22661</v>
       </c>
       <c r="G174" t="n">
-        <v>3520</v>
+        <v>3517</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>887739</v>
+        <v>887502</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>24482</v>
+        <v>24564</v>
       </c>
       <c r="F175" t="n">
-        <v>22727</v>
+        <v>22810</v>
       </c>
       <c r="G175" t="n">
-        <v>3510</v>
+        <v>3507</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>912327</v>
+        <v>912179</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>24588</v>
+        <v>24677</v>
       </c>
       <c r="F176" t="n">
-        <v>22838</v>
+        <v>22928</v>
       </c>
       <c r="G176" t="n">
-        <v>3500</v>
+        <v>3497</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>936990</v>
+        <v>936938</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>24663</v>
+        <v>24759</v>
       </c>
       <c r="F177" t="n">
-        <v>22918</v>
+        <v>23016</v>
       </c>
       <c r="G177" t="n">
-        <v>3490</v>
+        <v>3487</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>961698</v>
+        <v>961749</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24708</v>
+        <v>24811</v>
       </c>
       <c r="F178" t="n">
-        <v>22968</v>
+        <v>23072</v>
       </c>
       <c r="G178" t="n">
-        <v>3480</v>
+        <v>3477</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>986421</v>
+        <v>986581</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>24723</v>
+        <v>24832</v>
       </c>
       <c r="F179" t="n">
-        <v>22988</v>
+        <v>23098</v>
       </c>
       <c r="G179" t="n">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>1011129</v>
+        <v>1011404</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>24708</v>
+        <v>24823</v>
       </c>
       <c r="F180" t="n">
-        <v>22978</v>
+        <v>23094</v>
       </c>
       <c r="G180" t="n">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>1035794</v>
+        <v>1036189</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>24665</v>
+        <v>24785</v>
       </c>
       <c r="F181" t="n">
-        <v>22940</v>
+        <v>23061</v>
       </c>
       <c r="G181" t="n">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>1060387</v>
+        <v>1060907</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24593</v>
+        <v>24718</v>
       </c>
       <c r="F182" t="n">
-        <v>22873</v>
+        <v>22999</v>
       </c>
       <c r="G182" t="n">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>1084881</v>
+        <v>1085530</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>24494</v>
+        <v>24623</v>
       </c>
       <c r="F183" t="n">
-        <v>22778</v>
+        <v>22909</v>
       </c>
       <c r="G183" t="n">
-        <v>3431</v>
+        <v>3429</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>1109249</v>
+        <v>1110031</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24368</v>
+        <v>24501</v>
       </c>
       <c r="F184" t="n">
-        <v>22657</v>
+        <v>22791</v>
       </c>
       <c r="G184" t="n">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>1133465</v>
+        <v>1134383</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24216</v>
+        <v>24352</v>
       </c>
       <c r="F185" t="n">
-        <v>22510</v>
+        <v>22647</v>
       </c>
       <c r="G185" t="n">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>1157504</v>
+        <v>1158561</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24039</v>
+        <v>24178</v>
       </c>
       <c r="F186" t="n">
-        <v>22337</v>
+        <v>22478</v>
       </c>
       <c r="G186" t="n">
-        <v>3403</v>
+        <v>3401</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>1181342</v>
+        <v>1182541</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>23838</v>
+        <v>23980</v>
       </c>
       <c r="F187" t="n">
-        <v>22141</v>
+        <v>22284</v>
       </c>
       <c r="G187" t="n">
-        <v>3394</v>
+        <v>3392</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>1204956</v>
+        <v>1206298</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23614</v>
+        <v>23757</v>
       </c>
       <c r="F188" t="n">
-        <v>21921</v>
+        <v>22066</v>
       </c>
       <c r="G188" t="n">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>1228324</v>
+        <v>1229811</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>23368</v>
+        <v>23513</v>
       </c>
       <c r="F189" t="n">
-        <v>21680</v>
+        <v>21826</v>
       </c>
       <c r="G189" t="n">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>1251425</v>
+        <v>1253058</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>23101</v>
+        <v>23247</v>
       </c>
       <c r="F190" t="n">
-        <v>21417</v>
+        <v>21565</v>
       </c>
       <c r="G190" t="n">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>1274239</v>
+        <v>1276020</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22814</v>
+        <v>22962</v>
       </c>
       <c r="F191" t="n">
-        <v>21135</v>
+        <v>21284</v>
       </c>
       <c r="G191" t="n">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>44042</v>
       </c>
       <c r="B192" t="n">
-        <v>1296749</v>
+        <v>1298677</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22510</v>
+        <v>22657</v>
       </c>
       <c r="F192" t="n">
-        <v>20835</v>
+        <v>20984</v>
       </c>
       <c r="G192" t="n">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>44043</v>
       </c>
       <c r="B193" t="n">
-        <v>1318936</v>
+        <v>1321012</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>22187</v>
+        <v>22335</v>
       </c>
       <c r="F193" t="n">
-        <v>20517</v>
+        <v>20666</v>
       </c>
       <c r="G193" t="n">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>44044</v>
       </c>
       <c r="B194" t="n">
-        <v>1340785</v>
+        <v>1343008</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21849</v>
+        <v>21996</v>
       </c>
       <c r="F194" t="n">
-        <v>20183</v>
+        <v>20331</v>
       </c>
       <c r="G194" t="n">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>44045</v>
       </c>
       <c r="B195" t="n">
-        <v>1362281</v>
+        <v>1364650</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>21496</v>
+        <v>21642</v>
       </c>
       <c r="F195" t="n">
-        <v>19834</v>
+        <v>19982</v>
       </c>
       <c r="G195" t="n">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>44046</v>
       </c>
       <c r="B196" t="n">
-        <v>1383410</v>
+        <v>1385924</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21129</v>
+        <v>21274</v>
       </c>
       <c r="F196" t="n">
-        <v>19472</v>
+        <v>19618</v>
       </c>
       <c r="G196" t="n">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>44047</v>
       </c>
       <c r="B197" t="n">
-        <v>1404160</v>
+        <v>1406817</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20750</v>
+        <v>20893</v>
       </c>
       <c r="F197" t="n">
-        <v>19097</v>
+        <v>19241</v>
       </c>
       <c r="G197" t="n">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>44048</v>
       </c>
       <c r="B198" t="n">
-        <v>1424519</v>
+        <v>1427318</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>20359</v>
+        <v>20501</v>
       </c>
       <c r="F198" t="n">
-        <v>18710</v>
+        <v>18853</v>
       </c>
       <c r="G198" t="n">
-        <v>3297</v>
+        <v>3295</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>44049</v>
       </c>
       <c r="B199" t="n">
-        <v>1444477</v>
+        <v>1447416</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -6146,13 +6146,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>19958</v>
+        <v>20098</v>
       </c>
       <c r="F199" t="n">
-        <v>18314</v>
+        <v>18454</v>
       </c>
       <c r="G199" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>44050</v>
       </c>
       <c r="B200" t="n">
-        <v>1464026</v>
+        <v>1467102</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>19549</v>
+        <v>19686</v>
       </c>
       <c r="F200" t="n">
-        <v>17908</v>
+        <v>18047</v>
       </c>
       <c r="G200" t="n">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>44051</v>
       </c>
       <c r="B201" t="n">
-        <v>1483157</v>
+        <v>1486368</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -6204,13 +6204,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>19131</v>
+        <v>19266</v>
       </c>
       <c r="F201" t="n">
-        <v>17495</v>
+        <v>17631</v>
       </c>
       <c r="G201" t="n">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>44052</v>
       </c>
       <c r="B202" t="n">
-        <v>1501864</v>
+        <v>1505207</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>18707</v>
+        <v>18839</v>
       </c>
       <c r="F202" t="n">
-        <v>17075</v>
+        <v>17208</v>
       </c>
       <c r="G202" t="n">
-        <v>3264</v>
+        <v>3262</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>44053</v>
       </c>
       <c r="B203" t="n">
-        <v>1520141</v>
+        <v>1523613</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>18277</v>
+        <v>18406</v>
       </c>
       <c r="F203" t="n">
-        <v>16649</v>
+        <v>16779</v>
       </c>
       <c r="G203" t="n">
-        <v>3256</v>
+        <v>3254</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>44054</v>
       </c>
       <c r="B204" t="n">
-        <v>1537984</v>
+        <v>1541581</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>17843</v>
+        <v>17968</v>
       </c>
       <c r="F204" t="n">
-        <v>16219</v>
+        <v>16346</v>
       </c>
       <c r="G204" t="n">
-        <v>3248</v>
+        <v>3246</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>44055</v>
       </c>
       <c r="B205" t="n">
-        <v>1555389</v>
+        <v>1559108</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17405</v>
+        <v>17527</v>
       </c>
       <c r="F205" t="n">
-        <v>15785</v>
+        <v>15908</v>
       </c>
       <c r="G205" t="n">
-        <v>3240</v>
+        <v>3238</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>44056</v>
       </c>
       <c r="B206" t="n">
-        <v>1572354</v>
+        <v>1576191</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>16965</v>
+        <v>17083</v>
       </c>
       <c r="F206" t="n">
-        <v>15349</v>
+        <v>15468</v>
       </c>
       <c r="G206" t="n">
-        <v>3232</v>
+        <v>3230</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>44057</v>
       </c>
       <c r="B207" t="n">
-        <v>1588877</v>
+        <v>1592829</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>16523</v>
+        <v>16638</v>
       </c>
       <c r="F207" t="n">
-        <v>14911</v>
+        <v>15027</v>
       </c>
       <c r="G207" t="n">
-        <v>3224</v>
+        <v>3222</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>44058</v>
       </c>
       <c r="B208" t="n">
-        <v>1604957</v>
+        <v>1609020</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>16080</v>
+        <v>16191</v>
       </c>
       <c r="F208" t="n">
-        <v>14472</v>
+        <v>14584</v>
       </c>
       <c r="G208" t="n">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>44059</v>
       </c>
       <c r="B209" t="n">
-        <v>1620595</v>
+        <v>1624765</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>15638</v>
+        <v>15745</v>
       </c>
       <c r="F209" t="n">
-        <v>14034</v>
+        <v>14142</v>
       </c>
       <c r="G209" t="n">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>44060</v>
       </c>
       <c r="B210" t="n">
-        <v>1635791</v>
+        <v>1640065</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>15196</v>
+        <v>15300</v>
       </c>
       <c r="F210" t="n">
-        <v>13596</v>
+        <v>13700</v>
       </c>
       <c r="G210" t="n">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>44061</v>
       </c>
       <c r="B211" t="n">
-        <v>1650548</v>
+        <v>1654921</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14757</v>
+        <v>14856</v>
       </c>
       <c r="F211" t="n">
-        <v>13160</v>
+        <v>13260</v>
       </c>
       <c r="G211" t="n">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>44062</v>
       </c>
       <c r="B212" t="n">
-        <v>1664867</v>
+        <v>1669336</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>14319</v>
+        <v>14415</v>
       </c>
       <c r="F212" t="n">
-        <v>12727</v>
+        <v>12823</v>
       </c>
       <c r="G212" t="n">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>44063</v>
       </c>
       <c r="B213" t="n">
-        <v>1678752</v>
+        <v>1683313</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>13885</v>
+        <v>13977</v>
       </c>
       <c r="F213" t="n">
-        <v>12296</v>
+        <v>12389</v>
       </c>
       <c r="G213" t="n">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>44064</v>
       </c>
       <c r="B214" t="n">
-        <v>1692207</v>
+        <v>1696855</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>13455</v>
+        <v>13542</v>
       </c>
       <c r="F214" t="n">
-        <v>11870</v>
+        <v>11958</v>
       </c>
       <c r="G214" t="n">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>44065</v>
       </c>
       <c r="B215" t="n">
-        <v>1705236</v>
+        <v>1709968</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6610,13 +6610,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>13029</v>
+        <v>13113</v>
       </c>
       <c r="F215" t="n">
-        <v>11448</v>
+        <v>11532</v>
       </c>
       <c r="G215" t="n">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>44066</v>
       </c>
       <c r="B216" t="n">
-        <v>1717845</v>
+        <v>1722656</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12609</v>
+        <v>12688</v>
       </c>
       <c r="F216" t="n">
-        <v>11031</v>
+        <v>11111</v>
       </c>
       <c r="G216" t="n">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>44067</v>
       </c>
       <c r="B217" t="n">
-        <v>1730038</v>
+        <v>1734925</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12193</v>
+        <v>12269</v>
       </c>
       <c r="F217" t="n">
-        <v>10619</v>
+        <v>10696</v>
       </c>
       <c r="G217" t="n">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>44068</v>
       </c>
       <c r="B218" t="n">
-        <v>1741822</v>
+        <v>1746780</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>11784</v>
+        <v>11855</v>
       </c>
       <c r="F218" t="n">
-        <v>10214</v>
+        <v>10286</v>
       </c>
       <c r="G218" t="n">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44069</v>
       </c>
       <c r="B219" t="n">
-        <v>1753203</v>
+        <v>1758229</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>11381</v>
+        <v>11449</v>
       </c>
       <c r="F219" t="n">
-        <v>9814</v>
+        <v>9883</v>
       </c>
       <c r="G219" t="n">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>44070</v>
       </c>
       <c r="B220" t="n">
-        <v>1764188</v>
+        <v>1769278</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>10985</v>
+        <v>11049</v>
       </c>
       <c r="F220" t="n">
-        <v>9422</v>
+        <v>9487</v>
       </c>
       <c r="G220" t="n">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>44071</v>
       </c>
       <c r="B221" t="n">
-        <v>1774784</v>
+        <v>1779934</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>10596</v>
+        <v>10656</v>
       </c>
       <c r="F221" t="n">
-        <v>9037</v>
+        <v>9098</v>
       </c>
       <c r="G221" t="n">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>44072</v>
       </c>
       <c r="B222" t="n">
-        <v>1784999</v>
+        <v>1790205</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10215</v>
+        <v>10271</v>
       </c>
       <c r="F222" t="n">
-        <v>8659</v>
+        <v>8716</v>
       </c>
       <c r="G222" t="n">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>44073</v>
       </c>
       <c r="B223" t="n">
-        <v>1794841</v>
+        <v>1800099</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>9842</v>
+        <v>9894</v>
       </c>
       <c r="F223" t="n">
-        <v>8289</v>
+        <v>8343</v>
       </c>
       <c r="G223" t="n">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>44074</v>
       </c>
       <c r="B224" t="n">
-        <v>1804317</v>
+        <v>1809624</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>9476</v>
+        <v>9525</v>
       </c>
       <c r="F224" t="n">
-        <v>7927</v>
+        <v>7977</v>
       </c>
       <c r="G224" t="n">
-        <v>3098</v>
+        <v>3096</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>44075</v>
       </c>
       <c r="B225" t="n">
-        <v>1813436</v>
+        <v>1818789</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>9119</v>
+        <v>9165</v>
       </c>
       <c r="F225" t="n">
-        <v>7573</v>
+        <v>7620</v>
       </c>
       <c r="G225" t="n">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>44076</v>
       </c>
       <c r="B226" t="n">
-        <v>1822206</v>
+        <v>1827602</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>8770</v>
+        <v>8813</v>
       </c>
       <c r="F226" t="n">
-        <v>7227</v>
+        <v>7271</v>
       </c>
       <c r="G226" t="n">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>44077</v>
       </c>
       <c r="B227" t="n">
-        <v>1830635</v>
+        <v>1836071</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>8429</v>
+        <v>8469</v>
       </c>
       <c r="F227" t="n">
-        <v>6891</v>
+        <v>6931</v>
       </c>
       <c r="G227" t="n">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>44078</v>
       </c>
       <c r="B228" t="n">
-        <v>1838733</v>
+        <v>1844205</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8098</v>
+        <v>8134</v>
       </c>
       <c r="F228" t="n">
-        <v>6562</v>
+        <v>6600</v>
       </c>
       <c r="G228" t="n">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>44079</v>
       </c>
       <c r="B229" t="n">
-        <v>1846508</v>
+        <v>1852013</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>7775</v>
+        <v>7808</v>
       </c>
       <c r="F229" t="n">
-        <v>6243</v>
+        <v>6278</v>
       </c>
       <c r="G229" t="n">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>44080</v>
       </c>
       <c r="B230" t="n">
-        <v>1853969</v>
+        <v>1859505</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>7461</v>
+        <v>7492</v>
       </c>
       <c r="F230" t="n">
-        <v>5932</v>
+        <v>5964</v>
       </c>
       <c r="G230" t="n">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>44081</v>
       </c>
       <c r="B231" t="n">
-        <v>1861124</v>
+        <v>1866689</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>7155</v>
+        <v>7184</v>
       </c>
       <c r="F231" t="n">
-        <v>5630</v>
+        <v>5659</v>
       </c>
       <c r="G231" t="n">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>44082</v>
       </c>
       <c r="B232" t="n">
-        <v>1867983</v>
+        <v>1873574</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>6859</v>
+        <v>6885</v>
       </c>
       <c r="F232" t="n">
-        <v>5337</v>
+        <v>5364</v>
       </c>
       <c r="G232" t="n">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>44083</v>
       </c>
       <c r="B233" t="n">
-        <v>1874554</v>
+        <v>1880168</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>6571</v>
+        <v>6594</v>
       </c>
       <c r="F233" t="n">
-        <v>5052</v>
+        <v>5077</v>
       </c>
       <c r="G233" t="n">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>44084</v>
       </c>
       <c r="B234" t="n">
-        <v>1880846</v>
+        <v>1886481</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>6292</v>
+        <v>6313</v>
       </c>
       <c r="F234" t="n">
-        <v>4777</v>
+        <v>4799</v>
       </c>
       <c r="G234" t="n">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>44085</v>
       </c>
       <c r="B235" t="n">
-        <v>1886868</v>
+        <v>1892522</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>6022</v>
+        <v>6041</v>
       </c>
       <c r="F235" t="n">
-        <v>4510</v>
+        <v>4530</v>
       </c>
       <c r="G235" t="n">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>44086</v>
       </c>
       <c r="B236" t="n">
-        <v>1892629</v>
+        <v>1898300</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>5761</v>
+        <v>5778</v>
       </c>
       <c r="F236" t="n">
-        <v>4252</v>
+        <v>4270</v>
       </c>
       <c r="G236" t="n">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>44087</v>
       </c>
       <c r="B237" t="n">
-        <v>1898138</v>
+        <v>1903823</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>5509</v>
+        <v>5523</v>
       </c>
       <c r="F237" t="n">
-        <v>4003</v>
+        <v>4019</v>
       </c>
       <c r="G237" t="n">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>44088</v>
       </c>
       <c r="B238" t="n">
-        <v>1903402</v>
+        <v>1909100</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -7277,13 +7277,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>5264</v>
+        <v>5277</v>
       </c>
       <c r="F238" t="n">
-        <v>3762</v>
+        <v>3776</v>
       </c>
       <c r="G238" t="n">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>44089</v>
       </c>
       <c r="B239" t="n">
-        <v>1908431</v>
+        <v>1914140</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>5029</v>
+        <v>5040</v>
       </c>
       <c r="F239" t="n">
-        <v>3529</v>
+        <v>3541</v>
       </c>
       <c r="G239" t="n">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>44090</v>
       </c>
       <c r="B240" t="n">
-        <v>1913232</v>
+        <v>1918951</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>4801</v>
+        <v>4811</v>
       </c>
       <c r="F240" t="n">
-        <v>3305</v>
+        <v>3315</v>
       </c>
       <c r="G240" t="n">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>44091</v>
       </c>
       <c r="B241" t="n">
-        <v>1917814</v>
+        <v>1923541</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>4582</v>
+        <v>4590</v>
       </c>
       <c r="F241" t="n">
-        <v>3089</v>
+        <v>3098</v>
       </c>
       <c r="G241" t="n">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>44092</v>
       </c>
       <c r="B242" t="n">
-        <v>1922185</v>
+        <v>1927918</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>4371</v>
+        <v>4377</v>
       </c>
       <c r="F242" t="n">
-        <v>2881</v>
+        <v>2888</v>
       </c>
       <c r="G242" t="n">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>44093</v>
       </c>
       <c r="B243" t="n">
-        <v>1926352</v>
+        <v>1932090</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4167</v>
+        <v>4172</v>
       </c>
       <c r="F243" t="n">
-        <v>2680</v>
+        <v>2686</v>
       </c>
       <c r="G243" t="n">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>44094</v>
       </c>
       <c r="B244" t="n">
-        <v>1930324</v>
+        <v>1936065</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>3972</v>
+        <v>3975</v>
       </c>
       <c r="F244" t="n">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="G244" t="n">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>44095</v>
       </c>
       <c r="B245" t="n">
-        <v>1934107</v>
+        <v>1939851</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>3783</v>
+        <v>3786</v>
       </c>
       <c r="F245" t="n">
-        <v>2303</v>
+        <v>2306</v>
       </c>
       <c r="G245" t="n">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>44096</v>
       </c>
       <c r="B246" t="n">
-        <v>1937710</v>
+        <v>1943455</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="F246" t="n">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="G246" t="n">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>44097</v>
       </c>
       <c r="B247" t="n">
-        <v>1941139</v>
+        <v>1946884</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -7541,10 +7541,10 @@
         <v>3429</v>
       </c>
       <c r="F247" t="n">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="G247" t="n">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>44098</v>
       </c>
       <c r="B248" t="n">
-        <v>1944401</v>
+        <v>1950146</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>1791</v>
       </c>
       <c r="G248" t="n">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>44099</v>
       </c>
       <c r="B249" t="n">
-        <v>1947503</v>
+        <v>1953247</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="F249" t="n">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="G249" t="n">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>44100</v>
       </c>
       <c r="B250" t="n">
-        <v>1950452</v>
+        <v>1956194</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="F250" t="n">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="G250" t="n">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>44101</v>
       </c>
       <c r="B251" t="n">
-        <v>1953255</v>
+        <v>1958993</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2803</v>
+        <v>2799</v>
       </c>
       <c r="F251" t="n">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G251" t="n">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -7672,7 +7672,7 @@
         <v>44102</v>
       </c>
       <c r="B252" t="n">
-        <v>1955917</v>
+        <v>1961651</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7683,13 +7683,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>2662</v>
+        <v>2658</v>
       </c>
       <c r="F252" t="n">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="G252" t="n">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>44103</v>
       </c>
       <c r="B253" t="n">
-        <v>1958445</v>
+        <v>1964174</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7712,13 +7712,13 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="F253" t="n">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="G253" t="n">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>44104</v>
       </c>
       <c r="B254" t="n">
-        <v>1960844</v>
+        <v>1966568</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7741,13 +7741,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>2399</v>
+        <v>2394</v>
       </c>
       <c r="F254" t="n">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="G254" t="n">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>44105</v>
       </c>
       <c r="B255" t="n">
-        <v>1963120</v>
+        <v>1968839</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7770,13 +7770,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="F255" t="n">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G255" t="n">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -7788,7 +7788,7 @@
         <v>44106</v>
       </c>
       <c r="B256" t="n">
-        <v>1965279</v>
+        <v>1970992</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7799,13 +7799,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="F256" t="n">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G256" t="n">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>44107</v>
       </c>
       <c r="B257" t="n">
-        <v>1967325</v>
+        <v>1973032</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7828,13 +7828,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="F257" t="n">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="G257" t="n">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="B258" t="n">
-        <v>1969264</v>
+        <v>1974965</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>1939</v>
+        <v>1933</v>
       </c>
       <c r="F258" t="n">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G258" t="n">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>44109</v>
       </c>
       <c r="B259" t="n">
-        <v>1971101</v>
+        <v>1976796</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7886,13 +7886,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="F259" t="n">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G259" t="n">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -7904,7 +7904,7 @@
         <v>44110</v>
       </c>
       <c r="B260" t="n">
-        <v>1972841</v>
+        <v>1978529</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1740</v>
+        <v>1733</v>
       </c>
       <c r="F260" t="n">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G260" t="n">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>44111</v>
       </c>
       <c r="B261" t="n">
-        <v>1974488</v>
+        <v>1980169</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="F261" t="n">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G261" t="n">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>44112</v>
       </c>
       <c r="B262" t="n">
-        <v>1976047</v>
+        <v>1981721</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7973,13 +7973,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1559</v>
+        <v>1552</v>
       </c>
       <c r="F262" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G262" t="n">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>44113</v>
       </c>
       <c r="B263" t="n">
-        <v>1977522</v>
+        <v>1983189</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="F263" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G263" t="n">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>44114</v>
       </c>
       <c r="B264" t="n">
-        <v>1978917</v>
+        <v>1984576</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>2821</v>
+        <v>2812</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>44115</v>
       </c>
       <c r="B265" t="n">
-        <v>1980236</v>
+        <v>1985887</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>2742</v>
+        <v>2733</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>44116</v>
       </c>
       <c r="B266" t="n">
-        <v>1981482</v>
+        <v>1987126</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -8089,13 +8089,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>2667</v>
+        <v>2658</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>44117</v>
       </c>
       <c r="B267" t="n">
-        <v>1982659</v>
+        <v>1988296</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>44118</v>
       </c>
       <c r="B268" t="n">
-        <v>1983771</v>
+        <v>1989401</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -8147,13 +8147,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>2527</v>
+        <v>2519</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>44119</v>
       </c>
       <c r="B269" t="n">
-        <v>1984821</v>
+        <v>1990444</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -8176,13 +8176,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="F269" t="n">
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>2463</v>
+        <v>2454</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -8194,7 +8194,7 @@
         <v>44120</v>
       </c>
       <c r="B270" t="n">
-        <v>1985812</v>
+        <v>1991428</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8205,13 +8205,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>2401</v>
+        <v>2393</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>44121</v>
       </c>
       <c r="B271" t="n">
-        <v>1986747</v>
+        <v>1992356</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>2343</v>
+        <v>2334</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>44122</v>
       </c>
       <c r="B272" t="n">
-        <v>1987629</v>
+        <v>1993231</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>2287</v>
+        <v>2279</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>44123</v>
       </c>
       <c r="B273" t="n">
-        <v>1988461</v>
+        <v>1994056</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>2234</v>
+        <v>2226</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>44124</v>
       </c>
       <c r="B274" t="n">
-        <v>1989245</v>
+        <v>1994833</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -8321,16 +8321,16 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>2184</v>
+        <v>2176</v>
       </c>
       <c r="H274" t="n">
-        <v>13229</v>
+        <v>13282</v>
       </c>
       <c r="I274" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44125</v>
       </c>
       <c r="B275" t="n">
-        <v>1989984</v>
+        <v>1995565</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -8355,13 +8355,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>2136</v>
+        <v>2128</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>44126</v>
       </c>
       <c r="B276" t="n">
-        <v>1990681</v>
+        <v>1996255</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -8384,13 +8384,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>2091</v>
+        <v>2083</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -8402,7 +8402,7 @@
         <v>44127</v>
       </c>
       <c r="B277" t="n">
-        <v>1991337</v>
+        <v>1996905</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -8413,13 +8413,13 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>2048</v>
+        <v>2041</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>44128</v>
       </c>
       <c r="B278" t="n">
-        <v>1991955</v>
+        <v>1997517</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -8442,13 +8442,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>44129</v>
       </c>
       <c r="B279" t="n">
-        <v>1992537</v>
+        <v>1998093</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -8471,13 +8471,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>1969</v>
+        <v>1961</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -8489,7 +8489,7 @@
         <v>44130</v>
       </c>
       <c r="B280" t="n">
-        <v>1993085</v>
+        <v>1998634</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -8500,13 +8500,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>44131</v>
       </c>
       <c r="B281" t="n">
-        <v>1993600</v>
+        <v>1999143</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>1897</v>
+        <v>1890</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>44132</v>
       </c>
       <c r="B282" t="n">
-        <v>1994085</v>
+        <v>1999622</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -8558,13 +8558,13 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>1864</v>
+        <v>1857</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -8576,7 +8576,7 @@
         <v>44133</v>
       </c>
       <c r="B283" t="n">
-        <v>1994541</v>
+        <v>2000072</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -8587,13 +8587,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>1833</v>
+        <v>1826</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>44134</v>
       </c>
       <c r="B284" t="n">
-        <v>1994970</v>
+        <v>2000495</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -8616,13 +8616,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>44135</v>
       </c>
       <c r="B285" t="n">
-        <v>1995373</v>
+        <v>2000893</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -8645,13 +8645,13 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -8663,7 +8663,7 @@
         <v>44136</v>
       </c>
       <c r="B286" t="n">
-        <v>1995752</v>
+        <v>2001266</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8674,13 +8674,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>44137</v>
       </c>
       <c r="B287" t="n">
-        <v>1996108</v>
+        <v>2001617</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -8703,13 +8703,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>44138</v>
       </c>
       <c r="B288" t="n">
-        <v>1996442</v>
+        <v>2001946</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -8732,13 +8732,13 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>44139</v>
       </c>
       <c r="B289" t="n">
-        <v>1996756</v>
+        <v>2002255</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -8761,13 +8761,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>44140</v>
       </c>
       <c r="B290" t="n">
-        <v>1997051</v>
+        <v>2002545</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -8790,13 +8790,13 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -8808,7 +8808,7 @@
         <v>44141</v>
       </c>
       <c r="B291" t="n">
-        <v>1997328</v>
+        <v>2002817</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8819,13 +8819,13 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>44142</v>
       </c>
       <c r="B292" t="n">
-        <v>1997588</v>
+        <v>2003072</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8848,16 +8848,16 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="H292" t="n">
-        <v>7937</v>
+        <v>7970</v>
       </c>
       <c r="I292" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>44143</v>
       </c>
       <c r="B293" t="n">
-        <v>1997832</v>
+        <v>2003311</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8882,13 +8882,13 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>44144</v>
       </c>
       <c r="B294" t="n">
-        <v>1998060</v>
+        <v>2003536</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8911,13 +8911,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>44145</v>
       </c>
       <c r="B295" t="n">
-        <v>1998274</v>
+        <v>2003746</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8940,13 +8940,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -8958,7 +8958,7 @@
         <v>44146</v>
       </c>
       <c r="B296" t="n">
-        <v>1998475</v>
+        <v>2003943</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8969,13 +8969,13 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>44147</v>
       </c>
       <c r="B297" t="n">
-        <v>1998663</v>
+        <v>2004128</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8998,13 +8998,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>44148</v>
       </c>
       <c r="B298" t="n">
-        <v>1998839</v>
+        <v>2004301</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -9027,13 +9027,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -9045,7 +9045,7 @@
         <v>44149</v>
       </c>
       <c r="B299" t="n">
-        <v>1999004</v>
+        <v>2004463</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -9056,13 +9056,13 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -9074,7 +9074,7 @@
         <v>44150</v>
       </c>
       <c r="B300" t="n">
-        <v>1999159</v>
+        <v>2004615</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -9085,13 +9085,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>44151</v>
       </c>
       <c r="B301" t="n">
-        <v>1999304</v>
+        <v>2004757</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -9114,13 +9114,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>44152</v>
       </c>
       <c r="B302" t="n">
-        <v>1999440</v>
+        <v>2004890</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>44153</v>
       </c>
       <c r="B303" t="n">
-        <v>1999567</v>
+        <v>2005015</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>44154</v>
       </c>
       <c r="B304" t="n">
-        <v>1999686</v>
+        <v>2005132</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -9201,13 +9201,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>44155</v>
       </c>
       <c r="B305" t="n">
-        <v>1999797</v>
+        <v>2005241</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -9230,13 +9230,13 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>44156</v>
       </c>
       <c r="B306" t="n">
-        <v>1999901</v>
+        <v>2005343</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -9259,13 +9259,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -9277,7 +9277,7 @@
         <v>44157</v>
       </c>
       <c r="B307" t="n">
-        <v>1999999</v>
+        <v>2005438</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -9288,13 +9288,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -9306,7 +9306,7 @@
         <v>44158</v>
       </c>
       <c r="B308" t="n">
-        <v>2000090</v>
+        <v>2005527</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -9317,13 +9317,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>44159</v>
       </c>
       <c r="B309" t="n">
-        <v>2000175</v>
+        <v>2005610</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -9346,13 +9346,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>44160</v>
       </c>
       <c r="B310" t="n">
-        <v>2000255</v>
+        <v>2005688</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -9375,13 +9375,13 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>44161</v>
       </c>
       <c r="B311" t="n">
-        <v>2000330</v>
+        <v>2005761</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>44162</v>
       </c>
       <c r="B312" t="n">
-        <v>2000400</v>
+        <v>2005829</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -9433,13 +9433,13 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>44163</v>
       </c>
       <c r="B313" t="n">
-        <v>2000465</v>
+        <v>2005892</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -9462,13 +9462,13 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>44164</v>
       </c>
       <c r="B314" t="n">
-        <v>2000526</v>
+        <v>2005951</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>44165</v>
       </c>
       <c r="B315" t="n">
-        <v>2000583</v>
+        <v>2006006</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -9520,13 +9520,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9538,7 +9538,7 @@
         <v>44166</v>
       </c>
       <c r="B316" t="n">
-        <v>2000636</v>
+        <v>2006058</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -9549,13 +9549,13 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>44167</v>
       </c>
       <c r="B317" t="n">
-        <v>2000686</v>
+        <v>2006106</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>44168</v>
       </c>
       <c r="B318" t="n">
-        <v>2000732</v>
+        <v>2006151</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>44169</v>
       </c>
       <c r="B319" t="n">
-        <v>2000775</v>
+        <v>2006193</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -9636,13 +9636,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>44170</v>
       </c>
       <c r="B320" t="n">
-        <v>2000815</v>
+        <v>2006232</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -9665,13 +9665,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>44171</v>
       </c>
       <c r="B321" t="n">
-        <v>2000853</v>
+        <v>2006269</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -9694,13 +9694,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>44172</v>
       </c>
       <c r="B322" t="n">
-        <v>2000888</v>
+        <v>2006303</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>44173</v>
       </c>
       <c r="B323" t="n">
-        <v>2000921</v>
+        <v>2006335</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -9752,13 +9752,13 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -9770,7 +9770,7 @@
         <v>44174</v>
       </c>
       <c r="B324" t="n">
-        <v>2000952</v>
+        <v>2006365</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -9781,13 +9781,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>44175</v>
       </c>
       <c r="B325" t="n">
-        <v>2000981</v>
+        <v>2006393</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>44176</v>
       </c>
       <c r="B326" t="n">
-        <v>2001008</v>
+        <v>2006419</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -9839,13 +9839,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>44177</v>
       </c>
       <c r="B327" t="n">
-        <v>2001033</v>
+        <v>2006443</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>44178</v>
       </c>
       <c r="B328" t="n">
-        <v>2001056</v>
+        <v>2006465</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>44179</v>
       </c>
       <c r="B329" t="n">
-        <v>2001078</v>
+        <v>2006486</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9926,13 +9926,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>44180</v>
       </c>
       <c r="B330" t="n">
-        <v>2001098</v>
+        <v>2006505</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9955,13 +9955,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>44181</v>
       </c>
       <c r="B331" t="n">
-        <v>2001117</v>
+        <v>2006523</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>44182</v>
       </c>
       <c r="B332" t="n">
-        <v>2001134</v>
+        <v>2006540</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>44183</v>
       </c>
       <c r="B333" t="n">
-        <v>2001150</v>
+        <v>2006556</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>44184</v>
       </c>
       <c r="B334" t="n">
-        <v>2001165</v>
+        <v>2006571</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>44185</v>
       </c>
       <c r="B335" t="n">
-        <v>2001179</v>
+        <v>2006585</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>44186</v>
       </c>
       <c r="B336" t="n">
-        <v>2001192</v>
+        <v>2006598</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>44187</v>
       </c>
       <c r="B337" t="n">
-        <v>2001204</v>
+        <v>2006610</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>44188</v>
       </c>
       <c r="B338" t="n">
-        <v>2001215</v>
+        <v>2006621</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>44189</v>
       </c>
       <c r="B339" t="n">
-        <v>2001226</v>
+        <v>2006631</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -10216,13 +10216,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>44190</v>
       </c>
       <c r="B340" t="n">
-        <v>2001236</v>
+        <v>2006641</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>44191</v>
       </c>
       <c r="B341" t="n">
-        <v>2001245</v>
+        <v>2006650</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>44192</v>
       </c>
       <c r="B342" t="n">
-        <v>2001254</v>
+        <v>2006658</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -10303,13 +10303,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>44193</v>
       </c>
       <c r="B343" t="n">
-        <v>2001262</v>
+        <v>2006666</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -10338,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>44194</v>
       </c>
       <c r="B344" t="n">
-        <v>2001269</v>
+        <v>2006673</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>44195</v>
       </c>
       <c r="B345" t="n">
-        <v>2001276</v>
+        <v>2006680</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>44196</v>
       </c>
       <c r="B346" t="n">
-        <v>2001282</v>
+        <v>2006686</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>44197</v>
       </c>
       <c r="B347" t="n">
-        <v>2001288</v>
+        <v>2006692</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>44198</v>
       </c>
       <c r="B348" t="n">
-        <v>2001294</v>
+        <v>2006697</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -10477,13 +10477,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>44199</v>
       </c>
       <c r="B349" t="n">
-        <v>2001299</v>
+        <v>2006702</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>44200</v>
       </c>
       <c r="B350" t="n">
-        <v>2001304</v>
+        <v>2006707</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>44201</v>
       </c>
       <c r="B351" t="n">
-        <v>2001308</v>
+        <v>2006711</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -10582,7 +10582,7 @@
         <v>44202</v>
       </c>
       <c r="B352" t="n">
-        <v>2001312</v>
+        <v>2006715</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>44203</v>
       </c>
       <c r="B353" t="n">
-        <v>2001316</v>
+        <v>2006719</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -10628,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>44204</v>
       </c>
       <c r="B354" t="n">
-        <v>2001320</v>
+        <v>2006722</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>44205</v>
       </c>
       <c r="B355" t="n">
-        <v>2001323</v>
+        <v>2006725</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>44206</v>
       </c>
       <c r="B356" t="n">
-        <v>2001326</v>
+        <v>2006728</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>44207</v>
       </c>
       <c r="B357" t="n">
-        <v>2001329</v>
+        <v>2006731</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>44208</v>
       </c>
       <c r="B358" t="n">
-        <v>2001332</v>
+        <v>2006734</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>44209</v>
       </c>
       <c r="B359" t="n">
-        <v>2001334</v>
+        <v>2006736</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>44210</v>
       </c>
       <c r="B360" t="n">
-        <v>2001336</v>
+        <v>2006738</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>44211</v>
       </c>
       <c r="B361" t="n">
-        <v>2001338</v>
+        <v>2006740</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -10860,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>44212</v>
       </c>
       <c r="B362" t="n">
-        <v>2001340</v>
+        <v>2006742</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>44213</v>
       </c>
       <c r="B363" t="n">
-        <v>2001342</v>
+        <v>2006744</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>44214</v>
       </c>
       <c r="B364" t="n">
-        <v>2001344</v>
+        <v>2006746</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>44215</v>
       </c>
       <c r="B365" t="n">
-        <v>2001346</v>
+        <v>2006748</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>44216</v>
       </c>
       <c r="B366" t="n">
-        <v>2001347</v>
+        <v>2006749</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -11005,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>44217</v>
       </c>
       <c r="B367" t="n">
-        <v>2001348</v>
+        <v>2006750</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -11034,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -11046,7 +11046,7 @@
         <v>44218</v>
       </c>
       <c r="B368" t="n">
-        <v>2001349</v>
+        <v>2006751</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>44219</v>
       </c>
       <c r="B369" t="n">
-        <v>2001350</v>
+        <v>2006752</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>44220</v>
       </c>
       <c r="B370" t="n">
-        <v>2001351</v>
+        <v>2006753</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>44221</v>
       </c>
       <c r="B371" t="n">
-        <v>2001352</v>
+        <v>2006754</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>44222</v>
       </c>
       <c r="B372" t="n">
-        <v>2001353</v>
+        <v>2006755</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -11179,7 +11179,7 @@
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -11191,7 +11191,7 @@
         <v>44223</v>
       </c>
       <c r="B373" t="n">
-        <v>2001354</v>
+        <v>2006756</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>44224</v>
       </c>
       <c r="B374" t="n">
-        <v>2001355</v>
+        <v>2006757</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -11237,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -11249,7 +11249,7 @@
         <v>44225</v>
       </c>
       <c r="B375" t="n">
-        <v>2001356</v>
+        <v>2006758</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -11266,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -11278,7 +11278,7 @@
         <v>44226</v>
       </c>
       <c r="B376" t="n">
-        <v>2001357</v>
+        <v>2006759</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>44227</v>
       </c>
       <c r="B377" t="n">
-        <v>2001358</v>
+        <v>2006760</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>44228</v>
       </c>
       <c r="B378" t="n">
-        <v>2001359</v>
+        <v>2006761</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>44229</v>
       </c>
       <c r="B379" t="n">
-        <v>2001360</v>
+        <v>2006762</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>44230</v>
       </c>
       <c r="B380" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -11405,25 +11405,30 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>13282</v>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>No new cases on
+03 February 2021</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
         <v>44231</v>
       </c>
       <c r="B381" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -11440,24 +11445,19 @@
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H381" t="n">
-        <v>13229</v>
-      </c>
-      <c r="I381" t="inlineStr">
-        <is>
-          <t>No new cases on
-04 February 2021</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
         <v>44232</v>
       </c>
       <c r="B382" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -11474,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -11486,7 +11486,7 @@
         <v>44233</v>
       </c>
       <c r="B383" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -11503,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>44234</v>
       </c>
       <c r="B384" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -11532,7 +11532,7 @@
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -11544,7 +11544,7 @@
         <v>44235</v>
       </c>
       <c r="B385" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -11573,7 +11573,7 @@
         <v>44236</v>
       </c>
       <c r="B386" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>44237</v>
       </c>
       <c r="B387" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -11631,7 +11631,7 @@
         <v>44238</v>
       </c>
       <c r="B388" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -11660,7 +11660,7 @@
         <v>44239</v>
       </c>
       <c r="B389" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -11677,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -11689,7 +11689,7 @@
         <v>44240</v>
       </c>
       <c r="B390" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -11718,7 +11718,7 @@
         <v>44241</v>
       </c>
       <c r="B391" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>44242</v>
       </c>
       <c r="B392" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -11764,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>44243</v>
       </c>
       <c r="B393" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         <v>44244</v>
       </c>
       <c r="B394" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -11834,7 +11834,7 @@
         <v>44245</v>
       </c>
       <c r="B395" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H395" t="n">
         <v>0</v>
@@ -11863,7 +11863,7 @@
         <v>44246</v>
       </c>
       <c r="B396" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -11880,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H396" t="n">
         <v>0</v>
@@ -11892,7 +11892,7 @@
         <v>44247</v>
       </c>
       <c r="B397" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         <v>44248</v>
       </c>
       <c r="B398" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -11938,7 +11938,7 @@
         <v>0</v>
       </c>
       <c r="G398" t="n">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H398" t="n">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>44249</v>
       </c>
       <c r="B399" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -11979,7 +11979,7 @@
         <v>44250</v>
       </c>
       <c r="B400" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -11996,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H400" t="n">
         <v>0</v>
@@ -12008,7 +12008,7 @@
         <v>44251</v>
       </c>
       <c r="B401" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -12025,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H401" t="n">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>44252</v>
       </c>
       <c r="B402" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -12066,7 +12066,7 @@
         <v>44253</v>
       </c>
       <c r="B403" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -12095,7 +12095,7 @@
         <v>44254</v>
       </c>
       <c r="B404" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>44255</v>
       </c>
       <c r="B405" t="n">
-        <v>2001361</v>
+        <v>2006762</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -12141,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>

--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>632</v>
+        <v>595</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>730</v>
+        <v>689</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>839</v>
+        <v>794</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>962</v>
+        <v>912</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1097</v>
+        <v>1042</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1247</v>
+        <v>1187</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1412</v>
+        <v>1347</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1594</v>
+        <v>1523</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1792</v>
+        <v>1715</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2008</v>
+        <v>1925</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2242</v>
+        <v>2153</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2495</v>
+        <v>2401</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2768</v>
+        <v>2667</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>3060</v>
+        <v>2954</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3374</v>
+        <v>3262</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3707</v>
+        <v>3590</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>4062</v>
+        <v>3939</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>4438</v>
+        <v>4310</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>4834</v>
+        <v>4701</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>5252</v>
+        <v>5114</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>5689</v>
+        <v>5548</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6147</v>
+        <v>6002</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6624</v>
+        <v>6476</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>7120</v>
+        <v>6969</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>7633</v>
+        <v>7480</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>8163</v>
+        <v>8009</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>8709</v>
+        <v>8554</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9269</v>
+        <v>9114</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>9842</v>
+        <v>9688</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>10427</v>
+        <v>10274</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>11022</v>
+        <v>10871</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>11625</v>
+        <v>11477</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>12235</v>
+        <v>12090</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>12849</v>
+        <v>12709</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>13467</v>
+        <v>13332</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>14085</v>
+        <v>13956</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14703</v>
+        <v>14580</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>15317</v>
+        <v>15202</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>15927</v>
+        <v>15820</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16530</v>
+        <v>16431</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>17124</v>
+        <v>17034</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17707</v>
+        <v>17627</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>18278</v>
+        <v>18207</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>18833</v>
+        <v>18773</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>19373</v>
+        <v>19323</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>19894</v>
+        <v>19856</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>20396</v>
+        <v>20369</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>20876</v>
+        <v>20860</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21334</v>
+        <v>21330</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>21768</v>
+        <v>21775</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>22176</v>
+        <v>22194</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22557</v>
+        <v>22588</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>22912</v>
+        <v>22953</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -5265,24 +5265,24 @@
         <v>44019</v>
       </c>
       <c r="B169" t="n">
-        <v>742902</v>
+        <v>742417</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>22753</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>23238</v>
+        <v>23290</v>
       </c>
       <c r="F169" t="n">
-        <v>21453</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>3570</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>766436</v>
+        <v>766015</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>23534</v>
+        <v>23598</v>
       </c>
       <c r="F170" t="n">
-        <v>21755</v>
+        <v>21820</v>
       </c>
       <c r="G170" t="n">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>790237</v>
+        <v>789891</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>23801</v>
+        <v>23876</v>
       </c>
       <c r="F171" t="n">
-        <v>22027</v>
+        <v>22103</v>
       </c>
       <c r="G171" t="n">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>814275</v>
+        <v>814014</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>24038</v>
+        <v>24123</v>
       </c>
       <c r="F172" t="n">
-        <v>22269</v>
+        <v>22355</v>
       </c>
       <c r="G172" t="n">
-        <v>3538</v>
+        <v>3535</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>838519</v>
+        <v>838353</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24244</v>
+        <v>24339</v>
       </c>
       <c r="F173" t="n">
-        <v>22480</v>
+        <v>22577</v>
       </c>
       <c r="G173" t="n">
-        <v>3528</v>
+        <v>3524</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>862938</v>
+        <v>862877</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>24419</v>
+        <v>24524</v>
       </c>
       <c r="F174" t="n">
-        <v>22661</v>
+        <v>22767</v>
       </c>
       <c r="G174" t="n">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>887502</v>
+        <v>887554</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>24564</v>
+        <v>24677</v>
       </c>
       <c r="F175" t="n">
-        <v>22810</v>
+        <v>22925</v>
       </c>
       <c r="G175" t="n">
-        <v>3507</v>
+        <v>3504</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>912179</v>
+        <v>912353</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>24677</v>
+        <v>24799</v>
       </c>
       <c r="F176" t="n">
-        <v>22928</v>
+        <v>23052</v>
       </c>
       <c r="G176" t="n">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>936938</v>
+        <v>937242</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>24759</v>
+        <v>24889</v>
       </c>
       <c r="F177" t="n">
-        <v>23016</v>
+        <v>23147</v>
       </c>
       <c r="G177" t="n">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>961749</v>
+        <v>962190</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24811</v>
+        <v>24948</v>
       </c>
       <c r="F178" t="n">
-        <v>23072</v>
+        <v>23211</v>
       </c>
       <c r="G178" t="n">
-        <v>3477</v>
+        <v>3474</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>986581</v>
+        <v>987167</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>24832</v>
+        <v>24977</v>
       </c>
       <c r="F179" t="n">
-        <v>23098</v>
+        <v>23245</v>
       </c>
       <c r="G179" t="n">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>1011404</v>
+        <v>1012141</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>24823</v>
+        <v>24974</v>
       </c>
       <c r="F180" t="n">
-        <v>23094</v>
+        <v>23247</v>
       </c>
       <c r="G180" t="n">
-        <v>3458</v>
+        <v>3454</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>1036189</v>
+        <v>1037083</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>24785</v>
+        <v>24942</v>
       </c>
       <c r="F181" t="n">
-        <v>23061</v>
+        <v>23220</v>
       </c>
       <c r="G181" t="n">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>1060907</v>
+        <v>1061963</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24718</v>
+        <v>24880</v>
       </c>
       <c r="F182" t="n">
-        <v>22999</v>
+        <v>23163</v>
       </c>
       <c r="G182" t="n">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>1085530</v>
+        <v>1086753</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>24623</v>
+        <v>24790</v>
       </c>
       <c r="F183" t="n">
-        <v>22909</v>
+        <v>23077</v>
       </c>
       <c r="G183" t="n">
-        <v>3429</v>
+        <v>3425</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>1110031</v>
+        <v>1111425</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24501</v>
+        <v>24672</v>
       </c>
       <c r="F184" t="n">
-        <v>22791</v>
+        <v>22964</v>
       </c>
       <c r="G184" t="n">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>1134383</v>
+        <v>1135952</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24352</v>
+        <v>24527</v>
       </c>
       <c r="F185" t="n">
-        <v>22647</v>
+        <v>22823</v>
       </c>
       <c r="G185" t="n">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>1158561</v>
+        <v>1160307</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24178</v>
+        <v>24355</v>
       </c>
       <c r="F186" t="n">
-        <v>22478</v>
+        <v>22657</v>
       </c>
       <c r="G186" t="n">
-        <v>3401</v>
+        <v>3397</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>1182541</v>
+        <v>1184466</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>23980</v>
+        <v>24159</v>
       </c>
       <c r="F187" t="n">
-        <v>22284</v>
+        <v>22465</v>
       </c>
       <c r="G187" t="n">
-        <v>3392</v>
+        <v>3388</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>1206298</v>
+        <v>1208405</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23757</v>
+        <v>23939</v>
       </c>
       <c r="F188" t="n">
-        <v>22066</v>
+        <v>22249</v>
       </c>
       <c r="G188" t="n">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>1229811</v>
+        <v>1232100</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>23513</v>
+        <v>23695</v>
       </c>
       <c r="F189" t="n">
-        <v>21826</v>
+        <v>22010</v>
       </c>
       <c r="G189" t="n">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>1253058</v>
+        <v>1255530</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>23247</v>
+        <v>23430</v>
       </c>
       <c r="F190" t="n">
-        <v>21565</v>
+        <v>21750</v>
       </c>
       <c r="G190" t="n">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>1276020</v>
+        <v>1278675</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22962</v>
+        <v>23145</v>
       </c>
       <c r="F191" t="n">
-        <v>21284</v>
+        <v>21469</v>
       </c>
       <c r="G191" t="n">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>44042</v>
       </c>
       <c r="B192" t="n">
-        <v>1298677</v>
+        <v>1301515</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22657</v>
+        <v>22840</v>
       </c>
       <c r="F192" t="n">
-        <v>20984</v>
+        <v>21168</v>
       </c>
       <c r="G192" t="n">
-        <v>3347</v>
+        <v>3343</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>44043</v>
       </c>
       <c r="B193" t="n">
-        <v>1321012</v>
+        <v>1324031</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>22335</v>
+        <v>22516</v>
       </c>
       <c r="F193" t="n">
-        <v>20666</v>
+        <v>20849</v>
       </c>
       <c r="G193" t="n">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>44044</v>
       </c>
       <c r="B194" t="n">
-        <v>1343008</v>
+        <v>1346207</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21996</v>
+        <v>22176</v>
       </c>
       <c r="F194" t="n">
-        <v>20331</v>
+        <v>20513</v>
       </c>
       <c r="G194" t="n">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>44045</v>
       </c>
       <c r="B195" t="n">
-        <v>1364650</v>
+        <v>1368027</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>21642</v>
+        <v>21820</v>
       </c>
       <c r="F195" t="n">
-        <v>19982</v>
+        <v>20162</v>
       </c>
       <c r="G195" t="n">
-        <v>3321</v>
+        <v>3317</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>44046</v>
       </c>
       <c r="B196" t="n">
-        <v>1385924</v>
+        <v>1389477</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21274</v>
+        <v>21450</v>
       </c>
       <c r="F196" t="n">
-        <v>19618</v>
+        <v>19795</v>
       </c>
       <c r="G196" t="n">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>44047</v>
       </c>
       <c r="B197" t="n">
-        <v>1406817</v>
+        <v>1410543</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20893</v>
+        <v>21066</v>
       </c>
       <c r="F197" t="n">
-        <v>19241</v>
+        <v>19416</v>
       </c>
       <c r="G197" t="n">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>44048</v>
       </c>
       <c r="B198" t="n">
-        <v>1427318</v>
+        <v>1431214</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>20501</v>
+        <v>20671</v>
       </c>
       <c r="F198" t="n">
-        <v>18853</v>
+        <v>19025</v>
       </c>
       <c r="G198" t="n">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>44049</v>
       </c>
       <c r="B199" t="n">
-        <v>1447416</v>
+        <v>1451479</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -6146,13 +6146,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>20098</v>
+        <v>20265</v>
       </c>
       <c r="F199" t="n">
-        <v>18454</v>
+        <v>18623</v>
       </c>
       <c r="G199" t="n">
-        <v>3287</v>
+        <v>3283</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>44050</v>
       </c>
       <c r="B200" t="n">
-        <v>1467102</v>
+        <v>1471328</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>19686</v>
+        <v>19849</v>
       </c>
       <c r="F200" t="n">
-        <v>18047</v>
+        <v>18211</v>
       </c>
       <c r="G200" t="n">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>44051</v>
       </c>
       <c r="B201" t="n">
-        <v>1486368</v>
+        <v>1490753</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -6204,13 +6204,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>19266</v>
+        <v>19425</v>
       </c>
       <c r="F201" t="n">
-        <v>17631</v>
+        <v>17791</v>
       </c>
       <c r="G201" t="n">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>44052</v>
       </c>
       <c r="B202" t="n">
-        <v>1505207</v>
+        <v>1509747</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>18839</v>
+        <v>18994</v>
       </c>
       <c r="F202" t="n">
-        <v>17208</v>
+        <v>17364</v>
       </c>
       <c r="G202" t="n">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>44053</v>
       </c>
       <c r="B203" t="n">
-        <v>1523613</v>
+        <v>1528303</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>18406</v>
+        <v>18556</v>
       </c>
       <c r="F203" t="n">
-        <v>16779</v>
+        <v>16931</v>
       </c>
       <c r="G203" t="n">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>44054</v>
       </c>
       <c r="B204" t="n">
-        <v>1541581</v>
+        <v>1546417</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>17968</v>
+        <v>18114</v>
       </c>
       <c r="F204" t="n">
-        <v>16346</v>
+        <v>16493</v>
       </c>
       <c r="G204" t="n">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>44055</v>
       </c>
       <c r="B205" t="n">
-        <v>1559108</v>
+        <v>1564085</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17527</v>
+        <v>17668</v>
       </c>
       <c r="F205" t="n">
-        <v>15908</v>
+        <v>16051</v>
       </c>
       <c r="G205" t="n">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>44056</v>
       </c>
       <c r="B206" t="n">
-        <v>1576191</v>
+        <v>1581304</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>17083</v>
+        <v>17219</v>
       </c>
       <c r="F206" t="n">
-        <v>15468</v>
+        <v>15606</v>
       </c>
       <c r="G206" t="n">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>44057</v>
       </c>
       <c r="B207" t="n">
-        <v>1592829</v>
+        <v>1598073</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>16638</v>
+        <v>16769</v>
       </c>
       <c r="F207" t="n">
-        <v>15027</v>
+        <v>15159</v>
       </c>
       <c r="G207" t="n">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>44058</v>
       </c>
       <c r="B208" t="n">
-        <v>1609020</v>
+        <v>1614390</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>16191</v>
+        <v>16317</v>
       </c>
       <c r="F208" t="n">
-        <v>14584</v>
+        <v>14712</v>
       </c>
       <c r="G208" t="n">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>44059</v>
       </c>
       <c r="B209" t="n">
-        <v>1624765</v>
+        <v>1630255</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>15745</v>
+        <v>15865</v>
       </c>
       <c r="F209" t="n">
-        <v>14142</v>
+        <v>14264</v>
       </c>
       <c r="G209" t="n">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>44060</v>
       </c>
       <c r="B210" t="n">
-        <v>1640065</v>
+        <v>1645670</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>15300</v>
+        <v>15415</v>
       </c>
       <c r="F210" t="n">
-        <v>13700</v>
+        <v>13817</v>
       </c>
       <c r="G210" t="n">
-        <v>3199</v>
+        <v>3195</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>44061</v>
       </c>
       <c r="B211" t="n">
-        <v>1654921</v>
+        <v>1660636</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14856</v>
+        <v>14966</v>
       </c>
       <c r="F211" t="n">
-        <v>13260</v>
+        <v>13372</v>
       </c>
       <c r="G211" t="n">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>44062</v>
       </c>
       <c r="B212" t="n">
-        <v>1669336</v>
+        <v>1675155</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>14415</v>
+        <v>14519</v>
       </c>
       <c r="F212" t="n">
-        <v>12823</v>
+        <v>12929</v>
       </c>
       <c r="G212" t="n">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>44063</v>
       </c>
       <c r="B213" t="n">
-        <v>1683313</v>
+        <v>1689231</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>13977</v>
+        <v>14076</v>
       </c>
       <c r="F213" t="n">
-        <v>12389</v>
+        <v>12489</v>
       </c>
       <c r="G213" t="n">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>44064</v>
       </c>
       <c r="B214" t="n">
-        <v>1696855</v>
+        <v>1702867</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>13542</v>
+        <v>13636</v>
       </c>
       <c r="F214" t="n">
-        <v>11958</v>
+        <v>12054</v>
       </c>
       <c r="G214" t="n">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>44065</v>
       </c>
       <c r="B215" t="n">
-        <v>1709968</v>
+        <v>1716068</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6610,13 +6610,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>13113</v>
+        <v>13201</v>
       </c>
       <c r="F215" t="n">
-        <v>11532</v>
+        <v>11622</v>
       </c>
       <c r="G215" t="n">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>44066</v>
       </c>
       <c r="B216" t="n">
-        <v>1722656</v>
+        <v>1728839</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12688</v>
+        <v>12771</v>
       </c>
       <c r="F216" t="n">
-        <v>11111</v>
+        <v>11196</v>
       </c>
       <c r="G216" t="n">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>44067</v>
       </c>
       <c r="B217" t="n">
-        <v>1734925</v>
+        <v>1741186</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12269</v>
+        <v>12347</v>
       </c>
       <c r="F217" t="n">
-        <v>10696</v>
+        <v>10775</v>
       </c>
       <c r="G217" t="n">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>44068</v>
       </c>
       <c r="B218" t="n">
-        <v>1746780</v>
+        <v>1753115</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>11855</v>
+        <v>11929</v>
       </c>
       <c r="F218" t="n">
-        <v>10286</v>
+        <v>10361</v>
       </c>
       <c r="G218" t="n">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44069</v>
       </c>
       <c r="B219" t="n">
-        <v>1758229</v>
+        <v>1764632</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>11449</v>
+        <v>11517</v>
       </c>
       <c r="F219" t="n">
-        <v>9883</v>
+        <v>9953</v>
       </c>
       <c r="G219" t="n">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>44070</v>
       </c>
       <c r="B220" t="n">
-        <v>1769278</v>
+        <v>1775745</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>11049</v>
+        <v>11113</v>
       </c>
       <c r="F220" t="n">
-        <v>9487</v>
+        <v>9552</v>
       </c>
       <c r="G220" t="n">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>44071</v>
       </c>
       <c r="B221" t="n">
-        <v>1779934</v>
+        <v>1786460</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>10656</v>
+        <v>10715</v>
       </c>
       <c r="F221" t="n">
-        <v>9098</v>
+        <v>9158</v>
       </c>
       <c r="G221" t="n">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>44072</v>
       </c>
       <c r="B222" t="n">
-        <v>1790205</v>
+        <v>1796786</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10271</v>
+        <v>10326</v>
       </c>
       <c r="F222" t="n">
-        <v>8716</v>
+        <v>8772</v>
       </c>
       <c r="G222" t="n">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>44073</v>
       </c>
       <c r="B223" t="n">
-        <v>1800099</v>
+        <v>1806730</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>9894</v>
+        <v>9944</v>
       </c>
       <c r="F223" t="n">
-        <v>8343</v>
+        <v>8394</v>
       </c>
       <c r="G223" t="n">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>44074</v>
       </c>
       <c r="B224" t="n">
-        <v>1809624</v>
+        <v>1816301</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>9525</v>
+        <v>9571</v>
       </c>
       <c r="F224" t="n">
-        <v>7977</v>
+        <v>8025</v>
       </c>
       <c r="G224" t="n">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>44075</v>
       </c>
       <c r="B225" t="n">
-        <v>1818789</v>
+        <v>1825507</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>9165</v>
+        <v>9206</v>
       </c>
       <c r="F225" t="n">
-        <v>7620</v>
+        <v>7663</v>
       </c>
       <c r="G225" t="n">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>44076</v>
       </c>
       <c r="B226" t="n">
-        <v>1827602</v>
+        <v>1834357</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>8813</v>
+        <v>8850</v>
       </c>
       <c r="F226" t="n">
-        <v>7271</v>
+        <v>7311</v>
       </c>
       <c r="G226" t="n">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>44077</v>
       </c>
       <c r="B227" t="n">
-        <v>1836071</v>
+        <v>1842860</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>8469</v>
+        <v>8503</v>
       </c>
       <c r="F227" t="n">
-        <v>6931</v>
+        <v>6967</v>
       </c>
       <c r="G227" t="n">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>44078</v>
       </c>
       <c r="B228" t="n">
-        <v>1844205</v>
+        <v>1851025</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8134</v>
+        <v>8165</v>
       </c>
       <c r="F228" t="n">
-        <v>6600</v>
+        <v>6632</v>
       </c>
       <c r="G228" t="n">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>44079</v>
       </c>
       <c r="B229" t="n">
-        <v>1852013</v>
+        <v>1858860</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>7808</v>
+        <v>7835</v>
       </c>
       <c r="F229" t="n">
-        <v>6278</v>
+        <v>6306</v>
       </c>
       <c r="G229" t="n">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>44080</v>
       </c>
       <c r="B230" t="n">
-        <v>1859505</v>
+        <v>1866375</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>7492</v>
+        <v>7515</v>
       </c>
       <c r="F230" t="n">
-        <v>5964</v>
+        <v>5989</v>
       </c>
       <c r="G230" t="n">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>44081</v>
       </c>
       <c r="B231" t="n">
-        <v>1866689</v>
+        <v>1873579</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>7184</v>
+        <v>7204</v>
       </c>
       <c r="F231" t="n">
-        <v>5659</v>
+        <v>5681</v>
       </c>
       <c r="G231" t="n">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>44082</v>
       </c>
       <c r="B232" t="n">
-        <v>1873574</v>
+        <v>1880481</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>6885</v>
+        <v>6902</v>
       </c>
       <c r="F232" t="n">
-        <v>5364</v>
+        <v>5382</v>
       </c>
       <c r="G232" t="n">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>44083</v>
       </c>
       <c r="B233" t="n">
-        <v>1880168</v>
+        <v>1887090</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>6594</v>
+        <v>6609</v>
       </c>
       <c r="F233" t="n">
-        <v>5077</v>
+        <v>5093</v>
       </c>
       <c r="G233" t="n">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>44084</v>
       </c>
       <c r="B234" t="n">
-        <v>1886481</v>
+        <v>1893415</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>6313</v>
+        <v>6325</v>
       </c>
       <c r="F234" t="n">
-        <v>4799</v>
+        <v>4812</v>
       </c>
       <c r="G234" t="n">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>44085</v>
       </c>
       <c r="B235" t="n">
-        <v>1892522</v>
+        <v>1899465</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>6041</v>
+        <v>6050</v>
       </c>
       <c r="F235" t="n">
-        <v>4530</v>
+        <v>4541</v>
       </c>
       <c r="G235" t="n">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>44086</v>
       </c>
       <c r="B236" t="n">
-        <v>1898300</v>
+        <v>1905250</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>5778</v>
+        <v>5785</v>
       </c>
       <c r="F236" t="n">
-        <v>4270</v>
+        <v>4278</v>
       </c>
       <c r="G236" t="n">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>44087</v>
       </c>
       <c r="B237" t="n">
-        <v>1903823</v>
+        <v>1910778</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>5523</v>
+        <v>5528</v>
       </c>
       <c r="F237" t="n">
-        <v>4019</v>
+        <v>4025</v>
       </c>
       <c r="G237" t="n">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>44088</v>
       </c>
       <c r="B238" t="n">
-        <v>1909100</v>
+        <v>1916058</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -7277,13 +7277,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>5277</v>
+        <v>5280</v>
       </c>
       <c r="F238" t="n">
-        <v>3776</v>
+        <v>3780</v>
       </c>
       <c r="G238" t="n">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>44089</v>
       </c>
       <c r="B239" t="n">
-        <v>1914140</v>
+        <v>1921098</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7309,10 +7309,10 @@
         <v>5040</v>
       </c>
       <c r="F239" t="n">
-        <v>3541</v>
+        <v>3543</v>
       </c>
       <c r="G239" t="n">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>44090</v>
       </c>
       <c r="B240" t="n">
-        <v>1918951</v>
+        <v>1925907</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>4811</v>
+        <v>4809</v>
       </c>
       <c r="F240" t="n">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="G240" t="n">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>44091</v>
       </c>
       <c r="B241" t="n">
-        <v>1923541</v>
+        <v>1930494</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>4590</v>
+        <v>4587</v>
       </c>
       <c r="F241" t="n">
-        <v>3098</v>
+        <v>3096</v>
       </c>
       <c r="G241" t="n">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>44092</v>
       </c>
       <c r="B242" t="n">
-        <v>1927918</v>
+        <v>1934867</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>4377</v>
+        <v>4373</v>
       </c>
       <c r="F242" t="n">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="G242" t="n">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>44093</v>
       </c>
       <c r="B243" t="n">
-        <v>1932090</v>
+        <v>1939033</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4172</v>
+        <v>4166</v>
       </c>
       <c r="F243" t="n">
-        <v>2686</v>
+        <v>2682</v>
       </c>
       <c r="G243" t="n">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>44094</v>
       </c>
       <c r="B244" t="n">
-        <v>1936065</v>
+        <v>1943001</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>3975</v>
+        <v>3968</v>
       </c>
       <c r="F244" t="n">
-        <v>2492</v>
+        <v>2487</v>
       </c>
       <c r="G244" t="n">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>44095</v>
       </c>
       <c r="B245" t="n">
-        <v>1939851</v>
+        <v>1946779</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>3786</v>
+        <v>3778</v>
       </c>
       <c r="F245" t="n">
-        <v>2306</v>
+        <v>2299</v>
       </c>
       <c r="G245" t="n">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>44096</v>
       </c>
       <c r="B246" t="n">
-        <v>1943455</v>
+        <v>1950374</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>3604</v>
+        <v>3595</v>
       </c>
       <c r="F246" t="n">
-        <v>2127</v>
+        <v>2119</v>
       </c>
       <c r="G246" t="n">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>44097</v>
       </c>
       <c r="B247" t="n">
-        <v>1946884</v>
+        <v>1953793</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>3429</v>
+        <v>3419</v>
       </c>
       <c r="F247" t="n">
-        <v>1956</v>
+        <v>1947</v>
       </c>
       <c r="G247" t="n">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>44098</v>
       </c>
       <c r="B248" t="n">
-        <v>1950146</v>
+        <v>1957043</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7567,13 +7567,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>3262</v>
+        <v>3250</v>
       </c>
       <c r="F248" t="n">
-        <v>1791</v>
+        <v>1781</v>
       </c>
       <c r="G248" t="n">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>44099</v>
       </c>
       <c r="B249" t="n">
-        <v>1953247</v>
+        <v>1960132</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>3101</v>
+        <v>3089</v>
       </c>
       <c r="F249" t="n">
-        <v>1633</v>
+        <v>1623</v>
       </c>
       <c r="G249" t="n">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>44100</v>
       </c>
       <c r="B250" t="n">
-        <v>1956194</v>
+        <v>1963066</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>2947</v>
+        <v>2934</v>
       </c>
       <c r="F250" t="n">
-        <v>1482</v>
+        <v>1471</v>
       </c>
       <c r="G250" t="n">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>44101</v>
       </c>
       <c r="B251" t="n">
-        <v>1958993</v>
+        <v>1965852</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2799</v>
+        <v>2786</v>
       </c>
       <c r="F251" t="n">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="G251" t="n">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -7672,7 +7672,7 @@
         <v>44102</v>
       </c>
       <c r="B252" t="n">
-        <v>1961651</v>
+        <v>1968497</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7683,13 +7683,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>2658</v>
+        <v>2645</v>
       </c>
       <c r="F252" t="n">
-        <v>1200</v>
+        <v>1187</v>
       </c>
       <c r="G252" t="n">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>44103</v>
       </c>
       <c r="B253" t="n">
-        <v>1964174</v>
+        <v>1971006</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7712,13 +7712,13 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>2523</v>
+        <v>2509</v>
       </c>
       <c r="F253" t="n">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="G253" t="n">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>44104</v>
       </c>
       <c r="B254" t="n">
-        <v>1966568</v>
+        <v>1973386</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7741,13 +7741,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>2394</v>
+        <v>2380</v>
       </c>
       <c r="F254" t="n">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="G254" t="n">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>44105</v>
       </c>
       <c r="B255" t="n">
-        <v>1968839</v>
+        <v>1975642</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7770,13 +7770,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>2271</v>
+        <v>2256</v>
       </c>
       <c r="F255" t="n">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="G255" t="n">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -7788,7 +7788,7 @@
         <v>44106</v>
       </c>
       <c r="B256" t="n">
-        <v>1970992</v>
+        <v>1977780</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7799,13 +7799,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>2153</v>
+        <v>2138</v>
       </c>
       <c r="F256" t="n">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="G256" t="n">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>44107</v>
       </c>
       <c r="B257" t="n">
-        <v>1973032</v>
+        <v>1979805</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7828,13 +7828,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="F257" t="n">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="G257" t="n">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="B258" t="n">
-        <v>1974965</v>
+        <v>1981723</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>1933</v>
+        <v>1918</v>
       </c>
       <c r="F258" t="n">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="G258" t="n">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>44109</v>
       </c>
       <c r="B259" t="n">
-        <v>1976796</v>
+        <v>1983538</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7886,13 +7886,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1831</v>
+        <v>1815</v>
       </c>
       <c r="F259" t="n">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G259" t="n">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -7904,7 +7904,7 @@
         <v>44110</v>
       </c>
       <c r="B260" t="n">
-        <v>1978529</v>
+        <v>1985256</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1733</v>
+        <v>1718</v>
       </c>
       <c r="F260" t="n">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="G260" t="n">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>44111</v>
       </c>
       <c r="B261" t="n">
-        <v>1980169</v>
+        <v>1986881</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1640</v>
+        <v>1625</v>
       </c>
       <c r="F261" t="n">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="G261" t="n">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>44112</v>
       </c>
       <c r="B262" t="n">
-        <v>1981721</v>
+        <v>1988417</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7973,13 +7973,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1552</v>
+        <v>1536</v>
       </c>
       <c r="F262" t="n">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G262" t="n">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>44113</v>
       </c>
       <c r="B263" t="n">
-        <v>1983189</v>
+        <v>1989869</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1468</v>
+        <v>1452</v>
       </c>
       <c r="F263" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G263" t="n">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>44114</v>
       </c>
       <c r="B264" t="n">
-        <v>1984576</v>
+        <v>1991241</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>2812</v>
+        <v>2796</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>44115</v>
       </c>
       <c r="B265" t="n">
-        <v>1985887</v>
+        <v>1992537</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1311</v>
+        <v>1296</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>2733</v>
+        <v>2717</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>44116</v>
       </c>
       <c r="B266" t="n">
-        <v>1987126</v>
+        <v>1993761</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -8089,13 +8089,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1239</v>
+        <v>1224</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>2658</v>
+        <v>2642</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>44117</v>
       </c>
       <c r="B267" t="n">
-        <v>1988296</v>
+        <v>1994917</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>2587</v>
+        <v>2571</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>44118</v>
       </c>
       <c r="B268" t="n">
-        <v>1989401</v>
+        <v>1996007</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -8147,13 +8147,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1105</v>
+        <v>1090</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>2519</v>
+        <v>2503</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>44119</v>
       </c>
       <c r="B269" t="n">
-        <v>1990444</v>
+        <v>1997036</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -8176,13 +8176,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="F269" t="n">
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>2454</v>
+        <v>2439</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -8194,7 +8194,7 @@
         <v>44120</v>
       </c>
       <c r="B270" t="n">
-        <v>1991428</v>
+        <v>1998006</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8205,13 +8205,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>2393</v>
+        <v>2378</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>44121</v>
       </c>
       <c r="B271" t="n">
-        <v>1992356</v>
+        <v>1998921</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>2334</v>
+        <v>2320</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>44122</v>
       </c>
       <c r="B272" t="n">
-        <v>1993231</v>
+        <v>1999783</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>2279</v>
+        <v>2264</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>44123</v>
       </c>
       <c r="B273" t="n">
-        <v>1994056</v>
+        <v>2000595</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>2226</v>
+        <v>2212</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>44124</v>
       </c>
       <c r="B274" t="n">
-        <v>1994833</v>
+        <v>2001360</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -8321,16 +8321,16 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>2176</v>
+        <v>2162</v>
       </c>
       <c r="H274" t="n">
-        <v>13282</v>
+        <v>13354</v>
       </c>
       <c r="I274" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44125</v>
       </c>
       <c r="B275" t="n">
-        <v>1995565</v>
+        <v>2002080</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -8355,13 +8355,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>2128</v>
+        <v>2115</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>44126</v>
       </c>
       <c r="B276" t="n">
-        <v>1996255</v>
+        <v>2002758</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -8384,13 +8384,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>2083</v>
+        <v>2070</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -8402,7 +8402,7 @@
         <v>44127</v>
       </c>
       <c r="B277" t="n">
-        <v>1996905</v>
+        <v>2003396</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -8413,13 +8413,13 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>2041</v>
+        <v>2028</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>44128</v>
       </c>
       <c r="B278" t="n">
-        <v>1997517</v>
+        <v>2003996</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -8442,13 +8442,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>2000</v>
+        <v>1987</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>44129</v>
       </c>
       <c r="B279" t="n">
-        <v>1998093</v>
+        <v>2004561</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -8471,13 +8471,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>1961</v>
+        <v>1949</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -8489,7 +8489,7 @@
         <v>44130</v>
       </c>
       <c r="B280" t="n">
-        <v>1998634</v>
+        <v>2005092</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -8500,13 +8500,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>1925</v>
+        <v>1913</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>44131</v>
       </c>
       <c r="B281" t="n">
-        <v>1999143</v>
+        <v>2005591</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>1890</v>
+        <v>1879</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>44132</v>
       </c>
       <c r="B282" t="n">
-        <v>1999622</v>
+        <v>2006060</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -8558,13 +8558,13 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>1857</v>
+        <v>1846</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -8576,7 +8576,7 @@
         <v>44133</v>
       </c>
       <c r="B283" t="n">
-        <v>2000072</v>
+        <v>2006501</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -8587,13 +8587,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>1826</v>
+        <v>1815</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>44134</v>
       </c>
       <c r="B284" t="n">
-        <v>2000495</v>
+        <v>2006915</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -8616,13 +8616,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>1797</v>
+        <v>1786</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>44135</v>
       </c>
       <c r="B285" t="n">
-        <v>2000893</v>
+        <v>2007304</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -8645,13 +8645,13 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>1769</v>
+        <v>1758</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -8663,7 +8663,7 @@
         <v>44136</v>
       </c>
       <c r="B286" t="n">
-        <v>2001266</v>
+        <v>2007669</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8674,13 +8674,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>44137</v>
       </c>
       <c r="B287" t="n">
-        <v>2001617</v>
+        <v>2008012</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -8703,13 +8703,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>44138</v>
       </c>
       <c r="B288" t="n">
-        <v>2001946</v>
+        <v>2008333</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -8732,13 +8732,13 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>44139</v>
       </c>
       <c r="B289" t="n">
-        <v>2002255</v>
+        <v>2008635</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -8761,13 +8761,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>44140</v>
       </c>
       <c r="B290" t="n">
-        <v>2002545</v>
+        <v>2008918</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -8790,13 +8790,13 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -8808,7 +8808,7 @@
         <v>44141</v>
       </c>
       <c r="B291" t="n">
-        <v>2002817</v>
+        <v>2009183</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8819,25 +8819,30 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>8013</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>End 99% on
+06 November 2020</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
         <v>44142</v>
       </c>
       <c r="B292" t="n">
-        <v>2003072</v>
+        <v>2009432</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8848,30 +8853,25 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="H292" t="n">
-        <v>7970</v>
-      </c>
-      <c r="I292" t="inlineStr">
-        <is>
-          <t>End 99% on
-07 November 2020</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
         <v>44143</v>
       </c>
       <c r="B293" t="n">
-        <v>2003311</v>
+        <v>2009665</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8882,13 +8882,13 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>44144</v>
       </c>
       <c r="B294" t="n">
-        <v>2003536</v>
+        <v>2009883</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8911,13 +8911,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>44145</v>
       </c>
       <c r="B295" t="n">
-        <v>2003746</v>
+        <v>2010088</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8940,13 +8940,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -8958,7 +8958,7 @@
         <v>44146</v>
       </c>
       <c r="B296" t="n">
-        <v>2003943</v>
+        <v>2010280</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8969,13 +8969,13 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>1542</v>
+        <v>1535</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>44147</v>
       </c>
       <c r="B297" t="n">
-        <v>2004128</v>
+        <v>2010459</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8998,13 +8998,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>1528</v>
+        <v>1521</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>44148</v>
       </c>
       <c r="B298" t="n">
-        <v>2004301</v>
+        <v>2010627</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -9027,13 +9027,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -9045,7 +9045,7 @@
         <v>44149</v>
       </c>
       <c r="B299" t="n">
-        <v>2004463</v>
+        <v>2010784</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -9056,13 +9056,13 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -9074,7 +9074,7 @@
         <v>44150</v>
       </c>
       <c r="B300" t="n">
-        <v>2004615</v>
+        <v>2010931</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -9085,13 +9085,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>44151</v>
       </c>
       <c r="B301" t="n">
-        <v>2004757</v>
+        <v>2011069</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -9114,13 +9114,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>44152</v>
       </c>
       <c r="B302" t="n">
-        <v>2004890</v>
+        <v>2011198</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>44153</v>
       </c>
       <c r="B303" t="n">
-        <v>2005015</v>
+        <v>2011318</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>44154</v>
       </c>
       <c r="B304" t="n">
-        <v>2005132</v>
+        <v>2011431</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -9201,13 +9201,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>44155</v>
       </c>
       <c r="B305" t="n">
-        <v>2005241</v>
+        <v>2011536</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -9230,13 +9230,13 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>44156</v>
       </c>
       <c r="B306" t="n">
-        <v>2005343</v>
+        <v>2011634</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -9259,13 +9259,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -9277,7 +9277,7 @@
         <v>44157</v>
       </c>
       <c r="B307" t="n">
-        <v>2005438</v>
+        <v>2011726</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -9288,13 +9288,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -9306,7 +9306,7 @@
         <v>44158</v>
       </c>
       <c r="B308" t="n">
-        <v>2005527</v>
+        <v>2011812</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -9317,13 +9317,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>44159</v>
       </c>
       <c r="B309" t="n">
-        <v>2005610</v>
+        <v>2011892</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -9346,13 +9346,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>44160</v>
       </c>
       <c r="B310" t="n">
-        <v>2005688</v>
+        <v>2011967</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -9375,13 +9375,13 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>44161</v>
       </c>
       <c r="B311" t="n">
-        <v>2005761</v>
+        <v>2012037</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>44162</v>
       </c>
       <c r="B312" t="n">
-        <v>2005829</v>
+        <v>2012102</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -9433,13 +9433,13 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>44163</v>
       </c>
       <c r="B313" t="n">
-        <v>2005892</v>
+        <v>2012163</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -9462,13 +9462,13 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>44164</v>
       </c>
       <c r="B314" t="n">
-        <v>2005951</v>
+        <v>2012220</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>44165</v>
       </c>
       <c r="B315" t="n">
-        <v>2006006</v>
+        <v>2012273</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -9520,13 +9520,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9538,7 +9538,7 @@
         <v>44166</v>
       </c>
       <c r="B316" t="n">
-        <v>2006058</v>
+        <v>2012323</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -9549,13 +9549,13 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>44167</v>
       </c>
       <c r="B317" t="n">
-        <v>2006106</v>
+        <v>2012369</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>44168</v>
       </c>
       <c r="B318" t="n">
-        <v>2006151</v>
+        <v>2012412</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>44169</v>
       </c>
       <c r="B319" t="n">
-        <v>2006193</v>
+        <v>2012452</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -9636,13 +9636,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>44170</v>
       </c>
       <c r="B320" t="n">
-        <v>2006232</v>
+        <v>2012489</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -9665,13 +9665,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>44171</v>
       </c>
       <c r="B321" t="n">
-        <v>2006269</v>
+        <v>2012524</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -9694,13 +9694,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>44172</v>
       </c>
       <c r="B322" t="n">
-        <v>2006303</v>
+        <v>2012557</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>44173</v>
       </c>
       <c r="B323" t="n">
-        <v>2006335</v>
+        <v>2012587</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -9752,13 +9752,13 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -9770,7 +9770,7 @@
         <v>44174</v>
       </c>
       <c r="B324" t="n">
-        <v>2006365</v>
+        <v>2012615</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -9781,13 +9781,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>44175</v>
       </c>
       <c r="B325" t="n">
-        <v>2006393</v>
+        <v>2012641</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>44176</v>
       </c>
       <c r="B326" t="n">
-        <v>2006419</v>
+        <v>2012666</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -9839,13 +9839,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>44177</v>
       </c>
       <c r="B327" t="n">
-        <v>2006443</v>
+        <v>2012689</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>44178</v>
       </c>
       <c r="B328" t="n">
-        <v>2006465</v>
+        <v>2012710</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>44179</v>
       </c>
       <c r="B329" t="n">
-        <v>2006486</v>
+        <v>2012730</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9926,13 +9926,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>44180</v>
       </c>
       <c r="B330" t="n">
-        <v>2006505</v>
+        <v>2012748</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9955,13 +9955,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>44181</v>
       </c>
       <c r="B331" t="n">
-        <v>2006523</v>
+        <v>2012765</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>44182</v>
       </c>
       <c r="B332" t="n">
-        <v>2006540</v>
+        <v>2012781</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -10013,13 +10013,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>44183</v>
       </c>
       <c r="B333" t="n">
-        <v>2006556</v>
+        <v>2012796</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -10042,13 +10042,13 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>44184</v>
       </c>
       <c r="B334" t="n">
-        <v>2006571</v>
+        <v>2012810</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>44185</v>
       </c>
       <c r="B335" t="n">
-        <v>2006585</v>
+        <v>2012823</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>44186</v>
       </c>
       <c r="B336" t="n">
-        <v>2006598</v>
+        <v>2012835</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>44187</v>
       </c>
       <c r="B337" t="n">
-        <v>2006610</v>
+        <v>2012846</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>44188</v>
       </c>
       <c r="B338" t="n">
-        <v>2006621</v>
+        <v>2012856</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>44189</v>
       </c>
       <c r="B339" t="n">
-        <v>2006631</v>
+        <v>2012866</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>44190</v>
       </c>
       <c r="B340" t="n">
-        <v>2006641</v>
+        <v>2012875</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -10245,13 +10245,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>44191</v>
       </c>
       <c r="B341" t="n">
-        <v>2006650</v>
+        <v>2012883</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -10274,13 +10274,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>44192</v>
       </c>
       <c r="B342" t="n">
-        <v>2006658</v>
+        <v>2012891</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>44193</v>
       </c>
       <c r="B343" t="n">
-        <v>2006666</v>
+        <v>2012898</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -10332,13 +10332,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>44194</v>
       </c>
       <c r="B344" t="n">
-        <v>2006673</v>
+        <v>2012905</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>44195</v>
       </c>
       <c r="B345" t="n">
-        <v>2006680</v>
+        <v>2012911</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>44196</v>
       </c>
       <c r="B346" t="n">
-        <v>2006686</v>
+        <v>2012917</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>44197</v>
       </c>
       <c r="B347" t="n">
-        <v>2006692</v>
+        <v>2012922</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -10448,13 +10448,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>44198</v>
       </c>
       <c r="B348" t="n">
-        <v>2006697</v>
+        <v>2012927</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -10483,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>44199</v>
       </c>
       <c r="B349" t="n">
-        <v>2006702</v>
+        <v>2012932</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>44200</v>
       </c>
       <c r="B350" t="n">
-        <v>2006707</v>
+        <v>2012936</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>44201</v>
       </c>
       <c r="B351" t="n">
-        <v>2006711</v>
+        <v>2012940</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -10582,7 +10582,7 @@
         <v>44202</v>
       </c>
       <c r="B352" t="n">
-        <v>2006715</v>
+        <v>2012944</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>44203</v>
       </c>
       <c r="B353" t="n">
-        <v>2006719</v>
+        <v>2012947</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -10622,13 +10622,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>44204</v>
       </c>
       <c r="B354" t="n">
-        <v>2006722</v>
+        <v>2012950</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -10657,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>44205</v>
       </c>
       <c r="B355" t="n">
-        <v>2006725</v>
+        <v>2012953</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>44206</v>
       </c>
       <c r="B356" t="n">
-        <v>2006728</v>
+        <v>2012956</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>44207</v>
       </c>
       <c r="B357" t="n">
-        <v>2006731</v>
+        <v>2012959</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>44208</v>
       </c>
       <c r="B358" t="n">
-        <v>2006734</v>
+        <v>2012961</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -10767,13 +10767,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>44209</v>
       </c>
       <c r="B359" t="n">
-        <v>2006736</v>
+        <v>2012963</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>44210</v>
       </c>
       <c r="B360" t="n">
-        <v>2006738</v>
+        <v>2012965</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>44211</v>
       </c>
       <c r="B361" t="n">
-        <v>2006740</v>
+        <v>2012967</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -10860,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>44212</v>
       </c>
       <c r="B362" t="n">
-        <v>2006742</v>
+        <v>2012969</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>44213</v>
       </c>
       <c r="B363" t="n">
-        <v>2006744</v>
+        <v>2012971</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>44214</v>
       </c>
       <c r="B364" t="n">
-        <v>2006746</v>
+        <v>2012973</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>44215</v>
       </c>
       <c r="B365" t="n">
-        <v>2006748</v>
+        <v>2012974</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -10970,13 +10970,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>44216</v>
       </c>
       <c r="B366" t="n">
-        <v>2006749</v>
+        <v>2012975</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -11005,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>44217</v>
       </c>
       <c r="B367" t="n">
-        <v>2006750</v>
+        <v>2012976</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -11034,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -11046,7 +11046,7 @@
         <v>44218</v>
       </c>
       <c r="B368" t="n">
-        <v>2006751</v>
+        <v>2012977</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>44219</v>
       </c>
       <c r="B369" t="n">
-        <v>2006752</v>
+        <v>2012978</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>44220</v>
       </c>
       <c r="B370" t="n">
-        <v>2006753</v>
+        <v>2012979</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>44221</v>
       </c>
       <c r="B371" t="n">
-        <v>2006754</v>
+        <v>2012980</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>44222</v>
       </c>
       <c r="B372" t="n">
-        <v>2006755</v>
+        <v>2012981</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -11179,7 +11179,7 @@
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -11191,7 +11191,7 @@
         <v>44223</v>
       </c>
       <c r="B373" t="n">
-        <v>2006756</v>
+        <v>2012982</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>44224</v>
       </c>
       <c r="B374" t="n">
-        <v>2006757</v>
+        <v>2012983</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -11237,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -11249,7 +11249,7 @@
         <v>44225</v>
       </c>
       <c r="B375" t="n">
-        <v>2006758</v>
+        <v>2012984</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -11266,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -11278,7 +11278,7 @@
         <v>44226</v>
       </c>
       <c r="B376" t="n">
-        <v>2006759</v>
+        <v>2012985</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>44227</v>
       </c>
       <c r="B377" t="n">
-        <v>2006760</v>
+        <v>2012986</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>44228</v>
       </c>
       <c r="B378" t="n">
-        <v>2006761</v>
+        <v>2012987</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>44229</v>
       </c>
       <c r="B379" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -11376,25 +11376,30 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>13354</v>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>No new cases on
+02 February 2021</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
         <v>44230</v>
       </c>
       <c r="B380" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -11411,24 +11416,19 @@
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="H380" t="n">
-        <v>13282</v>
-      </c>
-      <c r="I380" t="inlineStr">
-        <is>
-          <t>No new cases on
-03 February 2021</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
         <v>44231</v>
       </c>
       <c r="B381" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -11445,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>44232</v>
       </c>
       <c r="B382" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -11474,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -11486,7 +11486,7 @@
         <v>44233</v>
       </c>
       <c r="B383" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -11503,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>44234</v>
       </c>
       <c r="B384" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -11532,7 +11532,7 @@
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -11544,7 +11544,7 @@
         <v>44235</v>
       </c>
       <c r="B385" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -11561,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -11573,7 +11573,7 @@
         <v>44236</v>
       </c>
       <c r="B386" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>44237</v>
       </c>
       <c r="B387" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -11619,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -11631,7 +11631,7 @@
         <v>44238</v>
       </c>
       <c r="B388" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -11660,7 +11660,7 @@
         <v>44239</v>
       </c>
       <c r="B389" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -11677,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -11689,7 +11689,7 @@
         <v>44240</v>
       </c>
       <c r="B390" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -11718,7 +11718,7 @@
         <v>44241</v>
       </c>
       <c r="B391" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>44242</v>
       </c>
       <c r="B392" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -11764,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>44243</v>
       </c>
       <c r="B393" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         <v>44244</v>
       </c>
       <c r="B394" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -11834,7 +11834,7 @@
         <v>44245</v>
       </c>
       <c r="B395" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H395" t="n">
         <v>0</v>
@@ -11863,7 +11863,7 @@
         <v>44246</v>
       </c>
       <c r="B396" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -11880,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H396" t="n">
         <v>0</v>
@@ -11892,7 +11892,7 @@
         <v>44247</v>
       </c>
       <c r="B397" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         <v>44248</v>
       </c>
       <c r="B398" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -11938,7 +11938,7 @@
         <v>0</v>
       </c>
       <c r="G398" t="n">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H398" t="n">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>44249</v>
       </c>
       <c r="B399" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -11967,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -11979,7 +11979,7 @@
         <v>44250</v>
       </c>
       <c r="B400" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -11996,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H400" t="n">
         <v>0</v>
@@ -12008,7 +12008,7 @@
         <v>44251</v>
       </c>
       <c r="B401" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -12025,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H401" t="n">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>44252</v>
       </c>
       <c r="B402" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -12066,7 +12066,7 @@
         <v>44253</v>
       </c>
       <c r="B403" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -12095,7 +12095,7 @@
         <v>44254</v>
       </c>
       <c r="B404" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>44255</v>
       </c>
       <c r="B405" t="n">
-        <v>2006762</v>
+        <v>2012987</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -12141,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>

--- a/Predictions.xlsx
+++ b/Predictions.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I405"/>
+  <dimension ref="A1:I377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>512</v>
+        <v>436</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>595</v>
+        <v>510</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>689</v>
+        <v>594</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>794</v>
+        <v>689</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>912</v>
+        <v>796</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1042</v>
+        <v>915</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1187</v>
+        <v>1048</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1347</v>
+        <v>1196</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1523</v>
+        <v>1359</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1715</v>
+        <v>1539</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1925</v>
+        <v>1736</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2153</v>
+        <v>1951</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2401</v>
+        <v>2185</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2667</v>
+        <v>2439</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2954</v>
+        <v>2713</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3262</v>
+        <v>3009</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3590</v>
+        <v>3326</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>3939</v>
+        <v>3664</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>4310</v>
+        <v>4025</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>4701</v>
+        <v>4408</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>5114</v>
+        <v>4813</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>5548</v>
+        <v>5240</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6002</v>
+        <v>5689</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6476</v>
+        <v>6159</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6969</v>
+        <v>6650</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>7480</v>
+        <v>7160</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>8009</v>
+        <v>7690</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>8554</v>
+        <v>8239</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9114</v>
+        <v>8804</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>9688</v>
+        <v>9384</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>10274</v>
+        <v>9979</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>10871</v>
+        <v>10587</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>11477</v>
+        <v>11206</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>12090</v>
+        <v>11834</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>12709</v>
+        <v>12469</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>13332</v>
+        <v>13110</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>13956</v>
+        <v>13754</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14580</v>
+        <v>14399</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>15202</v>
+        <v>15044</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>15820</v>
+        <v>15686</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16431</v>
+        <v>16323</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>17034</v>
+        <v>16952</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17627</v>
+        <v>17572</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>18207</v>
+        <v>18181</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>18773</v>
+        <v>18776</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>19323</v>
+        <v>19356</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>19856</v>
+        <v>19918</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>20369</v>
+        <v>20460</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>20860</v>
+        <v>20982</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21330</v>
+        <v>21480</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>21775</v>
+        <v>21954</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>22194</v>
+        <v>22402</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22588</v>
+        <v>22823</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>22953</v>
+        <v>23216</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>23290</v>
+        <v>23579</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -5294,24 +5294,24 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>766015</v>
+        <v>767296</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>24879</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>23598</v>
+        <v>23911</v>
       </c>
       <c r="F170" t="n">
-        <v>21820</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>3556</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>789891</v>
+        <v>791508</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>23876</v>
+        <v>24212</v>
       </c>
       <c r="F171" t="n">
-        <v>22103</v>
+        <v>22445</v>
       </c>
       <c r="G171" t="n">
-        <v>3545</v>
+        <v>3534</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>814014</v>
+        <v>815989</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>24123</v>
+        <v>24481</v>
       </c>
       <c r="F172" t="n">
-        <v>22355</v>
+        <v>22719</v>
       </c>
       <c r="G172" t="n">
-        <v>3535</v>
+        <v>3524</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>838353</v>
+        <v>840707</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24339</v>
+        <v>24718</v>
       </c>
       <c r="F173" t="n">
-        <v>22577</v>
+        <v>22961</v>
       </c>
       <c r="G173" t="n">
-        <v>3524</v>
+        <v>3513</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>862877</v>
+        <v>865628</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>24524</v>
+        <v>24921</v>
       </c>
       <c r="F174" t="n">
-        <v>22767</v>
+        <v>23170</v>
       </c>
       <c r="G174" t="n">
-        <v>3514</v>
+        <v>3503</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>887554</v>
+        <v>890720</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>24677</v>
+        <v>25092</v>
       </c>
       <c r="F175" t="n">
-        <v>22925</v>
+        <v>23346</v>
       </c>
       <c r="G175" t="n">
-        <v>3504</v>
+        <v>3493</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>912353</v>
+        <v>915950</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>24799</v>
+        <v>25230</v>
       </c>
       <c r="F176" t="n">
-        <v>23052</v>
+        <v>23488</v>
       </c>
       <c r="G176" t="n">
-        <v>3494</v>
+        <v>3483</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>937242</v>
+        <v>941284</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>24889</v>
+        <v>25334</v>
       </c>
       <c r="F177" t="n">
-        <v>23147</v>
+        <v>23597</v>
       </c>
       <c r="G177" t="n">
-        <v>3484</v>
+        <v>3473</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>962190</v>
+        <v>966689</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24948</v>
+        <v>25405</v>
       </c>
       <c r="F178" t="n">
-        <v>23211</v>
+        <v>23674</v>
       </c>
       <c r="G178" t="n">
-        <v>3474</v>
+        <v>3463</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>987167</v>
+        <v>992133</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>24977</v>
+        <v>25444</v>
       </c>
       <c r="F179" t="n">
-        <v>23245</v>
+        <v>23717</v>
       </c>
       <c r="G179" t="n">
-        <v>3464</v>
+        <v>3453</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>1012141</v>
+        <v>1017583</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>24974</v>
+        <v>25450</v>
       </c>
       <c r="F180" t="n">
-        <v>23247</v>
+        <v>23728</v>
       </c>
       <c r="G180" t="n">
-        <v>3454</v>
+        <v>3444</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>1037083</v>
+        <v>1043007</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>24942</v>
+        <v>25424</v>
       </c>
       <c r="F181" t="n">
-        <v>23220</v>
+        <v>23707</v>
       </c>
       <c r="G181" t="n">
-        <v>3445</v>
+        <v>3434</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>1061963</v>
+        <v>1068374</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24880</v>
+        <v>25367</v>
       </c>
       <c r="F182" t="n">
-        <v>23163</v>
+        <v>23655</v>
       </c>
       <c r="G182" t="n">
-        <v>3435</v>
+        <v>3424</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>1086753</v>
+        <v>1093654</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>24790</v>
+        <v>25280</v>
       </c>
       <c r="F183" t="n">
-        <v>23077</v>
+        <v>23573</v>
       </c>
       <c r="G183" t="n">
-        <v>3425</v>
+        <v>3415</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>1111425</v>
+        <v>1118817</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5711,13 +5711,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24672</v>
+        <v>25163</v>
       </c>
       <c r="F184" t="n">
-        <v>22964</v>
+        <v>23460</v>
       </c>
       <c r="G184" t="n">
-        <v>3416</v>
+        <v>3406</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>1135952</v>
+        <v>1143835</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24527</v>
+        <v>25018</v>
       </c>
       <c r="F185" t="n">
-        <v>22823</v>
+        <v>23319</v>
       </c>
       <c r="G185" t="n">
-        <v>3407</v>
+        <v>3396</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>1160307</v>
+        <v>1168679</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24355</v>
+        <v>24844</v>
       </c>
       <c r="F186" t="n">
-        <v>22657</v>
+        <v>23151</v>
       </c>
       <c r="G186" t="n">
-        <v>3397</v>
+        <v>3387</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>1184466</v>
+        <v>1193323</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24159</v>
+        <v>24644</v>
       </c>
       <c r="F187" t="n">
-        <v>22465</v>
+        <v>22955</v>
       </c>
       <c r="G187" t="n">
-        <v>3388</v>
+        <v>3378</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>1208405</v>
+        <v>1217741</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5827,13 +5827,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23939</v>
+        <v>24418</v>
       </c>
       <c r="F188" t="n">
-        <v>22249</v>
+        <v>22734</v>
       </c>
       <c r="G188" t="n">
-        <v>3379</v>
+        <v>3369</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>1232100</v>
+        <v>1241909</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>23695</v>
+        <v>24168</v>
       </c>
       <c r="F189" t="n">
-        <v>22010</v>
+        <v>22488</v>
       </c>
       <c r="G189" t="n">
-        <v>3370</v>
+        <v>3360</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>1255530</v>
+        <v>1265804</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>23430</v>
+        <v>23895</v>
       </c>
       <c r="F190" t="n">
-        <v>21750</v>
+        <v>22220</v>
       </c>
       <c r="G190" t="n">
-        <v>3361</v>
+        <v>3351</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>1278675</v>
+        <v>1289404</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>23145</v>
+        <v>23600</v>
       </c>
       <c r="F191" t="n">
-        <v>21469</v>
+        <v>21929</v>
       </c>
       <c r="G191" t="n">
-        <v>3352</v>
+        <v>3342</v>
       </c>
       <c r="